--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,47 +4,48 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="git" sheetId="31" r:id="rId1"/>
     <sheet name="pc-basics" sheetId="1" r:id="rId2"/>
-    <sheet name="OOPS-Fundamentals" sheetId="2" r:id="rId3"/>
-    <sheet name="variables" sheetId="3" r:id="rId4"/>
-    <sheet name="data-structure" sheetId="4" r:id="rId5"/>
-    <sheet name="methods" sheetId="5" r:id="rId6"/>
-    <sheet name="tech-terms" sheetId="6" r:id="rId7"/>
-    <sheet name="references-latest" sheetId="28" r:id="rId8"/>
-    <sheet name="program-communication" sheetId="29" r:id="rId9"/>
-    <sheet name="method-calls" sheetId="7" r:id="rId10"/>
-    <sheet name="variable-scope" sheetId="8" r:id="rId11"/>
-    <sheet name="references" sheetId="9" r:id="rId12"/>
-    <sheet name="pass-by-value" sheetId="10" r:id="rId13"/>
-    <sheet name="operator" sheetId="11" r:id="rId14"/>
-    <sheet name="control-flow" sheetId="12" r:id="rId15"/>
-    <sheet name="constructor" sheetId="13" r:id="rId16"/>
-    <sheet name="sub-class" sheetId="30" r:id="rId17"/>
-    <sheet name="in-heritance" sheetId="14" r:id="rId18"/>
-    <sheet name="practice" sheetId="15" r:id="rId19"/>
-    <sheet name="interface-abstract" sheetId="16" r:id="rId20"/>
-    <sheet name="inheritance-access-priv-dto" sheetId="17" r:id="rId21"/>
-    <sheet name="poly-final" sheetId="18" r:id="rId22"/>
-    <sheet name="static" sheetId="19" r:id="rId23"/>
-    <sheet name="array" sheetId="20" r:id="rId24"/>
-    <sheet name="String" sheetId="21" r:id="rId25"/>
-    <sheet name="exception_handling" sheetId="22" r:id="rId26"/>
-    <sheet name="threads" sheetId="23" r:id="rId27"/>
-    <sheet name="collection" sheetId="24" r:id="rId28"/>
-    <sheet name="collection2" sheetId="25" r:id="rId29"/>
-    <sheet name="col-unique" sheetId="26" r:id="rId30"/>
-    <sheet name="file" sheetId="27" r:id="rId31"/>
+    <sheet name="var-method" sheetId="32" r:id="rId3"/>
+    <sheet name="OOPS-Fundamentals" sheetId="2" r:id="rId4"/>
+    <sheet name="variables" sheetId="3" r:id="rId5"/>
+    <sheet name="data-structure" sheetId="4" r:id="rId6"/>
+    <sheet name="methods" sheetId="5" r:id="rId7"/>
+    <sheet name="tech-terms" sheetId="6" r:id="rId8"/>
+    <sheet name="references-latest" sheetId="28" r:id="rId9"/>
+    <sheet name="program-communication" sheetId="29" r:id="rId10"/>
+    <sheet name="method-calls" sheetId="7" r:id="rId11"/>
+    <sheet name="variable-scope" sheetId="8" r:id="rId12"/>
+    <sheet name="references" sheetId="9" r:id="rId13"/>
+    <sheet name="pass-by-value" sheetId="10" r:id="rId14"/>
+    <sheet name="operator" sheetId="11" r:id="rId15"/>
+    <sheet name="control-flow" sheetId="12" r:id="rId16"/>
+    <sheet name="constructor" sheetId="13" r:id="rId17"/>
+    <sheet name="sub-class" sheetId="30" r:id="rId18"/>
+    <sheet name="in-heritance" sheetId="14" r:id="rId19"/>
+    <sheet name="practice" sheetId="15" r:id="rId20"/>
+    <sheet name="interface-abstract" sheetId="16" r:id="rId21"/>
+    <sheet name="inheritance-access-priv-dto" sheetId="17" r:id="rId22"/>
+    <sheet name="poly-final" sheetId="18" r:id="rId23"/>
+    <sheet name="static" sheetId="19" r:id="rId24"/>
+    <sheet name="array" sheetId="20" r:id="rId25"/>
+    <sheet name="String" sheetId="21" r:id="rId26"/>
+    <sheet name="exception_handling" sheetId="22" r:id="rId27"/>
+    <sheet name="threads" sheetId="23" r:id="rId28"/>
+    <sheet name="collection" sheetId="24" r:id="rId29"/>
+    <sheet name="collection2" sheetId="25" r:id="rId30"/>
+    <sheet name="col-unique" sheetId="26" r:id="rId31"/>
+    <sheet name="file" sheetId="27" r:id="rId32"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5927" uniqueCount="3145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6033" uniqueCount="3200">
   <si>
     <t>USER</t>
   </si>
@@ -9723,6 +9724,179 @@
   </si>
   <si>
     <t>jre win + compiler</t>
+  </si>
+  <si>
+    <t>x`</t>
+  </si>
+  <si>
+    <t>BANK SOFTWARE</t>
+  </si>
+  <si>
+    <t>Bank Program</t>
+  </si>
+  <si>
+    <t>has-a/ information storage*********** VARIABLES</t>
+  </si>
+  <si>
+    <t>balance/money=1000</t>
+  </si>
+  <si>
+    <t>acctNumber=123456</t>
+  </si>
+  <si>
+    <t>routing number=00.0111222</t>
+  </si>
+  <si>
+    <t>accountActive=false</t>
+  </si>
+  <si>
+    <t>does/action *************** METHODS</t>
+  </si>
+  <si>
+    <t>withdraw = 100</t>
+  </si>
+  <si>
+    <t>money deducts = 1000 - 100 = 900 LOGIC**************** CONTROL FLOWS/OPERATORS</t>
+  </si>
+  <si>
+    <t>deposit = 200</t>
+  </si>
+  <si>
+    <t>money adds = 1000 + 200 =1200</t>
+  </si>
+  <si>
+    <t>public class Bank{</t>
+  </si>
+  <si>
+    <t>long balance=1000</t>
+  </si>
+  <si>
+    <t>String name=john</t>
+  </si>
+  <si>
+    <t>acctNumber=12123</t>
+  </si>
+  <si>
+    <t>routing=123123</t>
+  </si>
+  <si>
+    <t>acctActive=true</t>
+  </si>
+  <si>
+    <t>Withdraw
+take existing balance
+deduct 100 from it
+update latest balance</t>
+  </si>
+  <si>
+    <t>consumes space = in terms of byte/Kb/Mb/Gb</t>
+  </si>
+  <si>
+    <t>numeric data type</t>
+  </si>
+  <si>
+    <t>consume 1 byte of memory</t>
+  </si>
+  <si>
+    <t>consume 2 byte of memory</t>
+  </si>
+  <si>
+    <t>consumer 4 byte of memory</t>
+  </si>
+  <si>
+    <t>consume 8 bytes of memory</t>
+  </si>
+  <si>
+    <t>HOW DOES INFO GETS STORED IN A BYTE NUMERIC DATA TYPE</t>
+  </si>
+  <si>
+    <t>Signed bit</t>
+  </si>
+  <si>
+    <t>0=positive</t>
+  </si>
+  <si>
+    <t>1=negative</t>
+  </si>
+  <si>
+    <t>byte age=35;</t>
+  </si>
+  <si>
+    <t>long balance=1200
+byte age=35 (00100011)
+name=john
+acctNummber=123123
+routing=123123
+actActive=true</t>
+  </si>
+  <si>
+    <t>max 127</t>
+  </si>
+  <si>
+    <t>byte data type consumer 1 BYTE</t>
+  </si>
+  <si>
+    <t>min -128</t>
+  </si>
+  <si>
+    <t>1 BYTE is capable of storing max of 127, min of -128</t>
+  </si>
+  <si>
+    <t>fb = 4 billion customer</t>
+  </si>
+  <si>
+    <t>long age;</t>
+  </si>
+  <si>
+    <t>8 bytes X 4 billion= 32 Billion Bytes</t>
+  </si>
+  <si>
+    <t>15 bit</t>
+  </si>
+  <si>
+    <t>14 bt</t>
+  </si>
+  <si>
+    <t>short = 2 bytes… 2 X 8 bits= 16 bits</t>
+  </si>
+  <si>
+    <t>2^9</t>
+  </si>
+  <si>
+    <t>2^10</t>
+  </si>
+  <si>
+    <t>2^8</t>
+  </si>
+  <si>
+    <t>32767 max</t>
+  </si>
+  <si>
+    <t>-32768 mn</t>
+  </si>
+  <si>
+    <t>max 32k min -32k</t>
+  </si>
+  <si>
+    <t>max 2 billion min -2bill</t>
+  </si>
+  <si>
+    <t>trillions</t>
+  </si>
+  <si>
+    <t>byte month;</t>
+  </si>
+  <si>
+    <t>short birthYear;</t>
+  </si>
+  <si>
+    <t>byte age;</t>
+  </si>
+  <si>
+    <t>1 byte X 4 billion = 4 billion bytes</t>
+  </si>
+  <si>
+    <t>xxxxx</t>
   </si>
 </sst>
 </file>
@@ -9853,7 +10027,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9986,8 +10160,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -10351,6 +10531,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10359,7 +10561,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="403">
+  <cellXfs count="425">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11025,6 +11227,39 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11179,36 +11414,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12116,6 +12384,371 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:13">
+      <c r="B2" s="390" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C2" s="391"/>
+      <c r="D2" s="392"/>
+      <c r="F2" s="390" t="s">
+        <v>2791</v>
+      </c>
+      <c r="G2" s="391"/>
+      <c r="H2" s="391"/>
+      <c r="I2" s="392"/>
+      <c r="K2" s="390" t="s">
+        <v>2793</v>
+      </c>
+      <c r="L2" s="391"/>
+      <c r="M2" s="392"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3" s="393"/>
+      <c r="C3" s="394"/>
+      <c r="D3" s="395"/>
+      <c r="F3" s="393"/>
+      <c r="G3" s="394"/>
+      <c r="H3" s="394"/>
+      <c r="I3" s="395"/>
+      <c r="K3" s="393"/>
+      <c r="L3" s="394"/>
+      <c r="M3" s="395"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" s="393"/>
+      <c r="C4" s="394"/>
+      <c r="D4" s="395"/>
+      <c r="F4" s="393"/>
+      <c r="G4" s="394"/>
+      <c r="H4" s="394"/>
+      <c r="I4" s="395"/>
+      <c r="K4" s="393"/>
+      <c r="L4" s="394"/>
+      <c r="M4" s="395"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="396" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="34">
+        <v>100000</v>
+      </c>
+      <c r="F5" s="73"/>
+      <c r="G5" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="I5" s="34"/>
+      <c r="K5" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="M5" s="34"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="396"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="F6" s="73"/>
+      <c r="G6" s="32" t="s">
+        <v>2762</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>2792</v>
+      </c>
+      <c r="I6" s="34"/>
+      <c r="K6" s="73" t="s">
+        <v>2762</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>2794</v>
+      </c>
+      <c r="M6" s="34"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="396"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="32" t="s">
+        <v>2795</v>
+      </c>
+      <c r="D7" s="34">
+        <v>750</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="27"/>
+      <c r="K7" s="73" t="s">
+        <v>2804</v>
+      </c>
+      <c r="L7" s="32">
+        <v>50000</v>
+      </c>
+      <c r="M7" s="34"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="26"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="27"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="27"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="27"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="396" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="289" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C9" s="134"/>
+      <c r="D9" s="236"/>
+      <c r="F9" s="289" t="s">
+        <v>2798</v>
+      </c>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="236"/>
+      <c r="K9" s="289" t="s">
+        <v>2797</v>
+      </c>
+      <c r="L9" s="134"/>
+      <c r="M9" s="236"/>
+    </row>
+    <row r="10" spans="1:13" ht="30.75" customHeight="1">
+      <c r="A10" s="396"/>
+      <c r="B10" s="289"/>
+      <c r="C10" s="290" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D10" s="236"/>
+      <c r="E10" t="s">
+        <v>2802</v>
+      </c>
+      <c r="F10" s="289"/>
+      <c r="G10" s="134" t="s">
+        <v>2803</v>
+      </c>
+      <c r="H10" s="236"/>
+      <c r="I10" s="236"/>
+      <c r="K10" s="289"/>
+      <c r="L10" s="134" t="s">
+        <v>2796</v>
+      </c>
+      <c r="M10" s="236"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="396"/>
+      <c r="B11" s="289"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="236"/>
+      <c r="F11" s="289"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="236" t="s">
+        <v>2799</v>
+      </c>
+      <c r="I11" s="236"/>
+      <c r="J11" t="s">
+        <v>2801</v>
+      </c>
+      <c r="K11" s="289"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="236" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="396"/>
+      <c r="B12" s="289"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="236"/>
+      <c r="F12" s="289"/>
+      <c r="G12" s="134" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="236"/>
+      <c r="I12" s="236"/>
+      <c r="K12" s="289"/>
+      <c r="L12" s="134" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" s="236"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="26"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="27"/>
+      <c r="F13" s="289"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="236" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I13" s="236"/>
+      <c r="K13" s="289"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="236" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="80"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" t="s">
+        <v>2807</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2811</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="H19" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>2808</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" t="s">
+        <v>2809</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1">
+      <c r="D24" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="36"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="27"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B27" s="36"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="27"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B28" s="36"/>
+      <c r="D28" s="291"/>
+      <c r="E28" s="292"/>
+      <c r="F28" s="293"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B29" s="36"/>
+      <c r="D29" s="291"/>
+      <c r="E29" s="292"/>
+      <c r="F29" s="293"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B30" s="36"/>
+      <c r="D30" s="291"/>
+      <c r="E30" s="292"/>
+      <c r="F30" s="293"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="36"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="D32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="F2:I4"/>
+    <mergeCell ref="K2:M4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A9:A12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R411"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -12137,23 +12770,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="382" t="s">
+      <c r="A1" s="397" t="s">
         <v>2416</v>
       </c>
-      <c r="B1" s="382"/>
-      <c r="C1" s="382"/>
-      <c r="D1" s="382"/>
-      <c r="E1" s="382"/>
-      <c r="F1" s="382"/>
-      <c r="I1" s="382" t="s">
+      <c r="B1" s="397"/>
+      <c r="C1" s="397"/>
+      <c r="D1" s="397"/>
+      <c r="E1" s="397"/>
+      <c r="F1" s="397"/>
+      <c r="I1" s="397" t="s">
         <v>2428</v>
       </c>
-      <c r="J1" s="382"/>
-      <c r="K1" s="382"/>
-      <c r="L1" s="382"/>
-      <c r="M1" s="382"/>
-      <c r="N1" s="382"/>
-      <c r="O1" s="382"/>
+      <c r="J1" s="397"/>
+      <c r="K1" s="397"/>
+      <c r="L1" s="397"/>
+      <c r="M1" s="397"/>
+      <c r="N1" s="397"/>
+      <c r="O1" s="397"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -12309,28 +12942,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="361" t="s">
+      <c r="A12" s="376" t="s">
         <v>2430</v>
       </c>
-      <c r="B12" s="363"/>
-      <c r="C12" s="363"/>
-      <c r="D12" s="363"/>
-      <c r="E12" s="363"/>
-      <c r="F12" s="363"/>
-      <c r="G12" s="363"/>
-      <c r="H12" s="362"/>
-      <c r="I12" s="361" t="s">
+      <c r="B12" s="378"/>
+      <c r="C12" s="378"/>
+      <c r="D12" s="378"/>
+      <c r="E12" s="378"/>
+      <c r="F12" s="378"/>
+      <c r="G12" s="378"/>
+      <c r="H12" s="377"/>
+      <c r="I12" s="376" t="s">
         <v>2430</v>
       </c>
-      <c r="J12" s="363"/>
-      <c r="K12" s="363"/>
-      <c r="L12" s="363"/>
-      <c r="M12" s="363"/>
-      <c r="N12" s="363"/>
-      <c r="O12" s="363"/>
-      <c r="P12" s="363"/>
-      <c r="Q12" s="363"/>
-      <c r="R12" s="362"/>
+      <c r="J12" s="378"/>
+      <c r="K12" s="378"/>
+      <c r="L12" s="378"/>
+      <c r="M12" s="378"/>
+      <c r="N12" s="378"/>
+      <c r="O12" s="378"/>
+      <c r="P12" s="378"/>
+      <c r="Q12" s="378"/>
+      <c r="R12" s="377"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="23" t="s">
@@ -12558,14 +13191,14 @@
       <c r="R21" s="30"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="382" t="s">
+      <c r="A24" s="397" t="s">
         <v>2416</v>
       </c>
-      <c r="B24" s="382"/>
-      <c r="C24" s="382"/>
-      <c r="D24" s="382"/>
-      <c r="E24" s="382"/>
-      <c r="F24" s="382"/>
+      <c r="B24" s="397"/>
+      <c r="C24" s="397"/>
+      <c r="D24" s="397"/>
+      <c r="E24" s="397"/>
+      <c r="F24" s="397"/>
       <c r="H24" s="245" t="s">
         <v>2428</v>
       </c>
@@ -12575,11 +13208,11 @@
       <c r="L24" s="245"/>
       <c r="M24" s="245"/>
       <c r="N24" s="245"/>
-      <c r="P24" s="382" t="s">
+      <c r="P24" s="397" t="s">
         <v>2469</v>
       </c>
-      <c r="Q24" s="382"/>
-      <c r="R24" s="382"/>
+      <c r="Q24" s="397"/>
+      <c r="R24" s="397"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="99" t="s">
@@ -12819,28 +13452,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="361" t="s">
+      <c r="A35" s="376" t="s">
         <v>2470</v>
       </c>
-      <c r="B35" s="363"/>
-      <c r="C35" s="363"/>
-      <c r="D35" s="363"/>
-      <c r="E35" s="363"/>
-      <c r="F35" s="363"/>
-      <c r="G35" s="363"/>
-      <c r="H35" s="362"/>
-      <c r="I35" s="361" t="s">
+      <c r="B35" s="378"/>
+      <c r="C35" s="378"/>
+      <c r="D35" s="378"/>
+      <c r="E35" s="378"/>
+      <c r="F35" s="378"/>
+      <c r="G35" s="378"/>
+      <c r="H35" s="377"/>
+      <c r="I35" s="376" t="s">
         <v>1049</v>
       </c>
-      <c r="J35" s="363"/>
-      <c r="K35" s="363"/>
-      <c r="L35" s="363"/>
-      <c r="M35" s="363"/>
-      <c r="N35" s="363"/>
-      <c r="O35" s="363"/>
-      <c r="P35" s="363"/>
-      <c r="Q35" s="363"/>
-      <c r="R35" s="362"/>
+      <c r="J35" s="378"/>
+      <c r="K35" s="378"/>
+      <c r="L35" s="378"/>
+      <c r="M35" s="378"/>
+      <c r="N35" s="378"/>
+      <c r="O35" s="378"/>
+      <c r="P35" s="378"/>
+      <c r="Q35" s="378"/>
+      <c r="R35" s="377"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="23" t="s">
@@ -16383,7 +17016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:H121"/>
   <sheetViews>
@@ -16816,7 +17449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T200"/>
   <sheetViews>
@@ -19360,7 +19993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P157"/>
   <sheetViews>
@@ -21398,7 +22031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:C67"/>
   <sheetViews>
@@ -21661,7 +22294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O187"/>
   <sheetViews>
@@ -23028,7 +23661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N229"/>
   <sheetViews>
@@ -23661,7 +24294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N28"/>
   <sheetViews>
@@ -23889,7 +24522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:V272"/>
   <sheetViews>
@@ -25572,82 +26205,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E3:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="3" spans="5:5">
-      <c r="E3" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5">
-      <c r="E5" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="6" spans="5:5">
-      <c r="E6" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="7" spans="5:5">
-      <c r="E7" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="8" spans="5:5">
-      <c r="E8" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="9" spans="5:5">
-      <c r="E9" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="11" spans="5:5">
-      <c r="E11" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="12" spans="5:5">
-      <c r="E12" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="13" spans="5:5">
-      <c r="E13" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="14" spans="5:5">
-      <c r="E14" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="15" spans="5:5">
-      <c r="E15" t="s">
-        <v>797</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC51" sqref="AC51:AC55"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37:O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25680,7 +26243,7 @@
       <c r="L1" s="118"/>
       <c r="M1" s="118"/>
       <c r="N1" s="118"/>
-      <c r="O1" s="350" t="s">
+      <c r="O1" s="365" t="s">
         <v>3128</v>
       </c>
       <c r="R1" s="39">
@@ -25699,29 +26262,29 @@
       <c r="L2" s="118"/>
       <c r="M2" s="118"/>
       <c r="N2" s="118"/>
-      <c r="O2" s="350"/>
+      <c r="O2" s="365"/>
     </row>
     <row r="3" spans="1:46" ht="15.75" thickBot="1">
-      <c r="H3" s="358" t="s">
+      <c r="H3" s="373" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="359"/>
-      <c r="J3" s="359"/>
-      <c r="K3" s="359"/>
-      <c r="L3" s="360"/>
-      <c r="O3" s="350"/>
+      <c r="I3" s="374"/>
+      <c r="J3" s="374"/>
+      <c r="K3" s="374"/>
+      <c r="L3" s="375"/>
+      <c r="O3" s="365"/>
       <c r="P3" t="s">
         <v>1501</v>
       </c>
     </row>
     <row r="4" spans="1:46" ht="15.75" thickBot="1">
-      <c r="O4" s="350"/>
+      <c r="O4" s="365"/>
       <c r="P4" t="s">
         <v>3130</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D5" s="351" t="s">
+      <c r="D5" s="366" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
@@ -25738,35 +26301,35 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="350"/>
+      <c r="O5" s="365"/>
       <c r="P5" t="s">
         <v>3131</v>
       </c>
     </row>
     <row r="6" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D6" s="351"/>
+      <c r="D6" s="366"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="361" t="s">
+      <c r="G6" s="376" t="s">
         <v>1507</v>
       </c>
-      <c r="H6" s="362"/>
+      <c r="H6" s="377"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="361" t="s">
+      <c r="J6" s="376" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="362"/>
+      <c r="K6" s="377"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="361" t="s">
+      <c r="M6" s="376" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="363"/>
-      <c r="O6" s="350"/>
+      <c r="N6" s="378"/>
+      <c r="O6" s="365"/>
       <c r="P6" t="s">
         <v>3113</v>
       </c>
     </row>
     <row r="7" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D7" s="351"/>
+      <c r="D7" s="366"/>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -25776,7 +26339,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="350"/>
+      <c r="O7" s="365"/>
       <c r="AC7" s="114" t="s">
         <v>3081</v>
       </c>
@@ -25803,23 +26366,23 @@
       <c r="AT7" s="115"/>
     </row>
     <row r="8" spans="1:46">
-      <c r="D8" s="351"/>
+      <c r="D8" s="366"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="364" t="s">
+      <c r="G8" s="379" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="365"/>
+      <c r="H8" s="380"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="364" t="s">
+      <c r="J8" s="379" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="365"/>
+      <c r="K8" s="380"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="364" t="s">
+      <c r="M8" s="379" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="366"/>
-      <c r="O8" s="350"/>
+      <c r="N8" s="381"/>
+      <c r="O8" s="365"/>
       <c r="Q8" s="133"/>
       <c r="S8" t="s">
         <v>3072</v>
@@ -25846,7 +26409,7 @@
       <c r="AT8" s="69"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="D9" s="351"/>
+      <c r="D9" s="366"/>
       <c r="F9" s="3"/>
       <c r="G9" s="231"/>
       <c r="H9" s="231"/>
@@ -25856,7 +26419,7 @@
       <c r="L9" s="230"/>
       <c r="M9" s="231"/>
       <c r="N9" s="231"/>
-      <c r="O9" s="350"/>
+      <c r="O9" s="365"/>
       <c r="Q9" s="133"/>
       <c r="S9" t="s">
         <v>3065</v>
@@ -25893,19 +26456,19 @@
       <c r="AT9" s="69"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="D10" s="351"/>
-      <c r="F10" s="354" t="s">
+      <c r="D10" s="366"/>
+      <c r="F10" s="369" t="s">
         <v>2324</v>
       </c>
-      <c r="G10" s="355"/>
-      <c r="H10" s="355"/>
-      <c r="I10" s="355"/>
-      <c r="J10" s="355"/>
-      <c r="K10" s="355"/>
-      <c r="L10" s="355"/>
-      <c r="M10" s="355"/>
-      <c r="N10" s="355"/>
-      <c r="O10" s="349" t="s">
+      <c r="G10" s="370"/>
+      <c r="H10" s="370"/>
+      <c r="I10" s="370"/>
+      <c r="J10" s="370"/>
+      <c r="K10" s="370"/>
+      <c r="L10" s="370"/>
+      <c r="M10" s="370"/>
+      <c r="N10" s="370"/>
+      <c r="O10" s="364" t="s">
         <v>3127</v>
       </c>
       <c r="Q10" s="133"/>
@@ -25943,20 +26506,20 @@
       <c r="A11" t="s">
         <v>3052</v>
       </c>
-      <c r="D11" s="351"/>
+      <c r="D11" s="366"/>
       <c r="E11" t="s">
         <v>3104</v>
       </c>
-      <c r="F11" s="356"/>
-      <c r="G11" s="357"/>
-      <c r="H11" s="357"/>
-      <c r="I11" s="357"/>
-      <c r="J11" s="357"/>
-      <c r="K11" s="357"/>
-      <c r="L11" s="357"/>
-      <c r="M11" s="357"/>
-      <c r="N11" s="357"/>
-      <c r="O11" s="349"/>
+      <c r="F11" s="371"/>
+      <c r="G11" s="372"/>
+      <c r="H11" s="372"/>
+      <c r="I11" s="372"/>
+      <c r="J11" s="372"/>
+      <c r="K11" s="372"/>
+      <c r="L11" s="372"/>
+      <c r="M11" s="372"/>
+      <c r="N11" s="372"/>
+      <c r="O11" s="364"/>
       <c r="P11" t="s">
         <v>3129</v>
       </c>
@@ -25992,7 +26555,7 @@
       <c r="A12" t="s">
         <v>3053</v>
       </c>
-      <c r="D12" s="351"/>
+      <c r="D12" s="366"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -26002,7 +26565,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="349"/>
+      <c r="O12" s="364"/>
       <c r="AC12" s="170" t="s">
         <v>3083</v>
       </c>
@@ -26027,7 +26590,7 @@
       <c r="AT12" s="69"/>
     </row>
     <row r="13" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D13" s="351"/>
+      <c r="D13" s="366"/>
       <c r="E13" t="s">
         <v>1547</v>
       </c>
@@ -26046,7 +26609,7 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="349"/>
+      <c r="O13" s="364"/>
       <c r="AC13" s="170"/>
       <c r="AD13" s="20" t="s">
         <v>3083</v>
@@ -26069,22 +26632,22 @@
       <c r="AT13" s="69"/>
     </row>
     <row r="14" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D14" s="351"/>
+      <c r="D14" s="366"/>
       <c r="E14" t="s">
         <v>3054</v>
       </c>
-      <c r="F14" s="352" t="s">
+      <c r="F14" s="367" t="s">
         <v>3055</v>
       </c>
-      <c r="G14" s="353"/>
-      <c r="H14" s="353"/>
-      <c r="I14" s="353"/>
-      <c r="J14" s="353"/>
-      <c r="K14" s="353"/>
-      <c r="L14" s="353"/>
-      <c r="M14" s="353"/>
-      <c r="N14" s="353"/>
-      <c r="O14" s="349"/>
+      <c r="G14" s="368"/>
+      <c r="H14" s="368"/>
+      <c r="I14" s="368"/>
+      <c r="J14" s="368"/>
+      <c r="K14" s="368"/>
+      <c r="L14" s="368"/>
+      <c r="M14" s="368"/>
+      <c r="N14" s="368"/>
+      <c r="O14" s="364"/>
       <c r="P14" t="s">
         <v>3062</v>
       </c>
@@ -26114,19 +26677,19 @@
       <c r="B15" t="s">
         <v>3042</v>
       </c>
-      <c r="D15" s="351" t="s">
+      <c r="D15" s="366" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="130"/>
-      <c r="G15" s="399" t="s">
+      <c r="G15" s="348" t="s">
         <v>3139</v>
       </c>
-      <c r="H15" s="400"/>
-      <c r="I15" s="401"/>
-      <c r="J15" s="391" t="s">
+      <c r="H15" s="349"/>
+      <c r="I15" s="350"/>
+      <c r="J15" s="340" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="392" t="s">
+      <c r="K15" s="341" t="s">
         <v>411</v>
       </c>
       <c r="L15" s="9"/>
@@ -26152,7 +26715,7 @@
       <c r="AT15" s="69"/>
     </row>
     <row r="16" spans="1:46">
-      <c r="D16" s="351"/>
+      <c r="D16" s="366"/>
       <c r="E16" t="s">
         <v>1508</v>
       </c>
@@ -26164,10 +26727,10 @@
       </c>
       <c r="H16" s="129"/>
       <c r="I16" s="12"/>
-      <c r="J16" s="393" t="s">
+      <c r="J16" s="342" t="s">
         <v>177</v>
       </c>
-      <c r="K16" s="394">
+      <c r="K16" s="343">
         <v>10</v>
       </c>
       <c r="L16" s="129" t="s">
@@ -26207,17 +26770,17 @@
       <c r="AT16" s="69"/>
     </row>
     <row r="17" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D17" s="351"/>
+      <c r="D17" s="366"/>
       <c r="F17" s="132"/>
       <c r="G17" s="129" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="129"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="395" t="s">
+      <c r="J17" s="344" t="s">
         <v>182</v>
       </c>
-      <c r="K17" s="396" t="s">
+      <c r="K17" s="345" t="s">
         <v>1895</v>
       </c>
       <c r="L17" s="11"/>
@@ -26255,17 +26818,17 @@
       <c r="AT17" s="69"/>
     </row>
     <row r="18" spans="1:46">
-      <c r="D18" s="351"/>
+      <c r="D18" s="366"/>
       <c r="F18" s="130"/>
       <c r="G18" s="129" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="129"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="391" t="s">
+      <c r="J18" s="340" t="s">
         <v>57</v>
       </c>
-      <c r="K18" s="392" t="s">
+      <c r="K18" s="341" t="s">
         <v>523</v>
       </c>
       <c r="L18" s="11"/>
@@ -26306,15 +26869,15 @@
       <c r="B19" t="s">
         <v>3043</v>
       </c>
-      <c r="D19" s="351"/>
+      <c r="D19" s="366"/>
       <c r="F19" s="131"/>
       <c r="G19" s="13"/>
       <c r="H19" s="11"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="393" t="s">
+      <c r="J19" s="342" t="s">
         <v>177</v>
       </c>
-      <c r="K19" s="394">
+      <c r="K19" s="343">
         <v>12</v>
       </c>
       <c r="L19" s="11"/>
@@ -26357,7 +26920,7 @@
       <c r="AT19" s="69"/>
     </row>
     <row r="20" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D20" s="351"/>
+      <c r="D20" s="366"/>
       <c r="E20" t="s">
         <v>1509</v>
       </c>
@@ -26369,10 +26932,10 @@
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="12"/>
-      <c r="J20" s="395" t="s">
+      <c r="J20" s="344" t="s">
         <v>182</v>
       </c>
-      <c r="K20" s="396" t="s">
+      <c r="K20" s="345" t="s">
         <v>3132</v>
       </c>
       <c r="L20" s="11"/>
@@ -26410,17 +26973,17 @@
       <c r="AT20" s="69"/>
     </row>
     <row r="21" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D21" s="351"/>
+      <c r="D21" s="366"/>
       <c r="F21" s="132"/>
       <c r="G21" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="393" t="s">
+      <c r="J21" s="342" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="397" t="s">
+      <c r="K21" s="346" t="s">
         <v>558</v>
       </c>
       <c r="L21" s="11"/>
@@ -26446,17 +27009,17 @@
       <c r="AT21" s="69"/>
     </row>
     <row r="22" spans="1:46">
-      <c r="D22" s="351"/>
+      <c r="D22" s="366"/>
       <c r="F22" s="131"/>
       <c r="G22" s="11" t="s">
         <v>2309</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="393" t="s">
+      <c r="J22" s="342" t="s">
         <v>177</v>
       </c>
-      <c r="K22" s="394">
+      <c r="K22" s="343">
         <v>15</v>
       </c>
       <c r="L22" s="11"/>
@@ -26496,7 +27059,7 @@
       <c r="AT22" s="69"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="D23" s="351"/>
+      <c r="D23" s="366"/>
       <c r="E23" t="s">
         <v>1508</v>
       </c>
@@ -26508,10 +27071,10 @@
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="393" t="s">
+      <c r="J23" s="342" t="s">
         <v>182</v>
       </c>
-      <c r="K23" s="397" t="s">
+      <c r="K23" s="346" t="s">
         <v>2781</v>
       </c>
       <c r="L23" s="11"/>
@@ -26542,13 +27105,13 @@
       <c r="A24" t="s">
         <v>3047</v>
       </c>
-      <c r="D24" s="351"/>
+      <c r="D24" s="366"/>
       <c r="F24" s="132"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="389"/>
-      <c r="K24" s="390"/>
+      <c r="J24" s="338"/>
+      <c r="K24" s="339"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="15"/>
@@ -26572,7 +27135,7 @@
       <c r="AT24" s="69"/>
     </row>
     <row r="25" spans="1:46">
-      <c r="D25" s="351"/>
+      <c r="D25" s="366"/>
       <c r="E25" t="s">
         <v>3041</v>
       </c>
@@ -26599,7 +27162,7 @@
       <c r="AT25" s="69"/>
     </row>
     <row r="26" spans="1:46">
-      <c r="D26" s="398"/>
+      <c r="D26" s="347"/>
       <c r="AC26" s="170"/>
       <c r="AD26" s="20"/>
       <c r="AE26" s="20"/>
@@ -26620,7 +27183,7 @@
       <c r="AT26" s="69"/>
     </row>
     <row r="27" spans="1:46">
-      <c r="D27" s="398"/>
+      <c r="D27" s="347"/>
       <c r="H27" t="s">
         <v>3134</v>
       </c>
@@ -26644,7 +27207,7 @@
       <c r="AT27" s="69"/>
     </row>
     <row r="28" spans="1:46">
-      <c r="D28" s="398"/>
+      <c r="D28" s="347"/>
       <c r="I28" t="s">
         <v>3135</v>
       </c>
@@ -26668,24 +27231,24 @@
       <c r="AT28" s="69"/>
     </row>
     <row r="29" spans="1:46">
-      <c r="D29" s="398"/>
+      <c r="D29" s="347"/>
       <c r="I29" t="s">
         <v>459</v>
       </c>
-      <c r="J29" s="402" t="s">
+      <c r="J29" s="351" t="s">
         <v>3137</v>
       </c>
-      <c r="K29" s="402"/>
-      <c r="L29" s="402" t="s">
+      <c r="K29" s="351"/>
+      <c r="L29" s="351" t="s">
         <v>3136</v>
       </c>
-      <c r="M29" s="402" t="s">
+      <c r="M29" s="351" t="s">
         <v>3138</v>
       </c>
-      <c r="N29" s="402"/>
-      <c r="O29" s="402"/>
-      <c r="P29" s="402"/>
-      <c r="Q29" s="402"/>
+      <c r="N29" s="351"/>
+      <c r="O29" s="351"/>
+      <c r="P29" s="351"/>
+      <c r="Q29" s="351"/>
       <c r="AC29" s="170"/>
       <c r="AD29" s="20"/>
       <c r="AE29" s="20"/>
@@ -26706,7 +27269,7 @@
       <c r="AT29" s="69"/>
     </row>
     <row r="30" spans="1:46">
-      <c r="D30" s="398"/>
+      <c r="D30" s="347"/>
       <c r="I30" t="s">
         <v>1616</v>
       </c>
@@ -26730,7 +27293,7 @@
       <c r="AT30" s="69"/>
     </row>
     <row r="31" spans="1:46">
-      <c r="D31" s="398"/>
+      <c r="D31" s="347"/>
       <c r="H31" t="s">
         <v>143</v>
       </c>
@@ -27119,12 +27682,12 @@
       <c r="O43" s="104"/>
       <c r="P43" s="104"/>
       <c r="Q43" s="175"/>
-      <c r="X43" s="337" t="s">
+      <c r="X43" s="352" t="s">
         <v>1668</v>
       </c>
-      <c r="Y43" s="338"/>
-      <c r="Z43" s="338"/>
-      <c r="AA43" s="339"/>
+      <c r="Y43" s="353"/>
+      <c r="Z43" s="353"/>
+      <c r="AA43" s="354"/>
       <c r="AC43" t="s">
         <v>1502</v>
       </c>
@@ -27157,10 +27720,10 @@
       <c r="M44" s="332"/>
       <c r="N44" s="332"/>
       <c r="O44" s="332"/>
-      <c r="X44" s="340"/>
-      <c r="Y44" s="341"/>
-      <c r="Z44" s="341"/>
-      <c r="AA44" s="342"/>
+      <c r="X44" s="355"/>
+      <c r="Y44" s="356"/>
+      <c r="Z44" s="356"/>
+      <c r="AA44" s="357"/>
       <c r="XFD44" s="32" t="s">
         <v>1510</v>
       </c>
@@ -27184,10 +27747,10 @@
       <c r="M45" s="332"/>
       <c r="N45" s="332"/>
       <c r="O45" s="332"/>
-      <c r="X45" s="343"/>
-      <c r="Y45" s="344"/>
-      <c r="Z45" s="344"/>
-      <c r="AA45" s="345"/>
+      <c r="X45" s="358"/>
+      <c r="Y45" s="359"/>
+      <c r="Z45" s="359"/>
+      <c r="AA45" s="360"/>
     </row>
     <row r="46" spans="1:46 16384:16384">
       <c r="B46" t="s">
@@ -27273,20 +27836,20 @@
       <c r="V49" t="s">
         <v>3125</v>
       </c>
-      <c r="X49" s="346" t="s">
+      <c r="X49" s="361" t="s">
         <v>3105</v>
       </c>
-      <c r="Y49" s="347"/>
-      <c r="Z49" s="347"/>
-      <c r="AA49" s="347"/>
-      <c r="AB49" s="347"/>
-      <c r="AC49" s="347"/>
-      <c r="AD49" s="347"/>
-      <c r="AE49" s="347"/>
-      <c r="AF49" s="347"/>
-      <c r="AG49" s="347"/>
-      <c r="AH49" s="347"/>
-      <c r="AI49" s="348"/>
+      <c r="Y49" s="362"/>
+      <c r="Z49" s="362"/>
+      <c r="AA49" s="362"/>
+      <c r="AB49" s="362"/>
+      <c r="AC49" s="362"/>
+      <c r="AD49" s="362"/>
+      <c r="AE49" s="362"/>
+      <c r="AF49" s="362"/>
+      <c r="AG49" s="362"/>
+      <c r="AH49" s="362"/>
+      <c r="AI49" s="363"/>
     </row>
     <row r="50" spans="1:35">
       <c r="B50" t="s">
@@ -27338,7 +27901,7 @@
         <v>634</v>
       </c>
       <c r="AC51" t="s">
-        <v>634</v>
+        <v>3145</v>
       </c>
       <c r="AE51" t="s">
         <v>634</v>
@@ -28162,6 +28725,76 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="E3:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="5:5">
+      <c r="E3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="E5" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5">
+      <c r="E6" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" t="s">
+        <v>797</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28607,7 +29240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C105"/>
   <sheetViews>
@@ -29092,7 +29725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G93"/>
   <sheetViews>
@@ -29407,7 +30040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R333"/>
   <sheetViews>
@@ -29484,7 +30117,7 @@
       <c r="K3" s="92"/>
       <c r="L3" s="322"/>
       <c r="M3" s="93"/>
-      <c r="N3" s="383" t="s">
+      <c r="N3" s="398" t="s">
         <v>2940</v>
       </c>
       <c r="O3" s="44"/>
@@ -29517,7 +30150,7 @@
         <v>1007</v>
       </c>
       <c r="M4" s="209"/>
-      <c r="N4" s="383"/>
+      <c r="N4" s="398"/>
       <c r="O4" s="44"/>
       <c r="P4" s="44"/>
       <c r="Q4" s="45"/>
@@ -29534,7 +30167,7 @@
         <v>12345</v>
       </c>
       <c r="M5" s="326"/>
-      <c r="N5" s="383"/>
+      <c r="N5" s="398"/>
       <c r="O5" s="44"/>
       <c r="P5" s="44"/>
       <c r="Q5" s="45"/>
@@ -29552,7 +30185,7 @@
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
       <c r="M6" s="67"/>
-      <c r="N6" s="383"/>
+      <c r="N6" s="398"/>
       <c r="O6" s="44"/>
       <c r="P6" s="44"/>
       <c r="Q6" s="45"/>
@@ -29576,7 +30209,7 @@
       <c r="K7" s="92"/>
       <c r="L7" s="322"/>
       <c r="M7" s="93"/>
-      <c r="N7" s="383"/>
+      <c r="N7" s="398"/>
       <c r="O7" s="44"/>
       <c r="P7" s="44"/>
       <c r="Q7" s="45"/>
@@ -29598,7 +30231,7 @@
         <v>523</v>
       </c>
       <c r="M8" s="209"/>
-      <c r="N8" s="383"/>
+      <c r="N8" s="398"/>
       <c r="O8" s="44"/>
       <c r="P8" s="44"/>
       <c r="Q8" s="45"/>
@@ -29620,7 +30253,7 @@
         <v>12346</v>
       </c>
       <c r="M9" s="326"/>
-      <c r="N9" s="383"/>
+      <c r="N9" s="398"/>
       <c r="O9" s="44"/>
       <c r="P9" s="44"/>
       <c r="Q9" s="45"/>
@@ -29638,7 +30271,7 @@
       <c r="K10" s="67"/>
       <c r="L10" s="67"/>
       <c r="M10" s="67"/>
-      <c r="N10" s="383"/>
+      <c r="N10" s="398"/>
       <c r="O10" s="44"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="45"/>
@@ -29656,7 +30289,7 @@
       <c r="K11" s="67"/>
       <c r="L11" s="67"/>
       <c r="M11" s="67"/>
-      <c r="N11" s="383"/>
+      <c r="N11" s="398"/>
       <c r="O11" s="44"/>
       <c r="P11" s="44"/>
       <c r="Q11" s="45"/>
@@ -29672,7 +30305,7 @@
       <c r="K12" s="67"/>
       <c r="L12" s="67"/>
       <c r="M12" s="67"/>
-      <c r="N12" s="383"/>
+      <c r="N12" s="398"/>
       <c r="O12" s="44"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="45"/>
@@ -29685,7 +30318,7 @@
       <c r="K13" s="44"/>
       <c r="L13" s="44"/>
       <c r="M13" s="44"/>
-      <c r="N13" s="383"/>
+      <c r="N13" s="398"/>
       <c r="O13" s="44"/>
       <c r="P13" s="44"/>
       <c r="Q13" s="45"/>
@@ -29706,7 +30339,7 @@
       <c r="K14" s="92"/>
       <c r="L14" s="322"/>
       <c r="M14" s="93"/>
-      <c r="N14" s="383"/>
+      <c r="N14" s="398"/>
       <c r="O14" s="44"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="45"/>
@@ -29729,7 +30362,7 @@
         <v>558</v>
       </c>
       <c r="M15" s="209"/>
-      <c r="N15" s="383"/>
+      <c r="N15" s="398"/>
       <c r="O15" s="44"/>
       <c r="P15" s="44"/>
       <c r="Q15" s="45"/>
@@ -29749,7 +30382,7 @@
         <v>123123</v>
       </c>
       <c r="M16" s="326"/>
-      <c r="N16" s="383"/>
+      <c r="N16" s="398"/>
       <c r="O16" s="44"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="45"/>
@@ -33532,7 +34165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P285"/>
   <sheetViews>
@@ -38648,7 +39281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O366"/>
   <sheetViews>
@@ -42279,7 +42912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W353"/>
   <sheetViews>
@@ -44494,7 +45127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:P245"/>
   <sheetViews>
@@ -44643,24 +45276,24 @@
     <row r="17" spans="1:14" s="101" customFormat="1"/>
     <row r="22" spans="1:14" ht="15.75" thickBot="1">
       <c r="A22" s="99"/>
-      <c r="B22" s="384" t="s">
+      <c r="B22" s="399" t="s">
         <v>1169</v>
       </c>
-      <c r="C22" s="384"/>
+      <c r="C22" s="399"/>
       <c r="D22" s="99"/>
       <c r="E22" s="99"/>
-      <c r="F22" s="384" t="s">
+      <c r="F22" s="399" t="s">
         <v>1273</v>
       </c>
-      <c r="G22" s="384"/>
-      <c r="H22" s="384"/>
+      <c r="G22" s="399"/>
+      <c r="H22" s="399"/>
       <c r="I22" s="99"/>
       <c r="J22" s="99"/>
-      <c r="K22" s="384" t="s">
+      <c r="K22" s="399" t="s">
         <v>1171</v>
       </c>
-      <c r="L22" s="384"/>
-      <c r="M22" s="384"/>
+      <c r="L22" s="399"/>
+      <c r="M22" s="399"/>
       <c r="N22" s="99"/>
     </row>
     <row r="23" spans="1:14">
@@ -47044,7 +47677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF304"/>
   <sheetViews>
@@ -47218,35 +47851,35 @@
       </c>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="386" t="s">
+      <c r="B8" s="401" t="s">
         <v>2620</v>
       </c>
-      <c r="C8" s="386"/>
-      <c r="F8" s="386" t="s">
+      <c r="C8" s="401"/>
+      <c r="F8" s="401" t="s">
         <v>2621</v>
       </c>
-      <c r="G8" s="386"/>
-      <c r="I8" s="386" t="s">
+      <c r="G8" s="401"/>
+      <c r="I8" s="401" t="s">
         <v>2621</v>
       </c>
-      <c r="J8" s="386"/>
+      <c r="J8" s="401"/>
       <c r="M8" s="227" t="s">
         <v>2678</v>
       </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="F9" s="386" t="s">
+      <c r="F9" s="401" t="s">
         <v>2622</v>
       </c>
-      <c r="G9" s="386"/>
-      <c r="I9" s="386" t="s">
+      <c r="G9" s="401"/>
+      <c r="I9" s="401" t="s">
         <v>2623</v>
       </c>
-      <c r="J9" s="386"/>
-      <c r="M9" s="387" t="s">
+      <c r="J9" s="401"/>
+      <c r="M9" s="402" t="s">
         <v>2621</v>
       </c>
-      <c r="N9" s="387"/>
+      <c r="N9" s="402"/>
     </row>
     <row r="10" spans="1:31">
       <c r="M10" s="285" t="s">
@@ -47255,19 +47888,19 @@
       <c r="N10" s="285"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="E11" s="385" t="s">
+      <c r="E11" s="400" t="s">
         <v>2625</v>
       </c>
-      <c r="F11" s="385"/>
-      <c r="G11" s="385"/>
-      <c r="H11" s="385"/>
-      <c r="I11" s="385"/>
-      <c r="J11" s="385"/>
-      <c r="K11" s="385"/>
-      <c r="L11" s="385"/>
-      <c r="M11" s="385"/>
-      <c r="N11" s="385"/>
-      <c r="O11" s="385"/>
+      <c r="F11" s="400"/>
+      <c r="G11" s="400"/>
+      <c r="H11" s="400"/>
+      <c r="I11" s="400"/>
+      <c r="J11" s="400"/>
+      <c r="K11" s="400"/>
+      <c r="L11" s="400"/>
+      <c r="M11" s="400"/>
+      <c r="N11" s="400"/>
+      <c r="O11" s="400"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
@@ -50567,7 +51200,790 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:Q52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="3:16" ht="15.75" thickBot="1"/>
+    <row r="2" spans="3:16">
+      <c r="C2" s="409" t="s">
+        <v>3146</v>
+      </c>
+      <c r="D2" s="410"/>
+      <c r="E2" s="410"/>
+      <c r="F2" s="410"/>
+      <c r="G2" s="410"/>
+      <c r="H2" s="410"/>
+      <c r="I2" s="410"/>
+      <c r="J2" s="410"/>
+      <c r="K2" s="410"/>
+    </row>
+    <row r="3" spans="3:16">
+      <c r="C3" s="411"/>
+      <c r="D3" s="412"/>
+      <c r="E3" s="412"/>
+      <c r="F3" s="412"/>
+      <c r="G3" s="412"/>
+      <c r="H3" s="412"/>
+      <c r="I3" s="412"/>
+      <c r="J3" s="412"/>
+      <c r="K3" s="412"/>
+      <c r="M3" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16">
+      <c r="C4" s="411"/>
+      <c r="D4" s="412"/>
+      <c r="E4" s="412"/>
+      <c r="F4" s="412"/>
+      <c r="G4" s="412"/>
+      <c r="H4" s="412"/>
+      <c r="I4" s="412"/>
+      <c r="J4" s="412"/>
+      <c r="K4" s="412"/>
+      <c r="N4" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16">
+      <c r="C5" s="411"/>
+      <c r="D5" s="412"/>
+      <c r="E5" s="412"/>
+      <c r="F5" s="412"/>
+      <c r="G5" s="412"/>
+      <c r="H5" s="412"/>
+      <c r="I5" s="412"/>
+      <c r="J5" s="412"/>
+      <c r="K5" s="412"/>
+      <c r="O5" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16">
+      <c r="C6" s="411"/>
+      <c r="D6" s="412"/>
+      <c r="E6" s="412"/>
+      <c r="F6" s="412"/>
+      <c r="G6" s="412"/>
+      <c r="H6" s="412"/>
+      <c r="I6" s="412"/>
+      <c r="J6" s="412"/>
+      <c r="K6" s="412"/>
+      <c r="O6" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16">
+      <c r="C7" s="411"/>
+      <c r="D7" s="412"/>
+      <c r="E7" s="412"/>
+      <c r="F7" s="412"/>
+      <c r="G7" s="412"/>
+      <c r="H7" s="412"/>
+      <c r="I7" s="412"/>
+      <c r="J7" s="412"/>
+      <c r="K7" s="412"/>
+      <c r="O7" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" ht="15.75" thickBot="1">
+      <c r="C8" s="413"/>
+      <c r="D8" s="414"/>
+      <c r="E8" s="414"/>
+      <c r="F8" s="414"/>
+      <c r="G8" s="414"/>
+      <c r="H8" s="414"/>
+      <c r="I8" s="414"/>
+      <c r="J8" s="414"/>
+      <c r="K8" s="414"/>
+      <c r="O8" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16">
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="O9" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" ht="15.75" thickBot="1">
+      <c r="C10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="3:16" ht="15.75" thickBot="1">
+      <c r="C11" s="367" t="s">
+        <v>3055</v>
+      </c>
+      <c r="D11" s="368"/>
+      <c r="E11" s="368"/>
+      <c r="F11" s="368"/>
+      <c r="G11" s="368"/>
+      <c r="H11" s="368"/>
+      <c r="I11" s="368"/>
+      <c r="J11" s="368"/>
+      <c r="K11" s="368"/>
+      <c r="N11" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16">
+      <c r="C12" s="130"/>
+      <c r="D12" s="415" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E12" s="416"/>
+      <c r="F12" s="416"/>
+      <c r="G12" s="416"/>
+      <c r="H12" s="417"/>
+      <c r="I12" s="424" t="s">
+        <v>3164</v>
+      </c>
+      <c r="J12" s="404"/>
+      <c r="K12" s="405"/>
+      <c r="O12" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16">
+      <c r="C13" s="131" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="418"/>
+      <c r="E13" s="419"/>
+      <c r="F13" s="419"/>
+      <c r="G13" s="419"/>
+      <c r="H13" s="420"/>
+      <c r="I13" s="406"/>
+      <c r="J13" s="407"/>
+      <c r="K13" s="408"/>
+      <c r="P13" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" ht="15.75" thickBot="1">
+      <c r="C14" s="132"/>
+      <c r="D14" s="418"/>
+      <c r="E14" s="419"/>
+      <c r="F14" s="419"/>
+      <c r="G14" s="419"/>
+      <c r="H14" s="420"/>
+      <c r="I14" s="406"/>
+      <c r="J14" s="407"/>
+      <c r="K14" s="408"/>
+    </row>
+    <row r="15" spans="3:16">
+      <c r="C15" s="130"/>
+      <c r="D15" s="418"/>
+      <c r="E15" s="419"/>
+      <c r="F15" s="419"/>
+      <c r="G15" s="419"/>
+      <c r="H15" s="420"/>
+      <c r="I15" s="406"/>
+      <c r="J15" s="407"/>
+      <c r="K15" s="408"/>
+      <c r="O15" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16">
+      <c r="C16" s="131"/>
+      <c r="D16" s="418"/>
+      <c r="E16" s="419"/>
+      <c r="F16" s="419"/>
+      <c r="G16" s="419"/>
+      <c r="H16" s="420"/>
+      <c r="I16" s="406"/>
+      <c r="J16" s="407"/>
+      <c r="K16" s="408"/>
+      <c r="P16" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="C17" s="131" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="418"/>
+      <c r="E17" s="419"/>
+      <c r="F17" s="419"/>
+      <c r="G17" s="419"/>
+      <c r="H17" s="420"/>
+      <c r="I17" s="406"/>
+      <c r="J17" s="407"/>
+      <c r="K17" s="408"/>
+    </row>
+    <row r="18" spans="2:16" ht="15.75" thickBot="1">
+      <c r="C18" s="132"/>
+      <c r="D18" s="418"/>
+      <c r="E18" s="419"/>
+      <c r="F18" s="419"/>
+      <c r="G18" s="419"/>
+      <c r="H18" s="420"/>
+      <c r="I18" s="406"/>
+      <c r="J18" s="407"/>
+      <c r="K18" s="408"/>
+      <c r="M18" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="C19" s="131"/>
+      <c r="D19" s="418"/>
+      <c r="E19" s="419"/>
+      <c r="F19" s="419"/>
+      <c r="G19" s="419"/>
+      <c r="H19" s="420"/>
+      <c r="I19" s="406"/>
+      <c r="J19" s="407"/>
+      <c r="K19" s="408"/>
+      <c r="N19" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="C20" s="131" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="418"/>
+      <c r="E20" s="419"/>
+      <c r="F20" s="419"/>
+      <c r="G20" s="419"/>
+      <c r="H20" s="420"/>
+      <c r="I20" s="406"/>
+      <c r="J20" s="407"/>
+      <c r="K20" s="408"/>
+      <c r="N20" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="15.75" thickBot="1">
+      <c r="C21" s="132"/>
+      <c r="D21" s="421"/>
+      <c r="E21" s="422"/>
+      <c r="F21" s="422"/>
+      <c r="G21" s="422"/>
+      <c r="H21" s="423"/>
+      <c r="I21" s="406"/>
+      <c r="J21" s="407"/>
+      <c r="K21" s="408"/>
+      <c r="N21" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="D22" s="403" t="s">
+        <v>2783</v>
+      </c>
+      <c r="E22" s="403"/>
+      <c r="F22" s="403"/>
+      <c r="G22" s="403"/>
+      <c r="H22" s="403"/>
+      <c r="I22" s="403" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="403"/>
+      <c r="K22" s="403"/>
+      <c r="N22" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="N23" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="M24" t="s">
+        <v>143</v>
+      </c>
+      <c r="N24" t="s">
+        <v>440</v>
+      </c>
+      <c r="P24" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="P25">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="D26" t="s">
+        <v>3165</v>
+      </c>
+      <c r="N26" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="N27" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" t="s">
+        <v>3166</v>
+      </c>
+      <c r="D28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3167</v>
+      </c>
+      <c r="I28" t="s">
+        <v>3177</v>
+      </c>
+      <c r="J28" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="D29" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3168</v>
+      </c>
+      <c r="I29" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="D30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3169</v>
+      </c>
+      <c r="I30" t="s">
+        <v>3193</v>
+      </c>
+      <c r="L30" t="s">
+        <v>3175</v>
+      </c>
+      <c r="N30" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="D31" t="s">
+        <v>187</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3170</v>
+      </c>
+      <c r="I31" t="s">
+        <v>3194</v>
+      </c>
+      <c r="N31" t="s">
+        <v>3182</v>
+      </c>
+      <c r="P31" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="N32" t="s">
+        <v>3197</v>
+      </c>
+      <c r="P32" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="C33" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="L34" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" s="44">
+        <v>128</v>
+      </c>
+      <c r="C35" s="50">
+        <v>64</v>
+      </c>
+      <c r="D35" s="50">
+        <v>32</v>
+      </c>
+      <c r="E35" s="50">
+        <v>16</v>
+      </c>
+      <c r="F35" s="50">
+        <v>8</v>
+      </c>
+      <c r="G35" s="50">
+        <v>4</v>
+      </c>
+      <c r="H35" s="50">
+        <v>2</v>
+      </c>
+      <c r="I35" s="50">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="B36" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" s="287" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C37" s="125" t="s">
+        <v>2712</v>
+      </c>
+      <c r="D37" s="125" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E37" s="125" t="s">
+        <v>2714</v>
+      </c>
+      <c r="F37" s="125" t="s">
+        <v>2715</v>
+      </c>
+      <c r="G37" s="125" t="s">
+        <v>2716</v>
+      </c>
+      <c r="H37" s="125" t="s">
+        <v>2311</v>
+      </c>
+      <c r="I37" s="125" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" s="337">
+        <v>1</v>
+      </c>
+      <c r="C38" s="288">
+        <v>1</v>
+      </c>
+      <c r="D38" s="288">
+        <v>1</v>
+      </c>
+      <c r="E38" s="288">
+        <v>1</v>
+      </c>
+      <c r="F38" s="288">
+        <v>1</v>
+      </c>
+      <c r="G38" s="288">
+        <v>1</v>
+      </c>
+      <c r="H38" s="288">
+        <v>1</v>
+      </c>
+      <c r="I38" s="288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="K39">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="B40" t="s">
+        <v>3172</v>
+      </c>
+      <c r="K40">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="B41" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="B42" t="s">
+        <v>3174</v>
+      </c>
+      <c r="G42" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="B45" s="44">
+        <v>32867</v>
+      </c>
+      <c r="C45" s="50">
+        <v>1630</v>
+      </c>
+      <c r="D45" s="50">
+        <v>8192</v>
+      </c>
+      <c r="E45" s="50">
+        <v>4096</v>
+      </c>
+      <c r="F45" s="50">
+        <v>2048</v>
+      </c>
+      <c r="G45" s="50">
+        <v>1024</v>
+      </c>
+      <c r="H45" s="50">
+        <v>512</v>
+      </c>
+      <c r="I45" s="50">
+        <v>256</v>
+      </c>
+      <c r="J45" s="44">
+        <v>128</v>
+      </c>
+      <c r="K45" s="50">
+        <v>64</v>
+      </c>
+      <c r="L45" s="50">
+        <v>32</v>
+      </c>
+      <c r="M45" s="50">
+        <v>16</v>
+      </c>
+      <c r="N45" s="50">
+        <v>8</v>
+      </c>
+      <c r="O45" s="50">
+        <v>4</v>
+      </c>
+      <c r="P45" s="50">
+        <v>2</v>
+      </c>
+      <c r="Q45" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="B46" s="20"/>
+      <c r="G46" t="s">
+        <v>3188</v>
+      </c>
+      <c r="H46" t="s">
+        <v>3187</v>
+      </c>
+      <c r="I46" t="s">
+        <v>3189</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K46" t="s">
+        <v>33</v>
+      </c>
+      <c r="L46" t="s">
+        <v>32</v>
+      </c>
+      <c r="M46" t="s">
+        <v>31</v>
+      </c>
+      <c r="N46" t="s">
+        <v>30</v>
+      </c>
+      <c r="O46" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" s="287" t="s">
+        <v>2391</v>
+      </c>
+      <c r="C47" s="125" t="s">
+        <v>3184</v>
+      </c>
+      <c r="D47" s="125" t="s">
+        <v>3185</v>
+      </c>
+      <c r="E47" s="125">
+        <v>13</v>
+      </c>
+      <c r="F47" s="125">
+        <v>12</v>
+      </c>
+      <c r="G47" s="125">
+        <v>11</v>
+      </c>
+      <c r="H47" s="125">
+        <v>10</v>
+      </c>
+      <c r="I47" s="125">
+        <v>9</v>
+      </c>
+      <c r="J47" s="287" t="s">
+        <v>2711</v>
+      </c>
+      <c r="K47" s="125" t="s">
+        <v>2712</v>
+      </c>
+      <c r="L47" s="125" t="s">
+        <v>2713</v>
+      </c>
+      <c r="M47" s="125" t="s">
+        <v>2714</v>
+      </c>
+      <c r="N47" s="125" t="s">
+        <v>2715</v>
+      </c>
+      <c r="O47" s="125" t="s">
+        <v>2716</v>
+      </c>
+      <c r="P47" s="125" t="s">
+        <v>2311</v>
+      </c>
+      <c r="Q47" s="125" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" s="337">
+        <v>0</v>
+      </c>
+      <c r="C48" s="288">
+        <v>1</v>
+      </c>
+      <c r="D48" s="288">
+        <v>1</v>
+      </c>
+      <c r="E48" s="288">
+        <v>1</v>
+      </c>
+      <c r="F48" s="288">
+        <v>1</v>
+      </c>
+      <c r="G48" s="288">
+        <v>1</v>
+      </c>
+      <c r="H48" s="288">
+        <v>1</v>
+      </c>
+      <c r="I48" s="288">
+        <v>1</v>
+      </c>
+      <c r="J48" s="337">
+        <v>1</v>
+      </c>
+      <c r="K48" s="288">
+        <v>1</v>
+      </c>
+      <c r="L48" s="288">
+        <v>1</v>
+      </c>
+      <c r="M48" s="288">
+        <v>1</v>
+      </c>
+      <c r="N48" s="288">
+        <v>1</v>
+      </c>
+      <c r="O48" s="288">
+        <v>1</v>
+      </c>
+      <c r="P48" s="288">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" t="s">
+        <v>3173</v>
+      </c>
+      <c r="H51" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" t="s">
+        <v>3174</v>
+      </c>
+      <c r="H52" s="153" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="D12:H21"/>
+    <mergeCell ref="I12:K21"/>
+    <mergeCell ref="C2:K8"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:K22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:U125"/>
   <sheetViews>
@@ -50890,1354 +52306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:S262"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="3" spans="1:18">
-      <c r="J3" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1513</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="D6" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="128"/>
-      <c r="P8" s="128"/>
-      <c r="Q8" s="128"/>
-      <c r="R8" s="128"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="H9" t="s">
-        <v>1519</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="K10" s="118" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="I11" t="s">
-        <v>1520</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="G13" s="118" t="s">
-        <v>1658</v>
-      </c>
-      <c r="H13" s="118"/>
-      <c r="J13" s="118" t="s">
-        <v>1659</v>
-      </c>
-      <c r="M13" s="118" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>1500</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>1502</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>1503</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="E15">
-        <v>1010</v>
-      </c>
-      <c r="G15" s="118" t="s">
-        <v>1505</v>
-      </c>
-      <c r="H15" s="118" t="s">
-        <v>1506</v>
-      </c>
-      <c r="J15" s="118" t="s">
-        <v>1518</v>
-      </c>
-      <c r="M15" s="118" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="17" spans="8:13">
-      <c r="H17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="8:13">
-      <c r="H19" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="8:13">
-      <c r="H21" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="8:13">
-      <c r="H25" t="s">
-        <v>1652</v>
-      </c>
-      <c r="J25" t="s">
-        <v>1654</v>
-      </c>
-      <c r="M25" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="26" spans="8:13">
-      <c r="H26" t="s">
-        <v>1653</v>
-      </c>
-      <c r="J26" t="s">
-        <v>1655</v>
-      </c>
-      <c r="M26" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="E36" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="K37" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="K40" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" t="s">
-        <v>51</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" t="s">
-        <v>52</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" t="s">
-        <v>53</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="I45" t="s">
-        <v>203</v>
-      </c>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" t="s">
-        <v>54</v>
-      </c>
-      <c r="I46" t="s">
-        <v>202</v>
-      </c>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" t="s">
-        <v>55</v>
-      </c>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" t="s">
-        <v>56</v>
-      </c>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q49" s="7"/>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="B50" t="s">
-        <v>57</v>
-      </c>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="B51" t="s">
-        <v>58</v>
-      </c>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="A53" t="s">
-        <v>59</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="B54" t="s">
-        <v>60</v>
-      </c>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="B55" t="s">
-        <v>61</v>
-      </c>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" t="s">
-        <v>62</v>
-      </c>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" t="s">
-        <v>63</v>
-      </c>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" t="s">
-        <v>64</v>
-      </c>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="B60" t="s">
-        <v>65</v>
-      </c>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="B61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="B62" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="C63" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="B66" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="B67" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="B68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="C69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="B72" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="B73" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="B74" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="C75" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="C76" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="B81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="B82" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="B83" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="C84" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="B89" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="B90" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="B91" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="B92" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="B96" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18">
-      <c r="B97" t="s">
-        <v>85</v>
-      </c>
-      <c r="L97" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18">
-      <c r="B98" t="s">
-        <v>86</v>
-      </c>
-      <c r="J98" t="s">
-        <v>1666</v>
-      </c>
-      <c r="L98" t="s">
-        <v>1667</v>
-      </c>
-      <c r="N98" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18">
-      <c r="B99" t="s">
-        <v>87</v>
-      </c>
-      <c r="J99" t="s">
-        <v>1652</v>
-      </c>
-      <c r="L99" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18">
-      <c r="B100" t="s">
-        <v>89</v>
-      </c>
-      <c r="L100" t="s">
-        <v>1669</v>
-      </c>
-      <c r="N100" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18">
-      <c r="A102" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18">
-      <c r="B103" t="s">
-        <v>84</v>
-      </c>
-      <c r="H103" t="s">
-        <v>1669</v>
-      </c>
-      <c r="L103" t="s">
-        <v>1669</v>
-      </c>
-      <c r="P103" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18">
-      <c r="B104" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18">
-      <c r="B105" t="s">
-        <v>86</v>
-      </c>
-      <c r="F105" t="s">
-        <v>1674</v>
-      </c>
-      <c r="H105" t="s">
-        <v>1675</v>
-      </c>
-      <c r="L105" t="s">
-        <v>1676</v>
-      </c>
-      <c r="P105" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18">
-      <c r="B106" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18">
-      <c r="B107" t="s">
-        <v>89</v>
-      </c>
-      <c r="H107" t="s">
-        <v>1671</v>
-      </c>
-      <c r="L107" t="s">
-        <v>1672</v>
-      </c>
-      <c r="P107" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18">
-      <c r="B108" t="s">
-        <v>91</v>
-      </c>
-      <c r="E108" t="s">
-        <v>1665</v>
-      </c>
-      <c r="H108" s="22" t="s">
-        <v>1519</v>
-      </c>
-      <c r="L108" s="22" t="s">
-        <v>1662</v>
-      </c>
-      <c r="P108" s="22" t="s">
-        <v>1663</v>
-      </c>
-      <c r="R108" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18">
-      <c r="B109" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18">
-      <c r="B110" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18">
-      <c r="B111" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18">
-      <c r="B112" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
-      <c r="B113" t="s">
-        <v>94</v>
-      </c>
-      <c r="K113" t="s">
-        <v>35</v>
-      </c>
-      <c r="M113" t="s">
-        <v>2072</v>
-      </c>
-      <c r="O113" t="s">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
-      <c r="B114" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
-      <c r="B116" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
-      <c r="B117" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
-      <c r="A118" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
-      <c r="A121" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
-      <c r="B122" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
-      <c r="B123" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
-      <c r="B124" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
-      <c r="A127" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
-      <c r="B128" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="129" spans="2:16">
-      <c r="B129" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="130" spans="2:16">
-      <c r="D130" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="131" spans="2:16">
-      <c r="D131" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="132" spans="2:16">
-      <c r="B132" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="133" spans="2:16">
-      <c r="B133" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="139" spans="2:16">
-      <c r="D139" t="s">
-        <v>2330</v>
-      </c>
-      <c r="J139" t="s">
-        <v>2331</v>
-      </c>
-      <c r="P139" t="s">
-        <v>2332</v>
-      </c>
-    </row>
-    <row r="141" spans="2:16">
-      <c r="D141" t="s">
-        <v>2315</v>
-      </c>
-      <c r="J141" t="s">
-        <v>2315</v>
-      </c>
-      <c r="P141" t="s">
-        <v>2315</v>
-      </c>
-    </row>
-    <row r="142" spans="2:16">
-      <c r="D142" t="s">
-        <v>2316</v>
-      </c>
-      <c r="J142" t="s">
-        <v>1950</v>
-      </c>
-      <c r="P142" t="s">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="143" spans="2:16">
-      <c r="D143" t="s">
-        <v>2322</v>
-      </c>
-      <c r="G143" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="144" spans="2:16">
-      <c r="D144" s="179" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="145" spans="2:19">
-      <c r="B145" t="s">
-        <v>2323</v>
-      </c>
-      <c r="D145" t="s">
-        <v>2326</v>
-      </c>
-      <c r="G145" t="s">
-        <v>1520</v>
-      </c>
-      <c r="J145" t="s">
-        <v>2326</v>
-      </c>
-      <c r="P145" t="s">
-        <v>2326</v>
-      </c>
-    </row>
-    <row r="148" spans="2:19">
-      <c r="D148" s="179" t="s">
-        <v>2324</v>
-      </c>
-      <c r="E148" s="22"/>
-      <c r="J148" s="179" t="s">
-        <v>2325</v>
-      </c>
-      <c r="K148" s="179"/>
-      <c r="P148" s="179" t="s">
-        <v>1676</v>
-      </c>
-      <c r="Q148" s="179"/>
-    </row>
-    <row r="150" spans="2:19">
-      <c r="D150" t="s">
-        <v>2327</v>
-      </c>
-      <c r="J150" t="s">
-        <v>2328</v>
-      </c>
-      <c r="P150" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="151" spans="2:19">
-      <c r="D151" s="101" t="s">
-        <v>2329</v>
-      </c>
-      <c r="E151" s="101"/>
-      <c r="F151" s="101"/>
-      <c r="G151" s="101"/>
-      <c r="J151" s="101" t="s">
-        <v>2329</v>
-      </c>
-      <c r="K151" s="101"/>
-      <c r="L151" s="101"/>
-      <c r="M151" s="101"/>
-      <c r="P151" s="101" t="s">
-        <v>2329</v>
-      </c>
-      <c r="Q151" s="101"/>
-      <c r="R151" s="101"/>
-      <c r="S151" s="101"/>
-    </row>
-    <row r="153" spans="2:19">
-      <c r="B153" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C153" t="s">
-        <v>2317</v>
-      </c>
-    </row>
-    <row r="154" spans="2:19">
-      <c r="B154" t="s">
-        <v>2318</v>
-      </c>
-      <c r="D154" t="s">
-        <v>2319</v>
-      </c>
-    </row>
-    <row r="155" spans="2:19">
-      <c r="B155" t="s">
-        <v>41</v>
-      </c>
-      <c r="D155" t="s">
-        <v>2320</v>
-      </c>
-    </row>
-    <row r="156" spans="2:19">
-      <c r="B156" t="s">
-        <v>42</v>
-      </c>
-      <c r="D156" t="s">
-        <v>2321</v>
-      </c>
-    </row>
-    <row r="207" spans="4:11">
-      <c r="D207" s="44">
-        <v>128</v>
-      </c>
-      <c r="E207" s="50">
-        <v>64</v>
-      </c>
-      <c r="F207" s="50">
-        <v>32</v>
-      </c>
-      <c r="G207" s="50">
-        <v>16</v>
-      </c>
-      <c r="H207" s="50">
-        <v>8</v>
-      </c>
-      <c r="I207" s="50">
-        <v>4</v>
-      </c>
-      <c r="J207" s="50">
-        <v>2</v>
-      </c>
-      <c r="K207" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="4:11">
-      <c r="D208" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E208" t="s">
-        <v>33</v>
-      </c>
-      <c r="F208" t="s">
-        <v>32</v>
-      </c>
-      <c r="G208" t="s">
-        <v>31</v>
-      </c>
-      <c r="H208" t="s">
-        <v>30</v>
-      </c>
-      <c r="I208" t="s">
-        <v>29</v>
-      </c>
-      <c r="J208" t="s">
-        <v>28</v>
-      </c>
-      <c r="K208" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="209" spans="4:14">
-      <c r="D209" s="125" t="s">
-        <v>2311</v>
-      </c>
-      <c r="E209" s="125" t="s">
-        <v>2310</v>
-      </c>
-      <c r="F209" s="125"/>
-      <c r="G209" s="125"/>
-      <c r="H209" s="125"/>
-      <c r="I209" s="125"/>
-      <c r="J209" s="125" t="s">
-        <v>2311</v>
-      </c>
-      <c r="K209" s="125" t="s">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="210" spans="4:14">
-      <c r="D210" s="254"/>
-      <c r="E210" s="254"/>
-      <c r="F210" s="254"/>
-      <c r="G210" s="254"/>
-      <c r="H210" s="258"/>
-      <c r="I210" s="258">
-        <v>1</v>
-      </c>
-      <c r="J210" s="258">
-        <v>0</v>
-      </c>
-      <c r="K210" s="258">
-        <v>1</v>
-      </c>
-      <c r="L210" s="259">
-        <v>5</v>
-      </c>
-      <c r="N210" s="67"/>
-    </row>
-    <row r="211" spans="4:14">
-      <c r="D211" s="50"/>
-      <c r="E211" s="50"/>
-      <c r="F211" s="50"/>
-      <c r="G211" s="50"/>
-      <c r="H211" s="259"/>
-      <c r="I211" s="259">
-        <v>1</v>
-      </c>
-      <c r="J211" s="259">
-        <v>1</v>
-      </c>
-      <c r="K211" s="259">
-        <v>1</v>
-      </c>
-      <c r="L211" s="259">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="212" spans="4:14">
-      <c r="H212" s="67"/>
-      <c r="I212" s="67">
-        <v>1</v>
-      </c>
-      <c r="J212" s="67">
-        <v>0</v>
-      </c>
-      <c r="K212" s="67">
-        <v>1</v>
-      </c>
-      <c r="L212" t="s">
-        <v>2875</v>
-      </c>
-      <c r="M212" s="153" t="s">
-        <v>2877</v>
-      </c>
-      <c r="N212" s="67"/>
-    </row>
-    <row r="213" spans="4:14">
-      <c r="H213" s="67"/>
-      <c r="I213" s="67">
-        <v>1</v>
-      </c>
-      <c r="J213" s="67">
-        <v>1</v>
-      </c>
-      <c r="K213" s="67">
-        <v>1</v>
-      </c>
-      <c r="L213" t="s">
-        <v>2876</v>
-      </c>
-      <c r="M213" s="153" t="s">
-        <v>2878</v>
-      </c>
-      <c r="N213" s="67"/>
-    </row>
-    <row r="214" spans="4:14">
-      <c r="H214" s="67"/>
-      <c r="I214" s="50">
-        <v>0</v>
-      </c>
-      <c r="J214" s="50">
-        <v>1</v>
-      </c>
-      <c r="K214" s="67">
-        <v>0</v>
-      </c>
-      <c r="L214" t="s">
-        <v>2879</v>
-      </c>
-      <c r="M214">
-        <f>2</f>
-        <v>2</v>
-      </c>
-      <c r="N214" s="67"/>
-    </row>
-    <row r="246" spans="3:14" ht="15.75" thickBot="1"/>
-    <row r="247" spans="3:14">
-      <c r="G247" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="H247" s="24"/>
-      <c r="I247" s="24"/>
-      <c r="J247" s="24"/>
-      <c r="K247" s="24"/>
-      <c r="L247" s="24"/>
-      <c r="M247" s="24"/>
-      <c r="N247" s="25"/>
-    </row>
-    <row r="248" spans="3:14">
-      <c r="G248" s="26"/>
-      <c r="H248" s="20"/>
-      <c r="I248" s="20"/>
-      <c r="J248" s="20"/>
-      <c r="K248" s="20"/>
-      <c r="L248" s="20"/>
-      <c r="M248" s="20"/>
-      <c r="N248" s="27"/>
-    </row>
-    <row r="249" spans="3:14">
-      <c r="G249" s="26"/>
-      <c r="H249" s="134" t="s">
-        <v>1548</v>
-      </c>
-      <c r="I249" s="20"/>
-      <c r="J249" s="20"/>
-      <c r="K249" s="143" t="s">
-        <v>1552</v>
-      </c>
-      <c r="L249" s="20"/>
-      <c r="M249" s="20"/>
-      <c r="N249" s="27"/>
-    </row>
-    <row r="250" spans="3:14">
-      <c r="G250" s="26"/>
-      <c r="H250" s="20"/>
-      <c r="I250" s="20"/>
-      <c r="J250" s="20"/>
-      <c r="K250" s="20"/>
-      <c r="L250" s="20"/>
-      <c r="M250" s="20"/>
-      <c r="N250" s="27"/>
-    </row>
-    <row r="251" spans="3:14">
-      <c r="G251" s="26"/>
-      <c r="H251" s="20"/>
-      <c r="I251" s="20"/>
-      <c r="J251" s="20"/>
-      <c r="K251" s="20"/>
-      <c r="L251" s="20"/>
-      <c r="M251" s="20"/>
-      <c r="N251" s="27"/>
-    </row>
-    <row r="252" spans="3:14">
-      <c r="E252" t="s">
-        <v>1559</v>
-      </c>
-      <c r="G252" s="26"/>
-      <c r="H252" s="134" t="s">
-        <v>1549</v>
-      </c>
-      <c r="I252" s="20"/>
-      <c r="J252" s="20"/>
-      <c r="K252" s="143" t="s">
-        <v>1553</v>
-      </c>
-      <c r="L252" s="20"/>
-      <c r="M252" s="20"/>
-      <c r="N252" s="27"/>
-    </row>
-    <row r="253" spans="3:14">
-      <c r="C253" t="s">
-        <v>1556</v>
-      </c>
-      <c r="E253" t="s">
-        <v>1560</v>
-      </c>
-      <c r="G253" s="26"/>
-      <c r="H253" s="20"/>
-      <c r="I253" s="20"/>
-      <c r="J253" s="20"/>
-      <c r="K253" s="20"/>
-      <c r="L253" s="20"/>
-      <c r="M253" s="20"/>
-      <c r="N253" s="27"/>
-    </row>
-    <row r="254" spans="3:14">
-      <c r="G254" s="26"/>
-      <c r="H254" s="20"/>
-      <c r="I254" s="20"/>
-      <c r="J254" s="20"/>
-      <c r="K254" s="143" t="s">
-        <v>1554</v>
-      </c>
-      <c r="L254" s="20"/>
-      <c r="M254" s="20"/>
-      <c r="N254" s="27"/>
-    </row>
-    <row r="255" spans="3:14">
-      <c r="C255" t="s">
-        <v>1557</v>
-      </c>
-      <c r="E255" t="s">
-        <v>1561</v>
-      </c>
-      <c r="G255" s="26"/>
-      <c r="H255" s="134" t="s">
-        <v>1550</v>
-      </c>
-      <c r="I255" s="20"/>
-      <c r="J255" s="20"/>
-      <c r="K255" s="20"/>
-      <c r="L255" s="20"/>
-      <c r="M255" s="20"/>
-      <c r="N255" s="27"/>
-    </row>
-    <row r="256" spans="3:14">
-      <c r="G256" s="26"/>
-      <c r="H256" s="20"/>
-      <c r="I256" s="20"/>
-      <c r="J256" s="20"/>
-      <c r="K256" s="20"/>
-      <c r="L256" s="20"/>
-      <c r="M256" s="20"/>
-      <c r="N256" s="27"/>
-    </row>
-    <row r="257" spans="7:14">
-      <c r="G257" s="26"/>
-      <c r="H257" s="20"/>
-      <c r="I257" s="20"/>
-      <c r="J257" s="20"/>
-      <c r="K257" s="20"/>
-      <c r="L257" s="20"/>
-      <c r="M257" s="20"/>
-      <c r="N257" s="27"/>
-    </row>
-    <row r="258" spans="7:14">
-      <c r="G258" s="26"/>
-      <c r="H258" s="134" t="s">
-        <v>1551</v>
-      </c>
-      <c r="I258" s="20"/>
-      <c r="J258" s="20"/>
-      <c r="K258" s="20"/>
-      <c r="L258" s="20"/>
-      <c r="M258" s="20"/>
-      <c r="N258" s="27"/>
-    </row>
-    <row r="259" spans="7:14">
-      <c r="G259" s="26"/>
-      <c r="H259" s="20"/>
-      <c r="I259" s="20"/>
-      <c r="J259" s="20"/>
-      <c r="K259" s="20"/>
-      <c r="L259" s="20"/>
-      <c r="M259" s="20"/>
-      <c r="N259" s="27"/>
-    </row>
-    <row r="260" spans="7:14">
-      <c r="G260" s="26"/>
-      <c r="H260" s="20"/>
-      <c r="I260" s="20"/>
-      <c r="J260" s="20"/>
-      <c r="K260" s="20"/>
-      <c r="L260" s="20"/>
-      <c r="M260" s="20"/>
-      <c r="N260" s="27"/>
-    </row>
-    <row r="261" spans="7:14">
-      <c r="G261" s="26"/>
-      <c r="H261" s="20"/>
-      <c r="I261" s="20"/>
-      <c r="J261" s="20"/>
-      <c r="K261" s="20"/>
-      <c r="L261" s="20"/>
-      <c r="M261" s="20"/>
-      <c r="N261" s="27"/>
-    </row>
-    <row r="262" spans="7:14" ht="15.75" thickBot="1">
-      <c r="G262" s="28" t="s">
-        <v>1555</v>
-      </c>
-      <c r="H262" s="29"/>
-      <c r="I262" s="29" t="s">
-        <v>1558</v>
-      </c>
-      <c r="J262" s="29"/>
-      <c r="K262" s="29"/>
-      <c r="L262" s="29"/>
-      <c r="M262" s="29"/>
-      <c r="N262" s="30"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S54"/>
   <sheetViews>
@@ -52374,11 +52443,11 @@
       <c r="L6" s="36" t="s">
         <v>1445</v>
       </c>
-      <c r="M6" s="388" t="s">
+      <c r="M6" s="403" t="s">
         <v>1446</v>
       </c>
-      <c r="N6" s="388"/>
-      <c r="O6" s="388"/>
+      <c r="N6" s="403"/>
+      <c r="O6" s="403"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
@@ -52786,7 +52855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:L85"/>
   <sheetViews>
@@ -53141,6 +53210,1353 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:S262"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:18">
+      <c r="J3" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1513</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="D6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="128"/>
+      <c r="P8" s="128"/>
+      <c r="Q8" s="128"/>
+      <c r="R8" s="128"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="H9" t="s">
+        <v>1519</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="K10" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="I11" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="G13" s="118" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H13" s="118"/>
+      <c r="J13" s="118" t="s">
+        <v>1659</v>
+      </c>
+      <c r="M13" s="118" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>1500</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>1502</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>1503</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="E15">
+        <v>1010</v>
+      </c>
+      <c r="G15" s="118" t="s">
+        <v>1505</v>
+      </c>
+      <c r="H15" s="118" t="s">
+        <v>1506</v>
+      </c>
+      <c r="J15" s="118" t="s">
+        <v>1518</v>
+      </c>
+      <c r="M15" s="118" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="17" spans="8:13">
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="8:13">
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="8:13">
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="8:13">
+      <c r="H25" t="s">
+        <v>1652</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1654</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="26" spans="8:13">
+      <c r="H26" t="s">
+        <v>1653</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1655</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="E36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="K37" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="K40" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="I45" t="s">
+        <v>203</v>
+      </c>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="I46" t="s">
+        <v>202</v>
+      </c>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q49" s="7"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="B74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="C76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="B81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="B82" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="B83" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="C84" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="B89" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="B90" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="B91" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="B92" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="B96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="B97" t="s">
+        <v>85</v>
+      </c>
+      <c r="L97" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="B98" t="s">
+        <v>86</v>
+      </c>
+      <c r="J98" t="s">
+        <v>1666</v>
+      </c>
+      <c r="L98" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N98" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="B99" t="s">
+        <v>87</v>
+      </c>
+      <c r="J99" t="s">
+        <v>1652</v>
+      </c>
+      <c r="L99" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="B100" t="s">
+        <v>89</v>
+      </c>
+      <c r="L100" t="s">
+        <v>1669</v>
+      </c>
+      <c r="N100" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="B103" t="s">
+        <v>84</v>
+      </c>
+      <c r="H103" t="s">
+        <v>1669</v>
+      </c>
+      <c r="L103" t="s">
+        <v>1669</v>
+      </c>
+      <c r="P103" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="B104" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="B105" t="s">
+        <v>86</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1674</v>
+      </c>
+      <c r="H105" t="s">
+        <v>1675</v>
+      </c>
+      <c r="L105" t="s">
+        <v>1676</v>
+      </c>
+      <c r="P105" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="B106" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="B107" t="s">
+        <v>89</v>
+      </c>
+      <c r="H107" t="s">
+        <v>1671</v>
+      </c>
+      <c r="L107" t="s">
+        <v>1672</v>
+      </c>
+      <c r="P107" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="B108" t="s">
+        <v>91</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H108" s="22" t="s">
+        <v>1519</v>
+      </c>
+      <c r="L108" s="22" t="s">
+        <v>1662</v>
+      </c>
+      <c r="P108" s="22" t="s">
+        <v>1663</v>
+      </c>
+      <c r="R108" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="B109" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="B110" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="B111" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="B112" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="B113" t="s">
+        <v>94</v>
+      </c>
+      <c r="K113" t="s">
+        <v>35</v>
+      </c>
+      <c r="M113" t="s">
+        <v>2072</v>
+      </c>
+      <c r="O113" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="B114" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="B116" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="B117" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="B122" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="B123" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="B124" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="B128" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="129" spans="2:16">
+      <c r="B129" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="130" spans="2:16">
+      <c r="D130" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="131" spans="2:16">
+      <c r="D131" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="132" spans="2:16">
+      <c r="B132" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="133" spans="2:16">
+      <c r="B133" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="139" spans="2:16">
+      <c r="D139" t="s">
+        <v>2330</v>
+      </c>
+      <c r="J139" t="s">
+        <v>2331</v>
+      </c>
+      <c r="P139" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="141" spans="2:16">
+      <c r="D141" t="s">
+        <v>2315</v>
+      </c>
+      <c r="J141" t="s">
+        <v>2315</v>
+      </c>
+      <c r="P141" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="142" spans="2:16">
+      <c r="D142" t="s">
+        <v>2316</v>
+      </c>
+      <c r="J142" t="s">
+        <v>1950</v>
+      </c>
+      <c r="P142" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="143" spans="2:16">
+      <c r="D143" t="s">
+        <v>2322</v>
+      </c>
+      <c r="G143" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="144" spans="2:16">
+      <c r="D144" s="179" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="145" spans="2:19">
+      <c r="B145" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D145" t="s">
+        <v>2326</v>
+      </c>
+      <c r="G145" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J145" t="s">
+        <v>2326</v>
+      </c>
+      <c r="P145" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="148" spans="2:19">
+      <c r="D148" s="179" t="s">
+        <v>2324</v>
+      </c>
+      <c r="E148" s="22"/>
+      <c r="J148" s="179" t="s">
+        <v>2325</v>
+      </c>
+      <c r="K148" s="179"/>
+      <c r="P148" s="179" t="s">
+        <v>1676</v>
+      </c>
+      <c r="Q148" s="179"/>
+    </row>
+    <row r="150" spans="2:19">
+      <c r="D150" t="s">
+        <v>2327</v>
+      </c>
+      <c r="J150" t="s">
+        <v>2328</v>
+      </c>
+      <c r="P150" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="151" spans="2:19">
+      <c r="D151" s="101" t="s">
+        <v>2329</v>
+      </c>
+      <c r="E151" s="101"/>
+      <c r="F151" s="101"/>
+      <c r="G151" s="101"/>
+      <c r="J151" s="101" t="s">
+        <v>2329</v>
+      </c>
+      <c r="K151" s="101"/>
+      <c r="L151" s="101"/>
+      <c r="M151" s="101"/>
+      <c r="P151" s="101" t="s">
+        <v>2329</v>
+      </c>
+      <c r="Q151" s="101"/>
+      <c r="R151" s="101"/>
+      <c r="S151" s="101"/>
+    </row>
+    <row r="153" spans="2:19">
+      <c r="B153" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="154" spans="2:19">
+      <c r="B154" t="s">
+        <v>2318</v>
+      </c>
+      <c r="D154" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="155" spans="2:19">
+      <c r="B155" t="s">
+        <v>41</v>
+      </c>
+      <c r="D155" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="156" spans="2:19">
+      <c r="B156" t="s">
+        <v>42</v>
+      </c>
+      <c r="D156" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="207" spans="4:11">
+      <c r="D207" s="44">
+        <v>128</v>
+      </c>
+      <c r="E207" s="50">
+        <v>64</v>
+      </c>
+      <c r="F207" s="50">
+        <v>32</v>
+      </c>
+      <c r="G207" s="50">
+        <v>16</v>
+      </c>
+      <c r="H207" s="50">
+        <v>8</v>
+      </c>
+      <c r="I207" s="50">
+        <v>4</v>
+      </c>
+      <c r="J207" s="50">
+        <v>2</v>
+      </c>
+      <c r="K207" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="4:11">
+      <c r="D208" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E208" t="s">
+        <v>33</v>
+      </c>
+      <c r="F208" t="s">
+        <v>32</v>
+      </c>
+      <c r="G208" t="s">
+        <v>31</v>
+      </c>
+      <c r="H208" t="s">
+        <v>30</v>
+      </c>
+      <c r="I208" t="s">
+        <v>29</v>
+      </c>
+      <c r="J208" t="s">
+        <v>28</v>
+      </c>
+      <c r="K208" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="209" spans="4:14">
+      <c r="D209" s="125" t="s">
+        <v>2311</v>
+      </c>
+      <c r="E209" s="125" t="s">
+        <v>2310</v>
+      </c>
+      <c r="F209" s="125"/>
+      <c r="G209" s="125"/>
+      <c r="H209" s="125"/>
+      <c r="I209" s="125"/>
+      <c r="J209" s="125" t="s">
+        <v>2311</v>
+      </c>
+      <c r="K209" s="125" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="210" spans="4:14">
+      <c r="D210" s="254"/>
+      <c r="E210" s="254"/>
+      <c r="F210" s="254"/>
+      <c r="G210" s="254"/>
+      <c r="H210" s="258"/>
+      <c r="I210" s="258">
+        <v>1</v>
+      </c>
+      <c r="J210" s="258">
+        <v>0</v>
+      </c>
+      <c r="K210" s="258">
+        <v>1</v>
+      </c>
+      <c r="L210" s="259">
+        <v>5</v>
+      </c>
+      <c r="N210" s="67"/>
+    </row>
+    <row r="211" spans="4:14">
+      <c r="D211" s="50"/>
+      <c r="E211" s="50"/>
+      <c r="F211" s="50"/>
+      <c r="G211" s="50"/>
+      <c r="H211" s="259"/>
+      <c r="I211" s="259">
+        <v>1</v>
+      </c>
+      <c r="J211" s="259">
+        <v>1</v>
+      </c>
+      <c r="K211" s="259">
+        <v>1</v>
+      </c>
+      <c r="L211" s="259">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="4:14">
+      <c r="H212" s="67"/>
+      <c r="I212" s="67">
+        <v>1</v>
+      </c>
+      <c r="J212" s="67">
+        <v>0</v>
+      </c>
+      <c r="K212" s="67">
+        <v>1</v>
+      </c>
+      <c r="L212" t="s">
+        <v>2875</v>
+      </c>
+      <c r="M212" s="153" t="s">
+        <v>2877</v>
+      </c>
+      <c r="N212" s="67"/>
+    </row>
+    <row r="213" spans="4:14">
+      <c r="H213" s="67"/>
+      <c r="I213" s="67">
+        <v>1</v>
+      </c>
+      <c r="J213" s="67">
+        <v>1</v>
+      </c>
+      <c r="K213" s="67">
+        <v>1</v>
+      </c>
+      <c r="L213" t="s">
+        <v>2876</v>
+      </c>
+      <c r="M213" s="153" t="s">
+        <v>2878</v>
+      </c>
+      <c r="N213" s="67"/>
+    </row>
+    <row r="214" spans="4:14">
+      <c r="H214" s="67"/>
+      <c r="I214" s="50">
+        <v>0</v>
+      </c>
+      <c r="J214" s="50">
+        <v>1</v>
+      </c>
+      <c r="K214" s="67">
+        <v>0</v>
+      </c>
+      <c r="L214" t="s">
+        <v>2879</v>
+      </c>
+      <c r="M214">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="N214" s="67"/>
+    </row>
+    <row r="246" spans="3:14" ht="15.75" thickBot="1"/>
+    <row r="247" spans="3:14">
+      <c r="G247" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H247" s="24"/>
+      <c r="I247" s="24"/>
+      <c r="J247" s="24"/>
+      <c r="K247" s="24"/>
+      <c r="L247" s="24"/>
+      <c r="M247" s="24"/>
+      <c r="N247" s="25"/>
+    </row>
+    <row r="248" spans="3:14">
+      <c r="G248" s="26"/>
+      <c r="H248" s="20"/>
+      <c r="I248" s="20"/>
+      <c r="J248" s="20"/>
+      <c r="K248" s="20"/>
+      <c r="L248" s="20"/>
+      <c r="M248" s="20"/>
+      <c r="N248" s="27"/>
+    </row>
+    <row r="249" spans="3:14">
+      <c r="G249" s="26"/>
+      <c r="H249" s="134" t="s">
+        <v>1548</v>
+      </c>
+      <c r="I249" s="20"/>
+      <c r="J249" s="20"/>
+      <c r="K249" s="143" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L249" s="20"/>
+      <c r="M249" s="20"/>
+      <c r="N249" s="27"/>
+    </row>
+    <row r="250" spans="3:14">
+      <c r="G250" s="26"/>
+      <c r="H250" s="20"/>
+      <c r="I250" s="20"/>
+      <c r="J250" s="20"/>
+      <c r="K250" s="20"/>
+      <c r="L250" s="20"/>
+      <c r="M250" s="20"/>
+      <c r="N250" s="27"/>
+    </row>
+    <row r="251" spans="3:14">
+      <c r="G251" s="26"/>
+      <c r="H251" s="20"/>
+      <c r="I251" s="20"/>
+      <c r="J251" s="20"/>
+      <c r="K251" s="20"/>
+      <c r="L251" s="20"/>
+      <c r="M251" s="20"/>
+      <c r="N251" s="27"/>
+    </row>
+    <row r="252" spans="3:14">
+      <c r="E252" t="s">
+        <v>1559</v>
+      </c>
+      <c r="G252" s="26"/>
+      <c r="H252" s="134" t="s">
+        <v>1549</v>
+      </c>
+      <c r="I252" s="20"/>
+      <c r="J252" s="20"/>
+      <c r="K252" s="143" t="s">
+        <v>1553</v>
+      </c>
+      <c r="L252" s="20"/>
+      <c r="M252" s="20"/>
+      <c r="N252" s="27"/>
+    </row>
+    <row r="253" spans="3:14">
+      <c r="C253" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E253" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G253" s="26"/>
+      <c r="H253" s="20"/>
+      <c r="I253" s="20"/>
+      <c r="J253" s="20"/>
+      <c r="K253" s="20"/>
+      <c r="L253" s="20"/>
+      <c r="M253" s="20"/>
+      <c r="N253" s="27"/>
+    </row>
+    <row r="254" spans="3:14">
+      <c r="G254" s="26"/>
+      <c r="H254" s="20"/>
+      <c r="I254" s="20"/>
+      <c r="J254" s="20"/>
+      <c r="K254" s="143" t="s">
+        <v>1554</v>
+      </c>
+      <c r="L254" s="20"/>
+      <c r="M254" s="20"/>
+      <c r="N254" s="27"/>
+    </row>
+    <row r="255" spans="3:14">
+      <c r="C255" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E255" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G255" s="26"/>
+      <c r="H255" s="134" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I255" s="20"/>
+      <c r="J255" s="20"/>
+      <c r="K255" s="20"/>
+      <c r="L255" s="20"/>
+      <c r="M255" s="20"/>
+      <c r="N255" s="27"/>
+    </row>
+    <row r="256" spans="3:14">
+      <c r="G256" s="26"/>
+      <c r="H256" s="20"/>
+      <c r="I256" s="20"/>
+      <c r="J256" s="20"/>
+      <c r="K256" s="20"/>
+      <c r="L256" s="20"/>
+      <c r="M256" s="20"/>
+      <c r="N256" s="27"/>
+    </row>
+    <row r="257" spans="7:14">
+      <c r="G257" s="26"/>
+      <c r="H257" s="20"/>
+      <c r="I257" s="20"/>
+      <c r="J257" s="20"/>
+      <c r="K257" s="20"/>
+      <c r="L257" s="20"/>
+      <c r="M257" s="20"/>
+      <c r="N257" s="27"/>
+    </row>
+    <row r="258" spans="7:14">
+      <c r="G258" s="26"/>
+      <c r="H258" s="134" t="s">
+        <v>1551</v>
+      </c>
+      <c r="I258" s="20"/>
+      <c r="J258" s="20"/>
+      <c r="K258" s="20"/>
+      <c r="L258" s="20"/>
+      <c r="M258" s="20"/>
+      <c r="N258" s="27"/>
+    </row>
+    <row r="259" spans="7:14">
+      <c r="G259" s="26"/>
+      <c r="H259" s="20"/>
+      <c r="I259" s="20"/>
+      <c r="J259" s="20"/>
+      <c r="K259" s="20"/>
+      <c r="L259" s="20"/>
+      <c r="M259" s="20"/>
+      <c r="N259" s="27"/>
+    </row>
+    <row r="260" spans="7:14">
+      <c r="G260" s="26"/>
+      <c r="H260" s="20"/>
+      <c r="I260" s="20"/>
+      <c r="J260" s="20"/>
+      <c r="K260" s="20"/>
+      <c r="L260" s="20"/>
+      <c r="M260" s="20"/>
+      <c r="N260" s="27"/>
+    </row>
+    <row r="261" spans="7:14">
+      <c r="G261" s="26"/>
+      <c r="H261" s="20"/>
+      <c r="I261" s="20"/>
+      <c r="J261" s="20"/>
+      <c r="K261" s="20"/>
+      <c r="L261" s="20"/>
+      <c r="M261" s="20"/>
+      <c r="N261" s="27"/>
+    </row>
+    <row r="262" spans="7:14" ht="15.75" thickBot="1">
+      <c r="G262" s="28" t="s">
+        <v>1555</v>
+      </c>
+      <c r="H262" s="29"/>
+      <c r="I262" s="29" t="s">
+        <v>1558</v>
+      </c>
+      <c r="J262" s="29"/>
+      <c r="K262" s="29"/>
+      <c r="L262" s="29"/>
+      <c r="M262" s="29"/>
+      <c r="N262" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:R294"/>
   <sheetViews>
@@ -53905,10 +55321,10 @@
       </c>
       <c r="G121" s="23"/>
       <c r="H121" s="24"/>
-      <c r="I121" s="369" t="s">
+      <c r="I121" s="384" t="s">
         <v>2785</v>
       </c>
-      <c r="J121" s="369" t="s">
+      <c r="J121" s="384" t="s">
         <v>2789</v>
       </c>
       <c r="K121" s="20"/>
@@ -53924,8 +55340,8 @@
       <c r="H122" s="20" t="s">
         <v>558</v>
       </c>
-      <c r="I122" s="370"/>
-      <c r="J122" s="370"/>
+      <c r="I122" s="385"/>
+      <c r="J122" s="385"/>
       <c r="K122" s="20"/>
       <c r="L122" s="20"/>
       <c r="M122" s="27"/>
@@ -53939,8 +55355,8 @@
       <c r="H123" s="20">
         <v>19</v>
       </c>
-      <c r="I123" s="370"/>
-      <c r="J123" s="370"/>
+      <c r="I123" s="385"/>
+      <c r="J123" s="385"/>
       <c r="K123" s="20"/>
       <c r="L123" s="20"/>
       <c r="M123" s="27"/>
@@ -53954,8 +55370,8 @@
       <c r="H124" s="29" t="s">
         <v>1895</v>
       </c>
-      <c r="I124" s="370"/>
-      <c r="J124" s="370"/>
+      <c r="I124" s="385"/>
+      <c r="J124" s="385"/>
       <c r="K124" s="20"/>
       <c r="L124" s="20"/>
       <c r="M124" s="27"/>
@@ -53965,8 +55381,8 @@
       <c r="F125" s="20"/>
       <c r="G125" s="20"/>
       <c r="H125" s="20"/>
-      <c r="I125" s="370"/>
-      <c r="J125" s="370"/>
+      <c r="I125" s="385"/>
+      <c r="J125" s="385"/>
       <c r="K125" s="20"/>
       <c r="L125" s="20"/>
       <c r="M125" s="27"/>
@@ -53979,8 +55395,8 @@
       <c r="F126" s="20"/>
       <c r="G126" s="20"/>
       <c r="H126" s="20"/>
-      <c r="I126" s="370"/>
-      <c r="J126" s="370"/>
+      <c r="I126" s="385"/>
+      <c r="J126" s="385"/>
       <c r="K126" s="20"/>
       <c r="L126" s="20"/>
       <c r="M126" s="27"/>
@@ -53992,8 +55408,8 @@
       </c>
       <c r="G127" s="23"/>
       <c r="H127" s="24"/>
-      <c r="I127" s="370"/>
-      <c r="J127" s="370"/>
+      <c r="I127" s="385"/>
+      <c r="J127" s="385"/>
       <c r="K127" s="20"/>
       <c r="L127" s="20"/>
       <c r="M127" s="27"/>
@@ -54007,8 +55423,8 @@
       <c r="H128" s="20" t="s">
         <v>523</v>
       </c>
-      <c r="I128" s="370"/>
-      <c r="J128" s="370"/>
+      <c r="I128" s="385"/>
+      <c r="J128" s="385"/>
       <c r="K128" s="20"/>
       <c r="L128" s="20"/>
       <c r="M128" s="27"/>
@@ -54022,8 +55438,8 @@
       <c r="H129" s="20">
         <v>20</v>
       </c>
-      <c r="I129" s="370"/>
-      <c r="J129" s="370"/>
+      <c r="I129" s="385"/>
+      <c r="J129" s="385"/>
       <c r="K129" s="20"/>
       <c r="L129" s="20"/>
       <c r="M129" s="27"/>
@@ -54037,8 +55453,8 @@
       <c r="H130" s="29" t="s">
         <v>2781</v>
       </c>
-      <c r="I130" s="370"/>
-      <c r="J130" s="370"/>
+      <c r="I130" s="385"/>
+      <c r="J130" s="385"/>
       <c r="K130" s="20"/>
       <c r="L130" s="20"/>
       <c r="M130" s="27"/>
@@ -54048,8 +55464,8 @@
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
       <c r="H131" s="20"/>
-      <c r="I131" s="370"/>
-      <c r="J131" s="370"/>
+      <c r="I131" s="385"/>
+      <c r="J131" s="385"/>
       <c r="K131" s="20"/>
       <c r="L131" s="20"/>
       <c r="M131" s="27"/>
@@ -54061,8 +55477,8 @@
       </c>
       <c r="G132" s="23"/>
       <c r="H132" s="24"/>
-      <c r="I132" s="370"/>
-      <c r="J132" s="370"/>
+      <c r="I132" s="385"/>
+      <c r="J132" s="385"/>
       <c r="K132" s="20"/>
       <c r="L132" s="20"/>
       <c r="M132" s="27"/>
@@ -54076,8 +55492,8 @@
       <c r="H133" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="I133" s="370"/>
-      <c r="J133" s="370"/>
+      <c r="I133" s="385"/>
+      <c r="J133" s="385"/>
       <c r="K133" s="20"/>
       <c r="L133" s="20"/>
       <c r="M133" s="27"/>
@@ -54091,8 +55507,8 @@
       <c r="H134" s="20">
         <v>18</v>
       </c>
-      <c r="I134" s="370"/>
-      <c r="J134" s="370"/>
+      <c r="I134" s="385"/>
+      <c r="J134" s="385"/>
       <c r="K134" s="20"/>
       <c r="L134" s="20"/>
       <c r="M134" s="27"/>
@@ -54106,8 +55522,8 @@
       <c r="H135" s="29" t="s">
         <v>2782</v>
       </c>
-      <c r="I135" s="371"/>
-      <c r="J135" s="371"/>
+      <c r="I135" s="386"/>
+      <c r="J135" s="386"/>
       <c r="K135" s="20"/>
       <c r="L135" s="20"/>
       <c r="M135" s="27"/>
@@ -54187,8 +55603,8 @@
       <c r="H147" s="24" t="s">
         <v>2788</v>
       </c>
-      <c r="I147" s="372"/>
-      <c r="J147" s="372"/>
+      <c r="I147" s="387"/>
+      <c r="J147" s="387"/>
       <c r="K147" s="20"/>
       <c r="L147" s="20"/>
       <c r="M147" s="27"/>
@@ -54202,8 +55618,8 @@
       <c r="H148" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="I148" s="373"/>
-      <c r="J148" s="373"/>
+      <c r="I148" s="388"/>
+      <c r="J148" s="388"/>
       <c r="K148" s="20"/>
       <c r="L148" s="20"/>
       <c r="M148" s="27"/>
@@ -54217,8 +55633,8 @@
       <c r="H149" s="20">
         <v>19</v>
       </c>
-      <c r="I149" s="373"/>
-      <c r="J149" s="373"/>
+      <c r="I149" s="388"/>
+      <c r="J149" s="388"/>
       <c r="K149" s="20"/>
       <c r="L149" s="20"/>
       <c r="M149" s="27"/>
@@ -54232,8 +55648,8 @@
       <c r="H150" s="29" t="s">
         <v>1895</v>
       </c>
-      <c r="I150" s="373"/>
-      <c r="J150" s="373"/>
+      <c r="I150" s="388"/>
+      <c r="J150" s="388"/>
       <c r="K150" s="20"/>
       <c r="L150" s="20"/>
       <c r="M150" s="27"/>
@@ -54243,8 +55659,8 @@
       <c r="F151" s="20"/>
       <c r="G151" s="20"/>
       <c r="H151" s="20"/>
-      <c r="I151" s="373"/>
-      <c r="J151" s="373"/>
+      <c r="I151" s="388"/>
+      <c r="J151" s="388"/>
       <c r="K151" s="20"/>
       <c r="L151" s="20"/>
       <c r="M151" s="27"/>
@@ -54254,8 +55670,8 @@
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
-      <c r="I152" s="373"/>
-      <c r="J152" s="373"/>
+      <c r="I152" s="388"/>
+      <c r="J152" s="388"/>
       <c r="K152" s="20"/>
       <c r="L152" s="20"/>
       <c r="M152" s="27"/>
@@ -54271,8 +55687,8 @@
       <c r="H153" s="24" t="s">
         <v>2788</v>
       </c>
-      <c r="I153" s="373"/>
-      <c r="J153" s="373"/>
+      <c r="I153" s="388"/>
+      <c r="J153" s="388"/>
       <c r="K153" s="20"/>
       <c r="L153" s="20"/>
       <c r="M153" s="27"/>
@@ -54289,8 +55705,8 @@
       <c r="H154" s="20" t="s">
         <v>523</v>
       </c>
-      <c r="I154" s="373"/>
-      <c r="J154" s="373"/>
+      <c r="I154" s="388"/>
+      <c r="J154" s="388"/>
       <c r="K154" s="20"/>
       <c r="L154" s="20"/>
       <c r="M154" s="27"/>
@@ -54304,8 +55720,8 @@
       <c r="H155" s="20">
         <v>20</v>
       </c>
-      <c r="I155" s="373"/>
-      <c r="J155" s="373"/>
+      <c r="I155" s="388"/>
+      <c r="J155" s="388"/>
       <c r="K155" s="20"/>
       <c r="L155" s="20"/>
       <c r="M155" s="27"/>
@@ -54319,8 +55735,8 @@
       <c r="H156" s="29" t="s">
         <v>2781</v>
       </c>
-      <c r="I156" s="373"/>
-      <c r="J156" s="373"/>
+      <c r="I156" s="388"/>
+      <c r="J156" s="388"/>
       <c r="K156" s="20"/>
       <c r="L156" s="20"/>
       <c r="M156" s="27"/>
@@ -54330,8 +55746,8 @@
       <c r="F157" s="20"/>
       <c r="G157" s="20"/>
       <c r="H157" s="20"/>
-      <c r="I157" s="373"/>
-      <c r="J157" s="373"/>
+      <c r="I157" s="388"/>
+      <c r="J157" s="388"/>
       <c r="K157" s="20"/>
       <c r="L157" s="20"/>
       <c r="M157" s="27"/>
@@ -54347,8 +55763,8 @@
       <c r="H158" s="24" t="s">
         <v>2788</v>
       </c>
-      <c r="I158" s="373"/>
-      <c r="J158" s="373"/>
+      <c r="I158" s="388"/>
+      <c r="J158" s="388"/>
       <c r="K158" s="20"/>
       <c r="L158" s="20"/>
       <c r="M158" s="27"/>
@@ -54362,8 +55778,8 @@
       <c r="H159" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="I159" s="373"/>
-      <c r="J159" s="373"/>
+      <c r="I159" s="388"/>
+      <c r="J159" s="388"/>
       <c r="K159" s="20"/>
       <c r="L159" s="20"/>
       <c r="M159" s="27"/>
@@ -54377,8 +55793,8 @@
       <c r="H160" s="20">
         <v>18</v>
       </c>
-      <c r="I160" s="373"/>
-      <c r="J160" s="373"/>
+      <c r="I160" s="388"/>
+      <c r="J160" s="388"/>
       <c r="K160" s="20"/>
       <c r="L160" s="20"/>
       <c r="M160" s="27"/>
@@ -54392,8 +55808,8 @@
       <c r="H161" s="29" t="s">
         <v>2782</v>
       </c>
-      <c r="I161" s="374"/>
-      <c r="J161" s="374"/>
+      <c r="I161" s="389"/>
+      <c r="J161" s="389"/>
       <c r="K161" s="20"/>
       <c r="L161" s="20"/>
       <c r="M161" s="27"/>
@@ -55352,7 +56768,7 @@
       <c r="F269" s="32">
         <v>9</v>
       </c>
-      <c r="G269" s="367" t="s">
+      <c r="G269" s="382" t="s">
         <v>2408</v>
       </c>
       <c r="I269" s="49" t="s">
@@ -55373,7 +56789,7 @@
       <c r="F270" s="32">
         <v>15</v>
       </c>
-      <c r="G270" s="368"/>
+      <c r="G270" s="383"/>
       <c r="I270" s="155" t="s">
         <v>2404</v>
       </c>
@@ -55677,7 +57093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P47"/>
   <sheetViews>
@@ -56237,7 +57653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q107"/>
   <sheetViews>
@@ -56836,7 +58252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A23"/>
   <sheetViews>
@@ -56937,7 +58353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O234"/>
   <sheetViews>
@@ -56966,17 +58382,17 @@
       <c r="A2" t="s">
         <v>2816</v>
       </c>
-      <c r="E2" s="364" t="s">
+      <c r="E2" s="379" t="s">
         <v>2824</v>
       </c>
-      <c r="F2" s="366"/>
-      <c r="G2" s="366"/>
-      <c r="H2" s="366"/>
-      <c r="I2" s="366"/>
-      <c r="J2" s="366"/>
-      <c r="K2" s="366"/>
-      <c r="L2" s="366"/>
-      <c r="M2" s="365"/>
+      <c r="F2" s="381"/>
+      <c r="G2" s="381"/>
+      <c r="H2" s="381"/>
+      <c r="I2" s="381"/>
+      <c r="J2" s="381"/>
+      <c r="K2" s="381"/>
+      <c r="L2" s="381"/>
+      <c r="M2" s="380"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="B3" t="s">
@@ -57262,17 +58678,17 @@
       <c r="A23" t="s">
         <v>2816</v>
       </c>
-      <c r="E23" s="364" t="s">
+      <c r="E23" s="379" t="s">
         <v>2824</v>
       </c>
-      <c r="F23" s="366"/>
-      <c r="G23" s="366"/>
-      <c r="H23" s="366"/>
-      <c r="I23" s="366"/>
-      <c r="J23" s="366"/>
-      <c r="K23" s="366"/>
-      <c r="L23" s="366"/>
-      <c r="M23" s="365"/>
+      <c r="F23" s="381"/>
+      <c r="G23" s="381"/>
+      <c r="H23" s="381"/>
+      <c r="I23" s="381"/>
+      <c r="J23" s="381"/>
+      <c r="K23" s="381"/>
+      <c r="L23" s="381"/>
+      <c r="M23" s="380"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1">
       <c r="B24" t="s">
@@ -57548,17 +58964,17 @@
       <c r="A42" t="s">
         <v>2816</v>
       </c>
-      <c r="E42" s="364" t="s">
+      <c r="E42" s="379" t="s">
         <v>2824</v>
       </c>
-      <c r="F42" s="366"/>
-      <c r="G42" s="366"/>
-      <c r="H42" s="366"/>
-      <c r="I42" s="366"/>
-      <c r="J42" s="366"/>
-      <c r="K42" s="366"/>
-      <c r="L42" s="366"/>
-      <c r="M42" s="365"/>
+      <c r="F42" s="381"/>
+      <c r="G42" s="381"/>
+      <c r="H42" s="381"/>
+      <c r="I42" s="381"/>
+      <c r="J42" s="381"/>
+      <c r="K42" s="381"/>
+      <c r="L42" s="381"/>
+      <c r="M42" s="380"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1">
       <c r="B43" t="s">
@@ -57860,17 +59276,17 @@
       <c r="B64" s="308"/>
       <c r="C64" s="308"/>
       <c r="D64" s="308"/>
-      <c r="G64" s="364" t="s">
+      <c r="G64" s="379" t="s">
         <v>2824</v>
       </c>
-      <c r="H64" s="366"/>
-      <c r="I64" s="366"/>
-      <c r="J64" s="366"/>
-      <c r="K64" s="366"/>
-      <c r="L64" s="366"/>
-      <c r="M64" s="366"/>
-      <c r="N64" s="366"/>
-      <c r="O64" s="365"/>
+      <c r="H64" s="381"/>
+      <c r="I64" s="381"/>
+      <c r="J64" s="381"/>
+      <c r="K64" s="381"/>
+      <c r="L64" s="381"/>
+      <c r="M64" s="381"/>
+      <c r="N64" s="381"/>
+      <c r="O64" s="380"/>
     </row>
     <row r="65" spans="1:15" ht="15.75" thickBot="1">
       <c r="B65" t="s">
@@ -60795,369 +62211,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M33"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:F30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:13">
-      <c r="B2" s="375" t="s">
-        <v>2225</v>
-      </c>
-      <c r="C2" s="376"/>
-      <c r="D2" s="377"/>
-      <c r="F2" s="375" t="s">
-        <v>2791</v>
-      </c>
-      <c r="G2" s="376"/>
-      <c r="H2" s="376"/>
-      <c r="I2" s="377"/>
-      <c r="K2" s="375" t="s">
-        <v>2793</v>
-      </c>
-      <c r="L2" s="376"/>
-      <c r="M2" s="377"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="B3" s="378"/>
-      <c r="C3" s="379"/>
-      <c r="D3" s="380"/>
-      <c r="F3" s="378"/>
-      <c r="G3" s="379"/>
-      <c r="H3" s="379"/>
-      <c r="I3" s="380"/>
-      <c r="K3" s="378"/>
-      <c r="L3" s="379"/>
-      <c r="M3" s="380"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4" s="378"/>
-      <c r="C4" s="379"/>
-      <c r="D4" s="380"/>
-      <c r="F4" s="378"/>
-      <c r="G4" s="379"/>
-      <c r="H4" s="379"/>
-      <c r="I4" s="380"/>
-      <c r="K4" s="378"/>
-      <c r="L4" s="379"/>
-      <c r="M4" s="380"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="381" t="s">
-        <v>2049</v>
-      </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="34">
-        <v>100000</v>
-      </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>523</v>
-      </c>
-      <c r="I5" s="34"/>
-      <c r="K5" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>558</v>
-      </c>
-      <c r="M5" s="34"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="381"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>411</v>
-      </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="32" t="s">
-        <v>2762</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>2792</v>
-      </c>
-      <c r="I6" s="34"/>
-      <c r="K6" s="73" t="s">
-        <v>2762</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>2794</v>
-      </c>
-      <c r="M6" s="34"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="381"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="32" t="s">
-        <v>2795</v>
-      </c>
-      <c r="D7" s="34">
-        <v>750</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="27"/>
-      <c r="K7" s="73" t="s">
-        <v>2804</v>
-      </c>
-      <c r="L7" s="32">
-        <v>50000</v>
-      </c>
-      <c r="M7" s="34"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="26"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="27"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="27"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="27"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="381" t="s">
-        <v>202</v>
-      </c>
-      <c r="B9" s="289" t="s">
-        <v>2790</v>
-      </c>
-      <c r="C9" s="134"/>
-      <c r="D9" s="236"/>
-      <c r="F9" s="289" t="s">
-        <v>2798</v>
-      </c>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="236"/>
-      <c r="K9" s="289" t="s">
-        <v>2797</v>
-      </c>
-      <c r="L9" s="134"/>
-      <c r="M9" s="236"/>
-    </row>
-    <row r="10" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A10" s="381"/>
-      <c r="B10" s="289"/>
-      <c r="C10" s="290" t="s">
-        <v>2800</v>
-      </c>
-      <c r="D10" s="236"/>
-      <c r="E10" t="s">
-        <v>2802</v>
-      </c>
-      <c r="F10" s="289"/>
-      <c r="G10" s="134" t="s">
-        <v>2803</v>
-      </c>
-      <c r="H10" s="236"/>
-      <c r="I10" s="236"/>
-      <c r="K10" s="289"/>
-      <c r="L10" s="134" t="s">
-        <v>2796</v>
-      </c>
-      <c r="M10" s="236"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="381"/>
-      <c r="B11" s="289"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="236"/>
-      <c r="F11" s="289"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="236" t="s">
-        <v>2799</v>
-      </c>
-      <c r="I11" s="236"/>
-      <c r="J11" t="s">
-        <v>2801</v>
-      </c>
-      <c r="K11" s="289"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="236" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="381"/>
-      <c r="B12" s="289"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="236"/>
-      <c r="F12" s="289"/>
-      <c r="G12" s="134" t="s">
-        <v>136</v>
-      </c>
-      <c r="H12" s="236"/>
-      <c r="I12" s="236"/>
-      <c r="K12" s="289"/>
-      <c r="L12" s="134" t="s">
-        <v>136</v>
-      </c>
-      <c r="M12" s="236"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="B13" s="26"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="27"/>
-      <c r="F13" s="289"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="236" t="s">
-        <v>1945</v>
-      </c>
-      <c r="I13" s="236"/>
-      <c r="K13" s="289"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="236" t="s">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="80"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>2805</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="B17" t="s">
-        <v>2806</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="B18" t="s">
-        <v>2807</v>
-      </c>
-      <c r="F18" t="s">
-        <v>2811</v>
-      </c>
-      <c r="H18" t="s">
-        <v>2812</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="H19" t="s">
-        <v>2813</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>2808</v>
-      </c>
-      <c r="H20" t="s">
-        <v>2814</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="B21" t="s">
-        <v>2809</v>
-      </c>
-      <c r="H21" t="s">
-        <v>2815</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="B22" t="s">
-        <v>2810</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1">
-      <c r="D24" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="B26" s="36"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="27"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1">
-      <c r="B27" s="36"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="27"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1">
-      <c r="B28" s="36"/>
-      <c r="D28" s="291"/>
-      <c r="E28" s="292"/>
-      <c r="F28" s="293"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1">
-      <c r="B29" s="36"/>
-      <c r="D29" s="291"/>
-      <c r="E29" s="292"/>
-      <c r="F29" s="293"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1">
-      <c r="B30" s="36"/>
-      <c r="D30" s="291"/>
-      <c r="E30" s="292"/>
-      <c r="F30" s="293"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="B31" s="36"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="D32" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" t="s">
-        <v>280</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="F2:I4"/>
-    <mergeCell ref="K2:M4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A9:A12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="git" sheetId="31" r:id="rId1"/>
@@ -8614,9 +8614,6 @@
     <t>p2.name="samsung";</t>
   </si>
   <si>
-    <t>p2.quantity=10;</t>
-  </si>
-  <si>
     <t>Java Memory</t>
   </si>
   <si>
@@ -9903,6 +9900,9 @@
   </si>
   <si>
     <t>Central Processing unit</t>
+  </si>
+  <si>
+    <t>p1="moto";</t>
   </si>
 </sst>
 </file>
@@ -11267,6 +11267,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11484,9 +11487,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11811,26 +11811,26 @@
     </row>
     <row r="2" spans="1:32" ht="15.75" thickBot="1">
       <c r="E2" t="s">
+        <v>2956</v>
+      </c>
+      <c r="J2" t="s">
         <v>2957</v>
       </c>
-      <c r="J2" t="s">
-        <v>2958</v>
-      </c>
       <c r="M2" s="26" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="N2" s="27"/>
       <c r="O2" s="20"/>
       <c r="P2" s="26" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="Q2" s="27"/>
       <c r="AB2" s="26" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="AC2" s="27"/>
       <c r="AE2" s="26" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="AF2" s="27"/>
     </row>
@@ -11843,32 +11843,32 @@
       <c r="J3" s="23"/>
       <c r="K3" s="25"/>
       <c r="M3" s="26" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="N3" s="27"/>
       <c r="O3" s="20"/>
       <c r="P3" s="26" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="Q3" s="27"/>
       <c r="S3" t="s">
+        <v>2956</v>
+      </c>
+      <c r="Y3" t="s">
         <v>2957</v>
       </c>
-      <c r="Y3" t="s">
-        <v>2958</v>
-      </c>
       <c r="AB3" s="26" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="AC3" s="27"/>
       <c r="AE3" s="26" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="AF3" s="27"/>
     </row>
     <row r="4" spans="1:32" ht="15.75" thickBot="1">
       <c r="A4" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="27"/>
@@ -11914,12 +11914,12 @@
       <c r="J5" s="28"/>
       <c r="K5" s="30"/>
       <c r="M5" s="26" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="N5" s="27"/>
       <c r="O5" s="20"/>
       <c r="P5" s="26" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="Q5" s="27"/>
       <c r="S5" s="26"/>
@@ -11931,18 +11931,18 @@
       <c r="Y5" s="26"/>
       <c r="Z5" s="27"/>
       <c r="AB5" s="26" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="AC5" s="27"/>
       <c r="AE5" s="26" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="AF5" s="27"/>
     </row>
     <row r="6" spans="1:32" ht="15.75" thickBot="1">
       <c r="A6" s="26"/>
       <c r="B6" s="38" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="20"/>
@@ -11993,7 +11993,7 @@
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
       <c r="V7" s="20" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
@@ -12003,19 +12003,19 @@
     <row r="8" spans="1:32" ht="15.75" thickBot="1">
       <c r="A8" s="26"/>
       <c r="B8" s="38" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="20"/>
       <c r="G8" s="26" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="27"/>
       <c r="P8" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="S8" s="26"/>
       <c r="T8" s="20"/>
@@ -12028,7 +12028,7 @@
       <c r="Y8" s="20"/>
       <c r="Z8" s="27"/>
       <c r="AB8" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="15.75" thickBot="1">
@@ -12037,7 +12037,7 @@
       <c r="E9" s="26"/>
       <c r="F9" s="20"/>
       <c r="G9" s="26" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="20"/>
@@ -12047,17 +12047,17 @@
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
       <c r="V9" s="26" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="W9" s="27"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="27"/>
       <c r="AB9" t="s">
+        <v>2977</v>
+      </c>
+      <c r="AC9" t="s">
         <v>2978</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>2979</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="15.75" thickBot="1">
@@ -12071,23 +12071,23 @@
       <c r="J10" s="20"/>
       <c r="K10" s="27"/>
       <c r="N10" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="S10" s="26"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
       <c r="V10" s="26" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="W10" s="27"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="27"/>
       <c r="AB10" t="s">
+        <v>2979</v>
+      </c>
+      <c r="AC10" t="s">
         <v>2980</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>2981</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -12098,14 +12098,14 @@
       <c r="E11" s="26"/>
       <c r="F11" s="20"/>
       <c r="G11" s="26" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="27"/>
       <c r="N11" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="S11" s="26"/>
       <c r="T11" s="20"/>
@@ -12118,15 +12118,15 @@
       <c r="Y11" s="20"/>
       <c r="Z11" s="27"/>
       <c r="AB11" t="s">
+        <v>2981</v>
+      </c>
+      <c r="AD11" t="s">
         <v>2982</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>2983</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="15.75" thickBot="1">
       <c r="A12" s="26" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="B12" s="27"/>
       <c r="E12" s="26"/>
@@ -12142,7 +12142,7 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="26" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="W12" s="27"/>
       <c r="X12" s="20"/>
@@ -12151,7 +12151,7 @@
     </row>
     <row r="13" spans="1:32" ht="15.75" thickBot="1">
       <c r="A13" s="26" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="B13" s="27"/>
       <c r="E13" s="23"/>
@@ -12188,7 +12188,7 @@
       <c r="T14" s="25"/>
       <c r="U14" s="20"/>
       <c r="V14" s="76" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
@@ -12197,7 +12197,7 @@
     </row>
     <row r="15" spans="1:32" ht="15.75" thickBot="1">
       <c r="A15" s="26" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="B15" s="27"/>
       <c r="E15" s="28"/>
@@ -12222,16 +12222,16 @@
       </c>
       <c r="B16" s="30"/>
       <c r="E16" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="J16" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="S16" s="28"/>
       <c r="T16" s="30"/>
       <c r="U16" s="29"/>
       <c r="V16" s="29" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="W16" s="29"/>
       <c r="X16" s="29"/>
@@ -12244,13 +12244,13 @@
       </c>
       <c r="Q17" s="25"/>
       <c r="S17" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="Z17" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="AB17" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="18" spans="5:31">
@@ -12259,7 +12259,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="P18" s="26" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="Q18" s="27"/>
       <c r="AB18" s="329">
@@ -12269,56 +12269,56 @@
     </row>
     <row r="19" spans="5:31">
       <c r="E19" s="26" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="F19" s="27"/>
       <c r="H19" t="s">
+        <v>2965</v>
+      </c>
+      <c r="L19" t="s">
         <v>2966</v>
       </c>
-      <c r="L19" t="s">
-        <v>2967</v>
-      </c>
       <c r="P19" s="26" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="Q19" s="27"/>
       <c r="S19" t="s">
+        <v>2969</v>
+      </c>
+      <c r="T19" t="s">
         <v>2970</v>
       </c>
-      <c r="T19" t="s">
-        <v>2971</v>
-      </c>
       <c r="AB19" s="26" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="AC19" s="27"/>
       <c r="AE19" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="20" spans="5:31">
       <c r="E20" s="26" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="F20" s="27"/>
       <c r="H20" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="L20" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="P20" s="26" t="s">
         <v>91</v>
       </c>
       <c r="Q20" s="27"/>
       <c r="S20" t="s">
+        <v>2972</v>
+      </c>
+      <c r="T20" t="s">
         <v>2973</v>
       </c>
-      <c r="T20" t="s">
-        <v>2974</v>
-      </c>
       <c r="AB20" s="26" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="AC20" s="27"/>
     </row>
@@ -12328,7 +12328,7 @@
       </c>
       <c r="F21" s="27"/>
       <c r="P21" s="26" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="Q21" s="27"/>
       <c r="AB21" s="26" t="s">
@@ -12336,12 +12336,12 @@
       </c>
       <c r="AC21" s="27"/>
       <c r="AE21" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="22" spans="5:31" ht="15.75" thickBot="1">
       <c r="E22" s="26" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="F22" s="27"/>
       <c r="P22" s="330">
@@ -12349,7 +12349,7 @@
       </c>
       <c r="Q22" s="30"/>
       <c r="AB22" s="26" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="AC22" s="27"/>
     </row>
@@ -12365,25 +12365,25 @@
     </row>
     <row r="24" spans="5:31">
       <c r="P24" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="V24" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="25" spans="5:31">
       <c r="V25" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="26" spans="5:31">
       <c r="V26" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="27" spans="5:31">
       <c r="V27" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
     </row>
   </sheetData>
@@ -12410,49 +12410,49 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13">
-      <c r="B2" s="413" t="s">
+      <c r="B2" s="414" t="s">
         <v>2187</v>
       </c>
-      <c r="C2" s="414"/>
-      <c r="D2" s="415"/>
-      <c r="F2" s="413" t="s">
+      <c r="C2" s="415"/>
+      <c r="D2" s="416"/>
+      <c r="F2" s="414" t="s">
         <v>2743</v>
       </c>
-      <c r="G2" s="414"/>
-      <c r="H2" s="414"/>
-      <c r="I2" s="415"/>
-      <c r="K2" s="413" t="s">
+      <c r="G2" s="415"/>
+      <c r="H2" s="415"/>
+      <c r="I2" s="416"/>
+      <c r="K2" s="414" t="s">
         <v>2745</v>
       </c>
-      <c r="L2" s="414"/>
-      <c r="M2" s="415"/>
+      <c r="L2" s="415"/>
+      <c r="M2" s="416"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="416"/>
-      <c r="C3" s="417"/>
-      <c r="D3" s="418"/>
-      <c r="F3" s="416"/>
-      <c r="G3" s="417"/>
-      <c r="H3" s="417"/>
-      <c r="I3" s="418"/>
-      <c r="K3" s="416"/>
-      <c r="L3" s="417"/>
-      <c r="M3" s="418"/>
+      <c r="B3" s="417"/>
+      <c r="C3" s="418"/>
+      <c r="D3" s="419"/>
+      <c r="F3" s="417"/>
+      <c r="G3" s="418"/>
+      <c r="H3" s="418"/>
+      <c r="I3" s="419"/>
+      <c r="K3" s="417"/>
+      <c r="L3" s="418"/>
+      <c r="M3" s="419"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="416"/>
-      <c r="C4" s="417"/>
-      <c r="D4" s="418"/>
-      <c r="F4" s="416"/>
-      <c r="G4" s="417"/>
-      <c r="H4" s="417"/>
-      <c r="I4" s="418"/>
-      <c r="K4" s="416"/>
-      <c r="L4" s="417"/>
-      <c r="M4" s="418"/>
+      <c r="B4" s="417"/>
+      <c r="C4" s="418"/>
+      <c r="D4" s="419"/>
+      <c r="F4" s="417"/>
+      <c r="G4" s="418"/>
+      <c r="H4" s="418"/>
+      <c r="I4" s="419"/>
+      <c r="K4" s="417"/>
+      <c r="L4" s="418"/>
+      <c r="M4" s="419"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="419" t="s">
+      <c r="A5" s="420" t="s">
         <v>2011</v>
       </c>
       <c r="B5" s="72"/>
@@ -12479,7 +12479,7 @@
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="419"/>
+      <c r="A6" s="420"/>
       <c r="B6" s="72"/>
       <c r="C6" s="32" t="s">
         <v>56</v>
@@ -12504,7 +12504,7 @@
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="419"/>
+      <c r="A7" s="420"/>
       <c r="B7" s="72"/>
       <c r="C7" s="32" t="s">
         <v>2747</v>
@@ -12537,7 +12537,7 @@
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="419" t="s">
+      <c r="A9" s="420" t="s">
         <v>201</v>
       </c>
       <c r="B9" s="288" t="s">
@@ -12558,7 +12558,7 @@
       <c r="M9" s="235"/>
     </row>
     <row r="10" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A10" s="419"/>
+      <c r="A10" s="420"/>
       <c r="B10" s="288"/>
       <c r="C10" s="289" t="s">
         <v>2752</v>
@@ -12580,7 +12580,7 @@
       <c r="M10" s="235"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="419"/>
+      <c r="A11" s="420"/>
       <c r="B11" s="288"/>
       <c r="C11" s="133"/>
       <c r="D11" s="235"/>
@@ -12600,7 +12600,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="419"/>
+      <c r="A12" s="420"/>
       <c r="B12" s="288"/>
       <c r="C12" s="133"/>
       <c r="D12" s="235"/>
@@ -12762,7 +12762,7 @@
   <dimension ref="A1:R411"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:Q20"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12780,23 +12780,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="420" t="s">
+      <c r="A1" s="421" t="s">
         <v>2378</v>
       </c>
-      <c r="B1" s="420"/>
-      <c r="C1" s="420"/>
-      <c r="D1" s="420"/>
-      <c r="E1" s="420"/>
-      <c r="F1" s="420"/>
-      <c r="I1" s="420" t="s">
+      <c r="B1" s="421"/>
+      <c r="C1" s="421"/>
+      <c r="D1" s="421"/>
+      <c r="E1" s="421"/>
+      <c r="F1" s="421"/>
+      <c r="I1" s="421" t="s">
         <v>2390</v>
       </c>
-      <c r="J1" s="420"/>
-      <c r="K1" s="420"/>
-      <c r="L1" s="420"/>
-      <c r="M1" s="420"/>
-      <c r="N1" s="420"/>
-      <c r="O1" s="420"/>
+      <c r="J1" s="421"/>
+      <c r="K1" s="421"/>
+      <c r="L1" s="421"/>
+      <c r="M1" s="421"/>
+      <c r="N1" s="421"/>
+      <c r="O1" s="421"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -12952,28 +12952,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="377" t="s">
+      <c r="A12" s="378" t="s">
         <v>2392</v>
       </c>
-      <c r="B12" s="379"/>
-      <c r="C12" s="379"/>
-      <c r="D12" s="379"/>
-      <c r="E12" s="379"/>
-      <c r="F12" s="379"/>
-      <c r="G12" s="379"/>
-      <c r="H12" s="378"/>
-      <c r="I12" s="377" t="s">
+      <c r="B12" s="380"/>
+      <c r="C12" s="380"/>
+      <c r="D12" s="380"/>
+      <c r="E12" s="380"/>
+      <c r="F12" s="380"/>
+      <c r="G12" s="380"/>
+      <c r="H12" s="379"/>
+      <c r="I12" s="378" t="s">
         <v>2392</v>
       </c>
-      <c r="J12" s="379"/>
-      <c r="K12" s="379"/>
-      <c r="L12" s="379"/>
-      <c r="M12" s="379"/>
-      <c r="N12" s="379"/>
-      <c r="O12" s="379"/>
-      <c r="P12" s="379"/>
-      <c r="Q12" s="379"/>
-      <c r="R12" s="378"/>
+      <c r="J12" s="380"/>
+      <c r="K12" s="380"/>
+      <c r="L12" s="380"/>
+      <c r="M12" s="380"/>
+      <c r="N12" s="380"/>
+      <c r="O12" s="380"/>
+      <c r="P12" s="380"/>
+      <c r="Q12" s="380"/>
+      <c r="R12" s="379"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="23" t="s">
@@ -13201,14 +13201,14 @@
       <c r="R21" s="30"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="420" t="s">
+      <c r="A24" s="421" t="s">
         <v>2378</v>
       </c>
-      <c r="B24" s="420"/>
-      <c r="C24" s="420"/>
-      <c r="D24" s="420"/>
-      <c r="E24" s="420"/>
-      <c r="F24" s="420"/>
+      <c r="B24" s="421"/>
+      <c r="C24" s="421"/>
+      <c r="D24" s="421"/>
+      <c r="E24" s="421"/>
+      <c r="F24" s="421"/>
       <c r="H24" s="244" t="s">
         <v>2390</v>
       </c>
@@ -13218,11 +13218,11 @@
       <c r="L24" s="244"/>
       <c r="M24" s="244"/>
       <c r="N24" s="244"/>
-      <c r="P24" s="420" t="s">
+      <c r="P24" s="421" t="s">
         <v>2431</v>
       </c>
-      <c r="Q24" s="420"/>
-      <c r="R24" s="420"/>
+      <c r="Q24" s="421"/>
+      <c r="R24" s="421"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="98" t="s">
@@ -13462,28 +13462,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="377" t="s">
+      <c r="A35" s="378" t="s">
         <v>2432</v>
       </c>
-      <c r="B35" s="379"/>
-      <c r="C35" s="379"/>
-      <c r="D35" s="379"/>
-      <c r="E35" s="379"/>
-      <c r="F35" s="379"/>
-      <c r="G35" s="379"/>
-      <c r="H35" s="378"/>
-      <c r="I35" s="377" t="s">
+      <c r="B35" s="380"/>
+      <c r="C35" s="380"/>
+      <c r="D35" s="380"/>
+      <c r="E35" s="380"/>
+      <c r="F35" s="380"/>
+      <c r="G35" s="380"/>
+      <c r="H35" s="379"/>
+      <c r="I35" s="378" t="s">
         <v>1048</v>
       </c>
-      <c r="J35" s="379"/>
-      <c r="K35" s="379"/>
-      <c r="L35" s="379"/>
-      <c r="M35" s="379"/>
-      <c r="N35" s="379"/>
-      <c r="O35" s="379"/>
-      <c r="P35" s="379"/>
-      <c r="Q35" s="379"/>
-      <c r="R35" s="378"/>
+      <c r="J35" s="380"/>
+      <c r="K35" s="380"/>
+      <c r="L35" s="380"/>
+      <c r="M35" s="380"/>
+      <c r="N35" s="380"/>
+      <c r="O35" s="380"/>
+      <c r="P35" s="380"/>
+      <c r="Q35" s="380"/>
+      <c r="R35" s="379"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="23" t="s">
@@ -22948,10 +22948,10 @@
         <v>640</v>
       </c>
       <c r="H32" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="I32" s="310" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -22959,10 +22959,10 @@
         <v>641</v>
       </c>
       <c r="H33" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -22988,7 +22988,7 @@
         <v>644</v>
       </c>
       <c r="H37" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -22996,7 +22996,7 @@
         <v>645</v>
       </c>
       <c r="H38" s="49" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -23012,7 +23012,7 @@
         <v>647</v>
       </c>
       <c r="H40" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -23690,7 +23690,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
       <c r="A1" s="20" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1">
@@ -23713,7 +23713,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="B3" s="20" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>1722</v>
@@ -23735,7 +23735,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="20" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>1723</v>
@@ -23763,14 +23763,14 @@
         <v>2090</v>
       </c>
       <c r="K5" s="312" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="L5" s="313"/>
       <c r="N5" s="27"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1">
       <c r="B6" s="20" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="F6" s="76"/>
       <c r="G6" s="31"/>
@@ -23795,7 +23795,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="C8" s="20" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="F8" s="26"/>
       <c r="J8" s="108" t="s">
@@ -23809,14 +23809,14 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="C9" s="20" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="F9" s="26"/>
       <c r="J9" s="147" t="s">
         <v>2090</v>
       </c>
       <c r="K9" s="312" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="L9" s="313"/>
       <c r="N9" s="27"/>
@@ -23830,7 +23830,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="20" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="F11" s="26"/>
       <c r="I11" s="20" t="s">
@@ -23861,14 +23861,14 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="C13" s="20" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="F13" s="26"/>
       <c r="J13" s="147" t="s">
         <v>2090</v>
       </c>
       <c r="K13" s="312" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="L13" s="313"/>
       <c r="N13" s="27"/>
@@ -23882,7 +23882,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="20" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="F15" s="26"/>
       <c r="N15" s="27"/>
@@ -23910,7 +23910,7 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1">
       <c r="A19" s="20" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="29"/>
@@ -23924,25 +23924,25 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="20" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="20" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="B26" s="20" t="s">
+        <v>2834</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>2835</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>2836</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="D27" s="20" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="119" spans="6:12">
@@ -24355,13 +24355,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="D5" s="26" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="27"/>
       <c r="K5" s="187" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="L5" s="158"/>
       <c r="M5" s="158"/>
@@ -24370,20 +24370,20 @@
     <row r="6" spans="1:14">
       <c r="D6" s="26"/>
       <c r="E6" s="20" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="27"/>
       <c r="K6" s="187"/>
       <c r="L6" s="158" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="M6" s="158"/>
       <c r="N6" s="188"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="20"/>
@@ -24396,7 +24396,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="20"/>
@@ -24419,17 +24419,17 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="H12" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="B13" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>711</v>
@@ -24448,10 +24448,10 @@
     </row>
     <row r="15" spans="1:14">
       <c r="B15" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="D15" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>931</v>
@@ -24463,7 +24463,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="D16" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="20"/>
@@ -24471,15 +24471,15 @@
       <c r="J16" s="20"/>
       <c r="K16" s="27"/>
       <c r="N16" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="B17" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="D17" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="20"/>
@@ -24515,7 +24515,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="D26" t="s">
         <v>2092</v>
@@ -24572,12 +24572,12 @@
     </row>
     <row r="7" spans="2:18">
       <c r="Q7" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="15.75" thickBot="1">
       <c r="Q8" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="9" spans="2:18">
@@ -26219,7 +26219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -26253,8 +26253,8 @@
       <c r="L1" s="117"/>
       <c r="M1" s="117"/>
       <c r="N1" s="117"/>
-      <c r="O1" s="366" t="s">
-        <v>3073</v>
+      <c r="O1" s="367" t="s">
+        <v>3072</v>
       </c>
       <c r="R1" s="38">
         <v>0</v>
@@ -26272,29 +26272,29 @@
       <c r="L2" s="117"/>
       <c r="M2" s="117"/>
       <c r="N2" s="117"/>
-      <c r="O2" s="366"/>
+      <c r="O2" s="367"/>
     </row>
     <row r="3" spans="1:46" ht="15.75" thickBot="1">
-      <c r="H3" s="374" t="s">
+      <c r="H3" s="375" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="375"/>
-      <c r="J3" s="375"/>
-      <c r="K3" s="375"/>
-      <c r="L3" s="376"/>
-      <c r="O3" s="366"/>
+      <c r="I3" s="376"/>
+      <c r="J3" s="376"/>
+      <c r="K3" s="376"/>
+      <c r="L3" s="377"/>
+      <c r="O3" s="367"/>
       <c r="P3" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="4" spans="1:46" ht="15.75" thickBot="1">
-      <c r="O4" s="366"/>
+      <c r="O4" s="367"/>
       <c r="P4" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D5" s="367" t="s">
+      <c r="D5" s="368" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
@@ -26311,35 +26311,35 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="366"/>
+      <c r="O5" s="367"/>
       <c r="P5" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="6" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D6" s="367"/>
+      <c r="D6" s="368"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="377" t="s">
+      <c r="G6" s="378" t="s">
         <v>1506</v>
       </c>
-      <c r="H6" s="378"/>
+      <c r="H6" s="379"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="377" t="s">
+      <c r="J6" s="378" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="378"/>
+      <c r="K6" s="379"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="377" t="s">
+      <c r="M6" s="378" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="379"/>
-      <c r="O6" s="366"/>
+      <c r="N6" s="380"/>
+      <c r="O6" s="367"/>
       <c r="P6" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="7" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D7" s="367"/>
+      <c r="D7" s="368"/>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -26349,15 +26349,15 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="366"/>
+      <c r="O7" s="367"/>
       <c r="AC7" s="113" t="s">
+        <v>3025</v>
+      </c>
+      <c r="AD7" s="232" t="s">
         <v>3026</v>
       </c>
-      <c r="AD7" s="232" t="s">
-        <v>3027</v>
-      </c>
       <c r="AE7" s="232" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="AF7" s="232"/>
       <c r="AG7" s="232"/>
@@ -26376,31 +26376,31 @@
       <c r="AT7" s="114"/>
     </row>
     <row r="8" spans="1:46">
-      <c r="D8" s="367"/>
+      <c r="D8" s="368"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="380" t="s">
+      <c r="G8" s="381" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="381"/>
+      <c r="H8" s="382"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="380" t="s">
+      <c r="J8" s="381" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="381"/>
+      <c r="K8" s="382"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="380" t="s">
+      <c r="M8" s="381" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="382"/>
-      <c r="O8" s="366"/>
+      <c r="N8" s="383"/>
+      <c r="O8" s="367"/>
       <c r="Q8" s="132"/>
       <c r="S8" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="AC8" s="169"/>
       <c r="AD8" s="20"/>
       <c r="AE8" s="20" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="AF8" s="20"/>
       <c r="AG8" s="20"/>
@@ -26419,7 +26419,7 @@
       <c r="AT8" s="68"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="D9" s="367"/>
+      <c r="D9" s="368"/>
       <c r="F9" s="3"/>
       <c r="G9" s="230"/>
       <c r="H9" s="230"/>
@@ -26429,16 +26429,16 @@
       <c r="L9" s="229"/>
       <c r="M9" s="230"/>
       <c r="N9" s="230"/>
-      <c r="O9" s="366"/>
+      <c r="O9" s="367"/>
       <c r="Q9" s="132"/>
       <c r="S9" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="U9" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="V9" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="AC9" s="169">
         <v>1</v>
@@ -26466,30 +26466,30 @@
       <c r="AT9" s="68"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="D10" s="367"/>
-      <c r="F10" s="370" t="s">
+      <c r="D10" s="368"/>
+      <c r="F10" s="371" t="s">
         <v>2286</v>
       </c>
-      <c r="G10" s="371"/>
-      <c r="H10" s="371"/>
-      <c r="I10" s="371"/>
-      <c r="J10" s="371"/>
-      <c r="K10" s="371"/>
-      <c r="L10" s="371"/>
-      <c r="M10" s="371"/>
-      <c r="N10" s="371"/>
-      <c r="O10" s="365" t="s">
-        <v>3072</v>
+      <c r="G10" s="372"/>
+      <c r="H10" s="372"/>
+      <c r="I10" s="372"/>
+      <c r="J10" s="372"/>
+      <c r="K10" s="372"/>
+      <c r="L10" s="372"/>
+      <c r="M10" s="372"/>
+      <c r="N10" s="372"/>
+      <c r="O10" s="366" t="s">
+        <v>3071</v>
       </c>
       <c r="Q10" s="132"/>
       <c r="S10" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="U10" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="V10" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="AC10" s="169"/>
       <c r="AD10" s="20"/>
@@ -26514,33 +26514,33 @@
     </row>
     <row r="11" spans="1:46" ht="15.75" thickBot="1">
       <c r="A11" t="s">
-        <v>2997</v>
-      </c>
-      <c r="D11" s="367"/>
+        <v>2996</v>
+      </c>
+      <c r="D11" s="368"/>
       <c r="E11" t="s">
-        <v>3049</v>
-      </c>
-      <c r="F11" s="372"/>
-      <c r="G11" s="373"/>
-      <c r="H11" s="373"/>
-      <c r="I11" s="373"/>
-      <c r="J11" s="373"/>
-      <c r="K11" s="373"/>
-      <c r="L11" s="373"/>
-      <c r="M11" s="373"/>
-      <c r="N11" s="373"/>
-      <c r="O11" s="365"/>
+        <v>3048</v>
+      </c>
+      <c r="F11" s="373"/>
+      <c r="G11" s="374"/>
+      <c r="H11" s="374"/>
+      <c r="I11" s="374"/>
+      <c r="J11" s="374"/>
+      <c r="K11" s="374"/>
+      <c r="L11" s="374"/>
+      <c r="M11" s="374"/>
+      <c r="N11" s="374"/>
+      <c r="O11" s="366"/>
       <c r="P11" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="S11" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="U11" t="s">
+        <v>3011</v>
+      </c>
+      <c r="V11" t="s">
         <v>3012</v>
-      </c>
-      <c r="V11" t="s">
-        <v>3013</v>
       </c>
       <c r="AC11" s="169"/>
       <c r="AD11" s="20"/>
@@ -26563,9 +26563,9 @@
     </row>
     <row r="12" spans="1:46">
       <c r="A12" t="s">
-        <v>2998</v>
-      </c>
-      <c r="D12" s="367"/>
+        <v>2997</v>
+      </c>
+      <c r="D12" s="368"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -26575,12 +26575,12 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="365"/>
+      <c r="O12" s="366"/>
       <c r="AC12" s="169" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="AD12" s="20" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="AE12" s="20"/>
       <c r="AF12" s="20"/>
@@ -26600,7 +26600,7 @@
       <c r="AT12" s="68"/>
     </row>
     <row r="13" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D13" s="367"/>
+      <c r="D13" s="368"/>
       <c r="E13" t="s">
         <v>1546</v>
       </c>
@@ -26619,10 +26619,10 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="365"/>
+      <c r="O13" s="366"/>
       <c r="AC13" s="169"/>
       <c r="AD13" s="20" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="AE13" s="20"/>
       <c r="AF13" s="20"/>
@@ -26642,27 +26642,27 @@
       <c r="AT13" s="68"/>
     </row>
     <row r="14" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D14" s="367"/>
+      <c r="D14" s="368"/>
       <c r="E14" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F14" s="369" t="s">
         <v>2999</v>
       </c>
-      <c r="F14" s="368" t="s">
-        <v>3000</v>
-      </c>
-      <c r="G14" s="369"/>
-      <c r="H14" s="369"/>
-      <c r="I14" s="369"/>
-      <c r="J14" s="369"/>
-      <c r="K14" s="369"/>
-      <c r="L14" s="369"/>
-      <c r="M14" s="369"/>
-      <c r="N14" s="369"/>
-      <c r="O14" s="365"/>
+      <c r="G14" s="370"/>
+      <c r="H14" s="370"/>
+      <c r="I14" s="370"/>
+      <c r="J14" s="370"/>
+      <c r="K14" s="370"/>
+      <c r="L14" s="370"/>
+      <c r="M14" s="370"/>
+      <c r="N14" s="370"/>
+      <c r="O14" s="366"/>
       <c r="P14" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="T14" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="AC14" s="169"/>
       <c r="AD14" s="20"/>
@@ -26685,14 +26685,14 @@
     </row>
     <row r="15" spans="1:46">
       <c r="B15" t="s">
-        <v>2987</v>
-      </c>
-      <c r="D15" s="367" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D15" s="368" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="129"/>
       <c r="G15" s="347" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="H15" s="348"/>
       <c r="I15" s="349"/>
@@ -26725,7 +26725,7 @@
       <c r="AT15" s="68"/>
     </row>
     <row r="16" spans="1:46">
-      <c r="D16" s="367"/>
+      <c r="D16" s="368"/>
       <c r="E16" t="s">
         <v>1507</v>
       </c>
@@ -26744,7 +26744,7 @@
         <v>10</v>
       </c>
       <c r="L16" s="128" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="M16" s="128"/>
       <c r="N16" s="12"/>
@@ -26752,7 +26752,7 @@
         <v>2658</v>
       </c>
       <c r="Q16" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="T16" t="s">
         <v>2719</v>
@@ -26780,7 +26780,7 @@
       <c r="AT16" s="68"/>
     </row>
     <row r="17" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D17" s="367"/>
+      <c r="D17" s="368"/>
       <c r="F17" s="131"/>
       <c r="G17" s="128" t="s">
         <v>10</v>
@@ -26797,16 +26797,16 @@
       <c r="M17" s="11"/>
       <c r="N17" s="12"/>
       <c r="P17" t="s">
+        <v>3003</v>
+      </c>
+      <c r="Q17" t="s">
         <v>3004</v>
       </c>
-      <c r="Q17" t="s">
-        <v>3005</v>
-      </c>
       <c r="T17" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="U17" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="AC17" s="169"/>
       <c r="AD17" s="20"/>
@@ -26828,7 +26828,7 @@
       <c r="AT17" s="68"/>
     </row>
     <row r="18" spans="1:46">
-      <c r="D18" s="367"/>
+      <c r="D18" s="368"/>
       <c r="F18" s="129"/>
       <c r="G18" s="128" t="s">
         <v>11</v>
@@ -26845,16 +26845,16 @@
       <c r="M18" s="11"/>
       <c r="N18" s="12"/>
       <c r="P18" t="s">
+        <v>3001</v>
+      </c>
+      <c r="Q18" t="s">
         <v>3002</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>3003</v>
       </c>
       <c r="T18" t="s">
         <v>2276</v>
       </c>
       <c r="U18" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="AC18" s="169"/>
       <c r="AD18" s="20"/>
@@ -26877,9 +26877,9 @@
     </row>
     <row r="19" spans="1:46">
       <c r="B19" t="s">
-        <v>2988</v>
-      </c>
-      <c r="D19" s="367"/>
+        <v>2987</v>
+      </c>
+      <c r="D19" s="368"/>
       <c r="F19" s="130"/>
       <c r="G19" s="13"/>
       <c r="H19" s="11"/>
@@ -26905,10 +26905,10 @@
         <v>10001101</v>
       </c>
       <c r="T19" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="U19" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="AC19" s="169"/>
       <c r="AD19" s="20"/>
@@ -26930,7 +26930,7 @@
       <c r="AT19" s="68"/>
     </row>
     <row r="20" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D20" s="367"/>
+      <c r="D20" s="368"/>
       <c r="E20" t="s">
         <v>1508</v>
       </c>
@@ -26938,7 +26938,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="12"/>
@@ -26946,7 +26946,7 @@
         <v>181</v>
       </c>
       <c r="K20" s="344" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
@@ -26955,13 +26955,13 @@
         <v>2652</v>
       </c>
       <c r="Q20" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="T20" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="U20" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="AC20" s="169"/>
       <c r="AD20" s="20"/>
@@ -26983,7 +26983,7 @@
       <c r="AT20" s="68"/>
     </row>
     <row r="21" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D21" s="367"/>
+      <c r="D21" s="368"/>
       <c r="F21" s="131"/>
       <c r="G21" s="11" t="s">
         <v>15</v>
@@ -27019,7 +27019,7 @@
       <c r="AT21" s="68"/>
     </row>
     <row r="22" spans="1:46">
-      <c r="D22" s="367"/>
+      <c r="D22" s="368"/>
       <c r="F22" s="130"/>
       <c r="G22" s="11" t="s">
         <v>2271</v>
@@ -27034,17 +27034,17 @@
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="11" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="N22" s="12"/>
       <c r="P22" t="s">
+        <v>3017</v>
+      </c>
+      <c r="Q22" t="s">
         <v>3018</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>3019</v>
-      </c>
-      <c r="R22" t="s">
-        <v>3020</v>
       </c>
       <c r="S22" s="132" t="s">
         <v>2653</v>
@@ -27069,7 +27069,7 @@
       <c r="AT22" s="68"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="D23" s="367"/>
+      <c r="D23" s="368"/>
       <c r="E23" t="s">
         <v>1507</v>
       </c>
@@ -27089,7 +27089,7 @@
       </c>
       <c r="L23" s="11"/>
       <c r="M23" s="11" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="N23" s="12"/>
       <c r="AC23" s="169"/>
@@ -27113,9 +27113,9 @@
     </row>
     <row r="24" spans="1:46" ht="15.75" thickBot="1">
       <c r="A24" t="s">
-        <v>2992</v>
-      </c>
-      <c r="D24" s="367"/>
+        <v>2991</v>
+      </c>
+      <c r="D24" s="368"/>
       <c r="F24" s="131"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -27145,12 +27145,12 @@
       <c r="AT24" s="68"/>
     </row>
     <row r="25" spans="1:46">
-      <c r="D25" s="367"/>
+      <c r="D25" s="368"/>
       <c r="E25" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="I25" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="AC25" s="169"/>
       <c r="AD25" s="20"/>
@@ -27173,8 +27173,8 @@
     </row>
     <row r="26" spans="1:46">
       <c r="D26" s="346"/>
-      <c r="J26" s="426" t="s">
-        <v>3187</v>
+      <c r="J26" s="353" t="s">
+        <v>3186</v>
       </c>
       <c r="AC26" s="169"/>
       <c r="AD26" s="20"/>
@@ -27198,7 +27198,7 @@
     <row r="27" spans="1:46">
       <c r="D27" s="346"/>
       <c r="H27" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="AC27" s="169"/>
       <c r="AD27" s="20"/>
@@ -27222,7 +27222,7 @@
     <row r="28" spans="1:46">
       <c r="D28" s="346"/>
       <c r="I28" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="AC28" s="169"/>
       <c r="AD28" s="20"/>
@@ -27249,14 +27249,14 @@
         <v>458</v>
       </c>
       <c r="J29" s="350" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="K29" s="350"/>
       <c r="L29" s="350" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="M29" s="350" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="N29" s="350"/>
       <c r="O29" s="350"/>
@@ -27334,10 +27334,10 @@
         <v>2649</v>
       </c>
       <c r="C32" t="s">
+        <v>2994</v>
+      </c>
+      <c r="D32" t="s">
         <v>2995</v>
-      </c>
-      <c r="D32" t="s">
-        <v>2996</v>
       </c>
       <c r="U32">
         <v>27</v>
@@ -27366,7 +27366,7 @@
     </row>
     <row r="33" spans="1:46 16384:16384">
       <c r="A33" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="F33" t="s">
         <v>2652</v>
@@ -27387,13 +27387,13 @@
         <v>2660</v>
       </c>
       <c r="S33" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="U33" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="V33" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="AC33" s="169"/>
       <c r="AD33" s="20"/>
@@ -27416,7 +27416,7 @@
     </row>
     <row r="34" spans="1:46 16384:16384">
       <c r="A34" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="F34" s="132" t="s">
         <v>2653</v>
@@ -27437,10 +27437,10 @@
         <v>2661</v>
       </c>
       <c r="M34" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="V34" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="AC34" s="115"/>
       <c r="AD34" s="233"/>
@@ -27466,13 +27466,13 @@
         <v>2669</v>
       </c>
       <c r="T35" t="s">
+        <v>3041</v>
+      </c>
+      <c r="V35" t="s">
+        <v>3029</v>
+      </c>
+      <c r="W35" t="s">
         <v>3042</v>
-      </c>
-      <c r="V35" t="s">
-        <v>3030</v>
-      </c>
-      <c r="W35" t="s">
-        <v>3043</v>
       </c>
     </row>
     <row r="36" spans="1:46 16384:16384">
@@ -27481,7 +27481,7 @@
         <v>2662</v>
       </c>
       <c r="V36" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="37" spans="1:46 16384:16384">
@@ -27543,7 +27543,7 @@
         <v>1651</v>
       </c>
       <c r="S38" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="39" spans="1:46 16384:16384">
@@ -27621,10 +27621,10 @@
         <v>2292</v>
       </c>
       <c r="X40" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="Y40" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="41" spans="1:46 16384:16384">
@@ -27651,7 +27651,7 @@
         <v>1502</v>
       </c>
       <c r="AE41" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="42" spans="1:46 16384:16384">
@@ -27669,7 +27669,7 @@
       <c r="P42" s="103"/>
       <c r="Q42" s="174"/>
       <c r="R42" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="Y42" t="s">
         <v>633</v>
@@ -27678,7 +27678,7 @@
         <v>1503</v>
       </c>
       <c r="AE42" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="43" spans="1:46 16384:16384">
@@ -27695,17 +27695,17 @@
       <c r="O43" s="103"/>
       <c r="P43" s="103"/>
       <c r="Q43" s="174"/>
-      <c r="X43" s="353" t="s">
+      <c r="X43" s="354" t="s">
         <v>1667</v>
       </c>
-      <c r="Y43" s="354"/>
-      <c r="Z43" s="354"/>
-      <c r="AA43" s="355"/>
+      <c r="Y43" s="355"/>
+      <c r="Z43" s="355"/>
+      <c r="AA43" s="356"/>
       <c r="AC43" t="s">
         <v>1501</v>
       </c>
       <c r="AE43" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="44" spans="1:46 16384:16384">
@@ -27713,7 +27713,7 @@
         <v>1024</v>
       </c>
       <c r="E44" s="331" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="F44" s="331" t="s">
         <v>1509</v>
@@ -27733,10 +27733,10 @@
       <c r="M44" s="331"/>
       <c r="N44" s="331"/>
       <c r="O44" s="331"/>
-      <c r="X44" s="356"/>
-      <c r="Y44" s="357"/>
-      <c r="Z44" s="357"/>
-      <c r="AA44" s="358"/>
+      <c r="X44" s="357"/>
+      <c r="Y44" s="358"/>
+      <c r="Z44" s="358"/>
+      <c r="AA44" s="359"/>
       <c r="XFD44" s="32" t="s">
         <v>1509</v>
       </c>
@@ -27746,7 +27746,7 @@
         <v>1511</v>
       </c>
       <c r="E45" s="334" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="F45" s="335">
         <v>1.1111111E+100</v>
@@ -27760,10 +27760,10 @@
       <c r="M45" s="331"/>
       <c r="N45" s="331"/>
       <c r="O45" s="331"/>
-      <c r="X45" s="359"/>
-      <c r="Y45" s="360"/>
-      <c r="Z45" s="360"/>
-      <c r="AA45" s="361"/>
+      <c r="X45" s="360"/>
+      <c r="Y45" s="361"/>
+      <c r="Z45" s="361"/>
+      <c r="AA45" s="362"/>
     </row>
     <row r="46" spans="1:46 16384:16384">
       <c r="B46" t="s">
@@ -27784,7 +27784,7 @@
         <v>633</v>
       </c>
       <c r="AG46" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="47" spans="1:46 16384:16384">
@@ -27800,7 +27800,7 @@
       <c r="N47" s="331"/>
       <c r="O47" s="331"/>
       <c r="Q47" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="Y47" t="s">
         <v>633</v>
@@ -27819,16 +27819,16 @@
       <c r="N48" s="331"/>
       <c r="O48" s="331"/>
       <c r="Q48" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="Y48" t="s">
         <v>633</v>
       </c>
       <c r="AG48" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="AI48" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="49" spans="1:35">
@@ -27847,22 +27847,22 @@
         <v>1652</v>
       </c>
       <c r="V49" t="s">
-        <v>3070</v>
-      </c>
-      <c r="X49" s="362" t="s">
-        <v>3050</v>
-      </c>
-      <c r="Y49" s="363"/>
-      <c r="Z49" s="363"/>
-      <c r="AA49" s="363"/>
-      <c r="AB49" s="363"/>
-      <c r="AC49" s="363"/>
-      <c r="AD49" s="363"/>
-      <c r="AE49" s="363"/>
-      <c r="AF49" s="363"/>
-      <c r="AG49" s="363"/>
-      <c r="AH49" s="363"/>
-      <c r="AI49" s="364"/>
+        <v>3069</v>
+      </c>
+      <c r="X49" s="363" t="s">
+        <v>3049</v>
+      </c>
+      <c r="Y49" s="364"/>
+      <c r="Z49" s="364"/>
+      <c r="AA49" s="364"/>
+      <c r="AB49" s="364"/>
+      <c r="AC49" s="364"/>
+      <c r="AD49" s="364"/>
+      <c r="AE49" s="364"/>
+      <c r="AF49" s="364"/>
+      <c r="AG49" s="364"/>
+      <c r="AH49" s="364"/>
+      <c r="AI49" s="365"/>
     </row>
     <row r="50" spans="1:35">
       <c r="B50" t="s">
@@ -27914,7 +27914,7 @@
         <v>633</v>
       </c>
       <c r="AC51" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="AE51" t="s">
         <v>633</v>
@@ -27948,7 +27948,7 @@
         <v>1643</v>
       </c>
       <c r="T52" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="Y52" t="s">
         <v>633</v>
@@ -28010,7 +28010,7 @@
       <c r="N54" s="331"/>
       <c r="O54" s="331"/>
       <c r="T54" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="Y54" t="s">
         <v>633</v>
@@ -28069,31 +28069,31 @@
       <c r="N56" s="331"/>
       <c r="O56" s="331"/>
       <c r="Q56" t="s">
+        <v>3035</v>
+      </c>
+      <c r="R56" t="s">
         <v>3036</v>
       </c>
-      <c r="R56" t="s">
-        <v>3037</v>
-      </c>
       <c r="U56" s="178" t="s">
+        <v>3043</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>3050</v>
+      </c>
+      <c r="AA56" t="s">
         <v>3044</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="AC56" t="s">
         <v>3051</v>
       </c>
-      <c r="AA56" t="s">
-        <v>3045</v>
-      </c>
-      <c r="AC56" t="s">
+      <c r="AE56" t="s">
         <v>3052</v>
       </c>
-      <c r="AE56" t="s">
+      <c r="AG56" t="s">
         <v>3053</v>
       </c>
-      <c r="AG56" t="s">
+      <c r="AI56" t="s">
         <v>3054</v>
-      </c>
-      <c r="AI56" t="s">
-        <v>3055</v>
       </c>
     </row>
     <row r="57" spans="1:35">
@@ -28109,13 +28109,13 @@
       <c r="N57" s="331"/>
       <c r="O57" s="331"/>
       <c r="Y57" t="s">
+        <v>3066</v>
+      </c>
+      <c r="AC57" t="s">
         <v>3067</v>
       </c>
-      <c r="AC57" t="s">
+      <c r="AG57" t="s">
         <v>3068</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>3069</v>
       </c>
     </row>
     <row r="58" spans="1:35">
@@ -28144,10 +28144,10 @@
       <c r="N59" s="331"/>
       <c r="O59" s="331"/>
       <c r="AC59" t="s">
+        <v>3084</v>
+      </c>
+      <c r="AE59" t="s">
         <v>3085</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>3086</v>
       </c>
     </row>
     <row r="60" spans="1:35">
@@ -28165,10 +28165,10 @@
       <c r="N60" s="31"/>
       <c r="O60" s="31"/>
       <c r="U60" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="W60" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="61" spans="1:35">
@@ -28184,10 +28184,10 @@
       <c r="N61" s="31"/>
       <c r="O61" s="31"/>
       <c r="U61" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="W61" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="62" spans="1:35">
@@ -28203,10 +28203,10 @@
       <c r="N62" s="31"/>
       <c r="O62" s="31"/>
       <c r="U62" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="W62" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="63" spans="1:35">
@@ -30084,11 +30084,11 @@
         <v>984</v>
       </c>
       <c r="B2" s="88" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="C2" s="88"/>
       <c r="E2" s="49" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="G2" s="318" t="s">
         <v>202</v>
@@ -30108,17 +30108,17 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="88" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="B3" s="88" t="s">
         <v>458</v>
       </c>
       <c r="C3" s="88"/>
       <c r="E3" s="49" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="H3" s="66" t="s">
         <v>411</v>
@@ -30130,8 +30130,8 @@
       <c r="K3" s="91"/>
       <c r="L3" s="321"/>
       <c r="M3" s="92"/>
-      <c r="N3" s="421" t="s">
-        <v>2885</v>
+      <c r="N3" s="422" t="s">
+        <v>2884</v>
       </c>
       <c r="O3" s="43"/>
       <c r="P3" s="43"/>
@@ -30139,17 +30139,17 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="88" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="B4" s="88" t="s">
         <v>2519</v>
       </c>
       <c r="C4" s="88"/>
       <c r="E4" s="49" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="H4" s="66" t="s">
         <v>1734</v>
@@ -30163,7 +30163,7 @@
         <v>1006</v>
       </c>
       <c r="M4" s="208"/>
-      <c r="N4" s="421"/>
+      <c r="N4" s="422"/>
       <c r="O4" s="43"/>
       <c r="P4" s="43"/>
       <c r="Q4" s="44"/>
@@ -30174,13 +30174,13 @@
       <c r="I5" s="66"/>
       <c r="J5" s="66"/>
       <c r="K5" s="323" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="L5" s="324">
         <v>12345</v>
       </c>
       <c r="M5" s="325"/>
-      <c r="N5" s="421"/>
+      <c r="N5" s="422"/>
       <c r="O5" s="43"/>
       <c r="P5" s="43"/>
       <c r="Q5" s="44"/>
@@ -30198,7 +30198,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
       <c r="M6" s="66"/>
-      <c r="N6" s="421"/>
+      <c r="N6" s="422"/>
       <c r="O6" s="43"/>
       <c r="P6" s="43"/>
       <c r="Q6" s="44"/>
@@ -30210,7 +30210,7 @@
         <v>1390</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="H7" s="66" t="s">
         <v>2267</v>
@@ -30222,7 +30222,7 @@
       <c r="K7" s="91"/>
       <c r="L7" s="321"/>
       <c r="M7" s="92"/>
-      <c r="N7" s="421"/>
+      <c r="N7" s="422"/>
       <c r="O7" s="43"/>
       <c r="P7" s="43"/>
       <c r="Q7" s="44"/>
@@ -30244,7 +30244,7 @@
         <v>522</v>
       </c>
       <c r="M8" s="208"/>
-      <c r="N8" s="421"/>
+      <c r="N8" s="422"/>
       <c r="O8" s="43"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
@@ -30260,13 +30260,13 @@
       <c r="I9" s="66"/>
       <c r="J9" s="66"/>
       <c r="K9" s="323" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="L9" s="324">
         <v>12346</v>
       </c>
       <c r="M9" s="325"/>
-      <c r="N9" s="421"/>
+      <c r="N9" s="422"/>
       <c r="O9" s="43"/>
       <c r="P9" s="43"/>
       <c r="Q9" s="44"/>
@@ -30284,7 +30284,7 @@
       <c r="K10" s="66"/>
       <c r="L10" s="66"/>
       <c r="M10" s="66"/>
-      <c r="N10" s="421"/>
+      <c r="N10" s="422"/>
       <c r="O10" s="43"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
@@ -30297,12 +30297,12 @@
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
       <c r="J11" s="66" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="K11" s="66"/>
       <c r="L11" s="66"/>
       <c r="M11" s="66"/>
-      <c r="N11" s="421"/>
+      <c r="N11" s="422"/>
       <c r="O11" s="43"/>
       <c r="P11" s="43"/>
       <c r="Q11" s="44"/>
@@ -30318,7 +30318,7 @@
       <c r="K12" s="66"/>
       <c r="L12" s="66"/>
       <c r="M12" s="66"/>
-      <c r="N12" s="421"/>
+      <c r="N12" s="422"/>
       <c r="O12" s="43"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
@@ -30331,17 +30331,17 @@
       <c r="K13" s="43"/>
       <c r="L13" s="43"/>
       <c r="M13" s="43"/>
-      <c r="N13" s="421"/>
+      <c r="N13" s="422"/>
       <c r="O13" s="43"/>
       <c r="P13" s="43"/>
       <c r="Q13" s="44"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="88" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="G14" s="42"/>
       <c r="H14" s="43"/>
@@ -30352,17 +30352,17 @@
       <c r="K14" s="91"/>
       <c r="L14" s="321"/>
       <c r="M14" s="92"/>
-      <c r="N14" s="421"/>
+      <c r="N14" s="422"/>
       <c r="O14" s="43"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="44"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="88" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="G15" s="42"/>
       <c r="H15" s="43"/>
@@ -30375,27 +30375,27 @@
         <v>557</v>
       </c>
       <c r="M15" s="208"/>
-      <c r="N15" s="421"/>
+      <c r="N15" s="422"/>
       <c r="O15" s="43"/>
       <c r="P15" s="43"/>
       <c r="Q15" s="44"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1">
       <c r="A16" s="88" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="G16" s="42"/>
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
       <c r="J16" s="66"/>
       <c r="K16" s="323" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="L16" s="324">
         <v>123123</v>
       </c>
       <c r="M16" s="325"/>
-      <c r="N16" s="421"/>
+      <c r="N16" s="422"/>
       <c r="O16" s="43"/>
       <c r="P16" s="43"/>
       <c r="Q16" s="44"/>
@@ -30415,7 +30415,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="88" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="D18" s="49" t="s">
         <v>1006</v>
@@ -30434,7 +30434,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="88" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="D19" s="49" t="s">
         <v>522</v>
@@ -30453,10 +30453,10 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="88" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="G20" s="42"/>
       <c r="H20" s="43"/>
@@ -30472,10 +30472,10 @@
     </row>
     <row r="21" spans="1:17" ht="15.75" thickBot="1">
       <c r="A21" s="88" t="s">
+        <v>2882</v>
+      </c>
+      <c r="D21" s="49" t="s">
         <v>2883</v>
-      </c>
-      <c r="D21" s="49" t="s">
-        <v>2884</v>
       </c>
       <c r="G21" s="45"/>
       <c r="H21" s="46"/>
@@ -30491,32 +30491,32 @@
     </row>
     <row r="23" spans="1:17">
       <c r="C23" s="49" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="C24" s="49" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="49" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="C27" s="49" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" thickBot="1">
       <c r="C28" s="49" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" thickBot="1">
       <c r="A29" s="49" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="G29" s="39"/>
       <c r="H29" s="40"/>
@@ -30529,7 +30529,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="88" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="B30" s="88"/>
       <c r="C30" s="88"/>
@@ -30550,7 +30550,7 @@
     <row r="31" spans="1:17">
       <c r="A31" s="88"/>
       <c r="B31" s="88" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="C31" s="88"/>
       <c r="D31" s="88"/>
@@ -30567,7 +30567,7 @@
       <c r="A32" s="88"/>
       <c r="B32" s="88"/>
       <c r="C32" s="88" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="D32" s="88"/>
       <c r="G32" s="42"/>
@@ -30598,7 +30598,7 @@
     <row r="34" spans="1:14" ht="15.75" thickBot="1">
       <c r="A34" s="88"/>
       <c r="B34" s="88" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="C34" s="88"/>
       <c r="D34" s="88"/>
@@ -30615,7 +30615,7 @@
       <c r="A35" s="88"/>
       <c r="B35" s="88"/>
       <c r="C35" s="88" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="D35" s="88"/>
       <c r="G35" s="42"/>
@@ -30658,7 +30658,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="88" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="B38" s="88"/>
       <c r="C38" s="88"/>
@@ -30706,7 +30706,7 @@
       <c r="A41" s="88"/>
       <c r="B41" s="88"/>
       <c r="C41" s="88" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="D41" s="88"/>
       <c r="G41" s="42"/>
@@ -30736,7 +30736,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="88" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="B43" s="88"/>
       <c r="C43" s="88"/>
@@ -30784,7 +30784,7 @@
       <c r="A46" s="88"/>
       <c r="B46" s="88"/>
       <c r="C46" s="88" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="D46" s="88"/>
       <c r="G46" s="42"/>
@@ -33963,7 +33963,7 @@
     <row r="318" spans="2:12">
       <c r="B318" s="39"/>
       <c r="C318" s="40" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="D318" s="40"/>
       <c r="E318" s="40"/>
@@ -33971,7 +33971,7 @@
       <c r="G318" s="40"/>
       <c r="H318" s="40"/>
       <c r="I318" s="40" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="J318" s="40"/>
       <c r="K318" s="40"/>
@@ -34125,11 +34125,11 @@
       <c r="C330" s="43"/>
       <c r="D330" s="43"/>
       <c r="E330" s="43" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="F330" s="43"/>
       <c r="G330" s="43" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="H330" s="43"/>
       <c r="I330" s="43"/>
@@ -34157,7 +34157,7 @@
       <c r="E332" s="46"/>
       <c r="F332" s="46"/>
       <c r="G332" s="46" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="H332" s="46"/>
       <c r="I332" s="46"/>
@@ -34167,7 +34167,7 @@
     </row>
     <row r="333" spans="2:12">
       <c r="G333" s="49" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
     </row>
   </sheetData>
@@ -34196,7 +34196,7 @@
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="24"/>
@@ -34230,7 +34230,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="G4" s="26" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>411</v>
@@ -34247,7 +34247,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="31"/>
@@ -34263,7 +34263,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="G6" s="26"/>
       <c r="H6" s="20"/>
@@ -34279,7 +34279,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="43"/>
@@ -34295,7 +34295,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="43"/>
@@ -34307,7 +34307,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="43"/>
@@ -34328,10 +34328,10 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
+        <v>2909</v>
+      </c>
+      <c r="D11" t="s">
         <v>2910</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2911</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="43"/>
@@ -34365,10 +34365,10 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="D13" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="20"/>
@@ -34384,17 +34384,17 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1">
       <c r="A14" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="D14" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="28" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="L14" s="30" t="s">
         <v>415</v>
@@ -34403,10 +34403,10 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" t="s">
+        <v>2915</v>
+      </c>
+      <c r="D15" s="48" t="s">
         <v>2916</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>2917</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="20"/>
@@ -34433,7 +34433,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="20"/>
@@ -34466,7 +34466,7 @@
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
       <c r="K19" s="28" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="L19" s="30" t="s">
         <v>415</v>
@@ -34476,7 +34476,7 @@
     <row r="23" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="24"/>
@@ -34514,7 +34514,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="G26" s="26" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>411</v>
@@ -34531,7 +34531,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="G27" s="26"/>
       <c r="H27" s="31"/>
@@ -34547,7 +34547,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="B28" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="G28" s="26"/>
       <c r="H28" s="20"/>
@@ -34579,7 +34579,7 @@
         <v>1018</v>
       </c>
       <c r="B30" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="43"/>
@@ -34643,7 +34643,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="B35" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="D35" t="s">
         <v>681</v>
@@ -34669,7 +34669,7 @@
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
       <c r="K36" s="28" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="L36" s="30" t="s">
         <v>415</v>
@@ -34688,7 +34688,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="B38" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="G38" s="26"/>
       <c r="H38" s="20"/>
@@ -34736,7 +34736,7 @@
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
       <c r="K41" s="28" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="L41" s="30" t="s">
         <v>415</v>
@@ -34799,7 +34799,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="31" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="B46" s="31"/>
       <c r="C46" s="31"/>
@@ -34841,13 +34841,13 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="31" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
       <c r="D48" s="31"/>
       <c r="E48" s="76" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="F48" s="31" t="s">
         <v>411</v>
@@ -34865,7 +34865,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="31" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
@@ -35161,7 +35161,7 @@
     </row>
     <row r="64" spans="1:16" ht="15.75" thickBot="1">
       <c r="A64" s="31" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="B64" s="31"/>
       <c r="C64" s="31"/>
@@ -35182,7 +35182,7 @@
     <row r="65" spans="1:16">
       <c r="A65" s="31"/>
       <c r="B65" s="31" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="D65" s="66"/>
       <c r="E65" s="31"/>
@@ -35212,11 +35212,11 @@
       <c r="B66" s="31"/>
       <c r="C66" s="31"/>
       <c r="D66" s="66" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="E66" s="31"/>
       <c r="G66" s="76" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="H66" s="31" t="s">
         <v>411</v>
@@ -35238,7 +35238,7 @@
       <c r="A67" s="31"/>
       <c r="B67" s="31"/>
       <c r="C67" s="31" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="D67" s="66"/>
       <c r="G67" s="76"/>
@@ -35300,7 +35300,7 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="31" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="C70" s="66"/>
       <c r="D70" s="31"/>
@@ -35313,11 +35313,11 @@
         <v>2267</v>
       </c>
       <c r="I70" s="123" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="J70" s="31"/>
       <c r="K70" s="31" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="L70" s="73" t="s">
         <v>56</v>
@@ -35331,7 +35331,7 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="31" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="B71" s="31"/>
       <c r="C71" s="31"/>
@@ -35357,7 +35357,7 @@
     </row>
     <row r="72" spans="1:16" ht="15.75" thickBot="1">
       <c r="A72" s="31" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="B72" s="31"/>
       <c r="C72" s="31"/>
@@ -35386,7 +35386,7 @@
       <c r="B73" s="31"/>
       <c r="C73" s="31"/>
       <c r="D73" s="66" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="E73" s="31"/>
       <c r="G73" s="76"/>
@@ -35405,7 +35405,7 @@
       <c r="B74" s="31"/>
       <c r="C74" s="31"/>
       <c r="D74" s="66" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="E74" s="31"/>
       <c r="G74" s="76"/>
@@ -35424,7 +35424,7 @@
       <c r="B75" s="31"/>
       <c r="C75" s="31"/>
       <c r="D75" s="66" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="E75" s="31"/>
       <c r="F75" s="31"/>
@@ -35448,22 +35448,22 @@
       <c r="F76" s="31"/>
       <c r="G76" s="76"/>
       <c r="H76" s="31" t="s">
+        <v>2943</v>
+      </c>
+      <c r="I76" s="31" t="s">
         <v>2944</v>
       </c>
-      <c r="I76" s="31" t="s">
+      <c r="J76" s="31" t="s">
         <v>2945</v>
       </c>
-      <c r="J76" s="31" t="s">
+      <c r="K76" s="31" t="s">
         <v>2946</v>
       </c>
-      <c r="K76" s="31" t="s">
+      <c r="L76" s="31" t="s">
         <v>2947</v>
       </c>
-      <c r="L76" s="31" t="s">
+      <c r="M76" s="31" t="s">
         <v>2948</v>
-      </c>
-      <c r="M76" s="31" t="s">
-        <v>2949</v>
       </c>
       <c r="N76" s="31"/>
       <c r="O76" s="31"/>
@@ -35474,7 +35474,7 @@
       <c r="B77" s="31"/>
       <c r="C77" s="31"/>
       <c r="D77" s="66" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="E77" s="31"/>
       <c r="F77" s="31"/>
@@ -35511,7 +35511,7 @@
       <c r="A79" s="31"/>
       <c r="B79" s="31"/>
       <c r="C79" s="31" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="D79" s="31"/>
       <c r="E79" s="31"/>
@@ -35550,7 +35550,7 @@
       <c r="B81" s="31"/>
       <c r="C81" s="31"/>
       <c r="D81" s="31" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="E81" s="31"/>
       <c r="F81" s="31"/>
@@ -35587,7 +35587,7 @@
       <c r="A83" s="31"/>
       <c r="B83" s="31"/>
       <c r="C83" s="31" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="D83" s="31"/>
       <c r="E83" s="31"/>
@@ -35608,7 +35608,7 @@
       <c r="B84" s="31"/>
       <c r="C84" s="31"/>
       <c r="D84" s="31" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="E84" s="31"/>
       <c r="F84" s="31"/>
@@ -35666,12 +35666,12 @@
       <c r="D87" s="31"/>
       <c r="E87" s="31"/>
       <c r="F87" s="32" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="G87" s="31"/>
       <c r="H87" s="31"/>
       <c r="I87" s="133" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="J87" s="31"/>
       <c r="K87" s="31"/>
@@ -35683,7 +35683,7 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="32" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="B88" s="31"/>
       <c r="C88" s="31"/>
@@ -35711,7 +35711,7 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="133" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="B89" s="31"/>
       <c r="D89" s="31"/>
@@ -35738,7 +35738,7 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="31" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="B90" s="31"/>
       <c r="D90" s="31"/>
@@ -35779,7 +35779,7 @@
         <v>18</v>
       </c>
       <c r="J91" s="31" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="K91" s="31"/>
       <c r="L91" s="31"/>
@@ -35815,7 +35815,7 @@
       <c r="B93" s="31"/>
       <c r="C93" s="31"/>
       <c r="D93" s="31" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="E93" s="31"/>
       <c r="F93" s="31"/>
@@ -35835,7 +35835,7 @@
       <c r="B94" s="31"/>
       <c r="C94" s="31"/>
       <c r="D94" s="31" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="E94" s="31"/>
       <c r="F94" s="31"/>
@@ -45289,24 +45289,24 @@
     <row r="17" spans="1:14" s="100" customFormat="1"/>
     <row r="22" spans="1:14" ht="15.75" thickBot="1">
       <c r="A22" s="98"/>
-      <c r="B22" s="422" t="s">
+      <c r="B22" s="423" t="s">
         <v>1168</v>
       </c>
-      <c r="C22" s="422"/>
+      <c r="C22" s="423"/>
       <c r="D22" s="98"/>
       <c r="E22" s="98"/>
-      <c r="F22" s="422" t="s">
+      <c r="F22" s="423" t="s">
         <v>1272</v>
       </c>
-      <c r="G22" s="422"/>
-      <c r="H22" s="422"/>
+      <c r="G22" s="423"/>
+      <c r="H22" s="423"/>
       <c r="I22" s="98"/>
       <c r="J22" s="98"/>
-      <c r="K22" s="422" t="s">
+      <c r="K22" s="423" t="s">
         <v>1170</v>
       </c>
-      <c r="L22" s="422"/>
-      <c r="M22" s="422"/>
+      <c r="L22" s="423"/>
+      <c r="M22" s="423"/>
       <c r="N22" s="98"/>
     </row>
     <row r="23" spans="1:14">
@@ -47864,35 +47864,35 @@
       </c>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="424" t="s">
+      <c r="B8" s="425" t="s">
         <v>2582</v>
       </c>
-      <c r="C8" s="424"/>
-      <c r="F8" s="424" t="s">
+      <c r="C8" s="425"/>
+      <c r="F8" s="425" t="s">
         <v>2583</v>
       </c>
-      <c r="G8" s="424"/>
-      <c r="I8" s="424" t="s">
+      <c r="G8" s="425"/>
+      <c r="I8" s="425" t="s">
         <v>2583</v>
       </c>
-      <c r="J8" s="424"/>
+      <c r="J8" s="425"/>
       <c r="M8" s="226" t="s">
         <v>2640</v>
       </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="F9" s="424" t="s">
+      <c r="F9" s="425" t="s">
         <v>2584</v>
       </c>
-      <c r="G9" s="424"/>
-      <c r="I9" s="424" t="s">
+      <c r="G9" s="425"/>
+      <c r="I9" s="425" t="s">
         <v>2585</v>
       </c>
-      <c r="J9" s="424"/>
-      <c r="M9" s="425" t="s">
+      <c r="J9" s="425"/>
+      <c r="M9" s="426" t="s">
         <v>2583</v>
       </c>
-      <c r="N9" s="425"/>
+      <c r="N9" s="426"/>
     </row>
     <row r="10" spans="1:31">
       <c r="M10" s="284" t="s">
@@ -47901,19 +47901,19 @@
       <c r="N10" s="284"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="E11" s="423" t="s">
+      <c r="E11" s="424" t="s">
         <v>2587</v>
       </c>
-      <c r="F11" s="423"/>
-      <c r="G11" s="423"/>
-      <c r="H11" s="423"/>
-      <c r="I11" s="423"/>
-      <c r="J11" s="423"/>
-      <c r="K11" s="423"/>
-      <c r="L11" s="423"/>
-      <c r="M11" s="423"/>
-      <c r="N11" s="423"/>
-      <c r="O11" s="423"/>
+      <c r="F11" s="424"/>
+      <c r="G11" s="424"/>
+      <c r="H11" s="424"/>
+      <c r="I11" s="424"/>
+      <c r="J11" s="424"/>
+      <c r="K11" s="424"/>
+      <c r="L11" s="424"/>
+      <c r="M11" s="424"/>
+      <c r="N11" s="424"/>
+      <c r="O11" s="424"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
@@ -51225,100 +51225,100 @@
   <sheetData>
     <row r="1" spans="3:16" ht="15.75" thickBot="1"/>
     <row r="2" spans="3:16">
-      <c r="C2" s="398" t="s">
+      <c r="C2" s="399" t="s">
+        <v>3090</v>
+      </c>
+      <c r="D2" s="400"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="400"/>
+      <c r="G2" s="400"/>
+      <c r="H2" s="400"/>
+      <c r="I2" s="400"/>
+      <c r="J2" s="400"/>
+      <c r="K2" s="400"/>
+    </row>
+    <row r="3" spans="3:16">
+      <c r="C3" s="401"/>
+      <c r="D3" s="402"/>
+      <c r="E3" s="402"/>
+      <c r="F3" s="402"/>
+      <c r="G3" s="402"/>
+      <c r="H3" s="402"/>
+      <c r="I3" s="402"/>
+      <c r="J3" s="402"/>
+      <c r="K3" s="402"/>
+      <c r="M3" t="s">
         <v>3091</v>
       </c>
-      <c r="D2" s="399"/>
-      <c r="E2" s="399"/>
-      <c r="F2" s="399"/>
-      <c r="G2" s="399"/>
-      <c r="H2" s="399"/>
-      <c r="I2" s="399"/>
-      <c r="J2" s="399"/>
-      <c r="K2" s="399"/>
-    </row>
-    <row r="3" spans="3:16">
-      <c r="C3" s="400"/>
-      <c r="D3" s="401"/>
-      <c r="E3" s="401"/>
-      <c r="F3" s="401"/>
-      <c r="G3" s="401"/>
-      <c r="H3" s="401"/>
-      <c r="I3" s="401"/>
-      <c r="J3" s="401"/>
-      <c r="K3" s="401"/>
-      <c r="M3" t="s">
+    </row>
+    <row r="4" spans="3:16">
+      <c r="C4" s="401"/>
+      <c r="D4" s="402"/>
+      <c r="E4" s="402"/>
+      <c r="F4" s="402"/>
+      <c r="G4" s="402"/>
+      <c r="H4" s="402"/>
+      <c r="I4" s="402"/>
+      <c r="J4" s="402"/>
+      <c r="K4" s="402"/>
+      <c r="N4" t="s">
         <v>3092</v>
       </c>
     </row>
-    <row r="4" spans="3:16">
-      <c r="C4" s="400"/>
-      <c r="D4" s="401"/>
-      <c r="E4" s="401"/>
-      <c r="F4" s="401"/>
-      <c r="G4" s="401"/>
-      <c r="H4" s="401"/>
-      <c r="I4" s="401"/>
-      <c r="J4" s="401"/>
-      <c r="K4" s="401"/>
-      <c r="N4" t="s">
+    <row r="5" spans="3:16">
+      <c r="C5" s="401"/>
+      <c r="D5" s="402"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="402"/>
+      <c r="I5" s="402"/>
+      <c r="J5" s="402"/>
+      <c r="K5" s="402"/>
+      <c r="O5" t="s">
         <v>3093</v>
       </c>
     </row>
-    <row r="5" spans="3:16">
-      <c r="C5" s="400"/>
-      <c r="D5" s="401"/>
-      <c r="E5" s="401"/>
-      <c r="F5" s="401"/>
-      <c r="G5" s="401"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="401"/>
-      <c r="J5" s="401"/>
-      <c r="K5" s="401"/>
-      <c r="O5" t="s">
-        <v>3094</v>
-      </c>
-    </row>
     <row r="6" spans="3:16">
-      <c r="C6" s="400"/>
-      <c r="D6" s="401"/>
-      <c r="E6" s="401"/>
-      <c r="F6" s="401"/>
-      <c r="G6" s="401"/>
-      <c r="H6" s="401"/>
-      <c r="I6" s="401"/>
-      <c r="J6" s="401"/>
-      <c r="K6" s="401"/>
+      <c r="C6" s="401"/>
+      <c r="D6" s="402"/>
+      <c r="E6" s="402"/>
+      <c r="F6" s="402"/>
+      <c r="G6" s="402"/>
+      <c r="H6" s="402"/>
+      <c r="I6" s="402"/>
+      <c r="J6" s="402"/>
+      <c r="K6" s="402"/>
       <c r="O6" t="s">
         <v>2270</v>
       </c>
     </row>
     <row r="7" spans="3:16">
-      <c r="C7" s="400"/>
-      <c r="D7" s="401"/>
-      <c r="E7" s="401"/>
-      <c r="F7" s="401"/>
-      <c r="G7" s="401"/>
-      <c r="H7" s="401"/>
-      <c r="I7" s="401"/>
-      <c r="J7" s="401"/>
-      <c r="K7" s="401"/>
+      <c r="C7" s="401"/>
+      <c r="D7" s="402"/>
+      <c r="E7" s="402"/>
+      <c r="F7" s="402"/>
+      <c r="G7" s="402"/>
+      <c r="H7" s="402"/>
+      <c r="I7" s="402"/>
+      <c r="J7" s="402"/>
+      <c r="K7" s="402"/>
       <c r="O7" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" ht="15.75" thickBot="1">
+      <c r="C8" s="403"/>
+      <c r="D8" s="404"/>
+      <c r="E8" s="404"/>
+      <c r="F8" s="404"/>
+      <c r="G8" s="404"/>
+      <c r="H8" s="404"/>
+      <c r="I8" s="404"/>
+      <c r="J8" s="404"/>
+      <c r="K8" s="404"/>
+      <c r="O8" t="s">
         <v>3095</v>
-      </c>
-    </row>
-    <row r="8" spans="3:16" ht="15.75" thickBot="1">
-      <c r="C8" s="402"/>
-      <c r="D8" s="403"/>
-      <c r="E8" s="403"/>
-      <c r="F8" s="403"/>
-      <c r="G8" s="403"/>
-      <c r="H8" s="403"/>
-      <c r="I8" s="403"/>
-      <c r="J8" s="403"/>
-      <c r="K8" s="403"/>
-      <c r="O8" t="s">
-        <v>3096</v>
       </c>
     </row>
     <row r="9" spans="3:16">
@@ -51332,7 +51332,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="O9" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="3:16" ht="15.75" thickBot="1">
@@ -51353,185 +51353,185 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="3:16" ht="15.75" thickBot="1">
-      <c r="C11" s="368" t="s">
-        <v>3000</v>
-      </c>
-      <c r="D11" s="369"/>
-      <c r="E11" s="369"/>
-      <c r="F11" s="369"/>
-      <c r="G11" s="369"/>
-      <c r="H11" s="369"/>
-      <c r="I11" s="369"/>
-      <c r="J11" s="369"/>
-      <c r="K11" s="369"/>
+      <c r="C11" s="369" t="s">
+        <v>2999</v>
+      </c>
+      <c r="D11" s="370"/>
+      <c r="E11" s="370"/>
+      <c r="F11" s="370"/>
+      <c r="G11" s="370"/>
+      <c r="H11" s="370"/>
+      <c r="I11" s="370"/>
+      <c r="J11" s="370"/>
+      <c r="K11" s="370"/>
       <c r="N11" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="12" spans="3:16">
       <c r="C12" s="129"/>
-      <c r="D12" s="383" t="s">
-        <v>3121</v>
-      </c>
-      <c r="E12" s="384"/>
-      <c r="F12" s="384"/>
-      <c r="G12" s="384"/>
-      <c r="H12" s="385"/>
-      <c r="I12" s="392" t="s">
-        <v>3109</v>
-      </c>
-      <c r="J12" s="393"/>
-      <c r="K12" s="394"/>
+      <c r="D12" s="384" t="s">
+        <v>3120</v>
+      </c>
+      <c r="E12" s="385"/>
+      <c r="F12" s="385"/>
+      <c r="G12" s="385"/>
+      <c r="H12" s="386"/>
+      <c r="I12" s="393" t="s">
+        <v>3108</v>
+      </c>
+      <c r="J12" s="394"/>
+      <c r="K12" s="395"/>
       <c r="O12" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="13" spans="3:16">
       <c r="C13" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="386"/>
-      <c r="E13" s="387"/>
-      <c r="F13" s="387"/>
-      <c r="G13" s="387"/>
-      <c r="H13" s="388"/>
-      <c r="I13" s="395"/>
-      <c r="J13" s="396"/>
-      <c r="K13" s="397"/>
+      <c r="D13" s="387"/>
+      <c r="E13" s="388"/>
+      <c r="F13" s="388"/>
+      <c r="G13" s="388"/>
+      <c r="H13" s="389"/>
+      <c r="I13" s="396"/>
+      <c r="J13" s="397"/>
+      <c r="K13" s="398"/>
       <c r="P13" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="14" spans="3:16" ht="15.75" thickBot="1">
       <c r="C14" s="131"/>
-      <c r="D14" s="386"/>
-      <c r="E14" s="387"/>
-      <c r="F14" s="387"/>
-      <c r="G14" s="387"/>
-      <c r="H14" s="388"/>
-      <c r="I14" s="395"/>
-      <c r="J14" s="396"/>
-      <c r="K14" s="397"/>
+      <c r="D14" s="387"/>
+      <c r="E14" s="388"/>
+      <c r="F14" s="388"/>
+      <c r="G14" s="388"/>
+      <c r="H14" s="389"/>
+      <c r="I14" s="396"/>
+      <c r="J14" s="397"/>
+      <c r="K14" s="398"/>
     </row>
     <row r="15" spans="3:16">
       <c r="C15" s="129"/>
-      <c r="D15" s="386"/>
-      <c r="E15" s="387"/>
-      <c r="F15" s="387"/>
-      <c r="G15" s="387"/>
-      <c r="H15" s="388"/>
-      <c r="I15" s="395"/>
-      <c r="J15" s="396"/>
-      <c r="K15" s="397"/>
+      <c r="D15" s="387"/>
+      <c r="E15" s="388"/>
+      <c r="F15" s="388"/>
+      <c r="G15" s="388"/>
+      <c r="H15" s="389"/>
+      <c r="I15" s="396"/>
+      <c r="J15" s="397"/>
+      <c r="K15" s="398"/>
       <c r="O15" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="16" spans="3:16">
       <c r="C16" s="130"/>
-      <c r="D16" s="386"/>
-      <c r="E16" s="387"/>
-      <c r="F16" s="387"/>
-      <c r="G16" s="387"/>
-      <c r="H16" s="388"/>
-      <c r="I16" s="395"/>
-      <c r="J16" s="396"/>
-      <c r="K16" s="397"/>
+      <c r="D16" s="387"/>
+      <c r="E16" s="388"/>
+      <c r="F16" s="388"/>
+      <c r="G16" s="388"/>
+      <c r="H16" s="389"/>
+      <c r="I16" s="396"/>
+      <c r="J16" s="397"/>
+      <c r="K16" s="398"/>
       <c r="P16" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="17" spans="2:16">
       <c r="C17" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="386"/>
-      <c r="E17" s="387"/>
-      <c r="F17" s="387"/>
-      <c r="G17" s="387"/>
-      <c r="H17" s="388"/>
-      <c r="I17" s="395"/>
-      <c r="J17" s="396"/>
-      <c r="K17" s="397"/>
+      <c r="D17" s="387"/>
+      <c r="E17" s="388"/>
+      <c r="F17" s="388"/>
+      <c r="G17" s="388"/>
+      <c r="H17" s="389"/>
+      <c r="I17" s="396"/>
+      <c r="J17" s="397"/>
+      <c r="K17" s="398"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" thickBot="1">
       <c r="C18" s="131"/>
-      <c r="D18" s="386"/>
-      <c r="E18" s="387"/>
-      <c r="F18" s="387"/>
-      <c r="G18" s="387"/>
-      <c r="H18" s="388"/>
-      <c r="I18" s="395"/>
-      <c r="J18" s="396"/>
-      <c r="K18" s="397"/>
+      <c r="D18" s="387"/>
+      <c r="E18" s="388"/>
+      <c r="F18" s="388"/>
+      <c r="G18" s="388"/>
+      <c r="H18" s="389"/>
+      <c r="I18" s="396"/>
+      <c r="J18" s="397"/>
+      <c r="K18" s="398"/>
       <c r="M18" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="19" spans="2:16">
       <c r="C19" s="130"/>
-      <c r="D19" s="386"/>
-      <c r="E19" s="387"/>
-      <c r="F19" s="387"/>
-      <c r="G19" s="387"/>
-      <c r="H19" s="388"/>
-      <c r="I19" s="395"/>
-      <c r="J19" s="396"/>
-      <c r="K19" s="397"/>
+      <c r="D19" s="387"/>
+      <c r="E19" s="388"/>
+      <c r="F19" s="388"/>
+      <c r="G19" s="388"/>
+      <c r="H19" s="389"/>
+      <c r="I19" s="396"/>
+      <c r="J19" s="397"/>
+      <c r="K19" s="398"/>
       <c r="N19" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="20" spans="2:16">
       <c r="C20" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="386"/>
-      <c r="E20" s="387"/>
-      <c r="F20" s="387"/>
-      <c r="G20" s="387"/>
-      <c r="H20" s="388"/>
-      <c r="I20" s="395"/>
-      <c r="J20" s="396"/>
-      <c r="K20" s="397"/>
+      <c r="D20" s="387"/>
+      <c r="E20" s="388"/>
+      <c r="F20" s="388"/>
+      <c r="G20" s="388"/>
+      <c r="H20" s="389"/>
+      <c r="I20" s="396"/>
+      <c r="J20" s="397"/>
+      <c r="K20" s="398"/>
       <c r="N20" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="15.75" thickBot="1">
       <c r="C21" s="131"/>
-      <c r="D21" s="389"/>
-      <c r="E21" s="390"/>
-      <c r="F21" s="390"/>
-      <c r="G21" s="390"/>
-      <c r="H21" s="391"/>
-      <c r="I21" s="395"/>
-      <c r="J21" s="396"/>
-      <c r="K21" s="397"/>
+      <c r="D21" s="390"/>
+      <c r="E21" s="391"/>
+      <c r="F21" s="391"/>
+      <c r="G21" s="391"/>
+      <c r="H21" s="392"/>
+      <c r="I21" s="396"/>
+      <c r="J21" s="397"/>
+      <c r="K21" s="398"/>
       <c r="N21" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="D22" s="405" t="s">
+        <v>2735</v>
+      </c>
+      <c r="E22" s="405"/>
+      <c r="F22" s="405"/>
+      <c r="G22" s="405"/>
+      <c r="H22" s="405"/>
+      <c r="I22" s="405" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="405"/>
+      <c r="K22" s="405"/>
+      <c r="N22" t="s">
         <v>3106</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16">
-      <c r="D22" s="404" t="s">
-        <v>2735</v>
-      </c>
-      <c r="E22" s="404"/>
-      <c r="F22" s="404"/>
-      <c r="G22" s="404"/>
-      <c r="H22" s="404"/>
-      <c r="I22" s="404" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="404"/>
-      <c r="K22" s="404"/>
-      <c r="N22" t="s">
-        <v>3107</v>
       </c>
     </row>
     <row r="23" spans="2:16">
       <c r="N23" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="24" spans="2:16">
@@ -51542,7 +51542,7 @@
         <v>439</v>
       </c>
       <c r="P24" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="25" spans="2:16">
@@ -51552,32 +51552,32 @@
     </row>
     <row r="26" spans="2:16">
       <c r="D26" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="N26" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="27" spans="2:16">
       <c r="N27" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="D28" t="s">
         <v>175</v>
       </c>
       <c r="E28" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="I28" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="J28" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="29" spans="2:16">
@@ -51585,10 +51585,10 @@
         <v>185</v>
       </c>
       <c r="E29" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="I29" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="30" spans="2:16">
@@ -51596,16 +51596,16 @@
         <v>182</v>
       </c>
       <c r="E30" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="I30" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="L30" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="N30" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="31" spans="2:16">
@@ -51613,34 +51613,34 @@
         <v>186</v>
       </c>
       <c r="E31" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="I31" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="N31" t="s">
+        <v>3126</v>
+      </c>
+      <c r="P31" t="s">
         <v>3127</v>
-      </c>
-      <c r="P31" t="s">
-        <v>3128</v>
       </c>
     </row>
     <row r="32" spans="2:16">
       <c r="N32" t="s">
+        <v>3141</v>
+      </c>
+      <c r="P32" t="s">
         <v>3142</v>
-      </c>
-      <c r="P32" t="s">
-        <v>3143</v>
       </c>
     </row>
     <row r="33" spans="2:17">
       <c r="C33" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="34" spans="2:17">
       <c r="L34" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="35" spans="2:17">
@@ -51669,7 +51669,7 @@
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="36" spans="2:17">
@@ -51757,7 +51757,7 @@
     </row>
     <row r="40" spans="2:17">
       <c r="B40" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="K40">
         <v>-128</v>
@@ -51765,15 +51765,15 @@
     </row>
     <row r="41" spans="2:17">
       <c r="B41" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="42" spans="2:17">
       <c r="B42" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="G42" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="45" spans="2:17">
@@ -51829,13 +51829,13 @@
     <row r="46" spans="2:17">
       <c r="B46" s="20"/>
       <c r="G46" t="s">
+        <v>3132</v>
+      </c>
+      <c r="H46" t="s">
+        <v>3131</v>
+      </c>
+      <c r="I46" t="s">
         <v>3133</v>
-      </c>
-      <c r="H46" t="s">
-        <v>3132</v>
-      </c>
-      <c r="I46" t="s">
-        <v>3134</v>
       </c>
       <c r="J46" s="20" t="s">
         <v>33</v>
@@ -51867,10 +51867,10 @@
         <v>2353</v>
       </c>
       <c r="C47" s="124" t="s">
+        <v>3128</v>
+      </c>
+      <c r="D47" s="124" t="s">
         <v>3129</v>
-      </c>
-      <c r="D47" s="124" t="s">
-        <v>3130</v>
       </c>
       <c r="E47" s="124">
         <v>13</v>
@@ -51964,23 +51964,23 @@
     </row>
     <row r="50" spans="2:8">
       <c r="B50" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="H51" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="H52" s="152" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
     </row>
   </sheetData>
@@ -52456,11 +52456,11 @@
       <c r="L6" s="35" t="s">
         <v>1444</v>
       </c>
-      <c r="M6" s="404" t="s">
+      <c r="M6" s="405" t="s">
         <v>1445</v>
       </c>
-      <c r="N6" s="404"/>
-      <c r="O6" s="404"/>
+      <c r="N6" s="405"/>
+      <c r="O6" s="405"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
@@ -54321,10 +54321,10 @@
         <v>1</v>
       </c>
       <c r="L212" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="M212" s="152" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="N212" s="66"/>
     </row>
@@ -54340,10 +54340,10 @@
         <v>1</v>
       </c>
       <c r="L213" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="M213" s="152" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="N213" s="66"/>
     </row>
@@ -54359,7 +54359,7 @@
         <v>0</v>
       </c>
       <c r="L214" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="M214">
         <f>2</f>
@@ -55334,10 +55334,10 @@
       </c>
       <c r="G121" s="23"/>
       <c r="H121" s="24"/>
-      <c r="I121" s="407" t="s">
+      <c r="I121" s="408" t="s">
         <v>2737</v>
       </c>
-      <c r="J121" s="407" t="s">
+      <c r="J121" s="408" t="s">
         <v>2741</v>
       </c>
       <c r="K121" s="20"/>
@@ -55353,8 +55353,8 @@
       <c r="H122" s="20" t="s">
         <v>557</v>
       </c>
-      <c r="I122" s="408"/>
-      <c r="J122" s="408"/>
+      <c r="I122" s="409"/>
+      <c r="J122" s="409"/>
       <c r="K122" s="20"/>
       <c r="L122" s="20"/>
       <c r="M122" s="27"/>
@@ -55368,8 +55368,8 @@
       <c r="H123" s="20">
         <v>19</v>
       </c>
-      <c r="I123" s="408"/>
-      <c r="J123" s="408"/>
+      <c r="I123" s="409"/>
+      <c r="J123" s="409"/>
       <c r="K123" s="20"/>
       <c r="L123" s="20"/>
       <c r="M123" s="27"/>
@@ -55383,8 +55383,8 @@
       <c r="H124" s="29" t="s">
         <v>1894</v>
       </c>
-      <c r="I124" s="408"/>
-      <c r="J124" s="408"/>
+      <c r="I124" s="409"/>
+      <c r="J124" s="409"/>
       <c r="K124" s="20"/>
       <c r="L124" s="20"/>
       <c r="M124" s="27"/>
@@ -55394,8 +55394,8 @@
       <c r="F125" s="20"/>
       <c r="G125" s="20"/>
       <c r="H125" s="20"/>
-      <c r="I125" s="408"/>
-      <c r="J125" s="408"/>
+      <c r="I125" s="409"/>
+      <c r="J125" s="409"/>
       <c r="K125" s="20"/>
       <c r="L125" s="20"/>
       <c r="M125" s="27"/>
@@ -55408,8 +55408,8 @@
       <c r="F126" s="20"/>
       <c r="G126" s="20"/>
       <c r="H126" s="20"/>
-      <c r="I126" s="408"/>
-      <c r="J126" s="408"/>
+      <c r="I126" s="409"/>
+      <c r="J126" s="409"/>
       <c r="K126" s="20"/>
       <c r="L126" s="20"/>
       <c r="M126" s="27"/>
@@ -55421,8 +55421,8 @@
       </c>
       <c r="G127" s="23"/>
       <c r="H127" s="24"/>
-      <c r="I127" s="408"/>
-      <c r="J127" s="408"/>
+      <c r="I127" s="409"/>
+      <c r="J127" s="409"/>
       <c r="K127" s="20"/>
       <c r="L127" s="20"/>
       <c r="M127" s="27"/>
@@ -55436,8 +55436,8 @@
       <c r="H128" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="I128" s="408"/>
-      <c r="J128" s="408"/>
+      <c r="I128" s="409"/>
+      <c r="J128" s="409"/>
       <c r="K128" s="20"/>
       <c r="L128" s="20"/>
       <c r="M128" s="27"/>
@@ -55451,8 +55451,8 @@
       <c r="H129" s="20">
         <v>20</v>
       </c>
-      <c r="I129" s="408"/>
-      <c r="J129" s="408"/>
+      <c r="I129" s="409"/>
+      <c r="J129" s="409"/>
       <c r="K129" s="20"/>
       <c r="L129" s="20"/>
       <c r="M129" s="27"/>
@@ -55466,8 +55466,8 @@
       <c r="H130" s="29" t="s">
         <v>2733</v>
       </c>
-      <c r="I130" s="408"/>
-      <c r="J130" s="408"/>
+      <c r="I130" s="409"/>
+      <c r="J130" s="409"/>
       <c r="K130" s="20"/>
       <c r="L130" s="20"/>
       <c r="M130" s="27"/>
@@ -55477,8 +55477,8 @@
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
       <c r="H131" s="20"/>
-      <c r="I131" s="408"/>
-      <c r="J131" s="408"/>
+      <c r="I131" s="409"/>
+      <c r="J131" s="409"/>
       <c r="K131" s="20"/>
       <c r="L131" s="20"/>
       <c r="M131" s="27"/>
@@ -55490,8 +55490,8 @@
       </c>
       <c r="G132" s="23"/>
       <c r="H132" s="24"/>
-      <c r="I132" s="408"/>
-      <c r="J132" s="408"/>
+      <c r="I132" s="409"/>
+      <c r="J132" s="409"/>
       <c r="K132" s="20"/>
       <c r="L132" s="20"/>
       <c r="M132" s="27"/>
@@ -55505,8 +55505,8 @@
       <c r="H133" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="I133" s="408"/>
-      <c r="J133" s="408"/>
+      <c r="I133" s="409"/>
+      <c r="J133" s="409"/>
       <c r="K133" s="20"/>
       <c r="L133" s="20"/>
       <c r="M133" s="27"/>
@@ -55520,8 +55520,8 @@
       <c r="H134" s="20">
         <v>18</v>
       </c>
-      <c r="I134" s="408"/>
-      <c r="J134" s="408"/>
+      <c r="I134" s="409"/>
+      <c r="J134" s="409"/>
       <c r="K134" s="20"/>
       <c r="L134" s="20"/>
       <c r="M134" s="27"/>
@@ -55535,8 +55535,8 @@
       <c r="H135" s="29" t="s">
         <v>2734</v>
       </c>
-      <c r="I135" s="409"/>
-      <c r="J135" s="409"/>
+      <c r="I135" s="410"/>
+      <c r="J135" s="410"/>
       <c r="K135" s="20"/>
       <c r="L135" s="20"/>
       <c r="M135" s="27"/>
@@ -55616,8 +55616,8 @@
       <c r="H147" s="24" t="s">
         <v>2740</v>
       </c>
-      <c r="I147" s="410"/>
-      <c r="J147" s="410"/>
+      <c r="I147" s="411"/>
+      <c r="J147" s="411"/>
       <c r="K147" s="20"/>
       <c r="L147" s="20"/>
       <c r="M147" s="27"/>
@@ -55631,8 +55631,8 @@
       <c r="H148" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="I148" s="411"/>
-      <c r="J148" s="411"/>
+      <c r="I148" s="412"/>
+      <c r="J148" s="412"/>
       <c r="K148" s="20"/>
       <c r="L148" s="20"/>
       <c r="M148" s="27"/>
@@ -55646,8 +55646,8 @@
       <c r="H149" s="20">
         <v>19</v>
       </c>
-      <c r="I149" s="411"/>
-      <c r="J149" s="411"/>
+      <c r="I149" s="412"/>
+      <c r="J149" s="412"/>
       <c r="K149" s="20"/>
       <c r="L149" s="20"/>
       <c r="M149" s="27"/>
@@ -55661,8 +55661,8 @@
       <c r="H150" s="29" t="s">
         <v>1894</v>
       </c>
-      <c r="I150" s="411"/>
-      <c r="J150" s="411"/>
+      <c r="I150" s="412"/>
+      <c r="J150" s="412"/>
       <c r="K150" s="20"/>
       <c r="L150" s="20"/>
       <c r="M150" s="27"/>
@@ -55672,8 +55672,8 @@
       <c r="F151" s="20"/>
       <c r="G151" s="20"/>
       <c r="H151" s="20"/>
-      <c r="I151" s="411"/>
-      <c r="J151" s="411"/>
+      <c r="I151" s="412"/>
+      <c r="J151" s="412"/>
       <c r="K151" s="20"/>
       <c r="L151" s="20"/>
       <c r="M151" s="27"/>
@@ -55683,8 +55683,8 @@
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
-      <c r="I152" s="411"/>
-      <c r="J152" s="411"/>
+      <c r="I152" s="412"/>
+      <c r="J152" s="412"/>
       <c r="K152" s="20"/>
       <c r="L152" s="20"/>
       <c r="M152" s="27"/>
@@ -55700,8 +55700,8 @@
       <c r="H153" s="24" t="s">
         <v>2740</v>
       </c>
-      <c r="I153" s="411"/>
-      <c r="J153" s="411"/>
+      <c r="I153" s="412"/>
+      <c r="J153" s="412"/>
       <c r="K153" s="20"/>
       <c r="L153" s="20"/>
       <c r="M153" s="27"/>
@@ -55718,8 +55718,8 @@
       <c r="H154" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="I154" s="411"/>
-      <c r="J154" s="411"/>
+      <c r="I154" s="412"/>
+      <c r="J154" s="412"/>
       <c r="K154" s="20"/>
       <c r="L154" s="20"/>
       <c r="M154" s="27"/>
@@ -55733,8 +55733,8 @@
       <c r="H155" s="20">
         <v>20</v>
       </c>
-      <c r="I155" s="411"/>
-      <c r="J155" s="411"/>
+      <c r="I155" s="412"/>
+      <c r="J155" s="412"/>
       <c r="K155" s="20"/>
       <c r="L155" s="20"/>
       <c r="M155" s="27"/>
@@ -55748,8 +55748,8 @@
       <c r="H156" s="29" t="s">
         <v>2733</v>
       </c>
-      <c r="I156" s="411"/>
-      <c r="J156" s="411"/>
+      <c r="I156" s="412"/>
+      <c r="J156" s="412"/>
       <c r="K156" s="20"/>
       <c r="L156" s="20"/>
       <c r="M156" s="27"/>
@@ -55759,8 +55759,8 @@
       <c r="F157" s="20"/>
       <c r="G157" s="20"/>
       <c r="H157" s="20"/>
-      <c r="I157" s="411"/>
-      <c r="J157" s="411"/>
+      <c r="I157" s="412"/>
+      <c r="J157" s="412"/>
       <c r="K157" s="20"/>
       <c r="L157" s="20"/>
       <c r="M157" s="27"/>
@@ -55776,8 +55776,8 @@
       <c r="H158" s="24" t="s">
         <v>2740</v>
       </c>
-      <c r="I158" s="411"/>
-      <c r="J158" s="411"/>
+      <c r="I158" s="412"/>
+      <c r="J158" s="412"/>
       <c r="K158" s="20"/>
       <c r="L158" s="20"/>
       <c r="M158" s="27"/>
@@ -55791,8 +55791,8 @@
       <c r="H159" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="I159" s="411"/>
-      <c r="J159" s="411"/>
+      <c r="I159" s="412"/>
+      <c r="J159" s="412"/>
       <c r="K159" s="20"/>
       <c r="L159" s="20"/>
       <c r="M159" s="27"/>
@@ -55806,8 +55806,8 @@
       <c r="H160" s="20">
         <v>18</v>
       </c>
-      <c r="I160" s="411"/>
-      <c r="J160" s="411"/>
+      <c r="I160" s="412"/>
+      <c r="J160" s="412"/>
       <c r="K160" s="20"/>
       <c r="L160" s="20"/>
       <c r="M160" s="27"/>
@@ -55821,8 +55821,8 @@
       <c r="H161" s="29" t="s">
         <v>2734</v>
       </c>
-      <c r="I161" s="412"/>
-      <c r="J161" s="412"/>
+      <c r="I161" s="413"/>
+      <c r="J161" s="413"/>
       <c r="K161" s="20"/>
       <c r="L161" s="20"/>
       <c r="M161" s="27"/>
@@ -56781,7 +56781,7 @@
       <c r="F269" s="32">
         <v>9</v>
       </c>
-      <c r="G269" s="405" t="s">
+      <c r="G269" s="406" t="s">
         <v>2370</v>
       </c>
       <c r="I269" s="48" t="s">
@@ -56802,7 +56802,7 @@
       <c r="F270" s="32">
         <v>15</v>
       </c>
-      <c r="G270" s="406"/>
+      <c r="G270" s="407"/>
       <c r="I270" s="154" t="s">
         <v>2366</v>
       </c>
@@ -57095,17 +57095,17 @@
     </row>
     <row r="300" spans="2:14">
       <c r="K300" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="301" spans="2:14" ht="15.75" thickBot="1">
       <c r="G301" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="302" spans="2:14">
       <c r="B302" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="G302" s="23"/>
       <c r="H302" s="24"/>
@@ -57114,7 +57114,7 @@
     </row>
     <row r="303" spans="2:14">
       <c r="G303" s="26" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="H303" s="20"/>
       <c r="I303" s="27"/>
@@ -57124,10 +57124,10 @@
     </row>
     <row r="304" spans="2:14">
       <c r="C304" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="G304" s="26" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="H304" s="20"/>
       <c r="I304" s="27"/>
@@ -57137,7 +57137,7 @@
     </row>
     <row r="305" spans="2:17">
       <c r="G305" s="26" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="H305" s="20"/>
       <c r="I305" s="27"/>
@@ -57154,7 +57154,7 @@
       <c r="C307" s="22"/>
       <c r="D307" s="22"/>
       <c r="G307" s="26" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="H307" s="20"/>
       <c r="I307" s="27"/>
@@ -57167,7 +57167,7 @@
       <c r="C308" s="22"/>
       <c r="D308" s="22"/>
       <c r="G308" s="26" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="H308" s="20"/>
       <c r="I308" s="27"/>
@@ -57177,14 +57177,14 @@
     </row>
     <row r="309" spans="2:17">
       <c r="G309" s="26" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="H309" s="20"/>
       <c r="I309" s="27"/>
     </row>
     <row r="310" spans="2:17">
       <c r="B310" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="G310" s="26"/>
       <c r="H310" s="20"/>
@@ -57193,7 +57193,7 @@
     </row>
     <row r="311" spans="2:17" ht="15.75" thickBot="1">
       <c r="B311" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="G311" s="28"/>
       <c r="H311" s="29"/>
@@ -57204,7 +57204,7 @@
     </row>
     <row r="312" spans="2:17">
       <c r="B312" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="K312" s="22"/>
       <c r="L312" s="22"/>
@@ -57212,22 +57212,22 @@
     </row>
     <row r="313" spans="2:17" ht="15.75" thickBot="1">
       <c r="B313" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="314" spans="2:17">
       <c r="G314" s="23" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="H314" s="24"/>
       <c r="I314" s="25"/>
       <c r="K314" s="23" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="L314" s="24"/>
       <c r="M314" s="24"/>
       <c r="N314" s="24" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="O314" s="24"/>
       <c r="P314" s="24"/>
@@ -57292,7 +57292,7 @@
         <v>1623</v>
       </c>
       <c r="L317" s="20" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="M317" s="20"/>
       <c r="N317" s="20"/>
@@ -57306,10 +57306,10 @@
     </row>
     <row r="318" spans="2:17" ht="15.75" thickBot="1">
       <c r="C318" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="G318" s="26" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="H318" s="20"/>
       <c r="I318" s="27"/>
@@ -57334,7 +57334,7 @@
         <v>142</v>
       </c>
       <c r="G319" s="26" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="H319" s="20"/>
       <c r="I319" s="27"/>
@@ -57354,7 +57354,7 @@
     </row>
     <row r="320" spans="2:17" ht="15.75" thickBot="1">
       <c r="G320" s="28" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="H320" s="29"/>
       <c r="I320" s="30" t="s">
@@ -57368,7 +57368,7 @@
         <v>0</v>
       </c>
       <c r="N320" s="20" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="O320" s="105" t="s">
         <v>56</v>
@@ -57380,7 +57380,7 @@
     </row>
     <row r="321" spans="2:17" ht="15.75" thickBot="1">
       <c r="G321" s="76" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="I321" t="s">
         <v>1721</v>
@@ -57403,10 +57403,10 @@
     </row>
     <row r="322" spans="2:17" ht="15.75" thickBot="1">
       <c r="B322" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="G322" s="76" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="I322" t="s">
         <v>415</v>
@@ -57425,7 +57425,7 @@
     </row>
     <row r="323" spans="2:17" ht="15.75" thickBot="1">
       <c r="B323" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="K323" s="28"/>
       <c r="L323" s="29"/>
@@ -57453,7 +57453,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -57470,12 +57470,12 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
       <c r="F1" s="31" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" s="73" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="C2" s="74"/>
       <c r="D2" s="75"/>
@@ -57485,7 +57485,7 @@
       <c r="G2" s="74"/>
       <c r="H2" s="75"/>
       <c r="J2" s="73" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="K2" s="74"/>
       <c r="L2" s="75"/>
@@ -57512,7 +57512,7 @@
         <v>182</v>
       </c>
       <c r="H3" s="67" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="J3" s="76" t="s">
         <v>2727</v>
@@ -57544,7 +57544,7 @@
         <v>182</v>
       </c>
       <c r="H4" s="67" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="J4" s="76"/>
       <c r="K4" s="31" t="s">
@@ -57558,16 +57558,16 @@
         <v>178</v>
       </c>
       <c r="P4" s="67" t="s">
+        <v>3172</v>
+      </c>
+      <c r="Q4" s="352" t="s">
         <v>3173</v>
-      </c>
-      <c r="Q4" s="352" t="s">
-        <v>3174</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="B5" s="76"/>
       <c r="C5" s="31" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="D5" s="67" t="s">
         <v>196</v>
@@ -57577,7 +57577,7 @@
         <v>178</v>
       </c>
       <c r="H5" s="67" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="J5" s="76"/>
       <c r="K5" s="31" t="s">
@@ -57597,7 +57597,7 @@
     <row r="6" spans="1:17">
       <c r="B6" s="76"/>
       <c r="C6" s="31" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="D6" s="67" t="s">
         <v>1921</v>
@@ -57607,7 +57607,7 @@
         <v>178</v>
       </c>
       <c r="H6" s="67" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="J6" s="76"/>
       <c r="K6" s="31" t="s">
@@ -57622,7 +57622,7 @@
     <row r="7" spans="1:17">
       <c r="B7" s="76"/>
       <c r="C7" s="31" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="D7" s="67" t="s">
         <v>197</v>
@@ -57632,17 +57632,17 @@
         <v>182</v>
       </c>
       <c r="H7" s="67" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="J7" s="76"/>
       <c r="K7" s="31" t="s">
         <v>182</v>
       </c>
       <c r="L7" s="67" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="N7" s="76" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="P7" s="67"/>
       <c r="Q7" s="31">
@@ -57654,7 +57654,7 @@
       <c r="C8" s="78"/>
       <c r="D8" s="79"/>
       <c r="F8" s="77" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="G8" s="78"/>
       <c r="H8" s="79"/>
@@ -57667,27 +57667,27 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1">
       <c r="J9" s="31" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="31" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="H10" s="73" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="I10" s="74"/>
       <c r="J10" s="75"/>
       <c r="L10" s="73" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="M10" s="74"/>
       <c r="N10" s="75"/>
     </row>
     <row r="11" spans="1:17">
       <c r="B11" s="31" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="H11" s="76"/>
       <c r="I11" s="31" t="s">
@@ -57708,7 +57708,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="B12" s="31" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="H12" s="76"/>
       <c r="I12" s="31" t="s">
@@ -57727,11 +57727,11 @@
     </row>
     <row r="13" spans="1:17">
       <c r="B13" s="31" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="H13" s="76"/>
       <c r="I13" s="31" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="J13" s="67" t="s">
         <v>1971</v>
@@ -57746,7 +57746,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="B14" s="31" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="H14" s="76"/>
       <c r="J14" s="67"/>
@@ -57755,12 +57755,12 @@
         <v>178</v>
       </c>
       <c r="N14" s="67" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1">
       <c r="C15" s="31" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="H15" s="77"/>
       <c r="I15" s="78"/>
@@ -57770,26 +57770,26 @@
         <v>178</v>
       </c>
       <c r="N15" s="79" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="31" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L17" s="31" t="s">
+        <v>3174</v>
+      </c>
+      <c r="M17" s="31" t="s">
         <v>3175</v>
-      </c>
-      <c r="M17" s="31" t="s">
-        <v>3176</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" s="31" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>2011</v>
@@ -57800,10 +57800,10 @@
     </row>
     <row r="19" spans="1:16">
       <c r="C19" s="31" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="N19" s="351"/>
       <c r="O19" s="31" t="s">
@@ -57815,15 +57815,15 @@
     </row>
     <row r="20" spans="1:16">
       <c r="B20" s="31" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="C21" s="31" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -57838,8 +57838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -58536,10 +58536,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O234"/>
+  <dimension ref="A1:O230"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -58552,28 +58552,28 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1">
       <c r="A1" s="22" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>2768</v>
       </c>
-      <c r="E2" s="380"/>
-      <c r="F2" s="382"/>
-      <c r="G2" s="382"/>
-      <c r="H2" s="382"/>
-      <c r="I2" s="382"/>
-      <c r="J2" s="382"/>
-      <c r="K2" s="382"/>
-      <c r="L2" s="382"/>
-      <c r="M2" s="381"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+      <c r="E2" s="381"/>
+      <c r="F2" s="383"/>
+      <c r="G2" s="383"/>
+      <c r="H2" s="383"/>
+      <c r="I2" s="383"/>
+      <c r="J2" s="383"/>
+      <c r="K2" s="383"/>
+      <c r="L2" s="383"/>
+      <c r="M2" s="382"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="B3" t="s">
         <v>458</v>
       </c>
@@ -58591,115 +58591,115 @@
       <c r="M3" s="27"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" t="s">
-        <v>2769</v>
+      <c r="A4" t="s">
+        <v>142</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="43"/>
-      <c r="G4" s="109"/>
+      <c r="G4" s="43"/>
       <c r="H4" s="43"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="109"/>
       <c r="L4" s="43"/>
       <c r="M4" s="44"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" t="s">
-        <v>3180</v>
+      <c r="A5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1527</v>
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="43"/>
-      <c r="G5" s="109"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="43"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
       <c r="M5" s="44"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>2770</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2777</v>
       </c>
       <c r="E6" s="42"/>
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="43"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="109"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
       <c r="L6" s="43"/>
       <c r="M6" s="44"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1527</v>
+        <v>2771</v>
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="43"/>
       <c r="I7" s="43"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
       <c r="M7" s="44"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>2770</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2778</v>
+        <v>2772</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2781</v>
       </c>
       <c r="E8" s="42"/>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="43"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="41"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
       <c r="K8" s="43"/>
       <c r="L8" s="43"/>
       <c r="M8" s="44"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>2771</v>
+        <v>2774</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="44"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
       <c r="K9" s="43"/>
       <c r="L9" s="43"/>
       <c r="M9" s="44"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>2772</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2782</v>
+        <v>1972</v>
       </c>
       <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
+      <c r="F10" s="109"/>
       <c r="G10" s="43"/>
       <c r="H10" s="43"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="47"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
       <c r="K10" s="43"/>
       <c r="L10" s="43"/>
       <c r="M10" s="44"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>2773</v>
+        <v>3201</v>
       </c>
       <c r="E11" s="42"/>
       <c r="F11" s="43"/>
@@ -58713,9 +58713,9 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>2774</v>
-      </c>
-      <c r="E12" s="42"/>
+        <v>2793</v>
+      </c>
+      <c r="E12" s="108"/>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
@@ -58727,257 +58727,274 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>2775</v>
-      </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="E14" s="42"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="44"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="E15" s="42"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="44"/>
+        <v>2794</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="27"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1">
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="30"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="E16" s="108"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="44"/>
+      <c r="A16" t="s">
+        <v>2779</v>
+      </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
+        <v>428</v>
+      </c>
+      <c r="B17" t="s">
         <v>2780</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="27"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A18" t="s">
-        <v>428</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2781</v>
-      </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="30"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
         <v>2768</v>
       </c>
-      <c r="E23" s="380" t="s">
-        <v>2776</v>
-      </c>
-      <c r="F23" s="382"/>
-      <c r="G23" s="382"/>
-      <c r="H23" s="382"/>
-      <c r="I23" s="382"/>
-      <c r="J23" s="382"/>
-      <c r="K23" s="382"/>
-      <c r="L23" s="382"/>
-      <c r="M23" s="381"/>
+      <c r="E19" s="381" t="s">
+        <v>2775</v>
+      </c>
+      <c r="F19" s="383"/>
+      <c r="G19" s="383"/>
+      <c r="H19" s="383"/>
+      <c r="I19" s="383"/>
+      <c r="J19" s="383"/>
+      <c r="K19" s="383"/>
+      <c r="L19" s="383"/>
+      <c r="M19" s="382"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B20" t="s">
+        <v>458</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E20" s="293" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F20" s="294" t="s">
+        <v>2005</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="27"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="B21" t="s">
+        <v>2769</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="F21" s="43">
+        <v>10</v>
+      </c>
+      <c r="G21" s="109"/>
+      <c r="H21" s="145" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I21" s="161"/>
+      <c r="J21" s="162"/>
+      <c r="K21" s="43" t="s">
+        <v>2787</v>
+      </c>
+      <c r="L21" s="43"/>
+      <c r="M21" s="44"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>2143</v>
+      </c>
+      <c r="G22" s="109"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="195" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="196" t="s">
+        <v>1532</v>
+      </c>
+      <c r="K22" s="109" t="s">
+        <v>2788</v>
+      </c>
+      <c r="L22" s="43"/>
+      <c r="M22" s="44"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1">
+      <c r="E23" s="42" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>2143</v>
+      </c>
+      <c r="G23" s="43"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="163" t="s">
+        <v>199</v>
+      </c>
+      <c r="J23" s="164">
+        <v>5</v>
+      </c>
+      <c r="K23" s="109" t="s">
+        <v>2789</v>
+      </c>
+      <c r="L23" s="43"/>
+      <c r="M23" s="44"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B24" t="s">
-        <v>458</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2365</v>
-      </c>
-      <c r="E24" s="293" t="s">
-        <v>1526</v>
-      </c>
-      <c r="F24" s="294" t="s">
-        <v>2005</v>
-      </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
+      <c r="A24" t="s">
+        <v>271</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
-      <c r="M24" s="27"/>
+      <c r="M24" s="44"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="B25" t="s">
-        <v>2769</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>400</v>
-      </c>
-      <c r="F25" s="43">
-        <v>10</v>
-      </c>
-      <c r="G25" s="109"/>
-      <c r="H25" s="145" t="s">
-        <v>1701</v>
-      </c>
-      <c r="I25" s="161"/>
-      <c r="J25" s="162"/>
-      <c r="K25" s="43" t="s">
-        <v>2788</v>
-      </c>
-      <c r="L25" s="43"/>
+      <c r="A25" t="s">
+        <v>2770</v>
+      </c>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43" t="s">
+        <v>2143</v>
+      </c>
+      <c r="I25" s="39"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43" t="s">
+        <v>2374</v>
+      </c>
       <c r="M25" s="44"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>1637</v>
-      </c>
-      <c r="F26" s="43" t="s">
-        <v>2143</v>
-      </c>
-      <c r="G26" s="109"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="195" t="s">
+        <v>2772</v>
+      </c>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="J26" s="196" t="s">
+      <c r="J26" s="44" t="s">
         <v>1532</v>
       </c>
-      <c r="K26" s="109" t="s">
-        <v>2789</v>
-      </c>
-      <c r="L26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43" t="s">
+        <v>2790</v>
+      </c>
       <c r="M26" s="44"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1">
-      <c r="E27" s="42" t="s">
-        <v>1623</v>
-      </c>
-      <c r="F27" s="43" t="s">
-        <v>2143</v>
-      </c>
+      <c r="A27" t="s">
+        <v>2773</v>
+      </c>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
       <c r="G27" s="43"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="163" t="s">
+      <c r="H27" s="43"/>
+      <c r="I27" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="J27" s="164">
+      <c r="J27" s="47">
         <v>5</v>
       </c>
-      <c r="K27" s="109" t="s">
-        <v>2790</v>
-      </c>
-      <c r="L27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43" t="s">
+        <v>2791</v>
+      </c>
       <c r="M27" s="44"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A28" t="s">
-        <v>271</v>
-      </c>
+    <row r="28" spans="1:13">
       <c r="E28" s="42"/>
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="43"/>
       <c r="I28" s="43"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
       <c r="M28" s="44"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="E29" s="42"/>
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
-      <c r="H29" s="43" t="s">
-        <v>2143</v>
-      </c>
-      <c r="I29" s="39"/>
-      <c r="J29" s="41"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
       <c r="K29" s="43"/>
-      <c r="L29" s="43" t="s">
-        <v>2374</v>
-      </c>
+      <c r="L29" s="43"/>
       <c r="M29" s="44"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>2772</v>
+        <v>2774</v>
       </c>
       <c r="E30" s="42"/>
-      <c r="F30" s="43"/>
+      <c r="F30" s="109"/>
       <c r="G30" s="43"/>
       <c r="H30" s="43"/>
-      <c r="I30" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30" s="44" t="s">
-        <v>1532</v>
-      </c>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
       <c r="K30" s="43"/>
-      <c r="L30" s="43" t="s">
-        <v>2791</v>
-      </c>
+      <c r="L30" s="43"/>
       <c r="M30" s="44"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>2773</v>
+        <v>2785</v>
       </c>
       <c r="E31" s="42"/>
-      <c r="F31" s="43"/>
+      <c r="F31" s="109" t="s">
+        <v>2783</v>
+      </c>
       <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="J31" s="47">
-        <v>5</v>
-      </c>
+      <c r="H31" s="109" t="s">
+        <v>2784</v>
+      </c>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
       <c r="K31" s="43"/>
-      <c r="L31" s="43" t="s">
-        <v>2792</v>
-      </c>
+      <c r="L31" s="43"/>
       <c r="M31" s="44"/>
     </row>
     <row r="32" spans="1:13">
@@ -58993,12 +59010,12 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>2771</v>
-      </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
+        <v>2782</v>
+      </c>
+      <c r="E33" s="108"/>
+      <c r="F33" t="s">
+        <v>2785</v>
+      </c>
       <c r="I33" s="43"/>
       <c r="J33" s="43"/>
       <c r="K33" s="43"/>
@@ -59006,214 +59023,223 @@
       <c r="M33" s="44"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" t="s">
-        <v>2774</v>
-      </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="44"/>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="E34" s="26"/>
+      <c r="F34" s="20" t="s">
+        <v>2786</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="27"/>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" thickBot="1">
       <c r="A35" t="s">
-        <v>2786</v>
-      </c>
-      <c r="E35" s="42"/>
-      <c r="F35" s="109" t="s">
-        <v>2784</v>
-      </c>
-      <c r="G35" s="43"/>
-      <c r="H35" s="109" t="s">
-        <v>2785</v>
-      </c>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="44"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="E36" s="42"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="44"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" t="s">
-        <v>2783</v>
-      </c>
-      <c r="E37" s="108"/>
-      <c r="F37" t="s">
-        <v>2786</v>
-      </c>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="44"/>
-    </row>
+        <v>1972</v>
+      </c>
+      <c r="E35" s="28"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="30"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="38" spans="1:13">
-      <c r="E38" s="26"/>
-      <c r="F38" s="20" t="s">
-        <v>2787</v>
-      </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="27"/>
+      <c r="A38" t="s">
+        <v>2768</v>
+      </c>
+      <c r="E38" s="381" t="s">
+        <v>2775</v>
+      </c>
+      <c r="F38" s="383"/>
+      <c r="G38" s="383"/>
+      <c r="H38" s="383"/>
+      <c r="I38" s="383"/>
+      <c r="J38" s="383"/>
+      <c r="K38" s="383"/>
+      <c r="L38" s="383"/>
+      <c r="M38" s="382"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A39" t="s">
-        <v>1972</v>
-      </c>
-      <c r="E39" s="28"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="30"/>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="42" spans="1:13">
+      <c r="B39" t="s">
+        <v>458</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E39" s="293" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F39" s="294" t="s">
+        <v>2005</v>
+      </c>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="27"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="B40" t="s">
+        <v>2769</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="F40" s="43">
+        <v>10</v>
+      </c>
+      <c r="G40" s="109"/>
+      <c r="H40" s="145" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I40" s="161"/>
+      <c r="J40" s="162"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="44"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>2143</v>
+      </c>
+      <c r="G41" s="109"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="195" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="196" t="s">
+        <v>1721</v>
+      </c>
+      <c r="K41" s="109"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="44"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" thickBot="1">
       <c r="A42" t="s">
-        <v>2768</v>
-      </c>
-      <c r="E42" s="380" t="s">
-        <v>2776</v>
-      </c>
-      <c r="F42" s="382"/>
-      <c r="G42" s="382"/>
-      <c r="H42" s="382"/>
-      <c r="I42" s="382"/>
-      <c r="J42" s="382"/>
-      <c r="K42" s="382"/>
-      <c r="L42" s="382"/>
-      <c r="M42" s="381"/>
+        <v>271</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>2144</v>
+      </c>
+      <c r="G42" s="43"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="163" t="s">
+        <v>199</v>
+      </c>
+      <c r="J42" s="164">
+        <v>5</v>
+      </c>
+      <c r="K42" s="109"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="44"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B43" t="s">
-        <v>458</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2365</v>
-      </c>
-      <c r="E43" s="293" t="s">
-        <v>1526</v>
-      </c>
-      <c r="F43" s="294" t="s">
-        <v>2005</v>
-      </c>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
+      <c r="A43" t="s">
+        <v>2770</v>
+      </c>
+      <c r="E43" s="42"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
       <c r="L43" s="20"/>
-      <c r="M43" s="27"/>
+      <c r="M43" s="44"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="B44" t="s">
-        <v>2769</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>400</v>
-      </c>
-      <c r="F44" s="43">
-        <v>10</v>
-      </c>
-      <c r="G44" s="109"/>
-      <c r="H44" s="145" t="s">
-        <v>1701</v>
-      </c>
-      <c r="I44" s="161"/>
-      <c r="J44" s="162"/>
+      <c r="A44" t="s">
+        <v>2772</v>
+      </c>
+      <c r="E44" s="42"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43" t="s">
+        <v>2143</v>
+      </c>
+      <c r="I44" s="39"/>
+      <c r="J44" s="41"/>
       <c r="K44" s="43"/>
       <c r="L44" s="43"/>
       <c r="M44" s="44"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>142</v>
-      </c>
-      <c r="E45" s="42" t="s">
-        <v>1637</v>
-      </c>
-      <c r="F45" s="43" t="s">
-        <v>2143</v>
-      </c>
-      <c r="G45" s="109"/>
-      <c r="H45" s="145"/>
-      <c r="I45" s="195" t="s">
+        <v>2773</v>
+      </c>
+      <c r="E45" s="42"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="J45" s="196" t="s">
-        <v>1721</v>
-      </c>
-      <c r="K45" s="109"/>
+      <c r="J45" s="44" t="s">
+        <v>1532</v>
+      </c>
+      <c r="K45" s="43"/>
       <c r="L45" s="43"/>
       <c r="M45" s="44"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
       <c r="A46" t="s">
-        <v>271</v>
-      </c>
-      <c r="E46" s="42" t="s">
-        <v>1623</v>
-      </c>
-      <c r="F46" s="43" t="s">
-        <v>2144</v>
-      </c>
+        <v>2771</v>
+      </c>
+      <c r="E46" s="42"/>
+      <c r="F46" s="43"/>
       <c r="G46" s="43"/>
-      <c r="H46" s="145"/>
-      <c r="I46" s="163" t="s">
+      <c r="H46" s="43"/>
+      <c r="I46" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="J46" s="164">
-        <v>5</v>
-      </c>
-      <c r="K46" s="109"/>
+      <c r="J46" s="47">
+        <v>0</v>
+      </c>
+      <c r="K46" s="43"/>
       <c r="L46" s="43"/>
       <c r="M46" s="44"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1">
       <c r="A47" t="s">
-        <v>2770</v>
+        <v>2774</v>
       </c>
       <c r="E47" s="42"/>
       <c r="F47" s="43"/>
       <c r="G47" s="43"/>
       <c r="H47" s="43"/>
       <c r="I47" s="43"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
       <c r="M47" s="44"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>2772</v>
+        <v>2785</v>
       </c>
       <c r="E48" s="42"/>
       <c r="F48" s="43"/>
       <c r="G48" s="43"/>
       <c r="H48" s="43" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="I48" s="39"/>
       <c r="J48" s="41"/>
@@ -59223,17 +59249,17 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>2773</v>
+        <v>1972</v>
       </c>
       <c r="E49" s="42"/>
-      <c r="F49" s="43"/>
+      <c r="F49" s="109"/>
       <c r="G49" s="43"/>
       <c r="H49" s="43"/>
       <c r="I49" s="42" t="s">
         <v>56</v>
       </c>
       <c r="J49" s="44" t="s">
-        <v>1532</v>
+        <v>415</v>
       </c>
       <c r="K49" s="43"/>
       <c r="L49" s="43"/>
@@ -59241,12 +59267,12 @@
     </row>
     <row r="50" spans="1:15" ht="15.75" thickBot="1">
       <c r="A50" t="s">
-        <v>2771</v>
+        <v>2792</v>
       </c>
       <c r="E50" s="42"/>
-      <c r="F50" s="43"/>
+      <c r="F50" s="109"/>
       <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
+      <c r="H50" s="109"/>
       <c r="I50" s="45" t="s">
         <v>199</v>
       </c>
@@ -59257,9 +59283,9 @@
       <c r="L50" s="43"/>
       <c r="M50" s="44"/>
     </row>
-    <row r="51" spans="1:15" ht="15.75" thickBot="1">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
-        <v>2774</v>
+        <v>2798</v>
       </c>
       <c r="E51" s="42"/>
       <c r="F51" s="43"/>
@@ -59272,536 +59298,521 @@
       <c r="M51" s="44"/>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" t="s">
-        <v>2786</v>
-      </c>
-      <c r="E52" s="42"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43" t="s">
-        <v>2144</v>
-      </c>
-      <c r="I52" s="39"/>
-      <c r="J52" s="41"/>
+      <c r="E52" s="108"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
       <c r="K52" s="43"/>
       <c r="L52" s="43"/>
       <c r="M52" s="44"/>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" t="s">
-        <v>1972</v>
-      </c>
-      <c r="E53" s="42"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="J53" s="44" t="s">
-        <v>415</v>
-      </c>
-      <c r="K53" s="43"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="44"/>
+        <v>2793</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E53" s="26"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="27"/>
     </row>
     <row r="54" spans="1:15" ht="15.75" thickBot="1">
       <c r="A54" t="s">
-        <v>2793</v>
-      </c>
-      <c r="E54" s="42"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="J54" s="47">
-        <v>0</v>
-      </c>
-      <c r="K54" s="43"/>
-      <c r="L54" s="43"/>
-      <c r="M54" s="44"/>
+        <v>2794</v>
+      </c>
+      <c r="C54" t="s">
+        <v>415</v>
+      </c>
+      <c r="E54" s="28"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="30"/>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="60" spans="1:15" ht="23.25">
+      <c r="A60" s="307" t="s">
         <v>2799</v>
       </c>
-      <c r="E55" s="42"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="43"/>
-      <c r="M55" s="44"/>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="E56" s="108"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="43"/>
-      <c r="M56" s="44"/>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" t="s">
-        <v>2794</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E57" s="26"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="27"/>
-    </row>
-    <row r="58" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A58" t="s">
-        <v>2795</v>
-      </c>
-      <c r="C58" t="s">
-        <v>415</v>
-      </c>
-      <c r="E58" s="28"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="30"/>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="A59" t="s">
-        <v>2796</v>
-      </c>
-      <c r="C59">
+      <c r="B60" s="307"/>
+      <c r="C60" s="307"/>
+      <c r="D60" s="307"/>
+      <c r="G60" s="381" t="s">
+        <v>2775</v>
+      </c>
+      <c r="H60" s="383"/>
+      <c r="I60" s="383"/>
+      <c r="J60" s="383"/>
+      <c r="K60" s="383"/>
+      <c r="L60" s="383"/>
+      <c r="M60" s="383"/>
+      <c r="N60" s="383"/>
+      <c r="O60" s="382"/>
+    </row>
+    <row r="61" spans="1:15" ht="15.75" thickBot="1">
+      <c r="B61" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G61" s="293" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H61" s="306" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="27"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="B62" t="s">
+        <v>2772</v>
+      </c>
+      <c r="G62" s="42" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H62" s="43" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I62" s="109"/>
+      <c r="J62" s="295" t="s">
+        <v>1701</v>
+      </c>
+      <c r="K62" s="296"/>
+      <c r="L62" s="297"/>
+      <c r="M62" s="295"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="44"/>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="309"/>
+      <c r="B63" s="309" t="s">
+        <v>2800</v>
+      </c>
+      <c r="C63" s="309"/>
+      <c r="D63" s="309" t="s">
+        <v>2811</v>
+      </c>
+      <c r="G63" s="42" t="s">
+        <v>534</v>
+      </c>
+      <c r="H63" s="43">
+        <v>20</v>
+      </c>
+      <c r="I63" s="109"/>
+      <c r="J63" s="295"/>
+      <c r="K63" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L63" s="44" t="s">
+        <v>1721</v>
+      </c>
+      <c r="M63" s="303"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="44"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="309" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="309"/>
+      <c r="C64" s="309"/>
+      <c r="D64" s="309"/>
+      <c r="G64" s="42" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H64" s="43" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I64" s="43"/>
+      <c r="J64" s="295"/>
+      <c r="K64" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="L64" s="298">
         <v>0</v>
       </c>
-      <c r="D59" t="s">
-        <v>2798</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" t="s">
-        <v>2797</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="64" spans="1:15" ht="23.25">
-      <c r="A64" s="307" t="s">
-        <v>2800</v>
-      </c>
-      <c r="B64" s="307"/>
-      <c r="C64" s="307"/>
-      <c r="D64" s="307"/>
-      <c r="G64" s="380" t="s">
-        <v>2776</v>
-      </c>
-      <c r="H64" s="382"/>
-      <c r="I64" s="382"/>
-      <c r="J64" s="382"/>
-      <c r="K64" s="382"/>
-      <c r="L64" s="382"/>
-      <c r="M64" s="382"/>
-      <c r="N64" s="382"/>
-      <c r="O64" s="381"/>
+      <c r="M64" s="303"/>
+      <c r="N64" s="43"/>
+      <c r="O64" s="44"/>
     </row>
     <row r="65" spans="1:15" ht="15.75" thickBot="1">
-      <c r="B65" t="s">
-        <v>1568</v>
-      </c>
-      <c r="G65" s="293" t="s">
-        <v>1526</v>
-      </c>
-      <c r="H65" s="306" t="s">
-        <v>2005</v>
-      </c>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
+      <c r="A65" s="309" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B65" s="309"/>
+      <c r="C65" s="309"/>
+      <c r="D65" s="309"/>
+      <c r="E65" t="s">
+        <v>2180</v>
+      </c>
+      <c r="G65" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="H65" s="43">
+        <v>20</v>
+      </c>
+      <c r="I65" s="43"/>
+      <c r="J65" s="295"/>
+      <c r="K65" s="299"/>
+      <c r="L65" s="304"/>
+      <c r="M65" s="305"/>
       <c r="N65" s="20"/>
-      <c r="O65" s="27"/>
-    </row>
-    <row r="66" spans="1:15">
+      <c r="O65" s="44"/>
+    </row>
+    <row r="66" spans="1:15" ht="15.75" thickBot="1">
       <c r="B66" t="s">
-        <v>2772</v>
+        <v>269</v>
       </c>
       <c r="G66" s="42" t="s">
-        <v>1177</v>
+        <v>1623</v>
       </c>
       <c r="H66" s="43" t="s">
-        <v>1701</v>
-      </c>
-      <c r="I66" s="109"/>
-      <c r="J66" s="295" t="s">
-        <v>1701</v>
-      </c>
-      <c r="K66" s="296"/>
-      <c r="L66" s="297"/>
+        <v>2143</v>
+      </c>
+      <c r="I66" s="43"/>
+      <c r="J66" s="295"/>
+      <c r="K66" s="295"/>
+      <c r="L66" s="295"/>
       <c r="M66" s="295"/>
       <c r="N66" s="43"/>
       <c r="O66" s="44"/>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="309"/>
-      <c r="B67" s="309" t="s">
-        <v>2801</v>
-      </c>
-      <c r="C67" s="309"/>
-      <c r="D67" s="309" t="s">
-        <v>2812</v>
+      <c r="B67" t="s">
+        <v>2792</v>
       </c>
       <c r="G67" s="42" t="s">
-        <v>534</v>
+        <v>401</v>
       </c>
       <c r="H67" s="43">
-        <v>20</v>
-      </c>
-      <c r="I67" s="109"/>
-      <c r="J67" s="295"/>
-      <c r="K67" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="L67" s="44" t="s">
-        <v>1721</v>
-      </c>
-      <c r="M67" s="303"/>
+        <v>30</v>
+      </c>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43" t="s">
+        <v>2143</v>
+      </c>
+      <c r="K67" s="296"/>
+      <c r="L67" s="297"/>
+      <c r="M67" s="295"/>
       <c r="N67" s="43"/>
       <c r="O67" s="44"/>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="309" t="s">
-        <v>142</v>
-      </c>
-      <c r="B68" s="309"/>
-      <c r="C68" s="309"/>
-      <c r="D68" s="309"/>
+      <c r="B68" t="s">
+        <v>2774</v>
+      </c>
       <c r="G68" s="42" t="s">
-        <v>1637</v>
+        <v>2040</v>
       </c>
       <c r="H68" s="43" t="s">
-        <v>1701</v>
+        <v>2143</v>
       </c>
       <c r="I68" s="43"/>
       <c r="J68" s="295"/>
       <c r="K68" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="L68" s="298">
-        <v>0</v>
-      </c>
-      <c r="M68" s="303"/>
+        <v>56</v>
+      </c>
+      <c r="L68" s="44" t="s">
+        <v>1721</v>
+      </c>
+      <c r="M68" s="295"/>
       <c r="N68" s="43"/>
       <c r="O68" s="44"/>
     </row>
-    <row r="69" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A69" s="309" t="s">
+    <row r="69" spans="1:15">
+      <c r="B69" s="48" t="s">
         <v>2802</v>
       </c>
-      <c r="B69" s="309"/>
-      <c r="C69" s="309"/>
-      <c r="D69" s="309"/>
+      <c r="C69" s="48"/>
       <c r="E69" t="s">
-        <v>2180</v>
+        <v>2811</v>
       </c>
       <c r="G69" s="42" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H69" s="43">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I69" s="43"/>
       <c r="J69" s="295"/>
-      <c r="K69" s="299"/>
-      <c r="L69" s="304"/>
-      <c r="M69" s="305"/>
-      <c r="N69" s="20"/>
+      <c r="K69" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="L69" s="298">
+        <v>0</v>
+      </c>
+      <c r="M69" s="295"/>
+      <c r="N69" s="43"/>
       <c r="O69" s="44"/>
     </row>
     <row r="70" spans="1:15" ht="15.75" thickBot="1">
-      <c r="B70" t="s">
-        <v>269</v>
-      </c>
-      <c r="G70" s="42" t="s">
-        <v>1623</v>
-      </c>
-      <c r="H70" s="43" t="s">
-        <v>2143</v>
-      </c>
+      <c r="A70" t="s">
+        <v>142</v>
+      </c>
+      <c r="G70" s="42"/>
+      <c r="H70" s="43"/>
       <c r="I70" s="43"/>
-      <c r="J70" s="295"/>
-      <c r="K70" s="295"/>
-      <c r="L70" s="295"/>
-      <c r="M70" s="295"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="299"/>
+      <c r="L70" s="304"/>
+      <c r="M70" s="43"/>
       <c r="N70" s="43"/>
       <c r="O70" s="44"/>
     </row>
     <row r="71" spans="1:15">
-      <c r="B71" t="s">
-        <v>2793</v>
-      </c>
-      <c r="G71" s="42" t="s">
-        <v>401</v>
-      </c>
-      <c r="H71" s="43">
-        <v>30</v>
-      </c>
+      <c r="A71" s="48" t="s">
+        <v>2803</v>
+      </c>
+      <c r="B71" s="48"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="E71" t="s">
+        <v>2180</v>
+      </c>
+      <c r="G71" s="42"/>
       <c r="I71" s="43"/>
-      <c r="J71" s="43" t="s">
-        <v>2143</v>
-      </c>
-      <c r="K71" s="296"/>
-      <c r="L71" s="297"/>
-      <c r="M71" s="295"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
       <c r="N71" s="43"/>
       <c r="O71" s="44"/>
     </row>
     <row r="72" spans="1:15">
       <c r="B72" t="s">
-        <v>2774</v>
-      </c>
-      <c r="G72" s="42" t="s">
-        <v>2040</v>
-      </c>
-      <c r="H72" s="43" t="s">
-        <v>2143</v>
+        <v>1630</v>
+      </c>
+      <c r="G72" s="42"/>
+      <c r="H72" s="109" t="s">
+        <v>2807</v>
       </c>
       <c r="I72" s="43"/>
-      <c r="J72" s="295"/>
-      <c r="K72" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="L72" s="44" t="s">
-        <v>1721</v>
-      </c>
-      <c r="M72" s="295"/>
+      <c r="J72" s="109"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
       <c r="N72" s="43"/>
       <c r="O72" s="44"/>
     </row>
     <row r="73" spans="1:15">
-      <c r="B73" s="48" t="s">
-        <v>2803</v>
-      </c>
-      <c r="C73" s="48"/>
-      <c r="E73" t="s">
-        <v>2812</v>
-      </c>
-      <c r="G73" s="42" t="s">
-        <v>403</v>
-      </c>
-      <c r="H73" s="43">
-        <v>30</v>
+      <c r="B73" t="s">
+        <v>2804</v>
+      </c>
+      <c r="G73" s="42"/>
+      <c r="H73" s="109" t="s">
+        <v>2808</v>
       </c>
       <c r="I73" s="43"/>
-      <c r="J73" s="295"/>
-      <c r="K73" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="L73" s="298">
-        <v>0</v>
-      </c>
-      <c r="M73" s="295"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="43"/>
       <c r="N73" s="43"/>
       <c r="O73" s="44"/>
     </row>
-    <row r="74" spans="1:15" ht="15.75" thickBot="1">
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
         <v>142</v>
       </c>
-      <c r="G74" s="42"/>
+      <c r="G74" s="108"/>
       <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="299"/>
-      <c r="L74" s="304"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="43"/>
       <c r="M74" s="43"/>
       <c r="N74" s="43"/>
       <c r="O74" s="44"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="48" t="s">
-        <v>2804</v>
-      </c>
-      <c r="B75" s="48"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" t="s">
-        <v>2180</v>
-      </c>
-      <c r="G75" s="42"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="43"/>
-      <c r="M75" s="43"/>
-      <c r="N75" s="43"/>
-      <c r="O75" s="44"/>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="B76" t="s">
-        <v>1630</v>
-      </c>
-      <c r="G76" s="42"/>
-      <c r="H76" s="109" t="s">
-        <v>2808</v>
-      </c>
-      <c r="I76" s="43"/>
-      <c r="J76" s="109"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="43"/>
-      <c r="M76" s="43"/>
-      <c r="N76" s="43"/>
-      <c r="O76" s="44"/>
+      <c r="G75" s="26"/>
+      <c r="H75" t="s">
+        <v>2809</v>
+      </c>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="31"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="27"/>
+    </row>
+    <row r="76" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A76" t="s">
+        <v>2805</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2816</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" s="43"/>
+      <c r="G76" s="236"/>
+      <c r="H76" s="29" t="s">
+        <v>2810</v>
+      </c>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="29"/>
+      <c r="O76" s="30"/>
     </row>
     <row r="77" spans="1:15">
-      <c r="B77" t="s">
-        <v>2805</v>
-      </c>
-      <c r="G77" s="42"/>
-      <c r="H77" s="109" t="s">
-        <v>2809</v>
-      </c>
-      <c r="I77" s="43"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="43"/>
-      <c r="L77" s="43"/>
-      <c r="M77" s="43"/>
-      <c r="N77" s="43"/>
-      <c r="O77" s="44"/>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="A78" t="s">
-        <v>142</v>
-      </c>
-      <c r="G78" s="108"/>
-      <c r="H78" s="43"/>
-      <c r="K78" s="43"/>
-      <c r="L78" s="43"/>
-      <c r="M78" s="43"/>
-      <c r="N78" s="43"/>
-      <c r="O78" s="44"/>
+      <c r="A77" t="s">
+        <v>304</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="28.5">
+      <c r="A78" s="308" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B78" s="308"/>
+      <c r="D78" t="s">
+        <v>2818</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:15">
-      <c r="G79" s="26"/>
-      <c r="H79" t="s">
-        <v>2810</v>
-      </c>
+      <c r="A79" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
       <c r="I79" s="20"/>
       <c r="J79" s="20"/>
-      <c r="K79" s="31"/>
+      <c r="K79" s="20"/>
       <c r="L79" s="20"/>
       <c r="M79" s="20"/>
       <c r="N79" s="20"/>
-      <c r="O79" s="27"/>
-    </row>
-    <row r="80" spans="1:15" ht="15.75" thickBot="1">
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
-        <v>2806</v>
-      </c>
-      <c r="D80" t="s">
-        <v>2817</v>
-      </c>
-      <c r="E80" t="b">
-        <v>1</v>
-      </c>
-      <c r="F80" s="43"/>
-      <c r="G80" s="236"/>
-      <c r="H80" s="29" t="s">
-        <v>2811</v>
-      </c>
-      <c r="I80" s="29"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="29"/>
-      <c r="L80" s="29"/>
-      <c r="M80" s="29"/>
-      <c r="N80" s="29"/>
-      <c r="O80" s="30"/>
+        <v>2813</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="20"/>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" t="s">
-        <v>304</v>
-      </c>
-      <c r="D81" t="s">
-        <v>2017</v>
-      </c>
-      <c r="E81" t="b">
-        <v>0</v>
-      </c>
-      <c r="F81" t="s">
-        <v>2818</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="28.5">
-      <c r="A82" s="308" t="s">
-        <v>2807</v>
-      </c>
-      <c r="B82" s="308"/>
-      <c r="D82" t="s">
-        <v>2819</v>
-      </c>
-      <c r="E82" t="b">
-        <v>1</v>
-      </c>
+        <v>1047</v>
+      </c>
+      <c r="C81">
+        <v>20</v>
+      </c>
+      <c r="F81" s="20"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="20"/>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="20"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="20"/>
+      <c r="O82" s="20"/>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" t="s">
-        <v>2813</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1721</v>
-      </c>
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
       <c r="L83" s="20"/>
       <c r="M83" s="20"/>
       <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" t="s">
-        <v>2814</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
       <c r="L84" s="20"/>
       <c r="M84" s="20"/>
       <c r="N84" s="20"/>
-    </row>
-    <row r="85" spans="1:15">
-      <c r="A85" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C85">
-        <v>20</v>
-      </c>
+      <c r="O84" s="20"/>
+    </row>
+    <row r="85" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
       <c r="F85" s="20"/>
+      <c r="G85" t="s">
+        <v>2815</v>
+      </c>
       <c r="L85" s="20"/>
       <c r="M85" s="20"/>
       <c r="N85" s="20"/>
+      <c r="O85" s="20"/>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="20"/>
@@ -59810,6 +59821,11 @@
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="25"/>
       <c r="L86" s="20"/>
       <c r="M86" s="20"/>
       <c r="N86" s="20"/>
@@ -59817,11 +59833,20 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="20"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="20"/>
+      <c r="B87" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="C87" s="20">
+        <v>12345</v>
+      </c>
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="27"/>
       <c r="L87" s="20"/>
       <c r="M87" s="20"/>
       <c r="N87" s="20"/>
@@ -59834,59 +59859,70 @@
       <c r="D88" s="20"/>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
+      <c r="G88" s="20">
+        <v>12345</v>
+      </c>
+      <c r="H88" s="26"/>
+      <c r="I88" s="20" t="s">
+        <v>2814</v>
+      </c>
+      <c r="J88" s="20"/>
+      <c r="K88" s="27"/>
       <c r="L88" s="20"/>
       <c r="M88" s="20"/>
       <c r="N88" s="20"/>
       <c r="O88" s="20"/>
     </row>
-    <row r="89" spans="1:15" ht="15.75" thickBot="1">
+    <row r="89" spans="1:15">
       <c r="A89" s="20"/>
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
       <c r="D89" s="20"/>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
-      <c r="G89" t="s">
-        <v>2816</v>
-      </c>
+      <c r="G89" s="20"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="27"/>
       <c r="L89" s="20"/>
-      <c r="M89" s="20"/>
+      <c r="M89" s="300"/>
       <c r="N89" s="20"/>
       <c r="O89" s="20"/>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="20"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
+      <c r="B90" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="C90" s="20">
+        <v>12345</v>
+      </c>
       <c r="D90" s="20"/>
       <c r="E90" s="20"/>
       <c r="F90" s="20"/>
       <c r="G90" s="20"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="24"/>
-      <c r="K90" s="25"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="27"/>
       <c r="L90" s="20"/>
       <c r="M90" s="20"/>
       <c r="N90" s="20"/>
       <c r="O90" s="20"/>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" ht="15.75" thickBot="1">
       <c r="A91" s="20"/>
-      <c r="B91" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="C91" s="20">
-        <v>12345</v>
-      </c>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
       <c r="D91" s="20"/>
       <c r="E91" s="20"/>
       <c r="F91" s="20"/>
       <c r="G91" s="20"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="20"/>
-      <c r="K91" s="27"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="30"/>
       <c r="L91" s="20"/>
       <c r="M91" s="20"/>
       <c r="N91" s="20"/>
@@ -59899,15 +59935,11 @@
       <c r="D92" s="20"/>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="20">
-        <v>12345</v>
-      </c>
-      <c r="H92" s="26"/>
-      <c r="I92" s="20" t="s">
-        <v>2815</v>
-      </c>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="300"/>
       <c r="J92" s="20"/>
-      <c r="K92" s="27"/>
+      <c r="K92" s="20"/>
       <c r="L92" s="20"/>
       <c r="M92" s="20"/>
       <c r="N92" s="20"/>
@@ -59921,37 +59953,33 @@
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
       <c r="G93" s="20"/>
-      <c r="H93" s="26"/>
+      <c r="H93" s="20"/>
       <c r="I93" s="20"/>
       <c r="J93" s="20"/>
-      <c r="K93" s="27"/>
+      <c r="K93" s="20"/>
       <c r="L93" s="20"/>
-      <c r="M93" s="300"/>
+      <c r="M93" s="20"/>
       <c r="N93" s="20"/>
       <c r="O93" s="20"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="20"/>
-      <c r="B94" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="C94" s="20">
-        <v>12345</v>
-      </c>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
       <c r="D94" s="20"/>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
       <c r="G94" s="20"/>
-      <c r="H94" s="26"/>
+      <c r="H94" s="20"/>
       <c r="I94" s="20"/>
       <c r="J94" s="20"/>
-      <c r="K94" s="27"/>
+      <c r="K94" s="20"/>
       <c r="L94" s="20"/>
       <c r="M94" s="20"/>
       <c r="N94" s="20"/>
       <c r="O94" s="20"/>
     </row>
-    <row r="95" spans="1:15" ht="15.75" thickBot="1">
+    <row r="95" spans="1:15">
       <c r="A95" s="20"/>
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
@@ -59959,10 +59987,10 @@
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
       <c r="G95" s="20"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="29"/>
-      <c r="J95" s="29"/>
-      <c r="K95" s="30"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="20"/>
+      <c r="K95" s="20"/>
       <c r="L95" s="20"/>
       <c r="M95" s="20"/>
       <c r="N95" s="20"/>
@@ -59977,7 +60005,7 @@
       <c r="F96" s="20"/>
       <c r="G96" s="20"/>
       <c r="H96" s="20"/>
-      <c r="I96" s="300"/>
+      <c r="I96" s="20"/>
       <c r="J96" s="20"/>
       <c r="K96" s="20"/>
       <c r="L96" s="20"/>
@@ -60653,8 +60681,8 @@
       <c r="B136" s="20"/>
       <c r="C136" s="20"/>
       <c r="D136" s="20"/>
-      <c r="E136" s="20"/>
-      <c r="F136" s="20"/>
+      <c r="E136" s="43"/>
+      <c r="F136" s="43"/>
       <c r="G136" s="20"/>
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
@@ -60670,12 +60698,12 @@
       <c r="B137" s="20"/>
       <c r="C137" s="20"/>
       <c r="D137" s="20"/>
-      <c r="E137" s="20"/>
-      <c r="F137" s="20"/>
+      <c r="E137" s="43"/>
+      <c r="F137" s="43"/>
       <c r="G137" s="20"/>
       <c r="H137" s="20"/>
-      <c r="I137" s="20"/>
-      <c r="J137" s="20"/>
+      <c r="I137" s="43"/>
+      <c r="J137" s="43"/>
       <c r="K137" s="20"/>
       <c r="L137" s="20"/>
       <c r="M137" s="20"/>
@@ -60687,12 +60715,12 @@
       <c r="B138" s="20"/>
       <c r="C138" s="20"/>
       <c r="D138" s="20"/>
-      <c r="E138" s="20"/>
-      <c r="F138" s="20"/>
+      <c r="E138" s="43"/>
+      <c r="F138" s="43"/>
       <c r="G138" s="20"/>
       <c r="H138" s="20"/>
-      <c r="I138" s="20"/>
-      <c r="J138" s="20"/>
+      <c r="I138" s="43"/>
+      <c r="J138" s="43"/>
       <c r="K138" s="20"/>
       <c r="L138" s="20"/>
       <c r="M138" s="20"/>
@@ -60704,8 +60732,8 @@
       <c r="B139" s="20"/>
       <c r="C139" s="20"/>
       <c r="D139" s="20"/>
-      <c r="E139" s="20"/>
-      <c r="F139" s="20"/>
+      <c r="E139" s="43"/>
+      <c r="F139" s="43"/>
       <c r="G139" s="20"/>
       <c r="H139" s="20"/>
       <c r="I139" s="20"/>
@@ -60725,8 +60753,8 @@
       <c r="F140" s="43"/>
       <c r="G140" s="20"/>
       <c r="H140" s="20"/>
-      <c r="I140" s="20"/>
-      <c r="J140" s="20"/>
+      <c r="I140" s="43"/>
+      <c r="J140" s="43"/>
       <c r="K140" s="20"/>
       <c r="L140" s="20"/>
       <c r="M140" s="20"/>
@@ -60759,8 +60787,8 @@
       <c r="F142" s="43"/>
       <c r="G142" s="20"/>
       <c r="H142" s="20"/>
-      <c r="I142" s="43"/>
-      <c r="J142" s="43"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="20"/>
       <c r="K142" s="20"/>
       <c r="L142" s="20"/>
       <c r="M142" s="20"/>
@@ -60793,8 +60821,8 @@
       <c r="F144" s="43"/>
       <c r="G144" s="20"/>
       <c r="H144" s="20"/>
-      <c r="I144" s="43"/>
-      <c r="J144" s="43"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="20"/>
       <c r="K144" s="20"/>
       <c r="L144" s="20"/>
       <c r="M144" s="20"/>
@@ -60810,8 +60838,8 @@
       <c r="F145" s="43"/>
       <c r="G145" s="20"/>
       <c r="H145" s="20"/>
-      <c r="I145" s="43"/>
-      <c r="J145" s="43"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="20"/>
       <c r="K145" s="20"/>
       <c r="L145" s="20"/>
       <c r="M145" s="20"/>
@@ -60874,8 +60902,8 @@
       <c r="B149" s="20"/>
       <c r="C149" s="20"/>
       <c r="D149" s="20"/>
-      <c r="E149" s="43"/>
-      <c r="F149" s="43"/>
+      <c r="E149" s="20"/>
+      <c r="F149" s="20"/>
       <c r="G149" s="20"/>
       <c r="H149" s="20"/>
       <c r="I149" s="20"/>
@@ -60891,8 +60919,8 @@
       <c r="B150" s="20"/>
       <c r="C150" s="20"/>
       <c r="D150" s="20"/>
-      <c r="E150" s="43"/>
-      <c r="F150" s="43"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
       <c r="G150" s="20"/>
       <c r="H150" s="20"/>
       <c r="I150" s="20"/>
@@ -60908,8 +60936,8 @@
       <c r="B151" s="20"/>
       <c r="C151" s="20"/>
       <c r="D151" s="20"/>
-      <c r="E151" s="43"/>
-      <c r="F151" s="43"/>
+      <c r="E151" s="20"/>
+      <c r="F151" s="20"/>
       <c r="G151" s="20"/>
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
@@ -60925,8 +60953,8 @@
       <c r="B152" s="20"/>
       <c r="C152" s="20"/>
       <c r="D152" s="20"/>
-      <c r="E152" s="43"/>
-      <c r="F152" s="43"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
       <c r="I152" s="20"/>
@@ -60942,8 +60970,8 @@
       <c r="B153" s="20"/>
       <c r="C153" s="20"/>
       <c r="D153" s="20"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="20"/>
+      <c r="E153" s="43"/>
+      <c r="F153" s="43"/>
       <c r="G153" s="20"/>
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
@@ -60959,12 +60987,12 @@
       <c r="B154" s="20"/>
       <c r="C154" s="20"/>
       <c r="D154" s="20"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="20"/>
+      <c r="E154" s="43"/>
+      <c r="F154" s="43"/>
       <c r="G154" s="20"/>
       <c r="H154" s="20"/>
-      <c r="I154" s="20"/>
-      <c r="J154" s="20"/>
+      <c r="I154" s="43"/>
+      <c r="J154" s="43"/>
       <c r="K154" s="20"/>
       <c r="L154" s="20"/>
       <c r="M154" s="20"/>
@@ -60975,13 +61003,13 @@
       <c r="A155" s="20"/>
       <c r="B155" s="20"/>
       <c r="C155" s="20"/>
-      <c r="D155" s="20"/>
-      <c r="E155" s="20"/>
-      <c r="F155" s="20"/>
+      <c r="D155" s="145"/>
+      <c r="E155" s="43"/>
+      <c r="F155" s="43"/>
       <c r="G155" s="20"/>
       <c r="H155" s="20"/>
-      <c r="I155" s="20"/>
-      <c r="J155" s="20"/>
+      <c r="I155" s="43"/>
+      <c r="J155" s="43"/>
       <c r="K155" s="20"/>
       <c r="L155" s="20"/>
       <c r="M155" s="20"/>
@@ -60992,9 +61020,9 @@
       <c r="A156" s="20"/>
       <c r="B156" s="20"/>
       <c r="C156" s="20"/>
-      <c r="D156" s="20"/>
-      <c r="E156" s="20"/>
-      <c r="F156" s="20"/>
+      <c r="D156" s="145"/>
+      <c r="E156" s="43"/>
+      <c r="F156" s="43"/>
       <c r="G156" s="20"/>
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
@@ -61009,13 +61037,13 @@
       <c r="A157" s="20"/>
       <c r="B157" s="20"/>
       <c r="C157" s="20"/>
-      <c r="D157" s="20"/>
+      <c r="D157" s="145"/>
       <c r="E157" s="43"/>
       <c r="F157" s="43"/>
       <c r="G157" s="20"/>
       <c r="H157" s="20"/>
-      <c r="I157" s="20"/>
-      <c r="J157" s="20"/>
+      <c r="I157" s="43"/>
+      <c r="J157" s="43"/>
       <c r="K157" s="20"/>
       <c r="L157" s="20"/>
       <c r="M157" s="20"/>
@@ -61026,7 +61054,7 @@
       <c r="A158" s="20"/>
       <c r="B158" s="20"/>
       <c r="C158" s="20"/>
-      <c r="D158" s="20"/>
+      <c r="D158" s="145"/>
       <c r="E158" s="43"/>
       <c r="F158" s="43"/>
       <c r="G158" s="20"/>
@@ -61048,8 +61076,8 @@
       <c r="F159" s="43"/>
       <c r="G159" s="20"/>
       <c r="H159" s="20"/>
-      <c r="I159" s="43"/>
-      <c r="J159" s="43"/>
+      <c r="I159" s="20"/>
+      <c r="J159" s="20"/>
       <c r="K159" s="20"/>
       <c r="L159" s="20"/>
       <c r="M159" s="20"/>
@@ -61082,8 +61110,8 @@
       <c r="F161" s="43"/>
       <c r="G161" s="20"/>
       <c r="H161" s="20"/>
-      <c r="I161" s="43"/>
-      <c r="J161" s="43"/>
+      <c r="I161" s="20"/>
+      <c r="J161" s="20"/>
       <c r="K161" s="20"/>
       <c r="L161" s="20"/>
       <c r="M161" s="20"/>
@@ -61099,8 +61127,8 @@
       <c r="F162" s="43"/>
       <c r="G162" s="20"/>
       <c r="H162" s="20"/>
-      <c r="I162" s="43"/>
-      <c r="J162" s="43"/>
+      <c r="I162" s="20"/>
+      <c r="J162" s="20"/>
       <c r="K162" s="20"/>
       <c r="L162" s="20"/>
       <c r="M162" s="20"/>
@@ -61163,8 +61191,8 @@
       <c r="B166" s="20"/>
       <c r="C166" s="20"/>
       <c r="D166" s="145"/>
-      <c r="E166" s="43"/>
-      <c r="F166" s="43"/>
+      <c r="E166" s="20"/>
+      <c r="F166" s="20"/>
       <c r="G166" s="20"/>
       <c r="H166" s="20"/>
       <c r="I166" s="20"/>
@@ -61179,9 +61207,9 @@
       <c r="A167" s="20"/>
       <c r="B167" s="20"/>
       <c r="C167" s="20"/>
-      <c r="D167" s="145"/>
-      <c r="E167" s="43"/>
-      <c r="F167" s="43"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="20"/>
       <c r="G167" s="20"/>
       <c r="H167" s="20"/>
       <c r="I167" s="20"/>
@@ -61196,9 +61224,9 @@
       <c r="A168" s="20"/>
       <c r="B168" s="20"/>
       <c r="C168" s="20"/>
-      <c r="D168" s="145"/>
-      <c r="E168" s="43"/>
-      <c r="F168" s="43"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="20"/>
+      <c r="F168" s="20"/>
       <c r="G168" s="20"/>
       <c r="H168" s="20"/>
       <c r="I168" s="20"/>
@@ -61213,9 +61241,9 @@
       <c r="A169" s="20"/>
       <c r="B169" s="20"/>
       <c r="C169" s="20"/>
-      <c r="D169" s="145"/>
-      <c r="E169" s="43"/>
-      <c r="F169" s="43"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="20"/>
+      <c r="F169" s="20"/>
       <c r="G169" s="20"/>
       <c r="H169" s="20"/>
       <c r="I169" s="20"/>
@@ -61230,7 +61258,7 @@
       <c r="A170" s="20"/>
       <c r="B170" s="20"/>
       <c r="C170" s="20"/>
-      <c r="D170" s="145"/>
+      <c r="D170" s="20"/>
       <c r="E170" s="20"/>
       <c r="F170" s="20"/>
       <c r="G170" s="20"/>
@@ -61254,8 +61282,8 @@
       <c r="H171" s="20"/>
       <c r="I171" s="20"/>
       <c r="J171" s="20"/>
-      <c r="K171" s="20"/>
-      <c r="L171" s="20"/>
+      <c r="K171" s="43"/>
+      <c r="L171" s="43"/>
       <c r="M171" s="20"/>
       <c r="N171" s="20"/>
       <c r="O171" s="20"/>
@@ -61271,8 +61299,8 @@
       <c r="H172" s="20"/>
       <c r="I172" s="20"/>
       <c r="J172" s="20"/>
-      <c r="K172" s="20"/>
-      <c r="L172" s="20"/>
+      <c r="K172" s="43"/>
+      <c r="L172" s="43"/>
       <c r="M172" s="20"/>
       <c r="N172" s="20"/>
       <c r="O172" s="20"/>
@@ -61288,16 +61316,16 @@
       <c r="H173" s="20"/>
       <c r="I173" s="20"/>
       <c r="J173" s="20"/>
-      <c r="K173" s="20"/>
-      <c r="L173" s="20"/>
+      <c r="K173" s="43"/>
+      <c r="L173" s="43"/>
       <c r="M173" s="20"/>
       <c r="N173" s="20"/>
       <c r="O173" s="20"/>
     </row>
     <row r="174" spans="1:15">
-      <c r="A174" s="20"/>
-      <c r="B174" s="20"/>
-      <c r="C174" s="20"/>
+      <c r="A174" s="301"/>
+      <c r="B174" s="301"/>
+      <c r="C174" s="158"/>
       <c r="D174" s="20"/>
       <c r="E174" s="20"/>
       <c r="F174" s="20"/>
@@ -61312,8 +61340,8 @@
       <c r="O174" s="20"/>
     </row>
     <row r="175" spans="1:15">
-      <c r="A175" s="20"/>
-      <c r="B175" s="20"/>
+      <c r="A175" s="301"/>
+      <c r="B175" s="301"/>
       <c r="C175" s="20"/>
       <c r="D175" s="20"/>
       <c r="E175" s="20"/>
@@ -61322,8 +61350,8 @@
       <c r="H175" s="20"/>
       <c r="I175" s="20"/>
       <c r="J175" s="20"/>
-      <c r="K175" s="43"/>
-      <c r="L175" s="43"/>
+      <c r="K175" s="20"/>
+      <c r="L175" s="20"/>
       <c r="M175" s="20"/>
       <c r="N175" s="20"/>
       <c r="O175" s="20"/>
@@ -61339,8 +61367,8 @@
       <c r="H176" s="20"/>
       <c r="I176" s="20"/>
       <c r="J176" s="20"/>
-      <c r="K176" s="43"/>
-      <c r="L176" s="43"/>
+      <c r="K176" s="20"/>
+      <c r="L176" s="20"/>
       <c r="M176" s="20"/>
       <c r="N176" s="20"/>
       <c r="O176" s="20"/>
@@ -61356,16 +61384,16 @@
       <c r="H177" s="20"/>
       <c r="I177" s="20"/>
       <c r="J177" s="20"/>
-      <c r="K177" s="43"/>
-      <c r="L177" s="43"/>
+      <c r="K177" s="20"/>
+      <c r="L177" s="20"/>
       <c r="M177" s="20"/>
       <c r="N177" s="20"/>
       <c r="O177" s="20"/>
     </row>
     <row r="178" spans="1:15">
-      <c r="A178" s="301"/>
-      <c r="B178" s="301"/>
-      <c r="C178" s="158"/>
+      <c r="A178" s="20"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="20"/>
       <c r="D178" s="20"/>
       <c r="E178" s="20"/>
       <c r="F178" s="20"/>
@@ -61380,8 +61408,8 @@
       <c r="O178" s="20"/>
     </row>
     <row r="179" spans="1:15">
-      <c r="A179" s="301"/>
-      <c r="B179" s="301"/>
+      <c r="A179" s="20"/>
+      <c r="B179" s="20"/>
       <c r="C179" s="20"/>
       <c r="D179" s="20"/>
       <c r="E179" s="20"/>
@@ -61571,15 +61599,15 @@
       <c r="B190" s="20"/>
       <c r="C190" s="20"/>
       <c r="D190" s="20"/>
-      <c r="E190" s="20"/>
-      <c r="F190" s="20"/>
-      <c r="G190" s="20"/>
-      <c r="H190" s="20"/>
-      <c r="I190" s="20"/>
-      <c r="J190" s="20"/>
-      <c r="K190" s="20"/>
-      <c r="L190" s="20"/>
-      <c r="M190" s="20"/>
+      <c r="E190" s="149"/>
+      <c r="F190" s="149"/>
+      <c r="G190" s="43"/>
+      <c r="H190" s="43"/>
+      <c r="I190" s="145"/>
+      <c r="J190" s="145"/>
+      <c r="K190" s="145"/>
+      <c r="L190" s="145"/>
+      <c r="M190" s="43"/>
       <c r="N190" s="20"/>
       <c r="O190" s="20"/>
     </row>
@@ -61588,15 +61616,15 @@
       <c r="B191" s="20"/>
       <c r="C191" s="20"/>
       <c r="D191" s="20"/>
-      <c r="E191" s="20"/>
-      <c r="F191" s="20"/>
-      <c r="G191" s="20"/>
-      <c r="H191" s="20"/>
-      <c r="I191" s="20"/>
-      <c r="J191" s="20"/>
-      <c r="K191" s="20"/>
-      <c r="L191" s="20"/>
-      <c r="M191" s="20"/>
+      <c r="E191" s="43"/>
+      <c r="F191" s="43"/>
+      <c r="G191" s="43"/>
+      <c r="H191" s="43"/>
+      <c r="I191" s="145"/>
+      <c r="J191" s="145"/>
+      <c r="K191" s="145"/>
+      <c r="L191" s="145"/>
+      <c r="M191" s="43"/>
       <c r="N191" s="20"/>
       <c r="O191" s="20"/>
     </row>
@@ -61605,15 +61633,15 @@
       <c r="B192" s="20"/>
       <c r="C192" s="20"/>
       <c r="D192" s="20"/>
-      <c r="E192" s="20"/>
-      <c r="F192" s="20"/>
-      <c r="G192" s="20"/>
-      <c r="H192" s="20"/>
-      <c r="I192" s="20"/>
-      <c r="J192" s="20"/>
-      <c r="K192" s="20"/>
-      <c r="L192" s="20"/>
-      <c r="M192" s="20"/>
+      <c r="E192" s="43"/>
+      <c r="F192" s="43"/>
+      <c r="G192" s="43"/>
+      <c r="H192" s="43"/>
+      <c r="I192" s="145"/>
+      <c r="J192" s="145"/>
+      <c r="K192" s="145"/>
+      <c r="L192" s="145"/>
+      <c r="M192" s="43"/>
       <c r="N192" s="20"/>
       <c r="O192" s="20"/>
     </row>
@@ -61622,37 +61650,37 @@
       <c r="B193" s="20"/>
       <c r="C193" s="20"/>
       <c r="D193" s="20"/>
-      <c r="E193" s="20"/>
-      <c r="F193" s="20"/>
-      <c r="G193" s="20"/>
-      <c r="H193" s="20"/>
-      <c r="I193" s="20"/>
-      <c r="J193" s="20"/>
-      <c r="K193" s="20"/>
-      <c r="L193" s="20"/>
-      <c r="M193" s="20"/>
+      <c r="E193" s="43"/>
+      <c r="F193" s="43"/>
+      <c r="G193" s="43"/>
+      <c r="H193" s="43"/>
+      <c r="I193" s="145"/>
+      <c r="J193" s="145"/>
+      <c r="K193" s="145"/>
+      <c r="L193" s="145"/>
+      <c r="M193" s="43"/>
       <c r="N193" s="20"/>
       <c r="O193" s="20"/>
     </row>
     <row r="194" spans="1:15">
-      <c r="A194" s="20"/>
+      <c r="A194" s="158"/>
       <c r="B194" s="20"/>
       <c r="C194" s="20"/>
       <c r="D194" s="20"/>
-      <c r="E194" s="149"/>
-      <c r="F194" s="149"/>
+      <c r="E194" s="43"/>
+      <c r="F194" s="43"/>
       <c r="G194" s="43"/>
       <c r="H194" s="43"/>
-      <c r="I194" s="145"/>
-      <c r="J194" s="145"/>
-      <c r="K194" s="145"/>
-      <c r="L194" s="145"/>
+      <c r="I194" s="43"/>
+      <c r="J194" s="43"/>
+      <c r="K194" s="43"/>
+      <c r="L194" s="43"/>
       <c r="M194" s="43"/>
       <c r="N194" s="20"/>
       <c r="O194" s="20"/>
     </row>
     <row r="195" spans="1:15">
-      <c r="A195" s="20"/>
+      <c r="A195" s="158"/>
       <c r="B195" s="20"/>
       <c r="C195" s="20"/>
       <c r="D195" s="20"/>
@@ -61660,16 +61688,16 @@
       <c r="F195" s="43"/>
       <c r="G195" s="43"/>
       <c r="H195" s="43"/>
-      <c r="I195" s="145"/>
-      <c r="J195" s="145"/>
-      <c r="K195" s="145"/>
-      <c r="L195" s="145"/>
+      <c r="I195" s="43"/>
+      <c r="J195" s="43"/>
+      <c r="K195" s="43"/>
+      <c r="L195" s="43"/>
       <c r="M195" s="43"/>
       <c r="N195" s="20"/>
       <c r="O195" s="20"/>
     </row>
     <row r="196" spans="1:15">
-      <c r="A196" s="20"/>
+      <c r="A196" s="158"/>
       <c r="B196" s="20"/>
       <c r="C196" s="20"/>
       <c r="D196" s="20"/>
@@ -61677,33 +61705,33 @@
       <c r="F196" s="43"/>
       <c r="G196" s="43"/>
       <c r="H196" s="43"/>
-      <c r="I196" s="145"/>
-      <c r="J196" s="145"/>
-      <c r="K196" s="145"/>
-      <c r="L196" s="145"/>
+      <c r="I196" s="43"/>
+      <c r="J196" s="43"/>
+      <c r="K196" s="43"/>
+      <c r="L196" s="43"/>
       <c r="M196" s="43"/>
       <c r="N196" s="20"/>
       <c r="O196" s="20"/>
     </row>
     <row r="197" spans="1:15">
-      <c r="A197" s="20"/>
-      <c r="B197" s="20"/>
+      <c r="A197" s="158"/>
+      <c r="B197" s="302"/>
       <c r="C197" s="20"/>
       <c r="D197" s="20"/>
       <c r="E197" s="43"/>
       <c r="F197" s="43"/>
       <c r="G197" s="43"/>
       <c r="H197" s="43"/>
-      <c r="I197" s="145"/>
-      <c r="J197" s="145"/>
-      <c r="K197" s="145"/>
-      <c r="L197" s="145"/>
+      <c r="I197" s="43"/>
+      <c r="J197" s="43"/>
+      <c r="K197" s="43"/>
+      <c r="L197" s="43"/>
       <c r="M197" s="43"/>
       <c r="N197" s="20"/>
       <c r="O197" s="20"/>
     </row>
     <row r="198" spans="1:15">
-      <c r="A198" s="158"/>
+      <c r="A198" s="302"/>
       <c r="B198" s="20"/>
       <c r="C198" s="20"/>
       <c r="D198" s="20"/>
@@ -61720,7 +61748,7 @@
       <c r="O198" s="20"/>
     </row>
     <row r="199" spans="1:15">
-      <c r="A199" s="158"/>
+      <c r="A199" s="20"/>
       <c r="B199" s="20"/>
       <c r="C199" s="20"/>
       <c r="D199" s="20"/>
@@ -61737,7 +61765,7 @@
       <c r="O199" s="20"/>
     </row>
     <row r="200" spans="1:15">
-      <c r="A200" s="158"/>
+      <c r="A200" s="20"/>
       <c r="B200" s="20"/>
       <c r="C200" s="20"/>
       <c r="D200" s="20"/>
@@ -61754,8 +61782,8 @@
       <c r="O200" s="20"/>
     </row>
     <row r="201" spans="1:15">
-      <c r="A201" s="158"/>
-      <c r="B201" s="302"/>
+      <c r="A201" s="20"/>
+      <c r="B201" s="20"/>
       <c r="C201" s="20"/>
       <c r="D201" s="20"/>
       <c r="E201" s="43"/>
@@ -61771,7 +61799,7 @@
       <c r="O201" s="20"/>
     </row>
     <row r="202" spans="1:15">
-      <c r="A202" s="302"/>
+      <c r="A202" s="20"/>
       <c r="B202" s="20"/>
       <c r="C202" s="20"/>
       <c r="D202" s="20"/>
@@ -61843,15 +61871,15 @@
       <c r="B206" s="20"/>
       <c r="C206" s="20"/>
       <c r="D206" s="20"/>
-      <c r="E206" s="43"/>
-      <c r="F206" s="43"/>
-      <c r="G206" s="43"/>
-      <c r="H206" s="43"/>
-      <c r="I206" s="43"/>
-      <c r="J206" s="43"/>
-      <c r="K206" s="43"/>
-      <c r="L206" s="43"/>
-      <c r="M206" s="43"/>
+      <c r="E206" s="20"/>
+      <c r="F206" s="20"/>
+      <c r="G206" s="20"/>
+      <c r="H206" s="20"/>
+      <c r="I206" s="20"/>
+      <c r="J206" s="20"/>
+      <c r="K206" s="20"/>
+      <c r="L206" s="20"/>
+      <c r="M206" s="20"/>
       <c r="N206" s="20"/>
       <c r="O206" s="20"/>
     </row>
@@ -61860,15 +61888,15 @@
       <c r="B207" s="20"/>
       <c r="C207" s="20"/>
       <c r="D207" s="20"/>
-      <c r="E207" s="43"/>
-      <c r="F207" s="43"/>
-      <c r="G207" s="43"/>
-      <c r="H207" s="43"/>
-      <c r="I207" s="43"/>
-      <c r="J207" s="43"/>
-      <c r="K207" s="43"/>
-      <c r="L207" s="43"/>
-      <c r="M207" s="43"/>
+      <c r="E207" s="20"/>
+      <c r="F207" s="20"/>
+      <c r="G207" s="20"/>
+      <c r="H207" s="20"/>
+      <c r="I207" s="20"/>
+      <c r="J207" s="20"/>
+      <c r="K207" s="20"/>
+      <c r="L207" s="20"/>
+      <c r="M207" s="20"/>
       <c r="N207" s="20"/>
       <c r="O207" s="20"/>
     </row>
@@ -61877,15 +61905,15 @@
       <c r="B208" s="20"/>
       <c r="C208" s="20"/>
       <c r="D208" s="20"/>
-      <c r="E208" s="43"/>
-      <c r="F208" s="43"/>
-      <c r="G208" s="43"/>
-      <c r="H208" s="43"/>
-      <c r="I208" s="43"/>
-      <c r="J208" s="43"/>
-      <c r="K208" s="43"/>
-      <c r="L208" s="43"/>
-      <c r="M208" s="43"/>
+      <c r="E208" s="20"/>
+      <c r="F208" s="20"/>
+      <c r="G208" s="20"/>
+      <c r="H208" s="20"/>
+      <c r="I208" s="20"/>
+      <c r="J208" s="20"/>
+      <c r="K208" s="20"/>
+      <c r="L208" s="20"/>
+      <c r="M208" s="20"/>
       <c r="N208" s="20"/>
       <c r="O208" s="20"/>
     </row>
@@ -61894,15 +61922,15 @@
       <c r="B209" s="20"/>
       <c r="C209" s="20"/>
       <c r="D209" s="20"/>
-      <c r="E209" s="43"/>
-      <c r="F209" s="43"/>
-      <c r="G209" s="43"/>
-      <c r="H209" s="43"/>
-      <c r="I209" s="43"/>
-      <c r="J209" s="43"/>
-      <c r="K209" s="43"/>
-      <c r="L209" s="43"/>
-      <c r="M209" s="43"/>
+      <c r="E209" s="20"/>
+      <c r="F209" s="20"/>
+      <c r="G209" s="20"/>
+      <c r="H209" s="20"/>
+      <c r="I209" s="20"/>
+      <c r="J209" s="20"/>
+      <c r="K209" s="20"/>
+      <c r="L209" s="20"/>
+      <c r="M209" s="20"/>
       <c r="N209" s="20"/>
       <c r="O209" s="20"/>
     </row>
@@ -61996,15 +62024,15 @@
       <c r="B215" s="20"/>
       <c r="C215" s="20"/>
       <c r="D215" s="20"/>
-      <c r="E215" s="20"/>
-      <c r="F215" s="20"/>
-      <c r="G215" s="20"/>
-      <c r="H215" s="20"/>
-      <c r="I215" s="20"/>
-      <c r="J215" s="20"/>
-      <c r="K215" s="20"/>
-      <c r="L215" s="20"/>
-      <c r="M215" s="20"/>
+      <c r="E215" s="149"/>
+      <c r="F215" s="149"/>
+      <c r="G215" s="43"/>
+      <c r="H215" s="43"/>
+      <c r="I215" s="197"/>
+      <c r="J215" s="197"/>
+      <c r="K215" s="197"/>
+      <c r="L215" s="145"/>
+      <c r="M215" s="43"/>
       <c r="N215" s="20"/>
       <c r="O215" s="20"/>
     </row>
@@ -62013,15 +62041,15 @@
       <c r="B216" s="20"/>
       <c r="C216" s="20"/>
       <c r="D216" s="20"/>
-      <c r="E216" s="20"/>
-      <c r="F216" s="20"/>
-      <c r="G216" s="20"/>
-      <c r="H216" s="20"/>
-      <c r="I216" s="20"/>
-      <c r="J216" s="20"/>
-      <c r="K216" s="20"/>
-      <c r="L216" s="20"/>
-      <c r="M216" s="20"/>
+      <c r="E216" s="43"/>
+      <c r="F216" s="43"/>
+      <c r="G216" s="43"/>
+      <c r="H216" s="43"/>
+      <c r="I216" s="197"/>
+      <c r="J216" s="197"/>
+      <c r="K216" s="197"/>
+      <c r="L216" s="145"/>
+      <c r="M216" s="43"/>
       <c r="N216" s="20"/>
       <c r="O216" s="20"/>
     </row>
@@ -62030,15 +62058,15 @@
       <c r="B217" s="20"/>
       <c r="C217" s="20"/>
       <c r="D217" s="20"/>
-      <c r="E217" s="20"/>
-      <c r="F217" s="20"/>
-      <c r="G217" s="20"/>
-      <c r="H217" s="20"/>
-      <c r="I217" s="20"/>
-      <c r="J217" s="20"/>
-      <c r="K217" s="20"/>
-      <c r="L217" s="20"/>
-      <c r="M217" s="20"/>
+      <c r="E217" s="43"/>
+      <c r="F217" s="43"/>
+      <c r="G217" s="43"/>
+      <c r="H217" s="43"/>
+      <c r="I217" s="197"/>
+      <c r="J217" s="197"/>
+      <c r="K217" s="197"/>
+      <c r="L217" s="145"/>
+      <c r="M217" s="43"/>
       <c r="N217" s="20"/>
       <c r="O217" s="20"/>
     </row>
@@ -62047,15 +62075,15 @@
       <c r="B218" s="20"/>
       <c r="C218" s="20"/>
       <c r="D218" s="20"/>
-      <c r="E218" s="20"/>
-      <c r="F218" s="20"/>
-      <c r="G218" s="20"/>
-      <c r="H218" s="20"/>
-      <c r="I218" s="20"/>
-      <c r="J218" s="20"/>
-      <c r="K218" s="20"/>
-      <c r="L218" s="20"/>
-      <c r="M218" s="20"/>
+      <c r="E218" s="43"/>
+      <c r="F218" s="43"/>
+      <c r="G218" s="43"/>
+      <c r="H218" s="43"/>
+      <c r="I218" s="43"/>
+      <c r="J218" s="43"/>
+      <c r="K218" s="43"/>
+      <c r="L218" s="145"/>
+      <c r="M218" s="43"/>
       <c r="N218" s="20"/>
       <c r="O218" s="20"/>
     </row>
@@ -62064,14 +62092,14 @@
       <c r="B219" s="20"/>
       <c r="C219" s="20"/>
       <c r="D219" s="20"/>
-      <c r="E219" s="149"/>
-      <c r="F219" s="149"/>
+      <c r="E219" s="43"/>
+      <c r="F219" s="43"/>
       <c r="G219" s="43"/>
       <c r="H219" s="43"/>
-      <c r="I219" s="197"/>
-      <c r="J219" s="197"/>
-      <c r="K219" s="197"/>
-      <c r="L219" s="145"/>
+      <c r="I219" s="43"/>
+      <c r="J219" s="43"/>
+      <c r="K219" s="43"/>
+      <c r="L219" s="43"/>
       <c r="M219" s="43"/>
       <c r="N219" s="20"/>
       <c r="O219" s="20"/>
@@ -62085,10 +62113,10 @@
       <c r="F220" s="43"/>
       <c r="G220" s="43"/>
       <c r="H220" s="43"/>
-      <c r="I220" s="197"/>
-      <c r="J220" s="197"/>
-      <c r="K220" s="197"/>
-      <c r="L220" s="145"/>
+      <c r="I220" s="43"/>
+      <c r="J220" s="43"/>
+      <c r="K220" s="43"/>
+      <c r="L220" s="43"/>
       <c r="M220" s="43"/>
       <c r="N220" s="20"/>
       <c r="O220" s="20"/>
@@ -62102,17 +62130,17 @@
       <c r="F221" s="43"/>
       <c r="G221" s="43"/>
       <c r="H221" s="43"/>
-      <c r="I221" s="197"/>
-      <c r="J221" s="197"/>
-      <c r="K221" s="197"/>
-      <c r="L221" s="145"/>
+      <c r="I221" s="43"/>
+      <c r="J221" s="43"/>
+      <c r="K221" s="43"/>
+      <c r="L221" s="43"/>
       <c r="M221" s="43"/>
       <c r="N221" s="20"/>
       <c r="O221" s="20"/>
     </row>
     <row r="222" spans="1:15">
-      <c r="A222" s="20"/>
-      <c r="B222" s="20"/>
+      <c r="A222" s="158"/>
+      <c r="B222" s="302"/>
       <c r="C222" s="20"/>
       <c r="D222" s="20"/>
       <c r="E222" s="43"/>
@@ -62122,7 +62150,7 @@
       <c r="I222" s="43"/>
       <c r="J222" s="43"/>
       <c r="K222" s="43"/>
-      <c r="L222" s="145"/>
+      <c r="L222" s="43"/>
       <c r="M222" s="43"/>
       <c r="N222" s="20"/>
       <c r="O222" s="20"/>
@@ -62145,7 +62173,7 @@
       <c r="O223" s="20"/>
     </row>
     <row r="224" spans="1:15">
-      <c r="A224" s="20"/>
+      <c r="A224" s="302"/>
       <c r="B224" s="20"/>
       <c r="C224" s="20"/>
       <c r="D224" s="20"/>
@@ -62179,17 +62207,17 @@
       <c r="O225" s="20"/>
     </row>
     <row r="226" spans="1:15">
-      <c r="A226" s="158"/>
-      <c r="B226" s="302"/>
+      <c r="A226" s="20"/>
+      <c r="B226" s="20"/>
       <c r="C226" s="20"/>
       <c r="D226" s="20"/>
       <c r="E226" s="43"/>
       <c r="F226" s="43"/>
       <c r="G226" s="43"/>
       <c r="H226" s="43"/>
-      <c r="I226" s="43"/>
-      <c r="J226" s="43"/>
-      <c r="K226" s="43"/>
+      <c r="I226" s="20"/>
+      <c r="J226" s="20"/>
+      <c r="K226" s="20"/>
       <c r="L226" s="43"/>
       <c r="M226" s="43"/>
       <c r="N226" s="20"/>
@@ -62213,7 +62241,7 @@
       <c r="O227" s="20"/>
     </row>
     <row r="228" spans="1:15">
-      <c r="A228" s="302"/>
+      <c r="A228" s="20"/>
       <c r="B228" s="20"/>
       <c r="C228" s="20"/>
       <c r="D228" s="20"/>
@@ -62255,88 +62283,20 @@
       <c r="F230" s="43"/>
       <c r="G230" s="43"/>
       <c r="H230" s="43"/>
-      <c r="I230" s="20"/>
-      <c r="J230" s="20"/>
-      <c r="K230" s="20"/>
+      <c r="I230" s="43"/>
+      <c r="J230" s="43"/>
+      <c r="K230" s="43"/>
       <c r="L230" s="43"/>
       <c r="M230" s="43"/>
       <c r="N230" s="20"/>
       <c r="O230" s="20"/>
     </row>
-    <row r="231" spans="1:15">
-      <c r="A231" s="20"/>
-      <c r="B231" s="20"/>
-      <c r="C231" s="20"/>
-      <c r="D231" s="20"/>
-      <c r="E231" s="43"/>
-      <c r="F231" s="43"/>
-      <c r="G231" s="43"/>
-      <c r="H231" s="43"/>
-      <c r="I231" s="43"/>
-      <c r="J231" s="43"/>
-      <c r="K231" s="43"/>
-      <c r="L231" s="43"/>
-      <c r="M231" s="43"/>
-      <c r="N231" s="20"/>
-      <c r="O231" s="20"/>
-    </row>
-    <row r="232" spans="1:15">
-      <c r="A232" s="20"/>
-      <c r="B232" s="20"/>
-      <c r="C232" s="20"/>
-      <c r="D232" s="20"/>
-      <c r="E232" s="43"/>
-      <c r="F232" s="43"/>
-      <c r="G232" s="43"/>
-      <c r="H232" s="43"/>
-      <c r="I232" s="43"/>
-      <c r="J232" s="43"/>
-      <c r="K232" s="43"/>
-      <c r="L232" s="43"/>
-      <c r="M232" s="43"/>
-      <c r="N232" s="20"/>
-      <c r="O232" s="20"/>
-    </row>
-    <row r="233" spans="1:15">
-      <c r="A233" s="20"/>
-      <c r="B233" s="20"/>
-      <c r="C233" s="20"/>
-      <c r="D233" s="20"/>
-      <c r="E233" s="43"/>
-      <c r="F233" s="43"/>
-      <c r="G233" s="43"/>
-      <c r="H233" s="43"/>
-      <c r="I233" s="43"/>
-      <c r="J233" s="43"/>
-      <c r="K233" s="43"/>
-      <c r="L233" s="43"/>
-      <c r="M233" s="43"/>
-      <c r="N233" s="20"/>
-      <c r="O233" s="20"/>
-    </row>
-    <row r="234" spans="1:15">
-      <c r="A234" s="20"/>
-      <c r="B234" s="20"/>
-      <c r="C234" s="20"/>
-      <c r="D234" s="20"/>
-      <c r="E234" s="43"/>
-      <c r="F234" s="43"/>
-      <c r="G234" s="43"/>
-      <c r="H234" s="43"/>
-      <c r="I234" s="43"/>
-      <c r="J234" s="43"/>
-      <c r="K234" s="43"/>
-      <c r="L234" s="43"/>
-      <c r="M234" s="43"/>
-      <c r="N234" s="20"/>
-      <c r="O234" s="20"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E23:M23"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="G64:O64"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="E38:M38"/>
+    <mergeCell ref="G60:O60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -11011,6 +11011,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11228,10 +11232,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12155,49 +12155,49 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13">
-      <c r="B2" s="409" t="s">
+      <c r="B2" s="411" t="s">
         <v>2047</v>
       </c>
-      <c r="C2" s="410"/>
-      <c r="D2" s="411"/>
-      <c r="F2" s="409" t="s">
+      <c r="C2" s="412"/>
+      <c r="D2" s="413"/>
+      <c r="F2" s="411" t="s">
         <v>2596</v>
       </c>
-      <c r="G2" s="410"/>
-      <c r="H2" s="410"/>
-      <c r="I2" s="411"/>
-      <c r="K2" s="409" t="s">
+      <c r="G2" s="412"/>
+      <c r="H2" s="412"/>
+      <c r="I2" s="413"/>
+      <c r="K2" s="411" t="s">
         <v>2598</v>
       </c>
-      <c r="L2" s="410"/>
-      <c r="M2" s="411"/>
+      <c r="L2" s="412"/>
+      <c r="M2" s="413"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="412"/>
-      <c r="C3" s="413"/>
-      <c r="D3" s="414"/>
-      <c r="F3" s="412"/>
-      <c r="G3" s="413"/>
-      <c r="H3" s="413"/>
-      <c r="I3" s="414"/>
-      <c r="K3" s="412"/>
-      <c r="L3" s="413"/>
-      <c r="M3" s="414"/>
+      <c r="B3" s="414"/>
+      <c r="C3" s="415"/>
+      <c r="D3" s="416"/>
+      <c r="F3" s="414"/>
+      <c r="G3" s="415"/>
+      <c r="H3" s="415"/>
+      <c r="I3" s="416"/>
+      <c r="K3" s="414"/>
+      <c r="L3" s="415"/>
+      <c r="M3" s="416"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="412"/>
-      <c r="C4" s="413"/>
-      <c r="D4" s="414"/>
-      <c r="F4" s="412"/>
-      <c r="G4" s="413"/>
-      <c r="H4" s="413"/>
-      <c r="I4" s="414"/>
-      <c r="K4" s="412"/>
-      <c r="L4" s="413"/>
-      <c r="M4" s="414"/>
+      <c r="B4" s="414"/>
+      <c r="C4" s="415"/>
+      <c r="D4" s="416"/>
+      <c r="F4" s="414"/>
+      <c r="G4" s="415"/>
+      <c r="H4" s="415"/>
+      <c r="I4" s="416"/>
+      <c r="K4" s="414"/>
+      <c r="L4" s="415"/>
+      <c r="M4" s="416"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="415" t="s">
+      <c r="A5" s="417" t="s">
         <v>1889</v>
       </c>
       <c r="B5" s="72"/>
@@ -12224,7 +12224,7 @@
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="415"/>
+      <c r="A6" s="417"/>
       <c r="B6" s="72"/>
       <c r="C6" s="32" t="s">
         <v>56</v>
@@ -12249,7 +12249,7 @@
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="415"/>
+      <c r="A7" s="417"/>
       <c r="B7" s="72"/>
       <c r="C7" s="32" t="s">
         <v>2600</v>
@@ -12282,7 +12282,7 @@
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="415" t="s">
+      <c r="A9" s="417" t="s">
         <v>201</v>
       </c>
       <c r="B9" s="281" t="s">
@@ -12303,7 +12303,7 @@
       <c r="M9" s="228"/>
     </row>
     <row r="10" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A10" s="415"/>
+      <c r="A10" s="417"/>
       <c r="B10" s="281"/>
       <c r="C10" s="282" t="s">
         <v>2605</v>
@@ -12325,7 +12325,7 @@
       <c r="M10" s="228"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="415"/>
+      <c r="A11" s="417"/>
       <c r="B11" s="281"/>
       <c r="C11" s="133"/>
       <c r="D11" s="228"/>
@@ -12345,7 +12345,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="415"/>
+      <c r="A12" s="417"/>
       <c r="B12" s="281"/>
       <c r="C12" s="133"/>
       <c r="D12" s="228"/>
@@ -12525,23 +12525,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="416" t="s">
+      <c r="A1" s="418" t="s">
         <v>2238</v>
       </c>
-      <c r="B1" s="416"/>
-      <c r="C1" s="416"/>
-      <c r="D1" s="416"/>
-      <c r="E1" s="416"/>
-      <c r="F1" s="416"/>
-      <c r="I1" s="416" t="s">
+      <c r="B1" s="418"/>
+      <c r="C1" s="418"/>
+      <c r="D1" s="418"/>
+      <c r="E1" s="418"/>
+      <c r="F1" s="418"/>
+      <c r="I1" s="418" t="s">
         <v>2250</v>
       </c>
-      <c r="J1" s="416"/>
-      <c r="K1" s="416"/>
-      <c r="L1" s="416"/>
-      <c r="M1" s="416"/>
-      <c r="N1" s="416"/>
-      <c r="O1" s="416"/>
+      <c r="J1" s="418"/>
+      <c r="K1" s="418"/>
+      <c r="L1" s="418"/>
+      <c r="M1" s="418"/>
+      <c r="N1" s="418"/>
+      <c r="O1" s="418"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -12697,28 +12697,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="373" t="s">
+      <c r="A12" s="375" t="s">
         <v>2252</v>
       </c>
-      <c r="B12" s="375"/>
-      <c r="C12" s="375"/>
-      <c r="D12" s="375"/>
-      <c r="E12" s="375"/>
-      <c r="F12" s="375"/>
-      <c r="G12" s="375"/>
-      <c r="H12" s="374"/>
-      <c r="I12" s="373" t="s">
+      <c r="B12" s="377"/>
+      <c r="C12" s="377"/>
+      <c r="D12" s="377"/>
+      <c r="E12" s="377"/>
+      <c r="F12" s="377"/>
+      <c r="G12" s="377"/>
+      <c r="H12" s="376"/>
+      <c r="I12" s="375" t="s">
         <v>2252</v>
       </c>
-      <c r="J12" s="375"/>
-      <c r="K12" s="375"/>
-      <c r="L12" s="375"/>
-      <c r="M12" s="375"/>
-      <c r="N12" s="375"/>
-      <c r="O12" s="375"/>
-      <c r="P12" s="375"/>
-      <c r="Q12" s="375"/>
-      <c r="R12" s="374"/>
+      <c r="J12" s="377"/>
+      <c r="K12" s="377"/>
+      <c r="L12" s="377"/>
+      <c r="M12" s="377"/>
+      <c r="N12" s="377"/>
+      <c r="O12" s="377"/>
+      <c r="P12" s="377"/>
+      <c r="Q12" s="377"/>
+      <c r="R12" s="376"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="23" t="s">
@@ -12946,14 +12946,14 @@
       <c r="R21" s="30"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="416" t="s">
+      <c r="A24" s="418" t="s">
         <v>2238</v>
       </c>
-      <c r="B24" s="416"/>
-      <c r="C24" s="416"/>
-      <c r="D24" s="416"/>
-      <c r="E24" s="416"/>
-      <c r="F24" s="416"/>
+      <c r="B24" s="418"/>
+      <c r="C24" s="418"/>
+      <c r="D24" s="418"/>
+      <c r="E24" s="418"/>
+      <c r="F24" s="418"/>
       <c r="H24" s="237" t="s">
         <v>2250</v>
       </c>
@@ -12963,11 +12963,11 @@
       <c r="L24" s="237"/>
       <c r="M24" s="237"/>
       <c r="N24" s="237"/>
-      <c r="P24" s="416" t="s">
+      <c r="P24" s="418" t="s">
         <v>2291</v>
       </c>
-      <c r="Q24" s="416"/>
-      <c r="R24" s="416"/>
+      <c r="Q24" s="418"/>
+      <c r="R24" s="418"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="98" t="s">
@@ -13207,28 +13207,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="373" t="s">
+      <c r="A35" s="375" t="s">
         <v>2292</v>
       </c>
-      <c r="B35" s="375"/>
-      <c r="C35" s="375"/>
-      <c r="D35" s="375"/>
-      <c r="E35" s="375"/>
-      <c r="F35" s="375"/>
-      <c r="G35" s="375"/>
-      <c r="H35" s="374"/>
-      <c r="I35" s="373" t="s">
+      <c r="B35" s="377"/>
+      <c r="C35" s="377"/>
+      <c r="D35" s="377"/>
+      <c r="E35" s="377"/>
+      <c r="F35" s="377"/>
+      <c r="G35" s="377"/>
+      <c r="H35" s="376"/>
+      <c r="I35" s="375" t="s">
         <v>983</v>
       </c>
-      <c r="J35" s="375"/>
-      <c r="K35" s="375"/>
-      <c r="L35" s="375"/>
-      <c r="M35" s="375"/>
-      <c r="N35" s="375"/>
-      <c r="O35" s="375"/>
-      <c r="P35" s="375"/>
-      <c r="Q35" s="375"/>
-      <c r="R35" s="374"/>
+      <c r="J35" s="377"/>
+      <c r="K35" s="377"/>
+      <c r="L35" s="377"/>
+      <c r="M35" s="377"/>
+      <c r="N35" s="377"/>
+      <c r="O35" s="377"/>
+      <c r="P35" s="377"/>
+      <c r="Q35" s="377"/>
+      <c r="R35" s="376"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="23" t="s">
@@ -13474,7 +13474,7 @@
       <c r="F46" s="266" t="s">
         <v>1889</v>
       </c>
-      <c r="G46" s="423" t="s">
+      <c r="G46" s="350" t="s">
         <v>1890</v>
       </c>
       <c r="H46" s="24"/>
@@ -17235,7 +17235,7 @@
     </row>
     <row r="231" spans="1:18">
       <c r="A231" s="20"/>
-      <c r="B231" s="422"/>
+      <c r="B231" s="349"/>
       <c r="C231" s="20"/>
       <c r="D231" s="20"/>
       <c r="E231" s="20"/>
@@ -17275,7 +17275,7 @@
     </row>
     <row r="233" spans="1:18">
       <c r="A233" s="20"/>
-      <c r="B233" s="422"/>
+      <c r="B233" s="349"/>
       <c r="C233" s="20"/>
       <c r="D233" s="20"/>
       <c r="E233" s="20"/>
@@ -17375,7 +17375,7 @@
     </row>
     <row r="238" spans="1:18">
       <c r="A238" s="20"/>
-      <c r="B238" s="422"/>
+      <c r="B238" s="349"/>
       <c r="C238" s="20"/>
       <c r="D238" s="20"/>
       <c r="E238" s="20"/>
@@ -30096,7 +30096,7 @@
       <c r="L1" s="117"/>
       <c r="M1" s="117"/>
       <c r="N1" s="117"/>
-      <c r="O1" s="362" t="s">
+      <c r="O1" s="364" t="s">
         <v>2922</v>
       </c>
       <c r="R1" s="38">
@@ -30115,29 +30115,29 @@
       <c r="L2" s="117"/>
       <c r="M2" s="117"/>
       <c r="N2" s="117"/>
-      <c r="O2" s="362"/>
+      <c r="O2" s="364"/>
     </row>
     <row r="3" spans="1:46" ht="15.75" thickBot="1">
-      <c r="H3" s="370" t="s">
+      <c r="H3" s="372" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="371"/>
-      <c r="J3" s="371"/>
-      <c r="K3" s="371"/>
-      <c r="L3" s="372"/>
-      <c r="O3" s="362"/>
+      <c r="I3" s="373"/>
+      <c r="J3" s="373"/>
+      <c r="K3" s="373"/>
+      <c r="L3" s="374"/>
+      <c r="O3" s="364"/>
       <c r="P3" t="s">
         <v>1435</v>
       </c>
     </row>
     <row r="4" spans="1:46" ht="15.75" thickBot="1">
-      <c r="O4" s="362"/>
+      <c r="O4" s="364"/>
       <c r="P4" t="s">
         <v>2924</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D5" s="363" t="s">
+      <c r="D5" s="365" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
@@ -30154,35 +30154,35 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="362"/>
+      <c r="O5" s="364"/>
       <c r="P5" t="s">
         <v>2925</v>
       </c>
     </row>
     <row r="6" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D6" s="363"/>
+      <c r="D6" s="365"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="373" t="s">
+      <c r="G6" s="375" t="s">
         <v>1441</v>
       </c>
-      <c r="H6" s="374"/>
+      <c r="H6" s="376"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="373" t="s">
+      <c r="J6" s="375" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="374"/>
+      <c r="K6" s="376"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="373" t="s">
+      <c r="M6" s="375" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="375"/>
-      <c r="O6" s="362"/>
+      <c r="N6" s="377"/>
+      <c r="O6" s="364"/>
       <c r="P6" t="s">
         <v>2907</v>
       </c>
     </row>
     <row r="7" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D7" s="363"/>
+      <c r="D7" s="365"/>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -30192,7 +30192,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="362"/>
+      <c r="O7" s="364"/>
       <c r="AC7" s="113" t="s">
         <v>2875</v>
       </c>
@@ -30219,23 +30219,23 @@
       <c r="AT7" s="114"/>
     </row>
     <row r="8" spans="1:46">
-      <c r="D8" s="363"/>
+      <c r="D8" s="365"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="376" t="s">
+      <c r="G8" s="378" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="377"/>
+      <c r="H8" s="379"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="376" t="s">
+      <c r="J8" s="378" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="377"/>
+      <c r="K8" s="379"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="376" t="s">
+      <c r="M8" s="378" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="378"/>
-      <c r="O8" s="362"/>
+      <c r="N8" s="380"/>
+      <c r="O8" s="364"/>
       <c r="Q8" s="132"/>
       <c r="S8" t="s">
         <v>2866</v>
@@ -30262,7 +30262,7 @@
       <c r="AT8" s="68"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="D9" s="363"/>
+      <c r="D9" s="365"/>
       <c r="F9" s="3"/>
       <c r="G9" s="223"/>
       <c r="H9" s="223"/>
@@ -30272,7 +30272,7 @@
       <c r="L9" s="222"/>
       <c r="M9" s="223"/>
       <c r="N9" s="223"/>
-      <c r="O9" s="362"/>
+      <c r="O9" s="364"/>
       <c r="Q9" s="132"/>
       <c r="S9" t="s">
         <v>2859</v>
@@ -30309,19 +30309,19 @@
       <c r="AT9" s="68"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="D10" s="363"/>
-      <c r="F10" s="366" t="s">
+      <c r="D10" s="365"/>
+      <c r="F10" s="368" t="s">
         <v>2146</v>
       </c>
-      <c r="G10" s="367"/>
-      <c r="H10" s="367"/>
-      <c r="I10" s="367"/>
-      <c r="J10" s="367"/>
-      <c r="K10" s="367"/>
-      <c r="L10" s="367"/>
-      <c r="M10" s="367"/>
-      <c r="N10" s="367"/>
-      <c r="O10" s="361" t="s">
+      <c r="G10" s="369"/>
+      <c r="H10" s="369"/>
+      <c r="I10" s="369"/>
+      <c r="J10" s="369"/>
+      <c r="K10" s="369"/>
+      <c r="L10" s="369"/>
+      <c r="M10" s="369"/>
+      <c r="N10" s="369"/>
+      <c r="O10" s="363" t="s">
         <v>2921</v>
       </c>
       <c r="Q10" s="132"/>
@@ -30359,20 +30359,20 @@
       <c r="A11" t="s">
         <v>2846</v>
       </c>
-      <c r="D11" s="363"/>
+      <c r="D11" s="365"/>
       <c r="E11" t="s">
         <v>2898</v>
       </c>
-      <c r="F11" s="368"/>
-      <c r="G11" s="369"/>
-      <c r="H11" s="369"/>
-      <c r="I11" s="369"/>
-      <c r="J11" s="369"/>
-      <c r="K11" s="369"/>
-      <c r="L11" s="369"/>
-      <c r="M11" s="369"/>
-      <c r="N11" s="369"/>
-      <c r="O11" s="361"/>
+      <c r="F11" s="370"/>
+      <c r="G11" s="371"/>
+      <c r="H11" s="371"/>
+      <c r="I11" s="371"/>
+      <c r="J11" s="371"/>
+      <c r="K11" s="371"/>
+      <c r="L11" s="371"/>
+      <c r="M11" s="371"/>
+      <c r="N11" s="371"/>
+      <c r="O11" s="363"/>
       <c r="P11" t="s">
         <v>2923</v>
       </c>
@@ -30408,7 +30408,7 @@
       <c r="A12" t="s">
         <v>2847</v>
       </c>
-      <c r="D12" s="363"/>
+      <c r="D12" s="365"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -30418,7 +30418,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="361"/>
+      <c r="O12" s="363"/>
       <c r="AC12" s="166" t="s">
         <v>2877</v>
       </c>
@@ -30443,7 +30443,7 @@
       <c r="AT12" s="68"/>
     </row>
     <row r="13" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D13" s="363"/>
+      <c r="D13" s="365"/>
       <c r="E13" t="s">
         <v>1480</v>
       </c>
@@ -30462,7 +30462,7 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="361"/>
+      <c r="O13" s="363"/>
       <c r="AC13" s="166"/>
       <c r="AD13" s="20" t="s">
         <v>2877</v>
@@ -30485,22 +30485,22 @@
       <c r="AT13" s="68"/>
     </row>
     <row r="14" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D14" s="363"/>
+      <c r="D14" s="365"/>
       <c r="E14" t="s">
         <v>2848</v>
       </c>
-      <c r="F14" s="364" t="s">
+      <c r="F14" s="366" t="s">
         <v>2849</v>
       </c>
-      <c r="G14" s="365"/>
-      <c r="H14" s="365"/>
-      <c r="I14" s="365"/>
-      <c r="J14" s="365"/>
-      <c r="K14" s="365"/>
-      <c r="L14" s="365"/>
-      <c r="M14" s="365"/>
-      <c r="N14" s="365"/>
-      <c r="O14" s="361"/>
+      <c r="G14" s="367"/>
+      <c r="H14" s="367"/>
+      <c r="I14" s="367"/>
+      <c r="J14" s="367"/>
+      <c r="K14" s="367"/>
+      <c r="L14" s="367"/>
+      <c r="M14" s="367"/>
+      <c r="N14" s="367"/>
+      <c r="O14" s="363"/>
       <c r="P14" t="s">
         <v>2856</v>
       </c>
@@ -30530,7 +30530,7 @@
       <c r="B15" t="s">
         <v>2836</v>
       </c>
-      <c r="D15" s="363" t="s">
+      <c r="D15" s="365" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="129"/>
@@ -30568,7 +30568,7 @@
       <c r="AT15" s="68"/>
     </row>
     <row r="16" spans="1:46">
-      <c r="D16" s="363"/>
+      <c r="D16" s="365"/>
       <c r="E16" t="s">
         <v>1442</v>
       </c>
@@ -30623,7 +30623,7 @@
       <c r="AT16" s="68"/>
     </row>
     <row r="17" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D17" s="363"/>
+      <c r="D17" s="365"/>
       <c r="F17" s="131"/>
       <c r="G17" s="128" t="s">
         <v>10</v>
@@ -30671,7 +30671,7 @@
       <c r="AT17" s="68"/>
     </row>
     <row r="18" spans="1:46">
-      <c r="D18" s="363"/>
+      <c r="D18" s="365"/>
       <c r="F18" s="129"/>
       <c r="G18" s="128" t="s">
         <v>11</v>
@@ -30722,7 +30722,7 @@
       <c r="B19" t="s">
         <v>2837</v>
       </c>
-      <c r="D19" s="363"/>
+      <c r="D19" s="365"/>
       <c r="F19" s="130"/>
       <c r="G19" s="13"/>
       <c r="H19" s="11"/>
@@ -30773,7 +30773,7 @@
       <c r="AT19" s="68"/>
     </row>
     <row r="20" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D20" s="363"/>
+      <c r="D20" s="365"/>
       <c r="E20" t="s">
         <v>1443</v>
       </c>
@@ -30826,7 +30826,7 @@
       <c r="AT20" s="68"/>
     </row>
     <row r="21" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D21" s="363"/>
+      <c r="D21" s="365"/>
       <c r="F21" s="131"/>
       <c r="G21" s="11" t="s">
         <v>15</v>
@@ -30862,7 +30862,7 @@
       <c r="AT21" s="68"/>
     </row>
     <row r="22" spans="1:46">
-      <c r="D22" s="363"/>
+      <c r="D22" s="365"/>
       <c r="F22" s="130"/>
       <c r="G22" s="11" t="s">
         <v>2131</v>
@@ -30912,7 +30912,7 @@
       <c r="AT22" s="68"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="D23" s="363"/>
+      <c r="D23" s="365"/>
       <c r="E23" t="s">
         <v>1442</v>
       </c>
@@ -30958,7 +30958,7 @@
       <c r="A24" t="s">
         <v>2841</v>
       </c>
-      <c r="D24" s="363"/>
+      <c r="D24" s="365"/>
       <c r="F24" s="131"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -30988,7 +30988,7 @@
       <c r="AT24" s="68"/>
     </row>
     <row r="25" spans="1:46">
-      <c r="D25" s="363"/>
+      <c r="D25" s="365"/>
       <c r="E25" t="s">
         <v>2835</v>
       </c>
@@ -31538,12 +31538,12 @@
       <c r="O43" s="103"/>
       <c r="P43" s="103"/>
       <c r="Q43" s="171"/>
-      <c r="X43" s="349" t="s">
+      <c r="X43" s="351" t="s">
         <v>1581</v>
       </c>
-      <c r="Y43" s="350"/>
-      <c r="Z43" s="350"/>
-      <c r="AA43" s="351"/>
+      <c r="Y43" s="352"/>
+      <c r="Z43" s="352"/>
+      <c r="AA43" s="353"/>
       <c r="AC43" t="s">
         <v>1436</v>
       </c>
@@ -31576,10 +31576,10 @@
       <c r="M44" s="324"/>
       <c r="N44" s="324"/>
       <c r="O44" s="324"/>
-      <c r="X44" s="352"/>
-      <c r="Y44" s="353"/>
-      <c r="Z44" s="353"/>
-      <c r="AA44" s="354"/>
+      <c r="X44" s="354"/>
+      <c r="Y44" s="355"/>
+      <c r="Z44" s="355"/>
+      <c r="AA44" s="356"/>
       <c r="XFD44" s="32" t="s">
         <v>1444</v>
       </c>
@@ -31603,10 +31603,10 @@
       <c r="M45" s="324"/>
       <c r="N45" s="324"/>
       <c r="O45" s="324"/>
-      <c r="X45" s="355"/>
-      <c r="Y45" s="356"/>
-      <c r="Z45" s="356"/>
-      <c r="AA45" s="357"/>
+      <c r="X45" s="357"/>
+      <c r="Y45" s="358"/>
+      <c r="Z45" s="358"/>
+      <c r="AA45" s="359"/>
     </row>
     <row r="46" spans="1:46 16384:16384">
       <c r="B46" t="s">
@@ -31692,20 +31692,20 @@
       <c r="V49" t="s">
         <v>2919</v>
       </c>
-      <c r="X49" s="358" t="s">
+      <c r="X49" s="360" t="s">
         <v>2899</v>
       </c>
-      <c r="Y49" s="359"/>
-      <c r="Z49" s="359"/>
-      <c r="AA49" s="359"/>
-      <c r="AB49" s="359"/>
-      <c r="AC49" s="359"/>
-      <c r="AD49" s="359"/>
-      <c r="AE49" s="359"/>
-      <c r="AF49" s="359"/>
-      <c r="AG49" s="359"/>
-      <c r="AH49" s="359"/>
-      <c r="AI49" s="360"/>
+      <c r="Y49" s="361"/>
+      <c r="Z49" s="361"/>
+      <c r="AA49" s="361"/>
+      <c r="AB49" s="361"/>
+      <c r="AC49" s="361"/>
+      <c r="AD49" s="361"/>
+      <c r="AE49" s="361"/>
+      <c r="AF49" s="361"/>
+      <c r="AG49" s="361"/>
+      <c r="AH49" s="361"/>
+      <c r="AI49" s="362"/>
     </row>
     <row r="50" spans="1:35">
       <c r="B50" t="s">
@@ -33973,7 +33973,7 @@
       <c r="K3" s="91"/>
       <c r="L3" s="314"/>
       <c r="M3" s="92"/>
-      <c r="N3" s="417" t="s">
+      <c r="N3" s="419" t="s">
         <v>2734</v>
       </c>
       <c r="O3" s="43"/>
@@ -34006,7 +34006,7 @@
         <v>941</v>
       </c>
       <c r="M4" s="201"/>
-      <c r="N4" s="417"/>
+      <c r="N4" s="419"/>
       <c r="O4" s="43"/>
       <c r="P4" s="43"/>
       <c r="Q4" s="44"/>
@@ -34023,7 +34023,7 @@
         <v>12345</v>
       </c>
       <c r="M5" s="318"/>
-      <c r="N5" s="417"/>
+      <c r="N5" s="419"/>
       <c r="O5" s="43"/>
       <c r="P5" s="43"/>
       <c r="Q5" s="44"/>
@@ -34041,7 +34041,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
       <c r="M6" s="66"/>
-      <c r="N6" s="417"/>
+      <c r="N6" s="419"/>
       <c r="O6" s="43"/>
       <c r="P6" s="43"/>
       <c r="Q6" s="44"/>
@@ -34065,7 +34065,7 @@
       <c r="K7" s="91"/>
       <c r="L7" s="314"/>
       <c r="M7" s="92"/>
-      <c r="N7" s="417"/>
+      <c r="N7" s="419"/>
       <c r="O7" s="43"/>
       <c r="P7" s="43"/>
       <c r="Q7" s="44"/>
@@ -34087,7 +34087,7 @@
         <v>457</v>
       </c>
       <c r="M8" s="201"/>
-      <c r="N8" s="417"/>
+      <c r="N8" s="419"/>
       <c r="O8" s="43"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
@@ -34109,7 +34109,7 @@
         <v>12346</v>
       </c>
       <c r="M9" s="318"/>
-      <c r="N9" s="417"/>
+      <c r="N9" s="419"/>
       <c r="O9" s="43"/>
       <c r="P9" s="43"/>
       <c r="Q9" s="44"/>
@@ -34127,7 +34127,7 @@
       <c r="K10" s="66"/>
       <c r="L10" s="66"/>
       <c r="M10" s="66"/>
-      <c r="N10" s="417"/>
+      <c r="N10" s="419"/>
       <c r="O10" s="43"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
@@ -34145,7 +34145,7 @@
       <c r="K11" s="66"/>
       <c r="L11" s="66"/>
       <c r="M11" s="66"/>
-      <c r="N11" s="417"/>
+      <c r="N11" s="419"/>
       <c r="O11" s="43"/>
       <c r="P11" s="43"/>
       <c r="Q11" s="44"/>
@@ -34161,7 +34161,7 @@
       <c r="K12" s="66"/>
       <c r="L12" s="66"/>
       <c r="M12" s="66"/>
-      <c r="N12" s="417"/>
+      <c r="N12" s="419"/>
       <c r="O12" s="43"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
@@ -34174,7 +34174,7 @@
       <c r="K13" s="43"/>
       <c r="L13" s="43"/>
       <c r="M13" s="43"/>
-      <c r="N13" s="417"/>
+      <c r="N13" s="419"/>
       <c r="O13" s="43"/>
       <c r="P13" s="43"/>
       <c r="Q13" s="44"/>
@@ -34195,7 +34195,7 @@
       <c r="K14" s="91"/>
       <c r="L14" s="314"/>
       <c r="M14" s="92"/>
-      <c r="N14" s="417"/>
+      <c r="N14" s="419"/>
       <c r="O14" s="43"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="44"/>
@@ -34218,7 +34218,7 @@
         <v>492</v>
       </c>
       <c r="M15" s="201"/>
-      <c r="N15" s="417"/>
+      <c r="N15" s="419"/>
       <c r="O15" s="43"/>
       <c r="P15" s="43"/>
       <c r="Q15" s="44"/>
@@ -34238,7 +34238,7 @@
         <v>123123</v>
       </c>
       <c r="M16" s="318"/>
-      <c r="N16" s="417"/>
+      <c r="N16" s="419"/>
       <c r="O16" s="43"/>
       <c r="P16" s="43"/>
       <c r="Q16" s="44"/>
@@ -49132,24 +49132,24 @@
     <row r="17" spans="1:14" s="100" customFormat="1"/>
     <row r="22" spans="1:14" ht="15.75" thickBot="1">
       <c r="A22" s="98"/>
-      <c r="B22" s="418" t="s">
+      <c r="B22" s="420" t="s">
         <v>1103</v>
       </c>
-      <c r="C22" s="418"/>
+      <c r="C22" s="420"/>
       <c r="D22" s="98"/>
       <c r="E22" s="98"/>
-      <c r="F22" s="418" t="s">
+      <c r="F22" s="420" t="s">
         <v>1207</v>
       </c>
-      <c r="G22" s="418"/>
-      <c r="H22" s="418"/>
+      <c r="G22" s="420"/>
+      <c r="H22" s="420"/>
       <c r="I22" s="98"/>
       <c r="J22" s="98"/>
-      <c r="K22" s="418" t="s">
+      <c r="K22" s="420" t="s">
         <v>1105</v>
       </c>
-      <c r="L22" s="418"/>
-      <c r="M22" s="418"/>
+      <c r="L22" s="420"/>
+      <c r="M22" s="420"/>
       <c r="N22" s="98"/>
     </row>
     <row r="23" spans="1:14">
@@ -51707,35 +51707,35 @@
       </c>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="420" t="s">
+      <c r="B8" s="422" t="s">
         <v>2435</v>
       </c>
-      <c r="C8" s="420"/>
-      <c r="F8" s="420" t="s">
+      <c r="C8" s="422"/>
+      <c r="F8" s="422" t="s">
         <v>2436</v>
       </c>
-      <c r="G8" s="420"/>
-      <c r="I8" s="420" t="s">
+      <c r="G8" s="422"/>
+      <c r="I8" s="422" t="s">
         <v>2436</v>
       </c>
-      <c r="J8" s="420"/>
+      <c r="J8" s="422"/>
       <c r="M8" s="219" t="s">
         <v>2493</v>
       </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="F9" s="420" t="s">
+      <c r="F9" s="422" t="s">
         <v>2437</v>
       </c>
-      <c r="G9" s="420"/>
-      <c r="I9" s="420" t="s">
+      <c r="G9" s="422"/>
+      <c r="I9" s="422" t="s">
         <v>2438</v>
       </c>
-      <c r="J9" s="420"/>
-      <c r="M9" s="421" t="s">
+      <c r="J9" s="422"/>
+      <c r="M9" s="423" t="s">
         <v>2436</v>
       </c>
-      <c r="N9" s="421"/>
+      <c r="N9" s="423"/>
     </row>
     <row r="10" spans="1:31">
       <c r="M10" s="277" t="s">
@@ -51744,19 +51744,19 @@
       <c r="N10" s="277"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="E11" s="419" t="s">
+      <c r="E11" s="421" t="s">
         <v>2440</v>
       </c>
-      <c r="F11" s="419"/>
-      <c r="G11" s="419"/>
-      <c r="H11" s="419"/>
-      <c r="I11" s="419"/>
-      <c r="J11" s="419"/>
-      <c r="K11" s="419"/>
-      <c r="L11" s="419"/>
-      <c r="M11" s="419"/>
-      <c r="N11" s="419"/>
-      <c r="O11" s="419"/>
+      <c r="F11" s="421"/>
+      <c r="G11" s="421"/>
+      <c r="H11" s="421"/>
+      <c r="I11" s="421"/>
+      <c r="J11" s="421"/>
+      <c r="K11" s="421"/>
+      <c r="L11" s="421"/>
+      <c r="M11" s="421"/>
+      <c r="N11" s="421"/>
+      <c r="O11" s="421"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
@@ -55068,98 +55068,98 @@
   <sheetData>
     <row r="1" spans="3:16" ht="15.75" thickBot="1"/>
     <row r="2" spans="3:16">
-      <c r="C2" s="394" t="s">
+      <c r="C2" s="396" t="s">
         <v>2940</v>
       </c>
-      <c r="D2" s="395"/>
-      <c r="E2" s="395"/>
-      <c r="F2" s="395"/>
-      <c r="G2" s="395"/>
-      <c r="H2" s="395"/>
-      <c r="I2" s="395"/>
-      <c r="J2" s="395"/>
-      <c r="K2" s="395"/>
+      <c r="D2" s="397"/>
+      <c r="E2" s="397"/>
+      <c r="F2" s="397"/>
+      <c r="G2" s="397"/>
+      <c r="H2" s="397"/>
+      <c r="I2" s="397"/>
+      <c r="J2" s="397"/>
+      <c r="K2" s="397"/>
     </row>
     <row r="3" spans="3:16">
-      <c r="C3" s="396"/>
-      <c r="D3" s="397"/>
-      <c r="E3" s="397"/>
-      <c r="F3" s="397"/>
-      <c r="G3" s="397"/>
-      <c r="H3" s="397"/>
-      <c r="I3" s="397"/>
-      <c r="J3" s="397"/>
-      <c r="K3" s="397"/>
+      <c r="C3" s="398"/>
+      <c r="D3" s="399"/>
+      <c r="E3" s="399"/>
+      <c r="F3" s="399"/>
+      <c r="G3" s="399"/>
+      <c r="H3" s="399"/>
+      <c r="I3" s="399"/>
+      <c r="J3" s="399"/>
+      <c r="K3" s="399"/>
       <c r="M3" t="s">
         <v>2941</v>
       </c>
     </row>
     <row r="4" spans="3:16">
-      <c r="C4" s="396"/>
-      <c r="D4" s="397"/>
-      <c r="E4" s="397"/>
-      <c r="F4" s="397"/>
-      <c r="G4" s="397"/>
-      <c r="H4" s="397"/>
-      <c r="I4" s="397"/>
-      <c r="J4" s="397"/>
-      <c r="K4" s="397"/>
+      <c r="C4" s="398"/>
+      <c r="D4" s="399"/>
+      <c r="E4" s="399"/>
+      <c r="F4" s="399"/>
+      <c r="G4" s="399"/>
+      <c r="H4" s="399"/>
+      <c r="I4" s="399"/>
+      <c r="J4" s="399"/>
+      <c r="K4" s="399"/>
       <c r="N4" t="s">
         <v>2942</v>
       </c>
     </row>
     <row r="5" spans="3:16">
-      <c r="C5" s="396"/>
-      <c r="D5" s="397"/>
-      <c r="E5" s="397"/>
-      <c r="F5" s="397"/>
-      <c r="G5" s="397"/>
-      <c r="H5" s="397"/>
-      <c r="I5" s="397"/>
-      <c r="J5" s="397"/>
-      <c r="K5" s="397"/>
+      <c r="C5" s="398"/>
+      <c r="D5" s="399"/>
+      <c r="E5" s="399"/>
+      <c r="F5" s="399"/>
+      <c r="G5" s="399"/>
+      <c r="H5" s="399"/>
+      <c r="I5" s="399"/>
+      <c r="J5" s="399"/>
+      <c r="K5" s="399"/>
       <c r="O5" t="s">
         <v>2943</v>
       </c>
     </row>
     <row r="6" spans="3:16">
-      <c r="C6" s="396"/>
-      <c r="D6" s="397"/>
-      <c r="E6" s="397"/>
-      <c r="F6" s="397"/>
-      <c r="G6" s="397"/>
-      <c r="H6" s="397"/>
-      <c r="I6" s="397"/>
-      <c r="J6" s="397"/>
-      <c r="K6" s="397"/>
+      <c r="C6" s="398"/>
+      <c r="D6" s="399"/>
+      <c r="E6" s="399"/>
+      <c r="F6" s="399"/>
+      <c r="G6" s="399"/>
+      <c r="H6" s="399"/>
+      <c r="I6" s="399"/>
+      <c r="J6" s="399"/>
+      <c r="K6" s="399"/>
       <c r="O6" t="s">
         <v>2130</v>
       </c>
     </row>
     <row r="7" spans="3:16">
-      <c r="C7" s="396"/>
-      <c r="D7" s="397"/>
-      <c r="E7" s="397"/>
-      <c r="F7" s="397"/>
-      <c r="G7" s="397"/>
-      <c r="H7" s="397"/>
-      <c r="I7" s="397"/>
-      <c r="J7" s="397"/>
-      <c r="K7" s="397"/>
+      <c r="C7" s="398"/>
+      <c r="D7" s="399"/>
+      <c r="E7" s="399"/>
+      <c r="F7" s="399"/>
+      <c r="G7" s="399"/>
+      <c r="H7" s="399"/>
+      <c r="I7" s="399"/>
+      <c r="J7" s="399"/>
+      <c r="K7" s="399"/>
       <c r="O7" t="s">
         <v>2944</v>
       </c>
     </row>
     <row r="8" spans="3:16" ht="15.75" thickBot="1">
-      <c r="C8" s="398"/>
-      <c r="D8" s="399"/>
-      <c r="E8" s="399"/>
-      <c r="F8" s="399"/>
-      <c r="G8" s="399"/>
-      <c r="H8" s="399"/>
-      <c r="I8" s="399"/>
-      <c r="J8" s="399"/>
-      <c r="K8" s="399"/>
+      <c r="C8" s="400"/>
+      <c r="D8" s="401"/>
+      <c r="E8" s="401"/>
+      <c r="F8" s="401"/>
+      <c r="G8" s="401"/>
+      <c r="H8" s="401"/>
+      <c r="I8" s="401"/>
+      <c r="J8" s="401"/>
+      <c r="K8" s="401"/>
       <c r="O8" t="s">
         <v>2945</v>
       </c>
@@ -55196,35 +55196,35 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="3:16" ht="15.75" thickBot="1">
-      <c r="C11" s="364" t="s">
+      <c r="C11" s="366" t="s">
         <v>2849</v>
       </c>
-      <c r="D11" s="365"/>
-      <c r="E11" s="365"/>
-      <c r="F11" s="365"/>
-      <c r="G11" s="365"/>
-      <c r="H11" s="365"/>
-      <c r="I11" s="365"/>
-      <c r="J11" s="365"/>
-      <c r="K11" s="365"/>
+      <c r="D11" s="367"/>
+      <c r="E11" s="367"/>
+      <c r="F11" s="367"/>
+      <c r="G11" s="367"/>
+      <c r="H11" s="367"/>
+      <c r="I11" s="367"/>
+      <c r="J11" s="367"/>
+      <c r="K11" s="367"/>
       <c r="N11" t="s">
         <v>2947</v>
       </c>
     </row>
     <row r="12" spans="3:16">
       <c r="C12" s="129"/>
-      <c r="D12" s="379" t="s">
+      <c r="D12" s="381" t="s">
         <v>2970</v>
       </c>
-      <c r="E12" s="380"/>
-      <c r="F12" s="380"/>
-      <c r="G12" s="380"/>
-      <c r="H12" s="381"/>
-      <c r="I12" s="388" t="s">
+      <c r="E12" s="382"/>
+      <c r="F12" s="382"/>
+      <c r="G12" s="382"/>
+      <c r="H12" s="383"/>
+      <c r="I12" s="390" t="s">
         <v>2958</v>
       </c>
-      <c r="J12" s="389"/>
-      <c r="K12" s="390"/>
+      <c r="J12" s="391"/>
+      <c r="K12" s="392"/>
       <c r="O12" t="s">
         <v>2948</v>
       </c>
@@ -55233,53 +55233,53 @@
       <c r="C13" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="382"/>
-      <c r="E13" s="383"/>
-      <c r="F13" s="383"/>
-      <c r="G13" s="383"/>
-      <c r="H13" s="384"/>
-      <c r="I13" s="391"/>
-      <c r="J13" s="392"/>
-      <c r="K13" s="393"/>
+      <c r="D13" s="384"/>
+      <c r="E13" s="385"/>
+      <c r="F13" s="385"/>
+      <c r="G13" s="385"/>
+      <c r="H13" s="386"/>
+      <c r="I13" s="393"/>
+      <c r="J13" s="394"/>
+      <c r="K13" s="395"/>
       <c r="P13" t="s">
         <v>2949</v>
       </c>
     </row>
     <row r="14" spans="3:16" ht="15.75" thickBot="1">
       <c r="C14" s="131"/>
-      <c r="D14" s="382"/>
-      <c r="E14" s="383"/>
-      <c r="F14" s="383"/>
-      <c r="G14" s="383"/>
-      <c r="H14" s="384"/>
-      <c r="I14" s="391"/>
-      <c r="J14" s="392"/>
-      <c r="K14" s="393"/>
+      <c r="D14" s="384"/>
+      <c r="E14" s="385"/>
+      <c r="F14" s="385"/>
+      <c r="G14" s="385"/>
+      <c r="H14" s="386"/>
+      <c r="I14" s="393"/>
+      <c r="J14" s="394"/>
+      <c r="K14" s="395"/>
     </row>
     <row r="15" spans="3:16">
       <c r="C15" s="129"/>
-      <c r="D15" s="382"/>
-      <c r="E15" s="383"/>
-      <c r="F15" s="383"/>
-      <c r="G15" s="383"/>
-      <c r="H15" s="384"/>
-      <c r="I15" s="391"/>
-      <c r="J15" s="392"/>
-      <c r="K15" s="393"/>
+      <c r="D15" s="384"/>
+      <c r="E15" s="385"/>
+      <c r="F15" s="385"/>
+      <c r="G15" s="385"/>
+      <c r="H15" s="386"/>
+      <c r="I15" s="393"/>
+      <c r="J15" s="394"/>
+      <c r="K15" s="395"/>
       <c r="O15" t="s">
         <v>2950</v>
       </c>
     </row>
     <row r="16" spans="3:16">
       <c r="C16" s="130"/>
-      <c r="D16" s="382"/>
-      <c r="E16" s="383"/>
-      <c r="F16" s="383"/>
-      <c r="G16" s="383"/>
-      <c r="H16" s="384"/>
-      <c r="I16" s="391"/>
-      <c r="J16" s="392"/>
-      <c r="K16" s="393"/>
+      <c r="D16" s="384"/>
+      <c r="E16" s="385"/>
+      <c r="F16" s="385"/>
+      <c r="G16" s="385"/>
+      <c r="H16" s="386"/>
+      <c r="I16" s="393"/>
+      <c r="J16" s="394"/>
+      <c r="K16" s="395"/>
       <c r="P16" t="s">
         <v>2951</v>
       </c>
@@ -55288,39 +55288,39 @@
       <c r="C17" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="382"/>
-      <c r="E17" s="383"/>
-      <c r="F17" s="383"/>
-      <c r="G17" s="383"/>
-      <c r="H17" s="384"/>
-      <c r="I17" s="391"/>
-      <c r="J17" s="392"/>
-      <c r="K17" s="393"/>
+      <c r="D17" s="384"/>
+      <c r="E17" s="385"/>
+      <c r="F17" s="385"/>
+      <c r="G17" s="385"/>
+      <c r="H17" s="386"/>
+      <c r="I17" s="393"/>
+      <c r="J17" s="394"/>
+      <c r="K17" s="395"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" thickBot="1">
       <c r="C18" s="131"/>
-      <c r="D18" s="382"/>
-      <c r="E18" s="383"/>
-      <c r="F18" s="383"/>
-      <c r="G18" s="383"/>
-      <c r="H18" s="384"/>
-      <c r="I18" s="391"/>
-      <c r="J18" s="392"/>
-      <c r="K18" s="393"/>
+      <c r="D18" s="384"/>
+      <c r="E18" s="385"/>
+      <c r="F18" s="385"/>
+      <c r="G18" s="385"/>
+      <c r="H18" s="386"/>
+      <c r="I18" s="393"/>
+      <c r="J18" s="394"/>
+      <c r="K18" s="395"/>
       <c r="M18" t="s">
         <v>2952</v>
       </c>
     </row>
     <row r="19" spans="2:16">
       <c r="C19" s="130"/>
-      <c r="D19" s="382"/>
-      <c r="E19" s="383"/>
-      <c r="F19" s="383"/>
-      <c r="G19" s="383"/>
-      <c r="H19" s="384"/>
-      <c r="I19" s="391"/>
-      <c r="J19" s="392"/>
-      <c r="K19" s="393"/>
+      <c r="D19" s="384"/>
+      <c r="E19" s="385"/>
+      <c r="F19" s="385"/>
+      <c r="G19" s="385"/>
+      <c r="H19" s="386"/>
+      <c r="I19" s="393"/>
+      <c r="J19" s="394"/>
+      <c r="K19" s="395"/>
       <c r="N19" t="s">
         <v>2953</v>
       </c>
@@ -55329,45 +55329,45 @@
       <c r="C20" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="382"/>
-      <c r="E20" s="383"/>
-      <c r="F20" s="383"/>
-      <c r="G20" s="383"/>
-      <c r="H20" s="384"/>
-      <c r="I20" s="391"/>
-      <c r="J20" s="392"/>
-      <c r="K20" s="393"/>
+      <c r="D20" s="384"/>
+      <c r="E20" s="385"/>
+      <c r="F20" s="385"/>
+      <c r="G20" s="385"/>
+      <c r="H20" s="386"/>
+      <c r="I20" s="393"/>
+      <c r="J20" s="394"/>
+      <c r="K20" s="395"/>
       <c r="N20" t="s">
         <v>2954</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="15.75" thickBot="1">
       <c r="C21" s="131"/>
-      <c r="D21" s="385"/>
-      <c r="E21" s="386"/>
-      <c r="F21" s="386"/>
-      <c r="G21" s="386"/>
-      <c r="H21" s="387"/>
-      <c r="I21" s="391"/>
-      <c r="J21" s="392"/>
-      <c r="K21" s="393"/>
+      <c r="D21" s="387"/>
+      <c r="E21" s="388"/>
+      <c r="F21" s="388"/>
+      <c r="G21" s="388"/>
+      <c r="H21" s="389"/>
+      <c r="I21" s="393"/>
+      <c r="J21" s="394"/>
+      <c r="K21" s="395"/>
       <c r="N21" t="s">
         <v>2955</v>
       </c>
     </row>
     <row r="22" spans="2:16">
-      <c r="D22" s="400" t="s">
+      <c r="D22" s="402" t="s">
         <v>2588</v>
       </c>
-      <c r="E22" s="400"/>
-      <c r="F22" s="400"/>
-      <c r="G22" s="400"/>
-      <c r="H22" s="400"/>
-      <c r="I22" s="400" t="s">
+      <c r="E22" s="402"/>
+      <c r="F22" s="402"/>
+      <c r="G22" s="402"/>
+      <c r="H22" s="402"/>
+      <c r="I22" s="402" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="400"/>
-      <c r="K22" s="400"/>
+      <c r="J22" s="402"/>
+      <c r="K22" s="402"/>
       <c r="N22" t="s">
         <v>2956</v>
       </c>
@@ -56299,11 +56299,11 @@
       <c r="L6" s="35" t="s">
         <v>1379</v>
       </c>
-      <c r="M6" s="400" t="s">
+      <c r="M6" s="402" t="s">
         <v>1380</v>
       </c>
-      <c r="N6" s="400"/>
-      <c r="O6" s="400"/>
+      <c r="N6" s="402"/>
+      <c r="O6" s="402"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
@@ -59177,10 +59177,10 @@
       </c>
       <c r="G121" s="23"/>
       <c r="H121" s="24"/>
-      <c r="I121" s="403" t="s">
+      <c r="I121" s="405" t="s">
         <v>2590</v>
       </c>
-      <c r="J121" s="403" t="s">
+      <c r="J121" s="405" t="s">
         <v>2594</v>
       </c>
       <c r="K121" s="20"/>
@@ -59196,8 +59196,8 @@
       <c r="H122" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="I122" s="404"/>
-      <c r="J122" s="404"/>
+      <c r="I122" s="406"/>
+      <c r="J122" s="406"/>
       <c r="K122" s="20"/>
       <c r="L122" s="20"/>
       <c r="M122" s="27"/>
@@ -59211,8 +59211,8 @@
       <c r="H123" s="20">
         <v>19</v>
       </c>
-      <c r="I123" s="404"/>
-      <c r="J123" s="404"/>
+      <c r="I123" s="406"/>
+      <c r="J123" s="406"/>
       <c r="K123" s="20"/>
       <c r="L123" s="20"/>
       <c r="M123" s="27"/>
@@ -59226,8 +59226,8 @@
       <c r="H124" s="29" t="s">
         <v>1808</v>
       </c>
-      <c r="I124" s="404"/>
-      <c r="J124" s="404"/>
+      <c r="I124" s="406"/>
+      <c r="J124" s="406"/>
       <c r="K124" s="20"/>
       <c r="L124" s="20"/>
       <c r="M124" s="27"/>
@@ -59237,8 +59237,8 @@
       <c r="F125" s="20"/>
       <c r="G125" s="20"/>
       <c r="H125" s="20"/>
-      <c r="I125" s="404"/>
-      <c r="J125" s="404"/>
+      <c r="I125" s="406"/>
+      <c r="J125" s="406"/>
       <c r="K125" s="20"/>
       <c r="L125" s="20"/>
       <c r="M125" s="27"/>
@@ -59251,8 +59251,8 @@
       <c r="F126" s="20"/>
       <c r="G126" s="20"/>
       <c r="H126" s="20"/>
-      <c r="I126" s="404"/>
-      <c r="J126" s="404"/>
+      <c r="I126" s="406"/>
+      <c r="J126" s="406"/>
       <c r="K126" s="20"/>
       <c r="L126" s="20"/>
       <c r="M126" s="27"/>
@@ -59264,8 +59264,8 @@
       </c>
       <c r="G127" s="23"/>
       <c r="H127" s="24"/>
-      <c r="I127" s="404"/>
-      <c r="J127" s="404"/>
+      <c r="I127" s="406"/>
+      <c r="J127" s="406"/>
       <c r="K127" s="20"/>
       <c r="L127" s="20"/>
       <c r="M127" s="27"/>
@@ -59279,8 +59279,8 @@
       <c r="H128" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="I128" s="404"/>
-      <c r="J128" s="404"/>
+      <c r="I128" s="406"/>
+      <c r="J128" s="406"/>
       <c r="K128" s="20"/>
       <c r="L128" s="20"/>
       <c r="M128" s="27"/>
@@ -59294,8 +59294,8 @@
       <c r="H129" s="20">
         <v>20</v>
       </c>
-      <c r="I129" s="404"/>
-      <c r="J129" s="404"/>
+      <c r="I129" s="406"/>
+      <c r="J129" s="406"/>
       <c r="K129" s="20"/>
       <c r="L129" s="20"/>
       <c r="M129" s="27"/>
@@ -59309,8 +59309,8 @@
       <c r="H130" s="29" t="s">
         <v>2586</v>
       </c>
-      <c r="I130" s="404"/>
-      <c r="J130" s="404"/>
+      <c r="I130" s="406"/>
+      <c r="J130" s="406"/>
       <c r="K130" s="20"/>
       <c r="L130" s="20"/>
       <c r="M130" s="27"/>
@@ -59320,8 +59320,8 @@
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
       <c r="H131" s="20"/>
-      <c r="I131" s="404"/>
-      <c r="J131" s="404"/>
+      <c r="I131" s="406"/>
+      <c r="J131" s="406"/>
       <c r="K131" s="20"/>
       <c r="L131" s="20"/>
       <c r="M131" s="27"/>
@@ -59333,8 +59333,8 @@
       </c>
       <c r="G132" s="23"/>
       <c r="H132" s="24"/>
-      <c r="I132" s="404"/>
-      <c r="J132" s="404"/>
+      <c r="I132" s="406"/>
+      <c r="J132" s="406"/>
       <c r="K132" s="20"/>
       <c r="L132" s="20"/>
       <c r="M132" s="27"/>
@@ -59348,8 +59348,8 @@
       <c r="H133" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="I133" s="404"/>
-      <c r="J133" s="404"/>
+      <c r="I133" s="406"/>
+      <c r="J133" s="406"/>
       <c r="K133" s="20"/>
       <c r="L133" s="20"/>
       <c r="M133" s="27"/>
@@ -59363,8 +59363,8 @@
       <c r="H134" s="20">
         <v>18</v>
       </c>
-      <c r="I134" s="404"/>
-      <c r="J134" s="404"/>
+      <c r="I134" s="406"/>
+      <c r="J134" s="406"/>
       <c r="K134" s="20"/>
       <c r="L134" s="20"/>
       <c r="M134" s="27"/>
@@ -59378,8 +59378,8 @@
       <c r="H135" s="29" t="s">
         <v>2587</v>
       </c>
-      <c r="I135" s="405"/>
-      <c r="J135" s="405"/>
+      <c r="I135" s="407"/>
+      <c r="J135" s="407"/>
       <c r="K135" s="20"/>
       <c r="L135" s="20"/>
       <c r="M135" s="27"/>
@@ -59459,8 +59459,8 @@
       <c r="H147" s="24" t="s">
         <v>2593</v>
       </c>
-      <c r="I147" s="406"/>
-      <c r="J147" s="406"/>
+      <c r="I147" s="408"/>
+      <c r="J147" s="408"/>
       <c r="K147" s="20"/>
       <c r="L147" s="20"/>
       <c r="M147" s="27"/>
@@ -59474,8 +59474,8 @@
       <c r="H148" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="I148" s="407"/>
-      <c r="J148" s="407"/>
+      <c r="I148" s="409"/>
+      <c r="J148" s="409"/>
       <c r="K148" s="20"/>
       <c r="L148" s="20"/>
       <c r="M148" s="27"/>
@@ -59489,8 +59489,8 @@
       <c r="H149" s="20">
         <v>19</v>
       </c>
-      <c r="I149" s="407"/>
-      <c r="J149" s="407"/>
+      <c r="I149" s="409"/>
+      <c r="J149" s="409"/>
       <c r="K149" s="20"/>
       <c r="L149" s="20"/>
       <c r="M149" s="27"/>
@@ -59504,8 +59504,8 @@
       <c r="H150" s="29" t="s">
         <v>1808</v>
       </c>
-      <c r="I150" s="407"/>
-      <c r="J150" s="407"/>
+      <c r="I150" s="409"/>
+      <c r="J150" s="409"/>
       <c r="K150" s="20"/>
       <c r="L150" s="20"/>
       <c r="M150" s="27"/>
@@ -59515,8 +59515,8 @@
       <c r="F151" s="20"/>
       <c r="G151" s="20"/>
       <c r="H151" s="20"/>
-      <c r="I151" s="407"/>
-      <c r="J151" s="407"/>
+      <c r="I151" s="409"/>
+      <c r="J151" s="409"/>
       <c r="K151" s="20"/>
       <c r="L151" s="20"/>
       <c r="M151" s="27"/>
@@ -59526,8 +59526,8 @@
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
-      <c r="I152" s="407"/>
-      <c r="J152" s="407"/>
+      <c r="I152" s="409"/>
+      <c r="J152" s="409"/>
       <c r="K152" s="20"/>
       <c r="L152" s="20"/>
       <c r="M152" s="27"/>
@@ -59543,8 +59543,8 @@
       <c r="H153" s="24" t="s">
         <v>2593</v>
       </c>
-      <c r="I153" s="407"/>
-      <c r="J153" s="407"/>
+      <c r="I153" s="409"/>
+      <c r="J153" s="409"/>
       <c r="K153" s="20"/>
       <c r="L153" s="20"/>
       <c r="M153" s="27"/>
@@ -59561,8 +59561,8 @@
       <c r="H154" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="I154" s="407"/>
-      <c r="J154" s="407"/>
+      <c r="I154" s="409"/>
+      <c r="J154" s="409"/>
       <c r="K154" s="20"/>
       <c r="L154" s="20"/>
       <c r="M154" s="27"/>
@@ -59576,8 +59576,8 @@
       <c r="H155" s="20">
         <v>20</v>
       </c>
-      <c r="I155" s="407"/>
-      <c r="J155" s="407"/>
+      <c r="I155" s="409"/>
+      <c r="J155" s="409"/>
       <c r="K155" s="20"/>
       <c r="L155" s="20"/>
       <c r="M155" s="27"/>
@@ -59591,8 +59591,8 @@
       <c r="H156" s="29" t="s">
         <v>2586</v>
       </c>
-      <c r="I156" s="407"/>
-      <c r="J156" s="407"/>
+      <c r="I156" s="409"/>
+      <c r="J156" s="409"/>
       <c r="K156" s="20"/>
       <c r="L156" s="20"/>
       <c r="M156" s="27"/>
@@ -59602,8 +59602,8 @@
       <c r="F157" s="20"/>
       <c r="G157" s="20"/>
       <c r="H157" s="20"/>
-      <c r="I157" s="407"/>
-      <c r="J157" s="407"/>
+      <c r="I157" s="409"/>
+      <c r="J157" s="409"/>
       <c r="K157" s="20"/>
       <c r="L157" s="20"/>
       <c r="M157" s="27"/>
@@ -59619,8 +59619,8 @@
       <c r="H158" s="24" t="s">
         <v>2593</v>
       </c>
-      <c r="I158" s="407"/>
-      <c r="J158" s="407"/>
+      <c r="I158" s="409"/>
+      <c r="J158" s="409"/>
       <c r="K158" s="20"/>
       <c r="L158" s="20"/>
       <c r="M158" s="27"/>
@@ -59634,8 +59634,8 @@
       <c r="H159" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="I159" s="407"/>
-      <c r="J159" s="407"/>
+      <c r="I159" s="409"/>
+      <c r="J159" s="409"/>
       <c r="K159" s="20"/>
       <c r="L159" s="20"/>
       <c r="M159" s="27"/>
@@ -59649,8 +59649,8 @@
       <c r="H160" s="20">
         <v>18</v>
       </c>
-      <c r="I160" s="407"/>
-      <c r="J160" s="407"/>
+      <c r="I160" s="409"/>
+      <c r="J160" s="409"/>
       <c r="K160" s="20"/>
       <c r="L160" s="20"/>
       <c r="M160" s="27"/>
@@ -59664,8 +59664,8 @@
       <c r="H161" s="29" t="s">
         <v>2587</v>
       </c>
-      <c r="I161" s="408"/>
-      <c r="J161" s="408"/>
+      <c r="I161" s="410"/>
+      <c r="J161" s="410"/>
       <c r="K161" s="20"/>
       <c r="L161" s="20"/>
       <c r="M161" s="27"/>
@@ -60624,7 +60624,7 @@
       <c r="F269" s="32">
         <v>9</v>
       </c>
-      <c r="G269" s="401" t="s">
+      <c r="G269" s="403" t="s">
         <v>2230</v>
       </c>
       <c r="I269" s="48" t="s">
@@ -60645,7 +60645,7 @@
       <c r="F270" s="32">
         <v>15</v>
       </c>
-      <c r="G270" s="402"/>
+      <c r="G270" s="404"/>
       <c r="I270" s="151" t="s">
         <v>2226</v>
       </c>
@@ -62407,17 +62407,17 @@
       <c r="A2" t="s">
         <v>2621</v>
       </c>
-      <c r="E2" s="376" t="s">
+      <c r="E2" s="378" t="s">
         <v>3051</v>
       </c>
-      <c r="F2" s="378"/>
-      <c r="G2" s="378"/>
-      <c r="H2" s="378"/>
-      <c r="I2" s="378"/>
-      <c r="J2" s="378"/>
-      <c r="K2" s="378"/>
-      <c r="L2" s="378"/>
-      <c r="M2" s="377"/>
+      <c r="F2" s="380"/>
+      <c r="G2" s="380"/>
+      <c r="H2" s="380"/>
+      <c r="I2" s="380"/>
+      <c r="J2" s="380"/>
+      <c r="K2" s="380"/>
+      <c r="L2" s="380"/>
+      <c r="M2" s="379"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="B3" t="s">
@@ -62696,17 +62696,17 @@
       <c r="A19" t="s">
         <v>2621</v>
       </c>
-      <c r="E19" s="376" t="s">
+      <c r="E19" s="378" t="s">
         <v>3051</v>
       </c>
-      <c r="F19" s="378"/>
-      <c r="G19" s="378"/>
-      <c r="H19" s="378"/>
-      <c r="I19" s="378"/>
-      <c r="J19" s="378"/>
-      <c r="K19" s="378"/>
-      <c r="L19" s="378"/>
-      <c r="M19" s="377"/>
+      <c r="F19" s="380"/>
+      <c r="G19" s="380"/>
+      <c r="H19" s="380"/>
+      <c r="I19" s="380"/>
+      <c r="J19" s="380"/>
+      <c r="K19" s="380"/>
+      <c r="L19" s="380"/>
+      <c r="M19" s="379"/>
     </row>
     <row r="20" spans="1:13">
       <c r="B20" t="s">
@@ -63039,17 +63039,17 @@
       <c r="A42" t="s">
         <v>2621</v>
       </c>
-      <c r="E42" s="376" t="s">
+      <c r="E42" s="378" t="s">
         <v>3051</v>
       </c>
-      <c r="F42" s="378"/>
-      <c r="G42" s="378"/>
-      <c r="H42" s="378"/>
-      <c r="I42" s="378"/>
-      <c r="J42" s="378"/>
-      <c r="K42" s="378"/>
-      <c r="L42" s="378"/>
-      <c r="M42" s="377"/>
+      <c r="F42" s="380"/>
+      <c r="G42" s="380"/>
+      <c r="H42" s="380"/>
+      <c r="I42" s="380"/>
+      <c r="J42" s="380"/>
+      <c r="K42" s="380"/>
+      <c r="L42" s="380"/>
+      <c r="M42" s="379"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1">
       <c r="B43" t="s">
@@ -63362,17 +63362,17 @@
       <c r="A65" t="s">
         <v>3085</v>
       </c>
-      <c r="E65" s="376" t="s">
+      <c r="E65" s="378" t="s">
         <v>3051</v>
       </c>
-      <c r="F65" s="378"/>
-      <c r="G65" s="378"/>
-      <c r="H65" s="378"/>
-      <c r="I65" s="378"/>
-      <c r="J65" s="378"/>
-      <c r="K65" s="378"/>
-      <c r="L65" s="378"/>
-      <c r="M65" s="377"/>
+      <c r="F65" s="380"/>
+      <c r="G65" s="380"/>
+      <c r="H65" s="380"/>
+      <c r="I65" s="380"/>
+      <c r="J65" s="380"/>
+      <c r="K65" s="380"/>
+      <c r="L65" s="380"/>
+      <c r="M65" s="379"/>
     </row>
     <row r="66" spans="1:13" ht="15.75" thickBot="1">
       <c r="B66" t="s">
@@ -63655,17 +63655,17 @@
       <c r="A88" t="s">
         <v>2621</v>
       </c>
-      <c r="E88" s="376" t="s">
+      <c r="E88" s="378" t="s">
         <v>2628</v>
       </c>
-      <c r="F88" s="378"/>
-      <c r="G88" s="378"/>
-      <c r="H88" s="378"/>
-      <c r="I88" s="378"/>
-      <c r="J88" s="378"/>
-      <c r="K88" s="378"/>
-      <c r="L88" s="378"/>
-      <c r="M88" s="377"/>
+      <c r="F88" s="380"/>
+      <c r="G88" s="380"/>
+      <c r="H88" s="380"/>
+      <c r="I88" s="380"/>
+      <c r="J88" s="380"/>
+      <c r="K88" s="380"/>
+      <c r="L88" s="380"/>
+      <c r="M88" s="379"/>
     </row>
     <row r="89" spans="1:13" ht="15.75" thickBot="1">
       <c r="B89" t="s">
@@ -63941,17 +63941,17 @@
       <c r="A107" t="s">
         <v>2621</v>
       </c>
-      <c r="E107" s="376" t="s">
+      <c r="E107" s="378" t="s">
         <v>2628</v>
       </c>
-      <c r="F107" s="378"/>
-      <c r="G107" s="378"/>
-      <c r="H107" s="378"/>
-      <c r="I107" s="378"/>
-      <c r="J107" s="378"/>
-      <c r="K107" s="378"/>
-      <c r="L107" s="378"/>
-      <c r="M107" s="377"/>
+      <c r="F107" s="380"/>
+      <c r="G107" s="380"/>
+      <c r="H107" s="380"/>
+      <c r="I107" s="380"/>
+      <c r="J107" s="380"/>
+      <c r="K107" s="380"/>
+      <c r="L107" s="380"/>
+      <c r="M107" s="379"/>
     </row>
     <row r="108" spans="1:13" ht="15.75" thickBot="1">
       <c r="B108" t="s">
@@ -64253,17 +64253,17 @@
       <c r="B129" s="300"/>
       <c r="C129" s="300"/>
       <c r="D129" s="300"/>
-      <c r="G129" s="376" t="s">
+      <c r="G129" s="378" t="s">
         <v>2628</v>
       </c>
-      <c r="H129" s="378"/>
-      <c r="I129" s="378"/>
-      <c r="J129" s="378"/>
-      <c r="K129" s="378"/>
-      <c r="L129" s="378"/>
-      <c r="M129" s="378"/>
-      <c r="N129" s="378"/>
-      <c r="O129" s="377"/>
+      <c r="H129" s="380"/>
+      <c r="I129" s="380"/>
+      <c r="J129" s="380"/>
+      <c r="K129" s="380"/>
+      <c r="L129" s="380"/>
+      <c r="M129" s="380"/>
+      <c r="N129" s="380"/>
+      <c r="O129" s="379"/>
     </row>
     <row r="130" spans="1:15" ht="15.75" thickBot="1">
       <c r="B130" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5850" uniqueCount="3125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5871" uniqueCount="3130">
   <si>
     <t>USER</t>
   </si>
@@ -9673,6 +9673,21 @@
   </si>
   <si>
     <t>reference</t>
+  </si>
+  <si>
+    <t>p1.name="john";</t>
+  </si>
+  <si>
+    <t>p2.name="john";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public String name="jane"; </t>
+  </si>
+  <si>
+    <t>p1==p2</t>
+  </si>
+  <si>
+    <t>#abc  equal to #pqr</t>
   </si>
 </sst>
 </file>
@@ -11017,6 +11032,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11246,12 +11267,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11547,10 +11562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11570,7 +11585,7 @@
       <c r="H2" s="262" t="s">
         <v>3093</v>
       </c>
-      <c r="I2" s="423" t="s">
+      <c r="I2" s="346" t="s">
         <v>1682</v>
       </c>
       <c r="J2" s="24"/>
@@ -11732,7 +11747,7 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="424" t="s">
+      <c r="F12" s="347" t="s">
         <v>345</v>
       </c>
       <c r="H12" s="26"/>
@@ -11788,7 +11803,7 @@
       <c r="P16" s="27"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="425" t="s">
+      <c r="A17" s="348" t="s">
         <v>566</v>
       </c>
       <c r="B17" s="32" t="s">
@@ -11854,7 +11869,7 @@
       <c r="H27" s="262" t="s">
         <v>3093</v>
       </c>
-      <c r="I27" s="423" t="s">
+      <c r="I27" s="346" t="s">
         <v>1682</v>
       </c>
       <c r="J27" s="24"/>
@@ -11869,7 +11884,7 @@
       <c r="C28" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="H28" s="426"/>
+      <c r="H28" s="349"/>
       <c r="I28" s="196"/>
       <c r="P28" s="27"/>
     </row>
@@ -11880,7 +11895,7 @@
       <c r="D29" s="155" t="s">
         <v>3115</v>
       </c>
-      <c r="H29" s="426"/>
+      <c r="H29" s="349"/>
       <c r="I29" s="196"/>
       <c r="P29" s="27"/>
     </row>
@@ -11959,7 +11974,7 @@
       <c r="C35" s="32"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="424" t="s">
+      <c r="F35" s="347" t="s">
         <v>3109</v>
       </c>
       <c r="H35" s="26"/>
@@ -11989,7 +12004,7 @@
       <c r="P37" s="27"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="425" t="s">
+      <c r="A38" s="348" t="s">
         <v>3114</v>
       </c>
       <c r="B38" s="32" t="s">
@@ -12034,6 +12049,134 @@
       <c r="N43" s="29"/>
       <c r="O43" s="29"/>
       <c r="P43" s="30"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="46" spans="1:16" ht="15.75" thickBot="1">
+      <c r="H46" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>1284</v>
+      </c>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="25"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="H47" s="26" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="L47" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="M47" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="N47" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="P47" s="27"/>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A48" s="20" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>1536</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>1647</v>
+      </c>
+      <c r="M48" s="28"/>
+      <c r="N48" s="30"/>
+      <c r="P48" s="27"/>
+    </row>
+    <row r="49" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A49" s="20" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H49" s="26"/>
+      <c r="P49" s="27"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="20" t="s">
+        <v>3125</v>
+      </c>
+      <c r="H50" s="26"/>
+      <c r="L50" s="20" t="s">
+        <v>1647</v>
+      </c>
+      <c r="M50" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="N50" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="P50" s="27"/>
+    </row>
+    <row r="51" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A51" s="20" t="s">
+        <v>3126</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>3129</v>
+      </c>
+      <c r="H51" s="26"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="30"/>
+      <c r="P51" s="27"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="D52" s="20" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E52" s="155" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" s="26"/>
+      <c r="P52" s="27"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="H53" s="26"/>
+      <c r="P53" s="27"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="20" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H54" s="26"/>
+      <c r="P54" s="27"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="B55" s="20" t="s">
+        <v>3127</v>
+      </c>
+      <c r="H55" s="26"/>
+      <c r="P55" s="27"/>
+    </row>
+    <row r="56" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A56" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="H56" s="28"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12072,17 +12215,17 @@
       <c r="A2" t="s">
         <v>2618</v>
       </c>
-      <c r="E2" s="373" t="s">
+      <c r="E2" s="377" t="s">
         <v>3012</v>
       </c>
-      <c r="F2" s="375"/>
-      <c r="G2" s="375"/>
-      <c r="H2" s="375"/>
-      <c r="I2" s="375"/>
-      <c r="J2" s="375"/>
-      <c r="K2" s="375"/>
-      <c r="L2" s="375"/>
-      <c r="M2" s="374"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
+      <c r="H2" s="379"/>
+      <c r="I2" s="379"/>
+      <c r="J2" s="379"/>
+      <c r="K2" s="379"/>
+      <c r="L2" s="379"/>
+      <c r="M2" s="378"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="B3" t="s">
@@ -12361,17 +12504,17 @@
       <c r="A19" t="s">
         <v>2618</v>
       </c>
-      <c r="E19" s="373" t="s">
+      <c r="E19" s="377" t="s">
         <v>3012</v>
       </c>
-      <c r="F19" s="375"/>
-      <c r="G19" s="375"/>
-      <c r="H19" s="375"/>
-      <c r="I19" s="375"/>
-      <c r="J19" s="375"/>
-      <c r="K19" s="375"/>
-      <c r="L19" s="375"/>
-      <c r="M19" s="374"/>
+      <c r="F19" s="379"/>
+      <c r="G19" s="379"/>
+      <c r="H19" s="379"/>
+      <c r="I19" s="379"/>
+      <c r="J19" s="379"/>
+      <c r="K19" s="379"/>
+      <c r="L19" s="379"/>
+      <c r="M19" s="378"/>
     </row>
     <row r="20" spans="1:13">
       <c r="B20" t="s">
@@ -12704,17 +12847,17 @@
       <c r="A42" t="s">
         <v>2618</v>
       </c>
-      <c r="E42" s="373" t="s">
+      <c r="E42" s="377" t="s">
         <v>3012</v>
       </c>
-      <c r="F42" s="375"/>
-      <c r="G42" s="375"/>
-      <c r="H42" s="375"/>
-      <c r="I42" s="375"/>
-      <c r="J42" s="375"/>
-      <c r="K42" s="375"/>
-      <c r="L42" s="375"/>
-      <c r="M42" s="374"/>
+      <c r="F42" s="379"/>
+      <c r="G42" s="379"/>
+      <c r="H42" s="379"/>
+      <c r="I42" s="379"/>
+      <c r="J42" s="379"/>
+      <c r="K42" s="379"/>
+      <c r="L42" s="379"/>
+      <c r="M42" s="378"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1">
       <c r="B43" t="s">
@@ -13027,17 +13170,17 @@
       <c r="A65" t="s">
         <v>3046</v>
       </c>
-      <c r="E65" s="373" t="s">
+      <c r="E65" s="377" t="s">
         <v>3012</v>
       </c>
-      <c r="F65" s="375"/>
-      <c r="G65" s="375"/>
-      <c r="H65" s="375"/>
-      <c r="I65" s="375"/>
-      <c r="J65" s="375"/>
-      <c r="K65" s="375"/>
-      <c r="L65" s="375"/>
-      <c r="M65" s="374"/>
+      <c r="F65" s="379"/>
+      <c r="G65" s="379"/>
+      <c r="H65" s="379"/>
+      <c r="I65" s="379"/>
+      <c r="J65" s="379"/>
+      <c r="K65" s="379"/>
+      <c r="L65" s="379"/>
+      <c r="M65" s="378"/>
     </row>
     <row r="66" spans="1:13" ht="15.75" thickBot="1">
       <c r="B66" t="s">
@@ -13327,15 +13470,15 @@
       <c r="B88" s="31"/>
       <c r="C88" s="31"/>
       <c r="D88" s="31"/>
-      <c r="E88" s="406"/>
-      <c r="F88" s="407"/>
-      <c r="G88" s="407"/>
-      <c r="H88" s="407"/>
-      <c r="I88" s="407"/>
-      <c r="J88" s="407"/>
-      <c r="K88" s="407"/>
-      <c r="L88" s="407"/>
-      <c r="M88" s="408"/>
+      <c r="E88" s="410"/>
+      <c r="F88" s="411"/>
+      <c r="G88" s="411"/>
+      <c r="H88" s="411"/>
+      <c r="I88" s="411"/>
+      <c r="J88" s="411"/>
+      <c r="K88" s="411"/>
+      <c r="L88" s="411"/>
+      <c r="M88" s="412"/>
       <c r="N88" s="31"/>
       <c r="O88" s="31"/>
     </row>
@@ -13707,15 +13850,15 @@
       <c r="B107" s="31"/>
       <c r="C107" s="31"/>
       <c r="D107" s="31"/>
-      <c r="E107" s="409"/>
-      <c r="F107" s="409"/>
-      <c r="G107" s="409"/>
-      <c r="H107" s="409"/>
-      <c r="I107" s="409"/>
-      <c r="J107" s="409"/>
-      <c r="K107" s="409"/>
-      <c r="L107" s="409"/>
-      <c r="M107" s="409"/>
+      <c r="E107" s="413"/>
+      <c r="F107" s="413"/>
+      <c r="G107" s="413"/>
+      <c r="H107" s="413"/>
+      <c r="I107" s="413"/>
+      <c r="J107" s="413"/>
+      <c r="K107" s="413"/>
+      <c r="L107" s="413"/>
+      <c r="M107" s="413"/>
       <c r="N107" s="31"/>
       <c r="O107" s="31"/>
     </row>
@@ -13733,15 +13876,15 @@
       <c r="B109" s="31"/>
       <c r="C109" s="31"/>
       <c r="D109" s="31"/>
-      <c r="E109" s="406"/>
-      <c r="F109" s="407"/>
-      <c r="G109" s="407"/>
-      <c r="H109" s="407"/>
-      <c r="I109" s="407"/>
-      <c r="J109" s="407"/>
-      <c r="K109" s="407"/>
-      <c r="L109" s="407"/>
-      <c r="M109" s="408"/>
+      <c r="E109" s="410"/>
+      <c r="F109" s="411"/>
+      <c r="G109" s="411"/>
+      <c r="H109" s="411"/>
+      <c r="I109" s="411"/>
+      <c r="J109" s="411"/>
+      <c r="K109" s="411"/>
+      <c r="L109" s="411"/>
+      <c r="M109" s="412"/>
       <c r="N109" s="31"/>
       <c r="O109" s="31"/>
     </row>
@@ -14124,15 +14267,15 @@
       <c r="D129" s="333"/>
       <c r="E129" s="31"/>
       <c r="F129" s="31"/>
-      <c r="G129" s="409"/>
-      <c r="H129" s="409"/>
-      <c r="I129" s="409"/>
-      <c r="J129" s="409"/>
-      <c r="K129" s="409"/>
-      <c r="L129" s="409"/>
-      <c r="M129" s="409"/>
-      <c r="N129" s="409"/>
-      <c r="O129" s="409"/>
+      <c r="G129" s="413"/>
+      <c r="H129" s="413"/>
+      <c r="I129" s="413"/>
+      <c r="J129" s="413"/>
+      <c r="K129" s="413"/>
+      <c r="L129" s="413"/>
+      <c r="M129" s="413"/>
+      <c r="N129" s="413"/>
+      <c r="O129" s="413"/>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="31"/>
@@ -17058,49 +17201,49 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13">
-      <c r="B2" s="410" t="s">
+      <c r="B2" s="414" t="s">
         <v>2045</v>
       </c>
-      <c r="C2" s="411"/>
-      <c r="D2" s="412"/>
-      <c r="F2" s="410" t="s">
+      <c r="C2" s="415"/>
+      <c r="D2" s="416"/>
+      <c r="F2" s="414" t="s">
         <v>2593</v>
       </c>
-      <c r="G2" s="411"/>
-      <c r="H2" s="411"/>
-      <c r="I2" s="412"/>
-      <c r="K2" s="410" t="s">
+      <c r="G2" s="415"/>
+      <c r="H2" s="415"/>
+      <c r="I2" s="416"/>
+      <c r="K2" s="414" t="s">
         <v>2595</v>
       </c>
-      <c r="L2" s="411"/>
-      <c r="M2" s="412"/>
+      <c r="L2" s="415"/>
+      <c r="M2" s="416"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="413"/>
-      <c r="C3" s="414"/>
-      <c r="D3" s="415"/>
-      <c r="F3" s="413"/>
-      <c r="G3" s="414"/>
-      <c r="H3" s="414"/>
-      <c r="I3" s="415"/>
-      <c r="K3" s="413"/>
-      <c r="L3" s="414"/>
-      <c r="M3" s="415"/>
+      <c r="B3" s="417"/>
+      <c r="C3" s="418"/>
+      <c r="D3" s="419"/>
+      <c r="F3" s="417"/>
+      <c r="G3" s="418"/>
+      <c r="H3" s="418"/>
+      <c r="I3" s="419"/>
+      <c r="K3" s="417"/>
+      <c r="L3" s="418"/>
+      <c r="M3" s="419"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="413"/>
-      <c r="C4" s="414"/>
-      <c r="D4" s="415"/>
-      <c r="F4" s="413"/>
-      <c r="G4" s="414"/>
-      <c r="H4" s="414"/>
-      <c r="I4" s="415"/>
-      <c r="K4" s="413"/>
-      <c r="L4" s="414"/>
-      <c r="M4" s="415"/>
+      <c r="B4" s="417"/>
+      <c r="C4" s="418"/>
+      <c r="D4" s="419"/>
+      <c r="F4" s="417"/>
+      <c r="G4" s="418"/>
+      <c r="H4" s="418"/>
+      <c r="I4" s="419"/>
+      <c r="K4" s="417"/>
+      <c r="L4" s="418"/>
+      <c r="M4" s="419"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="416" t="s">
+      <c r="A5" s="420" t="s">
         <v>1888</v>
       </c>
       <c r="B5" s="72"/>
@@ -17127,7 +17270,7 @@
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="416"/>
+      <c r="A6" s="420"/>
       <c r="B6" s="72"/>
       <c r="C6" s="32" t="s">
         <v>56</v>
@@ -17152,7 +17295,7 @@
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="416"/>
+      <c r="A7" s="420"/>
       <c r="B7" s="72"/>
       <c r="C7" s="32" t="s">
         <v>2597</v>
@@ -17185,7 +17328,7 @@
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="416" t="s">
+      <c r="A9" s="420" t="s">
         <v>201</v>
       </c>
       <c r="B9" s="277" t="s">
@@ -17206,7 +17349,7 @@
       <c r="M9" s="225"/>
     </row>
     <row r="10" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A10" s="416"/>
+      <c r="A10" s="420"/>
       <c r="B10" s="277"/>
       <c r="C10" s="278" t="s">
         <v>2602</v>
@@ -17228,7 +17371,7 @@
       <c r="M10" s="225"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="416"/>
+      <c r="A11" s="420"/>
       <c r="B11" s="277"/>
       <c r="C11" s="133"/>
       <c r="D11" s="225"/>
@@ -17248,7 +17391,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="416"/>
+      <c r="A12" s="420"/>
       <c r="B12" s="277"/>
       <c r="C12" s="133"/>
       <c r="D12" s="225"/>
@@ -17428,23 +17571,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="417" t="s">
+      <c r="A1" s="421" t="s">
         <v>2235</v>
       </c>
-      <c r="B1" s="417"/>
-      <c r="C1" s="417"/>
-      <c r="D1" s="417"/>
-      <c r="E1" s="417"/>
-      <c r="F1" s="417"/>
-      <c r="I1" s="417" t="s">
+      <c r="B1" s="421"/>
+      <c r="C1" s="421"/>
+      <c r="D1" s="421"/>
+      <c r="E1" s="421"/>
+      <c r="F1" s="421"/>
+      <c r="I1" s="421" t="s">
         <v>2247</v>
       </c>
-      <c r="J1" s="417"/>
-      <c r="K1" s="417"/>
-      <c r="L1" s="417"/>
-      <c r="M1" s="417"/>
-      <c r="N1" s="417"/>
-      <c r="O1" s="417"/>
+      <c r="J1" s="421"/>
+      <c r="K1" s="421"/>
+      <c r="L1" s="421"/>
+      <c r="M1" s="421"/>
+      <c r="N1" s="421"/>
+      <c r="O1" s="421"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -17600,28 +17743,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="370" t="s">
+      <c r="A12" s="374" t="s">
         <v>2249</v>
       </c>
-      <c r="B12" s="372"/>
-      <c r="C12" s="372"/>
-      <c r="D12" s="372"/>
-      <c r="E12" s="372"/>
-      <c r="F12" s="372"/>
-      <c r="G12" s="372"/>
-      <c r="H12" s="371"/>
-      <c r="I12" s="370" t="s">
+      <c r="B12" s="376"/>
+      <c r="C12" s="376"/>
+      <c r="D12" s="376"/>
+      <c r="E12" s="376"/>
+      <c r="F12" s="376"/>
+      <c r="G12" s="376"/>
+      <c r="H12" s="375"/>
+      <c r="I12" s="374" t="s">
         <v>2249</v>
       </c>
-      <c r="J12" s="372"/>
-      <c r="K12" s="372"/>
-      <c r="L12" s="372"/>
-      <c r="M12" s="372"/>
-      <c r="N12" s="372"/>
-      <c r="O12" s="372"/>
-      <c r="P12" s="372"/>
-      <c r="Q12" s="372"/>
-      <c r="R12" s="371"/>
+      <c r="J12" s="376"/>
+      <c r="K12" s="376"/>
+      <c r="L12" s="376"/>
+      <c r="M12" s="376"/>
+      <c r="N12" s="376"/>
+      <c r="O12" s="376"/>
+      <c r="P12" s="376"/>
+      <c r="Q12" s="376"/>
+      <c r="R12" s="375"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="23" t="s">
@@ -17849,14 +17992,14 @@
       <c r="R21" s="30"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="417" t="s">
+      <c r="A24" s="421" t="s">
         <v>2235</v>
       </c>
-      <c r="B24" s="417"/>
-      <c r="C24" s="417"/>
-      <c r="D24" s="417"/>
-      <c r="E24" s="417"/>
-      <c r="F24" s="417"/>
+      <c r="B24" s="421"/>
+      <c r="C24" s="421"/>
+      <c r="D24" s="421"/>
+      <c r="E24" s="421"/>
+      <c r="F24" s="421"/>
       <c r="H24" s="233" t="s">
         <v>2247</v>
       </c>
@@ -17866,11 +18009,11 @@
       <c r="L24" s="233"/>
       <c r="M24" s="233"/>
       <c r="N24" s="233"/>
-      <c r="P24" s="417" t="s">
+      <c r="P24" s="421" t="s">
         <v>2288</v>
       </c>
-      <c r="Q24" s="417"/>
-      <c r="R24" s="417"/>
+      <c r="Q24" s="421"/>
+      <c r="R24" s="421"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="98" t="s">
@@ -18110,28 +18253,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="370" t="s">
+      <c r="A35" s="374" t="s">
         <v>2289</v>
       </c>
-      <c r="B35" s="372"/>
-      <c r="C35" s="372"/>
-      <c r="D35" s="372"/>
-      <c r="E35" s="372"/>
-      <c r="F35" s="372"/>
-      <c r="G35" s="372"/>
-      <c r="H35" s="371"/>
-      <c r="I35" s="370" t="s">
+      <c r="B35" s="376"/>
+      <c r="C35" s="376"/>
+      <c r="D35" s="376"/>
+      <c r="E35" s="376"/>
+      <c r="F35" s="376"/>
+      <c r="G35" s="376"/>
+      <c r="H35" s="375"/>
+      <c r="I35" s="374" t="s">
         <v>982</v>
       </c>
-      <c r="J35" s="372"/>
-      <c r="K35" s="372"/>
-      <c r="L35" s="372"/>
-      <c r="M35" s="372"/>
-      <c r="N35" s="372"/>
-      <c r="O35" s="372"/>
-      <c r="P35" s="372"/>
-      <c r="Q35" s="372"/>
-      <c r="R35" s="371"/>
+      <c r="J35" s="376"/>
+      <c r="K35" s="376"/>
+      <c r="L35" s="376"/>
+      <c r="M35" s="376"/>
+      <c r="N35" s="376"/>
+      <c r="O35" s="376"/>
+      <c r="P35" s="376"/>
+      <c r="Q35" s="376"/>
+      <c r="R35" s="375"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="23" t="s">
@@ -36967,7 +37110,7 @@
       <c r="K3" s="91"/>
       <c r="L3" s="296"/>
       <c r="M3" s="92"/>
-      <c r="N3" s="418" t="s">
+      <c r="N3" s="422" t="s">
         <v>2695</v>
       </c>
       <c r="O3" s="43"/>
@@ -37000,7 +37143,7 @@
         <v>940</v>
       </c>
       <c r="M4" s="198"/>
-      <c r="N4" s="418"/>
+      <c r="N4" s="422"/>
       <c r="O4" s="43"/>
       <c r="P4" s="43"/>
       <c r="Q4" s="44"/>
@@ -37017,7 +37160,7 @@
         <v>12345</v>
       </c>
       <c r="M5" s="300"/>
-      <c r="N5" s="418"/>
+      <c r="N5" s="422"/>
       <c r="O5" s="43"/>
       <c r="P5" s="43"/>
       <c r="Q5" s="44"/>
@@ -37035,7 +37178,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
       <c r="M6" s="66"/>
-      <c r="N6" s="418"/>
+      <c r="N6" s="422"/>
       <c r="O6" s="43"/>
       <c r="P6" s="43"/>
       <c r="Q6" s="44"/>
@@ -37059,7 +37202,7 @@
       <c r="K7" s="91"/>
       <c r="L7" s="296"/>
       <c r="M7" s="92"/>
-      <c r="N7" s="418"/>
+      <c r="N7" s="422"/>
       <c r="O7" s="43"/>
       <c r="P7" s="43"/>
       <c r="Q7" s="44"/>
@@ -37081,7 +37224,7 @@
         <v>456</v>
       </c>
       <c r="M8" s="198"/>
-      <c r="N8" s="418"/>
+      <c r="N8" s="422"/>
       <c r="O8" s="43"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
@@ -37103,7 +37246,7 @@
         <v>12346</v>
       </c>
       <c r="M9" s="300"/>
-      <c r="N9" s="418"/>
+      <c r="N9" s="422"/>
       <c r="O9" s="43"/>
       <c r="P9" s="43"/>
       <c r="Q9" s="44"/>
@@ -37121,7 +37264,7 @@
       <c r="K10" s="66"/>
       <c r="L10" s="66"/>
       <c r="M10" s="66"/>
-      <c r="N10" s="418"/>
+      <c r="N10" s="422"/>
       <c r="O10" s="43"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
@@ -37139,7 +37282,7 @@
       <c r="K11" s="66"/>
       <c r="L11" s="66"/>
       <c r="M11" s="66"/>
-      <c r="N11" s="418"/>
+      <c r="N11" s="422"/>
       <c r="O11" s="43"/>
       <c r="P11" s="43"/>
       <c r="Q11" s="44"/>
@@ -37155,7 +37298,7 @@
       <c r="K12" s="66"/>
       <c r="L12" s="66"/>
       <c r="M12" s="66"/>
-      <c r="N12" s="418"/>
+      <c r="N12" s="422"/>
       <c r="O12" s="43"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
@@ -37168,7 +37311,7 @@
       <c r="K13" s="43"/>
       <c r="L13" s="43"/>
       <c r="M13" s="43"/>
-      <c r="N13" s="418"/>
+      <c r="N13" s="422"/>
       <c r="O13" s="43"/>
       <c r="P13" s="43"/>
       <c r="Q13" s="44"/>
@@ -37189,7 +37332,7 @@
       <c r="K14" s="91"/>
       <c r="L14" s="296"/>
       <c r="M14" s="92"/>
-      <c r="N14" s="418"/>
+      <c r="N14" s="422"/>
       <c r="O14" s="43"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="44"/>
@@ -37212,7 +37355,7 @@
         <v>491</v>
       </c>
       <c r="M15" s="198"/>
-      <c r="N15" s="418"/>
+      <c r="N15" s="422"/>
       <c r="O15" s="43"/>
       <c r="P15" s="43"/>
       <c r="Q15" s="44"/>
@@ -37232,7 +37375,7 @@
         <v>123123</v>
       </c>
       <c r="M16" s="300"/>
-      <c r="N16" s="418"/>
+      <c r="N16" s="422"/>
       <c r="O16" s="43"/>
       <c r="P16" s="43"/>
       <c r="Q16" s="44"/>
@@ -52126,24 +52269,24 @@
     <row r="17" spans="1:14" s="100" customFormat="1"/>
     <row r="22" spans="1:14" ht="15.75" thickBot="1">
       <c r="A22" s="98"/>
-      <c r="B22" s="419" t="s">
+      <c r="B22" s="423" t="s">
         <v>1102</v>
       </c>
-      <c r="C22" s="419"/>
+      <c r="C22" s="423"/>
       <c r="D22" s="98"/>
       <c r="E22" s="98"/>
-      <c r="F22" s="419" t="s">
+      <c r="F22" s="423" t="s">
         <v>1206</v>
       </c>
-      <c r="G22" s="419"/>
-      <c r="H22" s="419"/>
+      <c r="G22" s="423"/>
+      <c r="H22" s="423"/>
       <c r="I22" s="98"/>
       <c r="J22" s="98"/>
-      <c r="K22" s="419" t="s">
+      <c r="K22" s="423" t="s">
         <v>1104</v>
       </c>
-      <c r="L22" s="419"/>
-      <c r="M22" s="419"/>
+      <c r="L22" s="423"/>
+      <c r="M22" s="423"/>
       <c r="N22" s="98"/>
     </row>
     <row r="23" spans="1:14">
@@ -54565,7 +54708,7 @@
       <c r="L1" s="117"/>
       <c r="M1" s="117"/>
       <c r="N1" s="117"/>
-      <c r="O1" s="359" t="s">
+      <c r="O1" s="363" t="s">
         <v>2883</v>
       </c>
       <c r="R1" s="38">
@@ -54584,29 +54727,29 @@
       <c r="L2" s="117"/>
       <c r="M2" s="117"/>
       <c r="N2" s="117"/>
-      <c r="O2" s="359"/>
+      <c r="O2" s="363"/>
     </row>
     <row r="3" spans="1:46" ht="15.75" thickBot="1">
-      <c r="H3" s="367" t="s">
+      <c r="H3" s="371" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="368"/>
-      <c r="J3" s="368"/>
-      <c r="K3" s="368"/>
-      <c r="L3" s="369"/>
-      <c r="O3" s="359"/>
+      <c r="I3" s="372"/>
+      <c r="J3" s="372"/>
+      <c r="K3" s="372"/>
+      <c r="L3" s="373"/>
+      <c r="O3" s="363"/>
       <c r="P3" t="s">
         <v>1434</v>
       </c>
     </row>
     <row r="4" spans="1:46" ht="15.75" thickBot="1">
-      <c r="O4" s="359"/>
+      <c r="O4" s="363"/>
       <c r="P4" t="s">
         <v>2885</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D5" s="360" t="s">
+      <c r="D5" s="364" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
@@ -54623,35 +54766,35 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="359"/>
+      <c r="O5" s="363"/>
       <c r="P5" t="s">
         <v>2886</v>
       </c>
     </row>
     <row r="6" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D6" s="360"/>
+      <c r="D6" s="364"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="370" t="s">
+      <c r="G6" s="374" t="s">
         <v>1440</v>
       </c>
-      <c r="H6" s="371"/>
+      <c r="H6" s="375"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="370" t="s">
+      <c r="J6" s="374" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="371"/>
+      <c r="K6" s="375"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="370" t="s">
+      <c r="M6" s="374" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="372"/>
-      <c r="O6" s="359"/>
+      <c r="N6" s="376"/>
+      <c r="O6" s="363"/>
       <c r="P6" t="s">
         <v>2868</v>
       </c>
     </row>
     <row r="7" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D7" s="360"/>
+      <c r="D7" s="364"/>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -54661,7 +54804,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="359"/>
+      <c r="O7" s="363"/>
       <c r="AC7" s="113" t="s">
         <v>2836</v>
       </c>
@@ -54688,23 +54831,23 @@
       <c r="AT7" s="114"/>
     </row>
     <row r="8" spans="1:46">
-      <c r="D8" s="360"/>
+      <c r="D8" s="364"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="373" t="s">
+      <c r="G8" s="377" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="374"/>
+      <c r="H8" s="378"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="373" t="s">
+      <c r="J8" s="377" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="374"/>
+      <c r="K8" s="378"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="373" t="s">
+      <c r="M8" s="377" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="375"/>
-      <c r="O8" s="359"/>
+      <c r="N8" s="379"/>
+      <c r="O8" s="363"/>
       <c r="Q8" s="132"/>
       <c r="S8" t="s">
         <v>2827</v>
@@ -54731,7 +54874,7 @@
       <c r="AT8" s="68"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="D9" s="360"/>
+      <c r="D9" s="364"/>
       <c r="F9" s="3"/>
       <c r="G9" s="220"/>
       <c r="H9" s="220"/>
@@ -54743,7 +54886,7 @@
       <c r="L9" s="219"/>
       <c r="M9" s="220"/>
       <c r="N9" s="220"/>
-      <c r="O9" s="359"/>
+      <c r="O9" s="363"/>
       <c r="Q9" s="132"/>
       <c r="S9" t="s">
         <v>2820</v>
@@ -54780,19 +54923,19 @@
       <c r="AT9" s="68"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="D10" s="360"/>
-      <c r="F10" s="363" t="s">
+      <c r="D10" s="364"/>
+      <c r="F10" s="367" t="s">
         <v>2144</v>
       </c>
-      <c r="G10" s="364"/>
-      <c r="H10" s="364"/>
-      <c r="I10" s="364"/>
-      <c r="J10" s="364"/>
-      <c r="K10" s="364"/>
-      <c r="L10" s="364"/>
-      <c r="M10" s="364"/>
-      <c r="N10" s="364"/>
-      <c r="O10" s="358" t="s">
+      <c r="G10" s="368"/>
+      <c r="H10" s="368"/>
+      <c r="I10" s="368"/>
+      <c r="J10" s="368"/>
+      <c r="K10" s="368"/>
+      <c r="L10" s="368"/>
+      <c r="M10" s="368"/>
+      <c r="N10" s="368"/>
+      <c r="O10" s="362" t="s">
         <v>2882</v>
       </c>
       <c r="Q10" s="132"/>
@@ -54830,20 +54973,20 @@
       <c r="A11" t="s">
         <v>2807</v>
       </c>
-      <c r="D11" s="360"/>
+      <c r="D11" s="364"/>
       <c r="E11" t="s">
         <v>2859</v>
       </c>
-      <c r="F11" s="365"/>
-      <c r="G11" s="366"/>
-      <c r="H11" s="366"/>
-      <c r="I11" s="366"/>
-      <c r="J11" s="366"/>
-      <c r="K11" s="366"/>
-      <c r="L11" s="366"/>
-      <c r="M11" s="366"/>
-      <c r="N11" s="366"/>
-      <c r="O11" s="358"/>
+      <c r="F11" s="369"/>
+      <c r="G11" s="370"/>
+      <c r="H11" s="370"/>
+      <c r="I11" s="370"/>
+      <c r="J11" s="370"/>
+      <c r="K11" s="370"/>
+      <c r="L11" s="370"/>
+      <c r="M11" s="370"/>
+      <c r="N11" s="370"/>
+      <c r="O11" s="362"/>
       <c r="P11" t="s">
         <v>2884</v>
       </c>
@@ -54879,7 +55022,7 @@
       <c r="A12" t="s">
         <v>2808</v>
       </c>
-      <c r="D12" s="360"/>
+      <c r="D12" s="364"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -54889,7 +55032,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="358"/>
+      <c r="O12" s="362"/>
       <c r="AC12" s="166" t="s">
         <v>2838</v>
       </c>
@@ -54914,7 +55057,7 @@
       <c r="AT12" s="68"/>
     </row>
     <row r="13" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D13" s="360"/>
+      <c r="D13" s="364"/>
       <c r="E13" t="s">
         <v>1479</v>
       </c>
@@ -54933,7 +55076,7 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="358"/>
+      <c r="O13" s="362"/>
       <c r="AC13" s="166"/>
       <c r="AD13" s="20" t="s">
         <v>2838</v>
@@ -54956,22 +55099,22 @@
       <c r="AT13" s="68"/>
     </row>
     <row r="14" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D14" s="360"/>
+      <c r="D14" s="364"/>
       <c r="E14" t="s">
         <v>2809</v>
       </c>
-      <c r="F14" s="361" t="s">
+      <c r="F14" s="365" t="s">
         <v>2810</v>
       </c>
-      <c r="G14" s="362"/>
-      <c r="H14" s="362"/>
-      <c r="I14" s="362"/>
-      <c r="J14" s="362"/>
-      <c r="K14" s="362"/>
-      <c r="L14" s="362"/>
-      <c r="M14" s="362"/>
-      <c r="N14" s="362"/>
-      <c r="O14" s="358"/>
+      <c r="G14" s="366"/>
+      <c r="H14" s="366"/>
+      <c r="I14" s="366"/>
+      <c r="J14" s="366"/>
+      <c r="K14" s="366"/>
+      <c r="L14" s="366"/>
+      <c r="M14" s="366"/>
+      <c r="N14" s="366"/>
+      <c r="O14" s="362"/>
       <c r="P14" t="s">
         <v>2817</v>
       </c>
@@ -55001,7 +55144,7 @@
       <c r="B15" t="s">
         <v>2797</v>
       </c>
-      <c r="D15" s="360" t="s">
+      <c r="D15" s="364" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="129"/>
@@ -55039,7 +55182,7 @@
       <c r="AT15" s="68"/>
     </row>
     <row r="16" spans="1:46">
-      <c r="D16" s="360"/>
+      <c r="D16" s="364"/>
       <c r="E16" t="s">
         <v>1441</v>
       </c>
@@ -55094,7 +55237,7 @@
       <c r="AT16" s="68"/>
     </row>
     <row r="17" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D17" s="360"/>
+      <c r="D17" s="364"/>
       <c r="F17" s="131"/>
       <c r="G17" s="128" t="s">
         <v>10</v>
@@ -55142,7 +55285,7 @@
       <c r="AT17" s="68"/>
     </row>
     <row r="18" spans="1:46">
-      <c r="D18" s="360"/>
+      <c r="D18" s="364"/>
       <c r="F18" s="129"/>
       <c r="G18" s="128" t="s">
         <v>11</v>
@@ -55193,7 +55336,7 @@
       <c r="B19" t="s">
         <v>2798</v>
       </c>
-      <c r="D19" s="360"/>
+      <c r="D19" s="364"/>
       <c r="F19" s="130"/>
       <c r="G19" s="13"/>
       <c r="H19" s="11"/>
@@ -55244,7 +55387,7 @@
       <c r="AT19" s="68"/>
     </row>
     <row r="20" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D20" s="360"/>
+      <c r="D20" s="364"/>
       <c r="E20" t="s">
         <v>1442</v>
       </c>
@@ -55297,7 +55440,7 @@
       <c r="AT20" s="68"/>
     </row>
     <row r="21" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D21" s="360"/>
+      <c r="D21" s="364"/>
       <c r="F21" s="131"/>
       <c r="G21" s="11" t="s">
         <v>15</v>
@@ -55333,7 +55476,7 @@
       <c r="AT21" s="68"/>
     </row>
     <row r="22" spans="1:46">
-      <c r="D22" s="360"/>
+      <c r="D22" s="364"/>
       <c r="F22" s="130"/>
       <c r="G22" s="11" t="s">
         <v>2129</v>
@@ -55383,7 +55526,7 @@
       <c r="AT22" s="68"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="D23" s="360"/>
+      <c r="D23" s="364"/>
       <c r="E23" t="s">
         <v>1441</v>
       </c>
@@ -55429,7 +55572,7 @@
       <c r="A24" t="s">
         <v>2802</v>
       </c>
-      <c r="D24" s="360"/>
+      <c r="D24" s="364"/>
       <c r="F24" s="131"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -55459,7 +55602,7 @@
       <c r="AT24" s="68"/>
     </row>
     <row r="25" spans="1:46">
-      <c r="D25" s="360"/>
+      <c r="D25" s="364"/>
       <c r="E25" t="s">
         <v>2796</v>
       </c>
@@ -56009,12 +56152,12 @@
       <c r="O43" s="103"/>
       <c r="P43" s="103"/>
       <c r="Q43" s="171"/>
-      <c r="X43" s="346" t="s">
+      <c r="X43" s="350" t="s">
         <v>1580</v>
       </c>
-      <c r="Y43" s="347"/>
-      <c r="Z43" s="347"/>
-      <c r="AA43" s="348"/>
+      <c r="Y43" s="351"/>
+      <c r="Z43" s="351"/>
+      <c r="AA43" s="352"/>
       <c r="AC43" t="s">
         <v>1435</v>
       </c>
@@ -56047,10 +56190,10 @@
       <c r="M44" s="306"/>
       <c r="N44" s="306"/>
       <c r="O44" s="306"/>
-      <c r="X44" s="349"/>
-      <c r="Y44" s="350"/>
-      <c r="Z44" s="350"/>
-      <c r="AA44" s="351"/>
+      <c r="X44" s="353"/>
+      <c r="Y44" s="354"/>
+      <c r="Z44" s="354"/>
+      <c r="AA44" s="355"/>
       <c r="XFD44" s="32" t="s">
         <v>1443</v>
       </c>
@@ -56074,10 +56217,10 @@
       <c r="M45" s="306"/>
       <c r="N45" s="306"/>
       <c r="O45" s="306"/>
-      <c r="X45" s="352"/>
-      <c r="Y45" s="353"/>
-      <c r="Z45" s="353"/>
-      <c r="AA45" s="354"/>
+      <c r="X45" s="356"/>
+      <c r="Y45" s="357"/>
+      <c r="Z45" s="357"/>
+      <c r="AA45" s="358"/>
     </row>
     <row r="46" spans="1:46 16384:16384">
       <c r="B46" t="s">
@@ -56163,20 +56306,20 @@
       <c r="V49" t="s">
         <v>2880</v>
       </c>
-      <c r="X49" s="355" t="s">
+      <c r="X49" s="359" t="s">
         <v>2860</v>
       </c>
-      <c r="Y49" s="356"/>
-      <c r="Z49" s="356"/>
-      <c r="AA49" s="356"/>
-      <c r="AB49" s="356"/>
-      <c r="AC49" s="356"/>
-      <c r="AD49" s="356"/>
-      <c r="AE49" s="356"/>
-      <c r="AF49" s="356"/>
-      <c r="AG49" s="356"/>
-      <c r="AH49" s="356"/>
-      <c r="AI49" s="357"/>
+      <c r="Y49" s="360"/>
+      <c r="Z49" s="360"/>
+      <c r="AA49" s="360"/>
+      <c r="AB49" s="360"/>
+      <c r="AC49" s="360"/>
+      <c r="AD49" s="360"/>
+      <c r="AE49" s="360"/>
+      <c r="AF49" s="360"/>
+      <c r="AG49" s="360"/>
+      <c r="AH49" s="360"/>
+      <c r="AI49" s="361"/>
     </row>
     <row r="50" spans="1:35">
       <c r="B50" t="s">
@@ -57224,35 +57367,35 @@
       </c>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="421" t="s">
+      <c r="B8" s="425" t="s">
         <v>2432</v>
       </c>
-      <c r="C8" s="421"/>
-      <c r="F8" s="421" t="s">
+      <c r="C8" s="425"/>
+      <c r="F8" s="425" t="s">
         <v>2433</v>
       </c>
-      <c r="G8" s="421"/>
-      <c r="I8" s="421" t="s">
+      <c r="G8" s="425"/>
+      <c r="I8" s="425" t="s">
         <v>2433</v>
       </c>
-      <c r="J8" s="421"/>
+      <c r="J8" s="425"/>
       <c r="M8" s="216" t="s">
         <v>2490</v>
       </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="F9" s="421" t="s">
+      <c r="F9" s="425" t="s">
         <v>2434</v>
       </c>
-      <c r="G9" s="421"/>
-      <c r="I9" s="421" t="s">
+      <c r="G9" s="425"/>
+      <c r="I9" s="425" t="s">
         <v>2435</v>
       </c>
-      <c r="J9" s="421"/>
-      <c r="M9" s="422" t="s">
+      <c r="J9" s="425"/>
+      <c r="M9" s="426" t="s">
         <v>2433</v>
       </c>
-      <c r="N9" s="422"/>
+      <c r="N9" s="426"/>
     </row>
     <row r="10" spans="1:31">
       <c r="M10" s="273" t="s">
@@ -57261,19 +57404,19 @@
       <c r="N10" s="273"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="E11" s="420" t="s">
+      <c r="E11" s="424" t="s">
         <v>2437</v>
       </c>
-      <c r="F11" s="420"/>
-      <c r="G11" s="420"/>
-      <c r="H11" s="420"/>
-      <c r="I11" s="420"/>
-      <c r="J11" s="420"/>
-      <c r="K11" s="420"/>
-      <c r="L11" s="420"/>
-      <c r="M11" s="420"/>
-      <c r="N11" s="420"/>
-      <c r="O11" s="420"/>
+      <c r="F11" s="424"/>
+      <c r="G11" s="424"/>
+      <c r="H11" s="424"/>
+      <c r="I11" s="424"/>
+      <c r="J11" s="424"/>
+      <c r="K11" s="424"/>
+      <c r="L11" s="424"/>
+      <c r="M11" s="424"/>
+      <c r="N11" s="424"/>
+      <c r="O11" s="424"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
@@ -61033,11 +61176,11 @@
       <c r="L6" s="35" t="s">
         <v>1378</v>
       </c>
-      <c r="M6" s="397" t="s">
+      <c r="M6" s="401" t="s">
         <v>1379</v>
       </c>
-      <c r="N6" s="397"/>
-      <c r="O6" s="397"/>
+      <c r="N6" s="401"/>
+      <c r="O6" s="401"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
@@ -61811,98 +61954,98 @@
   <sheetData>
     <row r="1" spans="3:16" ht="15.75" thickBot="1"/>
     <row r="2" spans="3:16">
-      <c r="C2" s="391" t="s">
+      <c r="C2" s="395" t="s">
         <v>2901</v>
       </c>
-      <c r="D2" s="392"/>
-      <c r="E2" s="392"/>
-      <c r="F2" s="392"/>
-      <c r="G2" s="392"/>
-      <c r="H2" s="392"/>
-      <c r="I2" s="392"/>
-      <c r="J2" s="392"/>
-      <c r="K2" s="392"/>
+      <c r="D2" s="396"/>
+      <c r="E2" s="396"/>
+      <c r="F2" s="396"/>
+      <c r="G2" s="396"/>
+      <c r="H2" s="396"/>
+      <c r="I2" s="396"/>
+      <c r="J2" s="396"/>
+      <c r="K2" s="396"/>
     </row>
     <row r="3" spans="3:16">
-      <c r="C3" s="393"/>
-      <c r="D3" s="394"/>
-      <c r="E3" s="394"/>
-      <c r="F3" s="394"/>
-      <c r="G3" s="394"/>
-      <c r="H3" s="394"/>
-      <c r="I3" s="394"/>
-      <c r="J3" s="394"/>
-      <c r="K3" s="394"/>
+      <c r="C3" s="397"/>
+      <c r="D3" s="398"/>
+      <c r="E3" s="398"/>
+      <c r="F3" s="398"/>
+      <c r="G3" s="398"/>
+      <c r="H3" s="398"/>
+      <c r="I3" s="398"/>
+      <c r="J3" s="398"/>
+      <c r="K3" s="398"/>
       <c r="M3" t="s">
         <v>2902</v>
       </c>
     </row>
     <row r="4" spans="3:16">
-      <c r="C4" s="393"/>
-      <c r="D4" s="394"/>
-      <c r="E4" s="394"/>
-      <c r="F4" s="394"/>
-      <c r="G4" s="394"/>
-      <c r="H4" s="394"/>
-      <c r="I4" s="394"/>
-      <c r="J4" s="394"/>
-      <c r="K4" s="394"/>
+      <c r="C4" s="397"/>
+      <c r="D4" s="398"/>
+      <c r="E4" s="398"/>
+      <c r="F4" s="398"/>
+      <c r="G4" s="398"/>
+      <c r="H4" s="398"/>
+      <c r="I4" s="398"/>
+      <c r="J4" s="398"/>
+      <c r="K4" s="398"/>
       <c r="N4" t="s">
         <v>2903</v>
       </c>
     </row>
     <row r="5" spans="3:16">
-      <c r="C5" s="393"/>
-      <c r="D5" s="394"/>
-      <c r="E5" s="394"/>
-      <c r="F5" s="394"/>
-      <c r="G5" s="394"/>
-      <c r="H5" s="394"/>
-      <c r="I5" s="394"/>
-      <c r="J5" s="394"/>
-      <c r="K5" s="394"/>
+      <c r="C5" s="397"/>
+      <c r="D5" s="398"/>
+      <c r="E5" s="398"/>
+      <c r="F5" s="398"/>
+      <c r="G5" s="398"/>
+      <c r="H5" s="398"/>
+      <c r="I5" s="398"/>
+      <c r="J5" s="398"/>
+      <c r="K5" s="398"/>
       <c r="O5" t="s">
         <v>2904</v>
       </c>
     </row>
     <row r="6" spans="3:16">
-      <c r="C6" s="393"/>
-      <c r="D6" s="394"/>
-      <c r="E6" s="394"/>
-      <c r="F6" s="394"/>
-      <c r="G6" s="394"/>
-      <c r="H6" s="394"/>
-      <c r="I6" s="394"/>
-      <c r="J6" s="394"/>
-      <c r="K6" s="394"/>
+      <c r="C6" s="397"/>
+      <c r="D6" s="398"/>
+      <c r="E6" s="398"/>
+      <c r="F6" s="398"/>
+      <c r="G6" s="398"/>
+      <c r="H6" s="398"/>
+      <c r="I6" s="398"/>
+      <c r="J6" s="398"/>
+      <c r="K6" s="398"/>
       <c r="O6" t="s">
         <v>2128</v>
       </c>
     </row>
     <row r="7" spans="3:16">
-      <c r="C7" s="393"/>
-      <c r="D7" s="394"/>
-      <c r="E7" s="394"/>
-      <c r="F7" s="394"/>
-      <c r="G7" s="394"/>
-      <c r="H7" s="394"/>
-      <c r="I7" s="394"/>
-      <c r="J7" s="394"/>
-      <c r="K7" s="394"/>
+      <c r="C7" s="397"/>
+      <c r="D7" s="398"/>
+      <c r="E7" s="398"/>
+      <c r="F7" s="398"/>
+      <c r="G7" s="398"/>
+      <c r="H7" s="398"/>
+      <c r="I7" s="398"/>
+      <c r="J7" s="398"/>
+      <c r="K7" s="398"/>
       <c r="O7" t="s">
         <v>2905</v>
       </c>
     </row>
     <row r="8" spans="3:16" ht="15.75" thickBot="1">
-      <c r="C8" s="395"/>
-      <c r="D8" s="396"/>
-      <c r="E8" s="396"/>
-      <c r="F8" s="396"/>
-      <c r="G8" s="396"/>
-      <c r="H8" s="396"/>
-      <c r="I8" s="396"/>
-      <c r="J8" s="396"/>
-      <c r="K8" s="396"/>
+      <c r="C8" s="399"/>
+      <c r="D8" s="400"/>
+      <c r="E8" s="400"/>
+      <c r="F8" s="400"/>
+      <c r="G8" s="400"/>
+      <c r="H8" s="400"/>
+      <c r="I8" s="400"/>
+      <c r="J8" s="400"/>
+      <c r="K8" s="400"/>
       <c r="O8" t="s">
         <v>2906</v>
       </c>
@@ -61939,35 +62082,35 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="3:16" ht="15.75" thickBot="1">
-      <c r="C11" s="361" t="s">
+      <c r="C11" s="365" t="s">
         <v>2810</v>
       </c>
-      <c r="D11" s="362"/>
-      <c r="E11" s="362"/>
-      <c r="F11" s="362"/>
-      <c r="G11" s="362"/>
-      <c r="H11" s="362"/>
-      <c r="I11" s="362"/>
-      <c r="J11" s="362"/>
-      <c r="K11" s="362"/>
+      <c r="D11" s="366"/>
+      <c r="E11" s="366"/>
+      <c r="F11" s="366"/>
+      <c r="G11" s="366"/>
+      <c r="H11" s="366"/>
+      <c r="I11" s="366"/>
+      <c r="J11" s="366"/>
+      <c r="K11" s="366"/>
       <c r="N11" t="s">
         <v>2908</v>
       </c>
     </row>
     <row r="12" spans="3:16">
       <c r="C12" s="129"/>
-      <c r="D12" s="376" t="s">
+      <c r="D12" s="380" t="s">
         <v>2931</v>
       </c>
-      <c r="E12" s="377"/>
-      <c r="F12" s="377"/>
-      <c r="G12" s="377"/>
-      <c r="H12" s="378"/>
-      <c r="I12" s="385" t="s">
+      <c r="E12" s="381"/>
+      <c r="F12" s="381"/>
+      <c r="G12" s="381"/>
+      <c r="H12" s="382"/>
+      <c r="I12" s="389" t="s">
         <v>2919</v>
       </c>
-      <c r="J12" s="386"/>
-      <c r="K12" s="387"/>
+      <c r="J12" s="390"/>
+      <c r="K12" s="391"/>
       <c r="O12" t="s">
         <v>2909</v>
       </c>
@@ -61976,53 +62119,53 @@
       <c r="C13" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="379"/>
-      <c r="E13" s="380"/>
-      <c r="F13" s="380"/>
-      <c r="G13" s="380"/>
-      <c r="H13" s="381"/>
-      <c r="I13" s="388"/>
-      <c r="J13" s="389"/>
-      <c r="K13" s="390"/>
+      <c r="D13" s="383"/>
+      <c r="E13" s="384"/>
+      <c r="F13" s="384"/>
+      <c r="G13" s="384"/>
+      <c r="H13" s="385"/>
+      <c r="I13" s="392"/>
+      <c r="J13" s="393"/>
+      <c r="K13" s="394"/>
       <c r="P13" t="s">
         <v>2910</v>
       </c>
     </row>
     <row r="14" spans="3:16" ht="15.75" thickBot="1">
       <c r="C14" s="131"/>
-      <c r="D14" s="379"/>
-      <c r="E14" s="380"/>
-      <c r="F14" s="380"/>
-      <c r="G14" s="380"/>
-      <c r="H14" s="381"/>
-      <c r="I14" s="388"/>
-      <c r="J14" s="389"/>
-      <c r="K14" s="390"/>
+      <c r="D14" s="383"/>
+      <c r="E14" s="384"/>
+      <c r="F14" s="384"/>
+      <c r="G14" s="384"/>
+      <c r="H14" s="385"/>
+      <c r="I14" s="392"/>
+      <c r="J14" s="393"/>
+      <c r="K14" s="394"/>
     </row>
     <row r="15" spans="3:16">
       <c r="C15" s="129"/>
-      <c r="D15" s="379"/>
-      <c r="E15" s="380"/>
-      <c r="F15" s="380"/>
-      <c r="G15" s="380"/>
-      <c r="H15" s="381"/>
-      <c r="I15" s="388"/>
-      <c r="J15" s="389"/>
-      <c r="K15" s="390"/>
+      <c r="D15" s="383"/>
+      <c r="E15" s="384"/>
+      <c r="F15" s="384"/>
+      <c r="G15" s="384"/>
+      <c r="H15" s="385"/>
+      <c r="I15" s="392"/>
+      <c r="J15" s="393"/>
+      <c r="K15" s="394"/>
       <c r="O15" t="s">
         <v>2911</v>
       </c>
     </row>
     <row r="16" spans="3:16">
       <c r="C16" s="130"/>
-      <c r="D16" s="379"/>
-      <c r="E16" s="380"/>
-      <c r="F16" s="380"/>
-      <c r="G16" s="380"/>
-      <c r="H16" s="381"/>
-      <c r="I16" s="388"/>
-      <c r="J16" s="389"/>
-      <c r="K16" s="390"/>
+      <c r="D16" s="383"/>
+      <c r="E16" s="384"/>
+      <c r="F16" s="384"/>
+      <c r="G16" s="384"/>
+      <c r="H16" s="385"/>
+      <c r="I16" s="392"/>
+      <c r="J16" s="393"/>
+      <c r="K16" s="394"/>
       <c r="P16" t="s">
         <v>2912</v>
       </c>
@@ -62031,39 +62174,39 @@
       <c r="C17" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="379"/>
-      <c r="E17" s="380"/>
-      <c r="F17" s="380"/>
-      <c r="G17" s="380"/>
-      <c r="H17" s="381"/>
-      <c r="I17" s="388"/>
-      <c r="J17" s="389"/>
-      <c r="K17" s="390"/>
+      <c r="D17" s="383"/>
+      <c r="E17" s="384"/>
+      <c r="F17" s="384"/>
+      <c r="G17" s="384"/>
+      <c r="H17" s="385"/>
+      <c r="I17" s="392"/>
+      <c r="J17" s="393"/>
+      <c r="K17" s="394"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" thickBot="1">
       <c r="C18" s="131"/>
-      <c r="D18" s="379"/>
-      <c r="E18" s="380"/>
-      <c r="F18" s="380"/>
-      <c r="G18" s="380"/>
-      <c r="H18" s="381"/>
-      <c r="I18" s="388"/>
-      <c r="J18" s="389"/>
-      <c r="K18" s="390"/>
+      <c r="D18" s="383"/>
+      <c r="E18" s="384"/>
+      <c r="F18" s="384"/>
+      <c r="G18" s="384"/>
+      <c r="H18" s="385"/>
+      <c r="I18" s="392"/>
+      <c r="J18" s="393"/>
+      <c r="K18" s="394"/>
       <c r="M18" t="s">
         <v>2913</v>
       </c>
     </row>
     <row r="19" spans="2:16">
       <c r="C19" s="130"/>
-      <c r="D19" s="379"/>
-      <c r="E19" s="380"/>
-      <c r="F19" s="380"/>
-      <c r="G19" s="380"/>
-      <c r="H19" s="381"/>
-      <c r="I19" s="388"/>
-      <c r="J19" s="389"/>
-      <c r="K19" s="390"/>
+      <c r="D19" s="383"/>
+      <c r="E19" s="384"/>
+      <c r="F19" s="384"/>
+      <c r="G19" s="384"/>
+      <c r="H19" s="385"/>
+      <c r="I19" s="392"/>
+      <c r="J19" s="393"/>
+      <c r="K19" s="394"/>
       <c r="N19" t="s">
         <v>2914</v>
       </c>
@@ -62072,45 +62215,45 @@
       <c r="C20" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="379"/>
-      <c r="E20" s="380"/>
-      <c r="F20" s="380"/>
-      <c r="G20" s="380"/>
-      <c r="H20" s="381"/>
-      <c r="I20" s="388"/>
-      <c r="J20" s="389"/>
-      <c r="K20" s="390"/>
+      <c r="D20" s="383"/>
+      <c r="E20" s="384"/>
+      <c r="F20" s="384"/>
+      <c r="G20" s="384"/>
+      <c r="H20" s="385"/>
+      <c r="I20" s="392"/>
+      <c r="J20" s="393"/>
+      <c r="K20" s="394"/>
       <c r="N20" t="s">
         <v>2915</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="15.75" thickBot="1">
       <c r="C21" s="131"/>
-      <c r="D21" s="382"/>
-      <c r="E21" s="383"/>
-      <c r="F21" s="383"/>
-      <c r="G21" s="383"/>
-      <c r="H21" s="384"/>
-      <c r="I21" s="388"/>
-      <c r="J21" s="389"/>
-      <c r="K21" s="390"/>
+      <c r="D21" s="386"/>
+      <c r="E21" s="387"/>
+      <c r="F21" s="387"/>
+      <c r="G21" s="387"/>
+      <c r="H21" s="388"/>
+      <c r="I21" s="392"/>
+      <c r="J21" s="393"/>
+      <c r="K21" s="394"/>
       <c r="N21" t="s">
         <v>2916</v>
       </c>
     </row>
     <row r="22" spans="2:16">
-      <c r="D22" s="397" t="s">
+      <c r="D22" s="401" t="s">
         <v>2585</v>
       </c>
-      <c r="E22" s="397"/>
-      <c r="F22" s="397"/>
-      <c r="G22" s="397"/>
-      <c r="H22" s="397"/>
-      <c r="I22" s="397" t="s">
+      <c r="E22" s="401"/>
+      <c r="F22" s="401"/>
+      <c r="G22" s="401"/>
+      <c r="H22" s="401"/>
+      <c r="I22" s="401" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="397"/>
-      <c r="K22" s="397"/>
+      <c r="J22" s="401"/>
+      <c r="K22" s="401"/>
       <c r="N22" t="s">
         <v>2917</v>
       </c>
@@ -64694,10 +64837,10 @@
       </c>
       <c r="G121" s="23"/>
       <c r="H121" s="24"/>
-      <c r="I121" s="400" t="s">
+      <c r="I121" s="404" t="s">
         <v>2587</v>
       </c>
-      <c r="J121" s="400" t="s">
+      <c r="J121" s="404" t="s">
         <v>2591</v>
       </c>
       <c r="K121" s="20"/>
@@ -64713,8 +64856,8 @@
       <c r="H122" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="I122" s="401"/>
-      <c r="J122" s="401"/>
+      <c r="I122" s="405"/>
+      <c r="J122" s="405"/>
       <c r="K122" s="20"/>
       <c r="L122" s="20"/>
       <c r="M122" s="27"/>
@@ -64728,8 +64871,8 @@
       <c r="H123" s="20">
         <v>19</v>
       </c>
-      <c r="I123" s="401"/>
-      <c r="J123" s="401"/>
+      <c r="I123" s="405"/>
+      <c r="J123" s="405"/>
       <c r="K123" s="20"/>
       <c r="L123" s="20"/>
       <c r="M123" s="27"/>
@@ -64743,8 +64886,8 @@
       <c r="H124" s="29" t="s">
         <v>1807</v>
       </c>
-      <c r="I124" s="401"/>
-      <c r="J124" s="401"/>
+      <c r="I124" s="405"/>
+      <c r="J124" s="405"/>
       <c r="K124" s="20"/>
       <c r="L124" s="20"/>
       <c r="M124" s="27"/>
@@ -64754,8 +64897,8 @@
       <c r="F125" s="20"/>
       <c r="G125" s="20"/>
       <c r="H125" s="20"/>
-      <c r="I125" s="401"/>
-      <c r="J125" s="401"/>
+      <c r="I125" s="405"/>
+      <c r="J125" s="405"/>
       <c r="K125" s="20"/>
       <c r="L125" s="20"/>
       <c r="M125" s="27"/>
@@ -64768,8 +64911,8 @@
       <c r="F126" s="20"/>
       <c r="G126" s="20"/>
       <c r="H126" s="20"/>
-      <c r="I126" s="401"/>
-      <c r="J126" s="401"/>
+      <c r="I126" s="405"/>
+      <c r="J126" s="405"/>
       <c r="K126" s="20"/>
       <c r="L126" s="20"/>
       <c r="M126" s="27"/>
@@ -64781,8 +64924,8 @@
       </c>
       <c r="G127" s="23"/>
       <c r="H127" s="24"/>
-      <c r="I127" s="401"/>
-      <c r="J127" s="401"/>
+      <c r="I127" s="405"/>
+      <c r="J127" s="405"/>
       <c r="K127" s="20"/>
       <c r="L127" s="20"/>
       <c r="M127" s="27"/>
@@ -64796,8 +64939,8 @@
       <c r="H128" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="I128" s="401"/>
-      <c r="J128" s="401"/>
+      <c r="I128" s="405"/>
+      <c r="J128" s="405"/>
       <c r="K128" s="20"/>
       <c r="L128" s="20"/>
       <c r="M128" s="27"/>
@@ -64811,8 +64954,8 @@
       <c r="H129" s="20">
         <v>20</v>
       </c>
-      <c r="I129" s="401"/>
-      <c r="J129" s="401"/>
+      <c r="I129" s="405"/>
+      <c r="J129" s="405"/>
       <c r="K129" s="20"/>
       <c r="L129" s="20"/>
       <c r="M129" s="27"/>
@@ -64826,8 +64969,8 @@
       <c r="H130" s="29" t="s">
         <v>2583</v>
       </c>
-      <c r="I130" s="401"/>
-      <c r="J130" s="401"/>
+      <c r="I130" s="405"/>
+      <c r="J130" s="405"/>
       <c r="K130" s="20"/>
       <c r="L130" s="20"/>
       <c r="M130" s="27"/>
@@ -64837,8 +64980,8 @@
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
       <c r="H131" s="20"/>
-      <c r="I131" s="401"/>
-      <c r="J131" s="401"/>
+      <c r="I131" s="405"/>
+      <c r="J131" s="405"/>
       <c r="K131" s="20"/>
       <c r="L131" s="20"/>
       <c r="M131" s="27"/>
@@ -64850,8 +64993,8 @@
       </c>
       <c r="G132" s="23"/>
       <c r="H132" s="24"/>
-      <c r="I132" s="401"/>
-      <c r="J132" s="401"/>
+      <c r="I132" s="405"/>
+      <c r="J132" s="405"/>
       <c r="K132" s="20"/>
       <c r="L132" s="20"/>
       <c r="M132" s="27"/>
@@ -64865,8 +65008,8 @@
       <c r="H133" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="I133" s="401"/>
-      <c r="J133" s="401"/>
+      <c r="I133" s="405"/>
+      <c r="J133" s="405"/>
       <c r="K133" s="20"/>
       <c r="L133" s="20"/>
       <c r="M133" s="27"/>
@@ -64880,8 +65023,8 @@
       <c r="H134" s="20">
         <v>18</v>
       </c>
-      <c r="I134" s="401"/>
-      <c r="J134" s="401"/>
+      <c r="I134" s="405"/>
+      <c r="J134" s="405"/>
       <c r="K134" s="20"/>
       <c r="L134" s="20"/>
       <c r="M134" s="27"/>
@@ -64895,8 +65038,8 @@
       <c r="H135" s="29" t="s">
         <v>2584</v>
       </c>
-      <c r="I135" s="402"/>
-      <c r="J135" s="402"/>
+      <c r="I135" s="406"/>
+      <c r="J135" s="406"/>
       <c r="K135" s="20"/>
       <c r="L135" s="20"/>
       <c r="M135" s="27"/>
@@ -64976,8 +65119,8 @@
       <c r="H147" s="24" t="s">
         <v>2590</v>
       </c>
-      <c r="I147" s="403"/>
-      <c r="J147" s="403"/>
+      <c r="I147" s="407"/>
+      <c r="J147" s="407"/>
       <c r="K147" s="20"/>
       <c r="L147" s="20"/>
       <c r="M147" s="27"/>
@@ -64991,8 +65134,8 @@
       <c r="H148" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="I148" s="404"/>
-      <c r="J148" s="404"/>
+      <c r="I148" s="408"/>
+      <c r="J148" s="408"/>
       <c r="K148" s="20"/>
       <c r="L148" s="20"/>
       <c r="M148" s="27"/>
@@ -65006,8 +65149,8 @@
       <c r="H149" s="20">
         <v>19</v>
       </c>
-      <c r="I149" s="404"/>
-      <c r="J149" s="404"/>
+      <c r="I149" s="408"/>
+      <c r="J149" s="408"/>
       <c r="K149" s="20"/>
       <c r="L149" s="20"/>
       <c r="M149" s="27"/>
@@ -65021,8 +65164,8 @@
       <c r="H150" s="29" t="s">
         <v>1807</v>
       </c>
-      <c r="I150" s="404"/>
-      <c r="J150" s="404"/>
+      <c r="I150" s="408"/>
+      <c r="J150" s="408"/>
       <c r="K150" s="20"/>
       <c r="L150" s="20"/>
       <c r="M150" s="27"/>
@@ -65032,8 +65175,8 @@
       <c r="F151" s="20"/>
       <c r="G151" s="20"/>
       <c r="H151" s="20"/>
-      <c r="I151" s="404"/>
-      <c r="J151" s="404"/>
+      <c r="I151" s="408"/>
+      <c r="J151" s="408"/>
       <c r="K151" s="20"/>
       <c r="L151" s="20"/>
       <c r="M151" s="27"/>
@@ -65043,8 +65186,8 @@
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
-      <c r="I152" s="404"/>
-      <c r="J152" s="404"/>
+      <c r="I152" s="408"/>
+      <c r="J152" s="408"/>
       <c r="K152" s="20"/>
       <c r="L152" s="20"/>
       <c r="M152" s="27"/>
@@ -65060,8 +65203,8 @@
       <c r="H153" s="24" t="s">
         <v>2590</v>
       </c>
-      <c r="I153" s="404"/>
-      <c r="J153" s="404"/>
+      <c r="I153" s="408"/>
+      <c r="J153" s="408"/>
       <c r="K153" s="20"/>
       <c r="L153" s="20"/>
       <c r="M153" s="27"/>
@@ -65078,8 +65221,8 @@
       <c r="H154" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="I154" s="404"/>
-      <c r="J154" s="404"/>
+      <c r="I154" s="408"/>
+      <c r="J154" s="408"/>
       <c r="K154" s="20"/>
       <c r="L154" s="20"/>
       <c r="M154" s="27"/>
@@ -65093,8 +65236,8 @@
       <c r="H155" s="20">
         <v>20</v>
       </c>
-      <c r="I155" s="404"/>
-      <c r="J155" s="404"/>
+      <c r="I155" s="408"/>
+      <c r="J155" s="408"/>
       <c r="K155" s="20"/>
       <c r="L155" s="20"/>
       <c r="M155" s="27"/>
@@ -65108,8 +65251,8 @@
       <c r="H156" s="29" t="s">
         <v>2583</v>
       </c>
-      <c r="I156" s="404"/>
-      <c r="J156" s="404"/>
+      <c r="I156" s="408"/>
+      <c r="J156" s="408"/>
       <c r="K156" s="20"/>
       <c r="L156" s="20"/>
       <c r="M156" s="27"/>
@@ -65119,8 +65262,8 @@
       <c r="F157" s="20"/>
       <c r="G157" s="20"/>
       <c r="H157" s="20"/>
-      <c r="I157" s="404"/>
-      <c r="J157" s="404"/>
+      <c r="I157" s="408"/>
+      <c r="J157" s="408"/>
       <c r="K157" s="20"/>
       <c r="L157" s="20"/>
       <c r="M157" s="27"/>
@@ -65136,8 +65279,8 @@
       <c r="H158" s="24" t="s">
         <v>2590</v>
       </c>
-      <c r="I158" s="404"/>
-      <c r="J158" s="404"/>
+      <c r="I158" s="408"/>
+      <c r="J158" s="408"/>
       <c r="K158" s="20"/>
       <c r="L158" s="20"/>
       <c r="M158" s="27"/>
@@ -65151,8 +65294,8 @@
       <c r="H159" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="I159" s="404"/>
-      <c r="J159" s="404"/>
+      <c r="I159" s="408"/>
+      <c r="J159" s="408"/>
       <c r="K159" s="20"/>
       <c r="L159" s="20"/>
       <c r="M159" s="27"/>
@@ -65166,8 +65309,8 @@
       <c r="H160" s="20">
         <v>18</v>
       </c>
-      <c r="I160" s="404"/>
-      <c r="J160" s="404"/>
+      <c r="I160" s="408"/>
+      <c r="J160" s="408"/>
       <c r="K160" s="20"/>
       <c r="L160" s="20"/>
       <c r="M160" s="27"/>
@@ -65181,8 +65324,8 @@
       <c r="H161" s="29" t="s">
         <v>2584</v>
       </c>
-      <c r="I161" s="405"/>
-      <c r="J161" s="405"/>
+      <c r="I161" s="409"/>
+      <c r="J161" s="409"/>
       <c r="K161" s="20"/>
       <c r="L161" s="20"/>
       <c r="M161" s="27"/>
@@ -66141,7 +66284,7 @@
       <c r="F269" s="32">
         <v>9</v>
       </c>
-      <c r="G269" s="398" t="s">
+      <c r="G269" s="402" t="s">
         <v>2228</v>
       </c>
       <c r="I269" s="48" t="s">
@@ -66162,7 +66305,7 @@
       <c r="F270" s="32">
         <v>15</v>
       </c>
-      <c r="G270" s="399"/>
+      <c r="G270" s="403"/>
       <c r="I270" s="151" t="s">
         <v>2224</v>
       </c>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="ref-review" sheetId="33" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5871" uniqueCount="3130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5908" uniqueCount="3150">
   <si>
     <t>USER</t>
   </si>
@@ -9688,6 +9688,66 @@
   </si>
   <si>
     <t>#abc  equal to #pqr</t>
+  </si>
+  <si>
+    <t>10 &amp; 5</t>
+  </si>
+  <si>
+    <t>bitwise And</t>
+  </si>
+  <si>
+    <t>bitwise Or</t>
+  </si>
+  <si>
+    <t>bitwie XOR</t>
+  </si>
+  <si>
+    <t>10 | 5</t>
+  </si>
+  <si>
+    <t>10 ^ 5</t>
+  </si>
+  <si>
+    <t>1 and 1 = 1</t>
+  </si>
+  <si>
+    <t>1 and 0= 0</t>
+  </si>
+  <si>
+    <t>0 and 1 = 0</t>
+  </si>
+  <si>
+    <t>0 and 0 = 0</t>
+  </si>
+  <si>
+    <t>bitwise and</t>
+  </si>
+  <si>
+    <t>Conditional and</t>
+  </si>
+  <si>
+    <t>1 or 1 = 1</t>
+  </si>
+  <si>
+    <t>1 or 0 = 1</t>
+  </si>
+  <si>
+    <t>0 or 1 = 1</t>
+  </si>
+  <si>
+    <t>0 or 0 = 0</t>
+  </si>
+  <si>
+    <t>conditional or</t>
+  </si>
+  <si>
+    <t>bitwise or</t>
+  </si>
+  <si>
+    <t>decimal to binary</t>
+  </si>
+  <si>
+    <t>binary to decimal</t>
   </si>
 </sst>
 </file>
@@ -10341,7 +10401,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="427">
+  <cellXfs count="428">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11038,6 +11098,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11564,7 +11627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I47" sqref="I47:I48"/>
     </sheetView>
   </sheetViews>
@@ -12215,17 +12278,17 @@
       <c r="A2" t="s">
         <v>2618</v>
       </c>
-      <c r="E2" s="377" t="s">
+      <c r="E2" s="378" t="s">
         <v>3012</v>
       </c>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
-      <c r="H2" s="379"/>
-      <c r="I2" s="379"/>
-      <c r="J2" s="379"/>
-      <c r="K2" s="379"/>
-      <c r="L2" s="379"/>
-      <c r="M2" s="378"/>
+      <c r="F2" s="380"/>
+      <c r="G2" s="380"/>
+      <c r="H2" s="380"/>
+      <c r="I2" s="380"/>
+      <c r="J2" s="380"/>
+      <c r="K2" s="380"/>
+      <c r="L2" s="380"/>
+      <c r="M2" s="379"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="B3" t="s">
@@ -12504,17 +12567,17 @@
       <c r="A19" t="s">
         <v>2618</v>
       </c>
-      <c r="E19" s="377" t="s">
+      <c r="E19" s="378" t="s">
         <v>3012</v>
       </c>
-      <c r="F19" s="379"/>
-      <c r="G19" s="379"/>
-      <c r="H19" s="379"/>
-      <c r="I19" s="379"/>
-      <c r="J19" s="379"/>
-      <c r="K19" s="379"/>
-      <c r="L19" s="379"/>
-      <c r="M19" s="378"/>
+      <c r="F19" s="380"/>
+      <c r="G19" s="380"/>
+      <c r="H19" s="380"/>
+      <c r="I19" s="380"/>
+      <c r="J19" s="380"/>
+      <c r="K19" s="380"/>
+      <c r="L19" s="380"/>
+      <c r="M19" s="379"/>
     </row>
     <row r="20" spans="1:13">
       <c r="B20" t="s">
@@ -12847,17 +12910,17 @@
       <c r="A42" t="s">
         <v>2618</v>
       </c>
-      <c r="E42" s="377" t="s">
+      <c r="E42" s="378" t="s">
         <v>3012</v>
       </c>
-      <c r="F42" s="379"/>
-      <c r="G42" s="379"/>
-      <c r="H42" s="379"/>
-      <c r="I42" s="379"/>
-      <c r="J42" s="379"/>
-      <c r="K42" s="379"/>
-      <c r="L42" s="379"/>
-      <c r="M42" s="378"/>
+      <c r="F42" s="380"/>
+      <c r="G42" s="380"/>
+      <c r="H42" s="380"/>
+      <c r="I42" s="380"/>
+      <c r="J42" s="380"/>
+      <c r="K42" s="380"/>
+      <c r="L42" s="380"/>
+      <c r="M42" s="379"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1">
       <c r="B43" t="s">
@@ -13170,17 +13233,17 @@
       <c r="A65" t="s">
         <v>3046</v>
       </c>
-      <c r="E65" s="377" t="s">
+      <c r="E65" s="378" t="s">
         <v>3012</v>
       </c>
-      <c r="F65" s="379"/>
-      <c r="G65" s="379"/>
-      <c r="H65" s="379"/>
-      <c r="I65" s="379"/>
-      <c r="J65" s="379"/>
-      <c r="K65" s="379"/>
-      <c r="L65" s="379"/>
-      <c r="M65" s="378"/>
+      <c r="F65" s="380"/>
+      <c r="G65" s="380"/>
+      <c r="H65" s="380"/>
+      <c r="I65" s="380"/>
+      <c r="J65" s="380"/>
+      <c r="K65" s="380"/>
+      <c r="L65" s="380"/>
+      <c r="M65" s="379"/>
     </row>
     <row r="66" spans="1:13" ht="15.75" thickBot="1">
       <c r="B66" t="s">
@@ -13470,15 +13533,15 @@
       <c r="B88" s="31"/>
       <c r="C88" s="31"/>
       <c r="D88" s="31"/>
-      <c r="E88" s="410"/>
-      <c r="F88" s="411"/>
-      <c r="G88" s="411"/>
-      <c r="H88" s="411"/>
-      <c r="I88" s="411"/>
-      <c r="J88" s="411"/>
-      <c r="K88" s="411"/>
-      <c r="L88" s="411"/>
-      <c r="M88" s="412"/>
+      <c r="E88" s="411"/>
+      <c r="F88" s="412"/>
+      <c r="G88" s="412"/>
+      <c r="H88" s="412"/>
+      <c r="I88" s="412"/>
+      <c r="J88" s="412"/>
+      <c r="K88" s="412"/>
+      <c r="L88" s="412"/>
+      <c r="M88" s="413"/>
       <c r="N88" s="31"/>
       <c r="O88" s="31"/>
     </row>
@@ -13850,15 +13913,15 @@
       <c r="B107" s="31"/>
       <c r="C107" s="31"/>
       <c r="D107" s="31"/>
-      <c r="E107" s="413"/>
-      <c r="F107" s="413"/>
-      <c r="G107" s="413"/>
-      <c r="H107" s="413"/>
-      <c r="I107" s="413"/>
-      <c r="J107" s="413"/>
-      <c r="K107" s="413"/>
-      <c r="L107" s="413"/>
-      <c r="M107" s="413"/>
+      <c r="E107" s="414"/>
+      <c r="F107" s="414"/>
+      <c r="G107" s="414"/>
+      <c r="H107" s="414"/>
+      <c r="I107" s="414"/>
+      <c r="J107" s="414"/>
+      <c r="K107" s="414"/>
+      <c r="L107" s="414"/>
+      <c r="M107" s="414"/>
       <c r="N107" s="31"/>
       <c r="O107" s="31"/>
     </row>
@@ -13876,15 +13939,15 @@
       <c r="B109" s="31"/>
       <c r="C109" s="31"/>
       <c r="D109" s="31"/>
-      <c r="E109" s="410"/>
-      <c r="F109" s="411"/>
-      <c r="G109" s="411"/>
-      <c r="H109" s="411"/>
-      <c r="I109" s="411"/>
-      <c r="J109" s="411"/>
-      <c r="K109" s="411"/>
-      <c r="L109" s="411"/>
-      <c r="M109" s="412"/>
+      <c r="E109" s="411"/>
+      <c r="F109" s="412"/>
+      <c r="G109" s="412"/>
+      <c r="H109" s="412"/>
+      <c r="I109" s="412"/>
+      <c r="J109" s="412"/>
+      <c r="K109" s="412"/>
+      <c r="L109" s="412"/>
+      <c r="M109" s="413"/>
       <c r="N109" s="31"/>
       <c r="O109" s="31"/>
     </row>
@@ -14267,15 +14330,15 @@
       <c r="D129" s="333"/>
       <c r="E129" s="31"/>
       <c r="F129" s="31"/>
-      <c r="G129" s="413"/>
-      <c r="H129" s="413"/>
-      <c r="I129" s="413"/>
-      <c r="J129" s="413"/>
-      <c r="K129" s="413"/>
-      <c r="L129" s="413"/>
-      <c r="M129" s="413"/>
-      <c r="N129" s="413"/>
-      <c r="O129" s="413"/>
+      <c r="G129" s="414"/>
+      <c r="H129" s="414"/>
+      <c r="I129" s="414"/>
+      <c r="J129" s="414"/>
+      <c r="K129" s="414"/>
+      <c r="L129" s="414"/>
+      <c r="M129" s="414"/>
+      <c r="N129" s="414"/>
+      <c r="O129" s="414"/>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="31"/>
@@ -17201,49 +17264,49 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13">
-      <c r="B2" s="414" t="s">
+      <c r="B2" s="415" t="s">
         <v>2045</v>
       </c>
-      <c r="C2" s="415"/>
-      <c r="D2" s="416"/>
-      <c r="F2" s="414" t="s">
+      <c r="C2" s="416"/>
+      <c r="D2" s="417"/>
+      <c r="F2" s="415" t="s">
         <v>2593</v>
       </c>
-      <c r="G2" s="415"/>
-      <c r="H2" s="415"/>
-      <c r="I2" s="416"/>
-      <c r="K2" s="414" t="s">
+      <c r="G2" s="416"/>
+      <c r="H2" s="416"/>
+      <c r="I2" s="417"/>
+      <c r="K2" s="415" t="s">
         <v>2595</v>
       </c>
-      <c r="L2" s="415"/>
-      <c r="M2" s="416"/>
+      <c r="L2" s="416"/>
+      <c r="M2" s="417"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="417"/>
-      <c r="C3" s="418"/>
-      <c r="D3" s="419"/>
-      <c r="F3" s="417"/>
-      <c r="G3" s="418"/>
-      <c r="H3" s="418"/>
-      <c r="I3" s="419"/>
-      <c r="K3" s="417"/>
-      <c r="L3" s="418"/>
-      <c r="M3" s="419"/>
+      <c r="B3" s="418"/>
+      <c r="C3" s="419"/>
+      <c r="D3" s="420"/>
+      <c r="F3" s="418"/>
+      <c r="G3" s="419"/>
+      <c r="H3" s="419"/>
+      <c r="I3" s="420"/>
+      <c r="K3" s="418"/>
+      <c r="L3" s="419"/>
+      <c r="M3" s="420"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="417"/>
-      <c r="C4" s="418"/>
-      <c r="D4" s="419"/>
-      <c r="F4" s="417"/>
-      <c r="G4" s="418"/>
-      <c r="H4" s="418"/>
-      <c r="I4" s="419"/>
-      <c r="K4" s="417"/>
-      <c r="L4" s="418"/>
-      <c r="M4" s="419"/>
+      <c r="B4" s="418"/>
+      <c r="C4" s="419"/>
+      <c r="D4" s="420"/>
+      <c r="F4" s="418"/>
+      <c r="G4" s="419"/>
+      <c r="H4" s="419"/>
+      <c r="I4" s="420"/>
+      <c r="K4" s="418"/>
+      <c r="L4" s="419"/>
+      <c r="M4" s="420"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="420" t="s">
+      <c r="A5" s="421" t="s">
         <v>1888</v>
       </c>
       <c r="B5" s="72"/>
@@ -17270,7 +17333,7 @@
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="420"/>
+      <c r="A6" s="421"/>
       <c r="B6" s="72"/>
       <c r="C6" s="32" t="s">
         <v>56</v>
@@ -17295,7 +17358,7 @@
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="420"/>
+      <c r="A7" s="421"/>
       <c r="B7" s="72"/>
       <c r="C7" s="32" t="s">
         <v>2597</v>
@@ -17328,7 +17391,7 @@
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="420" t="s">
+      <c r="A9" s="421" t="s">
         <v>201</v>
       </c>
       <c r="B9" s="277" t="s">
@@ -17349,7 +17412,7 @@
       <c r="M9" s="225"/>
     </row>
     <row r="10" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A10" s="420"/>
+      <c r="A10" s="421"/>
       <c r="B10" s="277"/>
       <c r="C10" s="278" t="s">
         <v>2602</v>
@@ -17371,7 +17434,7 @@
       <c r="M10" s="225"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="420"/>
+      <c r="A11" s="421"/>
       <c r="B11" s="277"/>
       <c r="C11" s="133"/>
       <c r="D11" s="225"/>
@@ -17391,7 +17454,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="420"/>
+      <c r="A12" s="421"/>
       <c r="B12" s="277"/>
       <c r="C12" s="133"/>
       <c r="D12" s="225"/>
@@ -17571,23 +17634,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="421" t="s">
+      <c r="A1" s="422" t="s">
         <v>2235</v>
       </c>
-      <c r="B1" s="421"/>
-      <c r="C1" s="421"/>
-      <c r="D1" s="421"/>
-      <c r="E1" s="421"/>
-      <c r="F1" s="421"/>
-      <c r="I1" s="421" t="s">
+      <c r="B1" s="422"/>
+      <c r="C1" s="422"/>
+      <c r="D1" s="422"/>
+      <c r="E1" s="422"/>
+      <c r="F1" s="422"/>
+      <c r="I1" s="422" t="s">
         <v>2247</v>
       </c>
-      <c r="J1" s="421"/>
-      <c r="K1" s="421"/>
-      <c r="L1" s="421"/>
-      <c r="M1" s="421"/>
-      <c r="N1" s="421"/>
-      <c r="O1" s="421"/>
+      <c r="J1" s="422"/>
+      <c r="K1" s="422"/>
+      <c r="L1" s="422"/>
+      <c r="M1" s="422"/>
+      <c r="N1" s="422"/>
+      <c r="O1" s="422"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -17743,28 +17806,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="374" t="s">
+      <c r="A12" s="375" t="s">
         <v>2249</v>
       </c>
-      <c r="B12" s="376"/>
-      <c r="C12" s="376"/>
-      <c r="D12" s="376"/>
-      <c r="E12" s="376"/>
-      <c r="F12" s="376"/>
-      <c r="G12" s="376"/>
-      <c r="H12" s="375"/>
-      <c r="I12" s="374" t="s">
+      <c r="B12" s="377"/>
+      <c r="C12" s="377"/>
+      <c r="D12" s="377"/>
+      <c r="E12" s="377"/>
+      <c r="F12" s="377"/>
+      <c r="G12" s="377"/>
+      <c r="H12" s="376"/>
+      <c r="I12" s="375" t="s">
         <v>2249</v>
       </c>
-      <c r="J12" s="376"/>
-      <c r="K12" s="376"/>
-      <c r="L12" s="376"/>
-      <c r="M12" s="376"/>
-      <c r="N12" s="376"/>
-      <c r="O12" s="376"/>
-      <c r="P12" s="376"/>
-      <c r="Q12" s="376"/>
-      <c r="R12" s="375"/>
+      <c r="J12" s="377"/>
+      <c r="K12" s="377"/>
+      <c r="L12" s="377"/>
+      <c r="M12" s="377"/>
+      <c r="N12" s="377"/>
+      <c r="O12" s="377"/>
+      <c r="P12" s="377"/>
+      <c r="Q12" s="377"/>
+      <c r="R12" s="376"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="23" t="s">
@@ -17992,14 +18055,14 @@
       <c r="R21" s="30"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="421" t="s">
+      <c r="A24" s="422" t="s">
         <v>2235</v>
       </c>
-      <c r="B24" s="421"/>
-      <c r="C24" s="421"/>
-      <c r="D24" s="421"/>
-      <c r="E24" s="421"/>
-      <c r="F24" s="421"/>
+      <c r="B24" s="422"/>
+      <c r="C24" s="422"/>
+      <c r="D24" s="422"/>
+      <c r="E24" s="422"/>
+      <c r="F24" s="422"/>
       <c r="H24" s="233" t="s">
         <v>2247</v>
       </c>
@@ -18009,11 +18072,11 @@
       <c r="L24" s="233"/>
       <c r="M24" s="233"/>
       <c r="N24" s="233"/>
-      <c r="P24" s="421" t="s">
+      <c r="P24" s="422" t="s">
         <v>2288</v>
       </c>
-      <c r="Q24" s="421"/>
-      <c r="R24" s="421"/>
+      <c r="Q24" s="422"/>
+      <c r="R24" s="422"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="98" t="s">
@@ -18253,28 +18316,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="374" t="s">
+      <c r="A35" s="375" t="s">
         <v>2289</v>
       </c>
-      <c r="B35" s="376"/>
-      <c r="C35" s="376"/>
-      <c r="D35" s="376"/>
-      <c r="E35" s="376"/>
-      <c r="F35" s="376"/>
-      <c r="G35" s="376"/>
-      <c r="H35" s="375"/>
-      <c r="I35" s="374" t="s">
+      <c r="B35" s="377"/>
+      <c r="C35" s="377"/>
+      <c r="D35" s="377"/>
+      <c r="E35" s="377"/>
+      <c r="F35" s="377"/>
+      <c r="G35" s="377"/>
+      <c r="H35" s="376"/>
+      <c r="I35" s="375" t="s">
         <v>982</v>
       </c>
-      <c r="J35" s="376"/>
-      <c r="K35" s="376"/>
-      <c r="L35" s="376"/>
-      <c r="M35" s="376"/>
-      <c r="N35" s="376"/>
-      <c r="O35" s="376"/>
-      <c r="P35" s="376"/>
-      <c r="Q35" s="376"/>
-      <c r="R35" s="375"/>
+      <c r="J35" s="377"/>
+      <c r="K35" s="377"/>
+      <c r="L35" s="377"/>
+      <c r="M35" s="377"/>
+      <c r="N35" s="377"/>
+      <c r="O35" s="377"/>
+      <c r="P35" s="377"/>
+      <c r="Q35" s="377"/>
+      <c r="R35" s="376"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="23" t="s">
@@ -30932,10 +30995,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:C67"/>
+  <dimension ref="B3:L66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F67"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30947,243 +31010,511 @@
     <col min="6" max="6" width="14.7109375" style="49" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="49" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" style="49"/>
+    <col min="9" max="10" width="9.140625" style="49"/>
+    <col min="11" max="11" width="12.85546875" style="49" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" style="49" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:7">
       <c r="C3" s="49" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="3:7">
       <c r="C4" s="49" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="3:7">
       <c r="C5" s="49" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="3:7">
       <c r="C6" s="49" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="3:7">
       <c r="C8" s="49" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="3:7">
       <c r="C9" s="49" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="3:7">
       <c r="C10" s="49" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
+    <row r="11" spans="3:7">
+      <c r="C11" s="137" t="s">
+        <v>3141</v>
+      </c>
+      <c r="G11" s="137" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
       <c r="C12" s="49" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="13" spans="3:3">
+      <c r="G12" s="49" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
       <c r="C13" s="49" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="14" spans="3:3">
+      <c r="G13" s="49" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
       <c r="C14" s="49" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="15" spans="3:3">
+      <c r="G14" s="49" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
       <c r="C15" s="49" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="17" spans="3:3">
+      <c r="G15" s="49" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" s="137" t="s">
+        <v>3146</v>
+      </c>
+      <c r="G16" s="137" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
       <c r="C17" s="49" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="18" spans="3:3">
+      <c r="G17" s="49" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
       <c r="C18" s="49" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="19" spans="3:3">
+      <c r="G18" s="49" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
       <c r="C19" s="49" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="20" spans="3:3">
+      <c r="G19" s="49" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
       <c r="C20" s="49" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="34" spans="3:3">
+      <c r="G20" s="49" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="43">
+        <v>128</v>
+      </c>
+      <c r="C22" s="49">
+        <v>64</v>
+      </c>
+      <c r="D22" s="49">
+        <v>32</v>
+      </c>
+      <c r="E22" s="49">
+        <v>16</v>
+      </c>
+      <c r="F22" s="49">
+        <v>8</v>
+      </c>
+      <c r="G22" s="49">
+        <v>4</v>
+      </c>
+      <c r="H22" s="49">
+        <v>2</v>
+      </c>
+      <c r="I22" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="275" t="s">
+        <v>2513</v>
+      </c>
+      <c r="C24" s="124" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D24" s="124" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E24" s="124" t="s">
+        <v>2516</v>
+      </c>
+      <c r="F24" s="124" t="s">
+        <v>2517</v>
+      </c>
+      <c r="G24" s="124" t="s">
+        <v>2518</v>
+      </c>
+      <c r="H24" s="124" t="s">
+        <v>2131</v>
+      </c>
+      <c r="I24" s="124" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="350"/>
+      <c r="C25" s="350"/>
+      <c r="D25" s="350"/>
+      <c r="E25" s="350"/>
+      <c r="F25" s="276">
+        <v>1</v>
+      </c>
+      <c r="G25" s="276">
+        <v>0</v>
+      </c>
+      <c r="H25" s="276">
+        <v>1</v>
+      </c>
+      <c r="I25" s="276">
+        <v>1</v>
+      </c>
+      <c r="J25" s="137">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="350"/>
+      <c r="C26" s="350"/>
+      <c r="D26" s="350"/>
+      <c r="E26" s="350"/>
+      <c r="F26" s="350">
+        <v>0</v>
+      </c>
+      <c r="G26" s="350">
+        <v>1</v>
+      </c>
+      <c r="H26" s="350">
+        <v>0</v>
+      </c>
+      <c r="I26" s="350">
+        <v>1</v>
+      </c>
+      <c r="J26" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="F27" s="150">
+        <v>1</v>
+      </c>
+      <c r="G27" s="150">
+        <v>1</v>
+      </c>
+      <c r="H27" s="150">
+        <v>1</v>
+      </c>
+      <c r="I27" s="150">
+        <v>1</v>
+      </c>
+      <c r="J27" s="137" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="C29" s="49" t="s">
+        <v>3148</v>
+      </c>
+      <c r="F29" s="150">
+        <v>1</v>
+      </c>
+      <c r="G29" s="150">
+        <v>1</v>
+      </c>
+      <c r="H29" s="150">
+        <v>0</v>
+      </c>
+      <c r="I29" s="150">
+        <v>0</v>
+      </c>
+      <c r="J29" s="49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="C30" s="49" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="F32" s="49">
+        <v>0</v>
+      </c>
+      <c r="G32" s="49">
+        <v>0</v>
+      </c>
+      <c r="H32" s="49">
+        <v>0</v>
+      </c>
+      <c r="I32" s="49">
+        <v>0</v>
+      </c>
+      <c r="J32" s="137" t="s">
+        <v>3130</v>
+      </c>
+      <c r="K32" s="49" t="s">
+        <v>3131</v>
+      </c>
+      <c r="L32" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="C33" s="49" t="s">
+        <v>542</v>
+      </c>
+      <c r="F33" s="49">
+        <v>1</v>
+      </c>
+      <c r="G33" s="49">
+        <v>1</v>
+      </c>
+      <c r="H33" s="49">
+        <v>1</v>
+      </c>
+      <c r="I33" s="49">
+        <v>1</v>
+      </c>
+      <c r="J33" s="49" t="s">
+        <v>3134</v>
+      </c>
+      <c r="K33" s="49" t="s">
+        <v>3132</v>
+      </c>
+      <c r="L33" s="49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12">
       <c r="C34" s="49" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
+        <v>543</v>
+      </c>
+      <c r="F34" s="49">
+        <v>1</v>
+      </c>
+      <c r="G34" s="49">
+        <v>1</v>
+      </c>
+      <c r="H34" s="49">
+        <v>1</v>
+      </c>
+      <c r="I34" s="49">
+        <v>1</v>
+      </c>
+      <c r="J34" s="49" t="s">
+        <v>3135</v>
+      </c>
+      <c r="K34" s="49" t="s">
+        <v>3133</v>
+      </c>
+      <c r="L34" s="49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12">
       <c r="C35" s="49" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12">
       <c r="C36" s="49" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12">
       <c r="C37" s="49" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="49" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="40" spans="3:3">
+    <row r="39" spans="3:12">
+      <c r="C39" s="49" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12">
       <c r="C40" s="49" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12">
       <c r="C41" s="49" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42" s="49" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="44" spans="3:3">
+    <row r="43" spans="3:12">
+      <c r="C43" s="49" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12">
       <c r="C44" s="49" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12">
       <c r="C45" s="49" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12">
       <c r="C46" s="49" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12">
       <c r="C47" s="49" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12">
       <c r="C48" s="49" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" s="49" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" s="49" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" s="49" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" s="49" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="53" spans="3:3">
-      <c r="C53" s="49" t="s">
-        <v>558</v>
+      <c r="C53" s="65">
+        <v>44267</v>
       </c>
     </row>
     <row r="54" spans="3:3">
-      <c r="C54" s="65">
-        <v>44267</v>
+      <c r="C54" s="49">
+        <v>-9</v>
       </c>
     </row>
     <row r="55" spans="3:3">
-      <c r="C55" s="49">
-        <v>-9</v>
+      <c r="C55" s="49" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="49" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="49" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" s="49" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="59" spans="3:3">
-      <c r="C59" s="49" t="s">
-        <v>562</v>
+      <c r="C59" s="65">
+        <v>44418</v>
       </c>
     </row>
     <row r="60" spans="3:3">
-      <c r="C60" s="65">
-        <v>44418</v>
+      <c r="C60" s="49">
+        <v>-2</v>
       </c>
     </row>
     <row r="61" spans="3:3">
-      <c r="C61" s="49">
-        <v>-2</v>
+      <c r="C61" s="49" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" s="49" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="49" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="49" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="65" spans="3:3">
-      <c r="C65" s="49" t="s">
-        <v>565</v>
+      <c r="C65" s="65">
+        <v>44237</v>
       </c>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" s="65">
-        <v>44237</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3">
-      <c r="C67" s="49">
+      <c r="C66" s="49">
         <v>-8</v>
       </c>
     </row>
@@ -37110,7 +37441,7 @@
       <c r="K3" s="91"/>
       <c r="L3" s="296"/>
       <c r="M3" s="92"/>
-      <c r="N3" s="422" t="s">
+      <c r="N3" s="423" t="s">
         <v>2695</v>
       </c>
       <c r="O3" s="43"/>
@@ -37143,7 +37474,7 @@
         <v>940</v>
       </c>
       <c r="M4" s="198"/>
-      <c r="N4" s="422"/>
+      <c r="N4" s="423"/>
       <c r="O4" s="43"/>
       <c r="P4" s="43"/>
       <c r="Q4" s="44"/>
@@ -37160,7 +37491,7 @@
         <v>12345</v>
       </c>
       <c r="M5" s="300"/>
-      <c r="N5" s="422"/>
+      <c r="N5" s="423"/>
       <c r="O5" s="43"/>
       <c r="P5" s="43"/>
       <c r="Q5" s="44"/>
@@ -37178,7 +37509,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
       <c r="M6" s="66"/>
-      <c r="N6" s="422"/>
+      <c r="N6" s="423"/>
       <c r="O6" s="43"/>
       <c r="P6" s="43"/>
       <c r="Q6" s="44"/>
@@ -37202,7 +37533,7 @@
       <c r="K7" s="91"/>
       <c r="L7" s="296"/>
       <c r="M7" s="92"/>
-      <c r="N7" s="422"/>
+      <c r="N7" s="423"/>
       <c r="O7" s="43"/>
       <c r="P7" s="43"/>
       <c r="Q7" s="44"/>
@@ -37224,7 +37555,7 @@
         <v>456</v>
       </c>
       <c r="M8" s="198"/>
-      <c r="N8" s="422"/>
+      <c r="N8" s="423"/>
       <c r="O8" s="43"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
@@ -37246,7 +37577,7 @@
         <v>12346</v>
       </c>
       <c r="M9" s="300"/>
-      <c r="N9" s="422"/>
+      <c r="N9" s="423"/>
       <c r="O9" s="43"/>
       <c r="P9" s="43"/>
       <c r="Q9" s="44"/>
@@ -37264,7 +37595,7 @@
       <c r="K10" s="66"/>
       <c r="L10" s="66"/>
       <c r="M10" s="66"/>
-      <c r="N10" s="422"/>
+      <c r="N10" s="423"/>
       <c r="O10" s="43"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
@@ -37282,7 +37613,7 @@
       <c r="K11" s="66"/>
       <c r="L11" s="66"/>
       <c r="M11" s="66"/>
-      <c r="N11" s="422"/>
+      <c r="N11" s="423"/>
       <c r="O11" s="43"/>
       <c r="P11" s="43"/>
       <c r="Q11" s="44"/>
@@ -37298,7 +37629,7 @@
       <c r="K12" s="66"/>
       <c r="L12" s="66"/>
       <c r="M12" s="66"/>
-      <c r="N12" s="422"/>
+      <c r="N12" s="423"/>
       <c r="O12" s="43"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
@@ -37311,7 +37642,7 @@
       <c r="K13" s="43"/>
       <c r="L13" s="43"/>
       <c r="M13" s="43"/>
-      <c r="N13" s="422"/>
+      <c r="N13" s="423"/>
       <c r="O13" s="43"/>
       <c r="P13" s="43"/>
       <c r="Q13" s="44"/>
@@ -37332,7 +37663,7 @@
       <c r="K14" s="91"/>
       <c r="L14" s="296"/>
       <c r="M14" s="92"/>
-      <c r="N14" s="422"/>
+      <c r="N14" s="423"/>
       <c r="O14" s="43"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="44"/>
@@ -37355,7 +37686,7 @@
         <v>491</v>
       </c>
       <c r="M15" s="198"/>
-      <c r="N15" s="422"/>
+      <c r="N15" s="423"/>
       <c r="O15" s="43"/>
       <c r="P15" s="43"/>
       <c r="Q15" s="44"/>
@@ -37375,7 +37706,7 @@
         <v>123123</v>
       </c>
       <c r="M16" s="300"/>
-      <c r="N16" s="422"/>
+      <c r="N16" s="423"/>
       <c r="O16" s="43"/>
       <c r="P16" s="43"/>
       <c r="Q16" s="44"/>
@@ -52269,24 +52600,24 @@
     <row r="17" spans="1:14" s="100" customFormat="1"/>
     <row r="22" spans="1:14" ht="15.75" thickBot="1">
       <c r="A22" s="98"/>
-      <c r="B22" s="423" t="s">
+      <c r="B22" s="424" t="s">
         <v>1102</v>
       </c>
-      <c r="C22" s="423"/>
+      <c r="C22" s="424"/>
       <c r="D22" s="98"/>
       <c r="E22" s="98"/>
-      <c r="F22" s="423" t="s">
+      <c r="F22" s="424" t="s">
         <v>1206</v>
       </c>
-      <c r="G22" s="423"/>
-      <c r="H22" s="423"/>
+      <c r="G22" s="424"/>
+      <c r="H22" s="424"/>
       <c r="I22" s="98"/>
       <c r="J22" s="98"/>
-      <c r="K22" s="423" t="s">
+      <c r="K22" s="424" t="s">
         <v>1104</v>
       </c>
-      <c r="L22" s="423"/>
-      <c r="M22" s="423"/>
+      <c r="L22" s="424"/>
+      <c r="M22" s="424"/>
       <c r="N22" s="98"/>
     </row>
     <row r="23" spans="1:14">
@@ -54674,8 +55005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD107"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="E20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37:N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -54708,7 +55039,7 @@
       <c r="L1" s="117"/>
       <c r="M1" s="117"/>
       <c r="N1" s="117"/>
-      <c r="O1" s="363" t="s">
+      <c r="O1" s="364" t="s">
         <v>2883</v>
       </c>
       <c r="R1" s="38">
@@ -54727,29 +55058,29 @@
       <c r="L2" s="117"/>
       <c r="M2" s="117"/>
       <c r="N2" s="117"/>
-      <c r="O2" s="363"/>
+      <c r="O2" s="364"/>
     </row>
     <row r="3" spans="1:46" ht="15.75" thickBot="1">
-      <c r="H3" s="371" t="s">
+      <c r="H3" s="372" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="372"/>
-      <c r="J3" s="372"/>
-      <c r="K3" s="372"/>
-      <c r="L3" s="373"/>
-      <c r="O3" s="363"/>
+      <c r="I3" s="373"/>
+      <c r="J3" s="373"/>
+      <c r="K3" s="373"/>
+      <c r="L3" s="374"/>
+      <c r="O3" s="364"/>
       <c r="P3" t="s">
         <v>1434</v>
       </c>
     </row>
     <row r="4" spans="1:46" ht="15.75" thickBot="1">
-      <c r="O4" s="363"/>
+      <c r="O4" s="364"/>
       <c r="P4" t="s">
         <v>2885</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D5" s="364" t="s">
+      <c r="D5" s="365" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
@@ -54766,35 +55097,35 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="363"/>
+      <c r="O5" s="364"/>
       <c r="P5" t="s">
         <v>2886</v>
       </c>
     </row>
     <row r="6" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D6" s="364"/>
+      <c r="D6" s="365"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="374" t="s">
+      <c r="G6" s="375" t="s">
         <v>1440</v>
       </c>
-      <c r="H6" s="375"/>
+      <c r="H6" s="376"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="374" t="s">
+      <c r="J6" s="375" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="375"/>
+      <c r="K6" s="376"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="374" t="s">
+      <c r="M6" s="375" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="376"/>
-      <c r="O6" s="363"/>
+      <c r="N6" s="377"/>
+      <c r="O6" s="364"/>
       <c r="P6" t="s">
         <v>2868</v>
       </c>
     </row>
     <row r="7" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D7" s="364"/>
+      <c r="D7" s="365"/>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -54804,7 +55135,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="363"/>
+      <c r="O7" s="364"/>
       <c r="AC7" s="113" t="s">
         <v>2836</v>
       </c>
@@ -54831,23 +55162,23 @@
       <c r="AT7" s="114"/>
     </row>
     <row r="8" spans="1:46">
-      <c r="D8" s="364"/>
+      <c r="D8" s="365"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="377" t="s">
+      <c r="G8" s="378" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="378"/>
+      <c r="H8" s="379"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="377" t="s">
+      <c r="J8" s="378" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="378"/>
+      <c r="K8" s="379"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="377" t="s">
+      <c r="M8" s="378" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="379"/>
-      <c r="O8" s="363"/>
+      <c r="N8" s="380"/>
+      <c r="O8" s="364"/>
       <c r="Q8" s="132"/>
       <c r="S8" t="s">
         <v>2827</v>
@@ -54874,7 +55205,7 @@
       <c r="AT8" s="68"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="D9" s="364"/>
+      <c r="D9" s="365"/>
       <c r="F9" s="3"/>
       <c r="G9" s="220"/>
       <c r="H9" s="220"/>
@@ -54886,7 +55217,7 @@
       <c r="L9" s="219"/>
       <c r="M9" s="220"/>
       <c r="N9" s="220"/>
-      <c r="O9" s="363"/>
+      <c r="O9" s="364"/>
       <c r="Q9" s="132"/>
       <c r="S9" t="s">
         <v>2820</v>
@@ -54923,19 +55254,19 @@
       <c r="AT9" s="68"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="D10" s="364"/>
-      <c r="F10" s="367" t="s">
+      <c r="D10" s="365"/>
+      <c r="F10" s="368" t="s">
         <v>2144</v>
       </c>
-      <c r="G10" s="368"/>
-      <c r="H10" s="368"/>
-      <c r="I10" s="368"/>
-      <c r="J10" s="368"/>
-      <c r="K10" s="368"/>
-      <c r="L10" s="368"/>
-      <c r="M10" s="368"/>
-      <c r="N10" s="368"/>
-      <c r="O10" s="362" t="s">
+      <c r="G10" s="369"/>
+      <c r="H10" s="369"/>
+      <c r="I10" s="369"/>
+      <c r="J10" s="369"/>
+      <c r="K10" s="369"/>
+      <c r="L10" s="369"/>
+      <c r="M10" s="369"/>
+      <c r="N10" s="369"/>
+      <c r="O10" s="363" t="s">
         <v>2882</v>
       </c>
       <c r="Q10" s="132"/>
@@ -54973,20 +55304,20 @@
       <c r="A11" t="s">
         <v>2807</v>
       </c>
-      <c r="D11" s="364"/>
+      <c r="D11" s="365"/>
       <c r="E11" t="s">
         <v>2859</v>
       </c>
-      <c r="F11" s="369"/>
-      <c r="G11" s="370"/>
-      <c r="H11" s="370"/>
-      <c r="I11" s="370"/>
-      <c r="J11" s="370"/>
-      <c r="K11" s="370"/>
-      <c r="L11" s="370"/>
-      <c r="M11" s="370"/>
-      <c r="N11" s="370"/>
-      <c r="O11" s="362"/>
+      <c r="F11" s="370"/>
+      <c r="G11" s="371"/>
+      <c r="H11" s="371"/>
+      <c r="I11" s="371"/>
+      <c r="J11" s="371"/>
+      <c r="K11" s="371"/>
+      <c r="L11" s="371"/>
+      <c r="M11" s="371"/>
+      <c r="N11" s="371"/>
+      <c r="O11" s="363"/>
       <c r="P11" t="s">
         <v>2884</v>
       </c>
@@ -55022,7 +55353,7 @@
       <c r="A12" t="s">
         <v>2808</v>
       </c>
-      <c r="D12" s="364"/>
+      <c r="D12" s="365"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -55032,7 +55363,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="362"/>
+      <c r="O12" s="363"/>
       <c r="AC12" s="166" t="s">
         <v>2838</v>
       </c>
@@ -55057,7 +55388,7 @@
       <c r="AT12" s="68"/>
     </row>
     <row r="13" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D13" s="364"/>
+      <c r="D13" s="365"/>
       <c r="E13" t="s">
         <v>1479</v>
       </c>
@@ -55076,7 +55407,7 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="362"/>
+      <c r="O13" s="363"/>
       <c r="AC13" s="166"/>
       <c r="AD13" s="20" t="s">
         <v>2838</v>
@@ -55099,22 +55430,22 @@
       <c r="AT13" s="68"/>
     </row>
     <row r="14" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D14" s="364"/>
+      <c r="D14" s="365"/>
       <c r="E14" t="s">
         <v>2809</v>
       </c>
-      <c r="F14" s="365" t="s">
+      <c r="F14" s="366" t="s">
         <v>2810</v>
       </c>
-      <c r="G14" s="366"/>
-      <c r="H14" s="366"/>
-      <c r="I14" s="366"/>
-      <c r="J14" s="366"/>
-      <c r="K14" s="366"/>
-      <c r="L14" s="366"/>
-      <c r="M14" s="366"/>
-      <c r="N14" s="366"/>
-      <c r="O14" s="362"/>
+      <c r="G14" s="367"/>
+      <c r="H14" s="367"/>
+      <c r="I14" s="367"/>
+      <c r="J14" s="367"/>
+      <c r="K14" s="367"/>
+      <c r="L14" s="367"/>
+      <c r="M14" s="367"/>
+      <c r="N14" s="367"/>
+      <c r="O14" s="363"/>
       <c r="P14" t="s">
         <v>2817</v>
       </c>
@@ -55144,7 +55475,7 @@
       <c r="B15" t="s">
         <v>2797</v>
       </c>
-      <c r="D15" s="364" t="s">
+      <c r="D15" s="365" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="129"/>
@@ -55182,7 +55513,7 @@
       <c r="AT15" s="68"/>
     </row>
     <row r="16" spans="1:46">
-      <c r="D16" s="364"/>
+      <c r="D16" s="365"/>
       <c r="E16" t="s">
         <v>1441</v>
       </c>
@@ -55237,7 +55568,7 @@
       <c r="AT16" s="68"/>
     </row>
     <row r="17" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D17" s="364"/>
+      <c r="D17" s="365"/>
       <c r="F17" s="131"/>
       <c r="G17" s="128" t="s">
         <v>10</v>
@@ -55285,7 +55616,7 @@
       <c r="AT17" s="68"/>
     </row>
     <row r="18" spans="1:46">
-      <c r="D18" s="364"/>
+      <c r="D18" s="365"/>
       <c r="F18" s="129"/>
       <c r="G18" s="128" t="s">
         <v>11</v>
@@ -55336,7 +55667,7 @@
       <c r="B19" t="s">
         <v>2798</v>
       </c>
-      <c r="D19" s="364"/>
+      <c r="D19" s="365"/>
       <c r="F19" s="130"/>
       <c r="G19" s="13"/>
       <c r="H19" s="11"/>
@@ -55387,7 +55718,7 @@
       <c r="AT19" s="68"/>
     </row>
     <row r="20" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D20" s="364"/>
+      <c r="D20" s="365"/>
       <c r="E20" t="s">
         <v>1442</v>
       </c>
@@ -55440,7 +55771,7 @@
       <c r="AT20" s="68"/>
     </row>
     <row r="21" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D21" s="364"/>
+      <c r="D21" s="365"/>
       <c r="F21" s="131"/>
       <c r="G21" s="11" t="s">
         <v>15</v>
@@ -55476,7 +55807,7 @@
       <c r="AT21" s="68"/>
     </row>
     <row r="22" spans="1:46">
-      <c r="D22" s="364"/>
+      <c r="D22" s="365"/>
       <c r="F22" s="130"/>
       <c r="G22" s="11" t="s">
         <v>2129</v>
@@ -55526,7 +55857,7 @@
       <c r="AT22" s="68"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="D23" s="364"/>
+      <c r="D23" s="365"/>
       <c r="E23" t="s">
         <v>1441</v>
       </c>
@@ -55572,7 +55903,7 @@
       <c r="A24" t="s">
         <v>2802</v>
       </c>
-      <c r="D24" s="364"/>
+      <c r="D24" s="365"/>
       <c r="F24" s="131"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -55602,7 +55933,7 @@
       <c r="AT24" s="68"/>
     </row>
     <row r="25" spans="1:46">
-      <c r="D25" s="364"/>
+      <c r="D25" s="365"/>
       <c r="E25" t="s">
         <v>2796</v>
       </c>
@@ -56152,12 +56483,12 @@
       <c r="O43" s="103"/>
       <c r="P43" s="103"/>
       <c r="Q43" s="171"/>
-      <c r="X43" s="350" t="s">
+      <c r="X43" s="351" t="s">
         <v>1580</v>
       </c>
-      <c r="Y43" s="351"/>
-      <c r="Z43" s="351"/>
-      <c r="AA43" s="352"/>
+      <c r="Y43" s="352"/>
+      <c r="Z43" s="352"/>
+      <c r="AA43" s="353"/>
       <c r="AC43" t="s">
         <v>1435</v>
       </c>
@@ -56190,10 +56521,10 @@
       <c r="M44" s="306"/>
       <c r="N44" s="306"/>
       <c r="O44" s="306"/>
-      <c r="X44" s="353"/>
-      <c r="Y44" s="354"/>
-      <c r="Z44" s="354"/>
-      <c r="AA44" s="355"/>
+      <c r="X44" s="354"/>
+      <c r="Y44" s="355"/>
+      <c r="Z44" s="355"/>
+      <c r="AA44" s="356"/>
       <c r="XFD44" s="32" t="s">
         <v>1443</v>
       </c>
@@ -56217,10 +56548,10 @@
       <c r="M45" s="306"/>
       <c r="N45" s="306"/>
       <c r="O45" s="306"/>
-      <c r="X45" s="356"/>
-      <c r="Y45" s="357"/>
-      <c r="Z45" s="357"/>
-      <c r="AA45" s="358"/>
+      <c r="X45" s="357"/>
+      <c r="Y45" s="358"/>
+      <c r="Z45" s="358"/>
+      <c r="AA45" s="359"/>
     </row>
     <row r="46" spans="1:46 16384:16384">
       <c r="B46" t="s">
@@ -56306,20 +56637,20 @@
       <c r="V49" t="s">
         <v>2880</v>
       </c>
-      <c r="X49" s="359" t="s">
+      <c r="X49" s="360" t="s">
         <v>2860</v>
       </c>
-      <c r="Y49" s="360"/>
-      <c r="Z49" s="360"/>
-      <c r="AA49" s="360"/>
-      <c r="AB49" s="360"/>
-      <c r="AC49" s="360"/>
-      <c r="AD49" s="360"/>
-      <c r="AE49" s="360"/>
-      <c r="AF49" s="360"/>
-      <c r="AG49" s="360"/>
-      <c r="AH49" s="360"/>
-      <c r="AI49" s="361"/>
+      <c r="Y49" s="361"/>
+      <c r="Z49" s="361"/>
+      <c r="AA49" s="361"/>
+      <c r="AB49" s="361"/>
+      <c r="AC49" s="361"/>
+      <c r="AD49" s="361"/>
+      <c r="AE49" s="361"/>
+      <c r="AF49" s="361"/>
+      <c r="AG49" s="361"/>
+      <c r="AH49" s="361"/>
+      <c r="AI49" s="362"/>
     </row>
     <row r="50" spans="1:35">
       <c r="B50" t="s">
@@ -57367,35 +57698,35 @@
       </c>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="425" t="s">
+      <c r="B8" s="426" t="s">
         <v>2432</v>
       </c>
-      <c r="C8" s="425"/>
-      <c r="F8" s="425" t="s">
+      <c r="C8" s="426"/>
+      <c r="F8" s="426" t="s">
         <v>2433</v>
       </c>
-      <c r="G8" s="425"/>
-      <c r="I8" s="425" t="s">
+      <c r="G8" s="426"/>
+      <c r="I8" s="426" t="s">
         <v>2433</v>
       </c>
-      <c r="J8" s="425"/>
+      <c r="J8" s="426"/>
       <c r="M8" s="216" t="s">
         <v>2490</v>
       </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="F9" s="425" t="s">
+      <c r="F9" s="426" t="s">
         <v>2434</v>
       </c>
-      <c r="G9" s="425"/>
-      <c r="I9" s="425" t="s">
+      <c r="G9" s="426"/>
+      <c r="I9" s="426" t="s">
         <v>2435</v>
       </c>
-      <c r="J9" s="425"/>
-      <c r="M9" s="426" t="s">
+      <c r="J9" s="426"/>
+      <c r="M9" s="427" t="s">
         <v>2433</v>
       </c>
-      <c r="N9" s="426"/>
+      <c r="N9" s="427"/>
     </row>
     <row r="10" spans="1:31">
       <c r="M10" s="273" t="s">
@@ -57404,19 +57735,19 @@
       <c r="N10" s="273"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="E11" s="424" t="s">
+      <c r="E11" s="425" t="s">
         <v>2437</v>
       </c>
-      <c r="F11" s="424"/>
-      <c r="G11" s="424"/>
-      <c r="H11" s="424"/>
-      <c r="I11" s="424"/>
-      <c r="J11" s="424"/>
-      <c r="K11" s="424"/>
-      <c r="L11" s="424"/>
-      <c r="M11" s="424"/>
-      <c r="N11" s="424"/>
-      <c r="O11" s="424"/>
+      <c r="F11" s="425"/>
+      <c r="G11" s="425"/>
+      <c r="H11" s="425"/>
+      <c r="I11" s="425"/>
+      <c r="J11" s="425"/>
+      <c r="K11" s="425"/>
+      <c r="L11" s="425"/>
+      <c r="M11" s="425"/>
+      <c r="N11" s="425"/>
+      <c r="O11" s="425"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
@@ -61176,11 +61507,11 @@
       <c r="L6" s="35" t="s">
         <v>1378</v>
       </c>
-      <c r="M6" s="401" t="s">
+      <c r="M6" s="402" t="s">
         <v>1379</v>
       </c>
-      <c r="N6" s="401"/>
-      <c r="O6" s="401"/>
+      <c r="N6" s="402"/>
+      <c r="O6" s="402"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
@@ -61954,98 +62285,98 @@
   <sheetData>
     <row r="1" spans="3:16" ht="15.75" thickBot="1"/>
     <row r="2" spans="3:16">
-      <c r="C2" s="395" t="s">
+      <c r="C2" s="396" t="s">
         <v>2901</v>
       </c>
-      <c r="D2" s="396"/>
-      <c r="E2" s="396"/>
-      <c r="F2" s="396"/>
-      <c r="G2" s="396"/>
-      <c r="H2" s="396"/>
-      <c r="I2" s="396"/>
-      <c r="J2" s="396"/>
-      <c r="K2" s="396"/>
+      <c r="D2" s="397"/>
+      <c r="E2" s="397"/>
+      <c r="F2" s="397"/>
+      <c r="G2" s="397"/>
+      <c r="H2" s="397"/>
+      <c r="I2" s="397"/>
+      <c r="J2" s="397"/>
+      <c r="K2" s="397"/>
     </row>
     <row r="3" spans="3:16">
-      <c r="C3" s="397"/>
-      <c r="D3" s="398"/>
-      <c r="E3" s="398"/>
-      <c r="F3" s="398"/>
-      <c r="G3" s="398"/>
-      <c r="H3" s="398"/>
-      <c r="I3" s="398"/>
-      <c r="J3" s="398"/>
-      <c r="K3" s="398"/>
+      <c r="C3" s="398"/>
+      <c r="D3" s="399"/>
+      <c r="E3" s="399"/>
+      <c r="F3" s="399"/>
+      <c r="G3" s="399"/>
+      <c r="H3" s="399"/>
+      <c r="I3" s="399"/>
+      <c r="J3" s="399"/>
+      <c r="K3" s="399"/>
       <c r="M3" t="s">
         <v>2902</v>
       </c>
     </row>
     <row r="4" spans="3:16">
-      <c r="C4" s="397"/>
-      <c r="D4" s="398"/>
-      <c r="E4" s="398"/>
-      <c r="F4" s="398"/>
-      <c r="G4" s="398"/>
-      <c r="H4" s="398"/>
-      <c r="I4" s="398"/>
-      <c r="J4" s="398"/>
-      <c r="K4" s="398"/>
+      <c r="C4" s="398"/>
+      <c r="D4" s="399"/>
+      <c r="E4" s="399"/>
+      <c r="F4" s="399"/>
+      <c r="G4" s="399"/>
+      <c r="H4" s="399"/>
+      <c r="I4" s="399"/>
+      <c r="J4" s="399"/>
+      <c r="K4" s="399"/>
       <c r="N4" t="s">
         <v>2903</v>
       </c>
     </row>
     <row r="5" spans="3:16">
-      <c r="C5" s="397"/>
-      <c r="D5" s="398"/>
-      <c r="E5" s="398"/>
-      <c r="F5" s="398"/>
-      <c r="G5" s="398"/>
-      <c r="H5" s="398"/>
-      <c r="I5" s="398"/>
-      <c r="J5" s="398"/>
-      <c r="K5" s="398"/>
+      <c r="C5" s="398"/>
+      <c r="D5" s="399"/>
+      <c r="E5" s="399"/>
+      <c r="F5" s="399"/>
+      <c r="G5" s="399"/>
+      <c r="H5" s="399"/>
+      <c r="I5" s="399"/>
+      <c r="J5" s="399"/>
+      <c r="K5" s="399"/>
       <c r="O5" t="s">
         <v>2904</v>
       </c>
     </row>
     <row r="6" spans="3:16">
-      <c r="C6" s="397"/>
-      <c r="D6" s="398"/>
-      <c r="E6" s="398"/>
-      <c r="F6" s="398"/>
-      <c r="G6" s="398"/>
-      <c r="H6" s="398"/>
-      <c r="I6" s="398"/>
-      <c r="J6" s="398"/>
-      <c r="K6" s="398"/>
+      <c r="C6" s="398"/>
+      <c r="D6" s="399"/>
+      <c r="E6" s="399"/>
+      <c r="F6" s="399"/>
+      <c r="G6" s="399"/>
+      <c r="H6" s="399"/>
+      <c r="I6" s="399"/>
+      <c r="J6" s="399"/>
+      <c r="K6" s="399"/>
       <c r="O6" t="s">
         <v>2128</v>
       </c>
     </row>
     <row r="7" spans="3:16">
-      <c r="C7" s="397"/>
-      <c r="D7" s="398"/>
-      <c r="E7" s="398"/>
-      <c r="F7" s="398"/>
-      <c r="G7" s="398"/>
-      <c r="H7" s="398"/>
-      <c r="I7" s="398"/>
-      <c r="J7" s="398"/>
-      <c r="K7" s="398"/>
+      <c r="C7" s="398"/>
+      <c r="D7" s="399"/>
+      <c r="E7" s="399"/>
+      <c r="F7" s="399"/>
+      <c r="G7" s="399"/>
+      <c r="H7" s="399"/>
+      <c r="I7" s="399"/>
+      <c r="J7" s="399"/>
+      <c r="K7" s="399"/>
       <c r="O7" t="s">
         <v>2905</v>
       </c>
     </row>
     <row r="8" spans="3:16" ht="15.75" thickBot="1">
-      <c r="C8" s="399"/>
-      <c r="D8" s="400"/>
-      <c r="E8" s="400"/>
-      <c r="F8" s="400"/>
-      <c r="G8" s="400"/>
-      <c r="H8" s="400"/>
-      <c r="I8" s="400"/>
-      <c r="J8" s="400"/>
-      <c r="K8" s="400"/>
+      <c r="C8" s="400"/>
+      <c r="D8" s="401"/>
+      <c r="E8" s="401"/>
+      <c r="F8" s="401"/>
+      <c r="G8" s="401"/>
+      <c r="H8" s="401"/>
+      <c r="I8" s="401"/>
+      <c r="J8" s="401"/>
+      <c r="K8" s="401"/>
       <c r="O8" t="s">
         <v>2906</v>
       </c>
@@ -62082,35 +62413,35 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="3:16" ht="15.75" thickBot="1">
-      <c r="C11" s="365" t="s">
+      <c r="C11" s="366" t="s">
         <v>2810</v>
       </c>
-      <c r="D11" s="366"/>
-      <c r="E11" s="366"/>
-      <c r="F11" s="366"/>
-      <c r="G11" s="366"/>
-      <c r="H11" s="366"/>
-      <c r="I11" s="366"/>
-      <c r="J11" s="366"/>
-      <c r="K11" s="366"/>
+      <c r="D11" s="367"/>
+      <c r="E11" s="367"/>
+      <c r="F11" s="367"/>
+      <c r="G11" s="367"/>
+      <c r="H11" s="367"/>
+      <c r="I11" s="367"/>
+      <c r="J11" s="367"/>
+      <c r="K11" s="367"/>
       <c r="N11" t="s">
         <v>2908</v>
       </c>
     </row>
     <row r="12" spans="3:16">
       <c r="C12" s="129"/>
-      <c r="D12" s="380" t="s">
+      <c r="D12" s="381" t="s">
         <v>2931</v>
       </c>
-      <c r="E12" s="381"/>
-      <c r="F12" s="381"/>
-      <c r="G12" s="381"/>
-      <c r="H12" s="382"/>
-      <c r="I12" s="389" t="s">
+      <c r="E12" s="382"/>
+      <c r="F12" s="382"/>
+      <c r="G12" s="382"/>
+      <c r="H12" s="383"/>
+      <c r="I12" s="390" t="s">
         <v>2919</v>
       </c>
-      <c r="J12" s="390"/>
-      <c r="K12" s="391"/>
+      <c r="J12" s="391"/>
+      <c r="K12" s="392"/>
       <c r="O12" t="s">
         <v>2909</v>
       </c>
@@ -62119,53 +62450,53 @@
       <c r="C13" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="383"/>
-      <c r="E13" s="384"/>
-      <c r="F13" s="384"/>
-      <c r="G13" s="384"/>
-      <c r="H13" s="385"/>
-      <c r="I13" s="392"/>
-      <c r="J13" s="393"/>
-      <c r="K13" s="394"/>
+      <c r="D13" s="384"/>
+      <c r="E13" s="385"/>
+      <c r="F13" s="385"/>
+      <c r="G13" s="385"/>
+      <c r="H13" s="386"/>
+      <c r="I13" s="393"/>
+      <c r="J13" s="394"/>
+      <c r="K13" s="395"/>
       <c r="P13" t="s">
         <v>2910</v>
       </c>
     </row>
     <row r="14" spans="3:16" ht="15.75" thickBot="1">
       <c r="C14" s="131"/>
-      <c r="D14" s="383"/>
-      <c r="E14" s="384"/>
-      <c r="F14" s="384"/>
-      <c r="G14" s="384"/>
-      <c r="H14" s="385"/>
-      <c r="I14" s="392"/>
-      <c r="J14" s="393"/>
-      <c r="K14" s="394"/>
+      <c r="D14" s="384"/>
+      <c r="E14" s="385"/>
+      <c r="F14" s="385"/>
+      <c r="G14" s="385"/>
+      <c r="H14" s="386"/>
+      <c r="I14" s="393"/>
+      <c r="J14" s="394"/>
+      <c r="K14" s="395"/>
     </row>
     <row r="15" spans="3:16">
       <c r="C15" s="129"/>
-      <c r="D15" s="383"/>
-      <c r="E15" s="384"/>
-      <c r="F15" s="384"/>
-      <c r="G15" s="384"/>
-      <c r="H15" s="385"/>
-      <c r="I15" s="392"/>
-      <c r="J15" s="393"/>
-      <c r="K15" s="394"/>
+      <c r="D15" s="384"/>
+      <c r="E15" s="385"/>
+      <c r="F15" s="385"/>
+      <c r="G15" s="385"/>
+      <c r="H15" s="386"/>
+      <c r="I15" s="393"/>
+      <c r="J15" s="394"/>
+      <c r="K15" s="395"/>
       <c r="O15" t="s">
         <v>2911</v>
       </c>
     </row>
     <row r="16" spans="3:16">
       <c r="C16" s="130"/>
-      <c r="D16" s="383"/>
-      <c r="E16" s="384"/>
-      <c r="F16" s="384"/>
-      <c r="G16" s="384"/>
-      <c r="H16" s="385"/>
-      <c r="I16" s="392"/>
-      <c r="J16" s="393"/>
-      <c r="K16" s="394"/>
+      <c r="D16" s="384"/>
+      <c r="E16" s="385"/>
+      <c r="F16" s="385"/>
+      <c r="G16" s="385"/>
+      <c r="H16" s="386"/>
+      <c r="I16" s="393"/>
+      <c r="J16" s="394"/>
+      <c r="K16" s="395"/>
       <c r="P16" t="s">
         <v>2912</v>
       </c>
@@ -62174,39 +62505,39 @@
       <c r="C17" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="383"/>
-      <c r="E17" s="384"/>
-      <c r="F17" s="384"/>
-      <c r="G17" s="384"/>
-      <c r="H17" s="385"/>
-      <c r="I17" s="392"/>
-      <c r="J17" s="393"/>
-      <c r="K17" s="394"/>
+      <c r="D17" s="384"/>
+      <c r="E17" s="385"/>
+      <c r="F17" s="385"/>
+      <c r="G17" s="385"/>
+      <c r="H17" s="386"/>
+      <c r="I17" s="393"/>
+      <c r="J17" s="394"/>
+      <c r="K17" s="395"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" thickBot="1">
       <c r="C18" s="131"/>
-      <c r="D18" s="383"/>
-      <c r="E18" s="384"/>
-      <c r="F18" s="384"/>
-      <c r="G18" s="384"/>
-      <c r="H18" s="385"/>
-      <c r="I18" s="392"/>
-      <c r="J18" s="393"/>
-      <c r="K18" s="394"/>
+      <c r="D18" s="384"/>
+      <c r="E18" s="385"/>
+      <c r="F18" s="385"/>
+      <c r="G18" s="385"/>
+      <c r="H18" s="386"/>
+      <c r="I18" s="393"/>
+      <c r="J18" s="394"/>
+      <c r="K18" s="395"/>
       <c r="M18" t="s">
         <v>2913</v>
       </c>
     </row>
     <row r="19" spans="2:16">
       <c r="C19" s="130"/>
-      <c r="D19" s="383"/>
-      <c r="E19" s="384"/>
-      <c r="F19" s="384"/>
-      <c r="G19" s="384"/>
-      <c r="H19" s="385"/>
-      <c r="I19" s="392"/>
-      <c r="J19" s="393"/>
-      <c r="K19" s="394"/>
+      <c r="D19" s="384"/>
+      <c r="E19" s="385"/>
+      <c r="F19" s="385"/>
+      <c r="G19" s="385"/>
+      <c r="H19" s="386"/>
+      <c r="I19" s="393"/>
+      <c r="J19" s="394"/>
+      <c r="K19" s="395"/>
       <c r="N19" t="s">
         <v>2914</v>
       </c>
@@ -62215,45 +62546,45 @@
       <c r="C20" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="383"/>
-      <c r="E20" s="384"/>
-      <c r="F20" s="384"/>
-      <c r="G20" s="384"/>
-      <c r="H20" s="385"/>
-      <c r="I20" s="392"/>
-      <c r="J20" s="393"/>
-      <c r="K20" s="394"/>
+      <c r="D20" s="384"/>
+      <c r="E20" s="385"/>
+      <c r="F20" s="385"/>
+      <c r="G20" s="385"/>
+      <c r="H20" s="386"/>
+      <c r="I20" s="393"/>
+      <c r="J20" s="394"/>
+      <c r="K20" s="395"/>
       <c r="N20" t="s">
         <v>2915</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="15.75" thickBot="1">
       <c r="C21" s="131"/>
-      <c r="D21" s="386"/>
-      <c r="E21" s="387"/>
-      <c r="F21" s="387"/>
-      <c r="G21" s="387"/>
-      <c r="H21" s="388"/>
-      <c r="I21" s="392"/>
-      <c r="J21" s="393"/>
-      <c r="K21" s="394"/>
+      <c r="D21" s="387"/>
+      <c r="E21" s="388"/>
+      <c r="F21" s="388"/>
+      <c r="G21" s="388"/>
+      <c r="H21" s="389"/>
+      <c r="I21" s="393"/>
+      <c r="J21" s="394"/>
+      <c r="K21" s="395"/>
       <c r="N21" t="s">
         <v>2916</v>
       </c>
     </row>
     <row r="22" spans="2:16">
-      <c r="D22" s="401" t="s">
+      <c r="D22" s="402" t="s">
         <v>2585</v>
       </c>
-      <c r="E22" s="401"/>
-      <c r="F22" s="401"/>
-      <c r="G22" s="401"/>
-      <c r="H22" s="401"/>
-      <c r="I22" s="401" t="s">
+      <c r="E22" s="402"/>
+      <c r="F22" s="402"/>
+      <c r="G22" s="402"/>
+      <c r="H22" s="402"/>
+      <c r="I22" s="402" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="401"/>
-      <c r="K22" s="401"/>
+      <c r="J22" s="402"/>
+      <c r="K22" s="402"/>
       <c r="N22" t="s">
         <v>2917</v>
       </c>
@@ -64837,10 +65168,10 @@
       </c>
       <c r="G121" s="23"/>
       <c r="H121" s="24"/>
-      <c r="I121" s="404" t="s">
+      <c r="I121" s="405" t="s">
         <v>2587</v>
       </c>
-      <c r="J121" s="404" t="s">
+      <c r="J121" s="405" t="s">
         <v>2591</v>
       </c>
       <c r="K121" s="20"/>
@@ -64856,8 +65187,8 @@
       <c r="H122" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="I122" s="405"/>
-      <c r="J122" s="405"/>
+      <c r="I122" s="406"/>
+      <c r="J122" s="406"/>
       <c r="K122" s="20"/>
       <c r="L122" s="20"/>
       <c r="M122" s="27"/>
@@ -64871,8 +65202,8 @@
       <c r="H123" s="20">
         <v>19</v>
       </c>
-      <c r="I123" s="405"/>
-      <c r="J123" s="405"/>
+      <c r="I123" s="406"/>
+      <c r="J123" s="406"/>
       <c r="K123" s="20"/>
       <c r="L123" s="20"/>
       <c r="M123" s="27"/>
@@ -64886,8 +65217,8 @@
       <c r="H124" s="29" t="s">
         <v>1807</v>
       </c>
-      <c r="I124" s="405"/>
-      <c r="J124" s="405"/>
+      <c r="I124" s="406"/>
+      <c r="J124" s="406"/>
       <c r="K124" s="20"/>
       <c r="L124" s="20"/>
       <c r="M124" s="27"/>
@@ -64897,8 +65228,8 @@
       <c r="F125" s="20"/>
       <c r="G125" s="20"/>
       <c r="H125" s="20"/>
-      <c r="I125" s="405"/>
-      <c r="J125" s="405"/>
+      <c r="I125" s="406"/>
+      <c r="J125" s="406"/>
       <c r="K125" s="20"/>
       <c r="L125" s="20"/>
       <c r="M125" s="27"/>
@@ -64911,8 +65242,8 @@
       <c r="F126" s="20"/>
       <c r="G126" s="20"/>
       <c r="H126" s="20"/>
-      <c r="I126" s="405"/>
-      <c r="J126" s="405"/>
+      <c r="I126" s="406"/>
+      <c r="J126" s="406"/>
       <c r="K126" s="20"/>
       <c r="L126" s="20"/>
       <c r="M126" s="27"/>
@@ -64924,8 +65255,8 @@
       </c>
       <c r="G127" s="23"/>
       <c r="H127" s="24"/>
-      <c r="I127" s="405"/>
-      <c r="J127" s="405"/>
+      <c r="I127" s="406"/>
+      <c r="J127" s="406"/>
       <c r="K127" s="20"/>
       <c r="L127" s="20"/>
       <c r="M127" s="27"/>
@@ -64939,8 +65270,8 @@
       <c r="H128" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="I128" s="405"/>
-      <c r="J128" s="405"/>
+      <c r="I128" s="406"/>
+      <c r="J128" s="406"/>
       <c r="K128" s="20"/>
       <c r="L128" s="20"/>
       <c r="M128" s="27"/>
@@ -64954,8 +65285,8 @@
       <c r="H129" s="20">
         <v>20</v>
       </c>
-      <c r="I129" s="405"/>
-      <c r="J129" s="405"/>
+      <c r="I129" s="406"/>
+      <c r="J129" s="406"/>
       <c r="K129" s="20"/>
       <c r="L129" s="20"/>
       <c r="M129" s="27"/>
@@ -64969,8 +65300,8 @@
       <c r="H130" s="29" t="s">
         <v>2583</v>
       </c>
-      <c r="I130" s="405"/>
-      <c r="J130" s="405"/>
+      <c r="I130" s="406"/>
+      <c r="J130" s="406"/>
       <c r="K130" s="20"/>
       <c r="L130" s="20"/>
       <c r="M130" s="27"/>
@@ -64980,8 +65311,8 @@
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
       <c r="H131" s="20"/>
-      <c r="I131" s="405"/>
-      <c r="J131" s="405"/>
+      <c r="I131" s="406"/>
+      <c r="J131" s="406"/>
       <c r="K131" s="20"/>
       <c r="L131" s="20"/>
       <c r="M131" s="27"/>
@@ -64993,8 +65324,8 @@
       </c>
       <c r="G132" s="23"/>
       <c r="H132" s="24"/>
-      <c r="I132" s="405"/>
-      <c r="J132" s="405"/>
+      <c r="I132" s="406"/>
+      <c r="J132" s="406"/>
       <c r="K132" s="20"/>
       <c r="L132" s="20"/>
       <c r="M132" s="27"/>
@@ -65008,8 +65339,8 @@
       <c r="H133" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="I133" s="405"/>
-      <c r="J133" s="405"/>
+      <c r="I133" s="406"/>
+      <c r="J133" s="406"/>
       <c r="K133" s="20"/>
       <c r="L133" s="20"/>
       <c r="M133" s="27"/>
@@ -65023,8 +65354,8 @@
       <c r="H134" s="20">
         <v>18</v>
       </c>
-      <c r="I134" s="405"/>
-      <c r="J134" s="405"/>
+      <c r="I134" s="406"/>
+      <c r="J134" s="406"/>
       <c r="K134" s="20"/>
       <c r="L134" s="20"/>
       <c r="M134" s="27"/>
@@ -65038,8 +65369,8 @@
       <c r="H135" s="29" t="s">
         <v>2584</v>
       </c>
-      <c r="I135" s="406"/>
-      <c r="J135" s="406"/>
+      <c r="I135" s="407"/>
+      <c r="J135" s="407"/>
       <c r="K135" s="20"/>
       <c r="L135" s="20"/>
       <c r="M135" s="27"/>
@@ -65119,8 +65450,8 @@
       <c r="H147" s="24" t="s">
         <v>2590</v>
       </c>
-      <c r="I147" s="407"/>
-      <c r="J147" s="407"/>
+      <c r="I147" s="408"/>
+      <c r="J147" s="408"/>
       <c r="K147" s="20"/>
       <c r="L147" s="20"/>
       <c r="M147" s="27"/>
@@ -65134,8 +65465,8 @@
       <c r="H148" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="I148" s="408"/>
-      <c r="J148" s="408"/>
+      <c r="I148" s="409"/>
+      <c r="J148" s="409"/>
       <c r="K148" s="20"/>
       <c r="L148" s="20"/>
       <c r="M148" s="27"/>
@@ -65149,8 +65480,8 @@
       <c r="H149" s="20">
         <v>19</v>
       </c>
-      <c r="I149" s="408"/>
-      <c r="J149" s="408"/>
+      <c r="I149" s="409"/>
+      <c r="J149" s="409"/>
       <c r="K149" s="20"/>
       <c r="L149" s="20"/>
       <c r="M149" s="27"/>
@@ -65164,8 +65495,8 @@
       <c r="H150" s="29" t="s">
         <v>1807</v>
       </c>
-      <c r="I150" s="408"/>
-      <c r="J150" s="408"/>
+      <c r="I150" s="409"/>
+      <c r="J150" s="409"/>
       <c r="K150" s="20"/>
       <c r="L150" s="20"/>
       <c r="M150" s="27"/>
@@ -65175,8 +65506,8 @@
       <c r="F151" s="20"/>
       <c r="G151" s="20"/>
       <c r="H151" s="20"/>
-      <c r="I151" s="408"/>
-      <c r="J151" s="408"/>
+      <c r="I151" s="409"/>
+      <c r="J151" s="409"/>
       <c r="K151" s="20"/>
       <c r="L151" s="20"/>
       <c r="M151" s="27"/>
@@ -65186,8 +65517,8 @@
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
-      <c r="I152" s="408"/>
-      <c r="J152" s="408"/>
+      <c r="I152" s="409"/>
+      <c r="J152" s="409"/>
       <c r="K152" s="20"/>
       <c r="L152" s="20"/>
       <c r="M152" s="27"/>
@@ -65203,8 +65534,8 @@
       <c r="H153" s="24" t="s">
         <v>2590</v>
       </c>
-      <c r="I153" s="408"/>
-      <c r="J153" s="408"/>
+      <c r="I153" s="409"/>
+      <c r="J153" s="409"/>
       <c r="K153" s="20"/>
       <c r="L153" s="20"/>
       <c r="M153" s="27"/>
@@ -65221,8 +65552,8 @@
       <c r="H154" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="I154" s="408"/>
-      <c r="J154" s="408"/>
+      <c r="I154" s="409"/>
+      <c r="J154" s="409"/>
       <c r="K154" s="20"/>
       <c r="L154" s="20"/>
       <c r="M154" s="27"/>
@@ -65236,8 +65567,8 @@
       <c r="H155" s="20">
         <v>20</v>
       </c>
-      <c r="I155" s="408"/>
-      <c r="J155" s="408"/>
+      <c r="I155" s="409"/>
+      <c r="J155" s="409"/>
       <c r="K155" s="20"/>
       <c r="L155" s="20"/>
       <c r="M155" s="27"/>
@@ -65251,8 +65582,8 @@
       <c r="H156" s="29" t="s">
         <v>2583</v>
       </c>
-      <c r="I156" s="408"/>
-      <c r="J156" s="408"/>
+      <c r="I156" s="409"/>
+      <c r="J156" s="409"/>
       <c r="K156" s="20"/>
       <c r="L156" s="20"/>
       <c r="M156" s="27"/>
@@ -65262,8 +65593,8 @@
       <c r="F157" s="20"/>
       <c r="G157" s="20"/>
       <c r="H157" s="20"/>
-      <c r="I157" s="408"/>
-      <c r="J157" s="408"/>
+      <c r="I157" s="409"/>
+      <c r="J157" s="409"/>
       <c r="K157" s="20"/>
       <c r="L157" s="20"/>
       <c r="M157" s="27"/>
@@ -65279,8 +65610,8 @@
       <c r="H158" s="24" t="s">
         <v>2590</v>
       </c>
-      <c r="I158" s="408"/>
-      <c r="J158" s="408"/>
+      <c r="I158" s="409"/>
+      <c r="J158" s="409"/>
       <c r="K158" s="20"/>
       <c r="L158" s="20"/>
       <c r="M158" s="27"/>
@@ -65294,8 +65625,8 @@
       <c r="H159" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="I159" s="408"/>
-      <c r="J159" s="408"/>
+      <c r="I159" s="409"/>
+      <c r="J159" s="409"/>
       <c r="K159" s="20"/>
       <c r="L159" s="20"/>
       <c r="M159" s="27"/>
@@ -65309,8 +65640,8 @@
       <c r="H160" s="20">
         <v>18</v>
       </c>
-      <c r="I160" s="408"/>
-      <c r="J160" s="408"/>
+      <c r="I160" s="409"/>
+      <c r="J160" s="409"/>
       <c r="K160" s="20"/>
       <c r="L160" s="20"/>
       <c r="M160" s="27"/>
@@ -65324,8 +65655,8 @@
       <c r="H161" s="29" t="s">
         <v>2584</v>
       </c>
-      <c r="I161" s="409"/>
-      <c r="J161" s="409"/>
+      <c r="I161" s="410"/>
+      <c r="J161" s="410"/>
       <c r="K161" s="20"/>
       <c r="L161" s="20"/>
       <c r="M161" s="27"/>
@@ -66284,7 +66615,7 @@
       <c r="F269" s="32">
         <v>9</v>
       </c>
-      <c r="G269" s="402" t="s">
+      <c r="G269" s="403" t="s">
         <v>2228</v>
       </c>
       <c r="I269" s="48" t="s">
@@ -66305,7 +66636,7 @@
       <c r="F270" s="32">
         <v>15</v>
       </c>
-      <c r="G270" s="403"/>
+      <c r="G270" s="404"/>
       <c r="I270" s="151" t="s">
         <v>2224</v>
       </c>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="ref-review" sheetId="33" r:id="rId1"/>
@@ -30997,7 +30997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="F25" sqref="F25:F26"/>
     </sheetView>
   </sheetViews>
@@ -31528,8 +31528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O187"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -31528,8 +31528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:K5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="11" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="ref-review" sheetId="33" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5908" uniqueCount="3150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5915" uniqueCount="3155">
   <si>
     <t>USER</t>
   </si>
@@ -8234,33 +8234,12 @@
     <t>to global instance variables</t>
   </si>
   <si>
-    <t>public FBAccount(String n, int a, String s) {</t>
-  </si>
-  <si>
     <t>age=a;</t>
   </si>
   <si>
     <t>school=s;</t>
   </si>
   <si>
-    <t>public FBAccount(String n, int a) {</t>
-  </si>
-  <si>
-    <t>public FBAccount(String n) {</t>
-  </si>
-  <si>
-    <t>FBAccount customer1=new FBAccount("jane",24,"pqr school");</t>
-  </si>
-  <si>
-    <t>FBAccount customer2=new FBAccount("mike",26);</t>
-  </si>
-  <si>
-    <t>FBAccount customer3=new FBAccount("andy");</t>
-  </si>
-  <si>
-    <t>pqr school</t>
-  </si>
-  <si>
     <t>A B C School</t>
   </si>
   <si>
@@ -8295,9 +8274,6 @@
   </si>
   <si>
     <t>not allowed</t>
-  </si>
-  <si>
-    <t>default void occupation();</t>
   </si>
   <si>
     <t>sysout('doctor');</t>
@@ -9748,6 +9724,78 @@
   </si>
   <si>
     <t>binary to decimal</t>
+  </si>
+  <si>
+    <t>Constructor = initialze/customize values for global instance variabels</t>
+  </si>
+  <si>
+    <t>public FBAccount(String name){</t>
+  </si>
+  <si>
+    <t>FBAccount customer1=new FBAccount("jane");</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.name=name;</t>
+    </r>
+  </si>
+  <si>
+    <t>global name = local name</t>
+  </si>
+  <si>
+    <t>// local var name =jane</t>
+  </si>
+  <si>
+    <t>global name= "jane";</t>
+  </si>
+  <si>
+    <t>public FBAccount(String name,int a){</t>
+  </si>
+  <si>
+    <t>public FBAccount(String name,int a, String s){</t>
+  </si>
+  <si>
+    <t>FBAccount customer2=new FBAccount("mike",23);</t>
+  </si>
+  <si>
+    <t>FBAccount customer3=new FBAccount("andy",27,"PQR School");</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FBAccount customer2=new </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FBAccount("mike",23);</t>
+    </r>
+  </si>
+  <si>
+    <t>PQR School</t>
   </si>
 </sst>
 </file>
@@ -11638,7 +11686,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="20" t="s">
-        <v>3091</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
@@ -11646,7 +11694,7 @@
         <v>1962</v>
       </c>
       <c r="H2" s="262" t="s">
-        <v>3093</v>
+        <v>3085</v>
       </c>
       <c r="I2" s="346" t="s">
         <v>1682</v>
@@ -11661,7 +11709,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="C3" s="155" t="s">
-        <v>3094</v>
+        <v>3086</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>1111</v>
@@ -11693,7 +11741,7 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1">
       <c r="C5" s="155" t="s">
-        <v>3120</v>
+        <v>3112</v>
       </c>
       <c r="H5" s="26"/>
       <c r="M5" s="28"/>
@@ -11703,7 +11751,7 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="A6" s="32" t="s">
-        <v>3102</v>
+        <v>3094</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="20" t="s">
@@ -11711,7 +11759,7 @@
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="32" t="s">
-        <v>3101</v>
+        <v>3093</v>
       </c>
       <c r="F6" s="32"/>
       <c r="H6" s="26"/>
@@ -11722,7 +11770,7 @@
         <v>567</v>
       </c>
       <c r="C7" s="155" t="s">
-        <v>3104</v>
+        <v>3096</v>
       </c>
       <c r="F7" s="32" t="s">
         <v>567</v>
@@ -11765,7 +11813,7 @@
         <v>142</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>3096</v>
+        <v>3088</v>
       </c>
       <c r="H9" s="26"/>
       <c r="L9" s="155"/>
@@ -11789,14 +11837,14 @@
         <v>567</v>
       </c>
       <c r="D11" s="156" t="s">
-        <v>3098</v>
+        <v>3090</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>3097</v>
+        <v>3089</v>
       </c>
       <c r="H11" s="26"/>
       <c r="M11" s="20" t="s">
-        <v>3122</v>
+        <v>3114</v>
       </c>
       <c r="P11" s="27"/>
     </row>
@@ -11805,7 +11853,7 @@
         <v>567</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>3103</v>
+        <v>3095</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
@@ -11821,14 +11869,14 @@
         <v>567</v>
       </c>
       <c r="C13" s="156" t="s">
-        <v>3031</v>
+        <v>3023</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
       <c r="F13" s="156"/>
       <c r="H13" s="26"/>
       <c r="M13" s="20" t="s">
-        <v>3123</v>
+        <v>3115</v>
       </c>
       <c r="P13" s="27"/>
     </row>
@@ -11837,11 +11885,11 @@
         <v>567</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>3119</v>
+        <v>3111</v>
       </c>
       <c r="H14" s="26"/>
       <c r="M14" s="20" t="s">
-        <v>3124</v>
+        <v>3116</v>
       </c>
       <c r="P14" s="27"/>
     </row>
@@ -11850,7 +11898,7 @@
         <v>567</v>
       </c>
       <c r="C15" s="155" t="s">
-        <v>3121</v>
+        <v>3113</v>
       </c>
       <c r="H15" s="26"/>
       <c r="P15" s="27"/>
@@ -11860,7 +11908,7 @@
         <v>567</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>3092</v>
+        <v>3084</v>
       </c>
       <c r="H16" s="26"/>
       <c r="P16" s="27"/>
@@ -11873,7 +11921,7 @@
         <v>142</v>
       </c>
       <c r="C17" s="196" t="s">
-        <v>3099</v>
+        <v>3091</v>
       </c>
       <c r="H17" s="26"/>
       <c r="P17" s="27"/>
@@ -11883,7 +11931,7 @@
         <v>142</v>
       </c>
       <c r="C18" s="283" t="s">
-        <v>3100</v>
+        <v>3092</v>
       </c>
       <c r="H18" s="26"/>
       <c r="P18" s="27"/>
@@ -11922,15 +11970,15 @@
     </row>
     <row r="26" spans="1:16" ht="15.75" thickBot="1">
       <c r="A26" s="20" t="s">
-        <v>3091</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="B27" s="20" t="s">
-        <v>3105</v>
+        <v>3097</v>
       </c>
       <c r="H27" s="262" t="s">
-        <v>3093</v>
+        <v>3085</v>
       </c>
       <c r="I27" s="346" t="s">
         <v>1682</v>
@@ -11956,7 +12004,7 @@
         <v>525</v>
       </c>
       <c r="D29" s="155" t="s">
-        <v>3115</v>
+        <v>3107</v>
       </c>
       <c r="H29" s="349"/>
       <c r="I29" s="196"/>
@@ -11964,15 +12012,15 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="32" t="s">
-        <v>3112</v>
+        <v>3104</v>
       </c>
       <c r="B30" s="32"/>
       <c r="C30" s="20" t="s">
-        <v>3110</v>
+        <v>3102</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="32" t="s">
-        <v>3101</v>
+        <v>3093</v>
       </c>
       <c r="F30" s="32"/>
       <c r="H30" s="26"/>
@@ -11983,7 +12031,7 @@
         <v>567</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>3111</v>
+        <v>3103</v>
       </c>
       <c r="F31" s="32" t="s">
         <v>567</v>
@@ -11999,7 +12047,7 @@
         <v>142</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>3096</v>
+        <v>3088</v>
       </c>
       <c r="H32" s="26"/>
       <c r="P32" s="27"/>
@@ -12019,10 +12067,10 @@
         <v>567</v>
       </c>
       <c r="D34" s="156" t="s">
-        <v>3116</v>
+        <v>3108</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>3108</v>
+        <v>3100</v>
       </c>
       <c r="H34" s="26"/>
       <c r="P34" s="27"/>
@@ -12032,13 +12080,13 @@
         <v>50</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>3106</v>
+        <v>3098</v>
       </c>
       <c r="C35" s="32"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
       <c r="F35" s="347" t="s">
-        <v>3109</v>
+        <v>3101</v>
       </c>
       <c r="H35" s="26"/>
       <c r="P35" s="27"/>
@@ -12048,10 +12096,10 @@
         <v>567</v>
       </c>
       <c r="C36" s="215" t="s">
-        <v>3107</v>
+        <v>3099</v>
       </c>
       <c r="E36" s="155" t="s">
-        <v>3117</v>
+        <v>3109</v>
       </c>
       <c r="H36" s="26"/>
       <c r="P36" s="27"/>
@@ -12068,13 +12116,13 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="348" t="s">
-        <v>3114</v>
+        <v>3106</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>3113</v>
+        <v>3105</v>
       </c>
       <c r="C38" s="196" t="s">
-        <v>3118</v>
+        <v>3110</v>
       </c>
       <c r="H38" s="26"/>
       <c r="P38" s="27"/>
@@ -12170,7 +12218,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="20" t="s">
-        <v>3125</v>
+        <v>3117</v>
       </c>
       <c r="H50" s="26"/>
       <c r="L50" s="20" t="s">
@@ -12186,10 +12234,10 @@
     </row>
     <row r="51" spans="1:16" ht="15.75" thickBot="1">
       <c r="A51" s="20" t="s">
-        <v>3126</v>
+        <v>3118</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>3129</v>
+        <v>3121</v>
       </c>
       <c r="H51" s="26"/>
       <c r="M51" s="28"/>
@@ -12198,7 +12246,7 @@
     </row>
     <row r="52" spans="1:16">
       <c r="D52" s="20" t="s">
-        <v>3128</v>
+        <v>3120</v>
       </c>
       <c r="E52" s="155" t="b">
         <v>1</v>
@@ -12222,7 +12270,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="B55" s="20" t="s">
-        <v>3127</v>
+        <v>3119</v>
       </c>
       <c r="H55" s="26"/>
       <c r="P55" s="27"/>
@@ -12279,7 +12327,7 @@
         <v>2618</v>
       </c>
       <c r="E2" s="378" t="s">
-        <v>3012</v>
+        <v>3004</v>
       </c>
       <c r="F2" s="380"/>
       <c r="G2" s="380"/>
@@ -12377,7 +12425,7 @@
       <c r="G7" s="43"/>
       <c r="H7" s="43"/>
       <c r="I7" s="109" t="s">
-        <v>3016</v>
+        <v>3008</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
@@ -12389,7 +12437,7 @@
         <v>2620</v>
       </c>
       <c r="D8" t="s">
-        <v>3013</v>
+        <v>3005</v>
       </c>
       <c r="E8" s="42"/>
       <c r="F8" s="43"/>
@@ -12434,7 +12482,7 @@
         <v>1550</v>
       </c>
       <c r="J10" s="109" t="s">
-        <v>3017</v>
+        <v>3009</v>
       </c>
       <c r="K10" s="43"/>
       <c r="L10" s="43"/>
@@ -12462,10 +12510,10 @@
         <v>1634</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>3022</v>
+        <v>3014</v>
       </c>
       <c r="F12" s="109" t="s">
-        <v>3023</v>
+        <v>3015</v>
       </c>
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
@@ -12488,7 +12536,7 @@
         <v>691</v>
       </c>
       <c r="F13" s="109" t="s">
-        <v>3024</v>
+        <v>3016</v>
       </c>
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
@@ -12505,7 +12553,7 @@
     <row r="14" spans="1:13" ht="15.75" thickBot="1">
       <c r="E14" s="108"/>
       <c r="F14" s="109" t="s">
-        <v>3025</v>
+        <v>3017</v>
       </c>
       <c r="G14" s="43"/>
       <c r="H14" s="43"/>
@@ -12517,7 +12565,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="149" t="s">
-        <v>3026</v>
+        <v>3018</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="20"/>
@@ -12531,7 +12579,7 @@
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1">
       <c r="A16" t="s">
-        <v>3027</v>
+        <v>3019</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="29"/>
@@ -12568,7 +12616,7 @@
         <v>2618</v>
       </c>
       <c r="E19" s="378" t="s">
-        <v>3012</v>
+        <v>3004</v>
       </c>
       <c r="F19" s="380"/>
       <c r="G19" s="380"/>
@@ -12596,7 +12644,7 @@
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20" t="s">
-        <v>3037</v>
+        <v>3029</v>
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
@@ -12616,7 +12664,7 @@
       <c r="H21" s="43"/>
       <c r="I21" s="143"/>
       <c r="J21" s="143" t="s">
-        <v>3038</v>
+        <v>3030</v>
       </c>
       <c r="K21" s="211"/>
       <c r="L21" s="43"/>
@@ -12630,7 +12678,7 @@
         <v>1647</v>
       </c>
       <c r="G22" s="109" t="s">
-        <v>3033</v>
+        <v>3025</v>
       </c>
       <c r="H22" s="43"/>
       <c r="I22" s="143"/>
@@ -12666,7 +12714,7 @@
       <c r="G24" s="43"/>
       <c r="H24" s="43"/>
       <c r="I24" s="109" t="s">
-        <v>3016</v>
+        <v>3008</v>
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
@@ -12678,7 +12726,7 @@
         <v>2620</v>
       </c>
       <c r="D25" t="s">
-        <v>3013</v>
+        <v>3005</v>
       </c>
       <c r="E25" s="42"/>
       <c r="F25" s="43"/>
@@ -12723,7 +12771,7 @@
         <v>1550</v>
       </c>
       <c r="J27" s="109" t="s">
-        <v>3017</v>
+        <v>3009</v>
       </c>
       <c r="K27" s="43"/>
       <c r="L27" s="43"/>
@@ -12748,13 +12796,13 @@
         <v>1884</v>
       </c>
       <c r="C29" t="s">
-        <v>3028</v>
+        <v>3020</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>3022</v>
+        <v>3014</v>
       </c>
       <c r="F29" s="109" t="s">
-        <v>3023</v>
+        <v>3015</v>
       </c>
       <c r="G29" s="43"/>
       <c r="H29" s="43"/>
@@ -12768,13 +12816,13 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>3021</v>
+        <v>3013</v>
       </c>
       <c r="E30" s="42" t="s">
         <v>691</v>
       </c>
       <c r="F30" s="109" t="s">
-        <v>3024</v>
+        <v>3016</v>
       </c>
       <c r="G30" s="43"/>
       <c r="H30" s="43"/>
@@ -12797,7 +12845,7 @@
       </c>
       <c r="E31" s="108"/>
       <c r="F31" s="109" t="s">
-        <v>3025</v>
+        <v>3017</v>
       </c>
       <c r="G31" s="43"/>
       <c r="H31" s="43"/>
@@ -12848,12 +12896,12 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>3029</v>
+        <v>3021</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
       <c r="G35" s="20" t="s">
-        <v>3034</v>
+        <v>3026</v>
       </c>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
@@ -12867,15 +12915,15 @@
         <v>1884</v>
       </c>
       <c r="B36" t="s">
-        <v>3030</v>
+        <v>3022</v>
       </c>
       <c r="C36" t="s">
-        <v>3031</v>
+        <v>3023</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
       <c r="G36" s="20" t="s">
-        <v>3035</v>
+        <v>3027</v>
       </c>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
@@ -12886,15 +12934,15 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>3032</v>
+        <v>3024</v>
       </c>
       <c r="G37" t="s">
-        <v>3036</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>3029</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1">
@@ -12911,7 +12959,7 @@
         <v>2618</v>
       </c>
       <c r="E42" s="378" t="s">
-        <v>3012</v>
+        <v>3004</v>
       </c>
       <c r="F42" s="380"/>
       <c r="G42" s="380"/>
@@ -13010,17 +13058,17 @@
       <c r="J47" s="181"/>
       <c r="K47" s="183"/>
       <c r="L47" s="20" t="s">
-        <v>3043</v>
+        <v>3035</v>
       </c>
       <c r="M47" s="44"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1">
       <c r="A48" t="s">
-        <v>3021</v>
+        <v>3013</v>
       </c>
       <c r="E48" s="42"/>
       <c r="F48" s="43" t="s">
-        <v>3044</v>
+        <v>3036</v>
       </c>
       <c r="G48" s="43"/>
       <c r="H48" s="43"/>
@@ -13050,10 +13098,10 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>3039</v>
+        <v>3031</v>
       </c>
       <c r="C50" t="s">
-        <v>3041</v>
+        <v>3033</v>
       </c>
       <c r="E50" s="42"/>
       <c r="F50" s="43"/>
@@ -13069,10 +13117,10 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1">
       <c r="A51" t="s">
-        <v>3040</v>
+        <v>3032</v>
       </c>
       <c r="C51" t="s">
-        <v>3042</v>
+        <v>3034</v>
       </c>
       <c r="E51" s="42"/>
       <c r="F51" s="43"/>
@@ -13090,13 +13138,13 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>2998</v>
+        <v>2990</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>3022</v>
+        <v>3014</v>
       </c>
       <c r="F52" s="109" t="s">
-        <v>3023</v>
+        <v>3015</v>
       </c>
       <c r="G52" s="43"/>
       <c r="H52" s="43"/>
@@ -13111,7 +13159,7 @@
         <v>691</v>
       </c>
       <c r="F53" s="109" t="s">
-        <v>3024</v>
+        <v>3016</v>
       </c>
       <c r="G53" s="43"/>
       <c r="H53" s="43"/>
@@ -13130,7 +13178,7 @@
       </c>
       <c r="E54" s="108"/>
       <c r="F54" s="109" t="s">
-        <v>3025</v>
+        <v>3017</v>
       </c>
       <c r="G54" s="43"/>
       <c r="H54" s="43"/>
@@ -13148,7 +13196,7 @@
         <v>1634</v>
       </c>
       <c r="E55" s="108" t="s">
-        <v>3016</v>
+        <v>3008</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
@@ -13164,7 +13212,7 @@
         <v>1550</v>
       </c>
       <c r="F56" s="287" t="s">
-        <v>3017</v>
+        <v>3009</v>
       </c>
       <c r="G56" s="29"/>
       <c r="H56" s="29"/>
@@ -13176,12 +13224,12 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>3029</v>
+        <v>3021</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
       <c r="G58" s="20" t="s">
-        <v>3034</v>
+        <v>3026</v>
       </c>
       <c r="H58" s="20"/>
     </row>
@@ -13190,39 +13238,39 @@
         <v>1884</v>
       </c>
       <c r="B59" t="s">
-        <v>3030</v>
+        <v>3022</v>
       </c>
       <c r="C59" t="s">
-        <v>3031</v>
+        <v>3023</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
       <c r="G59" s="20" t="s">
-        <v>3035</v>
+        <v>3027</v>
       </c>
       <c r="H59" s="20"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>3032</v>
+        <v>3024</v>
       </c>
       <c r="G60" t="s">
-        <v>3036</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>3029</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>3029</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
       <c r="A64" s="22" t="s">
-        <v>3045</v>
+        <v>3037</v>
       </c>
       <c r="B64" s="22"/>
       <c r="C64" t="s">
@@ -13231,10 +13279,10 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>3046</v>
+        <v>3038</v>
       </c>
       <c r="E65" s="378" t="s">
-        <v>3012</v>
+        <v>3004</v>
       </c>
       <c r="F65" s="380"/>
       <c r="G65" s="380"/>
@@ -13268,7 +13316,7 @@
         <v>142</v>
       </c>
       <c r="E67" s="42" t="s">
-        <v>3054</v>
+        <v>3046</v>
       </c>
       <c r="F67" s="43" t="s">
         <v>345</v>
@@ -13285,7 +13333,7 @@
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
       <c r="E68" s="42" t="s">
-        <v>3055</v>
+        <v>3047</v>
       </c>
       <c r="F68" s="43" t="s">
         <v>345</v>
@@ -13294,7 +13342,7 @@
       <c r="H68" s="43"/>
       <c r="I68" s="43"/>
       <c r="J68" s="45" t="s">
-        <v>3053</v>
+        <v>3045</v>
       </c>
       <c r="K68" s="288">
         <v>125</v>
@@ -13304,7 +13352,7 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>3047</v>
+        <v>3039</v>
       </c>
       <c r="E69" s="42"/>
       <c r="F69" s="43"/>
@@ -13318,11 +13366,11 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>3048</v>
+        <v>3040</v>
       </c>
       <c r="E70" s="42"/>
       <c r="F70" t="s">
-        <v>3049</v>
+        <v>3041</v>
       </c>
       <c r="I70" s="211"/>
       <c r="J70" s="155"/>
@@ -13332,7 +13380,7 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>3049</v>
+        <v>3041</v>
       </c>
       <c r="E71" s="42"/>
       <c r="I71" s="143"/>
@@ -13343,14 +13391,14 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>3050</v>
+        <v>3042</v>
       </c>
       <c r="D72">
         <v>150</v>
       </c>
       <c r="E72" s="42"/>
       <c r="F72" s="329" t="s">
-        <v>3056</v>
+        <v>3048</v>
       </c>
       <c r="G72" s="43"/>
       <c r="H72" s="43"/>
@@ -13360,20 +13408,20 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>3051</v>
+        <v>3043</v>
       </c>
       <c r="D73">
         <v>150</v>
       </c>
       <c r="E73" s="42"/>
       <c r="G73" s="109" t="s">
-        <v>3062</v>
+        <v>3054</v>
       </c>
       <c r="H73" s="330" t="s">
-        <v>3063</v>
+        <v>3055</v>
       </c>
       <c r="J73" s="43" t="s">
-        <v>3057</v>
+        <v>3049</v>
       </c>
       <c r="K73" s="146">
         <v>150</v>
@@ -13383,15 +13431,15 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>3052</v>
+        <v>3044</v>
       </c>
       <c r="E74" s="42"/>
       <c r="G74" s="109" t="s">
-        <v>3058</v>
+        <v>3050</v>
       </c>
       <c r="H74" s="109"/>
       <c r="I74" s="109" t="s">
-        <v>3059</v>
+        <v>3051</v>
       </c>
       <c r="J74" s="43"/>
       <c r="K74" s="43"/>
@@ -13400,7 +13448,7 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>3050</v>
+        <v>3042</v>
       </c>
       <c r="D75">
         <v>125</v>
@@ -13417,14 +13465,14 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>3051</v>
+        <v>3043</v>
       </c>
       <c r="D76">
         <v>125</v>
       </c>
       <c r="E76" s="42"/>
       <c r="F76" s="109" t="s">
-        <v>3060</v>
+        <v>3052</v>
       </c>
       <c r="G76" s="43"/>
       <c r="H76" s="43"/>
@@ -13438,7 +13486,7 @@
       <c r="E77" s="108"/>
       <c r="F77" s="109"/>
       <c r="G77" s="109" t="s">
-        <v>3061</v>
+        <v>3053</v>
       </c>
       <c r="H77" s="43"/>
       <c r="I77" s="43"/>
@@ -13470,24 +13518,24 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="20" t="s">
-        <v>3035</v>
+        <v>3027</v>
       </c>
       <c r="B81" s="20"/>
       <c r="F81" t="s">
-        <v>3052</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" t="s">
-        <v>3036</v>
+        <v>3028</v>
       </c>
       <c r="G82" t="s">
-        <v>3064</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="G83" t="s">
-        <v>3065</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -13495,27 +13543,27 @@
         <v>362</v>
       </c>
       <c r="B85" t="s">
-        <v>3014</v>
+        <v>3006</v>
       </c>
       <c r="H85" t="s">
-        <v>3018</v>
+        <v>3010</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>3020</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" t="s">
-        <v>3015</v>
+        <v>3007</v>
       </c>
       <c r="B86" t="s">
         <v>2645</v>
       </c>
       <c r="H86" t="s">
-        <v>3019</v>
+        <v>3011</v>
       </c>
       <c r="K86" t="b">
         <v>1</v>
@@ -13523,7 +13571,7 @@
     </row>
     <row r="87" spans="1:15" ht="15.75" thickBot="1">
       <c r="A87" t="s">
-        <v>3086</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -13599,7 +13647,7 @@
       <c r="C91" s="31"/>
       <c r="D91" s="31"/>
       <c r="E91" s="297" t="s">
-        <v>3090</v>
+        <v>3082</v>
       </c>
       <c r="F91" s="66" t="s">
         <v>1647</v>
@@ -13637,7 +13685,7 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="31" t="s">
-        <v>3081</v>
+        <v>3073</v>
       </c>
       <c r="B93" s="31"/>
       <c r="C93" s="31"/>
@@ -13679,7 +13727,7 @@
         <v>280</v>
       </c>
       <c r="D95" s="31" t="s">
-        <v>3083</v>
+        <v>3075</v>
       </c>
       <c r="E95" s="297"/>
       <c r="F95" s="66"/>
@@ -13701,7 +13749,7 @@
         <v>1729</v>
       </c>
       <c r="C96" t="s">
-        <v>3089</v>
+        <v>3081</v>
       </c>
       <c r="D96" s="31"/>
       <c r="E96" s="297"/>
@@ -13709,7 +13757,7 @@
       <c r="G96" s="66"/>
       <c r="H96" s="66"/>
       <c r="I96" s="66" t="s">
-        <v>3084</v>
+        <v>3076</v>
       </c>
       <c r="J96" s="66"/>
       <c r="K96" s="66"/>
@@ -13731,12 +13779,12 @@
       <c r="G97" s="66"/>
       <c r="H97" s="66"/>
       <c r="I97" s="66" t="s">
-        <v>3085</v>
+        <v>3077</v>
       </c>
       <c r="J97" s="66"/>
       <c r="K97" s="66"/>
       <c r="L97" s="66" t="s">
-        <v>3088</v>
+        <v>3080</v>
       </c>
       <c r="M97" s="198"/>
       <c r="N97" s="31"/>
@@ -13753,7 +13801,7 @@
       <c r="G98" s="66"/>
       <c r="H98" s="66"/>
       <c r="I98" s="66" t="s">
-        <v>3087</v>
+        <v>3079</v>
       </c>
       <c r="J98" s="66"/>
       <c r="K98" s="66"/>
@@ -13764,7 +13812,7 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="31" t="s">
-        <v>3082</v>
+        <v>3074</v>
       </c>
       <c r="B99" s="31"/>
       <c r="D99" s="31"/>
@@ -13927,7 +13975,7 @@
     </row>
     <row r="108" spans="1:15" ht="15.75" thickBot="1">
       <c r="A108" t="s">
-        <v>3086</v>
+        <v>3078</v>
       </c>
       <c r="N108" s="31"/>
       <c r="O108" s="31"/>
@@ -14005,7 +14053,7 @@
       <c r="C112" s="31"/>
       <c r="D112" s="31"/>
       <c r="E112" s="297" t="s">
-        <v>3090</v>
+        <v>3082</v>
       </c>
       <c r="F112" s="66" t="s">
         <v>345</v>
@@ -14043,7 +14091,7 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="31" t="s">
-        <v>3081</v>
+        <v>3073</v>
       </c>
       <c r="B114" s="31"/>
       <c r="C114" s="31"/>
@@ -14085,7 +14133,7 @@
         <v>280</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>3083</v>
+        <v>3075</v>
       </c>
       <c r="E116" s="297"/>
       <c r="F116" s="66"/>
@@ -14107,7 +14155,7 @@
         <v>1729</v>
       </c>
       <c r="C117" t="s">
-        <v>3089</v>
+        <v>3081</v>
       </c>
       <c r="D117" s="31"/>
       <c r="E117" s="297"/>
@@ -14115,7 +14163,7 @@
       <c r="G117" s="66"/>
       <c r="H117" s="66"/>
       <c r="I117" s="66" t="s">
-        <v>3084</v>
+        <v>3076</v>
       </c>
       <c r="J117" s="66"/>
       <c r="K117" s="66"/>
@@ -14137,12 +14185,12 @@
       <c r="G118" s="66"/>
       <c r="H118" s="66"/>
       <c r="I118" s="66" t="s">
-        <v>3085</v>
+        <v>3077</v>
       </c>
       <c r="J118" s="66"/>
       <c r="K118" s="66"/>
       <c r="L118" s="66" t="s">
-        <v>3088</v>
+        <v>3080</v>
       </c>
       <c r="M118" s="198"/>
       <c r="N118" s="31"/>
@@ -14159,7 +14207,7 @@
       <c r="G119" s="66"/>
       <c r="H119" s="66"/>
       <c r="I119" s="66" t="s">
-        <v>3087</v>
+        <v>3079</v>
       </c>
       <c r="J119" s="66"/>
       <c r="K119" s="66"/>
@@ -14170,7 +14218,7 @@
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="31" t="s">
-        <v>3082</v>
+        <v>3074</v>
       </c>
       <c r="B120" s="31"/>
       <c r="D120" s="31"/>
@@ -18666,7 +18714,7 @@
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="20" t="s">
-        <v>3075</v>
+        <v>3067</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
@@ -18677,7 +18725,7 @@
         <v>345</v>
       </c>
       <c r="H49" s="43" t="s">
-        <v>3074</v>
+        <v>3066</v>
       </c>
       <c r="I49" s="43"/>
       <c r="J49" s="20"/>
@@ -18692,7 +18740,7 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="20" t="s">
-        <v>3066</v>
+        <v>3058</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -18735,7 +18783,7 @@
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20" t="s">
-        <v>3067</v>
+        <v>3059</v>
       </c>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
@@ -18747,7 +18795,7 @@
       </c>
       <c r="J52" s="20"/>
       <c r="K52" s="20" t="s">
-        <v>3080</v>
+        <v>3072</v>
       </c>
       <c r="L52" s="20"/>
       <c r="M52" s="20"/>
@@ -18784,7 +18832,7 @@
         <v>142</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>3069</v>
+        <v>3061</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
@@ -18834,7 +18882,7 @@
       <c r="J56" s="20"/>
       <c r="K56" s="20"/>
       <c r="L56" s="20" t="s">
-        <v>3073</v>
+        <v>3065</v>
       </c>
       <c r="M56" s="20"/>
       <c r="N56" s="20"/>
@@ -18878,7 +18926,7 @@
       <c r="J58" s="20"/>
       <c r="K58" s="20"/>
       <c r="L58" s="20" t="s">
-        <v>3077</v>
+        <v>3069</v>
       </c>
       <c r="M58" s="20"/>
       <c r="N58" s="20"/>
@@ -18902,7 +18950,7 @@
       <c r="J59" s="20"/>
       <c r="K59" s="20"/>
       <c r="L59" s="20" t="s">
-        <v>3078</v>
+        <v>3070</v>
       </c>
       <c r="M59" s="20"/>
       <c r="N59" s="20"/>
@@ -18913,7 +18961,7 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="20" t="s">
-        <v>3068</v>
+        <v>3060</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
@@ -18926,7 +18974,7 @@
       <c r="J60" s="20"/>
       <c r="K60" s="20"/>
       <c r="L60" s="31" t="s">
-        <v>3079</v>
+        <v>3071</v>
       </c>
       <c r="M60" s="20"/>
       <c r="N60" s="20"/>
@@ -18937,7 +18985,7 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="20" t="s">
-        <v>3076</v>
+        <v>3068</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
@@ -18959,7 +19007,7 @@
     <row r="62" spans="1:18">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
-        <v>3070</v>
+        <v>3062</v>
       </c>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
@@ -18981,7 +19029,7 @@
     <row r="63" spans="1:18">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
-        <v>3071</v>
+        <v>3063</v>
       </c>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
@@ -19003,7 +19051,7 @@
     <row r="64" spans="1:18">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
-        <v>3072</v>
+        <v>3064</v>
       </c>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
@@ -31053,10 +31101,10 @@
     </row>
     <row r="11" spans="3:7">
       <c r="C11" s="137" t="s">
-        <v>3141</v>
+        <v>3133</v>
       </c>
       <c r="G11" s="137" t="s">
-        <v>3140</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="12" spans="3:7">
@@ -31064,7 +31112,7 @@
         <v>534</v>
       </c>
       <c r="G12" s="49" t="s">
-        <v>3136</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="13" spans="3:7">
@@ -31072,7 +31120,7 @@
         <v>535</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>3137</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="14" spans="3:7">
@@ -31080,7 +31128,7 @@
         <v>536</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>3138</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="15" spans="3:7">
@@ -31088,15 +31136,15 @@
         <v>537</v>
       </c>
       <c r="G15" s="49" t="s">
-        <v>3139</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="16" spans="3:7">
       <c r="C16" s="137" t="s">
-        <v>3146</v>
+        <v>3138</v>
       </c>
       <c r="G16" s="137" t="s">
-        <v>3147</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="17" spans="2:12">
@@ -31104,7 +31152,7 @@
         <v>538</v>
       </c>
       <c r="G17" s="49" t="s">
-        <v>3142</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="18" spans="2:12">
@@ -31112,7 +31160,7 @@
         <v>539</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>3143</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="19" spans="2:12">
@@ -31120,7 +31168,7 @@
         <v>540</v>
       </c>
       <c r="G19" s="49" t="s">
-        <v>3144</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -31128,7 +31176,7 @@
         <v>541</v>
       </c>
       <c r="G20" s="49" t="s">
-        <v>3145</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="22" spans="2:12">
@@ -31265,12 +31313,12 @@
         <v>1</v>
       </c>
       <c r="J27" s="137" t="s">
-        <v>3134</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="29" spans="2:12">
       <c r="C29" s="49" t="s">
-        <v>3148</v>
+        <v>3140</v>
       </c>
       <c r="F29" s="150">
         <v>1</v>
@@ -31290,7 +31338,7 @@
     </row>
     <row r="30" spans="2:12">
       <c r="C30" s="49" t="s">
-        <v>3149</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="32" spans="2:12">
@@ -31307,10 +31355,10 @@
         <v>0</v>
       </c>
       <c r="J32" s="137" t="s">
-        <v>3130</v>
+        <v>3122</v>
       </c>
       <c r="K32" s="49" t="s">
-        <v>3131</v>
+        <v>3123</v>
       </c>
       <c r="L32" s="49">
         <v>0</v>
@@ -31333,10 +31381,10 @@
         <v>1</v>
       </c>
       <c r="J33" s="49" t="s">
-        <v>3134</v>
+        <v>3126</v>
       </c>
       <c r="K33" s="49" t="s">
-        <v>3132</v>
+        <v>3124</v>
       </c>
       <c r="L33" s="49">
         <v>15</v>
@@ -31359,10 +31407,10 @@
         <v>1</v>
       </c>
       <c r="J34" s="49" t="s">
-        <v>3135</v>
+        <v>3127</v>
       </c>
       <c r="K34" s="49" t="s">
-        <v>3133</v>
+        <v>3125</v>
       </c>
       <c r="L34" s="49">
         <v>15</v>
@@ -31528,7 +31576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -32895,8 +32943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N229"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32967,12 +33015,15 @@
         <v>176</v>
       </c>
       <c r="K4" s="109">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L4" s="104"/>
       <c r="N4" s="27"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
+      <c r="B5" s="20" t="s">
+        <v>3147</v>
+      </c>
       <c r="F5" s="26" t="s">
         <v>1639</v>
       </c>
@@ -32983,22 +33034,25 @@
         <v>1948</v>
       </c>
       <c r="K5" s="287" t="s">
-        <v>2656</v>
+        <v>2650</v>
       </c>
       <c r="L5" s="288"/>
       <c r="N5" s="27"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B6" s="20" t="s">
-        <v>2648</v>
+      <c r="B6" s="31" t="s">
+        <v>3143</v>
       </c>
       <c r="F6" s="76"/>
       <c r="G6" s="31"/>
+      <c r="H6" s="20" t="s">
+        <v>3144</v>
+      </c>
       <c r="N6" s="27"/>
     </row>
     <row r="7" spans="1:14">
       <c r="C7" s="20" t="s">
-        <v>1324</v>
+        <v>3145</v>
       </c>
       <c r="F7" s="26"/>
       <c r="I7" s="20" t="s">
@@ -33015,28 +33069,28 @@
     </row>
     <row r="8" spans="1:14">
       <c r="C8" s="20" t="s">
-        <v>2649</v>
+        <v>3146</v>
       </c>
       <c r="F8" s="26"/>
       <c r="J8" s="108" t="s">
         <v>176</v>
       </c>
       <c r="K8" s="109">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L8" s="104"/>
       <c r="N8" s="27"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="C9" s="20" t="s">
-        <v>2650</v>
+        <v>3148</v>
       </c>
       <c r="F9" s="26"/>
       <c r="J9" s="144" t="s">
         <v>1948</v>
       </c>
       <c r="K9" s="287" t="s">
-        <v>2657</v>
+        <v>2650</v>
       </c>
       <c r="L9" s="288"/>
       <c r="N9" s="27"/>
@@ -33046,12 +33100,18 @@
         <v>142</v>
       </c>
       <c r="F10" s="26"/>
+      <c r="H10" s="20" t="s">
+        <v>3153</v>
+      </c>
       <c r="N10" s="27"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="20" t="s">
-        <v>2651</v>
-      </c>
+      <c r="B11" s="196" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C11" s="196"/>
+      <c r="D11" s="196"/>
+      <c r="E11" s="196"/>
       <c r="F11" s="26"/>
       <c r="I11" s="20" t="s">
         <v>1603</v>
@@ -33067,28 +33127,28 @@
     </row>
     <row r="12" spans="1:14">
       <c r="C12" s="20" t="s">
-        <v>1324</v>
+        <v>639</v>
       </c>
       <c r="F12" s="26"/>
       <c r="J12" s="108" t="s">
         <v>176</v>
       </c>
       <c r="K12" s="109">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L12" s="104"/>
       <c r="N12" s="27"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="C13" s="20" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="F13" s="26"/>
       <c r="J13" s="144" t="s">
         <v>1948</v>
       </c>
       <c r="K13" s="287" t="s">
-        <v>2657</v>
+        <v>3154</v>
       </c>
       <c r="L13" s="288"/>
       <c r="N13" s="27"/>
@@ -33098,39 +33158,44 @@
         <v>142</v>
       </c>
       <c r="F14" s="26"/>
+      <c r="H14" s="20" t="s">
+        <v>3152</v>
+      </c>
       <c r="N14" s="27"/>
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="20" t="s">
-        <v>2652</v>
+        <v>3150</v>
       </c>
       <c r="F15" s="26"/>
       <c r="N15" s="27"/>
     </row>
     <row r="16" spans="1:14">
       <c r="C16" s="20" t="s">
-        <v>1324</v>
+        <v>639</v>
       </c>
       <c r="F16" s="26"/>
       <c r="N16" s="27"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="B17" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="F17" s="26"/>
+      <c r="C17" s="20" t="s">
+        <v>2648</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>3142</v>
+      </c>
       <c r="N17" s="27"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="20" t="s">
-        <v>142</v>
+      <c r="C18" s="20" t="s">
+        <v>2649</v>
       </c>
       <c r="F18" s="26"/>
       <c r="N18" s="27"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A19" s="20" t="s">
-        <v>2653</v>
+      <c r="B19" s="20" t="s">
+        <v>142</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="29"/>
@@ -33144,12 +33209,22 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="20" t="s">
-        <v>2654</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="20" t="s">
-        <v>2655</v>
+      <c r="C21" s="20" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="C22" s="20" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="C23" s="20" t="s">
+        <v>3152</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -33528,8 +33603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33575,13 +33650,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="D5" s="26" t="s">
-        <v>2669</v>
+        <v>733</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="27"/>
       <c r="K5" s="184" t="s">
-        <v>2669</v>
+        <v>733</v>
       </c>
       <c r="L5" s="155"/>
       <c r="M5" s="155"/>
@@ -33590,20 +33665,20 @@
     <row r="6" spans="1:14">
       <c r="D6" s="26"/>
       <c r="E6" s="20" t="s">
-        <v>2671</v>
+        <v>2663</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="27"/>
       <c r="K6" s="184"/>
       <c r="L6" s="155" t="s">
-        <v>2670</v>
+        <v>2662</v>
       </c>
       <c r="M6" s="155"/>
       <c r="N6" s="185"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>2667</v>
+        <v>2660</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="20"/>
@@ -33616,7 +33691,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>2668</v>
+        <v>2661</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="20"/>
@@ -33639,17 +33714,17 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" t="s">
-        <v>2659</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="H12" t="s">
-        <v>2672</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="B13" t="s">
-        <v>2662</v>
+        <v>2655</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>645</v>
@@ -33668,10 +33743,10 @@
     </row>
     <row r="15" spans="1:14">
       <c r="B15" t="s">
-        <v>2660</v>
+        <v>2653</v>
       </c>
       <c r="D15" t="s">
-        <v>2663</v>
+        <v>2656</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>865</v>
@@ -33683,7 +33758,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="D16" t="s">
-        <v>2664</v>
+        <v>2657</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="20"/>
@@ -33691,15 +33766,15 @@
       <c r="J16" s="20"/>
       <c r="K16" s="27"/>
       <c r="N16" t="s">
-        <v>2658</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="B17" t="s">
-        <v>2661</v>
+        <v>2654</v>
       </c>
       <c r="D17" t="s">
-        <v>2665</v>
+        <v>2658</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="20"/>
@@ -33735,7 +33810,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>2666</v>
+        <v>2659</v>
       </c>
       <c r="D26" t="s">
         <v>1950</v>
@@ -33783,26 +33858,26 @@
     </row>
     <row r="2" spans="1:32" ht="15.75" thickBot="1">
       <c r="E2" t="s">
-        <v>2767</v>
+        <v>2759</v>
       </c>
       <c r="J2" t="s">
-        <v>2768</v>
+        <v>2760</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>2774</v>
+        <v>2766</v>
       </c>
       <c r="N2" s="27"/>
       <c r="O2" s="20"/>
       <c r="P2" s="26" t="s">
-        <v>2774</v>
+        <v>2766</v>
       </c>
       <c r="Q2" s="27"/>
       <c r="AB2" s="26" t="s">
-        <v>2774</v>
+        <v>2766</v>
       </c>
       <c r="AC2" s="27"/>
       <c r="AE2" s="26" t="s">
-        <v>2774</v>
+        <v>2766</v>
       </c>
       <c r="AF2" s="27"/>
     </row>
@@ -33824,10 +33899,10 @@
       </c>
       <c r="Q3" s="27"/>
       <c r="S3" t="s">
-        <v>2767</v>
+        <v>2759</v>
       </c>
       <c r="Y3" t="s">
-        <v>2768</v>
+        <v>2760</v>
       </c>
       <c r="AB3" s="26" t="s">
         <v>2640</v>
@@ -33840,7 +33915,7 @@
     </row>
     <row r="4" spans="1:32" ht="15.75" thickBot="1">
       <c r="A4" t="s">
-        <v>2771</v>
+        <v>2763</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="27"/>
@@ -33914,7 +33989,7 @@
     <row r="6" spans="1:32" ht="15.75" thickBot="1">
       <c r="A6" s="26"/>
       <c r="B6" s="38" t="s">
-        <v>2772</v>
+        <v>2764</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="20"/>
@@ -33965,7 +34040,7 @@
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
       <c r="V7" s="20" t="s">
-        <v>2779</v>
+        <v>2771</v>
       </c>
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
@@ -33975,19 +34050,19 @@
     <row r="8" spans="1:32" ht="15.75" thickBot="1">
       <c r="A8" s="26"/>
       <c r="B8" s="38" t="s">
-        <v>2773</v>
+        <v>2765</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="20"/>
       <c r="G8" s="26" t="s">
-        <v>2774</v>
+        <v>2766</v>
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="27"/>
       <c r="P8" t="s">
-        <v>2780</v>
+        <v>2772</v>
       </c>
       <c r="S8" s="26"/>
       <c r="T8" s="20"/>
@@ -34000,7 +34075,7 @@
       <c r="Y8" s="20"/>
       <c r="Z8" s="27"/>
       <c r="AB8" t="s">
-        <v>2787</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="15.75" thickBot="1">
@@ -34019,17 +34094,17 @@
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
       <c r="V9" s="26" t="s">
-        <v>2774</v>
+        <v>2766</v>
       </c>
       <c r="W9" s="27"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="27"/>
       <c r="AB9" t="s">
-        <v>2788</v>
+        <v>2780</v>
       </c>
       <c r="AC9" t="s">
-        <v>2789</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="15.75" thickBot="1">
@@ -34043,7 +34118,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="27"/>
       <c r="N10" t="s">
-        <v>2785</v>
+        <v>2777</v>
       </c>
       <c r="S10" s="26"/>
       <c r="T10" s="20"/>
@@ -34056,10 +34131,10 @@
       <c r="Y10" s="20"/>
       <c r="Z10" s="27"/>
       <c r="AB10" t="s">
-        <v>2790</v>
+        <v>2782</v>
       </c>
       <c r="AC10" t="s">
-        <v>2791</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -34077,7 +34152,7 @@
       <c r="J11" s="20"/>
       <c r="K11" s="27"/>
       <c r="N11" t="s">
-        <v>2786</v>
+        <v>2778</v>
       </c>
       <c r="S11" s="26"/>
       <c r="T11" s="20"/>
@@ -34090,15 +34165,15 @@
       <c r="Y11" s="20"/>
       <c r="Z11" s="27"/>
       <c r="AB11" t="s">
-        <v>2792</v>
+        <v>2784</v>
       </c>
       <c r="AD11" t="s">
-        <v>2793</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="15.75" thickBot="1">
       <c r="A12" s="26" t="s">
-        <v>2774</v>
+        <v>2766</v>
       </c>
       <c r="B12" s="27"/>
       <c r="E12" s="26"/>
@@ -34160,7 +34235,7 @@
       <c r="T14" s="25"/>
       <c r="U14" s="20"/>
       <c r="V14" s="76" t="s">
-        <v>2782</v>
+        <v>2774</v>
       </c>
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
@@ -34194,16 +34269,16 @@
       </c>
       <c r="B16" s="30"/>
       <c r="E16" t="s">
-        <v>2770</v>
+        <v>2762</v>
       </c>
       <c r="J16" t="s">
-        <v>2769</v>
+        <v>2761</v>
       </c>
       <c r="S16" s="28"/>
       <c r="T16" s="30"/>
       <c r="U16" s="29"/>
       <c r="V16" s="29" t="s">
-        <v>2794</v>
+        <v>2786</v>
       </c>
       <c r="W16" s="29"/>
       <c r="X16" s="29"/>
@@ -34216,13 +34291,13 @@
       </c>
       <c r="Q17" s="25"/>
       <c r="S17" t="s">
-        <v>2770</v>
+        <v>2762</v>
       </c>
       <c r="Z17" t="s">
-        <v>2769</v>
+        <v>2761</v>
       </c>
       <c r="AB17" t="s">
-        <v>2795</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="18" spans="5:31">
@@ -34231,7 +34306,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="P18" s="26" t="s">
-        <v>2774</v>
+        <v>2766</v>
       </c>
       <c r="Q18" s="27"/>
       <c r="AB18" s="304">
@@ -34241,31 +34316,31 @@
     </row>
     <row r="19" spans="5:31">
       <c r="E19" s="26" t="s">
-        <v>2774</v>
+        <v>2766</v>
       </c>
       <c r="F19" s="27"/>
       <c r="H19" t="s">
-        <v>2776</v>
+        <v>2768</v>
       </c>
       <c r="L19" t="s">
-        <v>2777</v>
+        <v>2769</v>
       </c>
       <c r="P19" s="26" t="s">
         <v>2640</v>
       </c>
       <c r="Q19" s="27"/>
       <c r="S19" t="s">
-        <v>2780</v>
+        <v>2772</v>
       </c>
       <c r="T19" t="s">
-        <v>2781</v>
+        <v>2773</v>
       </c>
       <c r="AB19" s="26" t="s">
-        <v>2774</v>
+        <v>2766</v>
       </c>
       <c r="AC19" s="27"/>
       <c r="AE19" t="s">
-        <v>2780</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="20" spans="5:31">
@@ -34274,20 +34349,20 @@
       </c>
       <c r="F20" s="27"/>
       <c r="H20" t="s">
-        <v>2775</v>
+        <v>2767</v>
       </c>
       <c r="L20" t="s">
-        <v>2778</v>
+        <v>2770</v>
       </c>
       <c r="P20" s="26" t="s">
         <v>91</v>
       </c>
       <c r="Q20" s="27"/>
       <c r="S20" t="s">
-        <v>2783</v>
+        <v>2775</v>
       </c>
       <c r="T20" t="s">
-        <v>2784</v>
+        <v>2776</v>
       </c>
       <c r="AB20" s="26" t="s">
         <v>2640</v>
@@ -34308,7 +34383,7 @@
       </c>
       <c r="AC21" s="27"/>
       <c r="AE21" t="s">
-        <v>2780</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="22" spans="5:31" ht="15.75" thickBot="1">
@@ -34337,25 +34412,25 @@
     </row>
     <row r="24" spans="5:31">
       <c r="P24" t="s">
-        <v>2780</v>
+        <v>2772</v>
       </c>
       <c r="V24" t="s">
-        <v>2780</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="25" spans="5:31">
       <c r="V25" t="s">
-        <v>2783</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="26" spans="5:31">
       <c r="V26" t="s">
-        <v>2790</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="27" spans="5:31">
       <c r="V27" t="s">
-        <v>2788</v>
+        <v>2780</v>
       </c>
     </row>
   </sheetData>
@@ -34404,12 +34479,12 @@
     </row>
     <row r="7" spans="2:18">
       <c r="Q7" t="s">
-        <v>2674</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="15.75" thickBot="1">
       <c r="Q8" t="s">
-        <v>2673</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="9" spans="2:18">
@@ -37395,11 +37470,11 @@
         <v>918</v>
       </c>
       <c r="B2" s="88" t="s">
-        <v>2675</v>
+        <v>2667</v>
       </c>
       <c r="C2" s="88"/>
       <c r="E2" s="49" t="s">
-        <v>2682</v>
+        <v>2674</v>
       </c>
       <c r="G2" s="293" t="s">
         <v>202</v>
@@ -37419,17 +37494,17 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="88" t="s">
-        <v>2687</v>
+        <v>2679</v>
       </c>
       <c r="B3" s="88" t="s">
         <v>392</v>
       </c>
       <c r="C3" s="88"/>
       <c r="E3" s="49" t="s">
-        <v>2681</v>
+        <v>2673</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>2677</v>
+        <v>2669</v>
       </c>
       <c r="H3" s="66" t="s">
         <v>345</v>
@@ -37442,7 +37517,7 @@
       <c r="L3" s="296"/>
       <c r="M3" s="92"/>
       <c r="N3" s="423" t="s">
-        <v>2695</v>
+        <v>2687</v>
       </c>
       <c r="O3" s="43"/>
       <c r="P3" s="43"/>
@@ -37450,17 +37525,17 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="88" t="s">
-        <v>2687</v>
+        <v>2679</v>
       </c>
       <c r="B4" s="88" t="s">
         <v>2369</v>
       </c>
       <c r="C4" s="88"/>
       <c r="E4" s="49" t="s">
-        <v>2681</v>
+        <v>2673</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>2678</v>
+        <v>2670</v>
       </c>
       <c r="H4" s="66" t="s">
         <v>1647</v>
@@ -37485,7 +37560,7 @@
       <c r="I5" s="66"/>
       <c r="J5" s="66"/>
       <c r="K5" s="298" t="s">
-        <v>2676</v>
+        <v>2668</v>
       </c>
       <c r="L5" s="299">
         <v>12345</v>
@@ -37521,7 +37596,7 @@
         <v>1324</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>2680</v>
+        <v>2672</v>
       </c>
       <c r="H7" s="66" t="s">
         <v>2125</v>
@@ -37571,7 +37646,7 @@
       <c r="I9" s="66"/>
       <c r="J9" s="66"/>
       <c r="K9" s="298" t="s">
-        <v>2676</v>
+        <v>2668</v>
       </c>
       <c r="L9" s="299">
         <v>12346</v>
@@ -37608,7 +37683,7 @@
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
       <c r="J11" s="66" t="s">
-        <v>2679</v>
+        <v>2671</v>
       </c>
       <c r="K11" s="66"/>
       <c r="L11" s="66"/>
@@ -37649,10 +37724,10 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="88" t="s">
-        <v>2688</v>
+        <v>2680</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>2697</v>
+        <v>2689</v>
       </c>
       <c r="G14" s="42"/>
       <c r="H14" s="43"/>
@@ -37670,10 +37745,10 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="88" t="s">
-        <v>2689</v>
+        <v>2681</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
       <c r="G15" s="42"/>
       <c r="H15" s="43"/>
@@ -37693,14 +37768,14 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1">
       <c r="A16" s="88" t="s">
-        <v>2698</v>
+        <v>2690</v>
       </c>
       <c r="G16" s="42"/>
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
       <c r="J16" s="66"/>
       <c r="K16" s="298" t="s">
-        <v>2676</v>
+        <v>2668</v>
       </c>
       <c r="L16" s="299">
         <v>123123</v>
@@ -37726,7 +37801,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="88" t="s">
-        <v>2690</v>
+        <v>2682</v>
       </c>
       <c r="D18" s="49" t="s">
         <v>940</v>
@@ -37745,7 +37820,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="88" t="s">
-        <v>2691</v>
+        <v>2683</v>
       </c>
       <c r="D19" s="49" t="s">
         <v>456</v>
@@ -37764,10 +37839,10 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="88" t="s">
-        <v>2692</v>
+        <v>2684</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>2694</v>
+        <v>2686</v>
       </c>
       <c r="G20" s="42"/>
       <c r="H20" s="43"/>
@@ -37783,10 +37858,10 @@
     </row>
     <row r="21" spans="1:17" ht="15.75" thickBot="1">
       <c r="A21" s="88" t="s">
-        <v>2693</v>
+        <v>2685</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>2694</v>
+        <v>2686</v>
       </c>
       <c r="G21" s="45"/>
       <c r="H21" s="46"/>
@@ -37802,32 +37877,32 @@
     </row>
     <row r="23" spans="1:17">
       <c r="C23" s="49" t="s">
-        <v>2683</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="C24" s="49" t="s">
-        <v>2684</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="49" t="s">
-        <v>2685</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="C27" s="49" t="s">
-        <v>2686</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" thickBot="1">
       <c r="C28" s="49" t="s">
-        <v>2705</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" thickBot="1">
       <c r="A29" s="49" t="s">
-        <v>2704</v>
+        <v>2696</v>
       </c>
       <c r="G29" s="39"/>
       <c r="H29" s="40"/>
@@ -37840,7 +37915,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="88" t="s">
-        <v>2699</v>
+        <v>2691</v>
       </c>
       <c r="B30" s="88"/>
       <c r="C30" s="88"/>
@@ -37861,7 +37936,7 @@
     <row r="31" spans="1:17">
       <c r="A31" s="88"/>
       <c r="B31" s="88" t="s">
-        <v>2706</v>
+        <v>2698</v>
       </c>
       <c r="C31" s="88"/>
       <c r="D31" s="88"/>
@@ -37878,7 +37953,7 @@
       <c r="A32" s="88"/>
       <c r="B32" s="88"/>
       <c r="C32" s="88" t="s">
-        <v>2700</v>
+        <v>2692</v>
       </c>
       <c r="D32" s="88"/>
       <c r="G32" s="42"/>
@@ -37909,7 +37984,7 @@
     <row r="34" spans="1:14" ht="15.75" thickBot="1">
       <c r="A34" s="88"/>
       <c r="B34" s="88" t="s">
-        <v>2707</v>
+        <v>2699</v>
       </c>
       <c r="C34" s="88"/>
       <c r="D34" s="88"/>
@@ -37926,7 +38001,7 @@
       <c r="A35" s="88"/>
       <c r="B35" s="88"/>
       <c r="C35" s="88" t="s">
-        <v>2701</v>
+        <v>2693</v>
       </c>
       <c r="D35" s="88"/>
       <c r="G35" s="42"/>
@@ -37969,7 +38044,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="88" t="s">
-        <v>2702</v>
+        <v>2694</v>
       </c>
       <c r="B38" s="88"/>
       <c r="C38" s="88"/>
@@ -38017,7 +38092,7 @@
       <c r="A41" s="88"/>
       <c r="B41" s="88"/>
       <c r="C41" s="88" t="s">
-        <v>2708</v>
+        <v>2700</v>
       </c>
       <c r="D41" s="88"/>
       <c r="G41" s="42"/>
@@ -38047,7 +38122,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="88" t="s">
-        <v>2703</v>
+        <v>2695</v>
       </c>
       <c r="B43" s="88"/>
       <c r="C43" s="88"/>
@@ -38095,7 +38170,7 @@
       <c r="A46" s="88"/>
       <c r="B46" s="88"/>
       <c r="C46" s="88" t="s">
-        <v>2709</v>
+        <v>2701</v>
       </c>
       <c r="D46" s="88"/>
       <c r="G46" s="42"/>
@@ -41274,7 +41349,7 @@
     <row r="318" spans="2:12">
       <c r="B318" s="39"/>
       <c r="C318" s="40" t="s">
-        <v>2711</v>
+        <v>2703</v>
       </c>
       <c r="D318" s="40"/>
       <c r="E318" s="40"/>
@@ -41436,11 +41511,11 @@
       <c r="C330" s="43"/>
       <c r="D330" s="43"/>
       <c r="E330" s="43" t="s">
-        <v>2710</v>
+        <v>2702</v>
       </c>
       <c r="F330" s="43"/>
       <c r="G330" s="43" t="s">
-        <v>2712</v>
+        <v>2704</v>
       </c>
       <c r="H330" s="43"/>
       <c r="I330" s="43"/>
@@ -41468,7 +41543,7 @@
       <c r="E332" s="46"/>
       <c r="F332" s="46"/>
       <c r="G332" s="46" t="s">
-        <v>2713</v>
+        <v>2705</v>
       </c>
       <c r="H332" s="46"/>
       <c r="I332" s="46"/>
@@ -41478,7 +41553,7 @@
     </row>
     <row r="333" spans="2:12">
       <c r="G333" s="49" t="s">
-        <v>2714</v>
+        <v>2706</v>
       </c>
     </row>
   </sheetData>
@@ -41507,7 +41582,7 @@
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>2728</v>
+        <v>2720</v>
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="24"/>
@@ -41541,7 +41616,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="G4" s="26" t="s">
-        <v>2715</v>
+        <v>2707</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>345</v>
@@ -41558,7 +41633,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>2722</v>
+        <v>2714</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="31"/>
@@ -41574,7 +41649,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>2716</v>
+        <v>2708</v>
       </c>
       <c r="G6" s="26"/>
       <c r="H6" s="20"/>
@@ -41590,7 +41665,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>2717</v>
+        <v>2709</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="43"/>
@@ -41606,7 +41681,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>2718</v>
+        <v>2710</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="43"/>
@@ -41618,7 +41693,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>2719</v>
+        <v>2711</v>
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="43"/>
@@ -41639,10 +41714,10 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>2720</v>
+        <v>2712</v>
       </c>
       <c r="D11" t="s">
-        <v>2721</v>
+        <v>2713</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="43"/>
@@ -41676,10 +41751,10 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>2720</v>
+        <v>2712</v>
       </c>
       <c r="D13" t="s">
-        <v>2724</v>
+        <v>2716</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="20"/>
@@ -41695,17 +41770,17 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1">
       <c r="A14" t="s">
-        <v>2725</v>
+        <v>2717</v>
       </c>
       <c r="D14" t="s">
-        <v>2721</v>
+        <v>2713</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="28" t="s">
-        <v>2723</v>
+        <v>2715</v>
       </c>
       <c r="L14" s="30" t="s">
         <v>349</v>
@@ -41714,10 +41789,10 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" t="s">
-        <v>2726</v>
+        <v>2718</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>2727</v>
+        <v>2719</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="20"/>
@@ -41744,7 +41819,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>2729</v>
+        <v>2721</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="20"/>
@@ -41777,7 +41852,7 @@
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
       <c r="K19" s="28" t="s">
-        <v>2723</v>
+        <v>2715</v>
       </c>
       <c r="L19" s="30" t="s">
         <v>349</v>
@@ -41787,7 +41862,7 @@
     <row r="23" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>2728</v>
+        <v>2720</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="24"/>
@@ -41825,7 +41900,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="G26" s="26" t="s">
-        <v>2715</v>
+        <v>2707</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>345</v>
@@ -41842,7 +41917,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>2730</v>
+        <v>2722</v>
       </c>
       <c r="G27" s="26"/>
       <c r="H27" s="31"/>
@@ -41858,7 +41933,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="B28" t="s">
-        <v>2731</v>
+        <v>2723</v>
       </c>
       <c r="G28" s="26"/>
       <c r="H28" s="20"/>
@@ -41890,7 +41965,7 @@
         <v>952</v>
       </c>
       <c r="B30" t="s">
-        <v>2732</v>
+        <v>2724</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="43"/>
@@ -41954,7 +42029,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="B35" t="s">
-        <v>2733</v>
+        <v>2725</v>
       </c>
       <c r="D35" t="s">
         <v>615</v>
@@ -41980,7 +42055,7 @@
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
       <c r="K36" s="28" t="s">
-        <v>2723</v>
+        <v>2715</v>
       </c>
       <c r="L36" s="30" t="s">
         <v>349</v>
@@ -41999,7 +42074,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="B38" t="s">
-        <v>2734</v>
+        <v>2726</v>
       </c>
       <c r="G38" s="26"/>
       <c r="H38" s="20"/>
@@ -42047,7 +42122,7 @@
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
       <c r="K41" s="28" t="s">
-        <v>2723</v>
+        <v>2715</v>
       </c>
       <c r="L41" s="30" t="s">
         <v>349</v>
@@ -42110,7 +42185,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="31" t="s">
-        <v>2735</v>
+        <v>2727</v>
       </c>
       <c r="B46" s="31"/>
       <c r="C46" s="31"/>
@@ -42152,13 +42227,13 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="31" t="s">
-        <v>2737</v>
+        <v>2729</v>
       </c>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
       <c r="D48" s="31"/>
       <c r="E48" s="76" t="s">
-        <v>2736</v>
+        <v>2728</v>
       </c>
       <c r="F48" s="31" t="s">
         <v>345</v>
@@ -42176,7 +42251,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="31" t="s">
-        <v>2738</v>
+        <v>2730</v>
       </c>
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
@@ -42472,7 +42547,7 @@
     </row>
     <row r="64" spans="1:16" ht="15.75" thickBot="1">
       <c r="A64" s="31" t="s">
-        <v>2744</v>
+        <v>2736</v>
       </c>
       <c r="B64" s="31"/>
       <c r="C64" s="31"/>
@@ -42493,7 +42568,7 @@
     <row r="65" spans="1:16">
       <c r="A65" s="31"/>
       <c r="B65" s="31" t="s">
-        <v>2749</v>
+        <v>2741</v>
       </c>
       <c r="D65" s="66"/>
       <c r="E65" s="31"/>
@@ -42523,11 +42598,11 @@
       <c r="B66" s="31"/>
       <c r="C66" s="31"/>
       <c r="D66" s="66" t="s">
-        <v>2747</v>
+        <v>2739</v>
       </c>
       <c r="E66" s="31"/>
       <c r="G66" s="76" t="s">
-        <v>2742</v>
+        <v>2734</v>
       </c>
       <c r="H66" s="31" t="s">
         <v>345</v>
@@ -42549,7 +42624,7 @@
       <c r="A67" s="31"/>
       <c r="B67" s="31"/>
       <c r="C67" s="31" t="s">
-        <v>2741</v>
+        <v>2733</v>
       </c>
       <c r="D67" s="66"/>
       <c r="G67" s="76"/>
@@ -42611,7 +42686,7 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="31" t="s">
-        <v>2749</v>
+        <v>2741</v>
       </c>
       <c r="C70" s="66"/>
       <c r="D70" s="31"/>
@@ -42624,11 +42699,11 @@
         <v>2125</v>
       </c>
       <c r="I70" s="123" t="s">
-        <v>2752</v>
+        <v>2744</v>
       </c>
       <c r="J70" s="31"/>
       <c r="K70" s="31" t="s">
-        <v>2752</v>
+        <v>2744</v>
       </c>
       <c r="L70" s="73" t="s">
         <v>56</v>
@@ -42642,7 +42717,7 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="31" t="s">
-        <v>2739</v>
+        <v>2731</v>
       </c>
       <c r="B71" s="31"/>
       <c r="C71" s="31"/>
@@ -42668,7 +42743,7 @@
     </row>
     <row r="72" spans="1:16" ht="15.75" thickBot="1">
       <c r="A72" s="31" t="s">
-        <v>2743</v>
+        <v>2735</v>
       </c>
       <c r="B72" s="31"/>
       <c r="C72" s="31"/>
@@ -42697,7 +42772,7 @@
       <c r="B73" s="31"/>
       <c r="C73" s="31"/>
       <c r="D73" s="66" t="s">
-        <v>2747</v>
+        <v>2739</v>
       </c>
       <c r="E73" s="31"/>
       <c r="G73" s="76"/>
@@ -42716,7 +42791,7 @@
       <c r="B74" s="31"/>
       <c r="C74" s="31"/>
       <c r="D74" s="66" t="s">
-        <v>2748</v>
+        <v>2740</v>
       </c>
       <c r="E74" s="31"/>
       <c r="G74" s="76"/>
@@ -42735,7 +42810,7 @@
       <c r="B75" s="31"/>
       <c r="C75" s="31"/>
       <c r="D75" s="66" t="s">
-        <v>2740</v>
+        <v>2732</v>
       </c>
       <c r="E75" s="31"/>
       <c r="F75" s="31"/>
@@ -42759,22 +42834,22 @@
       <c r="F76" s="31"/>
       <c r="G76" s="76"/>
       <c r="H76" s="31" t="s">
-        <v>2754</v>
+        <v>2746</v>
       </c>
       <c r="I76" s="31" t="s">
-        <v>2755</v>
+        <v>2747</v>
       </c>
       <c r="J76" s="31" t="s">
-        <v>2756</v>
+        <v>2748</v>
       </c>
       <c r="K76" s="31" t="s">
-        <v>2757</v>
+        <v>2749</v>
       </c>
       <c r="L76" s="31" t="s">
-        <v>2758</v>
+        <v>2750</v>
       </c>
       <c r="M76" s="31" t="s">
-        <v>2759</v>
+        <v>2751</v>
       </c>
       <c r="N76" s="31"/>
       <c r="O76" s="31"/>
@@ -42785,7 +42860,7 @@
       <c r="B77" s="31"/>
       <c r="C77" s="31"/>
       <c r="D77" s="66" t="s">
-        <v>2745</v>
+        <v>2737</v>
       </c>
       <c r="E77" s="31"/>
       <c r="F77" s="31"/>
@@ -42822,7 +42897,7 @@
       <c r="A79" s="31"/>
       <c r="B79" s="31"/>
       <c r="C79" s="31" t="s">
-        <v>2746</v>
+        <v>2738</v>
       </c>
       <c r="D79" s="31"/>
       <c r="E79" s="31"/>
@@ -42861,7 +42936,7 @@
       <c r="B81" s="31"/>
       <c r="C81" s="31"/>
       <c r="D81" s="31" t="s">
-        <v>2750</v>
+        <v>2742</v>
       </c>
       <c r="E81" s="31"/>
       <c r="F81" s="31"/>
@@ -42898,7 +42973,7 @@
       <c r="A83" s="31"/>
       <c r="B83" s="31"/>
       <c r="C83" s="31" t="s">
-        <v>2751</v>
+        <v>2743</v>
       </c>
       <c r="D83" s="31"/>
       <c r="E83" s="31"/>
@@ -42919,7 +42994,7 @@
       <c r="B84" s="31"/>
       <c r="C84" s="31"/>
       <c r="D84" s="31" t="s">
-        <v>2753</v>
+        <v>2745</v>
       </c>
       <c r="E84" s="31"/>
       <c r="F84" s="31"/>
@@ -42977,12 +43052,12 @@
       <c r="D87" s="31"/>
       <c r="E87" s="31"/>
       <c r="F87" s="32" t="s">
-        <v>2763</v>
+        <v>2755</v>
       </c>
       <c r="G87" s="31"/>
       <c r="H87" s="31"/>
       <c r="I87" s="133" t="s">
-        <v>2764</v>
+        <v>2756</v>
       </c>
       <c r="J87" s="31"/>
       <c r="K87" s="31"/>
@@ -42994,7 +43069,7 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="32" t="s">
-        <v>2760</v>
+        <v>2752</v>
       </c>
       <c r="B88" s="31"/>
       <c r="C88" s="31"/>
@@ -43022,7 +43097,7 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="133" t="s">
-        <v>2761</v>
+        <v>2753</v>
       </c>
       <c r="B89" s="31"/>
       <c r="D89" s="31"/>
@@ -43049,7 +43124,7 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="31" t="s">
-        <v>2762</v>
+        <v>2754</v>
       </c>
       <c r="B90" s="31"/>
       <c r="D90" s="31"/>
@@ -43090,7 +43165,7 @@
         <v>18</v>
       </c>
       <c r="J91" s="31" t="s">
-        <v>2727</v>
+        <v>2719</v>
       </c>
       <c r="K91" s="31"/>
       <c r="L91" s="31"/>
@@ -43126,7 +43201,7 @@
       <c r="B93" s="31"/>
       <c r="C93" s="31"/>
       <c r="D93" s="31" t="s">
-        <v>2766</v>
+        <v>2758</v>
       </c>
       <c r="E93" s="31"/>
       <c r="F93" s="31"/>
@@ -43146,7 +43221,7 @@
       <c r="B94" s="31"/>
       <c r="C94" s="31"/>
       <c r="D94" s="31" t="s">
-        <v>2765</v>
+        <v>2757</v>
       </c>
       <c r="E94" s="31"/>
       <c r="F94" s="31"/>
@@ -55040,7 +55115,7 @@
       <c r="M1" s="117"/>
       <c r="N1" s="117"/>
       <c r="O1" s="364" t="s">
-        <v>2883</v>
+        <v>2875</v>
       </c>
       <c r="R1" s="38">
         <v>0</v>
@@ -55076,7 +55151,7 @@
     <row r="4" spans="1:46" ht="15.75" thickBot="1">
       <c r="O4" s="364"/>
       <c r="P4" t="s">
-        <v>2885</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="15.75" thickBot="1">
@@ -55099,7 +55174,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="364"/>
       <c r="P5" t="s">
-        <v>2886</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="6" spans="1:46" ht="15.75" thickBot="1">
@@ -55121,7 +55196,7 @@
       <c r="N6" s="377"/>
       <c r="O6" s="364"/>
       <c r="P6" t="s">
-        <v>2868</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="7" spans="1:46" ht="15.75" thickBot="1">
@@ -55137,13 +55212,13 @@
       <c r="N7" s="4"/>
       <c r="O7" s="364"/>
       <c r="AC7" s="113" t="s">
-        <v>2836</v>
+        <v>2828</v>
       </c>
       <c r="AD7" s="222" t="s">
-        <v>2837</v>
+        <v>2829</v>
       </c>
       <c r="AE7" s="222" t="s">
-        <v>2836</v>
+        <v>2828</v>
       </c>
       <c r="AF7" s="222"/>
       <c r="AG7" s="222"/>
@@ -55181,12 +55256,12 @@
       <c r="O8" s="364"/>
       <c r="Q8" s="132"/>
       <c r="S8" t="s">
-        <v>2827</v>
+        <v>2819</v>
       </c>
       <c r="AC8" s="166"/>
       <c r="AD8" s="20"/>
       <c r="AE8" s="20" t="s">
-        <v>2837</v>
+        <v>2829</v>
       </c>
       <c r="AF8" s="20"/>
       <c r="AG8" s="20"/>
@@ -55210,7 +55285,7 @@
       <c r="G9" s="220"/>
       <c r="H9" s="220"/>
       <c r="I9" s="219" t="s">
-        <v>3095</v>
+        <v>3087</v>
       </c>
       <c r="J9" s="220"/>
       <c r="K9" s="220"/>
@@ -55220,13 +55295,13 @@
       <c r="O9" s="364"/>
       <c r="Q9" s="132"/>
       <c r="S9" t="s">
-        <v>2820</v>
+        <v>2812</v>
       </c>
       <c r="U9" t="s">
-        <v>2826</v>
+        <v>2818</v>
       </c>
       <c r="V9" t="s">
-        <v>2825</v>
+        <v>2817</v>
       </c>
       <c r="AC9" s="166">
         <v>1</v>
@@ -55267,17 +55342,17 @@
       <c r="M10" s="369"/>
       <c r="N10" s="369"/>
       <c r="O10" s="363" t="s">
-        <v>2882</v>
+        <v>2874</v>
       </c>
       <c r="Q10" s="132"/>
       <c r="S10" t="s">
-        <v>2819</v>
+        <v>2811</v>
       </c>
       <c r="U10" t="s">
-        <v>2821</v>
+        <v>2813</v>
       </c>
       <c r="V10" t="s">
-        <v>2824</v>
+        <v>2816</v>
       </c>
       <c r="AC10" s="166"/>
       <c r="AD10" s="20"/>
@@ -55302,11 +55377,11 @@
     </row>
     <row r="11" spans="1:46" ht="15.75" thickBot="1">
       <c r="A11" t="s">
-        <v>2807</v>
+        <v>2799</v>
       </c>
       <c r="D11" s="365"/>
       <c r="E11" t="s">
-        <v>2859</v>
+        <v>2851</v>
       </c>
       <c r="F11" s="370"/>
       <c r="G11" s="371"/>
@@ -55319,16 +55394,16 @@
       <c r="N11" s="371"/>
       <c r="O11" s="363"/>
       <c r="P11" t="s">
-        <v>2884</v>
+        <v>2876</v>
       </c>
       <c r="S11" t="s">
-        <v>2818</v>
+        <v>2810</v>
       </c>
       <c r="U11" t="s">
-        <v>2822</v>
+        <v>2814</v>
       </c>
       <c r="V11" t="s">
-        <v>2823</v>
+        <v>2815</v>
       </c>
       <c r="AC11" s="166"/>
       <c r="AD11" s="20"/>
@@ -55351,7 +55426,7 @@
     </row>
     <row r="12" spans="1:46">
       <c r="A12" t="s">
-        <v>2808</v>
+        <v>2800</v>
       </c>
       <c r="D12" s="365"/>
       <c r="F12" s="5"/>
@@ -55365,10 +55440,10 @@
       <c r="N12" s="6"/>
       <c r="O12" s="363"/>
       <c r="AC12" s="166" t="s">
-        <v>2838</v>
+        <v>2830</v>
       </c>
       <c r="AD12" s="20" t="s">
-        <v>2838</v>
+        <v>2830</v>
       </c>
       <c r="AE12" s="20"/>
       <c r="AF12" s="20"/>
@@ -55410,7 +55485,7 @@
       <c r="O13" s="363"/>
       <c r="AC13" s="166"/>
       <c r="AD13" s="20" t="s">
-        <v>2838</v>
+        <v>2830</v>
       </c>
       <c r="AE13" s="20"/>
       <c r="AF13" s="20"/>
@@ -55432,10 +55507,10 @@
     <row r="14" spans="1:46" ht="15.75" thickBot="1">
       <c r="D14" s="365"/>
       <c r="E14" t="s">
-        <v>2809</v>
+        <v>2801</v>
       </c>
       <c r="F14" s="366" t="s">
-        <v>2810</v>
+        <v>2802</v>
       </c>
       <c r="G14" s="367"/>
       <c r="H14" s="367"/>
@@ -55447,10 +55522,10 @@
       <c r="N14" s="367"/>
       <c r="O14" s="363"/>
       <c r="P14" t="s">
-        <v>2817</v>
+        <v>2809</v>
       </c>
       <c r="T14" t="s">
-        <v>2835</v>
+        <v>2827</v>
       </c>
       <c r="AC14" s="166"/>
       <c r="AD14" s="20"/>
@@ -55473,14 +55548,14 @@
     </row>
     <row r="15" spans="1:46">
       <c r="B15" t="s">
-        <v>2797</v>
+        <v>2789</v>
       </c>
       <c r="D15" s="365" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="129"/>
       <c r="G15" s="322" t="s">
-        <v>2894</v>
+        <v>2886</v>
       </c>
       <c r="H15" s="323"/>
       <c r="I15" s="324"/>
@@ -55532,7 +55607,7 @@
         <v>10</v>
       </c>
       <c r="L16" s="128" t="s">
-        <v>3011</v>
+        <v>3003</v>
       </c>
       <c r="M16" s="128"/>
       <c r="N16" s="12"/>
@@ -55540,7 +55615,7 @@
         <v>2508</v>
       </c>
       <c r="Q16" t="s">
-        <v>2816</v>
+        <v>2808</v>
       </c>
       <c r="T16" t="s">
         <v>2569</v>
@@ -55585,16 +55660,16 @@
       <c r="M17" s="11"/>
       <c r="N17" s="12"/>
       <c r="P17" t="s">
-        <v>2814</v>
+        <v>2806</v>
       </c>
       <c r="Q17" t="s">
-        <v>2815</v>
+        <v>2807</v>
       </c>
       <c r="T17" t="s">
-        <v>2832</v>
+        <v>2824</v>
       </c>
       <c r="U17" t="s">
-        <v>2831</v>
+        <v>2823</v>
       </c>
       <c r="AC17" s="166"/>
       <c r="AD17" s="20"/>
@@ -55633,16 +55708,16 @@
       <c r="M18" s="11"/>
       <c r="N18" s="12"/>
       <c r="P18" t="s">
-        <v>2812</v>
+        <v>2804</v>
       </c>
       <c r="Q18" t="s">
-        <v>2813</v>
+        <v>2805</v>
       </c>
       <c r="T18" t="s">
         <v>2134</v>
       </c>
       <c r="U18" t="s">
-        <v>2839</v>
+        <v>2831</v>
       </c>
       <c r="AC18" s="166"/>
       <c r="AD18" s="20"/>
@@ -55665,7 +55740,7 @@
     </row>
     <row r="19" spans="1:46">
       <c r="B19" t="s">
-        <v>2798</v>
+        <v>2790</v>
       </c>
       <c r="D19" s="365"/>
       <c r="F19" s="130"/>
@@ -55693,10 +55768,10 @@
         <v>10001101</v>
       </c>
       <c r="T19" t="s">
-        <v>2833</v>
+        <v>2825</v>
       </c>
       <c r="U19" t="s">
-        <v>2840</v>
+        <v>2832</v>
       </c>
       <c r="AC19" s="166"/>
       <c r="AD19" s="20"/>
@@ -55726,7 +55801,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>2799</v>
+        <v>2791</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="12"/>
@@ -55734,7 +55809,7 @@
         <v>181</v>
       </c>
       <c r="K20" s="319" t="s">
-        <v>2887</v>
+        <v>2879</v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
@@ -55743,13 +55818,13 @@
         <v>2502</v>
       </c>
       <c r="Q20" t="s">
-        <v>2811</v>
+        <v>2803</v>
       </c>
       <c r="T20" t="s">
-        <v>2834</v>
+        <v>2826</v>
       </c>
       <c r="U20" t="s">
-        <v>2841</v>
+        <v>2833</v>
       </c>
       <c r="AC20" s="166"/>
       <c r="AD20" s="20"/>
@@ -55822,17 +55897,17 @@
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="11" t="s">
-        <v>2800</v>
+        <v>2792</v>
       </c>
       <c r="N22" s="12"/>
       <c r="P22" t="s">
-        <v>2828</v>
+        <v>2820</v>
       </c>
       <c r="Q22" t="s">
-        <v>2829</v>
+        <v>2821</v>
       </c>
       <c r="R22" t="s">
-        <v>2830</v>
+        <v>2822</v>
       </c>
       <c r="S22" s="132" t="s">
         <v>2503</v>
@@ -55877,7 +55952,7 @@
       </c>
       <c r="L23" s="11"/>
       <c r="M23" s="11" t="s">
-        <v>2801</v>
+        <v>2793</v>
       </c>
       <c r="N23" s="12"/>
       <c r="AC23" s="166"/>
@@ -55901,7 +55976,7 @@
     </row>
     <row r="24" spans="1:46" ht="15.75" thickBot="1">
       <c r="A24" t="s">
-        <v>2802</v>
+        <v>2794</v>
       </c>
       <c r="D24" s="365"/>
       <c r="F24" s="131"/>
@@ -55935,10 +56010,10 @@
     <row r="25" spans="1:46">
       <c r="D25" s="365"/>
       <c r="E25" t="s">
-        <v>2796</v>
+        <v>2788</v>
       </c>
       <c r="I25" t="s">
-        <v>2888</v>
+        <v>2880</v>
       </c>
       <c r="AC25" s="166"/>
       <c r="AD25" s="20"/>
@@ -55962,7 +56037,7 @@
     <row r="26" spans="1:46">
       <c r="D26" s="321"/>
       <c r="J26" s="328" t="s">
-        <v>2997</v>
+        <v>2989</v>
       </c>
       <c r="AC26" s="166"/>
       <c r="AD26" s="20"/>
@@ -55986,7 +56061,7 @@
     <row r="27" spans="1:46">
       <c r="D27" s="321"/>
       <c r="H27" t="s">
-        <v>2889</v>
+        <v>2881</v>
       </c>
       <c r="AC27" s="166"/>
       <c r="AD27" s="20"/>
@@ -56010,7 +56085,7 @@
     <row r="28" spans="1:46">
       <c r="D28" s="321"/>
       <c r="I28" t="s">
-        <v>2890</v>
+        <v>2882</v>
       </c>
       <c r="AC28" s="166"/>
       <c r="AD28" s="20"/>
@@ -56037,14 +56112,14 @@
         <v>392</v>
       </c>
       <c r="J29" s="325" t="s">
-        <v>2892</v>
+        <v>2884</v>
       </c>
       <c r="K29" s="325"/>
       <c r="L29" s="325" t="s">
-        <v>2891</v>
+        <v>2883</v>
       </c>
       <c r="M29" s="325" t="s">
-        <v>2893</v>
+        <v>2885</v>
       </c>
       <c r="N29" s="325"/>
       <c r="O29" s="325"/>
@@ -56122,10 +56197,10 @@
         <v>2499</v>
       </c>
       <c r="C32" t="s">
-        <v>2805</v>
+        <v>2797</v>
       </c>
       <c r="D32" t="s">
-        <v>2806</v>
+        <v>2798</v>
       </c>
       <c r="U32">
         <v>27</v>
@@ -56154,7 +56229,7 @@
     </row>
     <row r="33" spans="1:46 16384:16384">
       <c r="A33" t="s">
-        <v>2803</v>
+        <v>2795</v>
       </c>
       <c r="F33" t="s">
         <v>2502</v>
@@ -56175,13 +56250,13 @@
         <v>2510</v>
       </c>
       <c r="S33" t="s">
+        <v>2835</v>
+      </c>
+      <c r="U33" t="s">
+        <v>2834</v>
+      </c>
+      <c r="V33" t="s">
         <v>2843</v>
-      </c>
-      <c r="U33" t="s">
-        <v>2842</v>
-      </c>
-      <c r="V33" t="s">
-        <v>2851</v>
       </c>
       <c r="AC33" s="166"/>
       <c r="AD33" s="20"/>
@@ -56204,7 +56279,7 @@
     </row>
     <row r="34" spans="1:46 16384:16384">
       <c r="A34" t="s">
-        <v>2804</v>
+        <v>2796</v>
       </c>
       <c r="F34" s="132" t="s">
         <v>2503</v>
@@ -56225,10 +56300,10 @@
         <v>2511</v>
       </c>
       <c r="M34" t="s">
-        <v>2850</v>
+        <v>2842</v>
       </c>
       <c r="V34" t="s">
-        <v>2839</v>
+        <v>2831</v>
       </c>
       <c r="AC34" s="115"/>
       <c r="AD34" s="223"/>
@@ -56254,13 +56329,13 @@
         <v>2519</v>
       </c>
       <c r="T35" t="s">
-        <v>2852</v>
+        <v>2844</v>
       </c>
       <c r="V35" t="s">
-        <v>2840</v>
+        <v>2832</v>
       </c>
       <c r="W35" t="s">
-        <v>2853</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="36" spans="1:46 16384:16384">
@@ -56269,7 +56344,7 @@
         <v>2512</v>
       </c>
       <c r="V36" t="s">
-        <v>2841</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="37" spans="1:46 16384:16384">
@@ -56331,7 +56406,7 @@
         <v>1564</v>
       </c>
       <c r="S38" t="s">
-        <v>2857</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="39" spans="1:46 16384:16384">
@@ -56409,10 +56484,10 @@
         <v>2150</v>
       </c>
       <c r="X40" t="s">
-        <v>2881</v>
+        <v>2873</v>
       </c>
       <c r="Y40" t="s">
-        <v>2856</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="41" spans="1:46 16384:16384">
@@ -56439,7 +56514,7 @@
         <v>1436</v>
       </c>
       <c r="AE41" t="s">
-        <v>2897</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="42" spans="1:46 16384:16384">
@@ -56457,7 +56532,7 @@
       <c r="P42" s="103"/>
       <c r="Q42" s="171"/>
       <c r="R42" t="s">
-        <v>2858</v>
+        <v>2850</v>
       </c>
       <c r="Y42" t="s">
         <v>567</v>
@@ -56466,7 +56541,7 @@
         <v>1437</v>
       </c>
       <c r="AE42" t="s">
-        <v>2898</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="43" spans="1:46 16384:16384">
@@ -56493,7 +56568,7 @@
         <v>1435</v>
       </c>
       <c r="AE43" t="s">
-        <v>2899</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="44" spans="1:46 16384:16384">
@@ -56501,7 +56576,7 @@
         <v>1024</v>
       </c>
       <c r="E44" s="306" t="s">
-        <v>2848</v>
+        <v>2840</v>
       </c>
       <c r="F44" s="306" t="s">
         <v>1443</v>
@@ -56534,7 +56609,7 @@
         <v>1445</v>
       </c>
       <c r="E45" s="309" t="s">
-        <v>2849</v>
+        <v>2841</v>
       </c>
       <c r="F45" s="310">
         <v>1.1111111E+100</v>
@@ -56572,7 +56647,7 @@
         <v>567</v>
       </c>
       <c r="AG46" t="s">
-        <v>2870</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="47" spans="1:46 16384:16384">
@@ -56588,7 +56663,7 @@
       <c r="N47" s="306"/>
       <c r="O47" s="306"/>
       <c r="Q47" t="s">
-        <v>2844</v>
+        <v>2836</v>
       </c>
       <c r="Y47" t="s">
         <v>567</v>
@@ -56607,16 +56682,16 @@
       <c r="N48" s="306"/>
       <c r="O48" s="306"/>
       <c r="Q48" t="s">
-        <v>2845</v>
+        <v>2837</v>
       </c>
       <c r="Y48" t="s">
         <v>567</v>
       </c>
       <c r="AG48" t="s">
-        <v>2869</v>
+        <v>2861</v>
       </c>
       <c r="AI48" t="s">
-        <v>2868</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="49" spans="1:35">
@@ -56635,10 +56710,10 @@
         <v>1565</v>
       </c>
       <c r="V49" t="s">
-        <v>2880</v>
+        <v>2872</v>
       </c>
       <c r="X49" s="360" t="s">
-        <v>2860</v>
+        <v>2852</v>
       </c>
       <c r="Y49" s="361"/>
       <c r="Z49" s="361"/>
@@ -56702,7 +56777,7 @@
         <v>567</v>
       </c>
       <c r="AC51" t="s">
-        <v>2900</v>
+        <v>2892</v>
       </c>
       <c r="AE51" t="s">
         <v>567</v>
@@ -56736,7 +56811,7 @@
         <v>1556</v>
       </c>
       <c r="T52" t="s">
-        <v>2866</v>
+        <v>2858</v>
       </c>
       <c r="Y52" t="s">
         <v>567</v>
@@ -56798,7 +56873,7 @@
       <c r="N54" s="306"/>
       <c r="O54" s="306"/>
       <c r="T54" t="s">
-        <v>2867</v>
+        <v>2859</v>
       </c>
       <c r="Y54" t="s">
         <v>567</v>
@@ -56857,31 +56932,31 @@
       <c r="N56" s="306"/>
       <c r="O56" s="306"/>
       <c r="Q56" t="s">
+        <v>2838</v>
+      </c>
+      <c r="R56" t="s">
+        <v>2839</v>
+      </c>
+      <c r="U56" s="175" t="s">
         <v>2846</v>
       </c>
-      <c r="R56" t="s">
+      <c r="Y56" t="s">
+        <v>2853</v>
+      </c>
+      <c r="AA56" t="s">
         <v>2847</v>
       </c>
-      <c r="U56" s="175" t="s">
+      <c r="AC56" t="s">
         <v>2854</v>
       </c>
-      <c r="Y56" t="s">
-        <v>2861</v>
-      </c>
-      <c r="AA56" t="s">
+      <c r="AE56" t="s">
         <v>2855</v>
       </c>
-      <c r="AC56" t="s">
-        <v>2862</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>2863</v>
-      </c>
       <c r="AG56" t="s">
-        <v>2864</v>
+        <v>2856</v>
       </c>
       <c r="AI56" t="s">
-        <v>2865</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="57" spans="1:35">
@@ -56897,13 +56972,13 @@
       <c r="N57" s="306"/>
       <c r="O57" s="306"/>
       <c r="Y57" t="s">
-        <v>2877</v>
+        <v>2869</v>
       </c>
       <c r="AC57" t="s">
-        <v>2878</v>
+        <v>2870</v>
       </c>
       <c r="AG57" t="s">
-        <v>2879</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="58" spans="1:35">
@@ -56932,10 +57007,10 @@
       <c r="N59" s="306"/>
       <c r="O59" s="306"/>
       <c r="AC59" t="s">
-        <v>2895</v>
+        <v>2887</v>
       </c>
       <c r="AE59" t="s">
-        <v>2896</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="60" spans="1:35">
@@ -56953,10 +57028,10 @@
       <c r="N60" s="31"/>
       <c r="O60" s="31"/>
       <c r="U60" t="s">
-        <v>2871</v>
+        <v>2863</v>
       </c>
       <c r="W60" t="s">
-        <v>2874</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="61" spans="1:35">
@@ -56972,10 +57047,10 @@
       <c r="N61" s="31"/>
       <c r="O61" s="31"/>
       <c r="U61" t="s">
-        <v>2872</v>
+        <v>2864</v>
       </c>
       <c r="W61" t="s">
-        <v>2875</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="62" spans="1:35">
@@ -56991,10 +57066,10 @@
       <c r="N62" s="31"/>
       <c r="O62" s="31"/>
       <c r="U62" t="s">
-        <v>2873</v>
+        <v>2865</v>
       </c>
       <c r="W62" t="s">
-        <v>2876</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="63" spans="1:35">
@@ -62286,7 +62361,7 @@
     <row r="1" spans="3:16" ht="15.75" thickBot="1"/>
     <row r="2" spans="3:16">
       <c r="C2" s="396" t="s">
-        <v>2901</v>
+        <v>2893</v>
       </c>
       <c r="D2" s="397"/>
       <c r="E2" s="397"/>
@@ -62308,7 +62383,7 @@
       <c r="J3" s="399"/>
       <c r="K3" s="399"/>
       <c r="M3" t="s">
-        <v>2902</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="4" spans="3:16">
@@ -62322,7 +62397,7 @@
       <c r="J4" s="399"/>
       <c r="K4" s="399"/>
       <c r="N4" t="s">
-        <v>2903</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="5" spans="3:16">
@@ -62336,7 +62411,7 @@
       <c r="J5" s="399"/>
       <c r="K5" s="399"/>
       <c r="O5" t="s">
-        <v>2904</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="6" spans="3:16">
@@ -62364,7 +62439,7 @@
       <c r="J7" s="399"/>
       <c r="K7" s="399"/>
       <c r="O7" t="s">
-        <v>2905</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="8" spans="3:16" ht="15.75" thickBot="1">
@@ -62378,7 +62453,7 @@
       <c r="J8" s="401"/>
       <c r="K8" s="401"/>
       <c r="O8" t="s">
-        <v>2906</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="9" spans="3:16">
@@ -62392,7 +62467,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="O9" t="s">
-        <v>2907</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="10" spans="3:16" ht="15.75" thickBot="1">
@@ -62414,7 +62489,7 @@
     </row>
     <row r="11" spans="3:16" ht="15.75" thickBot="1">
       <c r="C11" s="366" t="s">
-        <v>2810</v>
+        <v>2802</v>
       </c>
       <c r="D11" s="367"/>
       <c r="E11" s="367"/>
@@ -62425,25 +62500,25 @@
       <c r="J11" s="367"/>
       <c r="K11" s="367"/>
       <c r="N11" t="s">
-        <v>2908</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="12" spans="3:16">
       <c r="C12" s="129"/>
       <c r="D12" s="381" t="s">
-        <v>2931</v>
+        <v>2923</v>
       </c>
       <c r="E12" s="382"/>
       <c r="F12" s="382"/>
       <c r="G12" s="382"/>
       <c r="H12" s="383"/>
       <c r="I12" s="390" t="s">
-        <v>2919</v>
+        <v>2911</v>
       </c>
       <c r="J12" s="391"/>
       <c r="K12" s="392"/>
       <c r="O12" t="s">
-        <v>2909</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="13" spans="3:16">
@@ -62459,7 +62534,7 @@
       <c r="J13" s="394"/>
       <c r="K13" s="395"/>
       <c r="P13" t="s">
-        <v>2910</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="14" spans="3:16" ht="15.75" thickBot="1">
@@ -62484,7 +62559,7 @@
       <c r="J15" s="394"/>
       <c r="K15" s="395"/>
       <c r="O15" t="s">
-        <v>2911</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="16" spans="3:16">
@@ -62498,7 +62573,7 @@
       <c r="J16" s="394"/>
       <c r="K16" s="395"/>
       <c r="P16" t="s">
-        <v>2912</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="17" spans="2:16">
@@ -62525,7 +62600,7 @@
       <c r="J18" s="394"/>
       <c r="K18" s="395"/>
       <c r="M18" t="s">
-        <v>2913</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="19" spans="2:16">
@@ -62539,7 +62614,7 @@
       <c r="J19" s="394"/>
       <c r="K19" s="395"/>
       <c r="N19" t="s">
-        <v>2914</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="20" spans="2:16">
@@ -62555,7 +62630,7 @@
       <c r="J20" s="394"/>
       <c r="K20" s="395"/>
       <c r="N20" t="s">
-        <v>2915</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="15.75" thickBot="1">
@@ -62569,7 +62644,7 @@
       <c r="J21" s="394"/>
       <c r="K21" s="395"/>
       <c r="N21" t="s">
-        <v>2916</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="22" spans="2:16">
@@ -62586,12 +62661,12 @@
       <c r="J22" s="402"/>
       <c r="K22" s="402"/>
       <c r="N22" t="s">
-        <v>2917</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="23" spans="2:16">
       <c r="N23" t="s">
-        <v>2918</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="24" spans="2:16">
@@ -62602,7 +62677,7 @@
         <v>373</v>
       </c>
       <c r="P24" t="s">
-        <v>2954</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="25" spans="2:16">
@@ -62612,32 +62687,32 @@
     </row>
     <row r="26" spans="2:16">
       <c r="D26" t="s">
-        <v>2920</v>
+        <v>2912</v>
       </c>
       <c r="N26" t="s">
-        <v>2950</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="27" spans="2:16">
       <c r="N27" t="s">
-        <v>2951</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" t="s">
-        <v>2921</v>
+        <v>2913</v>
       </c>
       <c r="D28" t="s">
         <v>175</v>
       </c>
       <c r="E28" t="s">
-        <v>2922</v>
+        <v>2914</v>
       </c>
       <c r="I28" t="s">
-        <v>2932</v>
+        <v>2924</v>
       </c>
       <c r="J28" t="s">
-        <v>2934</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="29" spans="2:16">
@@ -62645,10 +62720,10 @@
         <v>185</v>
       </c>
       <c r="E29" t="s">
-        <v>2923</v>
+        <v>2915</v>
       </c>
       <c r="I29" t="s">
-        <v>2947</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="30" spans="2:16">
@@ -62656,16 +62731,16 @@
         <v>182</v>
       </c>
       <c r="E30" t="s">
-        <v>2924</v>
+        <v>2916</v>
       </c>
       <c r="I30" t="s">
-        <v>2948</v>
+        <v>2940</v>
       </c>
       <c r="L30" t="s">
-        <v>2930</v>
+        <v>2922</v>
       </c>
       <c r="N30" t="s">
-        <v>2936</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="31" spans="2:16">
@@ -62673,34 +62748,34 @@
         <v>186</v>
       </c>
       <c r="E31" t="s">
-        <v>2925</v>
+        <v>2917</v>
       </c>
       <c r="I31" t="s">
-        <v>2949</v>
+        <v>2941</v>
       </c>
       <c r="N31" t="s">
-        <v>2937</v>
+        <v>2929</v>
       </c>
       <c r="P31" t="s">
-        <v>2938</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="32" spans="2:16">
       <c r="N32" t="s">
-        <v>2952</v>
+        <v>2944</v>
       </c>
       <c r="P32" t="s">
-        <v>2953</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="33" spans="2:17">
       <c r="C33" t="s">
-        <v>2926</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="34" spans="2:17">
       <c r="L34" t="s">
-        <v>2933</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="35" spans="2:17">
@@ -62729,7 +62804,7 @@
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>2935</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="36" spans="2:17">
@@ -62817,7 +62892,7 @@
     </row>
     <row r="40" spans="2:17">
       <c r="B40" t="s">
-        <v>2927</v>
+        <v>2919</v>
       </c>
       <c r="K40">
         <v>-128</v>
@@ -62825,15 +62900,15 @@
     </row>
     <row r="41" spans="2:17">
       <c r="B41" t="s">
-        <v>2928</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="42" spans="2:17">
       <c r="B42" t="s">
-        <v>2929</v>
+        <v>2921</v>
       </c>
       <c r="G42" t="s">
-        <v>2941</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="45" spans="2:17">
@@ -62889,13 +62964,13 @@
     <row r="46" spans="2:17">
       <c r="B46" s="20"/>
       <c r="G46" t="s">
-        <v>2943</v>
+        <v>2935</v>
       </c>
       <c r="H46" t="s">
-        <v>2942</v>
+        <v>2934</v>
       </c>
       <c r="I46" t="s">
-        <v>2944</v>
+        <v>2936</v>
       </c>
       <c r="J46" s="20" t="s">
         <v>33</v>
@@ -62927,10 +63002,10 @@
         <v>2211</v>
       </c>
       <c r="C47" s="124" t="s">
-        <v>2939</v>
+        <v>2931</v>
       </c>
       <c r="D47" s="124" t="s">
-        <v>2940</v>
+        <v>2932</v>
       </c>
       <c r="E47" s="124">
         <v>13</v>
@@ -63024,23 +63099,23 @@
     </row>
     <row r="50" spans="2:8">
       <c r="B50" t="s">
-        <v>2927</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" t="s">
-        <v>2928</v>
+        <v>2920</v>
       </c>
       <c r="H51" t="s">
-        <v>2945</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" t="s">
-        <v>2929</v>
+        <v>2921</v>
       </c>
       <c r="H52" s="149" t="s">
-        <v>2946</v>
+        <v>2938</v>
       </c>
     </row>
   </sheetData>
@@ -66929,17 +67004,17 @@
     </row>
     <row r="300" spans="2:14">
       <c r="K300" t="s">
-        <v>2994</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="301" spans="2:14" ht="15.75" thickBot="1">
       <c r="G301" t="s">
-        <v>2992</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="302" spans="2:14">
       <c r="B302" t="s">
-        <v>2995</v>
+        <v>2987</v>
       </c>
       <c r="G302" s="23"/>
       <c r="H302" s="24"/>
@@ -66948,7 +67023,7 @@
     </row>
     <row r="303" spans="2:14">
       <c r="G303" s="26" t="s">
-        <v>2993</v>
+        <v>2985</v>
       </c>
       <c r="H303" s="20"/>
       <c r="I303" s="27"/>
@@ -66958,10 +67033,10 @@
     </row>
     <row r="304" spans="2:14">
       <c r="C304" t="s">
+        <v>2983</v>
+      </c>
+      <c r="G304" s="26" t="s">
         <v>2991</v>
-      </c>
-      <c r="G304" s="26" t="s">
-        <v>2999</v>
       </c>
       <c r="H304" s="20"/>
       <c r="I304" s="27"/>
@@ -66971,7 +67046,7 @@
     </row>
     <row r="305" spans="2:17">
       <c r="G305" s="26" t="s">
-        <v>3000</v>
+        <v>2992</v>
       </c>
       <c r="H305" s="20"/>
       <c r="I305" s="27"/>
@@ -66988,7 +67063,7 @@
       <c r="C307" s="22"/>
       <c r="D307" s="22"/>
       <c r="G307" s="26" t="s">
-        <v>3001</v>
+        <v>2993</v>
       </c>
       <c r="H307" s="20"/>
       <c r="I307" s="27"/>
@@ -67001,7 +67076,7 @@
       <c r="C308" s="22"/>
       <c r="D308" s="22"/>
       <c r="G308" s="26" t="s">
-        <v>3001</v>
+        <v>2993</v>
       </c>
       <c r="H308" s="20"/>
       <c r="I308" s="27"/>
@@ -67011,14 +67086,14 @@
     </row>
     <row r="309" spans="2:17">
       <c r="G309" s="26" t="s">
-        <v>3001</v>
+        <v>2993</v>
       </c>
       <c r="H309" s="20"/>
       <c r="I309" s="27"/>
     </row>
     <row r="310" spans="2:17">
       <c r="B310" t="s">
-        <v>3006</v>
+        <v>2998</v>
       </c>
       <c r="G310" s="26"/>
       <c r="H310" s="20"/>
@@ -67027,7 +67102,7 @@
     </row>
     <row r="311" spans="2:17" ht="15.75" thickBot="1">
       <c r="B311" t="s">
-        <v>3007</v>
+        <v>2999</v>
       </c>
       <c r="G311" s="28"/>
       <c r="H311" s="29"/>
@@ -67038,7 +67113,7 @@
     </row>
     <row r="312" spans="2:17">
       <c r="B312" t="s">
-        <v>3008</v>
+        <v>3000</v>
       </c>
       <c r="K312" s="22"/>
       <c r="L312" s="22"/>
@@ -67046,12 +67121,12 @@
     </row>
     <row r="313" spans="2:17" ht="15.75" thickBot="1">
       <c r="B313" t="s">
-        <v>3009</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="314" spans="2:17">
       <c r="G314" s="23" t="s">
-        <v>2996</v>
+        <v>2988</v>
       </c>
       <c r="H314" s="24"/>
       <c r="I314" s="25"/>
@@ -67061,7 +67136,7 @@
       <c r="L314" s="24"/>
       <c r="M314" s="24"/>
       <c r="N314" s="24" t="s">
-        <v>3002</v>
+        <v>2994</v>
       </c>
       <c r="O314" s="24"/>
       <c r="P314" s="24"/>
@@ -67126,7 +67201,7 @@
         <v>1536</v>
       </c>
       <c r="L317" s="20" t="s">
-        <v>2752</v>
+        <v>2744</v>
       </c>
       <c r="M317" s="20"/>
       <c r="N317" s="20"/>
@@ -67140,10 +67215,10 @@
     </row>
     <row r="318" spans="2:17" ht="15.75" thickBot="1">
       <c r="C318" t="s">
+        <v>2982</v>
+      </c>
+      <c r="G318" s="26" t="s">
         <v>2990</v>
-      </c>
-      <c r="G318" s="26" t="s">
-        <v>2998</v>
       </c>
       <c r="H318" s="20"/>
       <c r="I318" s="27"/>
@@ -67168,7 +67243,7 @@
         <v>142</v>
       </c>
       <c r="G319" s="26" t="s">
-        <v>3004</v>
+        <v>2996</v>
       </c>
       <c r="H319" s="20"/>
       <c r="I319" s="27"/>
@@ -67202,7 +67277,7 @@
         <v>0</v>
       </c>
       <c r="N320" s="20" t="s">
-        <v>2752</v>
+        <v>2744</v>
       </c>
       <c r="O320" s="105" t="s">
         <v>56</v>
@@ -67237,10 +67312,10 @@
     </row>
     <row r="322" spans="2:17" ht="15.75" thickBot="1">
       <c r="B322" t="s">
-        <v>3003</v>
+        <v>2995</v>
       </c>
       <c r="G322" s="76" t="s">
-        <v>3010</v>
+        <v>3002</v>
       </c>
       <c r="I322" t="s">
         <v>349</v>
@@ -67259,7 +67334,7 @@
     </row>
     <row r="323" spans="2:17" ht="15.75" thickBot="1">
       <c r="B323" t="s">
-        <v>3005</v>
+        <v>2997</v>
       </c>
       <c r="K323" s="28"/>
       <c r="L323" s="29"/>
@@ -67304,12 +67379,12 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
       <c r="F1" s="31" t="s">
-        <v>2975</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" s="73" t="s">
-        <v>2955</v>
+        <v>2947</v>
       </c>
       <c r="C2" s="74"/>
       <c r="D2" s="75"/>
@@ -67319,7 +67394,7 @@
       <c r="G2" s="74"/>
       <c r="H2" s="75"/>
       <c r="J2" s="73" t="s">
-        <v>2977</v>
+        <v>2969</v>
       </c>
       <c r="K2" s="74"/>
       <c r="L2" s="75"/>
@@ -67346,7 +67421,7 @@
         <v>182</v>
       </c>
       <c r="H3" s="67" t="s">
-        <v>2969</v>
+        <v>2961</v>
       </c>
       <c r="J3" s="76" t="s">
         <v>2577</v>
@@ -67378,7 +67453,7 @@
         <v>182</v>
       </c>
       <c r="H4" s="67" t="s">
-        <v>2970</v>
+        <v>2962</v>
       </c>
       <c r="J4" s="76"/>
       <c r="K4" s="31" t="s">
@@ -67392,16 +67467,16 @@
         <v>178</v>
       </c>
       <c r="P4" s="67" t="s">
-        <v>2983</v>
+        <v>2975</v>
       </c>
       <c r="Q4" s="327" t="s">
-        <v>2984</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="B5" s="76"/>
       <c r="C5" s="31" t="s">
-        <v>2977</v>
+        <v>2969</v>
       </c>
       <c r="D5" s="67" t="s">
         <v>196</v>
@@ -67411,7 +67486,7 @@
         <v>178</v>
       </c>
       <c r="H5" s="67" t="s">
-        <v>2974</v>
+        <v>2966</v>
       </c>
       <c r="J5" s="76"/>
       <c r="K5" s="31" t="s">
@@ -67431,7 +67506,7 @@
     <row r="6" spans="1:17">
       <c r="B6" s="76"/>
       <c r="C6" s="31" t="s">
-        <v>2978</v>
+        <v>2970</v>
       </c>
       <c r="D6" s="67" t="s">
         <v>1834</v>
@@ -67441,7 +67516,7 @@
         <v>178</v>
       </c>
       <c r="H6" s="67" t="s">
-        <v>2971</v>
+        <v>2963</v>
       </c>
       <c r="J6" s="76"/>
       <c r="K6" s="31" t="s">
@@ -67456,7 +67531,7 @@
     <row r="7" spans="1:17">
       <c r="B7" s="76"/>
       <c r="C7" s="31" t="s">
-        <v>2980</v>
+        <v>2972</v>
       </c>
       <c r="D7" s="67" t="s">
         <v>197</v>
@@ -67466,17 +67541,17 @@
         <v>182</v>
       </c>
       <c r="H7" s="67" t="s">
-        <v>2972</v>
+        <v>2964</v>
       </c>
       <c r="J7" s="76"/>
       <c r="K7" s="31" t="s">
         <v>182</v>
       </c>
       <c r="L7" s="67" t="s">
-        <v>2976</v>
+        <v>2968</v>
       </c>
       <c r="N7" s="76" t="s">
-        <v>2988</v>
+        <v>2980</v>
       </c>
       <c r="P7" s="67"/>
       <c r="Q7" s="31">
@@ -67488,7 +67563,7 @@
       <c r="C8" s="78"/>
       <c r="D8" s="79"/>
       <c r="F8" s="77" t="s">
-        <v>2989</v>
+        <v>2981</v>
       </c>
       <c r="G8" s="78"/>
       <c r="H8" s="79"/>
@@ -67501,27 +67576,27 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1">
       <c r="J9" s="31" t="s">
-        <v>2987</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="31" t="s">
-        <v>2956</v>
+        <v>2948</v>
       </c>
       <c r="H10" s="73" t="s">
-        <v>2978</v>
+        <v>2970</v>
       </c>
       <c r="I10" s="74"/>
       <c r="J10" s="75"/>
       <c r="L10" s="73" t="s">
-        <v>2980</v>
+        <v>2972</v>
       </c>
       <c r="M10" s="74"/>
       <c r="N10" s="75"/>
     </row>
     <row r="11" spans="1:17">
       <c r="B11" s="31" t="s">
-        <v>2957</v>
+        <v>2949</v>
       </c>
       <c r="H11" s="76"/>
       <c r="I11" s="31" t="s">
@@ -67542,7 +67617,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="B12" s="31" t="s">
-        <v>2958</v>
+        <v>2950</v>
       </c>
       <c r="H12" s="76"/>
       <c r="I12" s="31" t="s">
@@ -67561,11 +67636,11 @@
     </row>
     <row r="13" spans="1:17">
       <c r="B13" s="31" t="s">
-        <v>2959</v>
+        <v>2951</v>
       </c>
       <c r="H13" s="76"/>
       <c r="I13" s="31" t="s">
-        <v>2979</v>
+        <v>2971</v>
       </c>
       <c r="J13" s="67" t="s">
         <v>1883</v>
@@ -67580,7 +67655,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="B14" s="31" t="s">
-        <v>2960</v>
+        <v>2952</v>
       </c>
       <c r="H14" s="76"/>
       <c r="J14" s="67"/>
@@ -67589,12 +67664,12 @@
         <v>178</v>
       </c>
       <c r="N14" s="67" t="s">
-        <v>2981</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1">
       <c r="C15" s="31" t="s">
-        <v>2961</v>
+        <v>2953</v>
       </c>
       <c r="H15" s="77"/>
       <c r="I15" s="78"/>
@@ -67604,26 +67679,26 @@
         <v>178</v>
       </c>
       <c r="N15" s="79" t="s">
-        <v>2982</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="31" t="s">
-        <v>2962</v>
+        <v>2954</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>2967</v>
+        <v>2959</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>2985</v>
+        <v>2977</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>2986</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" s="31" t="s">
-        <v>2963</v>
+        <v>2955</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>1888</v>
@@ -67634,10 +67709,10 @@
     </row>
     <row r="19" spans="1:16">
       <c r="C19" s="31" t="s">
-        <v>2964</v>
+        <v>2956</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>2968</v>
+        <v>2960</v>
       </c>
       <c r="N19" s="326"/>
       <c r="O19" s="31" t="s">
@@ -67649,15 +67724,15 @@
     </row>
     <row r="20" spans="1:16">
       <c r="B20" s="31" t="s">
-        <v>2965</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="C21" s="31" t="s">
-        <v>2966</v>
+        <v>2958</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>2973</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="26" spans="1:16">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="12" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="13" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="ref-review" sheetId="33" r:id="rId1"/>
@@ -9802,7 +9802,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9921,6 +9921,13 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -11019,7 +11026,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11378,6 +11384,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11696,7 +11703,7 @@
       <c r="H2" s="262" t="s">
         <v>3085</v>
       </c>
-      <c r="I2" s="346" t="s">
+      <c r="I2" s="345" t="s">
         <v>1682</v>
       </c>
       <c r="J2" s="24"/>
@@ -11858,7 +11865,7 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="347" t="s">
+      <c r="F12" s="346" t="s">
         <v>345</v>
       </c>
       <c r="H12" s="26"/>
@@ -11914,7 +11921,7 @@
       <c r="P16" s="27"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="348" t="s">
+      <c r="A17" s="347" t="s">
         <v>566</v>
       </c>
       <c r="B17" s="32" t="s">
@@ -11980,7 +11987,7 @@
       <c r="H27" s="262" t="s">
         <v>3085</v>
       </c>
-      <c r="I27" s="346" t="s">
+      <c r="I27" s="345" t="s">
         <v>1682</v>
       </c>
       <c r="J27" s="24"/>
@@ -11995,7 +12002,7 @@
       <c r="C28" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="H28" s="349"/>
+      <c r="H28" s="348"/>
       <c r="I28" s="196"/>
       <c r="P28" s="27"/>
     </row>
@@ -12006,7 +12013,7 @@
       <c r="D29" s="155" t="s">
         <v>3107</v>
       </c>
-      <c r="H29" s="349"/>
+      <c r="H29" s="348"/>
       <c r="I29" s="196"/>
       <c r="P29" s="27"/>
     </row>
@@ -12085,7 +12092,7 @@
       <c r="C35" s="32"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="347" t="s">
+      <c r="F35" s="346" t="s">
         <v>3101</v>
       </c>
       <c r="H35" s="26"/>
@@ -12115,7 +12122,7 @@
       <c r="P37" s="27"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="348" t="s">
+      <c r="A38" s="347" t="s">
         <v>3106</v>
       </c>
       <c r="B38" s="32" t="s">
@@ -12326,17 +12333,17 @@
       <c r="A2" t="s">
         <v>2618</v>
       </c>
-      <c r="E2" s="378" t="s">
+      <c r="E2" s="377" t="s">
         <v>3004</v>
       </c>
-      <c r="F2" s="380"/>
-      <c r="G2" s="380"/>
-      <c r="H2" s="380"/>
-      <c r="I2" s="380"/>
-      <c r="J2" s="380"/>
-      <c r="K2" s="380"/>
-      <c r="L2" s="380"/>
-      <c r="M2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
+      <c r="H2" s="379"/>
+      <c r="I2" s="379"/>
+      <c r="J2" s="379"/>
+      <c r="K2" s="379"/>
+      <c r="L2" s="379"/>
+      <c r="M2" s="378"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="B3" t="s">
@@ -12615,17 +12622,17 @@
       <c r="A19" t="s">
         <v>2618</v>
       </c>
-      <c r="E19" s="378" t="s">
+      <c r="E19" s="377" t="s">
         <v>3004</v>
       </c>
-      <c r="F19" s="380"/>
-      <c r="G19" s="380"/>
-      <c r="H19" s="380"/>
-      <c r="I19" s="380"/>
-      <c r="J19" s="380"/>
-      <c r="K19" s="380"/>
-      <c r="L19" s="380"/>
-      <c r="M19" s="379"/>
+      <c r="F19" s="379"/>
+      <c r="G19" s="379"/>
+      <c r="H19" s="379"/>
+      <c r="I19" s="379"/>
+      <c r="J19" s="379"/>
+      <c r="K19" s="379"/>
+      <c r="L19" s="379"/>
+      <c r="M19" s="378"/>
     </row>
     <row r="20" spans="1:13">
       <c r="B20" t="s">
@@ -12958,17 +12965,17 @@
       <c r="A42" t="s">
         <v>2618</v>
       </c>
-      <c r="E42" s="378" t="s">
+      <c r="E42" s="377" t="s">
         <v>3004</v>
       </c>
-      <c r="F42" s="380"/>
-      <c r="G42" s="380"/>
-      <c r="H42" s="380"/>
-      <c r="I42" s="380"/>
-      <c r="J42" s="380"/>
-      <c r="K42" s="380"/>
-      <c r="L42" s="380"/>
-      <c r="M42" s="379"/>
+      <c r="F42" s="379"/>
+      <c r="G42" s="379"/>
+      <c r="H42" s="379"/>
+      <c r="I42" s="379"/>
+      <c r="J42" s="379"/>
+      <c r="K42" s="379"/>
+      <c r="L42" s="379"/>
+      <c r="M42" s="378"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1">
       <c r="B43" t="s">
@@ -13281,17 +13288,17 @@
       <c r="A65" t="s">
         <v>3038</v>
       </c>
-      <c r="E65" s="378" t="s">
+      <c r="E65" s="377" t="s">
         <v>3004</v>
       </c>
-      <c r="F65" s="380"/>
-      <c r="G65" s="380"/>
-      <c r="H65" s="380"/>
-      <c r="I65" s="380"/>
-      <c r="J65" s="380"/>
-      <c r="K65" s="380"/>
-      <c r="L65" s="380"/>
-      <c r="M65" s="379"/>
+      <c r="F65" s="379"/>
+      <c r="G65" s="379"/>
+      <c r="H65" s="379"/>
+      <c r="I65" s="379"/>
+      <c r="J65" s="379"/>
+      <c r="K65" s="379"/>
+      <c r="L65" s="379"/>
+      <c r="M65" s="378"/>
     </row>
     <row r="66" spans="1:13" ht="15.75" thickBot="1">
       <c r="B66" t="s">
@@ -13397,7 +13404,7 @@
         <v>150</v>
       </c>
       <c r="E72" s="42"/>
-      <c r="F72" s="329" t="s">
+      <c r="F72" s="328" t="s">
         <v>3048</v>
       </c>
       <c r="G72" s="43"/>
@@ -13417,7 +13424,7 @@
       <c r="G73" s="109" t="s">
         <v>3054</v>
       </c>
-      <c r="H73" s="330" t="s">
+      <c r="H73" s="329" t="s">
         <v>3055</v>
       </c>
       <c r="J73" s="43" t="s">
@@ -13581,15 +13588,15 @@
       <c r="B88" s="31"/>
       <c r="C88" s="31"/>
       <c r="D88" s="31"/>
-      <c r="E88" s="411"/>
-      <c r="F88" s="412"/>
-      <c r="G88" s="412"/>
-      <c r="H88" s="412"/>
-      <c r="I88" s="412"/>
-      <c r="J88" s="412"/>
-      <c r="K88" s="412"/>
-      <c r="L88" s="412"/>
-      <c r="M88" s="413"/>
+      <c r="E88" s="410"/>
+      <c r="F88" s="411"/>
+      <c r="G88" s="411"/>
+      <c r="H88" s="411"/>
+      <c r="I88" s="411"/>
+      <c r="J88" s="411"/>
+      <c r="K88" s="411"/>
+      <c r="L88" s="411"/>
+      <c r="M88" s="412"/>
       <c r="N88" s="31"/>
       <c r="O88" s="31"/>
     </row>
@@ -13623,19 +13630,19 @@
       <c r="B90" s="31"/>
       <c r="C90" s="31"/>
       <c r="D90" s="31"/>
-      <c r="E90" s="297" t="s">
+      <c r="E90" s="296" t="s">
         <v>1726</v>
       </c>
       <c r="F90" s="66" t="s">
         <v>345</v>
       </c>
       <c r="G90" s="110"/>
-      <c r="H90" s="301"/>
-      <c r="I90" s="334" t="s">
+      <c r="H90" s="300"/>
+      <c r="I90" s="333" t="s">
         <v>345</v>
       </c>
-      <c r="J90" s="342"/>
-      <c r="K90" s="343"/>
+      <c r="J90" s="341"/>
+      <c r="K90" s="342"/>
       <c r="L90" s="66"/>
       <c r="M90" s="198"/>
       <c r="N90" s="31"/>
@@ -13646,19 +13653,19 @@
       <c r="B91" s="31"/>
       <c r="C91" s="31"/>
       <c r="D91" s="31"/>
-      <c r="E91" s="297" t="s">
+      <c r="E91" s="296" t="s">
         <v>3082</v>
       </c>
       <c r="F91" s="66" t="s">
         <v>1647</v>
       </c>
       <c r="G91" s="110"/>
-      <c r="H91" s="301"/>
-      <c r="I91" s="334"/>
-      <c r="J91" s="297" t="s">
+      <c r="H91" s="300"/>
+      <c r="I91" s="333"/>
+      <c r="J91" s="296" t="s">
         <v>56</v>
       </c>
-      <c r="K91" s="341" t="s">
+      <c r="K91" s="340" t="s">
         <v>344</v>
       </c>
       <c r="L91" s="66"/>
@@ -13671,13 +13678,13 @@
       <c r="B92" s="31"/>
       <c r="C92" s="31"/>
       <c r="D92" s="31"/>
-      <c r="E92" s="297"/>
+      <c r="E92" s="296"/>
       <c r="F92" s="66"/>
       <c r="G92" s="66"/>
-      <c r="H92" s="301"/>
-      <c r="I92" s="334"/>
-      <c r="J92" s="344"/>
-      <c r="K92" s="345"/>
+      <c r="H92" s="300"/>
+      <c r="I92" s="333"/>
+      <c r="J92" s="343"/>
+      <c r="K92" s="344"/>
       <c r="L92" s="66"/>
       <c r="M92" s="198"/>
       <c r="N92" s="31"/>
@@ -13690,7 +13697,7 @@
       <c r="B93" s="31"/>
       <c r="C93" s="31"/>
       <c r="D93" s="31"/>
-      <c r="E93" s="297"/>
+      <c r="E93" s="296"/>
       <c r="F93" s="66"/>
       <c r="G93" s="66"/>
       <c r="H93" s="66"/>
@@ -13709,7 +13716,7 @@
       <c r="B94" s="31"/>
       <c r="C94" s="31"/>
       <c r="D94" s="31"/>
-      <c r="E94" s="297"/>
+      <c r="E94" s="296"/>
       <c r="F94" s="66"/>
       <c r="G94" s="66"/>
       <c r="H94" s="66"/>
@@ -13729,7 +13736,7 @@
       <c r="D95" s="31" t="s">
         <v>3075</v>
       </c>
-      <c r="E95" s="297"/>
+      <c r="E95" s="296"/>
       <c r="F95" s="66"/>
       <c r="G95" s="66"/>
       <c r="H95" s="66"/>
@@ -13752,7 +13759,7 @@
         <v>3081</v>
       </c>
       <c r="D96" s="31"/>
-      <c r="E96" s="297"/>
+      <c r="E96" s="296"/>
       <c r="F96" s="66"/>
       <c r="G96" s="66"/>
       <c r="H96" s="66"/>
@@ -13774,7 +13781,7 @@
         <v>1519</v>
       </c>
       <c r="D97" s="31"/>
-      <c r="E97" s="297"/>
+      <c r="E97" s="296"/>
       <c r="F97" s="66"/>
       <c r="G97" s="66"/>
       <c r="H97" s="66"/>
@@ -13796,7 +13803,7 @@
       </c>
       <c r="B98" s="31"/>
       <c r="D98" s="31"/>
-      <c r="E98" s="297"/>
+      <c r="E98" s="296"/>
       <c r="F98" s="66"/>
       <c r="G98" s="66"/>
       <c r="H98" s="66"/>
@@ -13816,7 +13823,7 @@
       </c>
       <c r="B99" s="31"/>
       <c r="D99" s="31"/>
-      <c r="E99" s="297"/>
+      <c r="E99" s="296"/>
       <c r="F99" s="110"/>
       <c r="G99" s="66"/>
       <c r="H99" s="66"/>
@@ -13834,7 +13841,7 @@
         <v>1706</v>
       </c>
       <c r="D100" s="31"/>
-      <c r="E100" s="297"/>
+      <c r="E100" s="296"/>
       <c r="F100" s="110"/>
       <c r="G100" s="66"/>
       <c r="H100" s="110"/>
@@ -13852,7 +13859,7 @@
         <v>1518</v>
       </c>
       <c r="D101" s="31"/>
-      <c r="E101" s="297"/>
+      <c r="E101" s="296"/>
       <c r="F101" s="66"/>
       <c r="G101" s="66"/>
       <c r="H101" s="66"/>
@@ -13872,12 +13879,12 @@
       </c>
       <c r="B102" s="31"/>
       <c r="D102" s="31"/>
-      <c r="E102" s="340"/>
+      <c r="E102" s="339"/>
       <c r="F102" s="31"/>
       <c r="G102" s="31"/>
       <c r="H102" s="31"/>
       <c r="I102" s="66"/>
-      <c r="J102" s="297" t="s">
+      <c r="J102" s="296" t="s">
         <v>56</v>
       </c>
       <c r="K102" s="198" t="s">
@@ -13961,15 +13968,15 @@
       <c r="B107" s="31"/>
       <c r="C107" s="31"/>
       <c r="D107" s="31"/>
-      <c r="E107" s="414"/>
-      <c r="F107" s="414"/>
-      <c r="G107" s="414"/>
-      <c r="H107" s="414"/>
-      <c r="I107" s="414"/>
-      <c r="J107" s="414"/>
-      <c r="K107" s="414"/>
-      <c r="L107" s="414"/>
-      <c r="M107" s="414"/>
+      <c r="E107" s="413"/>
+      <c r="F107" s="413"/>
+      <c r="G107" s="413"/>
+      <c r="H107" s="413"/>
+      <c r="I107" s="413"/>
+      <c r="J107" s="413"/>
+      <c r="K107" s="413"/>
+      <c r="L107" s="413"/>
+      <c r="M107" s="413"/>
       <c r="N107" s="31"/>
       <c r="O107" s="31"/>
     </row>
@@ -13987,15 +13994,15 @@
       <c r="B109" s="31"/>
       <c r="C109" s="31"/>
       <c r="D109" s="31"/>
-      <c r="E109" s="411"/>
-      <c r="F109" s="412"/>
-      <c r="G109" s="412"/>
-      <c r="H109" s="412"/>
-      <c r="I109" s="412"/>
-      <c r="J109" s="412"/>
-      <c r="K109" s="412"/>
-      <c r="L109" s="412"/>
-      <c r="M109" s="413"/>
+      <c r="E109" s="410"/>
+      <c r="F109" s="411"/>
+      <c r="G109" s="411"/>
+      <c r="H109" s="411"/>
+      <c r="I109" s="411"/>
+      <c r="J109" s="411"/>
+      <c r="K109" s="411"/>
+      <c r="L109" s="411"/>
+      <c r="M109" s="412"/>
       <c r="N109" s="31"/>
       <c r="O109" s="31"/>
     </row>
@@ -14029,19 +14036,19 @@
       <c r="B111" s="31"/>
       <c r="C111" s="31"/>
       <c r="D111" s="31"/>
-      <c r="E111" s="297" t="s">
+      <c r="E111" s="296" t="s">
         <v>1726</v>
       </c>
       <c r="F111" s="66" t="s">
         <v>345</v>
       </c>
       <c r="G111" s="110"/>
-      <c r="H111" s="301"/>
+      <c r="H111" s="300"/>
       <c r="I111" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="J111" s="342"/>
-      <c r="K111" s="343"/>
+      <c r="J111" s="341"/>
+      <c r="K111" s="342"/>
       <c r="L111" s="66"/>
       <c r="M111" s="198"/>
       <c r="N111" s="31"/>
@@ -14052,19 +14059,19 @@
       <c r="B112" s="31"/>
       <c r="C112" s="31"/>
       <c r="D112" s="31"/>
-      <c r="E112" s="297" t="s">
+      <c r="E112" s="296" t="s">
         <v>3082</v>
       </c>
       <c r="F112" s="66" t="s">
         <v>345</v>
       </c>
       <c r="G112" s="110"/>
-      <c r="H112" s="301"/>
-      <c r="I112" s="334"/>
-      <c r="J112" s="297" t="s">
+      <c r="H112" s="300"/>
+      <c r="I112" s="333"/>
+      <c r="J112" s="296" t="s">
         <v>56</v>
       </c>
-      <c r="K112" s="341" t="s">
+      <c r="K112" s="340" t="s">
         <v>456</v>
       </c>
       <c r="L112" s="66"/>
@@ -14077,13 +14084,13 @@
       <c r="B113" s="31"/>
       <c r="C113" s="31"/>
       <c r="D113" s="31"/>
-      <c r="E113" s="297"/>
+      <c r="E113" s="296"/>
       <c r="F113" s="66"/>
       <c r="G113" s="66"/>
-      <c r="H113" s="301"/>
-      <c r="I113" s="334"/>
-      <c r="J113" s="344"/>
-      <c r="K113" s="345"/>
+      <c r="H113" s="300"/>
+      <c r="I113" s="333"/>
+      <c r="J113" s="343"/>
+      <c r="K113" s="344"/>
       <c r="L113" s="66"/>
       <c r="M113" s="198"/>
       <c r="N113" s="31"/>
@@ -14096,7 +14103,7 @@
       <c r="B114" s="31"/>
       <c r="C114" s="31"/>
       <c r="D114" s="31"/>
-      <c r="E114" s="297"/>
+      <c r="E114" s="296"/>
       <c r="F114" s="66"/>
       <c r="G114" s="66"/>
       <c r="H114" s="66"/>
@@ -14115,7 +14122,7 @@
       <c r="B115" s="31"/>
       <c r="C115" s="31"/>
       <c r="D115" s="31"/>
-      <c r="E115" s="297"/>
+      <c r="E115" s="296"/>
       <c r="F115" s="66"/>
       <c r="G115" s="66"/>
       <c r="H115" s="66"/>
@@ -14135,7 +14142,7 @@
       <c r="D116" s="31" t="s">
         <v>3075</v>
       </c>
-      <c r="E116" s="297"/>
+      <c r="E116" s="296"/>
       <c r="F116" s="66"/>
       <c r="G116" s="66"/>
       <c r="H116" s="66"/>
@@ -14158,7 +14165,7 @@
         <v>3081</v>
       </c>
       <c r="D117" s="31"/>
-      <c r="E117" s="297"/>
+      <c r="E117" s="296"/>
       <c r="F117" s="66"/>
       <c r="G117" s="66"/>
       <c r="H117" s="66"/>
@@ -14180,7 +14187,7 @@
         <v>1519</v>
       </c>
       <c r="D118" s="31"/>
-      <c r="E118" s="297"/>
+      <c r="E118" s="296"/>
       <c r="F118" s="66"/>
       <c r="G118" s="66"/>
       <c r="H118" s="66"/>
@@ -14202,7 +14209,7 @@
       </c>
       <c r="B119" s="31"/>
       <c r="D119" s="31"/>
-      <c r="E119" s="297"/>
+      <c r="E119" s="296"/>
       <c r="F119" s="66"/>
       <c r="G119" s="66"/>
       <c r="H119" s="66"/>
@@ -14222,7 +14229,7 @@
       </c>
       <c r="B120" s="31"/>
       <c r="D120" s="31"/>
-      <c r="E120" s="297"/>
+      <c r="E120" s="296"/>
       <c r="F120" s="110"/>
       <c r="G120" s="66"/>
       <c r="H120" s="66"/>
@@ -14238,7 +14245,7 @@
       <c r="A121" s="31"/>
       <c r="B121" s="31"/>
       <c r="D121" s="31"/>
-      <c r="E121" s="297"/>
+      <c r="E121" s="296"/>
       <c r="F121" s="110"/>
       <c r="G121" s="66"/>
       <c r="H121" s="110"/>
@@ -14256,7 +14263,7 @@
         <v>1518</v>
       </c>
       <c r="D122" s="31"/>
-      <c r="E122" s="297"/>
+      <c r="E122" s="296"/>
       <c r="F122" s="66"/>
       <c r="G122" s="66"/>
       <c r="H122" s="66"/>
@@ -14274,12 +14281,12 @@
       </c>
       <c r="B123" s="31"/>
       <c r="D123" s="31"/>
-      <c r="E123" s="340"/>
+      <c r="E123" s="339"/>
       <c r="F123" s="31"/>
       <c r="G123" s="31"/>
       <c r="H123" s="31"/>
       <c r="I123" s="66"/>
-      <c r="J123" s="297"/>
+      <c r="J123" s="296"/>
       <c r="K123" s="198"/>
       <c r="L123" s="66"/>
       <c r="M123" s="198"/>
@@ -14372,21 +14379,21 @@
       <c r="O128" s="31"/>
     </row>
     <row r="129" spans="1:15" ht="23.25">
-      <c r="A129" s="333"/>
-      <c r="B129" s="333"/>
-      <c r="C129" s="333"/>
-      <c r="D129" s="333"/>
+      <c r="A129" s="332"/>
+      <c r="B129" s="332"/>
+      <c r="C129" s="332"/>
+      <c r="D129" s="332"/>
       <c r="E129" s="31"/>
       <c r="F129" s="31"/>
-      <c r="G129" s="414"/>
-      <c r="H129" s="414"/>
-      <c r="I129" s="414"/>
-      <c r="J129" s="414"/>
-      <c r="K129" s="414"/>
-      <c r="L129" s="414"/>
-      <c r="M129" s="414"/>
-      <c r="N129" s="414"/>
-      <c r="O129" s="414"/>
+      <c r="G129" s="413"/>
+      <c r="H129" s="413"/>
+      <c r="I129" s="413"/>
+      <c r="J129" s="413"/>
+      <c r="K129" s="413"/>
+      <c r="L129" s="413"/>
+      <c r="M129" s="413"/>
+      <c r="N129" s="413"/>
+      <c r="O129" s="413"/>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="31"/>
@@ -14415,61 +14422,61 @@
       <c r="G131" s="66"/>
       <c r="H131" s="66"/>
       <c r="I131" s="110"/>
-      <c r="J131" s="334"/>
-      <c r="K131" s="334"/>
-      <c r="L131" s="334"/>
-      <c r="M131" s="334"/>
+      <c r="J131" s="333"/>
+      <c r="K131" s="333"/>
+      <c r="L131" s="333"/>
+      <c r="M131" s="333"/>
       <c r="N131" s="66"/>
       <c r="O131" s="66"/>
     </row>
     <row r="132" spans="1:15">
-      <c r="A132" s="335"/>
-      <c r="B132" s="335"/>
-      <c r="C132" s="335"/>
-      <c r="D132" s="335"/>
+      <c r="A132" s="334"/>
+      <c r="B132" s="334"/>
+      <c r="C132" s="334"/>
+      <c r="D132" s="334"/>
       <c r="E132" s="31"/>
       <c r="F132" s="31"/>
       <c r="G132" s="66"/>
       <c r="H132" s="66"/>
       <c r="I132" s="110"/>
-      <c r="J132" s="334"/>
+      <c r="J132" s="333"/>
       <c r="K132" s="66"/>
       <c r="L132" s="66"/>
-      <c r="M132" s="336"/>
+      <c r="M132" s="335"/>
       <c r="N132" s="66"/>
       <c r="O132" s="66"/>
     </row>
     <row r="133" spans="1:15">
-      <c r="A133" s="335"/>
-      <c r="B133" s="335"/>
-      <c r="C133" s="335"/>
-      <c r="D133" s="335"/>
+      <c r="A133" s="334"/>
+      <c r="B133" s="334"/>
+      <c r="C133" s="334"/>
+      <c r="D133" s="334"/>
       <c r="E133" s="31"/>
       <c r="F133" s="31"/>
       <c r="G133" s="66"/>
       <c r="H133" s="66"/>
       <c r="I133" s="66"/>
-      <c r="J133" s="334"/>
+      <c r="J133" s="333"/>
       <c r="K133" s="66"/>
-      <c r="L133" s="334"/>
-      <c r="M133" s="336"/>
+      <c r="L133" s="333"/>
+      <c r="M133" s="335"/>
       <c r="N133" s="66"/>
       <c r="O133" s="66"/>
     </row>
     <row r="134" spans="1:15">
-      <c r="A134" s="335"/>
-      <c r="B134" s="335"/>
-      <c r="C134" s="335"/>
-      <c r="D134" s="335"/>
+      <c r="A134" s="334"/>
+      <c r="B134" s="334"/>
+      <c r="C134" s="334"/>
+      <c r="D134" s="334"/>
       <c r="E134" s="31"/>
       <c r="F134" s="31"/>
       <c r="G134" s="66"/>
       <c r="H134" s="66"/>
       <c r="I134" s="66"/>
-      <c r="J134" s="334"/>
-      <c r="K134" s="334"/>
-      <c r="L134" s="335"/>
-      <c r="M134" s="335"/>
+      <c r="J134" s="333"/>
+      <c r="K134" s="333"/>
+      <c r="L134" s="334"/>
+      <c r="M134" s="334"/>
       <c r="N134" s="31"/>
       <c r="O134" s="66"/>
     </row>
@@ -14483,10 +14490,10 @@
       <c r="G135" s="66"/>
       <c r="H135" s="66"/>
       <c r="I135" s="66"/>
-      <c r="J135" s="334"/>
-      <c r="K135" s="334"/>
-      <c r="L135" s="334"/>
-      <c r="M135" s="334"/>
+      <c r="J135" s="333"/>
+      <c r="K135" s="333"/>
+      <c r="L135" s="333"/>
+      <c r="M135" s="333"/>
       <c r="N135" s="66"/>
       <c r="O135" s="66"/>
     </row>
@@ -14501,9 +14508,9 @@
       <c r="H136" s="66"/>
       <c r="I136" s="66"/>
       <c r="J136" s="66"/>
-      <c r="K136" s="334"/>
-      <c r="L136" s="334"/>
-      <c r="M136" s="334"/>
+      <c r="K136" s="333"/>
+      <c r="L136" s="333"/>
+      <c r="M136" s="333"/>
       <c r="N136" s="66"/>
       <c r="O136" s="66"/>
     </row>
@@ -14517,10 +14524,10 @@
       <c r="G137" s="66"/>
       <c r="H137" s="66"/>
       <c r="I137" s="66"/>
-      <c r="J137" s="334"/>
+      <c r="J137" s="333"/>
       <c r="K137" s="66"/>
       <c r="L137" s="66"/>
-      <c r="M137" s="334"/>
+      <c r="M137" s="333"/>
       <c r="N137" s="66"/>
       <c r="O137" s="66"/>
     </row>
@@ -14534,10 +14541,10 @@
       <c r="G138" s="66"/>
       <c r="H138" s="66"/>
       <c r="I138" s="66"/>
-      <c r="J138" s="334"/>
+      <c r="J138" s="333"/>
       <c r="K138" s="66"/>
-      <c r="L138" s="334"/>
-      <c r="M138" s="334"/>
+      <c r="L138" s="333"/>
+      <c r="M138" s="333"/>
       <c r="N138" s="66"/>
       <c r="O138" s="66"/>
     </row>
@@ -14552,8 +14559,8 @@
       <c r="H139" s="66"/>
       <c r="I139" s="66"/>
       <c r="J139" s="66"/>
-      <c r="K139" s="334"/>
-      <c r="L139" s="335"/>
+      <c r="K139" s="333"/>
+      <c r="L139" s="334"/>
       <c r="M139" s="66"/>
       <c r="N139" s="66"/>
       <c r="O139" s="66"/>
@@ -14678,8 +14685,8 @@
       <c r="O146" s="31"/>
     </row>
     <row r="147" spans="1:15" ht="28.5">
-      <c r="A147" s="337"/>
-      <c r="B147" s="337"/>
+      <c r="A147" s="336"/>
+      <c r="B147" s="336"/>
       <c r="C147" s="31"/>
       <c r="D147" s="31"/>
       <c r="E147" s="31"/>
@@ -14877,7 +14884,7 @@
       <c r="J158" s="31"/>
       <c r="K158" s="31"/>
       <c r="L158" s="31"/>
-      <c r="M158" s="326"/>
+      <c r="M158" s="325"/>
       <c r="N158" s="31"/>
       <c r="O158" s="31"/>
     </row>
@@ -14924,7 +14931,7 @@
       <c r="F161" s="31"/>
       <c r="G161" s="31"/>
       <c r="H161" s="31"/>
-      <c r="I161" s="326"/>
+      <c r="I161" s="325"/>
       <c r="J161" s="31"/>
       <c r="K161" s="31"/>
       <c r="L161" s="31"/>
@@ -15990,7 +15997,7 @@
       <c r="A224" s="31"/>
       <c r="B224" s="31"/>
       <c r="C224" s="31"/>
-      <c r="D224" s="301"/>
+      <c r="D224" s="300"/>
       <c r="E224" s="66"/>
       <c r="F224" s="66"/>
       <c r="G224" s="31"/>
@@ -16007,7 +16014,7 @@
       <c r="A225" s="31"/>
       <c r="B225" s="31"/>
       <c r="C225" s="31"/>
-      <c r="D225" s="301"/>
+      <c r="D225" s="300"/>
       <c r="E225" s="66"/>
       <c r="F225" s="66"/>
       <c r="G225" s="31"/>
@@ -16024,7 +16031,7 @@
       <c r="A226" s="31"/>
       <c r="B226" s="31"/>
       <c r="C226" s="31"/>
-      <c r="D226" s="301"/>
+      <c r="D226" s="300"/>
       <c r="E226" s="66"/>
       <c r="F226" s="66"/>
       <c r="G226" s="31"/>
@@ -16041,7 +16048,7 @@
       <c r="A227" s="31"/>
       <c r="B227" s="31"/>
       <c r="C227" s="31"/>
-      <c r="D227" s="301"/>
+      <c r="D227" s="300"/>
       <c r="E227" s="66"/>
       <c r="F227" s="66"/>
       <c r="G227" s="31"/>
@@ -16058,7 +16065,7 @@
       <c r="A228" s="31"/>
       <c r="B228" s="31"/>
       <c r="C228" s="31"/>
-      <c r="D228" s="301"/>
+      <c r="D228" s="300"/>
       <c r="E228" s="66"/>
       <c r="F228" s="66"/>
       <c r="G228" s="31"/>
@@ -16075,7 +16082,7 @@
       <c r="A229" s="31"/>
       <c r="B229" s="31"/>
       <c r="C229" s="31"/>
-      <c r="D229" s="301"/>
+      <c r="D229" s="300"/>
       <c r="E229" s="66"/>
       <c r="F229" s="66"/>
       <c r="G229" s="31"/>
@@ -16092,7 +16099,7 @@
       <c r="A230" s="31"/>
       <c r="B230" s="31"/>
       <c r="C230" s="31"/>
-      <c r="D230" s="301"/>
+      <c r="D230" s="300"/>
       <c r="E230" s="66"/>
       <c r="F230" s="66"/>
       <c r="G230" s="31"/>
@@ -16109,7 +16116,7 @@
       <c r="A231" s="31"/>
       <c r="B231" s="31"/>
       <c r="C231" s="31"/>
-      <c r="D231" s="301"/>
+      <c r="D231" s="300"/>
       <c r="E231" s="66"/>
       <c r="F231" s="66"/>
       <c r="G231" s="31"/>
@@ -16126,7 +16133,7 @@
       <c r="A232" s="31"/>
       <c r="B232" s="31"/>
       <c r="C232" s="31"/>
-      <c r="D232" s="301"/>
+      <c r="D232" s="300"/>
       <c r="E232" s="66"/>
       <c r="F232" s="66"/>
       <c r="G232" s="31"/>
@@ -16143,7 +16150,7 @@
       <c r="A233" s="31"/>
       <c r="B233" s="31"/>
       <c r="C233" s="31"/>
-      <c r="D233" s="301"/>
+      <c r="D233" s="300"/>
       <c r="E233" s="66"/>
       <c r="F233" s="66"/>
       <c r="G233" s="31"/>
@@ -16160,7 +16167,7 @@
       <c r="A234" s="31"/>
       <c r="B234" s="31"/>
       <c r="C234" s="31"/>
-      <c r="D234" s="301"/>
+      <c r="D234" s="300"/>
       <c r="E234" s="66"/>
       <c r="F234" s="66"/>
       <c r="G234" s="31"/>
@@ -16177,7 +16184,7 @@
       <c r="A235" s="31"/>
       <c r="B235" s="31"/>
       <c r="C235" s="31"/>
-      <c r="D235" s="301"/>
+      <c r="D235" s="300"/>
       <c r="E235" s="31"/>
       <c r="F235" s="31"/>
       <c r="G235" s="31"/>
@@ -16586,14 +16593,14 @@
       <c r="B259" s="31"/>
       <c r="C259" s="31"/>
       <c r="D259" s="31"/>
-      <c r="E259" s="338"/>
-      <c r="F259" s="338"/>
+      <c r="E259" s="337"/>
+      <c r="F259" s="337"/>
       <c r="G259" s="66"/>
       <c r="H259" s="66"/>
-      <c r="I259" s="301"/>
-      <c r="J259" s="301"/>
-      <c r="K259" s="301"/>
-      <c r="L259" s="301"/>
+      <c r="I259" s="300"/>
+      <c r="J259" s="300"/>
+      <c r="K259" s="300"/>
+      <c r="L259" s="300"/>
       <c r="M259" s="66"/>
       <c r="N259" s="31"/>
       <c r="O259" s="31"/>
@@ -16607,10 +16614,10 @@
       <c r="F260" s="66"/>
       <c r="G260" s="66"/>
       <c r="H260" s="66"/>
-      <c r="I260" s="301"/>
-      <c r="J260" s="301"/>
-      <c r="K260" s="301"/>
-      <c r="L260" s="301"/>
+      <c r="I260" s="300"/>
+      <c r="J260" s="300"/>
+      <c r="K260" s="300"/>
+      <c r="L260" s="300"/>
       <c r="M260" s="66"/>
       <c r="N260" s="31"/>
       <c r="O260" s="31"/>
@@ -16624,10 +16631,10 @@
       <c r="F261" s="66"/>
       <c r="G261" s="66"/>
       <c r="H261" s="66"/>
-      <c r="I261" s="301"/>
-      <c r="J261" s="301"/>
-      <c r="K261" s="301"/>
-      <c r="L261" s="301"/>
+      <c r="I261" s="300"/>
+      <c r="J261" s="300"/>
+      <c r="K261" s="300"/>
+      <c r="L261" s="300"/>
       <c r="M261" s="66"/>
       <c r="N261" s="31"/>
       <c r="O261" s="31"/>
@@ -16641,10 +16648,10 @@
       <c r="F262" s="66"/>
       <c r="G262" s="66"/>
       <c r="H262" s="66"/>
-      <c r="I262" s="301"/>
-      <c r="J262" s="301"/>
-      <c r="K262" s="301"/>
-      <c r="L262" s="301"/>
+      <c r="I262" s="300"/>
+      <c r="J262" s="300"/>
+      <c r="K262" s="300"/>
+      <c r="L262" s="300"/>
       <c r="M262" s="66"/>
       <c r="N262" s="31"/>
       <c r="O262" s="31"/>
@@ -17011,14 +17018,14 @@
       <c r="B284" s="31"/>
       <c r="C284" s="31"/>
       <c r="D284" s="31"/>
-      <c r="E284" s="338"/>
-      <c r="F284" s="338"/>
+      <c r="E284" s="337"/>
+      <c r="F284" s="337"/>
       <c r="G284" s="66"/>
       <c r="H284" s="66"/>
-      <c r="I284" s="339"/>
-      <c r="J284" s="339"/>
-      <c r="K284" s="339"/>
-      <c r="L284" s="301"/>
+      <c r="I284" s="338"/>
+      <c r="J284" s="338"/>
+      <c r="K284" s="338"/>
+      <c r="L284" s="300"/>
       <c r="M284" s="66"/>
       <c r="N284" s="31"/>
       <c r="O284" s="31"/>
@@ -17032,10 +17039,10 @@
       <c r="F285" s="66"/>
       <c r="G285" s="66"/>
       <c r="H285" s="66"/>
-      <c r="I285" s="339"/>
-      <c r="J285" s="339"/>
-      <c r="K285" s="339"/>
-      <c r="L285" s="301"/>
+      <c r="I285" s="338"/>
+      <c r="J285" s="338"/>
+      <c r="K285" s="338"/>
+      <c r="L285" s="300"/>
       <c r="M285" s="66"/>
       <c r="N285" s="31"/>
       <c r="O285" s="31"/>
@@ -17049,10 +17056,10 @@
       <c r="F286" s="66"/>
       <c r="G286" s="66"/>
       <c r="H286" s="66"/>
-      <c r="I286" s="339"/>
-      <c r="J286" s="339"/>
-      <c r="K286" s="339"/>
-      <c r="L286" s="301"/>
+      <c r="I286" s="338"/>
+      <c r="J286" s="338"/>
+      <c r="K286" s="338"/>
+      <c r="L286" s="300"/>
       <c r="M286" s="66"/>
       <c r="N286" s="31"/>
       <c r="O286" s="31"/>
@@ -17069,7 +17076,7 @@
       <c r="I287" s="66"/>
       <c r="J287" s="66"/>
       <c r="K287" s="66"/>
-      <c r="L287" s="301"/>
+      <c r="L287" s="300"/>
       <c r="M287" s="66"/>
       <c r="N287" s="31"/>
       <c r="O287" s="31"/>
@@ -17312,49 +17319,49 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13">
-      <c r="B2" s="415" t="s">
+      <c r="B2" s="414" t="s">
         <v>2045</v>
       </c>
-      <c r="C2" s="416"/>
-      <c r="D2" s="417"/>
-      <c r="F2" s="415" t="s">
+      <c r="C2" s="415"/>
+      <c r="D2" s="416"/>
+      <c r="F2" s="414" t="s">
         <v>2593</v>
       </c>
-      <c r="G2" s="416"/>
-      <c r="H2" s="416"/>
-      <c r="I2" s="417"/>
-      <c r="K2" s="415" t="s">
+      <c r="G2" s="415"/>
+      <c r="H2" s="415"/>
+      <c r="I2" s="416"/>
+      <c r="K2" s="414" t="s">
         <v>2595</v>
       </c>
-      <c r="L2" s="416"/>
-      <c r="M2" s="417"/>
+      <c r="L2" s="415"/>
+      <c r="M2" s="416"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="418"/>
-      <c r="C3" s="419"/>
-      <c r="D3" s="420"/>
-      <c r="F3" s="418"/>
-      <c r="G3" s="419"/>
-      <c r="H3" s="419"/>
-      <c r="I3" s="420"/>
-      <c r="K3" s="418"/>
-      <c r="L3" s="419"/>
-      <c r="M3" s="420"/>
+      <c r="B3" s="417"/>
+      <c r="C3" s="418"/>
+      <c r="D3" s="419"/>
+      <c r="F3" s="417"/>
+      <c r="G3" s="418"/>
+      <c r="H3" s="418"/>
+      <c r="I3" s="419"/>
+      <c r="K3" s="417"/>
+      <c r="L3" s="418"/>
+      <c r="M3" s="419"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="418"/>
-      <c r="C4" s="419"/>
-      <c r="D4" s="420"/>
-      <c r="F4" s="418"/>
-      <c r="G4" s="419"/>
-      <c r="H4" s="419"/>
-      <c r="I4" s="420"/>
-      <c r="K4" s="418"/>
-      <c r="L4" s="419"/>
-      <c r="M4" s="420"/>
+      <c r="B4" s="417"/>
+      <c r="C4" s="418"/>
+      <c r="D4" s="419"/>
+      <c r="F4" s="417"/>
+      <c r="G4" s="418"/>
+      <c r="H4" s="418"/>
+      <c r="I4" s="419"/>
+      <c r="K4" s="417"/>
+      <c r="L4" s="418"/>
+      <c r="M4" s="419"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="421" t="s">
+      <c r="A5" s="420" t="s">
         <v>1888</v>
       </c>
       <c r="B5" s="72"/>
@@ -17381,7 +17388,7 @@
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="421"/>
+      <c r="A6" s="420"/>
       <c r="B6" s="72"/>
       <c r="C6" s="32" t="s">
         <v>56</v>
@@ -17406,7 +17413,7 @@
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="421"/>
+      <c r="A7" s="420"/>
       <c r="B7" s="72"/>
       <c r="C7" s="32" t="s">
         <v>2597</v>
@@ -17439,7 +17446,7 @@
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="421" t="s">
+      <c r="A9" s="420" t="s">
         <v>201</v>
       </c>
       <c r="B9" s="277" t="s">
@@ -17460,7 +17467,7 @@
       <c r="M9" s="225"/>
     </row>
     <row r="10" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A10" s="421"/>
+      <c r="A10" s="420"/>
       <c r="B10" s="277"/>
       <c r="C10" s="278" t="s">
         <v>2602</v>
@@ -17482,7 +17489,7 @@
       <c r="M10" s="225"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="421"/>
+      <c r="A11" s="420"/>
       <c r="B11" s="277"/>
       <c r="C11" s="133"/>
       <c r="D11" s="225"/>
@@ -17502,7 +17509,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="421"/>
+      <c r="A12" s="420"/>
       <c r="B12" s="277"/>
       <c r="C12" s="133"/>
       <c r="D12" s="225"/>
@@ -17682,23 +17689,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="422" t="s">
+      <c r="A1" s="421" t="s">
         <v>2235</v>
       </c>
-      <c r="B1" s="422"/>
-      <c r="C1" s="422"/>
-      <c r="D1" s="422"/>
-      <c r="E1" s="422"/>
-      <c r="F1" s="422"/>
-      <c r="I1" s="422" t="s">
+      <c r="B1" s="421"/>
+      <c r="C1" s="421"/>
+      <c r="D1" s="421"/>
+      <c r="E1" s="421"/>
+      <c r="F1" s="421"/>
+      <c r="I1" s="421" t="s">
         <v>2247</v>
       </c>
-      <c r="J1" s="422"/>
-      <c r="K1" s="422"/>
-      <c r="L1" s="422"/>
-      <c r="M1" s="422"/>
-      <c r="N1" s="422"/>
-      <c r="O1" s="422"/>
+      <c r="J1" s="421"/>
+      <c r="K1" s="421"/>
+      <c r="L1" s="421"/>
+      <c r="M1" s="421"/>
+      <c r="N1" s="421"/>
+      <c r="O1" s="421"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -17854,28 +17861,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="375" t="s">
+      <c r="A12" s="374" t="s">
         <v>2249</v>
       </c>
-      <c r="B12" s="377"/>
-      <c r="C12" s="377"/>
-      <c r="D12" s="377"/>
-      <c r="E12" s="377"/>
-      <c r="F12" s="377"/>
-      <c r="G12" s="377"/>
-      <c r="H12" s="376"/>
-      <c r="I12" s="375" t="s">
+      <c r="B12" s="376"/>
+      <c r="C12" s="376"/>
+      <c r="D12" s="376"/>
+      <c r="E12" s="376"/>
+      <c r="F12" s="376"/>
+      <c r="G12" s="376"/>
+      <c r="H12" s="375"/>
+      <c r="I12" s="374" t="s">
         <v>2249</v>
       </c>
-      <c r="J12" s="377"/>
-      <c r="K12" s="377"/>
-      <c r="L12" s="377"/>
-      <c r="M12" s="377"/>
-      <c r="N12" s="377"/>
-      <c r="O12" s="377"/>
-      <c r="P12" s="377"/>
-      <c r="Q12" s="377"/>
-      <c r="R12" s="376"/>
+      <c r="J12" s="376"/>
+      <c r="K12" s="376"/>
+      <c r="L12" s="376"/>
+      <c r="M12" s="376"/>
+      <c r="N12" s="376"/>
+      <c r="O12" s="376"/>
+      <c r="P12" s="376"/>
+      <c r="Q12" s="376"/>
+      <c r="R12" s="375"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="23" t="s">
@@ -18103,14 +18110,14 @@
       <c r="R21" s="30"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="422" t="s">
+      <c r="A24" s="421" t="s">
         <v>2235</v>
       </c>
-      <c r="B24" s="422"/>
-      <c r="C24" s="422"/>
-      <c r="D24" s="422"/>
-      <c r="E24" s="422"/>
-      <c r="F24" s="422"/>
+      <c r="B24" s="421"/>
+      <c r="C24" s="421"/>
+      <c r="D24" s="421"/>
+      <c r="E24" s="421"/>
+      <c r="F24" s="421"/>
       <c r="H24" s="233" t="s">
         <v>2247</v>
       </c>
@@ -18120,11 +18127,11 @@
       <c r="L24" s="233"/>
       <c r="M24" s="233"/>
       <c r="N24" s="233"/>
-      <c r="P24" s="422" t="s">
+      <c r="P24" s="421" t="s">
         <v>2288</v>
       </c>
-      <c r="Q24" s="422"/>
-      <c r="R24" s="422"/>
+      <c r="Q24" s="421"/>
+      <c r="R24" s="421"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="98" t="s">
@@ -18364,28 +18371,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="375" t="s">
+      <c r="A35" s="374" t="s">
         <v>2289</v>
       </c>
-      <c r="B35" s="377"/>
-      <c r="C35" s="377"/>
-      <c r="D35" s="377"/>
-      <c r="E35" s="377"/>
-      <c r="F35" s="377"/>
-      <c r="G35" s="377"/>
-      <c r="H35" s="376"/>
-      <c r="I35" s="375" t="s">
+      <c r="B35" s="376"/>
+      <c r="C35" s="376"/>
+      <c r="D35" s="376"/>
+      <c r="E35" s="376"/>
+      <c r="F35" s="376"/>
+      <c r="G35" s="376"/>
+      <c r="H35" s="375"/>
+      <c r="I35" s="374" t="s">
         <v>982</v>
       </c>
-      <c r="J35" s="377"/>
-      <c r="K35" s="377"/>
-      <c r="L35" s="377"/>
-      <c r="M35" s="377"/>
-      <c r="N35" s="377"/>
-      <c r="O35" s="377"/>
-      <c r="P35" s="377"/>
-      <c r="Q35" s="377"/>
-      <c r="R35" s="376"/>
+      <c r="J35" s="376"/>
+      <c r="K35" s="376"/>
+      <c r="L35" s="376"/>
+      <c r="M35" s="376"/>
+      <c r="N35" s="376"/>
+      <c r="O35" s="376"/>
+      <c r="P35" s="376"/>
+      <c r="Q35" s="376"/>
+      <c r="R35" s="375"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="23" t="s">
@@ -18631,7 +18638,7 @@
       <c r="F46" s="262" t="s">
         <v>1888</v>
       </c>
-      <c r="G46" s="332" t="s">
+      <c r="G46" s="331" t="s">
         <v>1889</v>
       </c>
       <c r="H46" s="24"/>
@@ -22392,7 +22399,7 @@
     </row>
     <row r="231" spans="1:18">
       <c r="A231" s="20"/>
-      <c r="B231" s="331"/>
+      <c r="B231" s="330"/>
       <c r="C231" s="20"/>
       <c r="D231" s="20"/>
       <c r="E231" s="20"/>
@@ -22432,7 +22439,7 @@
     </row>
     <row r="233" spans="1:18">
       <c r="A233" s="20"/>
-      <c r="B233" s="331"/>
+      <c r="B233" s="330"/>
       <c r="C233" s="20"/>
       <c r="D233" s="20"/>
       <c r="E233" s="20"/>
@@ -22532,7 +22539,7 @@
     </row>
     <row r="238" spans="1:18">
       <c r="A238" s="20"/>
-      <c r="B238" s="331"/>
+      <c r="B238" s="330"/>
       <c r="C238" s="20"/>
       <c r="D238" s="20"/>
       <c r="E238" s="20"/>
@@ -31258,10 +31265,10 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="350"/>
-      <c r="C25" s="350"/>
-      <c r="D25" s="350"/>
-      <c r="E25" s="350"/>
+      <c r="B25" s="349"/>
+      <c r="C25" s="349"/>
+      <c r="D25" s="349"/>
+      <c r="E25" s="349"/>
       <c r="F25" s="276">
         <v>1</v>
       </c>
@@ -31279,20 +31286,20 @@
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="350"/>
-      <c r="C26" s="350"/>
-      <c r="D26" s="350"/>
-      <c r="E26" s="350"/>
-      <c r="F26" s="350">
+      <c r="B26" s="349"/>
+      <c r="C26" s="349"/>
+      <c r="D26" s="349"/>
+      <c r="E26" s="349"/>
+      <c r="F26" s="349">
         <v>0</v>
       </c>
-      <c r="G26" s="350">
+      <c r="G26" s="349">
         <v>1</v>
       </c>
-      <c r="H26" s="350">
+      <c r="H26" s="349">
         <v>0</v>
       </c>
-      <c r="I26" s="350">
+      <c r="I26" s="349">
         <v>1</v>
       </c>
       <c r="J26" s="49">
@@ -33603,7 +33610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B17" sqref="B17:E17"/>
     </sheetView>
   </sheetViews>
@@ -33843,15 +33850,15 @@
       </c>
       <c r="N1" s="25"/>
       <c r="O1" s="20"/>
-      <c r="P1" s="304">
+      <c r="P1" s="303">
         <v>123</v>
       </c>
       <c r="Q1" s="25"/>
-      <c r="AB1" s="304">
+      <c r="AB1" s="303">
         <v>123</v>
       </c>
       <c r="AC1" s="25"/>
-      <c r="AE1" s="304">
+      <c r="AE1" s="303">
         <v>123</v>
       </c>
       <c r="AF1" s="25"/>
@@ -34003,7 +34010,7 @@
       </c>
       <c r="N6" s="30"/>
       <c r="O6" s="20"/>
-      <c r="P6" s="305">
+      <c r="P6" s="304">
         <v>345</v>
       </c>
       <c r="Q6" s="30"/>
@@ -34015,7 +34022,7 @@
       <c r="X6" s="20"/>
       <c r="Y6" s="28"/>
       <c r="Z6" s="30"/>
-      <c r="AB6" s="305">
+      <c r="AB6" s="304">
         <v>345</v>
       </c>
       <c r="AC6" s="30"/>
@@ -34067,7 +34074,7 @@
       <c r="S8" s="26"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
-      <c r="V8" s="304">
+      <c r="V8" s="303">
         <v>123</v>
       </c>
       <c r="W8" s="25"/>
@@ -34211,7 +34218,7 @@
       <c r="S13" s="26"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
-      <c r="V13" s="305">
+      <c r="V13" s="304">
         <v>345</v>
       </c>
       <c r="W13" s="30"/>
@@ -34286,7 +34293,7 @@
       <c r="Z16" s="30"/>
     </row>
     <row r="17" spans="5:31" ht="15.75" thickBot="1">
-      <c r="P17" s="304">
+      <c r="P17" s="303">
         <v>123</v>
       </c>
       <c r="Q17" s="25"/>
@@ -34309,7 +34316,7 @@
         <v>2766</v>
       </c>
       <c r="Q18" s="27"/>
-      <c r="AB18" s="304">
+      <c r="AB18" s="303">
         <v>123</v>
       </c>
       <c r="AC18" s="25"/>
@@ -34391,7 +34398,7 @@
         <v>2640</v>
       </c>
       <c r="F22" s="27"/>
-      <c r="P22" s="305">
+      <c r="P22" s="304">
         <v>345</v>
       </c>
       <c r="Q22" s="30"/>
@@ -34405,7 +34412,7 @@
         <v>456</v>
       </c>
       <c r="F23" s="30"/>
-      <c r="AB23" s="305">
+      <c r="AB23" s="304">
         <v>345</v>
       </c>
       <c r="AC23" s="30"/>
@@ -34443,8 +34450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:V272"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34497,10 +34504,10 @@
       </c>
       <c r="H9" s="25"/>
       <c r="K9" s="290"/>
-      <c r="L9" s="291" t="s">
+      <c r="L9" s="427" t="s">
         <v>2346</v>
       </c>
-      <c r="M9" s="292"/>
+      <c r="M9" s="291"/>
       <c r="P9" s="73"/>
       <c r="Q9" s="289" t="s">
         <v>2346</v>
@@ -37476,10 +37483,10 @@
       <c r="E2" s="49" t="s">
         <v>2674</v>
       </c>
-      <c r="G2" s="293" t="s">
+      <c r="G2" s="292" t="s">
         <v>202</v>
       </c>
-      <c r="H2" s="294" t="s">
+      <c r="H2" s="293" t="s">
         <v>1284</v>
       </c>
       <c r="I2" s="40"/>
@@ -37514,9 +37521,9 @@
         <v>345</v>
       </c>
       <c r="K3" s="91"/>
-      <c r="L3" s="296"/>
+      <c r="L3" s="295"/>
       <c r="M3" s="92"/>
-      <c r="N3" s="423" t="s">
+      <c r="N3" s="422" t="s">
         <v>2687</v>
       </c>
       <c r="O3" s="43"/>
@@ -37542,14 +37549,14 @@
       </c>
       <c r="I4" s="66"/>
       <c r="J4" s="66"/>
-      <c r="K4" s="297" t="s">
+      <c r="K4" s="296" t="s">
         <v>56</v>
       </c>
       <c r="L4" s="66" t="s">
         <v>940</v>
       </c>
       <c r="M4" s="198"/>
-      <c r="N4" s="423"/>
+      <c r="N4" s="422"/>
       <c r="O4" s="43"/>
       <c r="P4" s="43"/>
       <c r="Q4" s="44"/>
@@ -37559,14 +37566,14 @@
       <c r="H5" s="66"/>
       <c r="I5" s="66"/>
       <c r="J5" s="66"/>
-      <c r="K5" s="298" t="s">
+      <c r="K5" s="297" t="s">
         <v>2668</v>
       </c>
-      <c r="L5" s="299">
+      <c r="L5" s="298">
         <v>12345</v>
       </c>
-      <c r="M5" s="300"/>
-      <c r="N5" s="423"/>
+      <c r="M5" s="299"/>
+      <c r="N5" s="422"/>
       <c r="O5" s="43"/>
       <c r="P5" s="43"/>
       <c r="Q5" s="44"/>
@@ -37584,7 +37591,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
       <c r="M6" s="66"/>
-      <c r="N6" s="423"/>
+      <c r="N6" s="422"/>
       <c r="O6" s="43"/>
       <c r="P6" s="43"/>
       <c r="Q6" s="44"/>
@@ -37606,9 +37613,9 @@
         <v>1647</v>
       </c>
       <c r="K7" s="91"/>
-      <c r="L7" s="296"/>
+      <c r="L7" s="295"/>
       <c r="M7" s="92"/>
-      <c r="N7" s="423"/>
+      <c r="N7" s="422"/>
       <c r="O7" s="43"/>
       <c r="P7" s="43"/>
       <c r="Q7" s="44"/>
@@ -37623,14 +37630,14 @@
       <c r="H8" s="66"/>
       <c r="I8" s="66"/>
       <c r="J8" s="66"/>
-      <c r="K8" s="297" t="s">
+      <c r="K8" s="296" t="s">
         <v>56</v>
       </c>
       <c r="L8" s="66" t="s">
         <v>456</v>
       </c>
       <c r="M8" s="198"/>
-      <c r="N8" s="423"/>
+      <c r="N8" s="422"/>
       <c r="O8" s="43"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
@@ -37645,14 +37652,14 @@
       <c r="H9" s="66"/>
       <c r="I9" s="66"/>
       <c r="J9" s="66"/>
-      <c r="K9" s="298" t="s">
+      <c r="K9" s="297" t="s">
         <v>2668</v>
       </c>
-      <c r="L9" s="299">
+      <c r="L9" s="298">
         <v>12346</v>
       </c>
-      <c r="M9" s="300"/>
-      <c r="N9" s="423"/>
+      <c r="M9" s="299"/>
+      <c r="N9" s="422"/>
       <c r="O9" s="43"/>
       <c r="P9" s="43"/>
       <c r="Q9" s="44"/>
@@ -37670,7 +37677,7 @@
       <c r="K10" s="66"/>
       <c r="L10" s="66"/>
       <c r="M10" s="66"/>
-      <c r="N10" s="423"/>
+      <c r="N10" s="422"/>
       <c r="O10" s="43"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
@@ -37688,7 +37695,7 @@
       <c r="K11" s="66"/>
       <c r="L11" s="66"/>
       <c r="M11" s="66"/>
-      <c r="N11" s="423"/>
+      <c r="N11" s="422"/>
       <c r="O11" s="43"/>
       <c r="P11" s="43"/>
       <c r="Q11" s="44"/>
@@ -37704,7 +37711,7 @@
       <c r="K12" s="66"/>
       <c r="L12" s="66"/>
       <c r="M12" s="66"/>
-      <c r="N12" s="423"/>
+      <c r="N12" s="422"/>
       <c r="O12" s="43"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
@@ -37717,7 +37724,7 @@
       <c r="K13" s="43"/>
       <c r="L13" s="43"/>
       <c r="M13" s="43"/>
-      <c r="N13" s="423"/>
+      <c r="N13" s="422"/>
       <c r="O13" s="43"/>
       <c r="P13" s="43"/>
       <c r="Q13" s="44"/>
@@ -37736,9 +37743,9 @@
         <v>2125</v>
       </c>
       <c r="K14" s="91"/>
-      <c r="L14" s="296"/>
+      <c r="L14" s="295"/>
       <c r="M14" s="92"/>
-      <c r="N14" s="423"/>
+      <c r="N14" s="422"/>
       <c r="O14" s="43"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="44"/>
@@ -37754,14 +37761,14 @@
       <c r="H15" s="43"/>
       <c r="I15" s="43"/>
       <c r="J15" s="66"/>
-      <c r="K15" s="297" t="s">
+      <c r="K15" s="296" t="s">
         <v>56</v>
       </c>
       <c r="L15" s="66" t="s">
         <v>491</v>
       </c>
       <c r="M15" s="198"/>
-      <c r="N15" s="423"/>
+      <c r="N15" s="422"/>
       <c r="O15" s="43"/>
       <c r="P15" s="43"/>
       <c r="Q15" s="44"/>
@@ -37774,14 +37781,14 @@
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
       <c r="J16" s="66"/>
-      <c r="K16" s="298" t="s">
+      <c r="K16" s="297" t="s">
         <v>2668</v>
       </c>
-      <c r="L16" s="299">
+      <c r="L16" s="298">
         <v>123123</v>
       </c>
-      <c r="M16" s="300"/>
-      <c r="N16" s="423"/>
+      <c r="M16" s="299"/>
+      <c r="N16" s="422"/>
       <c r="O16" s="43"/>
       <c r="P16" s="43"/>
       <c r="Q16" s="44"/>
@@ -41606,7 +41613,7 @@
       <c r="J3" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="K3" s="295">
+      <c r="K3" s="294">
         <v>0</v>
       </c>
       <c r="L3" s="20" t="s">
@@ -41623,7 +41630,7 @@
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
-      <c r="K4" s="295">
+      <c r="K4" s="294">
         <v>1</v>
       </c>
       <c r="L4" s="20" t="s">
@@ -41639,7 +41646,7 @@
       <c r="H5" s="31"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
-      <c r="K5" s="295">
+      <c r="K5" s="294">
         <v>2</v>
       </c>
       <c r="L5" s="20" t="s">
@@ -41655,7 +41662,7 @@
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="295">
+      <c r="K6" s="294">
         <v>3</v>
       </c>
       <c r="L6" s="20" t="s">
@@ -41671,7 +41678,7 @@
       <c r="H7" s="43"/>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
-      <c r="K7" s="295">
+      <c r="K7" s="294">
         <v>4</v>
       </c>
       <c r="L7" s="31" t="s">
@@ -41890,7 +41897,7 @@
       <c r="J25" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="K25" s="295">
+      <c r="K25" s="294">
         <v>0</v>
       </c>
       <c r="L25" s="20" t="s">
@@ -41907,7 +41914,7 @@
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
-      <c r="K26" s="295">
+      <c r="K26" s="294">
         <v>1</v>
       </c>
       <c r="L26" s="20" t="s">
@@ -41923,7 +41930,7 @@
       <c r="H27" s="31"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
-      <c r="K27" s="295">
+      <c r="K27" s="294">
         <v>2</v>
       </c>
       <c r="L27" s="20" t="s">
@@ -41939,7 +41946,7 @@
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
-      <c r="K28" s="295">
+      <c r="K28" s="294">
         <v>3</v>
       </c>
       <c r="L28" s="20" t="s">
@@ -41952,7 +41959,7 @@
       <c r="H29" s="43"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
-      <c r="K29" s="295">
+      <c r="K29" s="294">
         <v>4</v>
       </c>
       <c r="L29" s="31" t="s">
@@ -42192,7 +42199,7 @@
       <c r="D46" s="31"/>
       <c r="E46" s="73"/>
       <c r="F46" s="74"/>
-      <c r="G46" s="296"/>
+      <c r="G46" s="295"/>
       <c r="H46" s="74"/>
       <c r="I46" s="74"/>
       <c r="J46" s="74"/>
@@ -43084,7 +43091,7 @@
       <c r="H88" s="31">
         <v>0</v>
       </c>
-      <c r="I88" s="303">
+      <c r="I88" s="302">
         <v>33</v>
       </c>
       <c r="J88" s="31"/>
@@ -43104,7 +43111,7 @@
       <c r="E89" s="31">
         <v>1</v>
       </c>
-      <c r="F89" s="303">
+      <c r="F89" s="302">
         <v>33</v>
       </c>
       <c r="G89" s="31"/>
@@ -44903,7 +44910,7 @@
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
       <c r="J187" s="66"/>
-      <c r="K187" s="301"/>
+      <c r="K187" s="300"/>
       <c r="L187" s="66"/>
       <c r="M187" s="66"/>
       <c r="N187" s="66"/>
@@ -44923,7 +44930,7 @@
       <c r="J188" s="66"/>
       <c r="K188" s="66"/>
       <c r="L188" s="66"/>
-      <c r="M188" s="301"/>
+      <c r="M188" s="300"/>
       <c r="N188" s="66"/>
       <c r="O188" s="66"/>
       <c r="P188" s="31"/>
@@ -45602,8 +45609,8 @@
       <c r="E226" s="31"/>
       <c r="F226" s="31"/>
       <c r="G226" s="31"/>
-      <c r="H226" s="302"/>
-      <c r="I226" s="302"/>
+      <c r="H226" s="301"/>
+      <c r="I226" s="301"/>
       <c r="J226" s="31"/>
       <c r="K226" s="31"/>
       <c r="L226" s="31"/>
@@ -52675,24 +52682,24 @@
     <row r="17" spans="1:14" s="100" customFormat="1"/>
     <row r="22" spans="1:14" ht="15.75" thickBot="1">
       <c r="A22" s="98"/>
-      <c r="B22" s="424" t="s">
+      <c r="B22" s="423" t="s">
         <v>1102</v>
       </c>
-      <c r="C22" s="424"/>
+      <c r="C22" s="423"/>
       <c r="D22" s="98"/>
       <c r="E22" s="98"/>
-      <c r="F22" s="424" t="s">
+      <c r="F22" s="423" t="s">
         <v>1206</v>
       </c>
-      <c r="G22" s="424"/>
-      <c r="H22" s="424"/>
+      <c r="G22" s="423"/>
+      <c r="H22" s="423"/>
       <c r="I22" s="98"/>
       <c r="J22" s="98"/>
-      <c r="K22" s="424" t="s">
+      <c r="K22" s="423" t="s">
         <v>1104</v>
       </c>
-      <c r="L22" s="424"/>
-      <c r="M22" s="424"/>
+      <c r="L22" s="423"/>
+      <c r="M22" s="423"/>
       <c r="N22" s="98"/>
     </row>
     <row r="23" spans="1:14">
@@ -55114,7 +55121,7 @@
       <c r="L1" s="117"/>
       <c r="M1" s="117"/>
       <c r="N1" s="117"/>
-      <c r="O1" s="364" t="s">
+      <c r="O1" s="363" t="s">
         <v>2875</v>
       </c>
       <c r="R1" s="38">
@@ -55133,29 +55140,29 @@
       <c r="L2" s="117"/>
       <c r="M2" s="117"/>
       <c r="N2" s="117"/>
-      <c r="O2" s="364"/>
+      <c r="O2" s="363"/>
     </row>
     <row r="3" spans="1:46" ht="15.75" thickBot="1">
-      <c r="H3" s="372" t="s">
+      <c r="H3" s="371" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="373"/>
-      <c r="J3" s="373"/>
-      <c r="K3" s="373"/>
-      <c r="L3" s="374"/>
-      <c r="O3" s="364"/>
+      <c r="I3" s="372"/>
+      <c r="J3" s="372"/>
+      <c r="K3" s="372"/>
+      <c r="L3" s="373"/>
+      <c r="O3" s="363"/>
       <c r="P3" t="s">
         <v>1434</v>
       </c>
     </row>
     <row r="4" spans="1:46" ht="15.75" thickBot="1">
-      <c r="O4" s="364"/>
+      <c r="O4" s="363"/>
       <c r="P4" t="s">
         <v>2877</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D5" s="365" t="s">
+      <c r="D5" s="364" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
@@ -55172,35 +55179,35 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="364"/>
+      <c r="O5" s="363"/>
       <c r="P5" t="s">
         <v>2878</v>
       </c>
     </row>
     <row r="6" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D6" s="365"/>
+      <c r="D6" s="364"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="375" t="s">
+      <c r="G6" s="374" t="s">
         <v>1440</v>
       </c>
-      <c r="H6" s="376"/>
+      <c r="H6" s="375"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="375" t="s">
+      <c r="J6" s="374" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="376"/>
+      <c r="K6" s="375"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="375" t="s">
+      <c r="M6" s="374" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="377"/>
-      <c r="O6" s="364"/>
+      <c r="N6" s="376"/>
+      <c r="O6" s="363"/>
       <c r="P6" t="s">
         <v>2860</v>
       </c>
     </row>
     <row r="7" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D7" s="365"/>
+      <c r="D7" s="364"/>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -55210,7 +55217,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="364"/>
+      <c r="O7" s="363"/>
       <c r="AC7" s="113" t="s">
         <v>2828</v>
       </c>
@@ -55237,23 +55244,23 @@
       <c r="AT7" s="114"/>
     </row>
     <row r="8" spans="1:46">
-      <c r="D8" s="365"/>
+      <c r="D8" s="364"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="378" t="s">
+      <c r="G8" s="377" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="379"/>
+      <c r="H8" s="378"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="378" t="s">
+      <c r="J8" s="377" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="379"/>
+      <c r="K8" s="378"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="378" t="s">
+      <c r="M8" s="377" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="380"/>
-      <c r="O8" s="364"/>
+      <c r="N8" s="379"/>
+      <c r="O8" s="363"/>
       <c r="Q8" s="132"/>
       <c r="S8" t="s">
         <v>2819</v>
@@ -55280,7 +55287,7 @@
       <c r="AT8" s="68"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="D9" s="365"/>
+      <c r="D9" s="364"/>
       <c r="F9" s="3"/>
       <c r="G9" s="220"/>
       <c r="H9" s="220"/>
@@ -55292,7 +55299,7 @@
       <c r="L9" s="219"/>
       <c r="M9" s="220"/>
       <c r="N9" s="220"/>
-      <c r="O9" s="364"/>
+      <c r="O9" s="363"/>
       <c r="Q9" s="132"/>
       <c r="S9" t="s">
         <v>2812</v>
@@ -55329,19 +55336,19 @@
       <c r="AT9" s="68"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="D10" s="365"/>
-      <c r="F10" s="368" t="s">
+      <c r="D10" s="364"/>
+      <c r="F10" s="367" t="s">
         <v>2144</v>
       </c>
-      <c r="G10" s="369"/>
-      <c r="H10" s="369"/>
-      <c r="I10" s="369"/>
-      <c r="J10" s="369"/>
-      <c r="K10" s="369"/>
-      <c r="L10" s="369"/>
-      <c r="M10" s="369"/>
-      <c r="N10" s="369"/>
-      <c r="O10" s="363" t="s">
+      <c r="G10" s="368"/>
+      <c r="H10" s="368"/>
+      <c r="I10" s="368"/>
+      <c r="J10" s="368"/>
+      <c r="K10" s="368"/>
+      <c r="L10" s="368"/>
+      <c r="M10" s="368"/>
+      <c r="N10" s="368"/>
+      <c r="O10" s="362" t="s">
         <v>2874</v>
       </c>
       <c r="Q10" s="132"/>
@@ -55379,20 +55386,20 @@
       <c r="A11" t="s">
         <v>2799</v>
       </c>
-      <c r="D11" s="365"/>
+      <c r="D11" s="364"/>
       <c r="E11" t="s">
         <v>2851</v>
       </c>
-      <c r="F11" s="370"/>
-      <c r="G11" s="371"/>
-      <c r="H11" s="371"/>
-      <c r="I11" s="371"/>
-      <c r="J11" s="371"/>
-      <c r="K11" s="371"/>
-      <c r="L11" s="371"/>
-      <c r="M11" s="371"/>
-      <c r="N11" s="371"/>
-      <c r="O11" s="363"/>
+      <c r="F11" s="369"/>
+      <c r="G11" s="370"/>
+      <c r="H11" s="370"/>
+      <c r="I11" s="370"/>
+      <c r="J11" s="370"/>
+      <c r="K11" s="370"/>
+      <c r="L11" s="370"/>
+      <c r="M11" s="370"/>
+      <c r="N11" s="370"/>
+      <c r="O11" s="362"/>
       <c r="P11" t="s">
         <v>2876</v>
       </c>
@@ -55428,7 +55435,7 @@
       <c r="A12" t="s">
         <v>2800</v>
       </c>
-      <c r="D12" s="365"/>
+      <c r="D12" s="364"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -55438,7 +55445,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="363"/>
+      <c r="O12" s="362"/>
       <c r="AC12" s="166" t="s">
         <v>2830</v>
       </c>
@@ -55463,7 +55470,7 @@
       <c r="AT12" s="68"/>
     </row>
     <row r="13" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D13" s="365"/>
+      <c r="D13" s="364"/>
       <c r="E13" t="s">
         <v>1479</v>
       </c>
@@ -55482,7 +55489,7 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="363"/>
+      <c r="O13" s="362"/>
       <c r="AC13" s="166"/>
       <c r="AD13" s="20" t="s">
         <v>2830</v>
@@ -55505,22 +55512,22 @@
       <c r="AT13" s="68"/>
     </row>
     <row r="14" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D14" s="365"/>
+      <c r="D14" s="364"/>
       <c r="E14" t="s">
         <v>2801</v>
       </c>
-      <c r="F14" s="366" t="s">
+      <c r="F14" s="365" t="s">
         <v>2802</v>
       </c>
-      <c r="G14" s="367"/>
-      <c r="H14" s="367"/>
-      <c r="I14" s="367"/>
-      <c r="J14" s="367"/>
-      <c r="K14" s="367"/>
-      <c r="L14" s="367"/>
-      <c r="M14" s="367"/>
-      <c r="N14" s="367"/>
-      <c r="O14" s="363"/>
+      <c r="G14" s="366"/>
+      <c r="H14" s="366"/>
+      <c r="I14" s="366"/>
+      <c r="J14" s="366"/>
+      <c r="K14" s="366"/>
+      <c r="L14" s="366"/>
+      <c r="M14" s="366"/>
+      <c r="N14" s="366"/>
+      <c r="O14" s="362"/>
       <c r="P14" t="s">
         <v>2809</v>
       </c>
@@ -55550,19 +55557,19 @@
       <c r="B15" t="s">
         <v>2789</v>
       </c>
-      <c r="D15" s="365" t="s">
+      <c r="D15" s="364" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="129"/>
-      <c r="G15" s="322" t="s">
+      <c r="G15" s="321" t="s">
         <v>2886</v>
       </c>
-      <c r="H15" s="323"/>
-      <c r="I15" s="324"/>
-      <c r="J15" s="314" t="s">
+      <c r="H15" s="322"/>
+      <c r="I15" s="323"/>
+      <c r="J15" s="313" t="s">
         <v>56</v>
       </c>
-      <c r="K15" s="315" t="s">
+      <c r="K15" s="314" t="s">
         <v>344</v>
       </c>
       <c r="L15" s="9"/>
@@ -55588,7 +55595,7 @@
       <c r="AT15" s="68"/>
     </row>
     <row r="16" spans="1:46">
-      <c r="D16" s="365"/>
+      <c r="D16" s="364"/>
       <c r="E16" t="s">
         <v>1441</v>
       </c>
@@ -55600,10 +55607,10 @@
       </c>
       <c r="H16" s="128"/>
       <c r="I16" s="12"/>
-      <c r="J16" s="316" t="s">
+      <c r="J16" s="315" t="s">
         <v>176</v>
       </c>
-      <c r="K16" s="317">
+      <c r="K16" s="316">
         <v>10</v>
       </c>
       <c r="L16" s="128" t="s">
@@ -55643,17 +55650,17 @@
       <c r="AT16" s="68"/>
     </row>
     <row r="17" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D17" s="365"/>
+      <c r="D17" s="364"/>
       <c r="F17" s="131"/>
       <c r="G17" s="128" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="128"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="318" t="s">
+      <c r="J17" s="317" t="s">
         <v>181</v>
       </c>
-      <c r="K17" s="319" t="s">
+      <c r="K17" s="318" t="s">
         <v>1807</v>
       </c>
       <c r="L17" s="11"/>
@@ -55691,17 +55698,17 @@
       <c r="AT17" s="68"/>
     </row>
     <row r="18" spans="1:46">
-      <c r="D18" s="365"/>
+      <c r="D18" s="364"/>
       <c r="F18" s="129"/>
       <c r="G18" s="128" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="128"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="314" t="s">
+      <c r="J18" s="313" t="s">
         <v>56</v>
       </c>
-      <c r="K18" s="315" t="s">
+      <c r="K18" s="314" t="s">
         <v>456</v>
       </c>
       <c r="L18" s="11"/>
@@ -55742,15 +55749,15 @@
       <c r="B19" t="s">
         <v>2790</v>
       </c>
-      <c r="D19" s="365"/>
+      <c r="D19" s="364"/>
       <c r="F19" s="130"/>
       <c r="G19" s="13"/>
       <c r="H19" s="11"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="316" t="s">
+      <c r="J19" s="315" t="s">
         <v>176</v>
       </c>
-      <c r="K19" s="317">
+      <c r="K19" s="316">
         <v>12</v>
       </c>
       <c r="L19" s="11"/>
@@ -55793,7 +55800,7 @@
       <c r="AT19" s="68"/>
     </row>
     <row r="20" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D20" s="365"/>
+      <c r="D20" s="364"/>
       <c r="E20" t="s">
         <v>1442</v>
       </c>
@@ -55805,10 +55812,10 @@
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="12"/>
-      <c r="J20" s="318" t="s">
+      <c r="J20" s="317" t="s">
         <v>181</v>
       </c>
-      <c r="K20" s="319" t="s">
+      <c r="K20" s="318" t="s">
         <v>2879</v>
       </c>
       <c r="L20" s="11"/>
@@ -55846,17 +55853,17 @@
       <c r="AT20" s="68"/>
     </row>
     <row r="21" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D21" s="365"/>
+      <c r="D21" s="364"/>
       <c r="F21" s="131"/>
       <c r="G21" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="316" t="s">
+      <c r="J21" s="315" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="320" t="s">
+      <c r="K21" s="319" t="s">
         <v>491</v>
       </c>
       <c r="L21" s="11"/>
@@ -55882,17 +55889,17 @@
       <c r="AT21" s="68"/>
     </row>
     <row r="22" spans="1:46">
-      <c r="D22" s="365"/>
+      <c r="D22" s="364"/>
       <c r="F22" s="130"/>
       <c r="G22" s="11" t="s">
         <v>2129</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="316" t="s">
+      <c r="J22" s="315" t="s">
         <v>176</v>
       </c>
-      <c r="K22" s="317">
+      <c r="K22" s="316">
         <v>15</v>
       </c>
       <c r="L22" s="11"/>
@@ -55932,7 +55939,7 @@
       <c r="AT22" s="68"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="D23" s="365"/>
+      <c r="D23" s="364"/>
       <c r="E23" t="s">
         <v>1441</v>
       </c>
@@ -55944,10 +55951,10 @@
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="316" t="s">
+      <c r="J23" s="315" t="s">
         <v>181</v>
       </c>
-      <c r="K23" s="320" t="s">
+      <c r="K23" s="319" t="s">
         <v>2583</v>
       </c>
       <c r="L23" s="11"/>
@@ -55978,13 +55985,13 @@
       <c r="A24" t="s">
         <v>2794</v>
       </c>
-      <c r="D24" s="365"/>
+      <c r="D24" s="364"/>
       <c r="F24" s="131"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="312"/>
-      <c r="K24" s="313"/>
+      <c r="J24" s="311"/>
+      <c r="K24" s="312"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="15"/>
@@ -56008,7 +56015,7 @@
       <c r="AT24" s="68"/>
     </row>
     <row r="25" spans="1:46">
-      <c r="D25" s="365"/>
+      <c r="D25" s="364"/>
       <c r="E25" t="s">
         <v>2788</v>
       </c>
@@ -56035,8 +56042,8 @@
       <c r="AT25" s="68"/>
     </row>
     <row r="26" spans="1:46">
-      <c r="D26" s="321"/>
-      <c r="J26" s="328" t="s">
+      <c r="D26" s="320"/>
+      <c r="J26" s="327" t="s">
         <v>2989</v>
       </c>
       <c r="AC26" s="166"/>
@@ -56059,7 +56066,7 @@
       <c r="AT26" s="68"/>
     </row>
     <row r="27" spans="1:46">
-      <c r="D27" s="321"/>
+      <c r="D27" s="320"/>
       <c r="H27" t="s">
         <v>2881</v>
       </c>
@@ -56083,7 +56090,7 @@
       <c r="AT27" s="68"/>
     </row>
     <row r="28" spans="1:46">
-      <c r="D28" s="321"/>
+      <c r="D28" s="320"/>
       <c r="I28" t="s">
         <v>2882</v>
       </c>
@@ -56107,24 +56114,24 @@
       <c r="AT28" s="68"/>
     </row>
     <row r="29" spans="1:46">
-      <c r="D29" s="321"/>
+      <c r="D29" s="320"/>
       <c r="I29" t="s">
         <v>392</v>
       </c>
-      <c r="J29" s="325" t="s">
+      <c r="J29" s="324" t="s">
         <v>2884</v>
       </c>
-      <c r="K29" s="325"/>
-      <c r="L29" s="325" t="s">
+      <c r="K29" s="324"/>
+      <c r="L29" s="324" t="s">
         <v>2883</v>
       </c>
-      <c r="M29" s="325" t="s">
+      <c r="M29" s="324" t="s">
         <v>2885</v>
       </c>
-      <c r="N29" s="325"/>
-      <c r="O29" s="325"/>
-      <c r="P29" s="325"/>
-      <c r="Q29" s="325"/>
+      <c r="N29" s="324"/>
+      <c r="O29" s="324"/>
+      <c r="P29" s="324"/>
+      <c r="Q29" s="324"/>
       <c r="AC29" s="166"/>
       <c r="AD29" s="20"/>
       <c r="AE29" s="20"/>
@@ -56145,7 +56152,7 @@
       <c r="AT29" s="68"/>
     </row>
     <row r="30" spans="1:46">
-      <c r="D30" s="321"/>
+      <c r="D30" s="320"/>
       <c r="I30" t="s">
         <v>1528</v>
       </c>
@@ -56169,7 +56176,7 @@
       <c r="AT30" s="68"/>
     </row>
     <row r="31" spans="1:46">
-      <c r="D31" s="321"/>
+      <c r="D31" s="320"/>
       <c r="H31" t="s">
         <v>142</v>
       </c>
@@ -56558,12 +56565,12 @@
       <c r="O43" s="103"/>
       <c r="P43" s="103"/>
       <c r="Q43" s="171"/>
-      <c r="X43" s="351" t="s">
+      <c r="X43" s="350" t="s">
         <v>1580</v>
       </c>
-      <c r="Y43" s="352"/>
-      <c r="Z43" s="352"/>
-      <c r="AA43" s="353"/>
+      <c r="Y43" s="351"/>
+      <c r="Z43" s="351"/>
+      <c r="AA43" s="352"/>
       <c r="AC43" t="s">
         <v>1435</v>
       </c>
@@ -56575,31 +56582,31 @@
       <c r="C44">
         <v>1024</v>
       </c>
-      <c r="E44" s="306" t="s">
+      <c r="E44" s="305" t="s">
         <v>2840</v>
       </c>
-      <c r="F44" s="306" t="s">
+      <c r="F44" s="305" t="s">
         <v>1443</v>
       </c>
-      <c r="G44" s="306" t="s">
+      <c r="G44" s="305" t="s">
         <v>1443</v>
       </c>
-      <c r="H44" s="306" t="s">
+      <c r="H44" s="305" t="s">
         <v>1443</v>
       </c>
-      <c r="I44" s="306" t="s">
+      <c r="I44" s="305" t="s">
         <v>1443</v>
       </c>
-      <c r="J44" s="306"/>
-      <c r="K44" s="306"/>
-      <c r="L44" s="306"/>
-      <c r="M44" s="306"/>
-      <c r="N44" s="306"/>
-      <c r="O44" s="306"/>
-      <c r="X44" s="354"/>
-      <c r="Y44" s="355"/>
-      <c r="Z44" s="355"/>
-      <c r="AA44" s="356"/>
+      <c r="J44" s="305"/>
+      <c r="K44" s="305"/>
+      <c r="L44" s="305"/>
+      <c r="M44" s="305"/>
+      <c r="N44" s="305"/>
+      <c r="O44" s="305"/>
+      <c r="X44" s="353"/>
+      <c r="Y44" s="354"/>
+      <c r="Z44" s="354"/>
+      <c r="AA44" s="355"/>
       <c r="XFD44" s="32" t="s">
         <v>1443</v>
       </c>
@@ -56608,41 +56615,41 @@
       <c r="B45" t="s">
         <v>1445</v>
       </c>
-      <c r="E45" s="309" t="s">
+      <c r="E45" s="308" t="s">
         <v>2841</v>
       </c>
-      <c r="F45" s="310">
+      <c r="F45" s="309">
         <v>1.1111111E+100</v>
       </c>
-      <c r="G45" s="306"/>
-      <c r="H45" s="306"/>
-      <c r="I45" s="306"/>
-      <c r="J45" s="306"/>
-      <c r="K45" s="306"/>
-      <c r="L45" s="306"/>
-      <c r="M45" s="306"/>
-      <c r="N45" s="306"/>
-      <c r="O45" s="306"/>
-      <c r="X45" s="357"/>
-      <c r="Y45" s="358"/>
-      <c r="Z45" s="358"/>
-      <c r="AA45" s="359"/>
+      <c r="G45" s="305"/>
+      <c r="H45" s="305"/>
+      <c r="I45" s="305"/>
+      <c r="J45" s="305"/>
+      <c r="K45" s="305"/>
+      <c r="L45" s="305"/>
+      <c r="M45" s="305"/>
+      <c r="N45" s="305"/>
+      <c r="O45" s="305"/>
+      <c r="X45" s="356"/>
+      <c r="Y45" s="357"/>
+      <c r="Z45" s="357"/>
+      <c r="AA45" s="358"/>
     </row>
     <row r="46" spans="1:46 16384:16384">
       <c r="B46" t="s">
         <v>1444</v>
       </c>
-      <c r="E46" s="306"/>
-      <c r="F46" s="306"/>
-      <c r="G46" s="306"/>
-      <c r="H46" s="306"/>
-      <c r="I46" s="306"/>
-      <c r="J46" s="306"/>
-      <c r="K46" s="306"/>
-      <c r="L46" s="306"/>
-      <c r="M46" s="306"/>
-      <c r="N46" s="306"/>
-      <c r="O46" s="306"/>
+      <c r="E46" s="305"/>
+      <c r="F46" s="305"/>
+      <c r="G46" s="305"/>
+      <c r="H46" s="305"/>
+      <c r="I46" s="305"/>
+      <c r="J46" s="305"/>
+      <c r="K46" s="305"/>
+      <c r="L46" s="305"/>
+      <c r="M46" s="305"/>
+      <c r="N46" s="305"/>
+      <c r="O46" s="305"/>
       <c r="Y46" t="s">
         <v>567</v>
       </c>
@@ -56651,17 +56658,17 @@
       </c>
     </row>
     <row r="47" spans="1:46 16384:16384">
-      <c r="E47" s="306"/>
-      <c r="F47" s="306"/>
-      <c r="G47" s="306"/>
-      <c r="H47" s="306"/>
-      <c r="I47" s="307"/>
-      <c r="J47" s="306"/>
-      <c r="K47" s="306"/>
-      <c r="L47" s="306"/>
-      <c r="M47" s="306"/>
-      <c r="N47" s="306"/>
-      <c r="O47" s="306"/>
+      <c r="E47" s="305"/>
+      <c r="F47" s="305"/>
+      <c r="G47" s="305"/>
+      <c r="H47" s="305"/>
+      <c r="I47" s="306"/>
+      <c r="J47" s="305"/>
+      <c r="K47" s="305"/>
+      <c r="L47" s="305"/>
+      <c r="M47" s="305"/>
+      <c r="N47" s="305"/>
+      <c r="O47" s="305"/>
       <c r="Q47" t="s">
         <v>2836</v>
       </c>
@@ -56670,17 +56677,17 @@
       </c>
     </row>
     <row r="48" spans="1:46 16384:16384">
-      <c r="E48" s="306"/>
-      <c r="F48" s="306"/>
-      <c r="G48" s="306"/>
-      <c r="H48" s="307"/>
-      <c r="I48" s="307"/>
-      <c r="J48" s="307"/>
-      <c r="K48" s="306"/>
-      <c r="L48" s="306"/>
-      <c r="M48" s="306"/>
-      <c r="N48" s="306"/>
-      <c r="O48" s="306"/>
+      <c r="E48" s="305"/>
+      <c r="F48" s="305"/>
+      <c r="G48" s="305"/>
+      <c r="H48" s="306"/>
+      <c r="I48" s="306"/>
+      <c r="J48" s="306"/>
+      <c r="K48" s="305"/>
+      <c r="L48" s="305"/>
+      <c r="M48" s="305"/>
+      <c r="N48" s="305"/>
+      <c r="O48" s="305"/>
       <c r="Q48" t="s">
         <v>2837</v>
       </c>
@@ -56695,53 +56702,53 @@
       </c>
     </row>
     <row r="49" spans="1:35">
-      <c r="E49" s="306"/>
-      <c r="F49" s="306"/>
-      <c r="G49" s="307"/>
-      <c r="H49" s="307"/>
-      <c r="I49" s="307"/>
-      <c r="J49" s="307"/>
-      <c r="K49" s="307"/>
-      <c r="L49" s="306"/>
-      <c r="M49" s="306"/>
-      <c r="N49" s="306"/>
-      <c r="O49" s="306"/>
+      <c r="E49" s="305"/>
+      <c r="F49" s="305"/>
+      <c r="G49" s="306"/>
+      <c r="H49" s="306"/>
+      <c r="I49" s="306"/>
+      <c r="J49" s="306"/>
+      <c r="K49" s="306"/>
+      <c r="L49" s="305"/>
+      <c r="M49" s="305"/>
+      <c r="N49" s="305"/>
+      <c r="O49" s="305"/>
       <c r="U49" s="175" t="s">
         <v>1565</v>
       </c>
       <c r="V49" t="s">
         <v>2872</v>
       </c>
-      <c r="X49" s="360" t="s">
+      <c r="X49" s="359" t="s">
         <v>2852</v>
       </c>
-      <c r="Y49" s="361"/>
-      <c r="Z49" s="361"/>
-      <c r="AA49" s="361"/>
-      <c r="AB49" s="361"/>
-      <c r="AC49" s="361"/>
-      <c r="AD49" s="361"/>
-      <c r="AE49" s="361"/>
-      <c r="AF49" s="361"/>
-      <c r="AG49" s="361"/>
-      <c r="AH49" s="361"/>
-      <c r="AI49" s="362"/>
+      <c r="Y49" s="360"/>
+      <c r="Z49" s="360"/>
+      <c r="AA49" s="360"/>
+      <c r="AB49" s="360"/>
+      <c r="AC49" s="360"/>
+      <c r="AD49" s="360"/>
+      <c r="AE49" s="360"/>
+      <c r="AF49" s="360"/>
+      <c r="AG49" s="360"/>
+      <c r="AH49" s="360"/>
+      <c r="AI49" s="361"/>
     </row>
     <row r="50" spans="1:35">
       <c r="B50" t="s">
         <v>2132</v>
       </c>
-      <c r="E50" s="306"/>
-      <c r="F50" s="307"/>
-      <c r="G50" s="307"/>
-      <c r="H50" s="307"/>
-      <c r="I50" s="307"/>
-      <c r="J50" s="307"/>
-      <c r="K50" s="307"/>
-      <c r="L50" s="307"/>
-      <c r="M50" s="306"/>
-      <c r="N50" s="306"/>
-      <c r="O50" s="306"/>
+      <c r="E50" s="305"/>
+      <c r="F50" s="306"/>
+      <c r="G50" s="306"/>
+      <c r="H50" s="306"/>
+      <c r="I50" s="306"/>
+      <c r="J50" s="306"/>
+      <c r="K50" s="306"/>
+      <c r="L50" s="306"/>
+      <c r="M50" s="305"/>
+      <c r="N50" s="305"/>
+      <c r="O50" s="305"/>
       <c r="Y50" t="s">
         <v>567</v>
       </c>
@@ -56762,17 +56769,17 @@
       <c r="B51" t="s">
         <v>2133</v>
       </c>
-      <c r="E51" s="306"/>
-      <c r="F51" s="307"/>
-      <c r="G51" s="307"/>
-      <c r="H51" s="307"/>
-      <c r="I51" s="307"/>
-      <c r="J51" s="307"/>
-      <c r="K51" s="307"/>
-      <c r="L51" s="307"/>
-      <c r="M51" s="306"/>
-      <c r="N51" s="306"/>
-      <c r="O51" s="306"/>
+      <c r="E51" s="305"/>
+      <c r="F51" s="306"/>
+      <c r="G51" s="306"/>
+      <c r="H51" s="306"/>
+      <c r="I51" s="306"/>
+      <c r="J51" s="306"/>
+      <c r="K51" s="306"/>
+      <c r="L51" s="306"/>
+      <c r="M51" s="305"/>
+      <c r="N51" s="305"/>
+      <c r="O51" s="305"/>
       <c r="Y51" t="s">
         <v>567</v>
       </c>
@@ -56796,17 +56803,17 @@
       <c r="B52" t="s">
         <v>2134</v>
       </c>
-      <c r="E52" s="306"/>
-      <c r="F52" s="307"/>
-      <c r="G52" s="307"/>
-      <c r="H52" s="307"/>
-      <c r="I52" s="307"/>
-      <c r="J52" s="307"/>
-      <c r="K52" s="307"/>
-      <c r="L52" s="307"/>
-      <c r="M52" s="306"/>
-      <c r="N52" s="306"/>
-      <c r="O52" s="306"/>
+      <c r="E52" s="305"/>
+      <c r="F52" s="306"/>
+      <c r="G52" s="306"/>
+      <c r="H52" s="306"/>
+      <c r="I52" s="306"/>
+      <c r="J52" s="306"/>
+      <c r="K52" s="306"/>
+      <c r="L52" s="306"/>
+      <c r="M52" s="305"/>
+      <c r="N52" s="305"/>
+      <c r="O52" s="305"/>
       <c r="Q52" t="s">
         <v>1556</v>
       </c>
@@ -56830,17 +56837,17 @@
       </c>
     </row>
     <row r="53" spans="1:35">
-      <c r="E53" s="306"/>
-      <c r="F53" s="307"/>
-      <c r="G53" s="307"/>
-      <c r="H53" s="307"/>
-      <c r="I53" s="308"/>
-      <c r="J53" s="307"/>
-      <c r="K53" s="307"/>
-      <c r="L53" s="307"/>
-      <c r="M53" s="306"/>
-      <c r="N53" s="306"/>
-      <c r="O53" s="306"/>
+      <c r="E53" s="305"/>
+      <c r="F53" s="306"/>
+      <c r="G53" s="306"/>
+      <c r="H53" s="306"/>
+      <c r="I53" s="307"/>
+      <c r="J53" s="306"/>
+      <c r="K53" s="306"/>
+      <c r="L53" s="306"/>
+      <c r="M53" s="305"/>
+      <c r="N53" s="305"/>
+      <c r="O53" s="305"/>
       <c r="T53" t="s">
         <v>2171</v>
       </c>
@@ -56861,17 +56868,17 @@
       </c>
     </row>
     <row r="54" spans="1:35">
-      <c r="E54" s="306"/>
-      <c r="F54" s="307"/>
-      <c r="G54" s="307"/>
-      <c r="H54" s="307"/>
-      <c r="I54" s="308"/>
-      <c r="J54" s="307"/>
-      <c r="K54" s="307"/>
-      <c r="L54" s="307"/>
-      <c r="M54" s="306"/>
-      <c r="N54" s="306"/>
-      <c r="O54" s="306"/>
+      <c r="E54" s="305"/>
+      <c r="F54" s="306"/>
+      <c r="G54" s="306"/>
+      <c r="H54" s="306"/>
+      <c r="I54" s="307"/>
+      <c r="J54" s="306"/>
+      <c r="K54" s="306"/>
+      <c r="L54" s="306"/>
+      <c r="M54" s="305"/>
+      <c r="N54" s="305"/>
+      <c r="O54" s="305"/>
       <c r="T54" t="s">
         <v>2859</v>
       </c>
@@ -56892,17 +56899,17 @@
       </c>
     </row>
     <row r="55" spans="1:35">
-      <c r="E55" s="306"/>
-      <c r="F55" s="307"/>
-      <c r="G55" s="307"/>
-      <c r="H55" s="307"/>
-      <c r="I55" s="308"/>
-      <c r="J55" s="307"/>
-      <c r="K55" s="307"/>
-      <c r="L55" s="307"/>
-      <c r="M55" s="306"/>
-      <c r="N55" s="306"/>
-      <c r="O55" s="306"/>
+      <c r="E55" s="305"/>
+      <c r="F55" s="306"/>
+      <c r="G55" s="306"/>
+      <c r="H55" s="306"/>
+      <c r="I55" s="307"/>
+      <c r="J55" s="306"/>
+      <c r="K55" s="306"/>
+      <c r="L55" s="306"/>
+      <c r="M55" s="305"/>
+      <c r="N55" s="305"/>
+      <c r="O55" s="305"/>
       <c r="Y55" t="s">
         <v>567</v>
       </c>
@@ -56920,17 +56927,17 @@
       </c>
     </row>
     <row r="56" spans="1:35">
-      <c r="E56" s="306"/>
-      <c r="F56" s="307"/>
-      <c r="G56" s="307"/>
-      <c r="H56" s="307"/>
-      <c r="I56" s="308"/>
-      <c r="J56" s="307"/>
-      <c r="K56" s="307"/>
-      <c r="L56" s="307"/>
-      <c r="M56" s="306"/>
-      <c r="N56" s="306"/>
-      <c r="O56" s="306"/>
+      <c r="E56" s="305"/>
+      <c r="F56" s="306"/>
+      <c r="G56" s="306"/>
+      <c r="H56" s="306"/>
+      <c r="I56" s="307"/>
+      <c r="J56" s="306"/>
+      <c r="K56" s="306"/>
+      <c r="L56" s="306"/>
+      <c r="M56" s="305"/>
+      <c r="N56" s="305"/>
+      <c r="O56" s="305"/>
       <c r="Q56" t="s">
         <v>2838</v>
       </c>
@@ -56960,17 +56967,17 @@
       </c>
     </row>
     <row r="57" spans="1:35">
-      <c r="E57" s="306"/>
-      <c r="F57" s="307"/>
-      <c r="G57" s="307"/>
-      <c r="H57" s="307"/>
-      <c r="I57" s="308"/>
-      <c r="J57" s="307"/>
-      <c r="K57" s="307"/>
-      <c r="L57" s="307"/>
-      <c r="M57" s="306"/>
-      <c r="N57" s="306"/>
-      <c r="O57" s="306"/>
+      <c r="E57" s="305"/>
+      <c r="F57" s="306"/>
+      <c r="G57" s="306"/>
+      <c r="H57" s="306"/>
+      <c r="I57" s="307"/>
+      <c r="J57" s="306"/>
+      <c r="K57" s="306"/>
+      <c r="L57" s="306"/>
+      <c r="M57" s="305"/>
+      <c r="N57" s="305"/>
+      <c r="O57" s="305"/>
       <c r="Y57" t="s">
         <v>2869</v>
       </c>
@@ -56982,30 +56989,30 @@
       </c>
     </row>
     <row r="58" spans="1:35">
-      <c r="E58" s="306"/>
-      <c r="F58" s="306"/>
-      <c r="G58" s="306"/>
-      <c r="H58" s="306"/>
-      <c r="I58" s="306"/>
-      <c r="J58" s="306"/>
-      <c r="K58" s="306"/>
-      <c r="L58" s="306"/>
-      <c r="M58" s="306"/>
-      <c r="N58" s="306"/>
-      <c r="O58" s="306"/>
+      <c r="E58" s="305"/>
+      <c r="F58" s="305"/>
+      <c r="G58" s="305"/>
+      <c r="H58" s="305"/>
+      <c r="I58" s="305"/>
+      <c r="J58" s="305"/>
+      <c r="K58" s="305"/>
+      <c r="L58" s="305"/>
+      <c r="M58" s="305"/>
+      <c r="N58" s="305"/>
+      <c r="O58" s="305"/>
     </row>
     <row r="59" spans="1:35">
-      <c r="E59" s="306"/>
-      <c r="F59" s="306"/>
-      <c r="G59" s="306"/>
-      <c r="H59" s="306"/>
-      <c r="I59" s="306"/>
-      <c r="J59" s="306"/>
-      <c r="K59" s="306"/>
-      <c r="L59" s="306"/>
-      <c r="M59" s="306"/>
-      <c r="N59" s="306"/>
-      <c r="O59" s="306"/>
+      <c r="E59" s="305"/>
+      <c r="F59" s="305"/>
+      <c r="G59" s="305"/>
+      <c r="H59" s="305"/>
+      <c r="I59" s="305"/>
+      <c r="J59" s="305"/>
+      <c r="K59" s="305"/>
+      <c r="L59" s="305"/>
+      <c r="M59" s="305"/>
+      <c r="N59" s="305"/>
+      <c r="O59" s="305"/>
       <c r="AC59" t="s">
         <v>2887</v>
       </c>
@@ -57773,35 +57780,35 @@
       </c>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="426" t="s">
+      <c r="B8" s="425" t="s">
         <v>2432</v>
       </c>
-      <c r="C8" s="426"/>
-      <c r="F8" s="426" t="s">
+      <c r="C8" s="425"/>
+      <c r="F8" s="425" t="s">
         <v>2433</v>
       </c>
-      <c r="G8" s="426"/>
-      <c r="I8" s="426" t="s">
+      <c r="G8" s="425"/>
+      <c r="I8" s="425" t="s">
         <v>2433</v>
       </c>
-      <c r="J8" s="426"/>
+      <c r="J8" s="425"/>
       <c r="M8" s="216" t="s">
         <v>2490</v>
       </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="F9" s="426" t="s">
+      <c r="F9" s="425" t="s">
         <v>2434</v>
       </c>
-      <c r="G9" s="426"/>
-      <c r="I9" s="426" t="s">
+      <c r="G9" s="425"/>
+      <c r="I9" s="425" t="s">
         <v>2435</v>
       </c>
-      <c r="J9" s="426"/>
-      <c r="M9" s="427" t="s">
+      <c r="J9" s="425"/>
+      <c r="M9" s="426" t="s">
         <v>2433</v>
       </c>
-      <c r="N9" s="427"/>
+      <c r="N9" s="426"/>
     </row>
     <row r="10" spans="1:31">
       <c r="M10" s="273" t="s">
@@ -57810,19 +57817,19 @@
       <c r="N10" s="273"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="E11" s="425" t="s">
+      <c r="E11" s="424" t="s">
         <v>2437</v>
       </c>
-      <c r="F11" s="425"/>
-      <c r="G11" s="425"/>
-      <c r="H11" s="425"/>
-      <c r="I11" s="425"/>
-      <c r="J11" s="425"/>
-      <c r="K11" s="425"/>
-      <c r="L11" s="425"/>
-      <c r="M11" s="425"/>
-      <c r="N11" s="425"/>
-      <c r="O11" s="425"/>
+      <c r="F11" s="424"/>
+      <c r="G11" s="424"/>
+      <c r="H11" s="424"/>
+      <c r="I11" s="424"/>
+      <c r="J11" s="424"/>
+      <c r="K11" s="424"/>
+      <c r="L11" s="424"/>
+      <c r="M11" s="424"/>
+      <c r="N11" s="424"/>
+      <c r="O11" s="424"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
@@ -61582,11 +61589,11 @@
       <c r="L6" s="35" t="s">
         <v>1378</v>
       </c>
-      <c r="M6" s="402" t="s">
+      <c r="M6" s="401" t="s">
         <v>1379</v>
       </c>
-      <c r="N6" s="402"/>
-      <c r="O6" s="402"/>
+      <c r="N6" s="401"/>
+      <c r="O6" s="401"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
@@ -62360,98 +62367,98 @@
   <sheetData>
     <row r="1" spans="3:16" ht="15.75" thickBot="1"/>
     <row r="2" spans="3:16">
-      <c r="C2" s="396" t="s">
+      <c r="C2" s="395" t="s">
         <v>2893</v>
       </c>
-      <c r="D2" s="397"/>
-      <c r="E2" s="397"/>
-      <c r="F2" s="397"/>
-      <c r="G2" s="397"/>
-      <c r="H2" s="397"/>
-      <c r="I2" s="397"/>
-      <c r="J2" s="397"/>
-      <c r="K2" s="397"/>
+      <c r="D2" s="396"/>
+      <c r="E2" s="396"/>
+      <c r="F2" s="396"/>
+      <c r="G2" s="396"/>
+      <c r="H2" s="396"/>
+      <c r="I2" s="396"/>
+      <c r="J2" s="396"/>
+      <c r="K2" s="396"/>
     </row>
     <row r="3" spans="3:16">
-      <c r="C3" s="398"/>
-      <c r="D3" s="399"/>
-      <c r="E3" s="399"/>
-      <c r="F3" s="399"/>
-      <c r="G3" s="399"/>
-      <c r="H3" s="399"/>
-      <c r="I3" s="399"/>
-      <c r="J3" s="399"/>
-      <c r="K3" s="399"/>
+      <c r="C3" s="397"/>
+      <c r="D3" s="398"/>
+      <c r="E3" s="398"/>
+      <c r="F3" s="398"/>
+      <c r="G3" s="398"/>
+      <c r="H3" s="398"/>
+      <c r="I3" s="398"/>
+      <c r="J3" s="398"/>
+      <c r="K3" s="398"/>
       <c r="M3" t="s">
         <v>2894</v>
       </c>
     </row>
     <row r="4" spans="3:16">
-      <c r="C4" s="398"/>
-      <c r="D4" s="399"/>
-      <c r="E4" s="399"/>
-      <c r="F4" s="399"/>
-      <c r="G4" s="399"/>
-      <c r="H4" s="399"/>
-      <c r="I4" s="399"/>
-      <c r="J4" s="399"/>
-      <c r="K4" s="399"/>
+      <c r="C4" s="397"/>
+      <c r="D4" s="398"/>
+      <c r="E4" s="398"/>
+      <c r="F4" s="398"/>
+      <c r="G4" s="398"/>
+      <c r="H4" s="398"/>
+      <c r="I4" s="398"/>
+      <c r="J4" s="398"/>
+      <c r="K4" s="398"/>
       <c r="N4" t="s">
         <v>2895</v>
       </c>
     </row>
     <row r="5" spans="3:16">
-      <c r="C5" s="398"/>
-      <c r="D5" s="399"/>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
-      <c r="G5" s="399"/>
-      <c r="H5" s="399"/>
-      <c r="I5" s="399"/>
-      <c r="J5" s="399"/>
-      <c r="K5" s="399"/>
+      <c r="C5" s="397"/>
+      <c r="D5" s="398"/>
+      <c r="E5" s="398"/>
+      <c r="F5" s="398"/>
+      <c r="G5" s="398"/>
+      <c r="H5" s="398"/>
+      <c r="I5" s="398"/>
+      <c r="J5" s="398"/>
+      <c r="K5" s="398"/>
       <c r="O5" t="s">
         <v>2896</v>
       </c>
     </row>
     <row r="6" spans="3:16">
-      <c r="C6" s="398"/>
-      <c r="D6" s="399"/>
-      <c r="E6" s="399"/>
-      <c r="F6" s="399"/>
-      <c r="G6" s="399"/>
-      <c r="H6" s="399"/>
-      <c r="I6" s="399"/>
-      <c r="J6" s="399"/>
-      <c r="K6" s="399"/>
+      <c r="C6" s="397"/>
+      <c r="D6" s="398"/>
+      <c r="E6" s="398"/>
+      <c r="F6" s="398"/>
+      <c r="G6" s="398"/>
+      <c r="H6" s="398"/>
+      <c r="I6" s="398"/>
+      <c r="J6" s="398"/>
+      <c r="K6" s="398"/>
       <c r="O6" t="s">
         <v>2128</v>
       </c>
     </row>
     <row r="7" spans="3:16">
-      <c r="C7" s="398"/>
-      <c r="D7" s="399"/>
-      <c r="E7" s="399"/>
-      <c r="F7" s="399"/>
-      <c r="G7" s="399"/>
-      <c r="H7" s="399"/>
-      <c r="I7" s="399"/>
-      <c r="J7" s="399"/>
-      <c r="K7" s="399"/>
+      <c r="C7" s="397"/>
+      <c r="D7" s="398"/>
+      <c r="E7" s="398"/>
+      <c r="F7" s="398"/>
+      <c r="G7" s="398"/>
+      <c r="H7" s="398"/>
+      <c r="I7" s="398"/>
+      <c r="J7" s="398"/>
+      <c r="K7" s="398"/>
       <c r="O7" t="s">
         <v>2897</v>
       </c>
     </row>
     <row r="8" spans="3:16" ht="15.75" thickBot="1">
-      <c r="C8" s="400"/>
-      <c r="D8" s="401"/>
-      <c r="E8" s="401"/>
-      <c r="F8" s="401"/>
-      <c r="G8" s="401"/>
-      <c r="H8" s="401"/>
-      <c r="I8" s="401"/>
-      <c r="J8" s="401"/>
-      <c r="K8" s="401"/>
+      <c r="C8" s="399"/>
+      <c r="D8" s="400"/>
+      <c r="E8" s="400"/>
+      <c r="F8" s="400"/>
+      <c r="G8" s="400"/>
+      <c r="H8" s="400"/>
+      <c r="I8" s="400"/>
+      <c r="J8" s="400"/>
+      <c r="K8" s="400"/>
       <c r="O8" t="s">
         <v>2898</v>
       </c>
@@ -62488,35 +62495,35 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="3:16" ht="15.75" thickBot="1">
-      <c r="C11" s="366" t="s">
+      <c r="C11" s="365" t="s">
         <v>2802</v>
       </c>
-      <c r="D11" s="367"/>
-      <c r="E11" s="367"/>
-      <c r="F11" s="367"/>
-      <c r="G11" s="367"/>
-      <c r="H11" s="367"/>
-      <c r="I11" s="367"/>
-      <c r="J11" s="367"/>
-      <c r="K11" s="367"/>
+      <c r="D11" s="366"/>
+      <c r="E11" s="366"/>
+      <c r="F11" s="366"/>
+      <c r="G11" s="366"/>
+      <c r="H11" s="366"/>
+      <c r="I11" s="366"/>
+      <c r="J11" s="366"/>
+      <c r="K11" s="366"/>
       <c r="N11" t="s">
         <v>2900</v>
       </c>
     </row>
     <row r="12" spans="3:16">
       <c r="C12" s="129"/>
-      <c r="D12" s="381" t="s">
+      <c r="D12" s="380" t="s">
         <v>2923</v>
       </c>
-      <c r="E12" s="382"/>
-      <c r="F12" s="382"/>
-      <c r="G12" s="382"/>
-      <c r="H12" s="383"/>
-      <c r="I12" s="390" t="s">
+      <c r="E12" s="381"/>
+      <c r="F12" s="381"/>
+      <c r="G12" s="381"/>
+      <c r="H12" s="382"/>
+      <c r="I12" s="389" t="s">
         <v>2911</v>
       </c>
-      <c r="J12" s="391"/>
-      <c r="K12" s="392"/>
+      <c r="J12" s="390"/>
+      <c r="K12" s="391"/>
       <c r="O12" t="s">
         <v>2901</v>
       </c>
@@ -62525,53 +62532,53 @@
       <c r="C13" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="384"/>
-      <c r="E13" s="385"/>
-      <c r="F13" s="385"/>
-      <c r="G13" s="385"/>
-      <c r="H13" s="386"/>
-      <c r="I13" s="393"/>
-      <c r="J13" s="394"/>
-      <c r="K13" s="395"/>
+      <c r="D13" s="383"/>
+      <c r="E13" s="384"/>
+      <c r="F13" s="384"/>
+      <c r="G13" s="384"/>
+      <c r="H13" s="385"/>
+      <c r="I13" s="392"/>
+      <c r="J13" s="393"/>
+      <c r="K13" s="394"/>
       <c r="P13" t="s">
         <v>2902</v>
       </c>
     </row>
     <row r="14" spans="3:16" ht="15.75" thickBot="1">
       <c r="C14" s="131"/>
-      <c r="D14" s="384"/>
-      <c r="E14" s="385"/>
-      <c r="F14" s="385"/>
-      <c r="G14" s="385"/>
-      <c r="H14" s="386"/>
-      <c r="I14" s="393"/>
-      <c r="J14" s="394"/>
-      <c r="K14" s="395"/>
+      <c r="D14" s="383"/>
+      <c r="E14" s="384"/>
+      <c r="F14" s="384"/>
+      <c r="G14" s="384"/>
+      <c r="H14" s="385"/>
+      <c r="I14" s="392"/>
+      <c r="J14" s="393"/>
+      <c r="K14" s="394"/>
     </row>
     <row r="15" spans="3:16">
       <c r="C15" s="129"/>
-      <c r="D15" s="384"/>
-      <c r="E15" s="385"/>
-      <c r="F15" s="385"/>
-      <c r="G15" s="385"/>
-      <c r="H15" s="386"/>
-      <c r="I15" s="393"/>
-      <c r="J15" s="394"/>
-      <c r="K15" s="395"/>
+      <c r="D15" s="383"/>
+      <c r="E15" s="384"/>
+      <c r="F15" s="384"/>
+      <c r="G15" s="384"/>
+      <c r="H15" s="385"/>
+      <c r="I15" s="392"/>
+      <c r="J15" s="393"/>
+      <c r="K15" s="394"/>
       <c r="O15" t="s">
         <v>2903</v>
       </c>
     </row>
     <row r="16" spans="3:16">
       <c r="C16" s="130"/>
-      <c r="D16" s="384"/>
-      <c r="E16" s="385"/>
-      <c r="F16" s="385"/>
-      <c r="G16" s="385"/>
-      <c r="H16" s="386"/>
-      <c r="I16" s="393"/>
-      <c r="J16" s="394"/>
-      <c r="K16" s="395"/>
+      <c r="D16" s="383"/>
+      <c r="E16" s="384"/>
+      <c r="F16" s="384"/>
+      <c r="G16" s="384"/>
+      <c r="H16" s="385"/>
+      <c r="I16" s="392"/>
+      <c r="J16" s="393"/>
+      <c r="K16" s="394"/>
       <c r="P16" t="s">
         <v>2904</v>
       </c>
@@ -62580,39 +62587,39 @@
       <c r="C17" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="384"/>
-      <c r="E17" s="385"/>
-      <c r="F17" s="385"/>
-      <c r="G17" s="385"/>
-      <c r="H17" s="386"/>
-      <c r="I17" s="393"/>
-      <c r="J17" s="394"/>
-      <c r="K17" s="395"/>
+      <c r="D17" s="383"/>
+      <c r="E17" s="384"/>
+      <c r="F17" s="384"/>
+      <c r="G17" s="384"/>
+      <c r="H17" s="385"/>
+      <c r="I17" s="392"/>
+      <c r="J17" s="393"/>
+      <c r="K17" s="394"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" thickBot="1">
       <c r="C18" s="131"/>
-      <c r="D18" s="384"/>
-      <c r="E18" s="385"/>
-      <c r="F18" s="385"/>
-      <c r="G18" s="385"/>
-      <c r="H18" s="386"/>
-      <c r="I18" s="393"/>
-      <c r="J18" s="394"/>
-      <c r="K18" s="395"/>
+      <c r="D18" s="383"/>
+      <c r="E18" s="384"/>
+      <c r="F18" s="384"/>
+      <c r="G18" s="384"/>
+      <c r="H18" s="385"/>
+      <c r="I18" s="392"/>
+      <c r="J18" s="393"/>
+      <c r="K18" s="394"/>
       <c r="M18" t="s">
         <v>2905</v>
       </c>
     </row>
     <row r="19" spans="2:16">
       <c r="C19" s="130"/>
-      <c r="D19" s="384"/>
-      <c r="E19" s="385"/>
-      <c r="F19" s="385"/>
-      <c r="G19" s="385"/>
-      <c r="H19" s="386"/>
-      <c r="I19" s="393"/>
-      <c r="J19" s="394"/>
-      <c r="K19" s="395"/>
+      <c r="D19" s="383"/>
+      <c r="E19" s="384"/>
+      <c r="F19" s="384"/>
+      <c r="G19" s="384"/>
+      <c r="H19" s="385"/>
+      <c r="I19" s="392"/>
+      <c r="J19" s="393"/>
+      <c r="K19" s="394"/>
       <c r="N19" t="s">
         <v>2906</v>
       </c>
@@ -62621,45 +62628,45 @@
       <c r="C20" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="384"/>
-      <c r="E20" s="385"/>
-      <c r="F20" s="385"/>
-      <c r="G20" s="385"/>
-      <c r="H20" s="386"/>
-      <c r="I20" s="393"/>
-      <c r="J20" s="394"/>
-      <c r="K20" s="395"/>
+      <c r="D20" s="383"/>
+      <c r="E20" s="384"/>
+      <c r="F20" s="384"/>
+      <c r="G20" s="384"/>
+      <c r="H20" s="385"/>
+      <c r="I20" s="392"/>
+      <c r="J20" s="393"/>
+      <c r="K20" s="394"/>
       <c r="N20" t="s">
         <v>2907</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="15.75" thickBot="1">
       <c r="C21" s="131"/>
-      <c r="D21" s="387"/>
-      <c r="E21" s="388"/>
-      <c r="F21" s="388"/>
-      <c r="G21" s="388"/>
-      <c r="H21" s="389"/>
-      <c r="I21" s="393"/>
-      <c r="J21" s="394"/>
-      <c r="K21" s="395"/>
+      <c r="D21" s="386"/>
+      <c r="E21" s="387"/>
+      <c r="F21" s="387"/>
+      <c r="G21" s="387"/>
+      <c r="H21" s="388"/>
+      <c r="I21" s="392"/>
+      <c r="J21" s="393"/>
+      <c r="K21" s="394"/>
       <c r="N21" t="s">
         <v>2908</v>
       </c>
     </row>
     <row r="22" spans="2:16">
-      <c r="D22" s="402" t="s">
+      <c r="D22" s="401" t="s">
         <v>2585</v>
       </c>
-      <c r="E22" s="402"/>
-      <c r="F22" s="402"/>
-      <c r="G22" s="402"/>
-      <c r="H22" s="402"/>
-      <c r="I22" s="402" t="s">
+      <c r="E22" s="401"/>
+      <c r="F22" s="401"/>
+      <c r="G22" s="401"/>
+      <c r="H22" s="401"/>
+      <c r="I22" s="401" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="402"/>
-      <c r="K22" s="402"/>
+      <c r="J22" s="401"/>
+      <c r="K22" s="401"/>
       <c r="N22" t="s">
         <v>2909</v>
       </c>
@@ -62860,7 +62867,7 @@
       </c>
     </row>
     <row r="38" spans="2:17">
-      <c r="B38" s="311">
+      <c r="B38" s="310">
         <v>1</v>
       </c>
       <c r="C38" s="276">
@@ -63048,7 +63055,7 @@
       </c>
     </row>
     <row r="48" spans="2:17">
-      <c r="B48" s="311">
+      <c r="B48" s="310">
         <v>0</v>
       </c>
       <c r="C48" s="276">
@@ -63072,7 +63079,7 @@
       <c r="I48" s="276">
         <v>1</v>
       </c>
-      <c r="J48" s="311">
+      <c r="J48" s="310">
         <v>1</v>
       </c>
       <c r="K48" s="276">
@@ -65243,10 +65250,10 @@
       </c>
       <c r="G121" s="23"/>
       <c r="H121" s="24"/>
-      <c r="I121" s="405" t="s">
+      <c r="I121" s="404" t="s">
         <v>2587</v>
       </c>
-      <c r="J121" s="405" t="s">
+      <c r="J121" s="404" t="s">
         <v>2591</v>
       </c>
       <c r="K121" s="20"/>
@@ -65262,8 +65269,8 @@
       <c r="H122" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="I122" s="406"/>
-      <c r="J122" s="406"/>
+      <c r="I122" s="405"/>
+      <c r="J122" s="405"/>
       <c r="K122" s="20"/>
       <c r="L122" s="20"/>
       <c r="M122" s="27"/>
@@ -65277,8 +65284,8 @@
       <c r="H123" s="20">
         <v>19</v>
       </c>
-      <c r="I123" s="406"/>
-      <c r="J123" s="406"/>
+      <c r="I123" s="405"/>
+      <c r="J123" s="405"/>
       <c r="K123" s="20"/>
       <c r="L123" s="20"/>
       <c r="M123" s="27"/>
@@ -65292,8 +65299,8 @@
       <c r="H124" s="29" t="s">
         <v>1807</v>
       </c>
-      <c r="I124" s="406"/>
-      <c r="J124" s="406"/>
+      <c r="I124" s="405"/>
+      <c r="J124" s="405"/>
       <c r="K124" s="20"/>
       <c r="L124" s="20"/>
       <c r="M124" s="27"/>
@@ -65303,8 +65310,8 @@
       <c r="F125" s="20"/>
       <c r="G125" s="20"/>
       <c r="H125" s="20"/>
-      <c r="I125" s="406"/>
-      <c r="J125" s="406"/>
+      <c r="I125" s="405"/>
+      <c r="J125" s="405"/>
       <c r="K125" s="20"/>
       <c r="L125" s="20"/>
       <c r="M125" s="27"/>
@@ -65317,8 +65324,8 @@
       <c r="F126" s="20"/>
       <c r="G126" s="20"/>
       <c r="H126" s="20"/>
-      <c r="I126" s="406"/>
-      <c r="J126" s="406"/>
+      <c r="I126" s="405"/>
+      <c r="J126" s="405"/>
       <c r="K126" s="20"/>
       <c r="L126" s="20"/>
       <c r="M126" s="27"/>
@@ -65330,8 +65337,8 @@
       </c>
       <c r="G127" s="23"/>
       <c r="H127" s="24"/>
-      <c r="I127" s="406"/>
-      <c r="J127" s="406"/>
+      <c r="I127" s="405"/>
+      <c r="J127" s="405"/>
       <c r="K127" s="20"/>
       <c r="L127" s="20"/>
       <c r="M127" s="27"/>
@@ -65345,8 +65352,8 @@
       <c r="H128" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="I128" s="406"/>
-      <c r="J128" s="406"/>
+      <c r="I128" s="405"/>
+      <c r="J128" s="405"/>
       <c r="K128" s="20"/>
       <c r="L128" s="20"/>
       <c r="M128" s="27"/>
@@ -65360,8 +65367,8 @@
       <c r="H129" s="20">
         <v>20</v>
       </c>
-      <c r="I129" s="406"/>
-      <c r="J129" s="406"/>
+      <c r="I129" s="405"/>
+      <c r="J129" s="405"/>
       <c r="K129" s="20"/>
       <c r="L129" s="20"/>
       <c r="M129" s="27"/>
@@ -65375,8 +65382,8 @@
       <c r="H130" s="29" t="s">
         <v>2583</v>
       </c>
-      <c r="I130" s="406"/>
-      <c r="J130" s="406"/>
+      <c r="I130" s="405"/>
+      <c r="J130" s="405"/>
       <c r="K130" s="20"/>
       <c r="L130" s="20"/>
       <c r="M130" s="27"/>
@@ -65386,8 +65393,8 @@
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
       <c r="H131" s="20"/>
-      <c r="I131" s="406"/>
-      <c r="J131" s="406"/>
+      <c r="I131" s="405"/>
+      <c r="J131" s="405"/>
       <c r="K131" s="20"/>
       <c r="L131" s="20"/>
       <c r="M131" s="27"/>
@@ -65399,8 +65406,8 @@
       </c>
       <c r="G132" s="23"/>
       <c r="H132" s="24"/>
-      <c r="I132" s="406"/>
-      <c r="J132" s="406"/>
+      <c r="I132" s="405"/>
+      <c r="J132" s="405"/>
       <c r="K132" s="20"/>
       <c r="L132" s="20"/>
       <c r="M132" s="27"/>
@@ -65414,8 +65421,8 @@
       <c r="H133" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="I133" s="406"/>
-      <c r="J133" s="406"/>
+      <c r="I133" s="405"/>
+      <c r="J133" s="405"/>
       <c r="K133" s="20"/>
       <c r="L133" s="20"/>
       <c r="M133" s="27"/>
@@ -65429,8 +65436,8 @@
       <c r="H134" s="20">
         <v>18</v>
       </c>
-      <c r="I134" s="406"/>
-      <c r="J134" s="406"/>
+      <c r="I134" s="405"/>
+      <c r="J134" s="405"/>
       <c r="K134" s="20"/>
       <c r="L134" s="20"/>
       <c r="M134" s="27"/>
@@ -65444,8 +65451,8 @@
       <c r="H135" s="29" t="s">
         <v>2584</v>
       </c>
-      <c r="I135" s="407"/>
-      <c r="J135" s="407"/>
+      <c r="I135" s="406"/>
+      <c r="J135" s="406"/>
       <c r="K135" s="20"/>
       <c r="L135" s="20"/>
       <c r="M135" s="27"/>
@@ -65525,8 +65532,8 @@
       <c r="H147" s="24" t="s">
         <v>2590</v>
       </c>
-      <c r="I147" s="408"/>
-      <c r="J147" s="408"/>
+      <c r="I147" s="407"/>
+      <c r="J147" s="407"/>
       <c r="K147" s="20"/>
       <c r="L147" s="20"/>
       <c r="M147" s="27"/>
@@ -65540,8 +65547,8 @@
       <c r="H148" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="I148" s="409"/>
-      <c r="J148" s="409"/>
+      <c r="I148" s="408"/>
+      <c r="J148" s="408"/>
       <c r="K148" s="20"/>
       <c r="L148" s="20"/>
       <c r="M148" s="27"/>
@@ -65555,8 +65562,8 @@
       <c r="H149" s="20">
         <v>19</v>
       </c>
-      <c r="I149" s="409"/>
-      <c r="J149" s="409"/>
+      <c r="I149" s="408"/>
+      <c r="J149" s="408"/>
       <c r="K149" s="20"/>
       <c r="L149" s="20"/>
       <c r="M149" s="27"/>
@@ -65570,8 +65577,8 @@
       <c r="H150" s="29" t="s">
         <v>1807</v>
       </c>
-      <c r="I150" s="409"/>
-      <c r="J150" s="409"/>
+      <c r="I150" s="408"/>
+      <c r="J150" s="408"/>
       <c r="K150" s="20"/>
       <c r="L150" s="20"/>
       <c r="M150" s="27"/>
@@ -65581,8 +65588,8 @@
       <c r="F151" s="20"/>
       <c r="G151" s="20"/>
       <c r="H151" s="20"/>
-      <c r="I151" s="409"/>
-      <c r="J151" s="409"/>
+      <c r="I151" s="408"/>
+      <c r="J151" s="408"/>
       <c r="K151" s="20"/>
       <c r="L151" s="20"/>
       <c r="M151" s="27"/>
@@ -65592,8 +65599,8 @@
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
-      <c r="I152" s="409"/>
-      <c r="J152" s="409"/>
+      <c r="I152" s="408"/>
+      <c r="J152" s="408"/>
       <c r="K152" s="20"/>
       <c r="L152" s="20"/>
       <c r="M152" s="27"/>
@@ -65609,8 +65616,8 @@
       <c r="H153" s="24" t="s">
         <v>2590</v>
       </c>
-      <c r="I153" s="409"/>
-      <c r="J153" s="409"/>
+      <c r="I153" s="408"/>
+      <c r="J153" s="408"/>
       <c r="K153" s="20"/>
       <c r="L153" s="20"/>
       <c r="M153" s="27"/>
@@ -65627,8 +65634,8 @@
       <c r="H154" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="I154" s="409"/>
-      <c r="J154" s="409"/>
+      <c r="I154" s="408"/>
+      <c r="J154" s="408"/>
       <c r="K154" s="20"/>
       <c r="L154" s="20"/>
       <c r="M154" s="27"/>
@@ -65642,8 +65649,8 @@
       <c r="H155" s="20">
         <v>20</v>
       </c>
-      <c r="I155" s="409"/>
-      <c r="J155" s="409"/>
+      <c r="I155" s="408"/>
+      <c r="J155" s="408"/>
       <c r="K155" s="20"/>
       <c r="L155" s="20"/>
       <c r="M155" s="27"/>
@@ -65657,8 +65664,8 @@
       <c r="H156" s="29" t="s">
         <v>2583</v>
       </c>
-      <c r="I156" s="409"/>
-      <c r="J156" s="409"/>
+      <c r="I156" s="408"/>
+      <c r="J156" s="408"/>
       <c r="K156" s="20"/>
       <c r="L156" s="20"/>
       <c r="M156" s="27"/>
@@ -65668,8 +65675,8 @@
       <c r="F157" s="20"/>
       <c r="G157" s="20"/>
       <c r="H157" s="20"/>
-      <c r="I157" s="409"/>
-      <c r="J157" s="409"/>
+      <c r="I157" s="408"/>
+      <c r="J157" s="408"/>
       <c r="K157" s="20"/>
       <c r="L157" s="20"/>
       <c r="M157" s="27"/>
@@ -65685,8 +65692,8 @@
       <c r="H158" s="24" t="s">
         <v>2590</v>
       </c>
-      <c r="I158" s="409"/>
-      <c r="J158" s="409"/>
+      <c r="I158" s="408"/>
+      <c r="J158" s="408"/>
       <c r="K158" s="20"/>
       <c r="L158" s="20"/>
       <c r="M158" s="27"/>
@@ -65700,8 +65707,8 @@
       <c r="H159" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="I159" s="409"/>
-      <c r="J159" s="409"/>
+      <c r="I159" s="408"/>
+      <c r="J159" s="408"/>
       <c r="K159" s="20"/>
       <c r="L159" s="20"/>
       <c r="M159" s="27"/>
@@ -65715,8 +65722,8 @@
       <c r="H160" s="20">
         <v>18</v>
       </c>
-      <c r="I160" s="409"/>
-      <c r="J160" s="409"/>
+      <c r="I160" s="408"/>
+      <c r="J160" s="408"/>
       <c r="K160" s="20"/>
       <c r="L160" s="20"/>
       <c r="M160" s="27"/>
@@ -65730,8 +65737,8 @@
       <c r="H161" s="29" t="s">
         <v>2584</v>
       </c>
-      <c r="I161" s="410"/>
-      <c r="J161" s="410"/>
+      <c r="I161" s="409"/>
+      <c r="J161" s="409"/>
       <c r="K161" s="20"/>
       <c r="L161" s="20"/>
       <c r="M161" s="27"/>
@@ -66690,7 +66697,7 @@
       <c r="F269" s="32">
         <v>9</v>
       </c>
-      <c r="G269" s="403" t="s">
+      <c r="G269" s="402" t="s">
         <v>2228</v>
       </c>
       <c r="I269" s="48" t="s">
@@ -66711,7 +66718,7 @@
       <c r="F270" s="32">
         <v>15</v>
       </c>
-      <c r="G270" s="404"/>
+      <c r="G270" s="403"/>
       <c r="I270" s="151" t="s">
         <v>2224</v>
       </c>
@@ -67469,7 +67476,7 @@
       <c r="P4" s="67" t="s">
         <v>2975</v>
       </c>
-      <c r="Q4" s="327" t="s">
+      <c r="Q4" s="326" t="s">
         <v>2976</v>
       </c>
     </row>
@@ -67714,7 +67721,7 @@
       <c r="H19" s="31" t="s">
         <v>2960</v>
       </c>
-      <c r="N19" s="326"/>
+      <c r="N19" s="325"/>
       <c r="O19" s="31" t="s">
         <v>201</v>
       </c>
@@ -67736,7 +67743,7 @@
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="C26" s="326"/>
+      <c r="C26" s="325"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="13" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="13" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="ref-review" sheetId="33" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5915" uniqueCount="3155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5999" uniqueCount="3203">
   <si>
     <t>USER</t>
   </si>
@@ -8267,9 +8267,6 @@
     <t>print engineer or doctor</t>
   </si>
   <si>
-    <t>Multilevel</t>
-  </si>
-  <si>
     <t>Multiple inheritnace</t>
   </si>
   <si>
@@ -9796,6 +9793,154 @@
   </si>
   <si>
     <t>PQR School</t>
+  </si>
+  <si>
+    <t>Calcualtor</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>TaxFiling</t>
+  </si>
+  <si>
+    <t>mul</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>interest rate</t>
+  </si>
+  <si>
+    <t>calculatetaxes</t>
+  </si>
+  <si>
+    <t>calculateReturns</t>
+  </si>
+  <si>
+    <t>file tax</t>
+  </si>
+  <si>
+    <t>fill info</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>several developer</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>interface calculator</t>
+  </si>
+  <si>
+    <t>public int add(int a, int b );</t>
+  </si>
+  <si>
+    <t>1 month</t>
+  </si>
+  <si>
+    <t>3 monts</t>
+  </si>
+  <si>
+    <t>outline of the system</t>
+  </si>
+  <si>
+    <t>overview</t>
+  </si>
+  <si>
+    <t>public int mul(int a, int b);</t>
+  </si>
+  <si>
+    <t>interface Accountnt</t>
+  </si>
+  <si>
+    <t>public boolean clTx(String ssn, int income);</t>
+  </si>
+  <si>
+    <t>public int calreturns();</t>
+  </si>
+  <si>
+    <t>calReturn();</t>
+  </si>
+  <si>
+    <t>clTx(123123, 100000);</t>
+  </si>
+  <si>
+    <t>AGREEMENT</t>
+  </si>
+  <si>
+    <t>develop/program/implement the agreeement</t>
+  </si>
+  <si>
+    <t>susout(astronaut)</t>
+  </si>
+  <si>
+    <t>extends Mom, Dad</t>
+  </si>
+  <si>
+    <t>implement Mom,Dad</t>
+  </si>
+  <si>
+    <t>green veg</t>
+  </si>
+  <si>
+    <t>pizza</t>
+  </si>
+  <si>
+    <t>noodles</t>
+  </si>
+  <si>
+    <t>OVERRIDE both parents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interface </t>
+  </si>
+  <si>
+    <t>Incomplete methods</t>
+  </si>
+  <si>
+    <t>Complete methods</t>
+  </si>
+  <si>
+    <t>Ipayment</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>AbPayment</t>
+  </si>
+  <si>
+    <t>2 (ship, pay)</t>
+  </si>
+  <si>
+    <t>1 (pay)</t>
+  </si>
+  <si>
+    <t>1(ship)</t>
+  </si>
+  <si>
+    <t>Concrete</t>
+  </si>
+  <si>
+    <t>CrePayment</t>
+  </si>
+  <si>
+    <t>1(ship - inherited) and 
+1 (pay - wrote code here )</t>
   </si>
 </sst>
 </file>
@@ -10456,7 +10601,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="428">
+  <cellXfs count="431">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11155,6 +11300,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11371,6 +11523,9 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -11384,7 +11539,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11693,7 +11847,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="20" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
@@ -11701,7 +11855,7 @@
         <v>1962</v>
       </c>
       <c r="H2" s="262" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="I2" s="345" t="s">
         <v>1682</v>
@@ -11716,7 +11870,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="C3" s="155" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>1111</v>
@@ -11748,7 +11902,7 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1">
       <c r="C5" s="155" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="H5" s="26"/>
       <c r="M5" s="28"/>
@@ -11758,7 +11912,7 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="A6" s="32" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="20" t="s">
@@ -11766,7 +11920,7 @@
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="32" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="F6" s="32"/>
       <c r="H6" s="26"/>
@@ -11777,7 +11931,7 @@
         <v>567</v>
       </c>
       <c r="C7" s="155" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="F7" s="32" t="s">
         <v>567</v>
@@ -11820,7 +11974,7 @@
         <v>142</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="H9" s="26"/>
       <c r="L9" s="155"/>
@@ -11844,14 +11998,14 @@
         <v>567</v>
       </c>
       <c r="D11" s="156" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="H11" s="26"/>
       <c r="M11" s="20" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="P11" s="27"/>
     </row>
@@ -11860,7 +12014,7 @@
         <v>567</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
@@ -11876,14 +12030,14 @@
         <v>567</v>
       </c>
       <c r="C13" s="156" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
       <c r="F13" s="156"/>
       <c r="H13" s="26"/>
       <c r="M13" s="20" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="P13" s="27"/>
     </row>
@@ -11892,11 +12046,11 @@
         <v>567</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="H14" s="26"/>
       <c r="M14" s="20" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="P14" s="27"/>
     </row>
@@ -11905,7 +12059,7 @@
         <v>567</v>
       </c>
       <c r="C15" s="155" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="H15" s="26"/>
       <c r="P15" s="27"/>
@@ -11915,7 +12069,7 @@
         <v>567</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="H16" s="26"/>
       <c r="P16" s="27"/>
@@ -11928,7 +12082,7 @@
         <v>142</v>
       </c>
       <c r="C17" s="196" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="H17" s="26"/>
       <c r="P17" s="27"/>
@@ -11938,7 +12092,7 @@
         <v>142</v>
       </c>
       <c r="C18" s="283" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="H18" s="26"/>
       <c r="P18" s="27"/>
@@ -11977,15 +12131,15 @@
     </row>
     <row r="26" spans="1:16" ht="15.75" thickBot="1">
       <c r="A26" s="20" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="B27" s="20" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="H27" s="262" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="I27" s="345" t="s">
         <v>1682</v>
@@ -12011,7 +12165,7 @@
         <v>525</v>
       </c>
       <c r="D29" s="155" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="H29" s="348"/>
       <c r="I29" s="196"/>
@@ -12019,15 +12173,15 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="32" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="B30" s="32"/>
       <c r="C30" s="20" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="32" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="F30" s="32"/>
       <c r="H30" s="26"/>
@@ -12038,7 +12192,7 @@
         <v>567</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="F31" s="32" t="s">
         <v>567</v>
@@ -12054,7 +12208,7 @@
         <v>142</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="H32" s="26"/>
       <c r="P32" s="27"/>
@@ -12074,10 +12228,10 @@
         <v>567</v>
       </c>
       <c r="D34" s="156" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="H34" s="26"/>
       <c r="P34" s="27"/>
@@ -12087,13 +12241,13 @@
         <v>50</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="C35" s="32"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
       <c r="F35" s="346" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="H35" s="26"/>
       <c r="P35" s="27"/>
@@ -12103,10 +12257,10 @@
         <v>567</v>
       </c>
       <c r="C36" s="215" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="E36" s="155" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="H36" s="26"/>
       <c r="P36" s="27"/>
@@ -12123,13 +12277,13 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="347" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="C38" s="196" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="H38" s="26"/>
       <c r="P38" s="27"/>
@@ -12225,7 +12379,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="20" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="H50" s="26"/>
       <c r="L50" s="20" t="s">
@@ -12241,10 +12395,10 @@
     </row>
     <row r="51" spans="1:16" ht="15.75" thickBot="1">
       <c r="A51" s="20" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="H51" s="26"/>
       <c r="M51" s="28"/>
@@ -12253,7 +12407,7 @@
     </row>
     <row r="52" spans="1:16">
       <c r="D52" s="20" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="E52" s="155" t="b">
         <v>1</v>
@@ -12277,7 +12431,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="B55" s="20" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="H55" s="26"/>
       <c r="P55" s="27"/>
@@ -12333,17 +12487,17 @@
       <c r="A2" t="s">
         <v>2618</v>
       </c>
-      <c r="E2" s="377" t="s">
-        <v>3004</v>
-      </c>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
-      <c r="H2" s="379"/>
-      <c r="I2" s="379"/>
-      <c r="J2" s="379"/>
-      <c r="K2" s="379"/>
-      <c r="L2" s="379"/>
-      <c r="M2" s="378"/>
+      <c r="E2" s="380" t="s">
+        <v>3003</v>
+      </c>
+      <c r="F2" s="382"/>
+      <c r="G2" s="382"/>
+      <c r="H2" s="382"/>
+      <c r="I2" s="382"/>
+      <c r="J2" s="382"/>
+      <c r="K2" s="382"/>
+      <c r="L2" s="382"/>
+      <c r="M2" s="381"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="B3" t="s">
@@ -12432,7 +12586,7 @@
       <c r="G7" s="43"/>
       <c r="H7" s="43"/>
       <c r="I7" s="109" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
@@ -12444,7 +12598,7 @@
         <v>2620</v>
       </c>
       <c r="D8" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="E8" s="42"/>
       <c r="F8" s="43"/>
@@ -12489,7 +12643,7 @@
         <v>1550</v>
       </c>
       <c r="J10" s="109" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="K10" s="43"/>
       <c r="L10" s="43"/>
@@ -12517,10 +12671,10 @@
         <v>1634</v>
       </c>
       <c r="E12" s="42" t="s">
+        <v>3013</v>
+      </c>
+      <c r="F12" s="109" t="s">
         <v>3014</v>
-      </c>
-      <c r="F12" s="109" t="s">
-        <v>3015</v>
       </c>
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
@@ -12543,7 +12697,7 @@
         <v>691</v>
       </c>
       <c r="F13" s="109" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
@@ -12560,7 +12714,7 @@
     <row r="14" spans="1:13" ht="15.75" thickBot="1">
       <c r="E14" s="108"/>
       <c r="F14" s="109" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="G14" s="43"/>
       <c r="H14" s="43"/>
@@ -12572,7 +12726,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="149" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="20"/>
@@ -12586,7 +12740,7 @@
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1">
       <c r="A16" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="29"/>
@@ -12622,17 +12776,17 @@
       <c r="A19" t="s">
         <v>2618</v>
       </c>
-      <c r="E19" s="377" t="s">
-        <v>3004</v>
-      </c>
-      <c r="F19" s="379"/>
-      <c r="G19" s="379"/>
-      <c r="H19" s="379"/>
-      <c r="I19" s="379"/>
-      <c r="J19" s="379"/>
-      <c r="K19" s="379"/>
-      <c r="L19" s="379"/>
-      <c r="M19" s="378"/>
+      <c r="E19" s="380" t="s">
+        <v>3003</v>
+      </c>
+      <c r="F19" s="382"/>
+      <c r="G19" s="382"/>
+      <c r="H19" s="382"/>
+      <c r="I19" s="382"/>
+      <c r="J19" s="382"/>
+      <c r="K19" s="382"/>
+      <c r="L19" s="382"/>
+      <c r="M19" s="381"/>
     </row>
     <row r="20" spans="1:13">
       <c r="B20" t="s">
@@ -12651,7 +12805,7 @@
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
@@ -12671,7 +12825,7 @@
       <c r="H21" s="43"/>
       <c r="I21" s="143"/>
       <c r="J21" s="143" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="K21" s="211"/>
       <c r="L21" s="43"/>
@@ -12685,7 +12839,7 @@
         <v>1647</v>
       </c>
       <c r="G22" s="109" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="H22" s="43"/>
       <c r="I22" s="143"/>
@@ -12721,7 +12875,7 @@
       <c r="G24" s="43"/>
       <c r="H24" s="43"/>
       <c r="I24" s="109" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
@@ -12733,7 +12887,7 @@
         <v>2620</v>
       </c>
       <c r="D25" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="E25" s="42"/>
       <c r="F25" s="43"/>
@@ -12778,7 +12932,7 @@
         <v>1550</v>
       </c>
       <c r="J27" s="109" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="K27" s="43"/>
       <c r="L27" s="43"/>
@@ -12803,13 +12957,13 @@
         <v>1884</v>
       </c>
       <c r="C29" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="E29" s="42" t="s">
+        <v>3013</v>
+      </c>
+      <c r="F29" s="109" t="s">
         <v>3014</v>
-      </c>
-      <c r="F29" s="109" t="s">
-        <v>3015</v>
       </c>
       <c r="G29" s="43"/>
       <c r="H29" s="43"/>
@@ -12823,13 +12977,13 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="E30" s="42" t="s">
         <v>691</v>
       </c>
       <c r="F30" s="109" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="G30" s="43"/>
       <c r="H30" s="43"/>
@@ -12852,7 +13006,7 @@
       </c>
       <c r="E31" s="108"/>
       <c r="F31" s="109" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="G31" s="43"/>
       <c r="H31" s="43"/>
@@ -12903,12 +13057,12 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
       <c r="G35" s="20" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
@@ -12922,15 +13076,15 @@
         <v>1884</v>
       </c>
       <c r="B36" t="s">
+        <v>3021</v>
+      </c>
+      <c r="C36" t="s">
         <v>3022</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3023</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
       <c r="G36" s="20" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
@@ -12941,15 +13095,15 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="G37" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1">
@@ -12965,17 +13119,17 @@
       <c r="A42" t="s">
         <v>2618</v>
       </c>
-      <c r="E42" s="377" t="s">
-        <v>3004</v>
-      </c>
-      <c r="F42" s="379"/>
-      <c r="G42" s="379"/>
-      <c r="H42" s="379"/>
-      <c r="I42" s="379"/>
-      <c r="J42" s="379"/>
-      <c r="K42" s="379"/>
-      <c r="L42" s="379"/>
-      <c r="M42" s="378"/>
+      <c r="E42" s="380" t="s">
+        <v>3003</v>
+      </c>
+      <c r="F42" s="382"/>
+      <c r="G42" s="382"/>
+      <c r="H42" s="382"/>
+      <c r="I42" s="382"/>
+      <c r="J42" s="382"/>
+      <c r="K42" s="382"/>
+      <c r="L42" s="382"/>
+      <c r="M42" s="381"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1">
       <c r="B43" t="s">
@@ -13065,17 +13219,17 @@
       <c r="J47" s="181"/>
       <c r="K47" s="183"/>
       <c r="L47" s="20" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="M47" s="44"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1">
       <c r="A48" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="E48" s="42"/>
       <c r="F48" s="43" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="G48" s="43"/>
       <c r="H48" s="43"/>
@@ -13105,10 +13259,10 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="C50" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="E50" s="42"/>
       <c r="F50" s="43"/>
@@ -13124,10 +13278,10 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1">
       <c r="A51" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="C51" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="E51" s="42"/>
       <c r="F51" s="43"/>
@@ -13145,13 +13299,13 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="E52" s="42" t="s">
+        <v>3013</v>
+      </c>
+      <c r="F52" s="109" t="s">
         <v>3014</v>
-      </c>
-      <c r="F52" s="109" t="s">
-        <v>3015</v>
       </c>
       <c r="G52" s="43"/>
       <c r="H52" s="43"/>
@@ -13166,7 +13320,7 @@
         <v>691</v>
       </c>
       <c r="F53" s="109" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="G53" s="43"/>
       <c r="H53" s="43"/>
@@ -13185,7 +13339,7 @@
       </c>
       <c r="E54" s="108"/>
       <c r="F54" s="109" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="G54" s="43"/>
       <c r="H54" s="43"/>
@@ -13203,7 +13357,7 @@
         <v>1634</v>
       </c>
       <c r="E55" s="108" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
@@ -13219,7 +13373,7 @@
         <v>1550</v>
       </c>
       <c r="F56" s="287" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="G56" s="29"/>
       <c r="H56" s="29"/>
@@ -13231,12 +13385,12 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
       <c r="G58" s="20" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="H58" s="20"/>
     </row>
@@ -13245,39 +13399,39 @@
         <v>1884</v>
       </c>
       <c r="B59" t="s">
+        <v>3021</v>
+      </c>
+      <c r="C59" t="s">
         <v>3022</v>
-      </c>
-      <c r="C59" t="s">
-        <v>3023</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
       <c r="G59" s="20" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="H59" s="20"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="G60" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
       <c r="A64" s="22" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="B64" s="22"/>
       <c r="C64" t="s">
@@ -13286,19 +13440,19 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>3038</v>
-      </c>
-      <c r="E65" s="377" t="s">
-        <v>3004</v>
-      </c>
-      <c r="F65" s="379"/>
-      <c r="G65" s="379"/>
-      <c r="H65" s="379"/>
-      <c r="I65" s="379"/>
-      <c r="J65" s="379"/>
-      <c r="K65" s="379"/>
-      <c r="L65" s="379"/>
-      <c r="M65" s="378"/>
+        <v>3037</v>
+      </c>
+      <c r="E65" s="380" t="s">
+        <v>3003</v>
+      </c>
+      <c r="F65" s="382"/>
+      <c r="G65" s="382"/>
+      <c r="H65" s="382"/>
+      <c r="I65" s="382"/>
+      <c r="J65" s="382"/>
+      <c r="K65" s="382"/>
+      <c r="L65" s="382"/>
+      <c r="M65" s="381"/>
     </row>
     <row r="66" spans="1:13" ht="15.75" thickBot="1">
       <c r="B66" t="s">
@@ -13323,7 +13477,7 @@
         <v>142</v>
       </c>
       <c r="E67" s="42" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="F67" s="43" t="s">
         <v>345</v>
@@ -13340,7 +13494,7 @@
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
       <c r="E68" s="42" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="F68" s="43" t="s">
         <v>345</v>
@@ -13349,7 +13503,7 @@
       <c r="H68" s="43"/>
       <c r="I68" s="43"/>
       <c r="J68" s="45" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="K68" s="288">
         <v>125</v>
@@ -13359,7 +13513,7 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="E69" s="42"/>
       <c r="F69" s="43"/>
@@ -13373,11 +13527,11 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="E70" s="42"/>
       <c r="F70" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="I70" s="211"/>
       <c r="J70" s="155"/>
@@ -13387,7 +13541,7 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="E71" s="42"/>
       <c r="I71" s="143"/>
@@ -13398,14 +13552,14 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="D72">
         <v>150</v>
       </c>
       <c r="E72" s="42"/>
       <c r="F72" s="328" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="G72" s="43"/>
       <c r="H72" s="43"/>
@@ -13415,20 +13569,20 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="D73">
         <v>150</v>
       </c>
       <c r="E73" s="42"/>
       <c r="G73" s="109" t="s">
+        <v>3053</v>
+      </c>
+      <c r="H73" s="329" t="s">
         <v>3054</v>
       </c>
-      <c r="H73" s="329" t="s">
-        <v>3055</v>
-      </c>
       <c r="J73" s="43" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="K73" s="146">
         <v>150</v>
@@ -13438,15 +13592,15 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="E74" s="42"/>
       <c r="G74" s="109" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="H74" s="109"/>
       <c r="I74" s="109" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="J74" s="43"/>
       <c r="K74" s="43"/>
@@ -13455,7 +13609,7 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="D75">
         <v>125</v>
@@ -13472,14 +13626,14 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="D76">
         <v>125</v>
       </c>
       <c r="E76" s="42"/>
       <c r="F76" s="109" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="G76" s="43"/>
       <c r="H76" s="43"/>
@@ -13493,7 +13647,7 @@
       <c r="E77" s="108"/>
       <c r="F77" s="109"/>
       <c r="G77" s="109" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="H77" s="43"/>
       <c r="I77" s="43"/>
@@ -13525,24 +13679,24 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="20" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="B81" s="20"/>
       <c r="F81" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="G82" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="G83" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -13550,27 +13704,27 @@
         <v>362</v>
       </c>
       <c r="B85" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="H85" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="B86" t="s">
         <v>2645</v>
       </c>
       <c r="H86" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="K86" t="b">
         <v>1</v>
@@ -13578,7 +13732,7 @@
     </row>
     <row r="87" spans="1:15" ht="15.75" thickBot="1">
       <c r="A87" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -13588,15 +13742,15 @@
       <c r="B88" s="31"/>
       <c r="C88" s="31"/>
       <c r="D88" s="31"/>
-      <c r="E88" s="410"/>
-      <c r="F88" s="411"/>
-      <c r="G88" s="411"/>
-      <c r="H88" s="411"/>
-      <c r="I88" s="411"/>
-      <c r="J88" s="411"/>
-      <c r="K88" s="411"/>
-      <c r="L88" s="411"/>
-      <c r="M88" s="412"/>
+      <c r="E88" s="413"/>
+      <c r="F88" s="414"/>
+      <c r="G88" s="414"/>
+      <c r="H88" s="414"/>
+      <c r="I88" s="414"/>
+      <c r="J88" s="414"/>
+      <c r="K88" s="414"/>
+      <c r="L88" s="414"/>
+      <c r="M88" s="415"/>
       <c r="N88" s="31"/>
       <c r="O88" s="31"/>
     </row>
@@ -13654,7 +13808,7 @@
       <c r="C91" s="31"/>
       <c r="D91" s="31"/>
       <c r="E91" s="296" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="F91" s="66" t="s">
         <v>1647</v>
@@ -13692,7 +13846,7 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="31" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="B93" s="31"/>
       <c r="C93" s="31"/>
@@ -13734,7 +13888,7 @@
         <v>280</v>
       </c>
       <c r="D95" s="31" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="E95" s="296"/>
       <c r="F95" s="66"/>
@@ -13756,7 +13910,7 @@
         <v>1729</v>
       </c>
       <c r="C96" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="D96" s="31"/>
       <c r="E96" s="296"/>
@@ -13764,7 +13918,7 @@
       <c r="G96" s="66"/>
       <c r="H96" s="66"/>
       <c r="I96" s="66" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="J96" s="66"/>
       <c r="K96" s="66"/>
@@ -13786,12 +13940,12 @@
       <c r="G97" s="66"/>
       <c r="H97" s="66"/>
       <c r="I97" s="66" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="J97" s="66"/>
       <c r="K97" s="66"/>
       <c r="L97" s="66" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="M97" s="198"/>
       <c r="N97" s="31"/>
@@ -13808,7 +13962,7 @@
       <c r="G98" s="66"/>
       <c r="H98" s="66"/>
       <c r="I98" s="66" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="J98" s="66"/>
       <c r="K98" s="66"/>
@@ -13819,7 +13973,7 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="31" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="B99" s="31"/>
       <c r="D99" s="31"/>
@@ -13968,21 +14122,21 @@
       <c r="B107" s="31"/>
       <c r="C107" s="31"/>
       <c r="D107" s="31"/>
-      <c r="E107" s="413"/>
-      <c r="F107" s="413"/>
-      <c r="G107" s="413"/>
-      <c r="H107" s="413"/>
-      <c r="I107" s="413"/>
-      <c r="J107" s="413"/>
-      <c r="K107" s="413"/>
-      <c r="L107" s="413"/>
-      <c r="M107" s="413"/>
+      <c r="E107" s="416"/>
+      <c r="F107" s="416"/>
+      <c r="G107" s="416"/>
+      <c r="H107" s="416"/>
+      <c r="I107" s="416"/>
+      <c r="J107" s="416"/>
+      <c r="K107" s="416"/>
+      <c r="L107" s="416"/>
+      <c r="M107" s="416"/>
       <c r="N107" s="31"/>
       <c r="O107" s="31"/>
     </row>
     <row r="108" spans="1:15" ht="15.75" thickBot="1">
       <c r="A108" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="N108" s="31"/>
       <c r="O108" s="31"/>
@@ -13994,15 +14148,15 @@
       <c r="B109" s="31"/>
       <c r="C109" s="31"/>
       <c r="D109" s="31"/>
-      <c r="E109" s="410"/>
-      <c r="F109" s="411"/>
-      <c r="G109" s="411"/>
-      <c r="H109" s="411"/>
-      <c r="I109" s="411"/>
-      <c r="J109" s="411"/>
-      <c r="K109" s="411"/>
-      <c r="L109" s="411"/>
-      <c r="M109" s="412"/>
+      <c r="E109" s="413"/>
+      <c r="F109" s="414"/>
+      <c r="G109" s="414"/>
+      <c r="H109" s="414"/>
+      <c r="I109" s="414"/>
+      <c r="J109" s="414"/>
+      <c r="K109" s="414"/>
+      <c r="L109" s="414"/>
+      <c r="M109" s="415"/>
       <c r="N109" s="31"/>
       <c r="O109" s="31"/>
     </row>
@@ -14060,7 +14214,7 @@
       <c r="C112" s="31"/>
       <c r="D112" s="31"/>
       <c r="E112" s="296" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="F112" s="66" t="s">
         <v>345</v>
@@ -14098,7 +14252,7 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="31" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="B114" s="31"/>
       <c r="C114" s="31"/>
@@ -14140,7 +14294,7 @@
         <v>280</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="E116" s="296"/>
       <c r="F116" s="66"/>
@@ -14162,7 +14316,7 @@
         <v>1729</v>
       </c>
       <c r="C117" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="D117" s="31"/>
       <c r="E117" s="296"/>
@@ -14170,7 +14324,7 @@
       <c r="G117" s="66"/>
       <c r="H117" s="66"/>
       <c r="I117" s="66" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="J117" s="66"/>
       <c r="K117" s="66"/>
@@ -14192,12 +14346,12 @@
       <c r="G118" s="66"/>
       <c r="H118" s="66"/>
       <c r="I118" s="66" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="J118" s="66"/>
       <c r="K118" s="66"/>
       <c r="L118" s="66" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="M118" s="198"/>
       <c r="N118" s="31"/>
@@ -14214,7 +14368,7 @@
       <c r="G119" s="66"/>
       <c r="H119" s="66"/>
       <c r="I119" s="66" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="J119" s="66"/>
       <c r="K119" s="66"/>
@@ -14225,7 +14379,7 @@
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="31" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="B120" s="31"/>
       <c r="D120" s="31"/>
@@ -14385,15 +14539,15 @@
       <c r="D129" s="332"/>
       <c r="E129" s="31"/>
       <c r="F129" s="31"/>
-      <c r="G129" s="413"/>
-      <c r="H129" s="413"/>
-      <c r="I129" s="413"/>
-      <c r="J129" s="413"/>
-      <c r="K129" s="413"/>
-      <c r="L129" s="413"/>
-      <c r="M129" s="413"/>
-      <c r="N129" s="413"/>
-      <c r="O129" s="413"/>
+      <c r="G129" s="416"/>
+      <c r="H129" s="416"/>
+      <c r="I129" s="416"/>
+      <c r="J129" s="416"/>
+      <c r="K129" s="416"/>
+      <c r="L129" s="416"/>
+      <c r="M129" s="416"/>
+      <c r="N129" s="416"/>
+      <c r="O129" s="416"/>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="31"/>
@@ -17319,49 +17473,49 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13">
-      <c r="B2" s="414" t="s">
+      <c r="B2" s="417" t="s">
         <v>2045</v>
       </c>
-      <c r="C2" s="415"/>
-      <c r="D2" s="416"/>
-      <c r="F2" s="414" t="s">
+      <c r="C2" s="418"/>
+      <c r="D2" s="419"/>
+      <c r="F2" s="417" t="s">
         <v>2593</v>
       </c>
-      <c r="G2" s="415"/>
-      <c r="H2" s="415"/>
-      <c r="I2" s="416"/>
-      <c r="K2" s="414" t="s">
+      <c r="G2" s="418"/>
+      <c r="H2" s="418"/>
+      <c r="I2" s="419"/>
+      <c r="K2" s="417" t="s">
         <v>2595</v>
       </c>
-      <c r="L2" s="415"/>
-      <c r="M2" s="416"/>
+      <c r="L2" s="418"/>
+      <c r="M2" s="419"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="417"/>
-      <c r="C3" s="418"/>
-      <c r="D3" s="419"/>
-      <c r="F3" s="417"/>
-      <c r="G3" s="418"/>
-      <c r="H3" s="418"/>
-      <c r="I3" s="419"/>
-      <c r="K3" s="417"/>
-      <c r="L3" s="418"/>
-      <c r="M3" s="419"/>
+      <c r="B3" s="420"/>
+      <c r="C3" s="421"/>
+      <c r="D3" s="422"/>
+      <c r="F3" s="420"/>
+      <c r="G3" s="421"/>
+      <c r="H3" s="421"/>
+      <c r="I3" s="422"/>
+      <c r="K3" s="420"/>
+      <c r="L3" s="421"/>
+      <c r="M3" s="422"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="417"/>
-      <c r="C4" s="418"/>
-      <c r="D4" s="419"/>
-      <c r="F4" s="417"/>
-      <c r="G4" s="418"/>
-      <c r="H4" s="418"/>
-      <c r="I4" s="419"/>
-      <c r="K4" s="417"/>
-      <c r="L4" s="418"/>
-      <c r="M4" s="419"/>
+      <c r="B4" s="420"/>
+      <c r="C4" s="421"/>
+      <c r="D4" s="422"/>
+      <c r="F4" s="420"/>
+      <c r="G4" s="421"/>
+      <c r="H4" s="421"/>
+      <c r="I4" s="422"/>
+      <c r="K4" s="420"/>
+      <c r="L4" s="421"/>
+      <c r="M4" s="422"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="420" t="s">
+      <c r="A5" s="423" t="s">
         <v>1888</v>
       </c>
       <c r="B5" s="72"/>
@@ -17388,7 +17542,7 @@
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="420"/>
+      <c r="A6" s="423"/>
       <c r="B6" s="72"/>
       <c r="C6" s="32" t="s">
         <v>56</v>
@@ -17413,7 +17567,7 @@
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="420"/>
+      <c r="A7" s="423"/>
       <c r="B7" s="72"/>
       <c r="C7" s="32" t="s">
         <v>2597</v>
@@ -17446,7 +17600,7 @@
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="420" t="s">
+      <c r="A9" s="423" t="s">
         <v>201</v>
       </c>
       <c r="B9" s="277" t="s">
@@ -17467,7 +17621,7 @@
       <c r="M9" s="225"/>
     </row>
     <row r="10" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A10" s="420"/>
+      <c r="A10" s="423"/>
       <c r="B10" s="277"/>
       <c r="C10" s="278" t="s">
         <v>2602</v>
@@ -17489,7 +17643,7 @@
       <c r="M10" s="225"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="420"/>
+      <c r="A11" s="423"/>
       <c r="B11" s="277"/>
       <c r="C11" s="133"/>
       <c r="D11" s="225"/>
@@ -17509,7 +17663,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="420"/>
+      <c r="A12" s="423"/>
       <c r="B12" s="277"/>
       <c r="C12" s="133"/>
       <c r="D12" s="225"/>
@@ -17689,23 +17843,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="421" t="s">
+      <c r="A1" s="424" t="s">
         <v>2235</v>
       </c>
-      <c r="B1" s="421"/>
-      <c r="C1" s="421"/>
-      <c r="D1" s="421"/>
-      <c r="E1" s="421"/>
-      <c r="F1" s="421"/>
-      <c r="I1" s="421" t="s">
+      <c r="B1" s="424"/>
+      <c r="C1" s="424"/>
+      <c r="D1" s="424"/>
+      <c r="E1" s="424"/>
+      <c r="F1" s="424"/>
+      <c r="I1" s="424" t="s">
         <v>2247</v>
       </c>
-      <c r="J1" s="421"/>
-      <c r="K1" s="421"/>
-      <c r="L1" s="421"/>
-      <c r="M1" s="421"/>
-      <c r="N1" s="421"/>
-      <c r="O1" s="421"/>
+      <c r="J1" s="424"/>
+      <c r="K1" s="424"/>
+      <c r="L1" s="424"/>
+      <c r="M1" s="424"/>
+      <c r="N1" s="424"/>
+      <c r="O1" s="424"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -17861,28 +18015,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="374" t="s">
+      <c r="A12" s="377" t="s">
         <v>2249</v>
       </c>
-      <c r="B12" s="376"/>
-      <c r="C12" s="376"/>
-      <c r="D12" s="376"/>
-      <c r="E12" s="376"/>
-      <c r="F12" s="376"/>
-      <c r="G12" s="376"/>
-      <c r="H12" s="375"/>
-      <c r="I12" s="374" t="s">
+      <c r="B12" s="379"/>
+      <c r="C12" s="379"/>
+      <c r="D12" s="379"/>
+      <c r="E12" s="379"/>
+      <c r="F12" s="379"/>
+      <c r="G12" s="379"/>
+      <c r="H12" s="378"/>
+      <c r="I12" s="377" t="s">
         <v>2249</v>
       </c>
-      <c r="J12" s="376"/>
-      <c r="K12" s="376"/>
-      <c r="L12" s="376"/>
-      <c r="M12" s="376"/>
-      <c r="N12" s="376"/>
-      <c r="O12" s="376"/>
-      <c r="P12" s="376"/>
-      <c r="Q12" s="376"/>
-      <c r="R12" s="375"/>
+      <c r="J12" s="379"/>
+      <c r="K12" s="379"/>
+      <c r="L12" s="379"/>
+      <c r="M12" s="379"/>
+      <c r="N12" s="379"/>
+      <c r="O12" s="379"/>
+      <c r="P12" s="379"/>
+      <c r="Q12" s="379"/>
+      <c r="R12" s="378"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="23" t="s">
@@ -18110,14 +18264,14 @@
       <c r="R21" s="30"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="421" t="s">
+      <c r="A24" s="424" t="s">
         <v>2235</v>
       </c>
-      <c r="B24" s="421"/>
-      <c r="C24" s="421"/>
-      <c r="D24" s="421"/>
-      <c r="E24" s="421"/>
-      <c r="F24" s="421"/>
+      <c r="B24" s="424"/>
+      <c r="C24" s="424"/>
+      <c r="D24" s="424"/>
+      <c r="E24" s="424"/>
+      <c r="F24" s="424"/>
       <c r="H24" s="233" t="s">
         <v>2247</v>
       </c>
@@ -18127,11 +18281,11 @@
       <c r="L24" s="233"/>
       <c r="M24" s="233"/>
       <c r="N24" s="233"/>
-      <c r="P24" s="421" t="s">
+      <c r="P24" s="424" t="s">
         <v>2288</v>
       </c>
-      <c r="Q24" s="421"/>
-      <c r="R24" s="421"/>
+      <c r="Q24" s="424"/>
+      <c r="R24" s="424"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="98" t="s">
@@ -18371,28 +18525,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="374" t="s">
+      <c r="A35" s="377" t="s">
         <v>2289</v>
       </c>
-      <c r="B35" s="376"/>
-      <c r="C35" s="376"/>
-      <c r="D35" s="376"/>
-      <c r="E35" s="376"/>
-      <c r="F35" s="376"/>
-      <c r="G35" s="376"/>
-      <c r="H35" s="375"/>
-      <c r="I35" s="374" t="s">
+      <c r="B35" s="379"/>
+      <c r="C35" s="379"/>
+      <c r="D35" s="379"/>
+      <c r="E35" s="379"/>
+      <c r="F35" s="379"/>
+      <c r="G35" s="379"/>
+      <c r="H35" s="378"/>
+      <c r="I35" s="377" t="s">
         <v>982</v>
       </c>
-      <c r="J35" s="376"/>
-      <c r="K35" s="376"/>
-      <c r="L35" s="376"/>
-      <c r="M35" s="376"/>
-      <c r="N35" s="376"/>
-      <c r="O35" s="376"/>
-      <c r="P35" s="376"/>
-      <c r="Q35" s="376"/>
-      <c r="R35" s="375"/>
+      <c r="J35" s="379"/>
+      <c r="K35" s="379"/>
+      <c r="L35" s="379"/>
+      <c r="M35" s="379"/>
+      <c r="N35" s="379"/>
+      <c r="O35" s="379"/>
+      <c r="P35" s="379"/>
+      <c r="Q35" s="379"/>
+      <c r="R35" s="378"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="23" t="s">
@@ -18721,7 +18875,7 @@
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="20" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
@@ -18732,7 +18886,7 @@
         <v>345</v>
       </c>
       <c r="H49" s="43" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="I49" s="43"/>
       <c r="J49" s="20"/>
@@ -18747,7 +18901,7 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="20" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -18790,7 +18944,7 @@
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
@@ -18802,7 +18956,7 @@
       </c>
       <c r="J52" s="20"/>
       <c r="K52" s="20" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="L52" s="20"/>
       <c r="M52" s="20"/>
@@ -18839,7 +18993,7 @@
         <v>142</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
@@ -18889,7 +19043,7 @@
       <c r="J56" s="20"/>
       <c r="K56" s="20"/>
       <c r="L56" s="20" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="M56" s="20"/>
       <c r="N56" s="20"/>
@@ -18933,7 +19087,7 @@
       <c r="J58" s="20"/>
       <c r="K58" s="20"/>
       <c r="L58" s="20" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="M58" s="20"/>
       <c r="N58" s="20"/>
@@ -18957,7 +19111,7 @@
       <c r="J59" s="20"/>
       <c r="K59" s="20"/>
       <c r="L59" s="20" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="M59" s="20"/>
       <c r="N59" s="20"/>
@@ -18968,7 +19122,7 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="20" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
@@ -18981,7 +19135,7 @@
       <c r="J60" s="20"/>
       <c r="K60" s="20"/>
       <c r="L60" s="31" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="M60" s="20"/>
       <c r="N60" s="20"/>
@@ -18992,7 +19146,7 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="20" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
@@ -19014,7 +19168,7 @@
     <row r="62" spans="1:18">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
@@ -19036,7 +19190,7 @@
     <row r="63" spans="1:18">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
@@ -19058,7 +19212,7 @@
     <row r="64" spans="1:18">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
@@ -31108,10 +31262,10 @@
     </row>
     <row r="11" spans="3:7">
       <c r="C11" s="137" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="G11" s="137" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="12" spans="3:7">
@@ -31119,7 +31273,7 @@
         <v>534</v>
       </c>
       <c r="G12" s="49" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="13" spans="3:7">
@@ -31127,7 +31281,7 @@
         <v>535</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="14" spans="3:7">
@@ -31135,7 +31289,7 @@
         <v>536</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="15" spans="3:7">
@@ -31143,15 +31297,15 @@
         <v>537</v>
       </c>
       <c r="G15" s="49" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="16" spans="3:7">
       <c r="C16" s="137" t="s">
+        <v>3137</v>
+      </c>
+      <c r="G16" s="137" t="s">
         <v>3138</v>
-      </c>
-      <c r="G16" s="137" t="s">
-        <v>3139</v>
       </c>
     </row>
     <row r="17" spans="2:12">
@@ -31159,7 +31313,7 @@
         <v>538</v>
       </c>
       <c r="G17" s="49" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="18" spans="2:12">
@@ -31167,7 +31321,7 @@
         <v>539</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="19" spans="2:12">
@@ -31175,7 +31329,7 @@
         <v>540</v>
       </c>
       <c r="G19" s="49" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -31183,7 +31337,7 @@
         <v>541</v>
       </c>
       <c r="G20" s="49" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="22" spans="2:12">
@@ -31320,12 +31474,12 @@
         <v>1</v>
       </c>
       <c r="J27" s="137" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="29" spans="2:12">
       <c r="C29" s="49" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="F29" s="150">
         <v>1</v>
@@ -31345,7 +31499,7 @@
     </row>
     <row r="30" spans="2:12">
       <c r="C30" s="49" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="32" spans="2:12">
@@ -31362,10 +31516,10 @@
         <v>0</v>
       </c>
       <c r="J32" s="137" t="s">
+        <v>3121</v>
+      </c>
+      <c r="K32" s="49" t="s">
         <v>3122</v>
-      </c>
-      <c r="K32" s="49" t="s">
-        <v>3123</v>
       </c>
       <c r="L32" s="49">
         <v>0</v>
@@ -31388,10 +31542,10 @@
         <v>1</v>
       </c>
       <c r="J33" s="49" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="K33" s="49" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="L33" s="49">
         <v>15</v>
@@ -31414,10 +31568,10 @@
         <v>1</v>
       </c>
       <c r="J34" s="49" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="K34" s="49" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="L34" s="49">
         <v>15</v>
@@ -33029,7 +33183,7 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="B5" s="20" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>1639</v>
@@ -33048,18 +33202,18 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1">
       <c r="B6" s="31" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="F6" s="76"/>
       <c r="G6" s="31"/>
       <c r="H6" s="20" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="N6" s="27"/>
     </row>
     <row r="7" spans="1:14">
       <c r="C7" s="20" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="F7" s="26"/>
       <c r="I7" s="20" t="s">
@@ -33076,7 +33230,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="C8" s="20" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="F8" s="26"/>
       <c r="J8" s="108" t="s">
@@ -33090,7 +33244,7 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="C9" s="20" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="F9" s="26"/>
       <c r="J9" s="144" t="s">
@@ -33108,13 +33262,13 @@
       </c>
       <c r="F10" s="26"/>
       <c r="H10" s="20" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="N10" s="27"/>
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="196" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="C11" s="196"/>
       <c r="D11" s="196"/>
@@ -33155,7 +33309,7 @@
         <v>1948</v>
       </c>
       <c r="K13" s="287" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="L13" s="288"/>
       <c r="N13" s="27"/>
@@ -33166,13 +33320,13 @@
       </c>
       <c r="F14" s="26"/>
       <c r="H14" s="20" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="N14" s="27"/>
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="20" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="F15" s="26"/>
       <c r="N15" s="27"/>
@@ -33189,7 +33343,7 @@
         <v>2648</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="N17" s="27"/>
     </row>
@@ -33221,17 +33375,17 @@
     </row>
     <row r="21" spans="1:14">
       <c r="C21" s="20" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="C22" s="20" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="C23" s="20" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -33608,13 +33762,18 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:E17"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
@@ -33657,13 +33816,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="D5" s="26" t="s">
-        <v>733</v>
+        <v>642</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="27"/>
       <c r="K5" s="184" t="s">
-        <v>733</v>
+        <v>642</v>
       </c>
       <c r="L5" s="155"/>
       <c r="M5" s="155"/>
@@ -33672,35 +33831,41 @@
     <row r="6" spans="1:14">
       <c r="D6" s="26"/>
       <c r="E6" s="20" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="27"/>
       <c r="K6" s="184"/>
       <c r="L6" s="155" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="M6" s="155"/>
       <c r="N6" s="185"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>2660</v>
-      </c>
-      <c r="D7" s="26"/>
+        <v>2659</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>142</v>
+      </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="27"/>
-      <c r="K7" s="184"/>
+      <c r="K7" s="184" t="s">
+        <v>142</v>
+      </c>
       <c r="L7" s="155"/>
       <c r="M7" s="155"/>
       <c r="N7" s="185"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>2661</v>
-      </c>
-      <c r="D8" s="26"/>
+        <v>2660</v>
+      </c>
+      <c r="D8" s="26">
+        <v>1</v>
+      </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="27"/>
@@ -33726,7 +33891,7 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="H12" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -33737,7 +33902,9 @@
         <v>645</v>
       </c>
       <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
+      <c r="I13" s="24" t="s">
+        <v>3185</v>
+      </c>
       <c r="J13" s="24"/>
       <c r="K13" s="25"/>
     </row>
@@ -33776,7 +33943,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:14">
       <c r="B17" t="s">
         <v>2654</v>
       </c>
@@ -33789,44 +33956,320 @@
       <c r="J17" s="20"/>
       <c r="K17" s="27"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:14">
       <c r="G18" s="26"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="27"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:14">
       <c r="G19" s="26"/>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
       <c r="K19" s="27"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1">
+    <row r="20" spans="1:14" ht="15.75" thickBot="1">
       <c r="G20" s="28"/>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
       <c r="K20" s="30"/>
     </row>
-    <row r="24" spans="1:11">
-      <c r="D24" t="s">
-        <v>2345</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
+    <row r="23" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="24" spans="1:14">
+      <c r="D24" s="23" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24" t="s">
+        <v>3169</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="K24" s="181" t="s">
+        <v>1899</v>
+      </c>
+      <c r="L24" s="182"/>
+      <c r="M24" s="182" t="s">
+        <v>3169</v>
+      </c>
+      <c r="N24" s="183"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="D25" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="27"/>
+      <c r="K25" s="184" t="s">
+        <v>438</v>
+      </c>
+      <c r="L25" s="155"/>
+      <c r="M25" s="155"/>
+      <c r="N25" s="185"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="D26" s="26"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="27"/>
+      <c r="K26" s="184"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="185"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="D27" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="27"/>
+      <c r="K27" s="184" t="s">
+        <v>733</v>
+      </c>
+      <c r="L27" s="155"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="185"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="D28" s="26"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="27"/>
+      <c r="K28" s="184"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="155"/>
+      <c r="N28" s="185"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
         <v>2659</v>
       </c>
-      <c r="D26" t="s">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="D28" t="s">
+      <c r="D29" s="26" t="s">
+        <v>782</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="27"/>
+      <c r="K29" s="26" t="s">
+        <v>782</v>
+      </c>
+      <c r="L29" s="20"/>
+      <c r="M29" s="155"/>
+      <c r="N29" s="185"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>2660</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="20" t="s">
+        <v>3187</v>
+      </c>
+      <c r="F30" s="20"/>
+      <c r="G30" s="27"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="20" t="s">
+        <v>3188</v>
+      </c>
+      <c r="M30" s="155"/>
+      <c r="N30" s="185"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" thickBot="1">
+      <c r="D31" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
+      <c r="K31" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="L31" s="29"/>
+      <c r="M31" s="187"/>
+      <c r="N31" s="188"/>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="15.75" thickBot="1"/>
+    <row r="35" spans="2:14">
+      <c r="B35" t="s">
+        <v>2655</v>
+      </c>
+      <c r="G35" s="23" t="s">
         <v>645</v>
       </c>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24" t="s">
+        <v>3186</v>
+      </c>
+      <c r="J35" s="24"/>
+      <c r="K35" s="25"/>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="G36" s="26"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="27"/>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" t="s">
+        <v>2653</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2656</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>865</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="27"/>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="D38" t="s">
+        <v>2657</v>
+      </c>
+      <c r="G38" s="26"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="27"/>
+      <c r="N38" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" t="s">
+        <v>2654</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2658</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>642</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="27"/>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="G40" s="26"/>
+      <c r="H40" s="20" t="s">
+        <v>3184</v>
+      </c>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="27"/>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="G41" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="27"/>
+    </row>
+    <row r="42" spans="2:14" ht="15.75" thickBot="1">
+      <c r="G42" s="28" t="s">
+        <v>738</v>
+      </c>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29" t="s">
+        <v>3190</v>
+      </c>
+      <c r="K42" s="30"/>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="H43" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="G44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="352"/>
+      <c r="B50" s="352"/>
+      <c r="C50" s="352"/>
+      <c r="D50" s="352" t="s">
+        <v>3192</v>
+      </c>
+      <c r="E50" s="352" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="352" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B51" s="352"/>
+      <c r="C51" s="352" t="s">
+        <v>3194</v>
+      </c>
+      <c r="D51" s="352" t="s">
+        <v>3197</v>
+      </c>
+      <c r="E51" s="352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="352" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B52" s="352"/>
+      <c r="C52" s="352" t="s">
+        <v>3196</v>
+      </c>
+      <c r="D52" s="352" t="s">
+        <v>3198</v>
+      </c>
+      <c r="E52" s="352" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="60">
+      <c r="A53" s="352" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B53" s="352"/>
+      <c r="C53" s="352" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D53" s="352">
+        <v>0</v>
+      </c>
+      <c r="E53" s="350" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="49"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="49"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33865,26 +34308,26 @@
     </row>
     <row r="2" spans="1:32" ht="15.75" thickBot="1">
       <c r="E2" t="s">
+        <v>2758</v>
+      </c>
+      <c r="J2" t="s">
         <v>2759</v>
       </c>
-      <c r="J2" t="s">
-        <v>2760</v>
-      </c>
       <c r="M2" s="26" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="N2" s="27"/>
       <c r="O2" s="20"/>
       <c r="P2" s="26" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="Q2" s="27"/>
       <c r="AB2" s="26" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="AC2" s="27"/>
       <c r="AE2" s="26" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="AF2" s="27"/>
     </row>
@@ -33906,10 +34349,10 @@
       </c>
       <c r="Q3" s="27"/>
       <c r="S3" t="s">
+        <v>2758</v>
+      </c>
+      <c r="Y3" t="s">
         <v>2759</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>2760</v>
       </c>
       <c r="AB3" s="26" t="s">
         <v>2640</v>
@@ -33922,7 +34365,7 @@
     </row>
     <row r="4" spans="1:32" ht="15.75" thickBot="1">
       <c r="A4" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="27"/>
@@ -33996,7 +34439,7 @@
     <row r="6" spans="1:32" ht="15.75" thickBot="1">
       <c r="A6" s="26"/>
       <c r="B6" s="38" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="20"/>
@@ -34047,7 +34490,7 @@
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
       <c r="V7" s="20" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
@@ -34057,19 +34500,19 @@
     <row r="8" spans="1:32" ht="15.75" thickBot="1">
       <c r="A8" s="26"/>
       <c r="B8" s="38" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="20"/>
       <c r="G8" s="26" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="27"/>
       <c r="P8" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="S8" s="26"/>
       <c r="T8" s="20"/>
@@ -34082,7 +34525,7 @@
       <c r="Y8" s="20"/>
       <c r="Z8" s="27"/>
       <c r="AB8" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="15.75" thickBot="1">
@@ -34101,17 +34544,17 @@
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
       <c r="V9" s="26" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="W9" s="27"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="27"/>
       <c r="AB9" t="s">
+        <v>2779</v>
+      </c>
+      <c r="AC9" t="s">
         <v>2780</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>2781</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="15.75" thickBot="1">
@@ -34125,7 +34568,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="27"/>
       <c r="N10" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="S10" s="26"/>
       <c r="T10" s="20"/>
@@ -34138,10 +34581,10 @@
       <c r="Y10" s="20"/>
       <c r="Z10" s="27"/>
       <c r="AB10" t="s">
+        <v>2781</v>
+      </c>
+      <c r="AC10" t="s">
         <v>2782</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>2783</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -34159,7 +34602,7 @@
       <c r="J11" s="20"/>
       <c r="K11" s="27"/>
       <c r="N11" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="S11" s="26"/>
       <c r="T11" s="20"/>
@@ -34172,15 +34615,15 @@
       <c r="Y11" s="20"/>
       <c r="Z11" s="27"/>
       <c r="AB11" t="s">
+        <v>2783</v>
+      </c>
+      <c r="AD11" t="s">
         <v>2784</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>2785</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="15.75" thickBot="1">
       <c r="A12" s="26" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="B12" s="27"/>
       <c r="E12" s="26"/>
@@ -34242,7 +34685,7 @@
       <c r="T14" s="25"/>
       <c r="U14" s="20"/>
       <c r="V14" s="76" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
@@ -34276,16 +34719,16 @@
       </c>
       <c r="B16" s="30"/>
       <c r="E16" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="J16" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="S16" s="28"/>
       <c r="T16" s="30"/>
       <c r="U16" s="29"/>
       <c r="V16" s="29" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="W16" s="29"/>
       <c r="X16" s="29"/>
@@ -34298,13 +34741,13 @@
       </c>
       <c r="Q17" s="25"/>
       <c r="S17" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="Z17" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="AB17" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="18" spans="5:31">
@@ -34313,7 +34756,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="P18" s="26" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="Q18" s="27"/>
       <c r="AB18" s="303">
@@ -34323,31 +34766,31 @@
     </row>
     <row r="19" spans="5:31">
       <c r="E19" s="26" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="F19" s="27"/>
       <c r="H19" t="s">
+        <v>2767</v>
+      </c>
+      <c r="L19" t="s">
         <v>2768</v>
-      </c>
-      <c r="L19" t="s">
-        <v>2769</v>
       </c>
       <c r="P19" s="26" t="s">
         <v>2640</v>
       </c>
       <c r="Q19" s="27"/>
       <c r="S19" t="s">
+        <v>2771</v>
+      </c>
+      <c r="T19" t="s">
         <v>2772</v>
       </c>
-      <c r="T19" t="s">
-        <v>2773</v>
-      </c>
       <c r="AB19" s="26" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="AC19" s="27"/>
       <c r="AE19" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="20" spans="5:31">
@@ -34356,20 +34799,20 @@
       </c>
       <c r="F20" s="27"/>
       <c r="H20" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="L20" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="P20" s="26" t="s">
         <v>91</v>
       </c>
       <c r="Q20" s="27"/>
       <c r="S20" t="s">
+        <v>2774</v>
+      </c>
+      <c r="T20" t="s">
         <v>2775</v>
-      </c>
-      <c r="T20" t="s">
-        <v>2776</v>
       </c>
       <c r="AB20" s="26" t="s">
         <v>2640</v>
@@ -34390,7 +34833,7 @@
       </c>
       <c r="AC21" s="27"/>
       <c r="AE21" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="22" spans="5:31" ht="15.75" thickBot="1">
@@ -34419,25 +34862,25 @@
     </row>
     <row r="24" spans="5:31">
       <c r="P24" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="V24" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="25" spans="5:31">
       <c r="V25" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="26" spans="5:31">
       <c r="V26" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="27" spans="5:31">
       <c r="V27" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
   </sheetData>
@@ -34450,8 +34893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:V272"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34486,12 +34929,12 @@
     </row>
     <row r="7" spans="2:18">
       <c r="Q7" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="15.75" thickBot="1">
       <c r="Q8" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="9" spans="2:18">
@@ -34504,7 +34947,7 @@
       </c>
       <c r="H9" s="25"/>
       <c r="K9" s="290"/>
-      <c r="L9" s="427" t="s">
+      <c r="L9" s="351" t="s">
         <v>2346</v>
       </c>
       <c r="M9" s="291"/>
@@ -34642,7 +35085,7 @@
       </c>
       <c r="R16" s="27"/>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="1:18">
       <c r="B17" s="251"/>
       <c r="C17" s="252"/>
       <c r="D17" s="253"/>
@@ -34656,7 +35099,7 @@
       <c r="Q17" s="252"/>
       <c r="R17" s="253"/>
     </row>
-    <row r="18" spans="2:18" ht="15.75" thickBot="1">
+    <row r="18" spans="1:18" ht="15.75" thickBot="1">
       <c r="B18" s="254"/>
       <c r="C18" s="255"/>
       <c r="D18" s="256"/>
@@ -34670,13 +35113,234 @@
       <c r="Q18" s="255"/>
       <c r="R18" s="256"/>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="1:18">
       <c r="C19" t="s">
         <v>676</v>
       </c>
       <c r="G19" t="s">
         <v>675</v>
       </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="C22" t="s">
+        <v>3172</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3172</v>
+      </c>
+      <c r="K22" t="s">
+        <v>3172</v>
+      </c>
+      <c r="O22" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" thickBot="1">
+      <c r="C23" t="s">
+        <v>3154</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3155</v>
+      </c>
+      <c r="K23" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="25"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="25"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="C25" s="26"/>
+      <c r="D25" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="20" t="s">
+        <v>3160</v>
+      </c>
+      <c r="I25" s="27"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="20" t="s">
+        <v>3162</v>
+      </c>
+      <c r="M25" s="27"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="C26" s="26"/>
+      <c r="D26" s="20" t="s">
+        <v>3157</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="27"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="27" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="C27" s="26"/>
+      <c r="D27" s="20" t="s">
+        <v>3158</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G27" s="26"/>
+      <c r="H27" s="20" t="s">
+        <v>3161</v>
+      </c>
+      <c r="I27" s="27"/>
+      <c r="J27" t="s">
+        <v>3165</v>
+      </c>
+      <c r="K27" s="26"/>
+      <c r="L27" s="20" t="s">
+        <v>3163</v>
+      </c>
+      <c r="M27" s="27"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="C28" s="26"/>
+      <c r="D28" s="31" t="s">
+        <v>3159</v>
+      </c>
+      <c r="E28" s="27"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="27"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="27" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" thickBot="1">
+      <c r="C29" s="28"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="30"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="30"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="D31" t="s">
+        <v>3166</v>
+      </c>
+      <c r="H31" t="s">
+        <v>3166</v>
+      </c>
+      <c r="L31" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="425" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="425"/>
+      <c r="D32" t="s">
+        <v>3167</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3182</v>
+      </c>
+      <c r="J32" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="425"/>
+      <c r="B33" s="425"/>
+      <c r="D33" t="s">
+        <v>3168</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3175</v>
+      </c>
+      <c r="J33" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="425"/>
+      <c r="B34" s="425"/>
+      <c r="F34" t="s">
+        <v>3174</v>
+      </c>
+      <c r="J34" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="425"/>
+      <c r="B35" s="425"/>
+      <c r="F35" t="s">
+        <v>3170</v>
+      </c>
+      <c r="J35" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="425"/>
+      <c r="B36" s="425"/>
+      <c r="G36" t="s">
+        <v>3171</v>
+      </c>
+      <c r="K36" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="425"/>
+      <c r="B37" s="425"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="425"/>
+      <c r="B38" s="425"/>
+      <c r="G38" t="s">
+        <v>3176</v>
+      </c>
+      <c r="K38" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="425"/>
+      <c r="B39" s="425"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="425" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="425"/>
+      <c r="F40" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="425"/>
+      <c r="B41" s="425"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="425"/>
+      <c r="B42" s="425"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
@@ -36124,6 +36788,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A32:B39"/>
+    <mergeCell ref="A40:B42"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -37477,11 +38145,11 @@
         <v>918</v>
       </c>
       <c r="B2" s="88" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="C2" s="88"/>
       <c r="E2" s="49" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="G2" s="292" t="s">
         <v>202</v>
@@ -37501,17 +38169,17 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="88" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="B3" s="88" t="s">
         <v>392</v>
       </c>
       <c r="C3" s="88"/>
       <c r="E3" s="49" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="H3" s="66" t="s">
         <v>345</v>
@@ -37523,8 +38191,8 @@
       <c r="K3" s="91"/>
       <c r="L3" s="295"/>
       <c r="M3" s="92"/>
-      <c r="N3" s="422" t="s">
-        <v>2687</v>
+      <c r="N3" s="426" t="s">
+        <v>2686</v>
       </c>
       <c r="O3" s="43"/>
       <c r="P3" s="43"/>
@@ -37532,17 +38200,17 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="88" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="B4" s="88" t="s">
         <v>2369</v>
       </c>
       <c r="C4" s="88"/>
       <c r="E4" s="49" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="H4" s="66" t="s">
         <v>1647</v>
@@ -37556,7 +38224,7 @@
         <v>940</v>
       </c>
       <c r="M4" s="198"/>
-      <c r="N4" s="422"/>
+      <c r="N4" s="426"/>
       <c r="O4" s="43"/>
       <c r="P4" s="43"/>
       <c r="Q4" s="44"/>
@@ -37567,13 +38235,13 @@
       <c r="I5" s="66"/>
       <c r="J5" s="66"/>
       <c r="K5" s="297" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="L5" s="298">
         <v>12345</v>
       </c>
       <c r="M5" s="299"/>
-      <c r="N5" s="422"/>
+      <c r="N5" s="426"/>
       <c r="O5" s="43"/>
       <c r="P5" s="43"/>
       <c r="Q5" s="44"/>
@@ -37591,7 +38259,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
       <c r="M6" s="66"/>
-      <c r="N6" s="422"/>
+      <c r="N6" s="426"/>
       <c r="O6" s="43"/>
       <c r="P6" s="43"/>
       <c r="Q6" s="44"/>
@@ -37603,7 +38271,7 @@
         <v>1324</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="H7" s="66" t="s">
         <v>2125</v>
@@ -37615,7 +38283,7 @@
       <c r="K7" s="91"/>
       <c r="L7" s="295"/>
       <c r="M7" s="92"/>
-      <c r="N7" s="422"/>
+      <c r="N7" s="426"/>
       <c r="O7" s="43"/>
       <c r="P7" s="43"/>
       <c r="Q7" s="44"/>
@@ -37637,7 +38305,7 @@
         <v>456</v>
       </c>
       <c r="M8" s="198"/>
-      <c r="N8" s="422"/>
+      <c r="N8" s="426"/>
       <c r="O8" s="43"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
@@ -37653,13 +38321,13 @@
       <c r="I9" s="66"/>
       <c r="J9" s="66"/>
       <c r="K9" s="297" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="L9" s="298">
         <v>12346</v>
       </c>
       <c r="M9" s="299"/>
-      <c r="N9" s="422"/>
+      <c r="N9" s="426"/>
       <c r="O9" s="43"/>
       <c r="P9" s="43"/>
       <c r="Q9" s="44"/>
@@ -37677,7 +38345,7 @@
       <c r="K10" s="66"/>
       <c r="L10" s="66"/>
       <c r="M10" s="66"/>
-      <c r="N10" s="422"/>
+      <c r="N10" s="426"/>
       <c r="O10" s="43"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
@@ -37690,12 +38358,12 @@
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
       <c r="J11" s="66" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="K11" s="66"/>
       <c r="L11" s="66"/>
       <c r="M11" s="66"/>
-      <c r="N11" s="422"/>
+      <c r="N11" s="426"/>
       <c r="O11" s="43"/>
       <c r="P11" s="43"/>
       <c r="Q11" s="44"/>
@@ -37711,7 +38379,7 @@
       <c r="K12" s="66"/>
       <c r="L12" s="66"/>
       <c r="M12" s="66"/>
-      <c r="N12" s="422"/>
+      <c r="N12" s="426"/>
       <c r="O12" s="43"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
@@ -37724,17 +38392,17 @@
       <c r="K13" s="43"/>
       <c r="L13" s="43"/>
       <c r="M13" s="43"/>
-      <c r="N13" s="422"/>
+      <c r="N13" s="426"/>
       <c r="O13" s="43"/>
       <c r="P13" s="43"/>
       <c r="Q13" s="44"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="88" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="G14" s="42"/>
       <c r="H14" s="43"/>
@@ -37745,17 +38413,17 @@
       <c r="K14" s="91"/>
       <c r="L14" s="295"/>
       <c r="M14" s="92"/>
-      <c r="N14" s="422"/>
+      <c r="N14" s="426"/>
       <c r="O14" s="43"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="44"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="88" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="G15" s="42"/>
       <c r="H15" s="43"/>
@@ -37768,27 +38436,27 @@
         <v>491</v>
       </c>
       <c r="M15" s="198"/>
-      <c r="N15" s="422"/>
+      <c r="N15" s="426"/>
       <c r="O15" s="43"/>
       <c r="P15" s="43"/>
       <c r="Q15" s="44"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1">
       <c r="A16" s="88" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="G16" s="42"/>
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
       <c r="J16" s="66"/>
       <c r="K16" s="297" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="L16" s="298">
         <v>123123</v>
       </c>
       <c r="M16" s="299"/>
-      <c r="N16" s="422"/>
+      <c r="N16" s="426"/>
       <c r="O16" s="43"/>
       <c r="P16" s="43"/>
       <c r="Q16" s="44"/>
@@ -37808,7 +38476,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="88" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="D18" s="49" t="s">
         <v>940</v>
@@ -37827,7 +38495,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="88" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="D19" s="49" t="s">
         <v>456</v>
@@ -37846,10 +38514,10 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="88" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="G20" s="42"/>
       <c r="H20" s="43"/>
@@ -37865,10 +38533,10 @@
     </row>
     <row r="21" spans="1:17" ht="15.75" thickBot="1">
       <c r="A21" s="88" t="s">
+        <v>2684</v>
+      </c>
+      <c r="D21" s="49" t="s">
         <v>2685</v>
-      </c>
-      <c r="D21" s="49" t="s">
-        <v>2686</v>
       </c>
       <c r="G21" s="45"/>
       <c r="H21" s="46"/>
@@ -37884,32 +38552,32 @@
     </row>
     <row r="23" spans="1:17">
       <c r="C23" s="49" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="C24" s="49" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="49" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="C27" s="49" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" thickBot="1">
       <c r="C28" s="49" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" thickBot="1">
       <c r="A29" s="49" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="G29" s="39"/>
       <c r="H29" s="40"/>
@@ -37922,7 +38590,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="88" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="B30" s="88"/>
       <c r="C30" s="88"/>
@@ -37943,7 +38611,7 @@
     <row r="31" spans="1:17">
       <c r="A31" s="88"/>
       <c r="B31" s="88" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="C31" s="88"/>
       <c r="D31" s="88"/>
@@ -37960,7 +38628,7 @@
       <c r="A32" s="88"/>
       <c r="B32" s="88"/>
       <c r="C32" s="88" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="D32" s="88"/>
       <c r="G32" s="42"/>
@@ -37991,7 +38659,7 @@
     <row r="34" spans="1:14" ht="15.75" thickBot="1">
       <c r="A34" s="88"/>
       <c r="B34" s="88" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="C34" s="88"/>
       <c r="D34" s="88"/>
@@ -38008,7 +38676,7 @@
       <c r="A35" s="88"/>
       <c r="B35" s="88"/>
       <c r="C35" s="88" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="D35" s="88"/>
       <c r="G35" s="42"/>
@@ -38051,7 +38719,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="88" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="B38" s="88"/>
       <c r="C38" s="88"/>
@@ -38099,7 +38767,7 @@
       <c r="A41" s="88"/>
       <c r="B41" s="88"/>
       <c r="C41" s="88" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="D41" s="88"/>
       <c r="G41" s="42"/>
@@ -38129,7 +38797,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="88" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="B43" s="88"/>
       <c r="C43" s="88"/>
@@ -38177,7 +38845,7 @@
       <c r="A46" s="88"/>
       <c r="B46" s="88"/>
       <c r="C46" s="88" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="D46" s="88"/>
       <c r="G46" s="42"/>
@@ -41356,7 +42024,7 @@
     <row r="318" spans="2:12">
       <c r="B318" s="39"/>
       <c r="C318" s="40" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="D318" s="40"/>
       <c r="E318" s="40"/>
@@ -41518,11 +42186,11 @@
       <c r="C330" s="43"/>
       <c r="D330" s="43"/>
       <c r="E330" s="43" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="F330" s="43"/>
       <c r="G330" s="43" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="H330" s="43"/>
       <c r="I330" s="43"/>
@@ -41550,7 +42218,7 @@
       <c r="E332" s="46"/>
       <c r="F332" s="46"/>
       <c r="G332" s="46" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="H332" s="46"/>
       <c r="I332" s="46"/>
@@ -41560,7 +42228,7 @@
     </row>
     <row r="333" spans="2:12">
       <c r="G333" s="49" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
   </sheetData>
@@ -41589,7 +42257,7 @@
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="24"/>
@@ -41623,7 +42291,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="G4" s="26" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>345</v>
@@ -41640,7 +42308,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="31"/>
@@ -41656,7 +42324,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="G6" s="26"/>
       <c r="H6" s="20"/>
@@ -41672,7 +42340,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="43"/>
@@ -41688,7 +42356,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="43"/>
@@ -41700,7 +42368,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="43"/>
@@ -41721,10 +42389,10 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
+        <v>2711</v>
+      </c>
+      <c r="D11" t="s">
         <v>2712</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2713</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="43"/>
@@ -41758,10 +42426,10 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="D13" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="20"/>
@@ -41777,17 +42445,17 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1">
       <c r="A14" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="D14" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="28" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="L14" s="30" t="s">
         <v>349</v>
@@ -41796,10 +42464,10 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" t="s">
+        <v>2717</v>
+      </c>
+      <c r="D15" s="48" t="s">
         <v>2718</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>2719</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="20"/>
@@ -41826,7 +42494,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="20"/>
@@ -41859,7 +42527,7 @@
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
       <c r="K19" s="28" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="L19" s="30" t="s">
         <v>349</v>
@@ -41869,7 +42537,7 @@
     <row r="23" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="24"/>
@@ -41907,7 +42575,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="G26" s="26" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>345</v>
@@ -41924,7 +42592,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="G27" s="26"/>
       <c r="H27" s="31"/>
@@ -41940,7 +42608,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="B28" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="G28" s="26"/>
       <c r="H28" s="20"/>
@@ -41972,7 +42640,7 @@
         <v>952</v>
       </c>
       <c r="B30" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="43"/>
@@ -42036,7 +42704,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="B35" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="D35" t="s">
         <v>615</v>
@@ -42062,7 +42730,7 @@
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
       <c r="K36" s="28" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="L36" s="30" t="s">
         <v>349</v>
@@ -42081,7 +42749,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="B38" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="G38" s="26"/>
       <c r="H38" s="20"/>
@@ -42129,7 +42797,7 @@
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
       <c r="K41" s="28" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="L41" s="30" t="s">
         <v>349</v>
@@ -42192,7 +42860,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="31" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="B46" s="31"/>
       <c r="C46" s="31"/>
@@ -42234,13 +42902,13 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="31" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
       <c r="D48" s="31"/>
       <c r="E48" s="76" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="F48" s="31" t="s">
         <v>345</v>
@@ -42258,7 +42926,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="31" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
@@ -42554,7 +43222,7 @@
     </row>
     <row r="64" spans="1:16" ht="15.75" thickBot="1">
       <c r="A64" s="31" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="B64" s="31"/>
       <c r="C64" s="31"/>
@@ -42575,7 +43243,7 @@
     <row r="65" spans="1:16">
       <c r="A65" s="31"/>
       <c r="B65" s="31" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="D65" s="66"/>
       <c r="E65" s="31"/>
@@ -42605,11 +43273,11 @@
       <c r="B66" s="31"/>
       <c r="C66" s="31"/>
       <c r="D66" s="66" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="E66" s="31"/>
       <c r="G66" s="76" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="H66" s="31" t="s">
         <v>345</v>
@@ -42631,7 +43299,7 @@
       <c r="A67" s="31"/>
       <c r="B67" s="31"/>
       <c r="C67" s="31" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="D67" s="66"/>
       <c r="G67" s="76"/>
@@ -42693,7 +43361,7 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="31" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="C70" s="66"/>
       <c r="D70" s="31"/>
@@ -42706,11 +43374,11 @@
         <v>2125</v>
       </c>
       <c r="I70" s="123" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="J70" s="31"/>
       <c r="K70" s="31" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="L70" s="73" t="s">
         <v>56</v>
@@ -42724,7 +43392,7 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="31" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="B71" s="31"/>
       <c r="C71" s="31"/>
@@ -42750,7 +43418,7 @@
     </row>
     <row r="72" spans="1:16" ht="15.75" thickBot="1">
       <c r="A72" s="31" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="B72" s="31"/>
       <c r="C72" s="31"/>
@@ -42779,7 +43447,7 @@
       <c r="B73" s="31"/>
       <c r="C73" s="31"/>
       <c r="D73" s="66" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="E73" s="31"/>
       <c r="G73" s="76"/>
@@ -42798,7 +43466,7 @@
       <c r="B74" s="31"/>
       <c r="C74" s="31"/>
       <c r="D74" s="66" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="E74" s="31"/>
       <c r="G74" s="76"/>
@@ -42817,7 +43485,7 @@
       <c r="B75" s="31"/>
       <c r="C75" s="31"/>
       <c r="D75" s="66" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="E75" s="31"/>
       <c r="F75" s="31"/>
@@ -42841,22 +43509,22 @@
       <c r="F76" s="31"/>
       <c r="G76" s="76"/>
       <c r="H76" s="31" t="s">
+        <v>2745</v>
+      </c>
+      <c r="I76" s="31" t="s">
         <v>2746</v>
       </c>
-      <c r="I76" s="31" t="s">
+      <c r="J76" s="31" t="s">
         <v>2747</v>
       </c>
-      <c r="J76" s="31" t="s">
+      <c r="K76" s="31" t="s">
         <v>2748</v>
       </c>
-      <c r="K76" s="31" t="s">
+      <c r="L76" s="31" t="s">
         <v>2749</v>
       </c>
-      <c r="L76" s="31" t="s">
+      <c r="M76" s="31" t="s">
         <v>2750</v>
-      </c>
-      <c r="M76" s="31" t="s">
-        <v>2751</v>
       </c>
       <c r="N76" s="31"/>
       <c r="O76" s="31"/>
@@ -42867,7 +43535,7 @@
       <c r="B77" s="31"/>
       <c r="C77" s="31"/>
       <c r="D77" s="66" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="E77" s="31"/>
       <c r="F77" s="31"/>
@@ -42904,7 +43572,7 @@
       <c r="A79" s="31"/>
       <c r="B79" s="31"/>
       <c r="C79" s="31" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="D79" s="31"/>
       <c r="E79" s="31"/>
@@ -42943,7 +43611,7 @@
       <c r="B81" s="31"/>
       <c r="C81" s="31"/>
       <c r="D81" s="31" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="E81" s="31"/>
       <c r="F81" s="31"/>
@@ -42980,7 +43648,7 @@
       <c r="A83" s="31"/>
       <c r="B83" s="31"/>
       <c r="C83" s="31" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="D83" s="31"/>
       <c r="E83" s="31"/>
@@ -43001,7 +43669,7 @@
       <c r="B84" s="31"/>
       <c r="C84" s="31"/>
       <c r="D84" s="31" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="E84" s="31"/>
       <c r="F84" s="31"/>
@@ -43059,12 +43727,12 @@
       <c r="D87" s="31"/>
       <c r="E87" s="31"/>
       <c r="F87" s="32" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="G87" s="31"/>
       <c r="H87" s="31"/>
       <c r="I87" s="133" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="J87" s="31"/>
       <c r="K87" s="31"/>
@@ -43076,7 +43744,7 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="32" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="B88" s="31"/>
       <c r="C88" s="31"/>
@@ -43104,7 +43772,7 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="133" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="B89" s="31"/>
       <c r="D89" s="31"/>
@@ -43131,7 +43799,7 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="31" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="B90" s="31"/>
       <c r="D90" s="31"/>
@@ -43172,7 +43840,7 @@
         <v>18</v>
       </c>
       <c r="J91" s="31" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="K91" s="31"/>
       <c r="L91" s="31"/>
@@ -43208,7 +43876,7 @@
       <c r="B93" s="31"/>
       <c r="C93" s="31"/>
       <c r="D93" s="31" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="E93" s="31"/>
       <c r="F93" s="31"/>
@@ -43228,7 +43896,7 @@
       <c r="B94" s="31"/>
       <c r="C94" s="31"/>
       <c r="D94" s="31" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="E94" s="31"/>
       <c r="F94" s="31"/>
@@ -52682,24 +53350,24 @@
     <row r="17" spans="1:14" s="100" customFormat="1"/>
     <row r="22" spans="1:14" ht="15.75" thickBot="1">
       <c r="A22" s="98"/>
-      <c r="B22" s="423" t="s">
+      <c r="B22" s="427" t="s">
         <v>1102</v>
       </c>
-      <c r="C22" s="423"/>
+      <c r="C22" s="427"/>
       <c r="D22" s="98"/>
       <c r="E22" s="98"/>
-      <c r="F22" s="423" t="s">
+      <c r="F22" s="427" t="s">
         <v>1206</v>
       </c>
-      <c r="G22" s="423"/>
-      <c r="H22" s="423"/>
+      <c r="G22" s="427"/>
+      <c r="H22" s="427"/>
       <c r="I22" s="98"/>
       <c r="J22" s="98"/>
-      <c r="K22" s="423" t="s">
+      <c r="K22" s="427" t="s">
         <v>1104</v>
       </c>
-      <c r="L22" s="423"/>
-      <c r="M22" s="423"/>
+      <c r="L22" s="427"/>
+      <c r="M22" s="427"/>
       <c r="N22" s="98"/>
     </row>
     <row r="23" spans="1:14">
@@ -55121,8 +55789,8 @@
       <c r="L1" s="117"/>
       <c r="M1" s="117"/>
       <c r="N1" s="117"/>
-      <c r="O1" s="363" t="s">
-        <v>2875</v>
+      <c r="O1" s="366" t="s">
+        <v>2874</v>
       </c>
       <c r="R1" s="38">
         <v>0</v>
@@ -55140,29 +55808,29 @@
       <c r="L2" s="117"/>
       <c r="M2" s="117"/>
       <c r="N2" s="117"/>
-      <c r="O2" s="363"/>
+      <c r="O2" s="366"/>
     </row>
     <row r="3" spans="1:46" ht="15.75" thickBot="1">
-      <c r="H3" s="371" t="s">
+      <c r="H3" s="374" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="372"/>
-      <c r="J3" s="372"/>
-      <c r="K3" s="372"/>
-      <c r="L3" s="373"/>
-      <c r="O3" s="363"/>
+      <c r="I3" s="375"/>
+      <c r="J3" s="375"/>
+      <c r="K3" s="375"/>
+      <c r="L3" s="376"/>
+      <c r="O3" s="366"/>
       <c r="P3" t="s">
         <v>1434</v>
       </c>
     </row>
     <row r="4" spans="1:46" ht="15.75" thickBot="1">
-      <c r="O4" s="363"/>
+      <c r="O4" s="366"/>
       <c r="P4" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D5" s="364" t="s">
+      <c r="D5" s="367" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
@@ -55179,35 +55847,35 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="363"/>
+      <c r="O5" s="366"/>
       <c r="P5" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="6" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D6" s="364"/>
+      <c r="D6" s="367"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="374" t="s">
+      <c r="G6" s="377" t="s">
         <v>1440</v>
       </c>
-      <c r="H6" s="375"/>
+      <c r="H6" s="378"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="374" t="s">
+      <c r="J6" s="377" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="375"/>
+      <c r="K6" s="378"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="374" t="s">
+      <c r="M6" s="377" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="376"/>
-      <c r="O6" s="363"/>
+      <c r="N6" s="379"/>
+      <c r="O6" s="366"/>
       <c r="P6" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="7" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D7" s="364"/>
+      <c r="D7" s="367"/>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -55217,15 +55885,15 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="363"/>
+      <c r="O7" s="366"/>
       <c r="AC7" s="113" t="s">
+        <v>2827</v>
+      </c>
+      <c r="AD7" s="222" t="s">
         <v>2828</v>
       </c>
-      <c r="AD7" s="222" t="s">
-        <v>2829</v>
-      </c>
       <c r="AE7" s="222" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="AF7" s="222"/>
       <c r="AG7" s="222"/>
@@ -55244,31 +55912,31 @@
       <c r="AT7" s="114"/>
     </row>
     <row r="8" spans="1:46">
-      <c r="D8" s="364"/>
+      <c r="D8" s="367"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="377" t="s">
+      <c r="G8" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="378"/>
+      <c r="H8" s="381"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="377" t="s">
+      <c r="J8" s="380" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="378"/>
+      <c r="K8" s="381"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="377" t="s">
+      <c r="M8" s="380" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="379"/>
-      <c r="O8" s="363"/>
+      <c r="N8" s="382"/>
+      <c r="O8" s="366"/>
       <c r="Q8" s="132"/>
       <c r="S8" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="AC8" s="166"/>
       <c r="AD8" s="20"/>
       <c r="AE8" s="20" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="AF8" s="20"/>
       <c r="AG8" s="20"/>
@@ -55287,28 +55955,28 @@
       <c r="AT8" s="68"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="D9" s="364"/>
+      <c r="D9" s="367"/>
       <c r="F9" s="3"/>
       <c r="G9" s="220"/>
       <c r="H9" s="220"/>
       <c r="I9" s="219" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="J9" s="220"/>
       <c r="K9" s="220"/>
       <c r="L9" s="219"/>
       <c r="M9" s="220"/>
       <c r="N9" s="220"/>
-      <c r="O9" s="363"/>
+      <c r="O9" s="366"/>
       <c r="Q9" s="132"/>
       <c r="S9" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="U9" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="V9" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="AC9" s="166">
         <v>1</v>
@@ -55336,30 +56004,30 @@
       <c r="AT9" s="68"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="D10" s="364"/>
-      <c r="F10" s="367" t="s">
+      <c r="D10" s="367"/>
+      <c r="F10" s="370" t="s">
         <v>2144</v>
       </c>
-      <c r="G10" s="368"/>
-      <c r="H10" s="368"/>
-      <c r="I10" s="368"/>
-      <c r="J10" s="368"/>
-      <c r="K10" s="368"/>
-      <c r="L10" s="368"/>
-      <c r="M10" s="368"/>
-      <c r="N10" s="368"/>
-      <c r="O10" s="362" t="s">
-        <v>2874</v>
+      <c r="G10" s="371"/>
+      <c r="H10" s="371"/>
+      <c r="I10" s="371"/>
+      <c r="J10" s="371"/>
+      <c r="K10" s="371"/>
+      <c r="L10" s="371"/>
+      <c r="M10" s="371"/>
+      <c r="N10" s="371"/>
+      <c r="O10" s="365" t="s">
+        <v>2873</v>
       </c>
       <c r="Q10" s="132"/>
       <c r="S10" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="U10" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="V10" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="AC10" s="166"/>
       <c r="AD10" s="20"/>
@@ -55384,33 +56052,33 @@
     </row>
     <row r="11" spans="1:46" ht="15.75" thickBot="1">
       <c r="A11" t="s">
-        <v>2799</v>
-      </c>
-      <c r="D11" s="364"/>
+        <v>2798</v>
+      </c>
+      <c r="D11" s="367"/>
       <c r="E11" t="s">
-        <v>2851</v>
-      </c>
-      <c r="F11" s="369"/>
-      <c r="G11" s="370"/>
-      <c r="H11" s="370"/>
-      <c r="I11" s="370"/>
-      <c r="J11" s="370"/>
-      <c r="K11" s="370"/>
-      <c r="L11" s="370"/>
-      <c r="M11" s="370"/>
-      <c r="N11" s="370"/>
-      <c r="O11" s="362"/>
+        <v>2850</v>
+      </c>
+      <c r="F11" s="372"/>
+      <c r="G11" s="373"/>
+      <c r="H11" s="373"/>
+      <c r="I11" s="373"/>
+      <c r="J11" s="373"/>
+      <c r="K11" s="373"/>
+      <c r="L11" s="373"/>
+      <c r="M11" s="373"/>
+      <c r="N11" s="373"/>
+      <c r="O11" s="365"/>
       <c r="P11" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="S11" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="U11" t="s">
+        <v>2813</v>
+      </c>
+      <c r="V11" t="s">
         <v>2814</v>
-      </c>
-      <c r="V11" t="s">
-        <v>2815</v>
       </c>
       <c r="AC11" s="166"/>
       <c r="AD11" s="20"/>
@@ -55433,9 +56101,9 @@
     </row>
     <row r="12" spans="1:46">
       <c r="A12" t="s">
-        <v>2800</v>
-      </c>
-      <c r="D12" s="364"/>
+        <v>2799</v>
+      </c>
+      <c r="D12" s="367"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -55445,12 +56113,12 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="362"/>
+      <c r="O12" s="365"/>
       <c r="AC12" s="166" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="AD12" s="20" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="AE12" s="20"/>
       <c r="AF12" s="20"/>
@@ -55470,7 +56138,7 @@
       <c r="AT12" s="68"/>
     </row>
     <row r="13" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D13" s="364"/>
+      <c r="D13" s="367"/>
       <c r="E13" t="s">
         <v>1479</v>
       </c>
@@ -55489,10 +56157,10 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="362"/>
+      <c r="O13" s="365"/>
       <c r="AC13" s="166"/>
       <c r="AD13" s="20" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="AE13" s="20"/>
       <c r="AF13" s="20"/>
@@ -55512,27 +56180,27 @@
       <c r="AT13" s="68"/>
     </row>
     <row r="14" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D14" s="364"/>
+      <c r="D14" s="367"/>
       <c r="E14" t="s">
+        <v>2800</v>
+      </c>
+      <c r="F14" s="368" t="s">
         <v>2801</v>
       </c>
-      <c r="F14" s="365" t="s">
-        <v>2802</v>
-      </c>
-      <c r="G14" s="366"/>
-      <c r="H14" s="366"/>
-      <c r="I14" s="366"/>
-      <c r="J14" s="366"/>
-      <c r="K14" s="366"/>
-      <c r="L14" s="366"/>
-      <c r="M14" s="366"/>
-      <c r="N14" s="366"/>
-      <c r="O14" s="362"/>
+      <c r="G14" s="369"/>
+      <c r="H14" s="369"/>
+      <c r="I14" s="369"/>
+      <c r="J14" s="369"/>
+      <c r="K14" s="369"/>
+      <c r="L14" s="369"/>
+      <c r="M14" s="369"/>
+      <c r="N14" s="369"/>
+      <c r="O14" s="365"/>
       <c r="P14" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="T14" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="AC14" s="166"/>
       <c r="AD14" s="20"/>
@@ -55555,14 +56223,14 @@
     </row>
     <row r="15" spans="1:46">
       <c r="B15" t="s">
-        <v>2789</v>
-      </c>
-      <c r="D15" s="364" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D15" s="367" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="129"/>
       <c r="G15" s="321" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="H15" s="322"/>
       <c r="I15" s="323"/>
@@ -55595,7 +56263,7 @@
       <c r="AT15" s="68"/>
     </row>
     <row r="16" spans="1:46">
-      <c r="D16" s="364"/>
+      <c r="D16" s="367"/>
       <c r="E16" t="s">
         <v>1441</v>
       </c>
@@ -55614,7 +56282,7 @@
         <v>10</v>
       </c>
       <c r="L16" s="128" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="M16" s="128"/>
       <c r="N16" s="12"/>
@@ -55622,7 +56290,7 @@
         <v>2508</v>
       </c>
       <c r="Q16" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="T16" t="s">
         <v>2569</v>
@@ -55650,7 +56318,7 @@
       <c r="AT16" s="68"/>
     </row>
     <row r="17" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D17" s="364"/>
+      <c r="D17" s="367"/>
       <c r="F17" s="131"/>
       <c r="G17" s="128" t="s">
         <v>10</v>
@@ -55667,16 +56335,16 @@
       <c r="M17" s="11"/>
       <c r="N17" s="12"/>
       <c r="P17" t="s">
+        <v>2805</v>
+      </c>
+      <c r="Q17" t="s">
         <v>2806</v>
       </c>
-      <c r="Q17" t="s">
-        <v>2807</v>
-      </c>
       <c r="T17" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="U17" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="AC17" s="166"/>
       <c r="AD17" s="20"/>
@@ -55698,7 +56366,7 @@
       <c r="AT17" s="68"/>
     </row>
     <row r="18" spans="1:46">
-      <c r="D18" s="364"/>
+      <c r="D18" s="367"/>
       <c r="F18" s="129"/>
       <c r="G18" s="128" t="s">
         <v>11</v>
@@ -55715,16 +56383,16 @@
       <c r="M18" s="11"/>
       <c r="N18" s="12"/>
       <c r="P18" t="s">
+        <v>2803</v>
+      </c>
+      <c r="Q18" t="s">
         <v>2804</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>2805</v>
       </c>
       <c r="T18" t="s">
         <v>2134</v>
       </c>
       <c r="U18" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="AC18" s="166"/>
       <c r="AD18" s="20"/>
@@ -55747,9 +56415,9 @@
     </row>
     <row r="19" spans="1:46">
       <c r="B19" t="s">
-        <v>2790</v>
-      </c>
-      <c r="D19" s="364"/>
+        <v>2789</v>
+      </c>
+      <c r="D19" s="367"/>
       <c r="F19" s="130"/>
       <c r="G19" s="13"/>
       <c r="H19" s="11"/>
@@ -55775,10 +56443,10 @@
         <v>10001101</v>
       </c>
       <c r="T19" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="U19" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="AC19" s="166"/>
       <c r="AD19" s="20"/>
@@ -55800,7 +56468,7 @@
       <c r="AT19" s="68"/>
     </row>
     <row r="20" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D20" s="364"/>
+      <c r="D20" s="367"/>
       <c r="E20" t="s">
         <v>1442</v>
       </c>
@@ -55808,7 +56476,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="12"/>
@@ -55816,7 +56484,7 @@
         <v>181</v>
       </c>
       <c r="K20" s="318" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
@@ -55825,13 +56493,13 @@
         <v>2502</v>
       </c>
       <c r="Q20" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="T20" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="U20" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="AC20" s="166"/>
       <c r="AD20" s="20"/>
@@ -55853,7 +56521,7 @@
       <c r="AT20" s="68"/>
     </row>
     <row r="21" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D21" s="364"/>
+      <c r="D21" s="367"/>
       <c r="F21" s="131"/>
       <c r="G21" s="11" t="s">
         <v>15</v>
@@ -55889,7 +56557,7 @@
       <c r="AT21" s="68"/>
     </row>
     <row r="22" spans="1:46">
-      <c r="D22" s="364"/>
+      <c r="D22" s="367"/>
       <c r="F22" s="130"/>
       <c r="G22" s="11" t="s">
         <v>2129</v>
@@ -55904,17 +56572,17 @@
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="11" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="N22" s="12"/>
       <c r="P22" t="s">
+        <v>2819</v>
+      </c>
+      <c r="Q22" t="s">
         <v>2820</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>2821</v>
-      </c>
-      <c r="R22" t="s">
-        <v>2822</v>
       </c>
       <c r="S22" s="132" t="s">
         <v>2503</v>
@@ -55939,7 +56607,7 @@
       <c r="AT22" s="68"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="D23" s="364"/>
+      <c r="D23" s="367"/>
       <c r="E23" t="s">
         <v>1441</v>
       </c>
@@ -55959,7 +56627,7 @@
       </c>
       <c r="L23" s="11"/>
       <c r="M23" s="11" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="N23" s="12"/>
       <c r="AC23" s="166"/>
@@ -55983,9 +56651,9 @@
     </row>
     <row r="24" spans="1:46" ht="15.75" thickBot="1">
       <c r="A24" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D24" s="364"/>
+        <v>2793</v>
+      </c>
+      <c r="D24" s="367"/>
       <c r="F24" s="131"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -56015,12 +56683,12 @@
       <c r="AT24" s="68"/>
     </row>
     <row r="25" spans="1:46">
-      <c r="D25" s="364"/>
+      <c r="D25" s="367"/>
       <c r="E25" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="I25" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="AC25" s="166"/>
       <c r="AD25" s="20"/>
@@ -56044,7 +56712,7 @@
     <row r="26" spans="1:46">
       <c r="D26" s="320"/>
       <c r="J26" s="327" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="AC26" s="166"/>
       <c r="AD26" s="20"/>
@@ -56068,7 +56736,7 @@
     <row r="27" spans="1:46">
       <c r="D27" s="320"/>
       <c r="H27" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="AC27" s="166"/>
       <c r="AD27" s="20"/>
@@ -56092,7 +56760,7 @@
     <row r="28" spans="1:46">
       <c r="D28" s="320"/>
       <c r="I28" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="AC28" s="166"/>
       <c r="AD28" s="20"/>
@@ -56119,14 +56787,14 @@
         <v>392</v>
       </c>
       <c r="J29" s="324" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="K29" s="324"/>
       <c r="L29" s="324" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="M29" s="324" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="N29" s="324"/>
       <c r="O29" s="324"/>
@@ -56204,10 +56872,10 @@
         <v>2499</v>
       </c>
       <c r="C32" t="s">
+        <v>2796</v>
+      </c>
+      <c r="D32" t="s">
         <v>2797</v>
-      </c>
-      <c r="D32" t="s">
-        <v>2798</v>
       </c>
       <c r="U32">
         <v>27</v>
@@ -56236,7 +56904,7 @@
     </row>
     <row r="33" spans="1:46 16384:16384">
       <c r="A33" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="F33" t="s">
         <v>2502</v>
@@ -56257,13 +56925,13 @@
         <v>2510</v>
       </c>
       <c r="S33" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="U33" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="V33" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="AC33" s="166"/>
       <c r="AD33" s="20"/>
@@ -56286,7 +56954,7 @@
     </row>
     <row r="34" spans="1:46 16384:16384">
       <c r="A34" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="F34" s="132" t="s">
         <v>2503</v>
@@ -56307,10 +56975,10 @@
         <v>2511</v>
       </c>
       <c r="M34" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="V34" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="AC34" s="115"/>
       <c r="AD34" s="223"/>
@@ -56336,13 +57004,13 @@
         <v>2519</v>
       </c>
       <c r="T35" t="s">
+        <v>2843</v>
+      </c>
+      <c r="V35" t="s">
+        <v>2831</v>
+      </c>
+      <c r="W35" t="s">
         <v>2844</v>
-      </c>
-      <c r="V35" t="s">
-        <v>2832</v>
-      </c>
-      <c r="W35" t="s">
-        <v>2845</v>
       </c>
     </row>
     <row r="36" spans="1:46 16384:16384">
@@ -56351,7 +57019,7 @@
         <v>2512</v>
       </c>
       <c r="V36" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="37" spans="1:46 16384:16384">
@@ -56413,7 +57081,7 @@
         <v>1564</v>
       </c>
       <c r="S38" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="39" spans="1:46 16384:16384">
@@ -56491,10 +57159,10 @@
         <v>2150</v>
       </c>
       <c r="X40" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="Y40" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="41" spans="1:46 16384:16384">
@@ -56521,7 +57189,7 @@
         <v>1436</v>
       </c>
       <c r="AE41" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="42" spans="1:46 16384:16384">
@@ -56539,7 +57207,7 @@
       <c r="P42" s="103"/>
       <c r="Q42" s="171"/>
       <c r="R42" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="Y42" t="s">
         <v>567</v>
@@ -56548,7 +57216,7 @@
         <v>1437</v>
       </c>
       <c r="AE42" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="43" spans="1:46 16384:16384">
@@ -56565,17 +57233,17 @@
       <c r="O43" s="103"/>
       <c r="P43" s="103"/>
       <c r="Q43" s="171"/>
-      <c r="X43" s="350" t="s">
+      <c r="X43" s="353" t="s">
         <v>1580</v>
       </c>
-      <c r="Y43" s="351"/>
-      <c r="Z43" s="351"/>
-      <c r="AA43" s="352"/>
+      <c r="Y43" s="354"/>
+      <c r="Z43" s="354"/>
+      <c r="AA43" s="355"/>
       <c r="AC43" t="s">
         <v>1435</v>
       </c>
       <c r="AE43" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="44" spans="1:46 16384:16384">
@@ -56583,7 +57251,7 @@
         <v>1024</v>
       </c>
       <c r="E44" s="305" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="F44" s="305" t="s">
         <v>1443</v>
@@ -56603,10 +57271,10 @@
       <c r="M44" s="305"/>
       <c r="N44" s="305"/>
       <c r="O44" s="305"/>
-      <c r="X44" s="353"/>
-      <c r="Y44" s="354"/>
-      <c r="Z44" s="354"/>
-      <c r="AA44" s="355"/>
+      <c r="X44" s="356"/>
+      <c r="Y44" s="357"/>
+      <c r="Z44" s="357"/>
+      <c r="AA44" s="358"/>
       <c r="XFD44" s="32" t="s">
         <v>1443</v>
       </c>
@@ -56616,7 +57284,7 @@
         <v>1445</v>
       </c>
       <c r="E45" s="308" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="F45" s="309">
         <v>1.1111111E+100</v>
@@ -56630,10 +57298,10 @@
       <c r="M45" s="305"/>
       <c r="N45" s="305"/>
       <c r="O45" s="305"/>
-      <c r="X45" s="356"/>
-      <c r="Y45" s="357"/>
-      <c r="Z45" s="357"/>
-      <c r="AA45" s="358"/>
+      <c r="X45" s="359"/>
+      <c r="Y45" s="360"/>
+      <c r="Z45" s="360"/>
+      <c r="AA45" s="361"/>
     </row>
     <row r="46" spans="1:46 16384:16384">
       <c r="B46" t="s">
@@ -56654,7 +57322,7 @@
         <v>567</v>
       </c>
       <c r="AG46" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="47" spans="1:46 16384:16384">
@@ -56670,7 +57338,7 @@
       <c r="N47" s="305"/>
       <c r="O47" s="305"/>
       <c r="Q47" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="Y47" t="s">
         <v>567</v>
@@ -56689,16 +57357,16 @@
       <c r="N48" s="305"/>
       <c r="O48" s="305"/>
       <c r="Q48" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="Y48" t="s">
         <v>567</v>
       </c>
       <c r="AG48" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="AI48" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="49" spans="1:35">
@@ -56717,22 +57385,22 @@
         <v>1565</v>
       </c>
       <c r="V49" t="s">
-        <v>2872</v>
-      </c>
-      <c r="X49" s="359" t="s">
-        <v>2852</v>
-      </c>
-      <c r="Y49" s="360"/>
-      <c r="Z49" s="360"/>
-      <c r="AA49" s="360"/>
-      <c r="AB49" s="360"/>
-      <c r="AC49" s="360"/>
-      <c r="AD49" s="360"/>
-      <c r="AE49" s="360"/>
-      <c r="AF49" s="360"/>
-      <c r="AG49" s="360"/>
-      <c r="AH49" s="360"/>
-      <c r="AI49" s="361"/>
+        <v>2871</v>
+      </c>
+      <c r="X49" s="362" t="s">
+        <v>2851</v>
+      </c>
+      <c r="Y49" s="363"/>
+      <c r="Z49" s="363"/>
+      <c r="AA49" s="363"/>
+      <c r="AB49" s="363"/>
+      <c r="AC49" s="363"/>
+      <c r="AD49" s="363"/>
+      <c r="AE49" s="363"/>
+      <c r="AF49" s="363"/>
+      <c r="AG49" s="363"/>
+      <c r="AH49" s="363"/>
+      <c r="AI49" s="364"/>
     </row>
     <row r="50" spans="1:35">
       <c r="B50" t="s">
@@ -56784,7 +57452,7 @@
         <v>567</v>
       </c>
       <c r="AC51" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="AE51" t="s">
         <v>567</v>
@@ -56818,7 +57486,7 @@
         <v>1556</v>
       </c>
       <c r="T52" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="Y52" t="s">
         <v>567</v>
@@ -56880,7 +57548,7 @@
       <c r="N54" s="305"/>
       <c r="O54" s="305"/>
       <c r="T54" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="Y54" t="s">
         <v>567</v>
@@ -56939,31 +57607,31 @@
       <c r="N56" s="305"/>
       <c r="O56" s="305"/>
       <c r="Q56" t="s">
+        <v>2837</v>
+      </c>
+      <c r="R56" t="s">
         <v>2838</v>
       </c>
-      <c r="R56" t="s">
-        <v>2839</v>
-      </c>
       <c r="U56" s="175" t="s">
+        <v>2845</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>2852</v>
+      </c>
+      <c r="AA56" t="s">
         <v>2846</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="AC56" t="s">
         <v>2853</v>
       </c>
-      <c r="AA56" t="s">
-        <v>2847</v>
-      </c>
-      <c r="AC56" t="s">
+      <c r="AE56" t="s">
         <v>2854</v>
       </c>
-      <c r="AE56" t="s">
+      <c r="AG56" t="s">
         <v>2855</v>
       </c>
-      <c r="AG56" t="s">
+      <c r="AI56" t="s">
         <v>2856</v>
-      </c>
-      <c r="AI56" t="s">
-        <v>2857</v>
       </c>
     </row>
     <row r="57" spans="1:35">
@@ -56979,13 +57647,13 @@
       <c r="N57" s="305"/>
       <c r="O57" s="305"/>
       <c r="Y57" t="s">
+        <v>2868</v>
+      </c>
+      <c r="AC57" t="s">
         <v>2869</v>
       </c>
-      <c r="AC57" t="s">
+      <c r="AG57" t="s">
         <v>2870</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>2871</v>
       </c>
     </row>
     <row r="58" spans="1:35">
@@ -57014,10 +57682,10 @@
       <c r="N59" s="305"/>
       <c r="O59" s="305"/>
       <c r="AC59" t="s">
+        <v>2886</v>
+      </c>
+      <c r="AE59" t="s">
         <v>2887</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>2888</v>
       </c>
     </row>
     <row r="60" spans="1:35">
@@ -57035,10 +57703,10 @@
       <c r="N60" s="31"/>
       <c r="O60" s="31"/>
       <c r="U60" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="W60" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="61" spans="1:35">
@@ -57054,10 +57722,10 @@
       <c r="N61" s="31"/>
       <c r="O61" s="31"/>
       <c r="U61" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="W61" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="62" spans="1:35">
@@ -57073,10 +57741,10 @@
       <c r="N62" s="31"/>
       <c r="O62" s="31"/>
       <c r="U62" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="W62" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="63" spans="1:35">
@@ -57780,35 +58448,35 @@
       </c>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="425" t="s">
+      <c r="B8" s="429" t="s">
         <v>2432</v>
       </c>
-      <c r="C8" s="425"/>
-      <c r="F8" s="425" t="s">
+      <c r="C8" s="429"/>
+      <c r="F8" s="429" t="s">
         <v>2433</v>
       </c>
-      <c r="G8" s="425"/>
-      <c r="I8" s="425" t="s">
+      <c r="G8" s="429"/>
+      <c r="I8" s="429" t="s">
         <v>2433</v>
       </c>
-      <c r="J8" s="425"/>
+      <c r="J8" s="429"/>
       <c r="M8" s="216" t="s">
         <v>2490</v>
       </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="F9" s="425" t="s">
+      <c r="F9" s="429" t="s">
         <v>2434</v>
       </c>
-      <c r="G9" s="425"/>
-      <c r="I9" s="425" t="s">
+      <c r="G9" s="429"/>
+      <c r="I9" s="429" t="s">
         <v>2435</v>
       </c>
-      <c r="J9" s="425"/>
-      <c r="M9" s="426" t="s">
+      <c r="J9" s="429"/>
+      <c r="M9" s="430" t="s">
         <v>2433</v>
       </c>
-      <c r="N9" s="426"/>
+      <c r="N9" s="430"/>
     </row>
     <row r="10" spans="1:31">
       <c r="M10" s="273" t="s">
@@ -57817,19 +58485,19 @@
       <c r="N10" s="273"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="E11" s="424" t="s">
+      <c r="E11" s="428" t="s">
         <v>2437</v>
       </c>
-      <c r="F11" s="424"/>
-      <c r="G11" s="424"/>
-      <c r="H11" s="424"/>
-      <c r="I11" s="424"/>
-      <c r="J11" s="424"/>
-      <c r="K11" s="424"/>
-      <c r="L11" s="424"/>
-      <c r="M11" s="424"/>
-      <c r="N11" s="424"/>
-      <c r="O11" s="424"/>
+      <c r="F11" s="428"/>
+      <c r="G11" s="428"/>
+      <c r="H11" s="428"/>
+      <c r="I11" s="428"/>
+      <c r="J11" s="428"/>
+      <c r="K11" s="428"/>
+      <c r="L11" s="428"/>
+      <c r="M11" s="428"/>
+      <c r="N11" s="428"/>
+      <c r="O11" s="428"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
@@ -61589,11 +62257,11 @@
       <c r="L6" s="35" t="s">
         <v>1378</v>
       </c>
-      <c r="M6" s="401" t="s">
+      <c r="M6" s="404" t="s">
         <v>1379</v>
       </c>
-      <c r="N6" s="401"/>
-      <c r="O6" s="401"/>
+      <c r="N6" s="404"/>
+      <c r="O6" s="404"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
@@ -62367,100 +63035,100 @@
   <sheetData>
     <row r="1" spans="3:16" ht="15.75" thickBot="1"/>
     <row r="2" spans="3:16">
-      <c r="C2" s="395" t="s">
+      <c r="C2" s="398" t="s">
+        <v>2892</v>
+      </c>
+      <c r="D2" s="399"/>
+      <c r="E2" s="399"/>
+      <c r="F2" s="399"/>
+      <c r="G2" s="399"/>
+      <c r="H2" s="399"/>
+      <c r="I2" s="399"/>
+      <c r="J2" s="399"/>
+      <c r="K2" s="399"/>
+    </row>
+    <row r="3" spans="3:16">
+      <c r="C3" s="400"/>
+      <c r="D3" s="401"/>
+      <c r="E3" s="401"/>
+      <c r="F3" s="401"/>
+      <c r="G3" s="401"/>
+      <c r="H3" s="401"/>
+      <c r="I3" s="401"/>
+      <c r="J3" s="401"/>
+      <c r="K3" s="401"/>
+      <c r="M3" t="s">
         <v>2893</v>
       </c>
-      <c r="D2" s="396"/>
-      <c r="E2" s="396"/>
-      <c r="F2" s="396"/>
-      <c r="G2" s="396"/>
-      <c r="H2" s="396"/>
-      <c r="I2" s="396"/>
-      <c r="J2" s="396"/>
-      <c r="K2" s="396"/>
-    </row>
-    <row r="3" spans="3:16">
-      <c r="C3" s="397"/>
-      <c r="D3" s="398"/>
-      <c r="E3" s="398"/>
-      <c r="F3" s="398"/>
-      <c r="G3" s="398"/>
-      <c r="H3" s="398"/>
-      <c r="I3" s="398"/>
-      <c r="J3" s="398"/>
-      <c r="K3" s="398"/>
-      <c r="M3" t="s">
+    </row>
+    <row r="4" spans="3:16">
+      <c r="C4" s="400"/>
+      <c r="D4" s="401"/>
+      <c r="E4" s="401"/>
+      <c r="F4" s="401"/>
+      <c r="G4" s="401"/>
+      <c r="H4" s="401"/>
+      <c r="I4" s="401"/>
+      <c r="J4" s="401"/>
+      <c r="K4" s="401"/>
+      <c r="N4" t="s">
         <v>2894</v>
       </c>
     </row>
-    <row r="4" spans="3:16">
-      <c r="C4" s="397"/>
-      <c r="D4" s="398"/>
-      <c r="E4" s="398"/>
-      <c r="F4" s="398"/>
-      <c r="G4" s="398"/>
-      <c r="H4" s="398"/>
-      <c r="I4" s="398"/>
-      <c r="J4" s="398"/>
-      <c r="K4" s="398"/>
-      <c r="N4" t="s">
+    <row r="5" spans="3:16">
+      <c r="C5" s="400"/>
+      <c r="D5" s="401"/>
+      <c r="E5" s="401"/>
+      <c r="F5" s="401"/>
+      <c r="G5" s="401"/>
+      <c r="H5" s="401"/>
+      <c r="I5" s="401"/>
+      <c r="J5" s="401"/>
+      <c r="K5" s="401"/>
+      <c r="O5" t="s">
         <v>2895</v>
       </c>
     </row>
-    <row r="5" spans="3:16">
-      <c r="C5" s="397"/>
-      <c r="D5" s="398"/>
-      <c r="E5" s="398"/>
-      <c r="F5" s="398"/>
-      <c r="G5" s="398"/>
-      <c r="H5" s="398"/>
-      <c r="I5" s="398"/>
-      <c r="J5" s="398"/>
-      <c r="K5" s="398"/>
-      <c r="O5" t="s">
-        <v>2896</v>
-      </c>
-    </row>
     <row r="6" spans="3:16">
-      <c r="C6" s="397"/>
-      <c r="D6" s="398"/>
-      <c r="E6" s="398"/>
-      <c r="F6" s="398"/>
-      <c r="G6" s="398"/>
-      <c r="H6" s="398"/>
-      <c r="I6" s="398"/>
-      <c r="J6" s="398"/>
-      <c r="K6" s="398"/>
+      <c r="C6" s="400"/>
+      <c r="D6" s="401"/>
+      <c r="E6" s="401"/>
+      <c r="F6" s="401"/>
+      <c r="G6" s="401"/>
+      <c r="H6" s="401"/>
+      <c r="I6" s="401"/>
+      <c r="J6" s="401"/>
+      <c r="K6" s="401"/>
       <c r="O6" t="s">
         <v>2128</v>
       </c>
     </row>
     <row r="7" spans="3:16">
-      <c r="C7" s="397"/>
-      <c r="D7" s="398"/>
-      <c r="E7" s="398"/>
-      <c r="F7" s="398"/>
-      <c r="G7" s="398"/>
-      <c r="H7" s="398"/>
-      <c r="I7" s="398"/>
-      <c r="J7" s="398"/>
-      <c r="K7" s="398"/>
+      <c r="C7" s="400"/>
+      <c r="D7" s="401"/>
+      <c r="E7" s="401"/>
+      <c r="F7" s="401"/>
+      <c r="G7" s="401"/>
+      <c r="H7" s="401"/>
+      <c r="I7" s="401"/>
+      <c r="J7" s="401"/>
+      <c r="K7" s="401"/>
       <c r="O7" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" ht="15.75" thickBot="1">
+      <c r="C8" s="402"/>
+      <c r="D8" s="403"/>
+      <c r="E8" s="403"/>
+      <c r="F8" s="403"/>
+      <c r="G8" s="403"/>
+      <c r="H8" s="403"/>
+      <c r="I8" s="403"/>
+      <c r="J8" s="403"/>
+      <c r="K8" s="403"/>
+      <c r="O8" t="s">
         <v>2897</v>
-      </c>
-    </row>
-    <row r="8" spans="3:16" ht="15.75" thickBot="1">
-      <c r="C8" s="399"/>
-      <c r="D8" s="400"/>
-      <c r="E8" s="400"/>
-      <c r="F8" s="400"/>
-      <c r="G8" s="400"/>
-      <c r="H8" s="400"/>
-      <c r="I8" s="400"/>
-      <c r="J8" s="400"/>
-      <c r="K8" s="400"/>
-      <c r="O8" t="s">
-        <v>2898</v>
       </c>
     </row>
     <row r="9" spans="3:16">
@@ -62474,7 +63142,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="O9" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="10" spans="3:16" ht="15.75" thickBot="1">
@@ -62495,185 +63163,185 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="3:16" ht="15.75" thickBot="1">
-      <c r="C11" s="365" t="s">
-        <v>2802</v>
-      </c>
-      <c r="D11" s="366"/>
-      <c r="E11" s="366"/>
-      <c r="F11" s="366"/>
-      <c r="G11" s="366"/>
-      <c r="H11" s="366"/>
-      <c r="I11" s="366"/>
-      <c r="J11" s="366"/>
-      <c r="K11" s="366"/>
+      <c r="C11" s="368" t="s">
+        <v>2801</v>
+      </c>
+      <c r="D11" s="369"/>
+      <c r="E11" s="369"/>
+      <c r="F11" s="369"/>
+      <c r="G11" s="369"/>
+      <c r="H11" s="369"/>
+      <c r="I11" s="369"/>
+      <c r="J11" s="369"/>
+      <c r="K11" s="369"/>
       <c r="N11" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="12" spans="3:16">
       <c r="C12" s="129"/>
-      <c r="D12" s="380" t="s">
-        <v>2923</v>
-      </c>
-      <c r="E12" s="381"/>
-      <c r="F12" s="381"/>
-      <c r="G12" s="381"/>
-      <c r="H12" s="382"/>
-      <c r="I12" s="389" t="s">
-        <v>2911</v>
-      </c>
-      <c r="J12" s="390"/>
-      <c r="K12" s="391"/>
+      <c r="D12" s="383" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E12" s="384"/>
+      <c r="F12" s="384"/>
+      <c r="G12" s="384"/>
+      <c r="H12" s="385"/>
+      <c r="I12" s="392" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J12" s="393"/>
+      <c r="K12" s="394"/>
       <c r="O12" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="13" spans="3:16">
       <c r="C13" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="383"/>
-      <c r="E13" s="384"/>
-      <c r="F13" s="384"/>
-      <c r="G13" s="384"/>
-      <c r="H13" s="385"/>
-      <c r="I13" s="392"/>
-      <c r="J13" s="393"/>
-      <c r="K13" s="394"/>
+      <c r="D13" s="386"/>
+      <c r="E13" s="387"/>
+      <c r="F13" s="387"/>
+      <c r="G13" s="387"/>
+      <c r="H13" s="388"/>
+      <c r="I13" s="395"/>
+      <c r="J13" s="396"/>
+      <c r="K13" s="397"/>
       <c r="P13" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="14" spans="3:16" ht="15.75" thickBot="1">
       <c r="C14" s="131"/>
-      <c r="D14" s="383"/>
-      <c r="E14" s="384"/>
-      <c r="F14" s="384"/>
-      <c r="G14" s="384"/>
-      <c r="H14" s="385"/>
-      <c r="I14" s="392"/>
-      <c r="J14" s="393"/>
-      <c r="K14" s="394"/>
+      <c r="D14" s="386"/>
+      <c r="E14" s="387"/>
+      <c r="F14" s="387"/>
+      <c r="G14" s="387"/>
+      <c r="H14" s="388"/>
+      <c r="I14" s="395"/>
+      <c r="J14" s="396"/>
+      <c r="K14" s="397"/>
     </row>
     <row r="15" spans="3:16">
       <c r="C15" s="129"/>
-      <c r="D15" s="383"/>
-      <c r="E15" s="384"/>
-      <c r="F15" s="384"/>
-      <c r="G15" s="384"/>
-      <c r="H15" s="385"/>
-      <c r="I15" s="392"/>
-      <c r="J15" s="393"/>
-      <c r="K15" s="394"/>
+      <c r="D15" s="386"/>
+      <c r="E15" s="387"/>
+      <c r="F15" s="387"/>
+      <c r="G15" s="387"/>
+      <c r="H15" s="388"/>
+      <c r="I15" s="395"/>
+      <c r="J15" s="396"/>
+      <c r="K15" s="397"/>
       <c r="O15" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="16" spans="3:16">
       <c r="C16" s="130"/>
-      <c r="D16" s="383"/>
-      <c r="E16" s="384"/>
-      <c r="F16" s="384"/>
-      <c r="G16" s="384"/>
-      <c r="H16" s="385"/>
-      <c r="I16" s="392"/>
-      <c r="J16" s="393"/>
-      <c r="K16" s="394"/>
+      <c r="D16" s="386"/>
+      <c r="E16" s="387"/>
+      <c r="F16" s="387"/>
+      <c r="G16" s="387"/>
+      <c r="H16" s="388"/>
+      <c r="I16" s="395"/>
+      <c r="J16" s="396"/>
+      <c r="K16" s="397"/>
       <c r="P16" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="17" spans="2:16">
       <c r="C17" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="383"/>
-      <c r="E17" s="384"/>
-      <c r="F17" s="384"/>
-      <c r="G17" s="384"/>
-      <c r="H17" s="385"/>
-      <c r="I17" s="392"/>
-      <c r="J17" s="393"/>
-      <c r="K17" s="394"/>
+      <c r="D17" s="386"/>
+      <c r="E17" s="387"/>
+      <c r="F17" s="387"/>
+      <c r="G17" s="387"/>
+      <c r="H17" s="388"/>
+      <c r="I17" s="395"/>
+      <c r="J17" s="396"/>
+      <c r="K17" s="397"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" thickBot="1">
       <c r="C18" s="131"/>
-      <c r="D18" s="383"/>
-      <c r="E18" s="384"/>
-      <c r="F18" s="384"/>
-      <c r="G18" s="384"/>
-      <c r="H18" s="385"/>
-      <c r="I18" s="392"/>
-      <c r="J18" s="393"/>
-      <c r="K18" s="394"/>
+      <c r="D18" s="386"/>
+      <c r="E18" s="387"/>
+      <c r="F18" s="387"/>
+      <c r="G18" s="387"/>
+      <c r="H18" s="388"/>
+      <c r="I18" s="395"/>
+      <c r="J18" s="396"/>
+      <c r="K18" s="397"/>
       <c r="M18" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="19" spans="2:16">
       <c r="C19" s="130"/>
-      <c r="D19" s="383"/>
-      <c r="E19" s="384"/>
-      <c r="F19" s="384"/>
-      <c r="G19" s="384"/>
-      <c r="H19" s="385"/>
-      <c r="I19" s="392"/>
-      <c r="J19" s="393"/>
-      <c r="K19" s="394"/>
+      <c r="D19" s="386"/>
+      <c r="E19" s="387"/>
+      <c r="F19" s="387"/>
+      <c r="G19" s="387"/>
+      <c r="H19" s="388"/>
+      <c r="I19" s="395"/>
+      <c r="J19" s="396"/>
+      <c r="K19" s="397"/>
       <c r="N19" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="20" spans="2:16">
       <c r="C20" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="383"/>
-      <c r="E20" s="384"/>
-      <c r="F20" s="384"/>
-      <c r="G20" s="384"/>
-      <c r="H20" s="385"/>
-      <c r="I20" s="392"/>
-      <c r="J20" s="393"/>
-      <c r="K20" s="394"/>
+      <c r="D20" s="386"/>
+      <c r="E20" s="387"/>
+      <c r="F20" s="387"/>
+      <c r="G20" s="387"/>
+      <c r="H20" s="388"/>
+      <c r="I20" s="395"/>
+      <c r="J20" s="396"/>
+      <c r="K20" s="397"/>
       <c r="N20" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="15.75" thickBot="1">
       <c r="C21" s="131"/>
-      <c r="D21" s="386"/>
-      <c r="E21" s="387"/>
-      <c r="F21" s="387"/>
-      <c r="G21" s="387"/>
-      <c r="H21" s="388"/>
-      <c r="I21" s="392"/>
-      <c r="J21" s="393"/>
-      <c r="K21" s="394"/>
+      <c r="D21" s="389"/>
+      <c r="E21" s="390"/>
+      <c r="F21" s="390"/>
+      <c r="G21" s="390"/>
+      <c r="H21" s="391"/>
+      <c r="I21" s="395"/>
+      <c r="J21" s="396"/>
+      <c r="K21" s="397"/>
       <c r="N21" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="D22" s="404" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E22" s="404"/>
+      <c r="F22" s="404"/>
+      <c r="G22" s="404"/>
+      <c r="H22" s="404"/>
+      <c r="I22" s="404" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="404"/>
+      <c r="K22" s="404"/>
+      <c r="N22" t="s">
         <v>2908</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16">
-      <c r="D22" s="401" t="s">
-        <v>2585</v>
-      </c>
-      <c r="E22" s="401"/>
-      <c r="F22" s="401"/>
-      <c r="G22" s="401"/>
-      <c r="H22" s="401"/>
-      <c r="I22" s="401" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="401"/>
-      <c r="K22" s="401"/>
-      <c r="N22" t="s">
-        <v>2909</v>
       </c>
     </row>
     <row r="23" spans="2:16">
       <c r="N23" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="24" spans="2:16">
@@ -62684,7 +63352,7 @@
         <v>373</v>
       </c>
       <c r="P24" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="25" spans="2:16">
@@ -62694,32 +63362,32 @@
     </row>
     <row r="26" spans="2:16">
       <c r="D26" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="N26" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="27" spans="2:16">
       <c r="N27" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="D28" t="s">
         <v>175</v>
       </c>
       <c r="E28" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="I28" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="J28" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="29" spans="2:16">
@@ -62727,10 +63395,10 @@
         <v>185</v>
       </c>
       <c r="E29" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="I29" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="30" spans="2:16">
@@ -62738,16 +63406,16 @@
         <v>182</v>
       </c>
       <c r="E30" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="I30" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="L30" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="N30" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="31" spans="2:16">
@@ -62755,34 +63423,34 @@
         <v>186</v>
       </c>
       <c r="E31" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="I31" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="N31" t="s">
+        <v>2928</v>
+      </c>
+      <c r="P31" t="s">
         <v>2929</v>
-      </c>
-      <c r="P31" t="s">
-        <v>2930</v>
       </c>
     </row>
     <row r="32" spans="2:16">
       <c r="N32" t="s">
+        <v>2943</v>
+      </c>
+      <c r="P32" t="s">
         <v>2944</v>
-      </c>
-      <c r="P32" t="s">
-        <v>2945</v>
       </c>
     </row>
     <row r="33" spans="2:17">
       <c r="C33" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="34" spans="2:17">
       <c r="L34" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="35" spans="2:17">
@@ -62811,7 +63479,7 @@
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="36" spans="2:17">
@@ -62899,7 +63567,7 @@
     </row>
     <row r="40" spans="2:17">
       <c r="B40" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="K40">
         <v>-128</v>
@@ -62907,15 +63575,15 @@
     </row>
     <row r="41" spans="2:17">
       <c r="B41" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="42" spans="2:17">
       <c r="B42" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="G42" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="45" spans="2:17">
@@ -62971,13 +63639,13 @@
     <row r="46" spans="2:17">
       <c r="B46" s="20"/>
       <c r="G46" t="s">
+        <v>2934</v>
+      </c>
+      <c r="H46" t="s">
+        <v>2933</v>
+      </c>
+      <c r="I46" t="s">
         <v>2935</v>
-      </c>
-      <c r="H46" t="s">
-        <v>2934</v>
-      </c>
-      <c r="I46" t="s">
-        <v>2936</v>
       </c>
       <c r="J46" s="20" t="s">
         <v>33</v>
@@ -63009,10 +63677,10 @@
         <v>2211</v>
       </c>
       <c r="C47" s="124" t="s">
+        <v>2930</v>
+      </c>
+      <c r="D47" s="124" t="s">
         <v>2931</v>
-      </c>
-      <c r="D47" s="124" t="s">
-        <v>2932</v>
       </c>
       <c r="E47" s="124">
         <v>13</v>
@@ -63106,23 +63774,23 @@
     </row>
     <row r="50" spans="2:8">
       <c r="B50" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="H51" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="H52" s="149" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
     </row>
   </sheetData>
@@ -65250,10 +65918,10 @@
       </c>
       <c r="G121" s="23"/>
       <c r="H121" s="24"/>
-      <c r="I121" s="404" t="s">
+      <c r="I121" s="407" t="s">
         <v>2587</v>
       </c>
-      <c r="J121" s="404" t="s">
+      <c r="J121" s="407" t="s">
         <v>2591</v>
       </c>
       <c r="K121" s="20"/>
@@ -65269,8 +65937,8 @@
       <c r="H122" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="I122" s="405"/>
-      <c r="J122" s="405"/>
+      <c r="I122" s="408"/>
+      <c r="J122" s="408"/>
       <c r="K122" s="20"/>
       <c r="L122" s="20"/>
       <c r="M122" s="27"/>
@@ -65284,8 +65952,8 @@
       <c r="H123" s="20">
         <v>19</v>
       </c>
-      <c r="I123" s="405"/>
-      <c r="J123" s="405"/>
+      <c r="I123" s="408"/>
+      <c r="J123" s="408"/>
       <c r="K123" s="20"/>
       <c r="L123" s="20"/>
       <c r="M123" s="27"/>
@@ -65299,8 +65967,8 @@
       <c r="H124" s="29" t="s">
         <v>1807</v>
       </c>
-      <c r="I124" s="405"/>
-      <c r="J124" s="405"/>
+      <c r="I124" s="408"/>
+      <c r="J124" s="408"/>
       <c r="K124" s="20"/>
       <c r="L124" s="20"/>
       <c r="M124" s="27"/>
@@ -65310,8 +65978,8 @@
       <c r="F125" s="20"/>
       <c r="G125" s="20"/>
       <c r="H125" s="20"/>
-      <c r="I125" s="405"/>
-      <c r="J125" s="405"/>
+      <c r="I125" s="408"/>
+      <c r="J125" s="408"/>
       <c r="K125" s="20"/>
       <c r="L125" s="20"/>
       <c r="M125" s="27"/>
@@ -65324,8 +65992,8 @@
       <c r="F126" s="20"/>
       <c r="G126" s="20"/>
       <c r="H126" s="20"/>
-      <c r="I126" s="405"/>
-      <c r="J126" s="405"/>
+      <c r="I126" s="408"/>
+      <c r="J126" s="408"/>
       <c r="K126" s="20"/>
       <c r="L126" s="20"/>
       <c r="M126" s="27"/>
@@ -65337,8 +66005,8 @@
       </c>
       <c r="G127" s="23"/>
       <c r="H127" s="24"/>
-      <c r="I127" s="405"/>
-      <c r="J127" s="405"/>
+      <c r="I127" s="408"/>
+      <c r="J127" s="408"/>
       <c r="K127" s="20"/>
       <c r="L127" s="20"/>
       <c r="M127" s="27"/>
@@ -65352,8 +66020,8 @@
       <c r="H128" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="I128" s="405"/>
-      <c r="J128" s="405"/>
+      <c r="I128" s="408"/>
+      <c r="J128" s="408"/>
       <c r="K128" s="20"/>
       <c r="L128" s="20"/>
       <c r="M128" s="27"/>
@@ -65367,8 +66035,8 @@
       <c r="H129" s="20">
         <v>20</v>
       </c>
-      <c r="I129" s="405"/>
-      <c r="J129" s="405"/>
+      <c r="I129" s="408"/>
+      <c r="J129" s="408"/>
       <c r="K129" s="20"/>
       <c r="L129" s="20"/>
       <c r="M129" s="27"/>
@@ -65382,8 +66050,8 @@
       <c r="H130" s="29" t="s">
         <v>2583</v>
       </c>
-      <c r="I130" s="405"/>
-      <c r="J130" s="405"/>
+      <c r="I130" s="408"/>
+      <c r="J130" s="408"/>
       <c r="K130" s="20"/>
       <c r="L130" s="20"/>
       <c r="M130" s="27"/>
@@ -65393,8 +66061,8 @@
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
       <c r="H131" s="20"/>
-      <c r="I131" s="405"/>
-      <c r="J131" s="405"/>
+      <c r="I131" s="408"/>
+      <c r="J131" s="408"/>
       <c r="K131" s="20"/>
       <c r="L131" s="20"/>
       <c r="M131" s="27"/>
@@ -65406,8 +66074,8 @@
       </c>
       <c r="G132" s="23"/>
       <c r="H132" s="24"/>
-      <c r="I132" s="405"/>
-      <c r="J132" s="405"/>
+      <c r="I132" s="408"/>
+      <c r="J132" s="408"/>
       <c r="K132" s="20"/>
       <c r="L132" s="20"/>
       <c r="M132" s="27"/>
@@ -65421,8 +66089,8 @@
       <c r="H133" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="I133" s="405"/>
-      <c r="J133" s="405"/>
+      <c r="I133" s="408"/>
+      <c r="J133" s="408"/>
       <c r="K133" s="20"/>
       <c r="L133" s="20"/>
       <c r="M133" s="27"/>
@@ -65436,8 +66104,8 @@
       <c r="H134" s="20">
         <v>18</v>
       </c>
-      <c r="I134" s="405"/>
-      <c r="J134" s="405"/>
+      <c r="I134" s="408"/>
+      <c r="J134" s="408"/>
       <c r="K134" s="20"/>
       <c r="L134" s="20"/>
       <c r="M134" s="27"/>
@@ -65451,8 +66119,8 @@
       <c r="H135" s="29" t="s">
         <v>2584</v>
       </c>
-      <c r="I135" s="406"/>
-      <c r="J135" s="406"/>
+      <c r="I135" s="409"/>
+      <c r="J135" s="409"/>
       <c r="K135" s="20"/>
       <c r="L135" s="20"/>
       <c r="M135" s="27"/>
@@ -65532,8 +66200,8 @@
       <c r="H147" s="24" t="s">
         <v>2590</v>
       </c>
-      <c r="I147" s="407"/>
-      <c r="J147" s="407"/>
+      <c r="I147" s="410"/>
+      <c r="J147" s="410"/>
       <c r="K147" s="20"/>
       <c r="L147" s="20"/>
       <c r="M147" s="27"/>
@@ -65547,8 +66215,8 @@
       <c r="H148" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="I148" s="408"/>
-      <c r="J148" s="408"/>
+      <c r="I148" s="411"/>
+      <c r="J148" s="411"/>
       <c r="K148" s="20"/>
       <c r="L148" s="20"/>
       <c r="M148" s="27"/>
@@ -65562,8 +66230,8 @@
       <c r="H149" s="20">
         <v>19</v>
       </c>
-      <c r="I149" s="408"/>
-      <c r="J149" s="408"/>
+      <c r="I149" s="411"/>
+      <c r="J149" s="411"/>
       <c r="K149" s="20"/>
       <c r="L149" s="20"/>
       <c r="M149" s="27"/>
@@ -65577,8 +66245,8 @@
       <c r="H150" s="29" t="s">
         <v>1807</v>
       </c>
-      <c r="I150" s="408"/>
-      <c r="J150" s="408"/>
+      <c r="I150" s="411"/>
+      <c r="J150" s="411"/>
       <c r="K150" s="20"/>
       <c r="L150" s="20"/>
       <c r="M150" s="27"/>
@@ -65588,8 +66256,8 @@
       <c r="F151" s="20"/>
       <c r="G151" s="20"/>
       <c r="H151" s="20"/>
-      <c r="I151" s="408"/>
-      <c r="J151" s="408"/>
+      <c r="I151" s="411"/>
+      <c r="J151" s="411"/>
       <c r="K151" s="20"/>
       <c r="L151" s="20"/>
       <c r="M151" s="27"/>
@@ -65599,8 +66267,8 @@
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
-      <c r="I152" s="408"/>
-      <c r="J152" s="408"/>
+      <c r="I152" s="411"/>
+      <c r="J152" s="411"/>
       <c r="K152" s="20"/>
       <c r="L152" s="20"/>
       <c r="M152" s="27"/>
@@ -65616,8 +66284,8 @@
       <c r="H153" s="24" t="s">
         <v>2590</v>
       </c>
-      <c r="I153" s="408"/>
-      <c r="J153" s="408"/>
+      <c r="I153" s="411"/>
+      <c r="J153" s="411"/>
       <c r="K153" s="20"/>
       <c r="L153" s="20"/>
       <c r="M153" s="27"/>
@@ -65634,8 +66302,8 @@
       <c r="H154" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="I154" s="408"/>
-      <c r="J154" s="408"/>
+      <c r="I154" s="411"/>
+      <c r="J154" s="411"/>
       <c r="K154" s="20"/>
       <c r="L154" s="20"/>
       <c r="M154" s="27"/>
@@ -65649,8 +66317,8 @@
       <c r="H155" s="20">
         <v>20</v>
       </c>
-      <c r="I155" s="408"/>
-      <c r="J155" s="408"/>
+      <c r="I155" s="411"/>
+      <c r="J155" s="411"/>
       <c r="K155" s="20"/>
       <c r="L155" s="20"/>
       <c r="M155" s="27"/>
@@ -65664,8 +66332,8 @@
       <c r="H156" s="29" t="s">
         <v>2583</v>
       </c>
-      <c r="I156" s="408"/>
-      <c r="J156" s="408"/>
+      <c r="I156" s="411"/>
+      <c r="J156" s="411"/>
       <c r="K156" s="20"/>
       <c r="L156" s="20"/>
       <c r="M156" s="27"/>
@@ -65675,8 +66343,8 @@
       <c r="F157" s="20"/>
       <c r="G157" s="20"/>
       <c r="H157" s="20"/>
-      <c r="I157" s="408"/>
-      <c r="J157" s="408"/>
+      <c r="I157" s="411"/>
+      <c r="J157" s="411"/>
       <c r="K157" s="20"/>
       <c r="L157" s="20"/>
       <c r="M157" s="27"/>
@@ -65692,8 +66360,8 @@
       <c r="H158" s="24" t="s">
         <v>2590</v>
       </c>
-      <c r="I158" s="408"/>
-      <c r="J158" s="408"/>
+      <c r="I158" s="411"/>
+      <c r="J158" s="411"/>
       <c r="K158" s="20"/>
       <c r="L158" s="20"/>
       <c r="M158" s="27"/>
@@ -65707,8 +66375,8 @@
       <c r="H159" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="I159" s="408"/>
-      <c r="J159" s="408"/>
+      <c r="I159" s="411"/>
+      <c r="J159" s="411"/>
       <c r="K159" s="20"/>
       <c r="L159" s="20"/>
       <c r="M159" s="27"/>
@@ -65722,8 +66390,8 @@
       <c r="H160" s="20">
         <v>18</v>
       </c>
-      <c r="I160" s="408"/>
-      <c r="J160" s="408"/>
+      <c r="I160" s="411"/>
+      <c r="J160" s="411"/>
       <c r="K160" s="20"/>
       <c r="L160" s="20"/>
       <c r="M160" s="27"/>
@@ -65737,8 +66405,8 @@
       <c r="H161" s="29" t="s">
         <v>2584</v>
       </c>
-      <c r="I161" s="409"/>
-      <c r="J161" s="409"/>
+      <c r="I161" s="412"/>
+      <c r="J161" s="412"/>
       <c r="K161" s="20"/>
       <c r="L161" s="20"/>
       <c r="M161" s="27"/>
@@ -66697,7 +67365,7 @@
       <c r="F269" s="32">
         <v>9</v>
       </c>
-      <c r="G269" s="402" t="s">
+      <c r="G269" s="405" t="s">
         <v>2228</v>
       </c>
       <c r="I269" s="48" t="s">
@@ -66718,7 +67386,7 @@
       <c r="F270" s="32">
         <v>15</v>
       </c>
-      <c r="G270" s="403"/>
+      <c r="G270" s="406"/>
       <c r="I270" s="151" t="s">
         <v>2224</v>
       </c>
@@ -67011,17 +67679,17 @@
     </row>
     <row r="300" spans="2:14">
       <c r="K300" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="301" spans="2:14" ht="15.75" thickBot="1">
       <c r="G301" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="302" spans="2:14">
       <c r="B302" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="G302" s="23"/>
       <c r="H302" s="24"/>
@@ -67030,7 +67698,7 @@
     </row>
     <row r="303" spans="2:14">
       <c r="G303" s="26" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="H303" s="20"/>
       <c r="I303" s="27"/>
@@ -67040,10 +67708,10 @@
     </row>
     <row r="304" spans="2:14">
       <c r="C304" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="G304" s="26" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="H304" s="20"/>
       <c r="I304" s="27"/>
@@ -67053,7 +67721,7 @@
     </row>
     <row r="305" spans="2:17">
       <c r="G305" s="26" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="H305" s="20"/>
       <c r="I305" s="27"/>
@@ -67070,7 +67738,7 @@
       <c r="C307" s="22"/>
       <c r="D307" s="22"/>
       <c r="G307" s="26" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="H307" s="20"/>
       <c r="I307" s="27"/>
@@ -67083,7 +67751,7 @@
       <c r="C308" s="22"/>
       <c r="D308" s="22"/>
       <c r="G308" s="26" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="H308" s="20"/>
       <c r="I308" s="27"/>
@@ -67093,14 +67761,14 @@
     </row>
     <row r="309" spans="2:17">
       <c r="G309" s="26" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="H309" s="20"/>
       <c r="I309" s="27"/>
     </row>
     <row r="310" spans="2:17">
       <c r="B310" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="G310" s="26"/>
       <c r="H310" s="20"/>
@@ -67109,7 +67777,7 @@
     </row>
     <row r="311" spans="2:17" ht="15.75" thickBot="1">
       <c r="B311" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="G311" s="28"/>
       <c r="H311" s="29"/>
@@ -67120,7 +67788,7 @@
     </row>
     <row r="312" spans="2:17">
       <c r="B312" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="K312" s="22"/>
       <c r="L312" s="22"/>
@@ -67128,12 +67796,12 @@
     </row>
     <row r="313" spans="2:17" ht="15.75" thickBot="1">
       <c r="B313" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="314" spans="2:17">
       <c r="G314" s="23" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="H314" s="24"/>
       <c r="I314" s="25"/>
@@ -67143,7 +67811,7 @@
       <c r="L314" s="24"/>
       <c r="M314" s="24"/>
       <c r="N314" s="24" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="O314" s="24"/>
       <c r="P314" s="24"/>
@@ -67208,7 +67876,7 @@
         <v>1536</v>
       </c>
       <c r="L317" s="20" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="M317" s="20"/>
       <c r="N317" s="20"/>
@@ -67222,10 +67890,10 @@
     </row>
     <row r="318" spans="2:17" ht="15.75" thickBot="1">
       <c r="C318" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="G318" s="26" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="H318" s="20"/>
       <c r="I318" s="27"/>
@@ -67250,7 +67918,7 @@
         <v>142</v>
       </c>
       <c r="G319" s="26" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="H319" s="20"/>
       <c r="I319" s="27"/>
@@ -67284,7 +67952,7 @@
         <v>0</v>
       </c>
       <c r="N320" s="20" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="O320" s="105" t="s">
         <v>56</v>
@@ -67319,10 +67987,10 @@
     </row>
     <row r="322" spans="2:17" ht="15.75" thickBot="1">
       <c r="B322" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="G322" s="76" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="I322" t="s">
         <v>349</v>
@@ -67341,7 +68009,7 @@
     </row>
     <row r="323" spans="2:17" ht="15.75" thickBot="1">
       <c r="B323" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="K323" s="28"/>
       <c r="L323" s="29"/>
@@ -67386,12 +68054,12 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
       <c r="F1" s="31" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" s="73" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="C2" s="74"/>
       <c r="D2" s="75"/>
@@ -67401,7 +68069,7 @@
       <c r="G2" s="74"/>
       <c r="H2" s="75"/>
       <c r="J2" s="73" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="K2" s="74"/>
       <c r="L2" s="75"/>
@@ -67428,7 +68096,7 @@
         <v>182</v>
       </c>
       <c r="H3" s="67" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="J3" s="76" t="s">
         <v>2577</v>
@@ -67460,7 +68128,7 @@
         <v>182</v>
       </c>
       <c r="H4" s="67" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="J4" s="76"/>
       <c r="K4" s="31" t="s">
@@ -67474,16 +68142,16 @@
         <v>178</v>
       </c>
       <c r="P4" s="67" t="s">
+        <v>2974</v>
+      </c>
+      <c r="Q4" s="326" t="s">
         <v>2975</v>
-      </c>
-      <c r="Q4" s="326" t="s">
-        <v>2976</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="B5" s="76"/>
       <c r="C5" s="31" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="D5" s="67" t="s">
         <v>196</v>
@@ -67493,7 +68161,7 @@
         <v>178</v>
       </c>
       <c r="H5" s="67" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="J5" s="76"/>
       <c r="K5" s="31" t="s">
@@ -67513,7 +68181,7 @@
     <row r="6" spans="1:17">
       <c r="B6" s="76"/>
       <c r="C6" s="31" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="D6" s="67" t="s">
         <v>1834</v>
@@ -67523,7 +68191,7 @@
         <v>178</v>
       </c>
       <c r="H6" s="67" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="J6" s="76"/>
       <c r="K6" s="31" t="s">
@@ -67538,7 +68206,7 @@
     <row r="7" spans="1:17">
       <c r="B7" s="76"/>
       <c r="C7" s="31" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="D7" s="67" t="s">
         <v>197</v>
@@ -67548,17 +68216,17 @@
         <v>182</v>
       </c>
       <c r="H7" s="67" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="J7" s="76"/>
       <c r="K7" s="31" t="s">
         <v>182</v>
       </c>
       <c r="L7" s="67" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="N7" s="76" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="P7" s="67"/>
       <c r="Q7" s="31">
@@ -67570,7 +68238,7 @@
       <c r="C8" s="78"/>
       <c r="D8" s="79"/>
       <c r="F8" s="77" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="G8" s="78"/>
       <c r="H8" s="79"/>
@@ -67583,27 +68251,27 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1">
       <c r="J9" s="31" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="31" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="H10" s="73" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="I10" s="74"/>
       <c r="J10" s="75"/>
       <c r="L10" s="73" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="M10" s="74"/>
       <c r="N10" s="75"/>
     </row>
     <row r="11" spans="1:17">
       <c r="B11" s="31" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="H11" s="76"/>
       <c r="I11" s="31" t="s">
@@ -67624,7 +68292,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="B12" s="31" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="H12" s="76"/>
       <c r="I12" s="31" t="s">
@@ -67643,11 +68311,11 @@
     </row>
     <row r="13" spans="1:17">
       <c r="B13" s="31" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="H13" s="76"/>
       <c r="I13" s="31" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="J13" s="67" t="s">
         <v>1883</v>
@@ -67662,7 +68330,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="B14" s="31" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="H14" s="76"/>
       <c r="J14" s="67"/>
@@ -67671,12 +68339,12 @@
         <v>178</v>
       </c>
       <c r="N14" s="67" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1">
       <c r="C15" s="31" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="H15" s="77"/>
       <c r="I15" s="78"/>
@@ -67686,26 +68354,26 @@
         <v>178</v>
       </c>
       <c r="N15" s="79" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="31" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="L17" s="31" t="s">
+        <v>2976</v>
+      </c>
+      <c r="M17" s="31" t="s">
         <v>2977</v>
-      </c>
-      <c r="M17" s="31" t="s">
-        <v>2978</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" s="31" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>1888</v>
@@ -67716,10 +68384,10 @@
     </row>
     <row r="19" spans="1:16">
       <c r="C19" s="31" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="N19" s="325"/>
       <c r="O19" s="31" t="s">
@@ -67731,15 +68399,15 @@
     </row>
     <row r="20" spans="1:16">
       <c r="B20" s="31" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="C21" s="31" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="26" spans="1:16">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="20" activeTab="26"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="22" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="program-basics" sheetId="34" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5707" uniqueCount="3065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5777" uniqueCount="3094">
   <si>
     <t>USER</t>
   </si>
@@ -9551,6 +9551,106 @@
   </si>
   <si>
     <t>3D= group of 2D</t>
+  </si>
+  <si>
+    <t>int age=22;</t>
+  </si>
+  <si>
+    <t>Person p1;</t>
+  </si>
+  <si>
+    <t>System.out.println(p1.name);</t>
+  </si>
+  <si>
+    <t>p2 is pointing to an address #abc</t>
+  </si>
+  <si>
+    <t>p1 is pointing to null/nothing</t>
+  </si>
+  <si>
+    <t>accessing variable and methods from null valued variables</t>
+  </si>
+  <si>
+    <t>applying dot operator on null valued variable</t>
+  </si>
+  <si>
+    <t>applying dot operator on declared variable only</t>
+  </si>
+  <si>
+    <t>look for LHS of dot operator for null check</t>
+  </si>
+  <si>
+    <t>public class School {</t>
+  </si>
+  <si>
+    <t>public class Address {</t>
+  </si>
+  <si>
+    <t>String city="ny";</t>
+  </si>
+  <si>
+    <t>School s=new School();</t>
+  </si>
+  <si>
+    <t>Person student=new Person();</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>1) new = allocate memory #abc</t>
+  </si>
+  <si>
+    <t>2) School() = construct school in #abc</t>
+  </si>
+  <si>
+    <t>refer blue print of school program</t>
+  </si>
+  <si>
+    <t>refer school class. Look for global variables in this program</t>
+  </si>
+  <si>
+    <t>addr</t>
+  </si>
+  <si>
+    <t>sysout( s.student.name);</t>
+  </si>
+  <si>
+    <t>sysout( #abc   . #xyz   . Name)</t>
+  </si>
+  <si>
+    <t>sysout( s.student.addr.city );</t>
+  </si>
+  <si>
+    <t>NullPointerExceptino</t>
+  </si>
+  <si>
+    <t>s.student.addr.city</t>
+  </si>
+  <si>
+    <t>Is s null ?</t>
+  </si>
+  <si>
+    <t>Is student null ?</t>
+  </si>
+  <si>
+    <t>Is addr null ?</t>
+  </si>
+  <si>
+    <r>
+      <t>Address addr</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=new Address();</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -10904,6 +11004,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11136,13 +11243,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11542,15 +11642,15 @@
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
-      <c r="E19" s="357"/>
-      <c r="F19" s="358"/>
-      <c r="G19" s="358"/>
-      <c r="H19" s="358"/>
-      <c r="I19" s="358"/>
-      <c r="J19" s="358"/>
-      <c r="K19" s="358"/>
-      <c r="L19" s="358"/>
-      <c r="M19" s="359"/>
+      <c r="E19" s="360"/>
+      <c r="F19" s="361"/>
+      <c r="G19" s="361"/>
+      <c r="H19" s="361"/>
+      <c r="I19" s="361"/>
+      <c r="J19" s="361"/>
+      <c r="K19" s="361"/>
+      <c r="L19" s="361"/>
+      <c r="M19" s="362"/>
       <c r="N19" s="66"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1">
@@ -12054,8 +12154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O299"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131:N150"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12082,17 +12182,17 @@
       <c r="A2" t="s">
         <v>2469</v>
       </c>
-      <c r="E2" s="387" t="s">
+      <c r="E2" s="390" t="s">
         <v>2763</v>
       </c>
-      <c r="F2" s="389"/>
-      <c r="G2" s="389"/>
-      <c r="H2" s="389"/>
-      <c r="I2" s="389"/>
-      <c r="J2" s="389"/>
-      <c r="K2" s="389"/>
-      <c r="L2" s="389"/>
-      <c r="M2" s="388"/>
+      <c r="F2" s="392"/>
+      <c r="G2" s="392"/>
+      <c r="H2" s="392"/>
+      <c r="I2" s="392"/>
+      <c r="J2" s="392"/>
+      <c r="K2" s="392"/>
+      <c r="L2" s="392"/>
+      <c r="M2" s="391"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="B3" t="s">
@@ -12371,17 +12471,17 @@
       <c r="A19" t="s">
         <v>2469</v>
       </c>
-      <c r="E19" s="387" t="s">
+      <c r="E19" s="390" t="s">
         <v>2763</v>
       </c>
-      <c r="F19" s="389"/>
-      <c r="G19" s="389"/>
-      <c r="H19" s="389"/>
-      <c r="I19" s="389"/>
-      <c r="J19" s="389"/>
-      <c r="K19" s="389"/>
-      <c r="L19" s="389"/>
-      <c r="M19" s="388"/>
+      <c r="F19" s="392"/>
+      <c r="G19" s="392"/>
+      <c r="H19" s="392"/>
+      <c r="I19" s="392"/>
+      <c r="J19" s="392"/>
+      <c r="K19" s="392"/>
+      <c r="L19" s="392"/>
+      <c r="M19" s="391"/>
     </row>
     <row r="20" spans="1:13">
       <c r="B20" t="s">
@@ -12714,17 +12814,17 @@
       <c r="A42" t="s">
         <v>2469</v>
       </c>
-      <c r="E42" s="387" t="s">
+      <c r="E42" s="390" t="s">
         <v>2763</v>
       </c>
-      <c r="F42" s="389"/>
-      <c r="G42" s="389"/>
-      <c r="H42" s="389"/>
-      <c r="I42" s="389"/>
-      <c r="J42" s="389"/>
-      <c r="K42" s="389"/>
-      <c r="L42" s="389"/>
-      <c r="M42" s="388"/>
+      <c r="F42" s="392"/>
+      <c r="G42" s="392"/>
+      <c r="H42" s="392"/>
+      <c r="I42" s="392"/>
+      <c r="J42" s="392"/>
+      <c r="K42" s="392"/>
+      <c r="L42" s="392"/>
+      <c r="M42" s="391"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1">
       <c r="B43" t="s">
@@ -13037,17 +13137,17 @@
       <c r="A65" t="s">
         <v>2797</v>
       </c>
-      <c r="E65" s="387" t="s">
+      <c r="E65" s="390" t="s">
         <v>2763</v>
       </c>
-      <c r="F65" s="389"/>
-      <c r="G65" s="389"/>
-      <c r="H65" s="389"/>
-      <c r="I65" s="389"/>
-      <c r="J65" s="389"/>
-      <c r="K65" s="389"/>
-      <c r="L65" s="389"/>
-      <c r="M65" s="388"/>
+      <c r="F65" s="392"/>
+      <c r="G65" s="392"/>
+      <c r="H65" s="392"/>
+      <c r="I65" s="392"/>
+      <c r="J65" s="392"/>
+      <c r="K65" s="392"/>
+      <c r="L65" s="392"/>
+      <c r="M65" s="391"/>
     </row>
     <row r="66" spans="1:13" ht="15.75" thickBot="1">
       <c r="B66" t="s">
@@ -13337,15 +13437,15 @@
       <c r="B88" s="31"/>
       <c r="C88" s="31"/>
       <c r="D88" s="31"/>
-      <c r="E88" s="357"/>
-      <c r="F88" s="358"/>
-      <c r="G88" s="358"/>
-      <c r="H88" s="358"/>
-      <c r="I88" s="358"/>
-      <c r="J88" s="358"/>
-      <c r="K88" s="358"/>
-      <c r="L88" s="358"/>
-      <c r="M88" s="359"/>
+      <c r="E88" s="360"/>
+      <c r="F88" s="361"/>
+      <c r="G88" s="361"/>
+      <c r="H88" s="361"/>
+      <c r="I88" s="361"/>
+      <c r="J88" s="361"/>
+      <c r="K88" s="361"/>
+      <c r="L88" s="361"/>
+      <c r="M88" s="362"/>
       <c r="N88" s="31"/>
       <c r="O88" s="31"/>
     </row>
@@ -13717,15 +13817,15 @@
       <c r="B107" s="31"/>
       <c r="C107" s="31"/>
       <c r="D107" s="31"/>
-      <c r="E107" s="420"/>
-      <c r="F107" s="420"/>
-      <c r="G107" s="420"/>
-      <c r="H107" s="420"/>
-      <c r="I107" s="420"/>
-      <c r="J107" s="420"/>
-      <c r="K107" s="420"/>
-      <c r="L107" s="420"/>
-      <c r="M107" s="420"/>
+      <c r="E107" s="423"/>
+      <c r="F107" s="423"/>
+      <c r="G107" s="423"/>
+      <c r="H107" s="423"/>
+      <c r="I107" s="423"/>
+      <c r="J107" s="423"/>
+      <c r="K107" s="423"/>
+      <c r="L107" s="423"/>
+      <c r="M107" s="423"/>
       <c r="N107" s="31"/>
       <c r="O107" s="31"/>
     </row>
@@ -13743,15 +13843,15 @@
       <c r="B109" s="31"/>
       <c r="C109" s="31"/>
       <c r="D109" s="31"/>
-      <c r="E109" s="357"/>
-      <c r="F109" s="358"/>
-      <c r="G109" s="358"/>
-      <c r="H109" s="358"/>
-      <c r="I109" s="358"/>
-      <c r="J109" s="358"/>
-      <c r="K109" s="358"/>
-      <c r="L109" s="358"/>
-      <c r="M109" s="359"/>
+      <c r="E109" s="360"/>
+      <c r="F109" s="361"/>
+      <c r="G109" s="361"/>
+      <c r="H109" s="361"/>
+      <c r="I109" s="361"/>
+      <c r="J109" s="361"/>
+      <c r="K109" s="361"/>
+      <c r="L109" s="361"/>
+      <c r="M109" s="362"/>
       <c r="N109" s="31"/>
       <c r="O109" s="31"/>
     </row>
@@ -14134,15 +14234,15 @@
       <c r="D129" s="306"/>
       <c r="E129" s="31"/>
       <c r="F129" s="31"/>
-      <c r="G129" s="420"/>
-      <c r="H129" s="420"/>
-      <c r="I129" s="420"/>
-      <c r="J129" s="420"/>
-      <c r="K129" s="420"/>
-      <c r="L129" s="420"/>
-      <c r="M129" s="420"/>
-      <c r="N129" s="420"/>
-      <c r="O129" s="420"/>
+      <c r="G129" s="423"/>
+      <c r="H129" s="423"/>
+      <c r="I129" s="423"/>
+      <c r="J129" s="423"/>
+      <c r="K129" s="423"/>
+      <c r="L129" s="423"/>
+      <c r="M129" s="423"/>
+      <c r="N129" s="423"/>
+      <c r="O129" s="423"/>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="31"/>
@@ -16788,49 +16888,49 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13">
-      <c r="B2" s="421" t="s">
+      <c r="B2" s="424" t="s">
         <v>1913</v>
       </c>
-      <c r="C2" s="422"/>
-      <c r="D2" s="423"/>
-      <c r="F2" s="421" t="s">
+      <c r="C2" s="425"/>
+      <c r="D2" s="426"/>
+      <c r="F2" s="424" t="s">
         <v>2444</v>
       </c>
-      <c r="G2" s="422"/>
-      <c r="H2" s="422"/>
-      <c r="I2" s="423"/>
-      <c r="K2" s="421" t="s">
+      <c r="G2" s="425"/>
+      <c r="H2" s="425"/>
+      <c r="I2" s="426"/>
+      <c r="K2" s="424" t="s">
         <v>2446</v>
       </c>
-      <c r="L2" s="422"/>
-      <c r="M2" s="423"/>
+      <c r="L2" s="425"/>
+      <c r="M2" s="426"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="424"/>
-      <c r="C3" s="425"/>
-      <c r="D3" s="426"/>
-      <c r="F3" s="424"/>
-      <c r="G3" s="425"/>
-      <c r="H3" s="425"/>
-      <c r="I3" s="426"/>
-      <c r="K3" s="424"/>
-      <c r="L3" s="425"/>
-      <c r="M3" s="426"/>
+      <c r="B3" s="427"/>
+      <c r="C3" s="428"/>
+      <c r="D3" s="429"/>
+      <c r="F3" s="427"/>
+      <c r="G3" s="428"/>
+      <c r="H3" s="428"/>
+      <c r="I3" s="429"/>
+      <c r="K3" s="427"/>
+      <c r="L3" s="428"/>
+      <c r="M3" s="429"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="424"/>
-      <c r="C4" s="425"/>
-      <c r="D4" s="426"/>
-      <c r="F4" s="424"/>
-      <c r="G4" s="425"/>
-      <c r="H4" s="425"/>
-      <c r="I4" s="426"/>
-      <c r="K4" s="424"/>
-      <c r="L4" s="425"/>
-      <c r="M4" s="426"/>
+      <c r="B4" s="427"/>
+      <c r="C4" s="428"/>
+      <c r="D4" s="429"/>
+      <c r="F4" s="427"/>
+      <c r="G4" s="428"/>
+      <c r="H4" s="428"/>
+      <c r="I4" s="429"/>
+      <c r="K4" s="427"/>
+      <c r="L4" s="428"/>
+      <c r="M4" s="429"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="427" t="s">
+      <c r="A5" s="430" t="s">
         <v>1773</v>
       </c>
       <c r="B5" s="72"/>
@@ -16857,7 +16957,7 @@
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="427"/>
+      <c r="A6" s="430"/>
       <c r="B6" s="72"/>
       <c r="C6" s="32" t="s">
         <v>56</v>
@@ -16882,7 +16982,7 @@
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="427"/>
+      <c r="A7" s="430"/>
       <c r="B7" s="72"/>
       <c r="C7" s="32" t="s">
         <v>2448</v>
@@ -16915,7 +17015,7 @@
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="427" t="s">
+      <c r="A9" s="430" t="s">
         <v>200</v>
       </c>
       <c r="B9" s="260" t="s">
@@ -16936,7 +17036,7 @@
       <c r="M9" s="209"/>
     </row>
     <row r="10" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A10" s="427"/>
+      <c r="A10" s="430"/>
       <c r="B10" s="260"/>
       <c r="C10" s="261" t="s">
         <v>2453</v>
@@ -16958,7 +17058,7 @@
       <c r="M10" s="209"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="427"/>
+      <c r="A11" s="430"/>
       <c r="B11" s="260"/>
       <c r="C11" s="119"/>
       <c r="D11" s="209"/>
@@ -16978,7 +17078,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="427"/>
+      <c r="A12" s="430"/>
       <c r="B12" s="260"/>
       <c r="C12" s="119"/>
       <c r="D12" s="209"/>
@@ -17158,23 +17258,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="428" t="s">
+      <c r="A1" s="431" t="s">
         <v>2095</v>
       </c>
-      <c r="B1" s="428"/>
-      <c r="C1" s="428"/>
-      <c r="D1" s="428"/>
-      <c r="E1" s="428"/>
-      <c r="F1" s="428"/>
-      <c r="I1" s="428" t="s">
+      <c r="B1" s="431"/>
+      <c r="C1" s="431"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="431"/>
+      <c r="F1" s="431"/>
+      <c r="I1" s="431" t="s">
         <v>2107</v>
       </c>
-      <c r="J1" s="428"/>
-      <c r="K1" s="428"/>
-      <c r="L1" s="428"/>
-      <c r="M1" s="428"/>
-      <c r="N1" s="428"/>
-      <c r="O1" s="428"/>
+      <c r="J1" s="431"/>
+      <c r="K1" s="431"/>
+      <c r="L1" s="431"/>
+      <c r="M1" s="431"/>
+      <c r="N1" s="431"/>
+      <c r="O1" s="431"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -17330,28 +17430,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="384" t="s">
+      <c r="A12" s="387" t="s">
         <v>2109</v>
       </c>
-      <c r="B12" s="386"/>
-      <c r="C12" s="386"/>
-      <c r="D12" s="386"/>
-      <c r="E12" s="386"/>
-      <c r="F12" s="386"/>
-      <c r="G12" s="386"/>
-      <c r="H12" s="385"/>
-      <c r="I12" s="384" t="s">
+      <c r="B12" s="389"/>
+      <c r="C12" s="389"/>
+      <c r="D12" s="389"/>
+      <c r="E12" s="389"/>
+      <c r="F12" s="389"/>
+      <c r="G12" s="389"/>
+      <c r="H12" s="388"/>
+      <c r="I12" s="387" t="s">
         <v>2109</v>
       </c>
-      <c r="J12" s="386"/>
-      <c r="K12" s="386"/>
-      <c r="L12" s="386"/>
-      <c r="M12" s="386"/>
-      <c r="N12" s="386"/>
-      <c r="O12" s="386"/>
-      <c r="P12" s="386"/>
-      <c r="Q12" s="386"/>
-      <c r="R12" s="385"/>
+      <c r="J12" s="389"/>
+      <c r="K12" s="389"/>
+      <c r="L12" s="389"/>
+      <c r="M12" s="389"/>
+      <c r="N12" s="389"/>
+      <c r="O12" s="389"/>
+      <c r="P12" s="389"/>
+      <c r="Q12" s="389"/>
+      <c r="R12" s="388"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="23" t="s">
@@ -17579,14 +17679,14 @@
       <c r="R21" s="30"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="428" t="s">
+      <c r="A24" s="431" t="s">
         <v>2095</v>
       </c>
-      <c r="B24" s="428"/>
-      <c r="C24" s="428"/>
-      <c r="D24" s="428"/>
-      <c r="E24" s="428"/>
-      <c r="F24" s="428"/>
+      <c r="B24" s="431"/>
+      <c r="C24" s="431"/>
+      <c r="D24" s="431"/>
+      <c r="E24" s="431"/>
+      <c r="F24" s="431"/>
       <c r="H24" s="217" t="s">
         <v>2107</v>
       </c>
@@ -17596,11 +17696,11 @@
       <c r="L24" s="217"/>
       <c r="M24" s="217"/>
       <c r="N24" s="217"/>
-      <c r="P24" s="428" t="s">
+      <c r="P24" s="431" t="s">
         <v>2147</v>
       </c>
-      <c r="Q24" s="428"/>
-      <c r="R24" s="428"/>
+      <c r="Q24" s="431"/>
+      <c r="R24" s="431"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="84" t="s">
@@ -17840,28 +17940,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="384" t="s">
+      <c r="A35" s="387" t="s">
         <v>2148</v>
       </c>
-      <c r="B35" s="386"/>
-      <c r="C35" s="386"/>
-      <c r="D35" s="386"/>
-      <c r="E35" s="386"/>
-      <c r="F35" s="386"/>
-      <c r="G35" s="386"/>
-      <c r="H35" s="385"/>
-      <c r="I35" s="384" t="s">
+      <c r="B35" s="389"/>
+      <c r="C35" s="389"/>
+      <c r="D35" s="389"/>
+      <c r="E35" s="389"/>
+      <c r="F35" s="389"/>
+      <c r="G35" s="389"/>
+      <c r="H35" s="388"/>
+      <c r="I35" s="387" t="s">
         <v>912</v>
       </c>
-      <c r="J35" s="386"/>
-      <c r="K35" s="386"/>
-      <c r="L35" s="386"/>
-      <c r="M35" s="386"/>
-      <c r="N35" s="386"/>
-      <c r="O35" s="386"/>
-      <c r="P35" s="386"/>
-      <c r="Q35" s="386"/>
-      <c r="R35" s="385"/>
+      <c r="J35" s="389"/>
+      <c r="K35" s="389"/>
+      <c r="L35" s="389"/>
+      <c r="M35" s="389"/>
+      <c r="N35" s="389"/>
+      <c r="O35" s="389"/>
+      <c r="P35" s="389"/>
+      <c r="Q35" s="389"/>
+      <c r="R35" s="388"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="23" t="s">
@@ -28483,8 +28583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P157"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H136" sqref="H136"/>
+    <sheetView topLeftCell="A136" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151:C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32420,7 +32520,7 @@
   <dimension ref="A1:N229"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J10" sqref="J10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34577,10 +34677,10 @@
       </c>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="429" t="s">
+      <c r="A32" s="432" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="429"/>
+      <c r="B32" s="432"/>
       <c r="D32" t="s">
         <v>2927</v>
       </c>
@@ -34592,8 +34692,8 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="429"/>
-      <c r="B33" s="429"/>
+      <c r="A33" s="432"/>
+      <c r="B33" s="432"/>
       <c r="D33" t="s">
         <v>2928</v>
       </c>
@@ -34605,8 +34705,8 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="429"/>
-      <c r="B34" s="429"/>
+      <c r="A34" s="432"/>
+      <c r="B34" s="432"/>
       <c r="F34" t="s">
         <v>2934</v>
       </c>
@@ -34615,8 +34715,8 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="429"/>
-      <c r="B35" s="429"/>
+      <c r="A35" s="432"/>
+      <c r="B35" s="432"/>
       <c r="F35" t="s">
         <v>2930</v>
       </c>
@@ -34625,8 +34725,8 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="429"/>
-      <c r="B36" s="429"/>
+      <c r="A36" s="432"/>
+      <c r="B36" s="432"/>
       <c r="G36" t="s">
         <v>2931</v>
       </c>
@@ -34635,12 +34735,12 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="429"/>
-      <c r="B37" s="429"/>
+      <c r="A37" s="432"/>
+      <c r="B37" s="432"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="429"/>
-      <c r="B38" s="429"/>
+      <c r="A38" s="432"/>
+      <c r="B38" s="432"/>
       <c r="G38" t="s">
         <v>2936</v>
       </c>
@@ -34649,25 +34749,25 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="429"/>
-      <c r="B39" s="429"/>
+      <c r="A39" s="432"/>
+      <c r="B39" s="432"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="429" t="s">
+      <c r="A40" s="432" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="429"/>
+      <c r="B40" s="432"/>
       <c r="F40" t="s">
         <v>2943</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="429"/>
-      <c r="B41" s="429"/>
+      <c r="A41" s="432"/>
+      <c r="B41" s="432"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="429"/>
-      <c r="B42" s="429"/>
+      <c r="A42" s="432"/>
+      <c r="B42" s="432"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
@@ -36198,7 +36298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -36645,7 +36745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection sqref="A1:D109"/>
     </sheetView>
   </sheetViews>
@@ -37881,10 +37981,10 @@
       </c>
       <c r="I24" s="330"/>
       <c r="J24" s="332"/>
-      <c r="K24" s="430" t="s">
+      <c r="K24" s="433" t="s">
         <v>3028</v>
       </c>
-      <c r="L24" s="408"/>
+      <c r="L24" s="411"/>
       <c r="M24" s="341"/>
       <c r="N24" s="333"/>
     </row>
@@ -37911,8 +38011,8 @@
       <c r="J25" s="336" t="s">
         <v>3025</v>
       </c>
-      <c r="K25" s="408"/>
-      <c r="L25" s="408"/>
+      <c r="K25" s="411"/>
+      <c r="L25" s="411"/>
       <c r="M25" s="341"/>
       <c r="N25" s="333"/>
     </row>
@@ -37933,8 +38033,8 @@
       <c r="H26" s="333"/>
       <c r="I26" s="333"/>
       <c r="J26" s="333"/>
-      <c r="K26" s="408"/>
-      <c r="L26" s="408"/>
+      <c r="K26" s="411"/>
+      <c r="L26" s="411"/>
       <c r="M26" s="341"/>
       <c r="N26" s="333"/>
     </row>
@@ -37955,8 +38055,8 @@
       <c r="H27" s="96"/>
       <c r="I27" s="96"/>
       <c r="J27" s="333"/>
-      <c r="K27" s="408"/>
-      <c r="L27" s="408"/>
+      <c r="K27" s="411"/>
+      <c r="L27" s="411"/>
       <c r="M27" s="341"/>
       <c r="N27" s="333"/>
     </row>
@@ -37973,8 +38073,8 @@
       <c r="H28" s="333"/>
       <c r="I28" s="333"/>
       <c r="J28" s="96"/>
-      <c r="K28" s="408"/>
-      <c r="L28" s="408"/>
+      <c r="K28" s="411"/>
+      <c r="L28" s="411"/>
       <c r="M28" s="341"/>
       <c r="N28" s="333"/>
     </row>
@@ -37991,8 +38091,8 @@
       <c r="H29" s="96"/>
       <c r="I29" s="333"/>
       <c r="J29" s="333"/>
-      <c r="K29" s="408"/>
-      <c r="L29" s="408"/>
+      <c r="K29" s="411"/>
+      <c r="L29" s="411"/>
       <c r="M29" s="341"/>
       <c r="N29" s="333"/>
     </row>
@@ -38007,8 +38107,8 @@
       <c r="H30" s="333"/>
       <c r="I30" s="333"/>
       <c r="J30" s="333"/>
-      <c r="K30" s="408"/>
-      <c r="L30" s="408"/>
+      <c r="K30" s="411"/>
+      <c r="L30" s="411"/>
       <c r="M30" s="341"/>
       <c r="N30" s="333"/>
     </row>
@@ -38027,8 +38127,8 @@
       </c>
       <c r="I31" s="330"/>
       <c r="J31" s="332"/>
-      <c r="K31" s="408"/>
-      <c r="L31" s="408"/>
+      <c r="K31" s="411"/>
+      <c r="L31" s="411"/>
       <c r="M31" s="341"/>
       <c r="N31" s="333"/>
     </row>
@@ -38049,8 +38149,8 @@
       <c r="J32" s="336" t="s">
         <v>455</v>
       </c>
-      <c r="K32" s="408"/>
-      <c r="L32" s="408"/>
+      <c r="K32" s="411"/>
+      <c r="L32" s="411"/>
       <c r="M32" s="341"/>
       <c r="N32" s="333"/>
     </row>
@@ -38067,8 +38167,8 @@
       <c r="H33" s="333"/>
       <c r="I33" s="333"/>
       <c r="J33" s="333"/>
-      <c r="K33" s="408"/>
-      <c r="L33" s="408"/>
+      <c r="K33" s="411"/>
+      <c r="L33" s="411"/>
       <c r="M33" s="341"/>
       <c r="N33" s="333"/>
     </row>
@@ -38083,8 +38183,8 @@
       <c r="H34" s="333"/>
       <c r="I34" s="333"/>
       <c r="J34" s="333"/>
-      <c r="K34" s="408"/>
-      <c r="L34" s="408"/>
+      <c r="K34" s="411"/>
+      <c r="L34" s="411"/>
       <c r="M34" s="341"/>
       <c r="N34" s="333"/>
     </row>
@@ -38101,8 +38201,8 @@
       <c r="H35" s="333"/>
       <c r="I35" s="333"/>
       <c r="J35" s="333"/>
-      <c r="K35" s="408"/>
-      <c r="L35" s="408"/>
+      <c r="K35" s="411"/>
+      <c r="L35" s="411"/>
       <c r="M35" s="341"/>
       <c r="N35" s="333"/>
     </row>
@@ -38121,8 +38221,8 @@
       </c>
       <c r="I36" s="330"/>
       <c r="J36" s="332"/>
-      <c r="K36" s="408"/>
-      <c r="L36" s="408"/>
+      <c r="K36" s="411"/>
+      <c r="L36" s="411"/>
       <c r="M36" s="341"/>
       <c r="N36" s="333"/>
     </row>
@@ -38143,8 +38243,8 @@
       <c r="J37" s="336" t="s">
         <v>490</v>
       </c>
-      <c r="K37" s="408"/>
-      <c r="L37" s="408"/>
+      <c r="K37" s="411"/>
+      <c r="L37" s="411"/>
       <c r="M37" s="341"/>
       <c r="N37" s="333"/>
     </row>
@@ -39153,8 +39253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39395,7 +39495,7 @@
       <c r="J24" s="338">
         <v>0</v>
       </c>
-      <c r="K24" s="435">
+      <c r="K24" s="357">
         <v>0</v>
       </c>
     </row>
@@ -39406,7 +39506,7 @@
       <c r="G25" s="338">
         <v>1</v>
       </c>
-      <c r="H25" s="435">
+      <c r="H25" s="357">
         <v>56</v>
       </c>
       <c r="J25" s="338">
@@ -39492,7 +39592,7 @@
       <c r="B37" s="328" t="s">
         <v>3059</v>
       </c>
-      <c r="E37" s="436">
+      <c r="E37" s="358">
         <v>0</v>
       </c>
       <c r="F37" s="107">
@@ -39503,7 +39603,7 @@
       <c r="B38" s="328" t="s">
         <v>3060</v>
       </c>
-      <c r="E38" s="436">
+      <c r="E38" s="358">
         <v>1</v>
       </c>
       <c r="F38" s="107">
@@ -39511,7 +39611,7 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="E39" s="436">
+      <c r="E39" s="358">
         <v>2</v>
       </c>
       <c r="F39" s="107">
@@ -39530,7 +39630,7 @@
       <c r="F42" s="83">
         <v>0</v>
       </c>
-      <c r="G42" s="436">
+      <c r="G42" s="358">
         <v>1</v>
       </c>
     </row>
@@ -39538,7 +39638,7 @@
       <c r="B43" s="328" t="s">
         <v>3061</v>
       </c>
-      <c r="E43" s="436">
+      <c r="E43" s="358">
         <v>0</v>
       </c>
       <c r="F43" s="107">
@@ -39549,7 +39649,7 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="E44" s="436">
+      <c r="E44" s="358">
         <v>1</v>
       </c>
       <c r="F44" s="107">
@@ -39563,10 +39663,10 @@
       <c r="A45" s="328" t="s">
         <v>3062</v>
       </c>
-      <c r="E45" s="436">
+      <c r="E45" s="358">
         <v>2</v>
       </c>
-      <c r="F45" s="437">
+      <c r="F45" s="359">
         <v>0</v>
       </c>
       <c r="G45" s="107">
@@ -43810,10 +43910,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W353"/>
+  <dimension ref="A1:W393"/>
   <sheetViews>
-    <sheetView topLeftCell="A329" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F343" sqref="F343"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43822,159 +43922,261 @@
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="L1" s="89"/>
+    <row r="1" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A1" t="s">
+        <v>1440</v>
+      </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="L2" s="89"/>
+      <c r="B2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="71" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="C3" s="89"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
+      <c r="B3" t="s">
+        <v>3065</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>1463</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>3069</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="27"/>
       <c r="Q3" s="89"/>
       <c r="R3" s="89"/>
       <c r="S3" s="89"/>
       <c r="T3" s="22"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="C4" s="89"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>3068</v>
+      </c>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="27"/>
       <c r="Q4" s="89"/>
       <c r="R4" s="89"/>
       <c r="S4" s="89"/>
       <c r="T4" s="22"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="C5" s="89"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="27"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
     </row>
-    <row r="6" spans="1:20">
-      <c r="C6" s="89"/>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1">
+      <c r="G6" s="26"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="27"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="C7" s="89"/>
-      <c r="F7" s="22"/>
+      <c r="B7" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="221" t="s">
+        <v>344</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="27"/>
       <c r="R7" s="22"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="C8" s="89"/>
-      <c r="F8" s="22"/>
+      <c r="B8" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="27"/>
       <c r="R8" s="22"/>
     </row>
-    <row r="9" spans="1:20">
-      <c r="C9" s="89"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1">
+      <c r="B9" t="s">
+        <v>3067</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="K9" s="47">
+        <v>22</v>
+      </c>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="27"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="C10" s="89"/>
+      <c r="B10" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E10" t="s">
+        <v>343</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="27"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="7" t="s">
-        <v>920</v>
-      </c>
-      <c r="C11" s="89"/>
-      <c r="J11" s="22"/>
-      <c r="P11" s="22"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="27"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="J12" s="22"/>
-      <c r="P12" s="22"/>
+      <c r="A12" t="s">
+        <v>3070</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="27"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
+      <c r="A13" t="s">
+        <v>3071</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="27"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>3072</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="27"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="L15" s="22"/>
-      <c r="N15" s="22"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="27"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="L16" s="22"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="22"/>
+      <c r="A16" t="s">
+        <v>3073</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="27"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="L17" s="84"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="84"/>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" s="86"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="27"/>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" thickBot="1">
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
       <c r="Q18" s="86"/>
       <c r="R18" s="86"/>
       <c r="S18" s="86"/>
@@ -43983,2037 +44185,2479 @@
       <c r="V18" s="86"/>
       <c r="W18" s="86"/>
     </row>
-    <row r="19" spans="1:23">
-      <c r="L19" s="84"/>
-      <c r="M19" s="133"/>
-      <c r="N19" s="84"/>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="127"/>
+    <row r="19" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A19" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" thickBot="1">
+      <c r="B20" t="s">
+        <v>3078</v>
+      </c>
+      <c r="G20" s="70" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H20" s="71" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="25"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="127"/>
-      <c r="N21" s="22"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>397</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="K21" s="23"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="27"/>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A22" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G22" s="26"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="28" t="s">
+        <v>3079</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>1505</v>
+      </c>
+      <c r="M22" s="20"/>
+      <c r="N22" s="27"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="D23" s="84"/>
-      <c r="F23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="127"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="51" t="s">
+      <c r="B23" t="s">
+        <v>287</v>
+      </c>
+      <c r="G23" s="26"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="27"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="B24" t="s">
+        <v>3065</v>
+      </c>
+      <c r="G24" s="26"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="27"/>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" thickBot="1">
+      <c r="B25" t="s">
+        <v>3093</v>
+      </c>
+      <c r="G25" s="26"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>2839</v>
+      </c>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="27"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="26"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20" t="s">
+        <v>1505</v>
+      </c>
+      <c r="K26" s="23"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="27"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" t="s">
+        <v>3075</v>
+      </c>
+      <c r="G27" s="26"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" s="90" t="s">
+        <v>343</v>
+      </c>
+      <c r="M27" s="20"/>
+      <c r="N27" s="27"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="B28" t="s">
+        <v>3076</v>
+      </c>
+      <c r="G28" s="26"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="L28" s="90">
+        <v>22</v>
+      </c>
+      <c r="M28" s="20"/>
+      <c r="N28" s="27"/>
+    </row>
+    <row r="29" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="26"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="28" t="s">
+        <v>3084</v>
+      </c>
+      <c r="L29" s="271" t="s">
+        <v>348</v>
+      </c>
+      <c r="M29" s="20"/>
+      <c r="N29" s="27"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="G30" s="26" t="s">
+        <v>3086</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="27"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" t="s">
+        <v>3077</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>3085</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="27"/>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="B32" t="s">
+        <v>3080</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>3087</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20" t="s">
+        <v>3088</v>
+      </c>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="27"/>
+    </row>
+    <row r="33" spans="2:20">
+      <c r="B33" t="s">
+        <v>3081</v>
+      </c>
+      <c r="G33" s="26"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="27"/>
+    </row>
+    <row r="34" spans="2:20">
+      <c r="C34" t="s">
+        <v>3082</v>
+      </c>
+      <c r="G34" s="26"/>
+      <c r="H34" s="20"/>
+      <c r="I34" t="s">
+        <v>3073</v>
+      </c>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="27"/>
+    </row>
+    <row r="35" spans="2:20">
+      <c r="C35" t="s">
+        <v>3083</v>
+      </c>
+      <c r="G35" s="26"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20" t="s">
+        <v>3089</v>
+      </c>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="27"/>
+    </row>
+    <row r="36" spans="2:20">
+      <c r="G36" s="26"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="31" t="s">
+        <v>3090</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="27"/>
+    </row>
+    <row r="37" spans="2:20">
+      <c r="G37" s="26"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="31" t="s">
+        <v>3091</v>
+      </c>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="27"/>
+    </row>
+    <row r="38" spans="2:20" ht="15.75" thickBot="1">
+      <c r="G38" s="28"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="173" t="s">
+        <v>3092</v>
+      </c>
+      <c r="J38" s="173"/>
+      <c r="K38" s="173" t="s">
+        <v>515</v>
+      </c>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="30"/>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="Q39" s="84"/>
+      <c r="R39" s="84"/>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="R40" s="84"/>
+      <c r="S40" s="84"/>
+      <c r="T40" s="84"/>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="L41" s="89"/>
+      <c r="R41" s="22"/>
+      <c r="T41" s="84"/>
+    </row>
+    <row r="42" spans="2:20">
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="L42" s="89"/>
+      <c r="R42" s="22"/>
+      <c r="T42" s="22"/>
+    </row>
+    <row r="43" spans="2:20">
+      <c r="C43" s="89"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="89"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="89"/>
+      <c r="O43" s="89"/>
+      <c r="P43" s="89"/>
+      <c r="R43" s="22"/>
+      <c r="T43" s="22"/>
+    </row>
+    <row r="44" spans="2:20">
+      <c r="C44" s="89"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="89"/>
+      <c r="L44" s="89"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="89"/>
+      <c r="R44" s="22"/>
+      <c r="T44" s="22"/>
+    </row>
+    <row r="45" spans="2:20">
+      <c r="C45" s="89"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="T45" s="22"/>
+    </row>
+    <row r="46" spans="2:20">
+      <c r="C46" s="89"/>
+      <c r="T46" s="22"/>
+    </row>
+    <row r="47" spans="2:20">
+      <c r="C47" s="89"/>
+      <c r="F47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+    </row>
+    <row r="48" spans="2:20">
+      <c r="C48" s="89"/>
+      <c r="F48" s="22"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="C49" s="89"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="C50" s="89"/>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="C51" s="89"/>
+      <c r="J51" s="22"/>
+      <c r="P51" s="22"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="J52" s="22"/>
+      <c r="P52" s="22"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="L55" s="22"/>
+      <c r="N55" s="22"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="L56" s="22"/>
+      <c r="M56" s="51"/>
+      <c r="N56" s="22"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="L57" s="84"/>
+      <c r="M57" s="85"/>
+      <c r="N57" s="84"/>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="86"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="86"/>
+      <c r="J58" s="86"/>
+      <c r="K58" s="86"/>
+      <c r="L58" s="86"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="86"/>
+      <c r="O58" s="86"/>
+      <c r="P58" s="86"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="L59" s="84"/>
+      <c r="M59" s="133"/>
+      <c r="N59" s="84"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="K60" s="127"/>
+      <c r="L60" s="127"/>
+      <c r="M60" s="127"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="D61" s="84"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="84"/>
+      <c r="H61" s="84"/>
+      <c r="I61" s="84"/>
+      <c r="J61" s="84"/>
+      <c r="K61" s="127"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="127"/>
+      <c r="N61" s="22"/>
+      <c r="P61" s="84"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="D62" s="84"/>
+      <c r="E62" s="84"/>
+      <c r="F62" s="84"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="127"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="127"/>
+      <c r="N62" s="22"/>
+      <c r="P62" s="22"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="D63" s="84"/>
+      <c r="F63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="127"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="51" t="s">
         <v>1468</v>
       </c>
-      <c r="N23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="T23" s="84"/>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="A24" s="7" t="s">
+      <c r="N63" s="22"/>
+      <c r="P63" s="22"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="127"/>
-      <c r="P24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="T24" s="22"/>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="D25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22" t="s">
+      <c r="D64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="127"/>
+      <c r="P64" s="22"/>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="D65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22" t="s">
         <v>918</v>
       </c>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="T25" s="22"/>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="D26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="T26" s="22"/>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="D27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22" t="s">
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="22"/>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="D66" s="22"/>
+      <c r="F66" s="22"/>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="D67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22" t="s">
         <v>919</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="T27" s="22"/>
-    </row>
-    <row r="28" spans="1:23">
-      <c r="D28" s="22"/>
-      <c r="T28" s="22"/>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22" t="s">
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="D68" s="22"/>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22" t="s">
         <v>1467</v>
       </c>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+    <row r="77" spans="1:16">
+      <c r="A77" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+    <row r="78" spans="1:16">
+      <c r="A78" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+    <row r="79" spans="1:16">
+      <c r="A79" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="B40" t="s">
+    <row r="80" spans="1:16">
+      <c r="B80" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
         <v>995</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="B44" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="B45" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="B46" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="B49" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="B50" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="B53" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="B60" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="B61" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="B62" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="B66" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="B71" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="B75" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>1023</v>
+        <v>996</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>947</v>
+      <c r="B84" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>1024</v>
+      <c r="B85" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="B86" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="B87" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>947</v>
+        <v>999</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>1027</v>
+      <c r="B89" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>947</v>
+      <c r="B90" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="B97" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="B93" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="B100" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="B101" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="B102" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="B103" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="B104" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="B107" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="C108" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="C109" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="B110" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="C111" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="C112" t="s">
-        <v>1063</v>
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="B106" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="B111" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>1064</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="B115" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="B116" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="B117" t="s">
-        <v>1067</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="B118" t="s">
-        <v>1068</v>
+      <c r="A118" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>1069</v>
+        <v>947</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="B123" t="s">
-        <v>1070</v>
+      <c r="A123" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="B124" t="s">
-        <v>1071</v>
+      <c r="A124" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="B125" t="s">
-        <v>1072</v>
+      <c r="A125" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="B126" t="s">
-        <v>1073</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="B127" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="B137" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="B141" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="B142" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="B143" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="B144" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="B147" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="C148" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="C149" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="B150" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="C151" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="C152" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="B155" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="B156" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="B157" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="B158" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="B163" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="B164" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="B165" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="B166" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="B167" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="B128" t="s">
+    <row r="168" spans="1:5">
+      <c r="B168" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
-      <c r="B130" t="s">
+    <row r="170" spans="1:5">
+      <c r="B170" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
-      <c r="B131" t="s">
+    <row r="171" spans="1:5">
+      <c r="B171" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
-      <c r="B132" t="s">
+    <row r="172" spans="1:5">
+      <c r="B172" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
-      <c r="B133" t="s">
+    <row r="173" spans="1:5">
+      <c r="B173" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
-      <c r="E134" t="s">
+    <row r="174" spans="1:5">
+      <c r="E174" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
-      <c r="B136" t="s">
+    <row r="176" spans="1:5">
+      <c r="B176" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
-      <c r="D137" t="s">
+    <row r="177" spans="1:20">
+      <c r="D177" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
-      <c r="B139" t="s">
+    <row r="179" spans="1:20">
+      <c r="B179" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
-      <c r="B140" t="s">
+    <row r="180" spans="1:20">
+      <c r="B180" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
-      <c r="B141" t="s">
+    <row r="181" spans="1:20">
+      <c r="B181" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
-      <c r="A143" t="s">
+    <row r="183" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A183" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
-      <c r="B144" t="s">
+    <row r="184" spans="1:20">
+      <c r="B184" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="145" spans="2:3">
-      <c r="B145" t="s">
+      <c r="Q184" s="24"/>
+      <c r="R184" s="24"/>
+      <c r="S184" s="24"/>
+      <c r="T184" s="25"/>
+    </row>
+    <row r="185" spans="1:20" ht="15.75" thickBot="1">
+      <c r="B185" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="146" spans="2:3">
-      <c r="B146" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3">
-      <c r="C147" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3">
-      <c r="C148" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3">
-      <c r="C149" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3">
-      <c r="C150" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3">
-      <c r="C151" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3">
-      <c r="B152" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3">
-      <c r="B153" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3">
-      <c r="B154" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3">
-      <c r="C155" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3">
-      <c r="C156" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3">
-      <c r="C157" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="159" spans="2:3">
-      <c r="B159" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="161" spans="1:20">
-      <c r="B161" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="162" spans="1:20">
-      <c r="C162" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="163" spans="1:20">
-      <c r="C163" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="164" spans="1:20">
-      <c r="C164" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="165" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B165" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="166" spans="1:20">
-      <c r="K166" s="23"/>
-      <c r="L166" s="24"/>
-      <c r="M166" s="24"/>
-      <c r="N166" s="24"/>
-      <c r="O166" s="24"/>
-      <c r="P166" s="24"/>
-      <c r="Q166" s="24"/>
-      <c r="R166" s="24"/>
-      <c r="S166" s="24"/>
-      <c r="T166" s="25"/>
-    </row>
-    <row r="167" spans="1:20" ht="15.75" thickBot="1">
-      <c r="K167" s="26"/>
-      <c r="L167" s="20"/>
-      <c r="M167" s="20"/>
-      <c r="N167" s="20"/>
-      <c r="O167" s="20"/>
-      <c r="P167" s="20"/>
-      <c r="Q167" s="20"/>
-      <c r="R167" s="20"/>
-      <c r="S167" s="20"/>
-      <c r="T167" s="27"/>
-    </row>
-    <row r="168" spans="1:20">
-      <c r="K168" s="26"/>
-      <c r="L168" s="20" t="s">
-        <v>1463</v>
-      </c>
-      <c r="M168" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="N168" s="20"/>
-      <c r="O168" s="20"/>
-      <c r="P168" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q168" s="23"/>
-      <c r="R168" s="25"/>
-      <c r="S168" s="20"/>
-      <c r="T168" s="27"/>
-    </row>
-    <row r="169" spans="1:20">
-      <c r="K169" s="26"/>
-      <c r="L169" s="20" t="s">
-        <v>1449</v>
-      </c>
-      <c r="M169" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="N169" s="20"/>
-      <c r="O169" s="20"/>
-      <c r="P169" s="20"/>
-      <c r="Q169" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="R169" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="S169" s="20"/>
-      <c r="T169" s="27"/>
-    </row>
-    <row r="170" spans="1:20">
-      <c r="A170" t="s">
-        <v>1440</v>
-      </c>
-      <c r="K170" s="26"/>
-      <c r="L170" s="20"/>
-      <c r="M170" s="20"/>
-      <c r="N170" s="20"/>
-      <c r="O170" s="20"/>
-      <c r="P170" s="20"/>
-      <c r="Q170" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="R170" s="27">
-        <v>0</v>
-      </c>
-      <c r="S170" s="20"/>
-      <c r="T170" s="27"/>
-    </row>
-    <row r="171" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B171" t="s">
-        <v>391</v>
-      </c>
-      <c r="K171" s="26"/>
-      <c r="L171" s="20"/>
-      <c r="M171" s="20"/>
-      <c r="N171" s="20"/>
-      <c r="O171" s="20"/>
-      <c r="P171" s="20"/>
-      <c r="Q171" s="28" t="s">
-        <v>1465</v>
-      </c>
-      <c r="R171" s="30" t="s">
-        <v>348</v>
-      </c>
-      <c r="S171" s="20"/>
-      <c r="T171" s="27"/>
-    </row>
-    <row r="172" spans="1:20">
-      <c r="B172" t="s">
-        <v>1441</v>
-      </c>
-      <c r="K172" s="26"/>
-      <c r="L172" s="20"/>
-      <c r="M172" s="20"/>
-      <c r="N172" s="20"/>
-      <c r="O172" s="20"/>
-      <c r="P172" s="20"/>
-      <c r="Q172" s="20"/>
-      <c r="R172" s="20"/>
-      <c r="S172" s="20"/>
-      <c r="T172" s="27"/>
-    </row>
-    <row r="173" spans="1:20">
-      <c r="B173" t="s">
-        <v>1442</v>
-      </c>
-      <c r="K173" s="26"/>
-      <c r="L173" s="20"/>
-      <c r="M173" s="20"/>
-      <c r="N173" s="20"/>
-      <c r="O173" s="20"/>
-      <c r="P173" s="20"/>
-      <c r="Q173" s="20"/>
-      <c r="R173" s="20"/>
-      <c r="S173" s="20"/>
-      <c r="T173" s="27"/>
-    </row>
-    <row r="174" spans="1:20">
-      <c r="A174" t="s">
-        <v>142</v>
-      </c>
-      <c r="K174" s="26"/>
-      <c r="L174" s="20"/>
-      <c r="M174" s="20"/>
-      <c r="N174" s="20"/>
-      <c r="O174" s="20"/>
-      <c r="P174" s="20"/>
-      <c r="Q174" s="20"/>
-      <c r="R174" s="20"/>
-      <c r="S174" s="20"/>
-      <c r="T174" s="27"/>
-    </row>
-    <row r="175" spans="1:20">
-      <c r="K175" s="26"/>
-      <c r="L175" s="20"/>
-      <c r="M175" s="20"/>
-      <c r="N175" s="20"/>
-      <c r="O175" s="20"/>
-      <c r="P175" s="20"/>
-      <c r="Q175" s="20"/>
-      <c r="R175" s="20"/>
-      <c r="S175" s="20"/>
-      <c r="T175" s="27"/>
-    </row>
-    <row r="176" spans="1:20">
-      <c r="K176" s="26"/>
-      <c r="L176" s="20"/>
-      <c r="M176" s="20"/>
-      <c r="N176" s="20"/>
-      <c r="O176" s="20"/>
-      <c r="P176" s="20"/>
-      <c r="Q176" s="20"/>
-      <c r="R176" s="20"/>
-      <c r="S176" s="20"/>
-      <c r="T176" s="27"/>
-    </row>
-    <row r="177" spans="1:20">
-      <c r="A177" t="s">
-        <v>1388</v>
-      </c>
-      <c r="K177" s="26"/>
-      <c r="L177" s="20"/>
-      <c r="M177" s="20"/>
-      <c r="N177" s="20"/>
-      <c r="O177" s="20"/>
-      <c r="P177" s="20"/>
-      <c r="Q177" s="20"/>
-      <c r="R177" s="20"/>
-      <c r="S177" s="20"/>
-      <c r="T177" s="27"/>
-    </row>
-    <row r="178" spans="1:20">
-      <c r="A178" t="s">
-        <v>1464</v>
-      </c>
-      <c r="K178" s="26"/>
-      <c r="L178" s="20"/>
-      <c r="M178" s="20"/>
-      <c r="N178" s="20"/>
-      <c r="O178" s="20"/>
-      <c r="P178" s="20"/>
-      <c r="Q178" s="20"/>
-      <c r="R178" s="20"/>
-      <c r="S178" s="20"/>
-      <c r="T178" s="27"/>
-    </row>
-    <row r="179" spans="1:20">
-      <c r="K179" s="26"/>
-      <c r="L179" s="20"/>
-      <c r="M179" s="20"/>
-      <c r="N179" s="20"/>
-      <c r="O179" s="20"/>
-      <c r="P179" s="20"/>
-      <c r="Q179" s="20"/>
-      <c r="R179" s="20"/>
-      <c r="S179" s="20"/>
-      <c r="T179" s="27"/>
-    </row>
-    <row r="180" spans="1:20">
-      <c r="A180" t="s">
-        <v>1384</v>
-      </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
-      <c r="K180" s="26"/>
-      <c r="L180" s="20"/>
-      <c r="M180" s="20"/>
-      <c r="N180" s="20"/>
-      <c r="O180" s="20"/>
-      <c r="P180" s="20"/>
-      <c r="Q180" s="20"/>
-      <c r="R180" s="20"/>
-      <c r="S180" s="20"/>
-      <c r="T180" s="27"/>
-    </row>
-    <row r="181" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A181" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C181" t="s">
-        <v>1466</v>
-      </c>
-      <c r="K181" s="28"/>
-      <c r="L181" s="29"/>
-      <c r="M181" s="29"/>
-      <c r="N181" s="29"/>
-      <c r="O181" s="29"/>
-      <c r="P181" s="29"/>
-      <c r="Q181" s="29"/>
-      <c r="R181" s="29"/>
-      <c r="S181" s="29"/>
-      <c r="T181" s="30"/>
-    </row>
-    <row r="184" spans="1:20" ht="15.75" thickBot="1"/>
-    <row r="185" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A185" t="s">
-        <v>1440</v>
-      </c>
-      <c r="K185" s="23"/>
-      <c r="L185" s="24"/>
-      <c r="M185" s="24"/>
-      <c r="N185" s="24"/>
-      <c r="O185" s="24"/>
-      <c r="P185" s="24"/>
-      <c r="Q185" s="24"/>
-      <c r="R185" s="24"/>
-      <c r="S185" s="24"/>
-      <c r="T185" s="25"/>
+      <c r="Q185" s="20"/>
+      <c r="R185" s="20"/>
+      <c r="S185" s="20"/>
+      <c r="T185" s="27"/>
     </row>
     <row r="186" spans="1:20">
       <c r="B186" t="s">
-        <v>1513</v>
-      </c>
-      <c r="K186" s="26" t="s">
-        <v>1041</v>
-      </c>
-      <c r="L186" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="M186" s="20"/>
-      <c r="N186" s="20"/>
-      <c r="O186" s="20"/>
-      <c r="P186" s="20" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="Q186" s="23"/>
-      <c r="R186" s="24"/>
-      <c r="S186" s="25"/>
+      <c r="R186" s="25"/>
+      <c r="S186" s="20"/>
       <c r="T186" s="27"/>
     </row>
     <row r="187" spans="1:20">
-      <c r="B187" t="s">
-        <v>1514</v>
-      </c>
-      <c r="K187" s="26" t="s">
-        <v>1449</v>
-      </c>
-      <c r="L187" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="M187" s="20"/>
-      <c r="N187" s="20"/>
-      <c r="O187" s="20"/>
-      <c r="P187" s="20"/>
+      <c r="C187" t="s">
+        <v>1089</v>
+      </c>
       <c r="Q187" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="R187" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="S187" s="27"/>
+      <c r="R187" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="S187" s="20"/>
       <c r="T187" s="27"/>
     </row>
     <row r="188" spans="1:20">
-      <c r="B188" t="s">
-        <v>1515</v>
-      </c>
-      <c r="K188" s="26"/>
-      <c r="L188" s="20"/>
-      <c r="M188" s="20"/>
-      <c r="N188" s="20"/>
-      <c r="O188" s="20"/>
-      <c r="P188" s="20"/>
+      <c r="C188" t="s">
+        <v>1090</v>
+      </c>
       <c r="Q188" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="R188" s="20">
-        <v>10</v>
-      </c>
-      <c r="S188" s="27"/>
+      <c r="R188" s="27">
+        <v>0</v>
+      </c>
+      <c r="S188" s="20"/>
       <c r="T188" s="27"/>
     </row>
     <row r="189" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A189" t="s">
-        <v>142</v>
-      </c>
-      <c r="K189" s="26"/>
-      <c r="L189" s="20"/>
-      <c r="M189" s="20"/>
-      <c r="N189" s="20"/>
-      <c r="O189" s="20"/>
-      <c r="P189" s="20"/>
+      <c r="C189" t="s">
+        <v>1091</v>
+      </c>
       <c r="Q189" s="28" t="s">
-        <v>1444</v>
-      </c>
-      <c r="R189" s="29" t="s">
-        <v>1516</v>
-      </c>
-      <c r="S189" s="30"/>
+        <v>1465</v>
+      </c>
+      <c r="R189" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="S189" s="20"/>
       <c r="T189" s="27"/>
     </row>
     <row r="190" spans="1:20">
-      <c r="K190" s="26"/>
-      <c r="L190" s="20"/>
-      <c r="M190" s="20"/>
-      <c r="N190" s="20"/>
-      <c r="O190" s="20"/>
-      <c r="P190" s="20"/>
+      <c r="C190" t="s">
+        <v>1092</v>
+      </c>
       <c r="Q190" s="20"/>
       <c r="R190" s="20"/>
       <c r="S190" s="20"/>
       <c r="T190" s="27"/>
     </row>
     <row r="191" spans="1:20">
-      <c r="K191" s="26"/>
-      <c r="L191" s="20"/>
-      <c r="M191" s="20"/>
-      <c r="N191" s="20"/>
-      <c r="O191" s="20"/>
-      <c r="P191" s="20"/>
+      <c r="C191" t="s">
+        <v>142</v>
+      </c>
       <c r="Q191" s="20"/>
       <c r="R191" s="20"/>
       <c r="S191" s="20"/>
       <c r="T191" s="27"/>
     </row>
     <row r="192" spans="1:20">
-      <c r="A192" t="s">
-        <v>279</v>
-      </c>
-      <c r="K192" s="26"/>
-      <c r="L192" s="20"/>
-      <c r="M192" s="20"/>
-      <c r="N192" s="20"/>
-      <c r="O192" s="20"/>
-      <c r="P192" s="20"/>
+      <c r="B192" t="s">
+        <v>142</v>
+      </c>
       <c r="Q192" s="20"/>
       <c r="R192" s="20"/>
       <c r="S192" s="20"/>
       <c r="T192" s="27"/>
     </row>
-    <row r="193" spans="1:20">
-      <c r="A193" t="s">
-        <v>1464</v>
-      </c>
-      <c r="K193" s="26"/>
-      <c r="L193" s="20"/>
-      <c r="M193" s="20"/>
-      <c r="N193" s="20"/>
-      <c r="O193" s="20"/>
-      <c r="P193" s="20"/>
+    <row r="193" spans="2:20">
+      <c r="B193" t="s">
+        <v>1093</v>
+      </c>
       <c r="Q193" s="20"/>
       <c r="R193" s="20"/>
       <c r="S193" s="20"/>
       <c r="T193" s="27"/>
     </row>
-    <row r="194" spans="1:20">
-      <c r="K194" s="26"/>
-      <c r="L194" s="20"/>
-      <c r="M194" s="20"/>
-      <c r="N194" s="20"/>
-      <c r="O194" s="20"/>
-      <c r="P194" s="20"/>
+    <row r="194" spans="2:20">
+      <c r="B194" t="s">
+        <v>1094</v>
+      </c>
       <c r="Q194" s="20"/>
       <c r="R194" s="20"/>
       <c r="S194" s="20"/>
       <c r="T194" s="27"/>
     </row>
-    <row r="195" spans="1:20">
-      <c r="B195" t="s">
-        <v>1517</v>
-      </c>
-      <c r="K195" s="26"/>
-      <c r="L195" s="20"/>
-      <c r="M195" s="20"/>
-      <c r="N195" s="20"/>
-      <c r="O195" s="20"/>
-      <c r="P195" s="20"/>
+    <row r="195" spans="2:20">
+      <c r="C195" t="s">
+        <v>1095</v>
+      </c>
       <c r="Q195" s="20"/>
       <c r="R195" s="20"/>
       <c r="S195" s="20"/>
       <c r="T195" s="27"/>
     </row>
-    <row r="196" spans="1:20">
-      <c r="K196" s="26"/>
-      <c r="L196" s="20"/>
-      <c r="M196" s="20"/>
-      <c r="N196" s="20"/>
-      <c r="O196" s="20"/>
-      <c r="P196" s="20"/>
+    <row r="196" spans="2:20">
+      <c r="C196" t="s">
+        <v>1096</v>
+      </c>
       <c r="Q196" s="20"/>
       <c r="R196" s="20"/>
       <c r="S196" s="20"/>
       <c r="T196" s="27"/>
     </row>
-    <row r="197" spans="1:20">
-      <c r="B197" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E197" t="s">
-        <v>1466</v>
-      </c>
-      <c r="K197" s="26"/>
-      <c r="L197" s="20"/>
-      <c r="M197" s="20"/>
-      <c r="N197" s="20"/>
-      <c r="O197" s="20"/>
-      <c r="P197" s="20"/>
+    <row r="197" spans="2:20">
+      <c r="C197" t="s">
+        <v>1097</v>
+      </c>
       <c r="Q197" s="20"/>
       <c r="R197" s="20"/>
       <c r="S197" s="20"/>
       <c r="T197" s="27"/>
     </row>
-    <row r="198" spans="1:20">
-      <c r="K198" s="26"/>
-      <c r="L198" s="20"/>
-      <c r="M198" s="20"/>
-      <c r="N198" s="20"/>
-      <c r="O198" s="20"/>
-      <c r="P198" s="20"/>
+    <row r="198" spans="2:20">
       <c r="Q198" s="20"/>
       <c r="R198" s="20"/>
       <c r="S198" s="20"/>
       <c r="T198" s="27"/>
     </row>
-    <row r="199" spans="1:20" ht="15.75" thickBot="1">
-      <c r="K199" s="28"/>
-      <c r="L199" s="29"/>
-      <c r="M199" s="29"/>
-      <c r="N199" s="29"/>
-      <c r="O199" s="29"/>
-      <c r="P199" s="29"/>
+    <row r="199" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B199" t="s">
+        <v>142</v>
+      </c>
       <c r="Q199" s="29"/>
       <c r="R199" s="29"/>
       <c r="S199" s="29"/>
       <c r="T199" s="30"/>
     </row>
-    <row r="223" spans="7:7">
-      <c r="G223" t="s">
+    <row r="201" spans="2:20">
+      <c r="B201" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="202" spans="2:20" ht="15.75" thickBot="1">
+      <c r="C202" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="203" spans="2:20" ht="15.75" thickBot="1">
+      <c r="C203" t="s">
+        <v>1096</v>
+      </c>
+      <c r="Q203" s="24"/>
+      <c r="R203" s="24"/>
+      <c r="S203" s="24"/>
+      <c r="T203" s="25"/>
+    </row>
+    <row r="204" spans="2:20">
+      <c r="C204" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Q204" s="23"/>
+      <c r="R204" s="24"/>
+      <c r="S204" s="25"/>
+      <c r="T204" s="27"/>
+    </row>
+    <row r="205" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B205" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q205" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="R205" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="S205" s="27"/>
+      <c r="T205" s="27"/>
+    </row>
+    <row r="206" spans="2:20">
+      <c r="K206" s="23"/>
+      <c r="L206" s="24"/>
+      <c r="M206" s="24"/>
+      <c r="N206" s="24"/>
+      <c r="O206" s="24"/>
+      <c r="P206" s="24"/>
+      <c r="Q206" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="R206" s="20">
+        <v>10</v>
+      </c>
+      <c r="S206" s="27"/>
+      <c r="T206" s="27"/>
+    </row>
+    <row r="207" spans="2:20" ht="15.75" thickBot="1">
+      <c r="K207" s="26"/>
+      <c r="L207" s="20"/>
+      <c r="M207" s="20"/>
+      <c r="N207" s="20"/>
+      <c r="O207" s="20"/>
+      <c r="P207" s="20"/>
+      <c r="Q207" s="28" t="s">
+        <v>1444</v>
+      </c>
+      <c r="R207" s="29" t="s">
+        <v>1516</v>
+      </c>
+      <c r="S207" s="30"/>
+      <c r="T207" s="27"/>
+    </row>
+    <row r="208" spans="2:20">
+      <c r="K208" s="26"/>
+      <c r="L208" s="20" t="s">
+        <v>1463</v>
+      </c>
+      <c r="M208" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="N208" s="20"/>
+      <c r="O208" s="20"/>
+      <c r="P208" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q208" s="20"/>
+      <c r="R208" s="20"/>
+      <c r="S208" s="20"/>
+      <c r="T208" s="27"/>
+    </row>
+    <row r="209" spans="1:20">
+      <c r="K209" s="26"/>
+      <c r="L209" s="20" t="s">
+        <v>1449</v>
+      </c>
+      <c r="M209" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="N209" s="20"/>
+      <c r="O209" s="20"/>
+      <c r="P209" s="20"/>
+      <c r="Q209" s="20"/>
+      <c r="R209" s="20"/>
+      <c r="S209" s="20"/>
+      <c r="T209" s="27"/>
+    </row>
+    <row r="210" spans="1:20">
+      <c r="A210" t="s">
+        <v>1440</v>
+      </c>
+      <c r="K210" s="26"/>
+      <c r="L210" s="20"/>
+      <c r="M210" s="20"/>
+      <c r="N210" s="20"/>
+      <c r="O210" s="20"/>
+      <c r="P210" s="20"/>
+      <c r="Q210" s="20"/>
+      <c r="R210" s="20"/>
+      <c r="S210" s="20"/>
+      <c r="T210" s="27"/>
+    </row>
+    <row r="211" spans="1:20">
+      <c r="B211" t="s">
+        <v>391</v>
+      </c>
+      <c r="K211" s="26"/>
+      <c r="L211" s="20"/>
+      <c r="M211" s="20"/>
+      <c r="N211" s="20"/>
+      <c r="O211" s="20"/>
+      <c r="P211" s="20"/>
+      <c r="Q211" s="20"/>
+      <c r="R211" s="20"/>
+      <c r="S211" s="20"/>
+      <c r="T211" s="27"/>
+    </row>
+    <row r="212" spans="1:20">
+      <c r="B212" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K212" s="26"/>
+      <c r="L212" s="20"/>
+      <c r="M212" s="20"/>
+      <c r="N212" s="20"/>
+      <c r="O212" s="20"/>
+      <c r="P212" s="20"/>
+      <c r="Q212" s="20"/>
+      <c r="R212" s="20"/>
+      <c r="S212" s="20"/>
+      <c r="T212" s="27"/>
+    </row>
+    <row r="213" spans="1:20">
+      <c r="B213" t="s">
+        <v>1442</v>
+      </c>
+      <c r="K213" s="26"/>
+      <c r="L213" s="20"/>
+      <c r="M213" s="20"/>
+      <c r="N213" s="20"/>
+      <c r="O213" s="20"/>
+      <c r="P213" s="20"/>
+      <c r="Q213" s="20"/>
+      <c r="R213" s="20"/>
+      <c r="S213" s="20"/>
+      <c r="T213" s="27"/>
+    </row>
+    <row r="214" spans="1:20">
+      <c r="A214" t="s">
+        <v>142</v>
+      </c>
+      <c r="K214" s="26"/>
+      <c r="L214" s="20"/>
+      <c r="M214" s="20"/>
+      <c r="N214" s="20"/>
+      <c r="O214" s="20"/>
+      <c r="P214" s="20"/>
+      <c r="Q214" s="20"/>
+      <c r="R214" s="20"/>
+      <c r="S214" s="20"/>
+      <c r="T214" s="27"/>
+    </row>
+    <row r="215" spans="1:20">
+      <c r="K215" s="26"/>
+      <c r="L215" s="20"/>
+      <c r="M215" s="20"/>
+      <c r="N215" s="20"/>
+      <c r="O215" s="20"/>
+      <c r="P215" s="20"/>
+      <c r="Q215" s="20"/>
+      <c r="R215" s="20"/>
+      <c r="S215" s="20"/>
+      <c r="T215" s="27"/>
+    </row>
+    <row r="216" spans="1:20">
+      <c r="K216" s="26"/>
+      <c r="L216" s="20"/>
+      <c r="M216" s="20"/>
+      <c r="N216" s="20"/>
+      <c r="O216" s="20"/>
+      <c r="P216" s="20"/>
+      <c r="Q216" s="20"/>
+      <c r="R216" s="20"/>
+      <c r="S216" s="20"/>
+      <c r="T216" s="27"/>
+    </row>
+    <row r="217" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A217" t="s">
+        <v>1388</v>
+      </c>
+      <c r="K217" s="26"/>
+      <c r="L217" s="20"/>
+      <c r="M217" s="20"/>
+      <c r="N217" s="20"/>
+      <c r="O217" s="20"/>
+      <c r="P217" s="20"/>
+      <c r="Q217" s="29"/>
+      <c r="R217" s="29"/>
+      <c r="S217" s="29"/>
+      <c r="T217" s="30"/>
+    </row>
+    <row r="218" spans="1:20">
+      <c r="A218" t="s">
+        <v>1464</v>
+      </c>
+      <c r="K218" s="26"/>
+      <c r="L218" s="20"/>
+      <c r="M218" s="20"/>
+      <c r="N218" s="20"/>
+      <c r="O218" s="20"/>
+      <c r="P218" s="20"/>
+    </row>
+    <row r="219" spans="1:20">
+      <c r="K219" s="26"/>
+      <c r="L219" s="20"/>
+      <c r="M219" s="20"/>
+      <c r="N219" s="20"/>
+      <c r="O219" s="20"/>
+      <c r="P219" s="20"/>
+    </row>
+    <row r="220" spans="1:20">
+      <c r="A220" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="K220" s="26"/>
+      <c r="L220" s="20"/>
+      <c r="M220" s="20"/>
+      <c r="N220" s="20"/>
+      <c r="O220" s="20"/>
+      <c r="P220" s="20"/>
+    </row>
+    <row r="221" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A221" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1466</v>
+      </c>
+      <c r="K221" s="28"/>
+      <c r="L221" s="29"/>
+      <c r="M221" s="29"/>
+      <c r="N221" s="29"/>
+      <c r="O221" s="29"/>
+      <c r="P221" s="29"/>
+    </row>
+    <row r="224" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="225" spans="1:16">
+      <c r="A225" t="s">
+        <v>1440</v>
+      </c>
+      <c r="K225" s="23"/>
+      <c r="L225" s="24"/>
+      <c r="M225" s="24"/>
+      <c r="N225" s="24"/>
+      <c r="O225" s="24"/>
+      <c r="P225" s="24"/>
+    </row>
+    <row r="226" spans="1:16">
+      <c r="B226" t="s">
+        <v>1513</v>
+      </c>
+      <c r="K226" s="26" t="s">
+        <v>1041</v>
+      </c>
+      <c r="L226" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="M226" s="20"/>
+      <c r="N226" s="20"/>
+      <c r="O226" s="20"/>
+      <c r="P226" s="20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16">
+      <c r="B227" t="s">
+        <v>1514</v>
+      </c>
+      <c r="K227" s="26" t="s">
+        <v>1449</v>
+      </c>
+      <c r="L227" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="M227" s="20"/>
+      <c r="N227" s="20"/>
+      <c r="O227" s="20"/>
+      <c r="P227" s="20"/>
+    </row>
+    <row r="228" spans="1:16">
+      <c r="B228" t="s">
+        <v>1515</v>
+      </c>
+      <c r="K228" s="26"/>
+      <c r="L228" s="20"/>
+      <c r="M228" s="20"/>
+      <c r="N228" s="20"/>
+      <c r="O228" s="20"/>
+      <c r="P228" s="20"/>
+    </row>
+    <row r="229" spans="1:16">
+      <c r="A229" t="s">
+        <v>142</v>
+      </c>
+      <c r="K229" s="26"/>
+      <c r="L229" s="20"/>
+      <c r="M229" s="20"/>
+      <c r="N229" s="20"/>
+      <c r="O229" s="20"/>
+      <c r="P229" s="20"/>
+    </row>
+    <row r="230" spans="1:16">
+      <c r="K230" s="26"/>
+      <c r="L230" s="20"/>
+      <c r="M230" s="20"/>
+      <c r="N230" s="20"/>
+      <c r="O230" s="20"/>
+      <c r="P230" s="20"/>
+    </row>
+    <row r="231" spans="1:16">
+      <c r="K231" s="26"/>
+      <c r="L231" s="20"/>
+      <c r="M231" s="20"/>
+      <c r="N231" s="20"/>
+      <c r="O231" s="20"/>
+      <c r="P231" s="20"/>
+    </row>
+    <row r="232" spans="1:16">
+      <c r="A232" t="s">
+        <v>279</v>
+      </c>
+      <c r="K232" s="26"/>
+      <c r="L232" s="20"/>
+      <c r="M232" s="20"/>
+      <c r="N232" s="20"/>
+      <c r="O232" s="20"/>
+      <c r="P232" s="20"/>
+    </row>
+    <row r="233" spans="1:16">
+      <c r="A233" t="s">
+        <v>1464</v>
+      </c>
+      <c r="K233" s="26"/>
+      <c r="L233" s="20"/>
+      <c r="M233" s="20"/>
+      <c r="N233" s="20"/>
+      <c r="O233" s="20"/>
+      <c r="P233" s="20"/>
+    </row>
+    <row r="234" spans="1:16">
+      <c r="K234" s="26"/>
+      <c r="L234" s="20"/>
+      <c r="M234" s="20"/>
+      <c r="N234" s="20"/>
+      <c r="O234" s="20"/>
+      <c r="P234" s="20"/>
+    </row>
+    <row r="235" spans="1:16">
+      <c r="B235" t="s">
+        <v>1517</v>
+      </c>
+      <c r="K235" s="26"/>
+      <c r="L235" s="20"/>
+      <c r="M235" s="20"/>
+      <c r="N235" s="20"/>
+      <c r="O235" s="20"/>
+      <c r="P235" s="20"/>
+    </row>
+    <row r="236" spans="1:16">
+      <c r="K236" s="26"/>
+      <c r="L236" s="20"/>
+      <c r="M236" s="20"/>
+      <c r="N236" s="20"/>
+      <c r="O236" s="20"/>
+      <c r="P236" s="20"/>
+    </row>
+    <row r="237" spans="1:16">
+      <c r="B237" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E237" t="s">
+        <v>1466</v>
+      </c>
+      <c r="K237" s="26"/>
+      <c r="L237" s="20"/>
+      <c r="M237" s="20"/>
+      <c r="N237" s="20"/>
+      <c r="O237" s="20"/>
+      <c r="P237" s="20"/>
+    </row>
+    <row r="238" spans="1:16">
+      <c r="K238" s="26"/>
+      <c r="L238" s="20"/>
+      <c r="M238" s="20"/>
+      <c r="N238" s="20"/>
+      <c r="O238" s="20"/>
+      <c r="P238" s="20"/>
+    </row>
+    <row r="239" spans="1:16" ht="15.75" thickBot="1">
+      <c r="K239" s="28"/>
+      <c r="L239" s="29"/>
+      <c r="M239" s="29"/>
+      <c r="N239" s="29"/>
+      <c r="O239" s="29"/>
+      <c r="P239" s="29"/>
+    </row>
+    <row r="263" spans="3:11">
+      <c r="G263" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="225" spans="2:13">
-      <c r="G225" s="35"/>
-      <c r="H225" s="20"/>
-      <c r="I225" s="20"/>
-    </row>
-    <row r="226" spans="2:13">
-      <c r="C226" t="s">
+    <row r="265" spans="3:11">
+      <c r="G265" s="35"/>
+      <c r="H265" s="20"/>
+      <c r="I265" s="20"/>
+    </row>
+    <row r="266" spans="3:11">
+      <c r="C266" t="s">
         <v>272</v>
       </c>
-      <c r="G226" s="35" t="s">
+      <c r="G266" s="35" t="s">
         <v>1654</v>
       </c>
-      <c r="H226" s="20"/>
-      <c r="I226" s="20"/>
-    </row>
-    <row r="227" spans="2:13">
-      <c r="C227" t="s">
+      <c r="H266" s="20"/>
+      <c r="I266" s="20"/>
+    </row>
+    <row r="267" spans="3:11">
+      <c r="C267" t="s">
         <v>1648</v>
       </c>
-      <c r="G227" s="35" t="s">
+      <c r="G267" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="H227" s="20"/>
-      <c r="I227" s="20"/>
-    </row>
-    <row r="228" spans="2:13">
-      <c r="G228" s="35" t="s">
+      <c r="H267" s="20"/>
+      <c r="I267" s="20"/>
+    </row>
+    <row r="268" spans="3:11">
+      <c r="G268" s="35" t="s">
         <v>1652</v>
       </c>
-      <c r="H228" s="20"/>
-      <c r="I228" s="20"/>
-      <c r="K228" t="s">
+      <c r="H268" s="20"/>
+      <c r="I268" s="20"/>
+      <c r="K268" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="229" spans="2:13">
-      <c r="G229" s="35" t="s">
+    <row r="269" spans="3:11">
+      <c r="G269" s="35" t="s">
         <v>1641</v>
       </c>
-      <c r="H229" s="20"/>
-      <c r="I229" s="20"/>
-      <c r="K229" t="s">
+      <c r="H269" s="20"/>
+      <c r="I269" s="20"/>
+      <c r="K269" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="230" spans="2:13">
-      <c r="K230" t="s">
+    <row r="270" spans="3:11">
+      <c r="K270" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="231" spans="2:13">
-      <c r="K231" t="s">
+    <row r="271" spans="3:11">
+      <c r="K271" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="232" spans="2:13">
-      <c r="K232" t="s">
+    <row r="272" spans="3:11">
+      <c r="K272" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="233" spans="2:13">
-      <c r="K233" t="s">
+    <row r="273" spans="2:13">
+      <c r="K273" t="s">
         <v>1649</v>
       </c>
     </row>
-    <row r="234" spans="2:13">
-      <c r="K234" t="s">
+    <row r="274" spans="2:13">
+      <c r="K274" t="s">
         <v>1650</v>
       </c>
     </row>
-    <row r="235" spans="2:13">
-      <c r="K235" t="s">
+    <row r="275" spans="2:13">
+      <c r="K275" t="s">
         <v>1651</v>
       </c>
     </row>
-    <row r="239" spans="2:13" ht="15.75" thickBot="1"/>
-    <row r="240" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B240" t="s">
+    <row r="279" spans="2:13" ht="15.75" thickBot="1"/>
+    <row r="280" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B280" t="s">
         <v>1655</v>
       </c>
-      <c r="F240" s="23"/>
-      <c r="G240" s="24"/>
-      <c r="H240" s="24"/>
-      <c r="I240" s="24"/>
-      <c r="J240" s="24"/>
-      <c r="K240" s="24" t="s">
+      <c r="F280" s="23"/>
+      <c r="G280" s="24"/>
+      <c r="H280" s="24"/>
+      <c r="I280" s="24"/>
+      <c r="J280" s="24"/>
+      <c r="K280" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="L240" s="24"/>
-      <c r="M240" s="25"/>
-    </row>
-    <row r="241" spans="2:13">
-      <c r="B241" t="s">
+      <c r="L280" s="24"/>
+      <c r="M280" s="25"/>
+    </row>
+    <row r="281" spans="2:13">
+      <c r="B281" t="s">
         <v>1656</v>
       </c>
-      <c r="F241" s="26" t="s">
+      <c r="F281" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="G241" s="20" t="s">
+      <c r="G281" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="H241" s="20"/>
-      <c r="I241" s="20"/>
-      <c r="J241" s="20"/>
-      <c r="K241" s="39" t="s">
+      <c r="H281" s="20"/>
+      <c r="I281" s="20"/>
+      <c r="J281" s="20"/>
+      <c r="K281" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="L241" s="41" t="s">
+      <c r="L281" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="M241" s="27"/>
-    </row>
-    <row r="242" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B242" t="s">
+      <c r="M281" s="27"/>
+    </row>
+    <row r="282" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B282" t="s">
         <v>1657</v>
       </c>
-      <c r="F242" s="26" t="s">
+      <c r="F282" s="26" t="s">
         <v>481</v>
       </c>
-      <c r="G242" s="20" t="s">
+      <c r="G282" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="H242" s="20"/>
-      <c r="I242" s="20"/>
-      <c r="J242" s="20"/>
-      <c r="K242" s="45" t="s">
+      <c r="H282" s="20"/>
+      <c r="I282" s="20"/>
+      <c r="J282" s="20"/>
+      <c r="K282" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="L242" s="47">
+      <c r="L282" s="47">
         <v>10</v>
       </c>
-      <c r="M242" s="27"/>
-    </row>
-    <row r="243" spans="2:13">
-      <c r="B243" s="22" t="s">
+      <c r="M282" s="27"/>
+    </row>
+    <row r="283" spans="2:13">
+      <c r="B283" s="22" t="s">
         <v>1658</v>
       </c>
-      <c r="C243" s="22"/>
-      <c r="D243" s="22"/>
-      <c r="F243" s="26"/>
-      <c r="G243" s="20"/>
-      <c r="H243" s="20"/>
-      <c r="I243" s="20"/>
-      <c r="J243" s="20"/>
-      <c r="K243" s="20"/>
-      <c r="L243" s="20"/>
-      <c r="M243" s="27"/>
-    </row>
-    <row r="244" spans="2:13">
-      <c r="F244" s="26"/>
-      <c r="G244" s="20"/>
-      <c r="H244" s="20"/>
-      <c r="I244" s="20"/>
-      <c r="J244" s="20"/>
-      <c r="K244" s="20"/>
-      <c r="L244" s="20"/>
-      <c r="M244" s="27"/>
-    </row>
-    <row r="245" spans="2:13">
-      <c r="B245" t="s">
+      <c r="C283" s="22"/>
+      <c r="D283" s="22"/>
+      <c r="F283" s="26"/>
+      <c r="G283" s="20"/>
+      <c r="H283" s="20"/>
+      <c r="I283" s="20"/>
+      <c r="J283" s="20"/>
+      <c r="K283" s="20"/>
+      <c r="L283" s="20"/>
+      <c r="M283" s="27"/>
+    </row>
+    <row r="284" spans="2:13">
+      <c r="F284" s="26"/>
+      <c r="G284" s="20"/>
+      <c r="H284" s="20"/>
+      <c r="I284" s="20"/>
+      <c r="J284" s="20"/>
+      <c r="K284" s="20"/>
+      <c r="L284" s="20"/>
+      <c r="M284" s="27"/>
+    </row>
+    <row r="285" spans="2:13">
+      <c r="B285" t="s">
         <v>1440</v>
       </c>
-      <c r="F245" s="26"/>
-      <c r="G245" s="20"/>
-      <c r="H245" s="20"/>
-      <c r="I245" s="20"/>
-      <c r="J245" s="20"/>
-      <c r="K245" s="20"/>
-      <c r="L245" s="20"/>
-      <c r="M245" s="27"/>
-    </row>
-    <row r="246" spans="2:13">
-      <c r="C246" t="s">
+      <c r="F285" s="26"/>
+      <c r="G285" s="20"/>
+      <c r="H285" s="20"/>
+      <c r="I285" s="20"/>
+      <c r="J285" s="20"/>
+      <c r="K285" s="20"/>
+      <c r="L285" s="20"/>
+      <c r="M285" s="27"/>
+    </row>
+    <row r="286" spans="2:13">
+      <c r="C286" t="s">
         <v>1659</v>
       </c>
-      <c r="F246" s="26"/>
-      <c r="G246" s="20"/>
-      <c r="H246" s="20"/>
-      <c r="I246" s="20"/>
-      <c r="J246" s="20"/>
-      <c r="K246" s="20"/>
-      <c r="L246" s="20"/>
-      <c r="M246" s="27"/>
-    </row>
-    <row r="247" spans="2:13">
-      <c r="C247" t="s">
+      <c r="F286" s="26"/>
+      <c r="G286" s="20"/>
+      <c r="H286" s="20"/>
+      <c r="I286" s="20"/>
+      <c r="J286" s="20"/>
+      <c r="K286" s="20"/>
+      <c r="L286" s="20"/>
+      <c r="M286" s="27"/>
+    </row>
+    <row r="287" spans="2:13">
+      <c r="C287" t="s">
         <v>1660</v>
       </c>
-      <c r="F247" s="26"/>
-      <c r="G247" s="20"/>
-      <c r="H247" s="20"/>
-      <c r="I247" s="20"/>
-      <c r="J247" s="20"/>
-      <c r="K247" s="20"/>
-      <c r="L247" s="20"/>
-      <c r="M247" s="27"/>
-    </row>
-    <row r="248" spans="2:13">
-      <c r="B248" t="s">
+      <c r="F287" s="26"/>
+      <c r="G287" s="20"/>
+      <c r="H287" s="20"/>
+      <c r="I287" s="20"/>
+      <c r="J287" s="20"/>
+      <c r="K287" s="20"/>
+      <c r="L287" s="20"/>
+      <c r="M287" s="27"/>
+    </row>
+    <row r="288" spans="2:13">
+      <c r="B288" t="s">
         <v>142</v>
       </c>
-      <c r="F248" s="26"/>
-      <c r="G248" s="20"/>
-      <c r="H248" s="20"/>
-      <c r="I248" s="20"/>
-      <c r="J248" s="20"/>
-      <c r="K248" s="20"/>
-      <c r="L248" s="20"/>
-      <c r="M248" s="27"/>
-    </row>
-    <row r="249" spans="2:13">
-      <c r="F249" s="26"/>
-      <c r="G249" s="20"/>
-      <c r="H249" s="20"/>
-      <c r="I249" s="20"/>
-      <c r="J249" s="20"/>
-      <c r="K249" s="20"/>
-      <c r="L249" s="20"/>
-      <c r="M249" s="27"/>
-    </row>
-    <row r="250" spans="2:13">
-      <c r="F250" s="26"/>
-      <c r="G250" s="20"/>
-      <c r="H250" s="20"/>
-      <c r="I250" s="20"/>
-      <c r="J250" s="20"/>
-      <c r="K250" s="20"/>
-      <c r="L250" s="20"/>
-      <c r="M250" s="27"/>
-    </row>
-    <row r="251" spans="2:13" ht="15.75" thickBot="1">
-      <c r="F251" s="28"/>
-      <c r="G251" s="29"/>
-      <c r="H251" s="29"/>
-      <c r="I251" s="29"/>
-      <c r="J251" s="29"/>
-      <c r="K251" s="29"/>
-      <c r="L251" s="29"/>
-      <c r="M251" s="30"/>
-    </row>
-    <row r="253" spans="2:13">
-      <c r="E253" s="159"/>
-      <c r="F253" s="159"/>
-      <c r="G253" s="159"/>
-      <c r="H253" s="159"/>
-    </row>
-    <row r="254" spans="2:13">
-      <c r="H254" s="159"/>
-    </row>
-    <row r="255" spans="2:13">
-      <c r="H255" s="159"/>
-    </row>
-    <row r="256" spans="2:13">
-      <c r="H256" s="159"/>
-    </row>
-    <row r="257" spans="2:13">
-      <c r="D257" s="159"/>
-      <c r="E257" s="159"/>
-      <c r="F257" s="159"/>
-      <c r="H257" s="159"/>
-    </row>
-    <row r="258" spans="2:13">
-      <c r="D258" s="159"/>
-      <c r="E258" s="22"/>
-      <c r="F258" s="159"/>
-      <c r="G258" s="159"/>
-      <c r="H258" s="159"/>
-      <c r="I258" s="159"/>
-      <c r="J258" s="159"/>
-      <c r="K258" s="159"/>
-      <c r="L258" s="159"/>
-      <c r="M258" s="22"/>
-    </row>
-    <row r="259" spans="2:13">
-      <c r="D259" s="159"/>
-      <c r="E259" s="22"/>
-      <c r="F259" s="159"/>
-      <c r="G259" s="159"/>
-      <c r="H259" s="159"/>
-      <c r="I259" s="159"/>
-      <c r="J259" s="159"/>
-      <c r="K259" s="159"/>
-      <c r="L259" s="159"/>
-      <c r="M259" s="22"/>
-    </row>
-    <row r="260" spans="2:13">
-      <c r="B260" t="s">
+      <c r="F288" s="26"/>
+      <c r="G288" s="20"/>
+      <c r="H288" s="20"/>
+      <c r="I288" s="20"/>
+      <c r="J288" s="20"/>
+      <c r="K288" s="20"/>
+      <c r="L288" s="20"/>
+      <c r="M288" s="27"/>
+    </row>
+    <row r="289" spans="2:13">
+      <c r="F289" s="26"/>
+      <c r="G289" s="20"/>
+      <c r="H289" s="20"/>
+      <c r="I289" s="20"/>
+      <c r="J289" s="20"/>
+      <c r="K289" s="20"/>
+      <c r="L289" s="20"/>
+      <c r="M289" s="27"/>
+    </row>
+    <row r="290" spans="2:13">
+      <c r="F290" s="26"/>
+      <c r="G290" s="20"/>
+      <c r="H290" s="20"/>
+      <c r="I290" s="20"/>
+      <c r="J290" s="20"/>
+      <c r="K290" s="20"/>
+      <c r="L290" s="20"/>
+      <c r="M290" s="27"/>
+    </row>
+    <row r="291" spans="2:13" ht="15.75" thickBot="1">
+      <c r="F291" s="28"/>
+      <c r="G291" s="29"/>
+      <c r="H291" s="29"/>
+      <c r="I291" s="29"/>
+      <c r="J291" s="29"/>
+      <c r="K291" s="29"/>
+      <c r="L291" s="29"/>
+      <c r="M291" s="30"/>
+    </row>
+    <row r="293" spans="2:13">
+      <c r="E293" s="159"/>
+      <c r="F293" s="159"/>
+      <c r="G293" s="159"/>
+      <c r="H293" s="159"/>
+    </row>
+    <row r="294" spans="2:13">
+      <c r="H294" s="159"/>
+    </row>
+    <row r="295" spans="2:13">
+      <c r="H295" s="159"/>
+    </row>
+    <row r="296" spans="2:13">
+      <c r="H296" s="159"/>
+    </row>
+    <row r="297" spans="2:13">
+      <c r="D297" s="159"/>
+      <c r="E297" s="159"/>
+      <c r="F297" s="159"/>
+      <c r="H297" s="159"/>
+    </row>
+    <row r="298" spans="2:13">
+      <c r="D298" s="159"/>
+      <c r="E298" s="22"/>
+      <c r="F298" s="159"/>
+      <c r="G298" s="159"/>
+      <c r="H298" s="159"/>
+      <c r="I298" s="159"/>
+      <c r="J298" s="159"/>
+      <c r="K298" s="159"/>
+      <c r="L298" s="159"/>
+      <c r="M298" s="22"/>
+    </row>
+    <row r="299" spans="2:13">
+      <c r="D299" s="159"/>
+      <c r="E299" s="22"/>
+      <c r="F299" s="159"/>
+      <c r="G299" s="159"/>
+      <c r="H299" s="159"/>
+      <c r="I299" s="159"/>
+      <c r="J299" s="159"/>
+      <c r="K299" s="159"/>
+      <c r="L299" s="159"/>
+      <c r="M299" s="22"/>
+    </row>
+    <row r="300" spans="2:13">
+      <c r="B300" t="s">
         <v>1663</v>
       </c>
-      <c r="D260" s="159"/>
-      <c r="E260" s="22"/>
-      <c r="F260" s="22"/>
-      <c r="G260" s="22"/>
-      <c r="H260" s="22"/>
-      <c r="I260" s="22" t="s">
+      <c r="D300" s="159"/>
+      <c r="E300" s="22"/>
+      <c r="F300" s="22"/>
+      <c r="G300" s="22"/>
+      <c r="H300" s="22"/>
+      <c r="I300" s="22" t="s">
         <v>1661</v>
       </c>
-      <c r="J260" s="22"/>
-      <c r="K260" s="22"/>
-      <c r="L260" s="22"/>
-      <c r="M260" s="22"/>
-    </row>
-    <row r="261" spans="2:13">
-      <c r="D261" s="159"/>
-    </row>
-    <row r="262" spans="2:13">
-      <c r="D262" s="159"/>
-      <c r="F262" s="22"/>
-      <c r="L262" s="22"/>
-    </row>
-    <row r="263" spans="2:13">
-      <c r="D263" s="159"/>
-      <c r="F263" s="22"/>
-      <c r="L263" s="22"/>
-    </row>
-    <row r="264" spans="2:13">
-      <c r="D264" s="159"/>
-      <c r="F264" s="22"/>
-      <c r="G264" s="22"/>
-      <c r="H264" s="22"/>
-      <c r="I264" s="22" t="s">
+      <c r="J300" s="22"/>
+      <c r="K300" s="22"/>
+      <c r="L300" s="22"/>
+      <c r="M300" s="22"/>
+    </row>
+    <row r="301" spans="2:13">
+      <c r="D301" s="159"/>
+    </row>
+    <row r="302" spans="2:13">
+      <c r="D302" s="159"/>
+      <c r="F302" s="22"/>
+      <c r="L302" s="22"/>
+    </row>
+    <row r="303" spans="2:13">
+      <c r="D303" s="159"/>
+      <c r="F303" s="22"/>
+      <c r="L303" s="22"/>
+    </row>
+    <row r="304" spans="2:13">
+      <c r="D304" s="159"/>
+      <c r="F304" s="22"/>
+      <c r="G304" s="22"/>
+      <c r="H304" s="22"/>
+      <c r="I304" s="22" t="s">
         <v>1058</v>
       </c>
-      <c r="J264" s="22"/>
-      <c r="K264" s="22"/>
-      <c r="L264" s="22"/>
-    </row>
-    <row r="265" spans="2:13">
-      <c r="D265" s="159"/>
-    </row>
-    <row r="266" spans="2:13">
-      <c r="D266" s="159"/>
-      <c r="G266" s="22"/>
-      <c r="H266" s="84"/>
-      <c r="I266" s="84"/>
-      <c r="K266" s="22"/>
-    </row>
-    <row r="267" spans="2:13">
-      <c r="D267" s="159"/>
-      <c r="G267" s="22"/>
-      <c r="H267" s="84"/>
-      <c r="I267" s="84"/>
-      <c r="K267" s="22"/>
-    </row>
-    <row r="268" spans="2:13">
-      <c r="D268" s="159"/>
-      <c r="G268" s="22"/>
-      <c r="H268" s="22"/>
-      <c r="I268" s="22" t="s">
+      <c r="J304" s="22"/>
+      <c r="K304" s="22"/>
+      <c r="L304" s="22"/>
+    </row>
+    <row r="305" spans="4:11">
+      <c r="D305" s="159"/>
+    </row>
+    <row r="306" spans="4:11">
+      <c r="D306" s="159"/>
+      <c r="G306" s="22"/>
+      <c r="H306" s="84"/>
+      <c r="I306" s="84"/>
+      <c r="K306" s="22"/>
+    </row>
+    <row r="307" spans="4:11">
+      <c r="D307" s="159"/>
+      <c r="G307" s="22"/>
+      <c r="H307" s="84"/>
+      <c r="I307" s="84"/>
+      <c r="K307" s="22"/>
+    </row>
+    <row r="308" spans="4:11">
+      <c r="D308" s="159"/>
+      <c r="G308" s="22"/>
+      <c r="H308" s="22"/>
+      <c r="I308" s="22" t="s">
         <v>1662</v>
       </c>
-      <c r="J268" s="22"/>
-      <c r="K268" s="22"/>
-    </row>
-    <row r="269" spans="2:13">
-      <c r="D269" s="159"/>
-    </row>
-    <row r="270" spans="2:13">
-      <c r="D270" s="159"/>
-      <c r="H270" s="22"/>
-      <c r="J270" s="22"/>
-    </row>
-    <row r="271" spans="2:13">
-      <c r="D271" s="159"/>
-      <c r="H271" s="22"/>
-      <c r="J271" s="22"/>
-    </row>
-    <row r="272" spans="2:13">
-      <c r="D272" s="159"/>
-      <c r="H272" s="22"/>
-      <c r="I272" s="22" t="s">
+      <c r="J308" s="22"/>
+      <c r="K308" s="22"/>
+    </row>
+    <row r="309" spans="4:11">
+      <c r="D309" s="159"/>
+    </row>
+    <row r="310" spans="4:11">
+      <c r="D310" s="159"/>
+      <c r="H310" s="22"/>
+      <c r="J310" s="22"/>
+    </row>
+    <row r="311" spans="4:11">
+      <c r="D311" s="159"/>
+      <c r="H311" s="22"/>
+      <c r="J311" s="22"/>
+    </row>
+    <row r="312" spans="4:11">
+      <c r="D312" s="159"/>
+      <c r="H312" s="22"/>
+      <c r="I312" s="22" t="s">
         <v>1664</v>
       </c>
-      <c r="J272" s="22"/>
-    </row>
-    <row r="273" spans="4:11">
-      <c r="D273" s="159"/>
-    </row>
-    <row r="277" spans="4:11">
-      <c r="E277" s="159"/>
-      <c r="F277" s="159"/>
-      <c r="G277" s="159"/>
-      <c r="H277" s="159"/>
-    </row>
-    <row r="278" spans="4:11">
-      <c r="H278" s="159"/>
-    </row>
-    <row r="279" spans="4:11">
-      <c r="H279" s="159"/>
-    </row>
-    <row r="280" spans="4:11">
-      <c r="F280" s="159"/>
-      <c r="G280" s="159"/>
-      <c r="H280" s="159"/>
-    </row>
-    <row r="281" spans="4:11">
-      <c r="F281" s="159"/>
-      <c r="G281" s="22"/>
-      <c r="H281" s="159"/>
-      <c r="I281" s="22"/>
-    </row>
-    <row r="282" spans="4:11">
-      <c r="F282" s="159"/>
-      <c r="G282" s="22"/>
-      <c r="H282" s="159"/>
-      <c r="I282" s="22"/>
-    </row>
-    <row r="283" spans="4:11">
-      <c r="F283" s="159"/>
-      <c r="G283" s="22"/>
-      <c r="H283" s="22" t="s">
+      <c r="J312" s="22"/>
+    </row>
+    <row r="313" spans="4:11">
+      <c r="D313" s="159"/>
+    </row>
+    <row r="317" spans="4:11">
+      <c r="E317" s="159"/>
+      <c r="F317" s="159"/>
+      <c r="G317" s="159"/>
+      <c r="H317" s="159"/>
+    </row>
+    <row r="318" spans="4:11">
+      <c r="H318" s="159"/>
+    </row>
+    <row r="319" spans="4:11">
+      <c r="H319" s="159"/>
+    </row>
+    <row r="320" spans="4:11">
+      <c r="F320" s="159"/>
+      <c r="G320" s="159"/>
+      <c r="H320" s="159"/>
+    </row>
+    <row r="321" spans="4:12">
+      <c r="F321" s="159"/>
+      <c r="G321" s="22"/>
+      <c r="H321" s="159"/>
+      <c r="I321" s="22"/>
+    </row>
+    <row r="322" spans="4:12">
+      <c r="F322" s="159"/>
+      <c r="G322" s="22"/>
+      <c r="H322" s="159"/>
+      <c r="I322" s="22"/>
+    </row>
+    <row r="323" spans="4:12">
+      <c r="F323" s="159"/>
+      <c r="G323" s="22"/>
+      <c r="H323" s="22" t="s">
         <v>1664</v>
       </c>
-      <c r="I283" s="22"/>
-    </row>
-    <row r="284" spans="4:11">
-      <c r="F284" s="159"/>
-    </row>
-    <row r="285" spans="4:11">
-      <c r="F285" s="22"/>
-      <c r="G285" s="159"/>
-      <c r="H285" s="159"/>
-      <c r="I285" s="159"/>
-      <c r="J285" s="22"/>
-      <c r="K285" s="159"/>
-    </row>
-    <row r="286" spans="4:11">
-      <c r="F286" s="22"/>
-      <c r="G286" s="159"/>
-      <c r="H286" s="159"/>
-      <c r="I286" s="159"/>
-      <c r="J286" s="22"/>
-      <c r="K286" s="159"/>
-    </row>
-    <row r="287" spans="4:11">
-      <c r="F287" s="22"/>
-      <c r="G287" s="22"/>
-      <c r="H287" s="22" t="s">
+      <c r="I323" s="22"/>
+    </row>
+    <row r="324" spans="4:12">
+      <c r="F324" s="159"/>
+    </row>
+    <row r="325" spans="4:12">
+      <c r="F325" s="22"/>
+      <c r="G325" s="159"/>
+      <c r="H325" s="159"/>
+      <c r="I325" s="159"/>
+      <c r="J325" s="22"/>
+      <c r="K325" s="159"/>
+    </row>
+    <row r="326" spans="4:12">
+      <c r="F326" s="22"/>
+      <c r="G326" s="159"/>
+      <c r="H326" s="159"/>
+      <c r="I326" s="159"/>
+      <c r="J326" s="22"/>
+      <c r="K326" s="159"/>
+    </row>
+    <row r="327" spans="4:12">
+      <c r="F327" s="22"/>
+      <c r="G327" s="22"/>
+      <c r="H327" s="22" t="s">
         <v>1662</v>
       </c>
-      <c r="I287" s="22"/>
-      <c r="J287" s="22"/>
-      <c r="K287" s="159"/>
-    </row>
-    <row r="288" spans="4:11">
-      <c r="K288" s="159"/>
-    </row>
-    <row r="289" spans="4:12">
-      <c r="E289" s="22"/>
-      <c r="F289" s="159"/>
-      <c r="G289" s="159"/>
-      <c r="H289" s="159"/>
-      <c r="I289" s="159"/>
-      <c r="J289" s="159"/>
-      <c r="K289" s="22"/>
-    </row>
-    <row r="290" spans="4:12">
-      <c r="E290" s="22"/>
-      <c r="F290" s="159"/>
-      <c r="G290" s="159"/>
-      <c r="H290" s="159"/>
-      <c r="I290" s="159"/>
-      <c r="J290" s="159"/>
-      <c r="K290" s="22"/>
-    </row>
-    <row r="291" spans="4:12">
-      <c r="E291" s="22"/>
-      <c r="F291" s="22"/>
-      <c r="G291" s="22"/>
-      <c r="H291" s="22" t="s">
+      <c r="I327" s="22"/>
+      <c r="J327" s="22"/>
+      <c r="K327" s="159"/>
+    </row>
+    <row r="328" spans="4:12">
+      <c r="K328" s="159"/>
+    </row>
+    <row r="329" spans="4:12">
+      <c r="E329" s="22"/>
+      <c r="F329" s="159"/>
+      <c r="G329" s="159"/>
+      <c r="H329" s="159"/>
+      <c r="I329" s="159"/>
+      <c r="J329" s="159"/>
+      <c r="K329" s="22"/>
+    </row>
+    <row r="330" spans="4:12">
+      <c r="E330" s="22"/>
+      <c r="F330" s="159"/>
+      <c r="G330" s="159"/>
+      <c r="H330" s="159"/>
+      <c r="I330" s="159"/>
+      <c r="J330" s="159"/>
+      <c r="K330" s="22"/>
+    </row>
+    <row r="331" spans="4:12">
+      <c r="E331" s="22"/>
+      <c r="F331" s="22"/>
+      <c r="G331" s="22"/>
+      <c r="H331" s="22" t="s">
         <v>1058</v>
       </c>
-      <c r="I291" s="22"/>
-      <c r="J291" s="22"/>
-      <c r="K291" s="22"/>
-    </row>
-    <row r="293" spans="4:12">
-      <c r="D293" s="22"/>
-      <c r="E293" s="84"/>
-      <c r="F293" s="84"/>
-      <c r="G293" s="84"/>
-      <c r="H293" s="84"/>
-      <c r="I293" s="84"/>
-      <c r="J293" s="84"/>
-      <c r="K293" s="84"/>
-      <c r="L293" s="22"/>
-    </row>
-    <row r="294" spans="4:12">
-      <c r="D294" s="22"/>
-      <c r="E294" s="84"/>
-      <c r="F294" s="84"/>
-      <c r="G294" s="84"/>
-      <c r="H294" s="84"/>
-      <c r="I294" s="84"/>
-      <c r="J294" s="84"/>
-      <c r="K294" s="84"/>
-      <c r="L294" s="22"/>
-    </row>
-    <row r="295" spans="4:12">
-      <c r="D295" s="22"/>
-      <c r="E295" s="22"/>
-      <c r="F295" s="22"/>
-      <c r="G295" s="22"/>
-      <c r="H295" s="22" t="s">
+      <c r="I331" s="22"/>
+      <c r="J331" s="22"/>
+      <c r="K331" s="22"/>
+    </row>
+    <row r="333" spans="4:12">
+      <c r="D333" s="22"/>
+      <c r="E333" s="84"/>
+      <c r="F333" s="84"/>
+      <c r="G333" s="84"/>
+      <c r="H333" s="84"/>
+      <c r="I333" s="84"/>
+      <c r="J333" s="84"/>
+      <c r="K333" s="84"/>
+      <c r="L333" s="22"/>
+    </row>
+    <row r="334" spans="4:12">
+      <c r="D334" s="22"/>
+      <c r="E334" s="84"/>
+      <c r="F334" s="84"/>
+      <c r="G334" s="84"/>
+      <c r="H334" s="84"/>
+      <c r="I334" s="84"/>
+      <c r="J334" s="84"/>
+      <c r="K334" s="84"/>
+      <c r="L334" s="22"/>
+    </row>
+    <row r="335" spans="4:12">
+      <c r="D335" s="22"/>
+      <c r="E335" s="22"/>
+      <c r="F335" s="22"/>
+      <c r="G335" s="22"/>
+      <c r="H335" s="22" t="s">
         <v>1661</v>
       </c>
-      <c r="I295" s="22"/>
-      <c r="J295" s="22"/>
-      <c r="K295" s="22"/>
-      <c r="L295" s="22"/>
-    </row>
-    <row r="296" spans="4:12">
-      <c r="D296" s="84"/>
-    </row>
-    <row r="297" spans="4:12">
-      <c r="D297" s="84"/>
-    </row>
-    <row r="298" spans="4:12">
-      <c r="D298" s="84"/>
-    </row>
-    <row r="299" spans="4:12">
-      <c r="D299" s="84"/>
-    </row>
-    <row r="300" spans="4:12">
-      <c r="D300" s="84"/>
-      <c r="E300" t="s">
+      <c r="I335" s="22"/>
+      <c r="J335" s="22"/>
+      <c r="K335" s="22"/>
+      <c r="L335" s="22"/>
+    </row>
+    <row r="336" spans="4:12">
+      <c r="D336" s="84"/>
+    </row>
+    <row r="337" spans="2:13">
+      <c r="D337" s="84"/>
+    </row>
+    <row r="338" spans="2:13">
+      <c r="D338" s="84"/>
+    </row>
+    <row r="339" spans="2:13">
+      <c r="D339" s="84"/>
+    </row>
+    <row r="340" spans="2:13">
+      <c r="D340" s="84"/>
+      <c r="E340" t="s">
         <v>1820</v>
       </c>
-      <c r="G300" t="s">
+      <c r="G340" t="s">
         <v>1467</v>
       </c>
-      <c r="H300" t="s">
+      <c r="H340" t="s">
         <v>1818</v>
       </c>
     </row>
-    <row r="302" spans="4:12">
-      <c r="E302" t="s">
+    <row r="342" spans="2:13">
+      <c r="E342" t="s">
         <v>1821</v>
       </c>
-      <c r="G302" t="s">
+      <c r="G342" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="304" spans="4:12">
-      <c r="E304" t="s">
+    <row r="344" spans="2:13">
+      <c r="E344" t="s">
         <v>1822</v>
       </c>
-      <c r="G304" t="s">
+      <c r="G344" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="306" spans="2:13">
-      <c r="C306" t="s">
+    <row r="346" spans="2:13">
+      <c r="C346" t="s">
         <v>1823</v>
       </c>
-      <c r="E306" t="s">
+      <c r="E346" t="s">
         <v>1817</v>
       </c>
-      <c r="H306" t="s">
+      <c r="H346" t="s">
         <v>1819</v>
       </c>
     </row>
-    <row r="307" spans="2:13" ht="15.75" thickBot="1"/>
-    <row r="308" spans="2:13">
-      <c r="B308" t="s">
+    <row r="347" spans="2:13" ht="15.75" thickBot="1"/>
+    <row r="348" spans="2:13">
+      <c r="B348" t="s">
         <v>1824</v>
       </c>
-      <c r="G308" s="23"/>
-      <c r="H308" s="24"/>
-      <c r="I308" s="24"/>
-      <c r="J308" s="24"/>
-      <c r="K308" s="24"/>
-      <c r="L308" s="24"/>
-      <c r="M308" s="25"/>
-    </row>
-    <row r="309" spans="2:13">
-      <c r="G309" s="26" t="s">
+      <c r="G348" s="23"/>
+      <c r="H348" s="24"/>
+      <c r="I348" s="24"/>
+      <c r="J348" s="24"/>
+      <c r="K348" s="24"/>
+      <c r="L348" s="24"/>
+      <c r="M348" s="25"/>
+    </row>
+    <row r="349" spans="2:13">
+      <c r="G349" s="26" t="s">
         <v>1827</v>
       </c>
-      <c r="H309" s="20" t="s">
+      <c r="H349" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="I309" s="20"/>
-      <c r="J309" s="20"/>
-      <c r="K309" s="20"/>
-      <c r="L309" s="20"/>
-      <c r="M309" s="27"/>
-    </row>
-    <row r="310" spans="2:13" ht="15.75" thickBot="1">
-      <c r="G310" s="26"/>
-      <c r="H310" s="20"/>
-      <c r="I310" s="20"/>
-      <c r="J310" s="20"/>
-      <c r="K310" s="20"/>
-      <c r="L310" s="20"/>
-      <c r="M310" s="27"/>
-    </row>
-    <row r="311" spans="2:13">
-      <c r="B311" t="s">
+      <c r="I349" s="20"/>
+      <c r="J349" s="20"/>
+      <c r="K349" s="20"/>
+      <c r="L349" s="20"/>
+      <c r="M349" s="27"/>
+    </row>
+    <row r="350" spans="2:13" ht="15.75" thickBot="1">
+      <c r="G350" s="26"/>
+      <c r="H350" s="20"/>
+      <c r="I350" s="20"/>
+      <c r="J350" s="20"/>
+      <c r="K350" s="20"/>
+      <c r="L350" s="20"/>
+      <c r="M350" s="27"/>
+    </row>
+    <row r="351" spans="2:13">
+      <c r="B351" t="s">
         <v>1825</v>
       </c>
-      <c r="G311" s="26"/>
-      <c r="H311" s="20"/>
-      <c r="I311" s="20" t="s">
+      <c r="G351" s="26"/>
+      <c r="H351" s="20"/>
+      <c r="I351" s="20" t="s">
         <v>1829</v>
       </c>
-      <c r="J311" s="39" t="s">
+      <c r="J351" s="39" t="s">
         <v>333</v>
       </c>
-      <c r="K311" s="40">
+      <c r="K351" s="40">
         <v>10</v>
       </c>
-      <c r="L311" s="41"/>
-      <c r="M311" s="27"/>
-    </row>
-    <row r="312" spans="2:13">
-      <c r="G312" s="26"/>
-      <c r="H312" s="20"/>
-      <c r="I312" s="20"/>
-      <c r="J312" s="42" t="s">
+      <c r="L351" s="41"/>
+      <c r="M351" s="27"/>
+    </row>
+    <row r="352" spans="2:13">
+      <c r="G352" s="26"/>
+      <c r="H352" s="20"/>
+      <c r="I352" s="20"/>
+      <c r="J352" s="42" t="s">
         <v>1041</v>
       </c>
-      <c r="K312" s="43" t="s">
+      <c r="K352" s="43" t="s">
         <v>1828</v>
       </c>
-      <c r="L312" s="44"/>
-      <c r="M312" s="27"/>
-    </row>
-    <row r="313" spans="2:13" ht="15.75" thickBot="1">
-      <c r="C313" t="s">
+      <c r="L352" s="44"/>
+      <c r="M352" s="27"/>
+    </row>
+    <row r="353" spans="2:13" ht="15.75" thickBot="1">
+      <c r="C353" t="s">
         <v>279</v>
       </c>
-      <c r="G313" s="26"/>
-      <c r="H313" s="20"/>
-      <c r="I313" s="20"/>
-      <c r="J313" s="45" t="s">
+      <c r="G353" s="26"/>
+      <c r="H353" s="20"/>
+      <c r="I353" s="20"/>
+      <c r="J353" s="45" t="s">
         <v>1463</v>
       </c>
-      <c r="K313" s="46" t="s">
+      <c r="K353" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="L313" s="47"/>
-      <c r="M313" s="27"/>
-    </row>
-    <row r="314" spans="2:13" ht="15.75" thickBot="1">
-      <c r="C314" t="s">
+      <c r="L353" s="47"/>
+      <c r="M353" s="27"/>
+    </row>
+    <row r="354" spans="2:13" ht="15.75" thickBot="1">
+      <c r="C354" t="s">
         <v>1826</v>
       </c>
-      <c r="G314" s="26"/>
-      <c r="H314" s="20"/>
-      <c r="I314" s="20"/>
-      <c r="J314" s="20"/>
-      <c r="K314" s="20"/>
-      <c r="L314" s="20"/>
-      <c r="M314" s="27"/>
-    </row>
-    <row r="315" spans="2:13">
-      <c r="G315" s="26"/>
-      <c r="H315" s="20"/>
-      <c r="I315" s="20" t="s">
+      <c r="G354" s="26"/>
+      <c r="H354" s="20"/>
+      <c r="I354" s="20"/>
+      <c r="J354" s="20"/>
+      <c r="K354" s="20"/>
+      <c r="L354" s="20"/>
+      <c r="M354" s="27"/>
+    </row>
+    <row r="355" spans="2:13">
+      <c r="G355" s="26"/>
+      <c r="H355" s="20"/>
+      <c r="I355" s="20" t="s">
         <v>1828</v>
       </c>
-      <c r="J315" s="39" t="s">
+      <c r="J355" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="K315" s="40" t="s">
+      <c r="K355" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="L315" s="41"/>
-      <c r="M315" s="27"/>
-    </row>
-    <row r="316" spans="2:13">
-      <c r="B316" t="s">
+      <c r="L355" s="41"/>
+      <c r="M355" s="27"/>
+    </row>
+    <row r="356" spans="2:13">
+      <c r="B356" t="s">
         <v>1830</v>
       </c>
-      <c r="G316" s="26"/>
-      <c r="H316" s="20"/>
-      <c r="I316" s="20"/>
-      <c r="J316" s="42" t="s">
+      <c r="G356" s="26"/>
+      <c r="H356" s="20"/>
+      <c r="I356" s="20"/>
+      <c r="J356" s="42" t="s">
         <v>1768</v>
       </c>
-      <c r="K316" s="43">
+      <c r="K356" s="43">
         <v>0</v>
       </c>
-      <c r="L316" s="44"/>
-      <c r="M316" s="27"/>
-    </row>
-    <row r="317" spans="2:13" ht="15.75" thickBot="1">
-      <c r="C317" t="s">
+      <c r="L356" s="44"/>
+      <c r="M356" s="27"/>
+    </row>
+    <row r="357" spans="2:13" ht="15.75" thickBot="1">
+      <c r="C357" t="s">
         <v>1831</v>
       </c>
-      <c r="G317" s="26"/>
-      <c r="H317" s="20"/>
-      <c r="I317" s="20"/>
-      <c r="J317" s="45"/>
-      <c r="K317" s="46"/>
-      <c r="L317" s="47"/>
-      <c r="M317" s="27"/>
-    </row>
-    <row r="318" spans="2:13">
-      <c r="B318" t="s">
+      <c r="G357" s="26"/>
+      <c r="H357" s="20"/>
+      <c r="I357" s="20"/>
+      <c r="J357" s="45"/>
+      <c r="K357" s="46"/>
+      <c r="L357" s="47"/>
+      <c r="M357" s="27"/>
+    </row>
+    <row r="358" spans="2:13">
+      <c r="B358" t="s">
         <v>142</v>
       </c>
-      <c r="G318" s="26"/>
-      <c r="H318" s="20"/>
-      <c r="I318" s="20"/>
-      <c r="J318" s="20"/>
-      <c r="K318" s="20"/>
-      <c r="L318" s="20"/>
-      <c r="M318" s="27"/>
-    </row>
-    <row r="319" spans="2:13">
-      <c r="G319" s="26"/>
-      <c r="H319" s="20"/>
-      <c r="I319" s="20"/>
-      <c r="J319" s="20"/>
-      <c r="K319" s="20"/>
-      <c r="L319" s="20"/>
-      <c r="M319" s="27"/>
-    </row>
-    <row r="320" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B320" t="s">
+      <c r="G358" s="26"/>
+      <c r="H358" s="20"/>
+      <c r="I358" s="20"/>
+      <c r="J358" s="20"/>
+      <c r="K358" s="20"/>
+      <c r="L358" s="20"/>
+      <c r="M358" s="27"/>
+    </row>
+    <row r="359" spans="2:13">
+      <c r="G359" s="26"/>
+      <c r="H359" s="20"/>
+      <c r="I359" s="20"/>
+      <c r="J359" s="20"/>
+      <c r="K359" s="20"/>
+      <c r="L359" s="20"/>
+      <c r="M359" s="27"/>
+    </row>
+    <row r="360" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B360" t="s">
         <v>142</v>
       </c>
-      <c r="G320" s="28"/>
-      <c r="H320" s="29"/>
-      <c r="I320" s="29"/>
-      <c r="J320" s="29"/>
-      <c r="K320" s="29"/>
-      <c r="L320" s="29"/>
-      <c r="M320" s="30"/>
-    </row>
-    <row r="329" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="330" spans="1:12">
-      <c r="F330" s="23"/>
-      <c r="G330" s="24"/>
-      <c r="H330" s="24"/>
-      <c r="I330" s="24"/>
-      <c r="J330" s="24"/>
-      <c r="K330" s="24"/>
-      <c r="L330" s="25"/>
-    </row>
-    <row r="331" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A331" t="s">
+      <c r="G360" s="28"/>
+      <c r="H360" s="29"/>
+      <c r="I360" s="29"/>
+      <c r="J360" s="29"/>
+      <c r="K360" s="29"/>
+      <c r="L360" s="29"/>
+      <c r="M360" s="30"/>
+    </row>
+    <row r="369" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="370" spans="1:12">
+      <c r="F370" s="23"/>
+      <c r="G370" s="24"/>
+      <c r="H370" s="24"/>
+      <c r="I370" s="24"/>
+      <c r="J370" s="24"/>
+      <c r="K370" s="24"/>
+      <c r="L370" s="25"/>
+    </row>
+    <row r="371" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A371" t="s">
         <v>410</v>
       </c>
-      <c r="F331" s="26"/>
-      <c r="G331" s="20"/>
-      <c r="H331" s="20"/>
-      <c r="I331" s="20"/>
-      <c r="J331" s="20"/>
-      <c r="K331" s="20"/>
-      <c r="L331" s="27"/>
-    </row>
-    <row r="332" spans="1:12">
-      <c r="F332" s="26"/>
-      <c r="G332" s="20" t="s">
+      <c r="F371" s="26"/>
+      <c r="G371" s="20"/>
+      <c r="H371" s="20"/>
+      <c r="I371" s="20"/>
+      <c r="J371" s="20"/>
+      <c r="K371" s="20"/>
+      <c r="L371" s="27"/>
+    </row>
+    <row r="372" spans="1:12">
+      <c r="F372" s="26"/>
+      <c r="G372" s="20" t="s">
         <v>1463</v>
       </c>
-      <c r="H332" s="20" t="s">
+      <c r="H372" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="I332" s="20"/>
-      <c r="J332" s="20" t="s">
+      <c r="I372" s="20"/>
+      <c r="J372" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="K332" s="23"/>
-      <c r="L332" s="25"/>
-    </row>
-    <row r="333" spans="1:12">
-      <c r="B333" t="s">
+      <c r="K372" s="23"/>
+      <c r="L372" s="25"/>
+    </row>
+    <row r="373" spans="1:12">
+      <c r="B373" t="s">
         <v>2227</v>
       </c>
-      <c r="F333" s="26"/>
-      <c r="G333" s="20" t="s">
+      <c r="F373" s="26"/>
+      <c r="G373" s="20" t="s">
         <v>1449</v>
       </c>
-      <c r="H333" s="20" t="s">
+      <c r="H373" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="I333" s="20"/>
-      <c r="J333" s="20"/>
-      <c r="K333" s="26" t="s">
+      <c r="I373" s="20"/>
+      <c r="J373" s="20"/>
+      <c r="K373" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="L333" s="27" t="s">
+      <c r="L373" s="27" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="334" spans="1:12" ht="15.75" thickBot="1">
-      <c r="F334" s="26"/>
-      <c r="G334" s="20"/>
-      <c r="H334" s="20"/>
-      <c r="I334" s="20"/>
-      <c r="J334" s="20"/>
-      <c r="K334" s="28"/>
-      <c r="L334" s="30"/>
-    </row>
-    <row r="335" spans="1:12">
-      <c r="A335" t="s">
+    <row r="374" spans="1:12" ht="15.75" thickBot="1">
+      <c r="F374" s="26"/>
+      <c r="G374" s="20"/>
+      <c r="H374" s="20"/>
+      <c r="I374" s="20"/>
+      <c r="J374" s="20"/>
+      <c r="K374" s="28"/>
+      <c r="L374" s="30"/>
+    </row>
+    <row r="375" spans="1:12">
+      <c r="A375" t="s">
         <v>142</v>
       </c>
-      <c r="F335" s="26"/>
-      <c r="G335" s="20"/>
-      <c r="H335" s="20"/>
-      <c r="I335" s="20"/>
-      <c r="J335" s="20"/>
-      <c r="K335" s="20"/>
-      <c r="L335" s="27"/>
-    </row>
-    <row r="336" spans="1:12">
-      <c r="F336" s="26"/>
-      <c r="G336" s="20"/>
-      <c r="H336" s="20"/>
-      <c r="I336" s="20"/>
-      <c r="J336" s="20"/>
-      <c r="K336" s="20"/>
-      <c r="L336" s="27"/>
-    </row>
-    <row r="337" spans="2:12">
-      <c r="B337" t="s">
+      <c r="F375" s="26"/>
+      <c r="G375" s="20"/>
+      <c r="H375" s="20"/>
+      <c r="I375" s="20"/>
+      <c r="J375" s="20"/>
+      <c r="K375" s="20"/>
+      <c r="L375" s="27"/>
+    </row>
+    <row r="376" spans="1:12">
+      <c r="F376" s="26"/>
+      <c r="G376" s="20"/>
+      <c r="H376" s="20"/>
+      <c r="I376" s="20"/>
+      <c r="J376" s="20"/>
+      <c r="K376" s="20"/>
+      <c r="L376" s="27"/>
+    </row>
+    <row r="377" spans="1:12">
+      <c r="B377" t="s">
         <v>1388</v>
       </c>
-      <c r="F337" s="26"/>
-      <c r="G337" s="20"/>
-      <c r="H337" s="20"/>
-      <c r="I337" s="20"/>
-      <c r="J337" s="20"/>
-      <c r="K337" s="20"/>
-      <c r="L337" s="27"/>
-    </row>
-    <row r="338" spans="2:12">
-      <c r="B338" t="s">
+      <c r="F377" s="26"/>
+      <c r="G377" s="20"/>
+      <c r="H377" s="20"/>
+      <c r="I377" s="20"/>
+      <c r="J377" s="20"/>
+      <c r="K377" s="20"/>
+      <c r="L377" s="27"/>
+    </row>
+    <row r="378" spans="1:12">
+      <c r="B378" t="s">
         <v>1464</v>
       </c>
-      <c r="F338" s="26"/>
-      <c r="G338" s="20"/>
-      <c r="H338" s="20"/>
-      <c r="I338" s="20"/>
-      <c r="J338" s="20"/>
-      <c r="K338" s="20"/>
-      <c r="L338" s="27"/>
-    </row>
-    <row r="339" spans="2:12">
-      <c r="F339" s="26"/>
-      <c r="G339" s="20"/>
-      <c r="H339" s="20"/>
-      <c r="I339" s="20"/>
-      <c r="J339" s="20"/>
-      <c r="K339" s="20"/>
-      <c r="L339" s="27"/>
-    </row>
-    <row r="340" spans="2:12">
-      <c r="B340" t="s">
+      <c r="F378" s="26"/>
+      <c r="G378" s="20"/>
+      <c r="H378" s="20"/>
+      <c r="I378" s="20"/>
+      <c r="J378" s="20"/>
+      <c r="K378" s="20"/>
+      <c r="L378" s="27"/>
+    </row>
+    <row r="379" spans="1:12">
+      <c r="F379" s="26"/>
+      <c r="G379" s="20"/>
+      <c r="H379" s="20"/>
+      <c r="I379" s="20"/>
+      <c r="J379" s="20"/>
+      <c r="K379" s="20"/>
+      <c r="L379" s="27"/>
+    </row>
+    <row r="380" spans="1:12">
+      <c r="B380" t="s">
         <v>2228</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D380" t="s">
         <v>343</v>
       </c>
-      <c r="F340" s="26"/>
-      <c r="G340" s="20"/>
-      <c r="H340" s="20"/>
-      <c r="I340" s="20"/>
-      <c r="J340" s="20"/>
-      <c r="K340" s="20"/>
-      <c r="L340" s="27"/>
-    </row>
-    <row r="341" spans="2:12">
-      <c r="B341" t="s">
+      <c r="F380" s="26"/>
+      <c r="G380" s="20"/>
+      <c r="H380" s="20"/>
+      <c r="I380" s="20"/>
+      <c r="J380" s="20"/>
+      <c r="K380" s="20"/>
+      <c r="L380" s="27"/>
+    </row>
+    <row r="381" spans="1:12">
+      <c r="B381" t="s">
         <v>2229</v>
       </c>
-      <c r="F341" s="26"/>
-      <c r="G341" s="20"/>
-      <c r="H341" s="20"/>
-      <c r="I341" s="20"/>
-      <c r="J341" s="20"/>
-      <c r="K341" s="20"/>
-      <c r="L341" s="27"/>
-    </row>
-    <row r="342" spans="2:12" ht="15.75" thickBot="1">
-      <c r="F342" s="28"/>
-      <c r="G342" s="29"/>
-      <c r="H342" s="29"/>
-      <c r="I342" s="29"/>
-      <c r="J342" s="29"/>
-      <c r="K342" s="29"/>
-      <c r="L342" s="30"/>
-    </row>
-    <row r="352" spans="2:12">
-      <c r="C352" t="s">
+      <c r="F381" s="26"/>
+      <c r="G381" s="20"/>
+      <c r="H381" s="20"/>
+      <c r="I381" s="20"/>
+      <c r="J381" s="20"/>
+      <c r="K381" s="20"/>
+      <c r="L381" s="27"/>
+    </row>
+    <row r="382" spans="1:12" ht="15.75" thickBot="1">
+      <c r="F382" s="28"/>
+      <c r="G382" s="29"/>
+      <c r="H382" s="29"/>
+      <c r="I382" s="29"/>
+      <c r="J382" s="29"/>
+      <c r="K382" s="29"/>
+      <c r="L382" s="30"/>
+    </row>
+    <row r="392" spans="2:3">
+      <c r="C392" t="s">
         <v>2190</v>
       </c>
     </row>
-    <row r="353" spans="2:2">
-      <c r="B353" t="s">
+    <row r="393" spans="2:3">
+      <c r="B393" t="s">
         <v>142</v>
       </c>
     </row>
@@ -46784,24 +47428,24 @@
     <row r="17" spans="1:14" s="86" customFormat="1"/>
     <row r="22" spans="1:14" ht="15.75" thickBot="1">
       <c r="A22" s="84"/>
-      <c r="B22" s="431" t="s">
+      <c r="B22" s="434" t="s">
         <v>1032</v>
       </c>
-      <c r="C22" s="431"/>
+      <c r="C22" s="434"/>
       <c r="D22" s="84"/>
       <c r="E22" s="84"/>
-      <c r="F22" s="431" t="s">
+      <c r="F22" s="434" t="s">
         <v>1136</v>
       </c>
-      <c r="G22" s="431"/>
-      <c r="H22" s="431"/>
+      <c r="G22" s="434"/>
+      <c r="H22" s="434"/>
       <c r="I22" s="84"/>
       <c r="J22" s="84"/>
-      <c r="K22" s="431" t="s">
+      <c r="K22" s="434" t="s">
         <v>1034</v>
       </c>
-      <c r="L22" s="431"/>
-      <c r="M22" s="431"/>
+      <c r="L22" s="434"/>
+      <c r="M22" s="434"/>
       <c r="N22" s="84"/>
     </row>
     <row r="23" spans="1:14">
@@ -49359,35 +50003,35 @@
       </c>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="433" t="s">
+      <c r="B8" s="436" t="s">
         <v>2283</v>
       </c>
-      <c r="C8" s="433"/>
-      <c r="F8" s="433" t="s">
+      <c r="C8" s="436"/>
+      <c r="F8" s="436" t="s">
         <v>2284</v>
       </c>
-      <c r="G8" s="433"/>
-      <c r="I8" s="433" t="s">
+      <c r="G8" s="436"/>
+      <c r="I8" s="436" t="s">
         <v>2284</v>
       </c>
-      <c r="J8" s="433"/>
+      <c r="J8" s="436"/>
       <c r="M8" s="201" t="s">
         <v>2341</v>
       </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="F9" s="433" t="s">
+      <c r="F9" s="436" t="s">
         <v>2285</v>
       </c>
-      <c r="G9" s="433"/>
-      <c r="I9" s="433" t="s">
+      <c r="G9" s="436"/>
+      <c r="I9" s="436" t="s">
         <v>2286</v>
       </c>
-      <c r="J9" s="433"/>
-      <c r="M9" s="434" t="s">
+      <c r="J9" s="436"/>
+      <c r="M9" s="437" t="s">
         <v>2284</v>
       </c>
-      <c r="N9" s="434"/>
+      <c r="N9" s="437"/>
     </row>
     <row r="10" spans="1:31">
       <c r="M10" s="256" t="s">
@@ -49396,19 +50040,19 @@
       <c r="N10" s="256"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="E11" s="432" t="s">
+      <c r="E11" s="435" t="s">
         <v>2288</v>
       </c>
-      <c r="F11" s="432"/>
-      <c r="G11" s="432"/>
-      <c r="H11" s="432"/>
-      <c r="I11" s="432"/>
-      <c r="J11" s="432"/>
-      <c r="K11" s="432"/>
-      <c r="L11" s="432"/>
-      <c r="M11" s="432"/>
-      <c r="N11" s="432"/>
-      <c r="O11" s="432"/>
+      <c r="F11" s="435"/>
+      <c r="G11" s="435"/>
+      <c r="H11" s="435"/>
+      <c r="I11" s="435"/>
+      <c r="J11" s="435"/>
+      <c r="K11" s="435"/>
+      <c r="L11" s="435"/>
+      <c r="M11" s="435"/>
+      <c r="N11" s="435"/>
+      <c r="O11" s="435"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
@@ -53168,11 +53812,11 @@
       <c r="L6" s="35" t="s">
         <v>1307</v>
       </c>
-      <c r="M6" s="411" t="s">
+      <c r="M6" s="414" t="s">
         <v>1308</v>
       </c>
-      <c r="N6" s="411"/>
-      <c r="O6" s="411"/>
+      <c r="N6" s="414"/>
+      <c r="O6" s="414"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
@@ -53972,7 +54616,7 @@
       <c r="L1" s="103"/>
       <c r="M1" s="103"/>
       <c r="N1" s="103"/>
-      <c r="O1" s="373" t="s">
+      <c r="O1" s="376" t="s">
         <v>2634</v>
       </c>
       <c r="R1" s="38">
@@ -53991,29 +54635,29 @@
       <c r="L2" s="103"/>
       <c r="M2" s="103"/>
       <c r="N2" s="103"/>
-      <c r="O2" s="373"/>
+      <c r="O2" s="376"/>
     </row>
     <row r="3" spans="1:46" ht="15.75" thickBot="1">
-      <c r="H3" s="381" t="s">
+      <c r="H3" s="384" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="382"/>
-      <c r="J3" s="382"/>
-      <c r="K3" s="382"/>
-      <c r="L3" s="383"/>
-      <c r="O3" s="373"/>
+      <c r="I3" s="385"/>
+      <c r="J3" s="385"/>
+      <c r="K3" s="385"/>
+      <c r="L3" s="386"/>
+      <c r="O3" s="376"/>
       <c r="P3" t="s">
         <v>1363</v>
       </c>
     </row>
     <row r="4" spans="1:46" ht="15.75" thickBot="1">
-      <c r="O4" s="373"/>
+      <c r="O4" s="376"/>
       <c r="P4" t="s">
         <v>2636</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D5" s="374" t="s">
+      <c r="D5" s="377" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
@@ -54030,35 +54674,35 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="373"/>
+      <c r="O5" s="376"/>
       <c r="P5" t="s">
         <v>2637</v>
       </c>
     </row>
     <row r="6" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D6" s="374"/>
+      <c r="D6" s="377"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="384" t="s">
+      <c r="G6" s="387" t="s">
         <v>1369</v>
       </c>
-      <c r="H6" s="385"/>
+      <c r="H6" s="388"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="384" t="s">
+      <c r="J6" s="387" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="385"/>
+      <c r="K6" s="388"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="384" t="s">
+      <c r="M6" s="387" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="386"/>
-      <c r="O6" s="373"/>
+      <c r="N6" s="389"/>
+      <c r="O6" s="376"/>
       <c r="P6" t="s">
         <v>2619</v>
       </c>
     </row>
     <row r="7" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D7" s="374"/>
+      <c r="D7" s="377"/>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -54068,7 +54712,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="373"/>
+      <c r="O7" s="376"/>
       <c r="AC7" s="99" t="s">
         <v>2587</v>
       </c>
@@ -54095,23 +54739,23 @@
       <c r="AT7" s="100"/>
     </row>
     <row r="8" spans="1:46">
-      <c r="D8" s="374"/>
+      <c r="D8" s="377"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="387" t="s">
+      <c r="G8" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="388"/>
+      <c r="H8" s="391"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="387" t="s">
+      <c r="J8" s="390" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="388"/>
+      <c r="K8" s="391"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="387" t="s">
+      <c r="M8" s="390" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="389"/>
-      <c r="O8" s="373"/>
+      <c r="N8" s="392"/>
+      <c r="O8" s="376"/>
       <c r="Q8" s="118"/>
       <c r="S8" t="s">
         <v>2578</v>
@@ -54138,7 +54782,7 @@
       <c r="AT8" s="68"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="D9" s="374"/>
+      <c r="D9" s="377"/>
       <c r="F9" s="3"/>
       <c r="G9" s="204"/>
       <c r="H9" s="204"/>
@@ -54150,7 +54794,7 @@
       <c r="L9" s="203"/>
       <c r="M9" s="204"/>
       <c r="N9" s="204"/>
-      <c r="O9" s="373"/>
+      <c r="O9" s="376"/>
       <c r="Q9" s="118"/>
       <c r="S9" t="s">
         <v>2571</v>
@@ -54187,19 +54831,19 @@
       <c r="AT9" s="68"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="D10" s="374"/>
-      <c r="F10" s="377" t="s">
+      <c r="D10" s="377"/>
+      <c r="F10" s="380" t="s">
         <v>2004</v>
       </c>
-      <c r="G10" s="378"/>
-      <c r="H10" s="378"/>
-      <c r="I10" s="378"/>
-      <c r="J10" s="378"/>
-      <c r="K10" s="378"/>
-      <c r="L10" s="378"/>
-      <c r="M10" s="378"/>
-      <c r="N10" s="378"/>
-      <c r="O10" s="372" t="s">
+      <c r="G10" s="381"/>
+      <c r="H10" s="381"/>
+      <c r="I10" s="381"/>
+      <c r="J10" s="381"/>
+      <c r="K10" s="381"/>
+      <c r="L10" s="381"/>
+      <c r="M10" s="381"/>
+      <c r="N10" s="381"/>
+      <c r="O10" s="375" t="s">
         <v>2633</v>
       </c>
       <c r="Q10" s="118"/>
@@ -54237,20 +54881,20 @@
       <c r="A11" t="s">
         <v>2558</v>
       </c>
-      <c r="D11" s="374"/>
+      <c r="D11" s="377"/>
       <c r="E11" t="s">
         <v>2610</v>
       </c>
-      <c r="F11" s="379"/>
-      <c r="G11" s="380"/>
-      <c r="H11" s="380"/>
-      <c r="I11" s="380"/>
-      <c r="J11" s="380"/>
-      <c r="K11" s="380"/>
-      <c r="L11" s="380"/>
-      <c r="M11" s="380"/>
-      <c r="N11" s="380"/>
-      <c r="O11" s="372"/>
+      <c r="F11" s="382"/>
+      <c r="G11" s="383"/>
+      <c r="H11" s="383"/>
+      <c r="I11" s="383"/>
+      <c r="J11" s="383"/>
+      <c r="K11" s="383"/>
+      <c r="L11" s="383"/>
+      <c r="M11" s="383"/>
+      <c r="N11" s="383"/>
+      <c r="O11" s="375"/>
       <c r="P11" t="s">
         <v>2635</v>
       </c>
@@ -54286,7 +54930,7 @@
       <c r="A12" t="s">
         <v>2559</v>
       </c>
-      <c r="D12" s="374"/>
+      <c r="D12" s="377"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -54296,7 +54940,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="372"/>
+      <c r="O12" s="375"/>
       <c r="AC12" s="152" t="s">
         <v>2589</v>
       </c>
@@ -54321,7 +54965,7 @@
       <c r="AT12" s="68"/>
     </row>
     <row r="13" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D13" s="374"/>
+      <c r="D13" s="377"/>
       <c r="E13" t="s">
         <v>1408</v>
       </c>
@@ -54340,7 +54984,7 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="372"/>
+      <c r="O13" s="375"/>
       <c r="AC13" s="152"/>
       <c r="AD13" s="20" t="s">
         <v>2589</v>
@@ -54363,22 +55007,22 @@
       <c r="AT13" s="68"/>
     </row>
     <row r="14" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D14" s="374"/>
+      <c r="D14" s="377"/>
       <c r="E14" t="s">
         <v>2560</v>
       </c>
-      <c r="F14" s="375" t="s">
+      <c r="F14" s="378" t="s">
         <v>2561</v>
       </c>
-      <c r="G14" s="376"/>
-      <c r="H14" s="376"/>
-      <c r="I14" s="376"/>
-      <c r="J14" s="376"/>
-      <c r="K14" s="376"/>
-      <c r="L14" s="376"/>
-      <c r="M14" s="376"/>
-      <c r="N14" s="376"/>
-      <c r="O14" s="372"/>
+      <c r="G14" s="379"/>
+      <c r="H14" s="379"/>
+      <c r="I14" s="379"/>
+      <c r="J14" s="379"/>
+      <c r="K14" s="379"/>
+      <c r="L14" s="379"/>
+      <c r="M14" s="379"/>
+      <c r="N14" s="379"/>
+      <c r="O14" s="375"/>
       <c r="P14" t="s">
         <v>2568</v>
       </c>
@@ -54408,7 +55052,7 @@
       <c r="B15" t="s">
         <v>2548</v>
       </c>
-      <c r="D15" s="374" t="s">
+      <c r="D15" s="377" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="115"/>
@@ -54446,7 +55090,7 @@
       <c r="AT15" s="68"/>
     </row>
     <row r="16" spans="1:46">
-      <c r="D16" s="374"/>
+      <c r="D16" s="377"/>
       <c r="E16" t="s">
         <v>1370</v>
       </c>
@@ -54501,7 +55145,7 @@
       <c r="AT16" s="68"/>
     </row>
     <row r="17" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D17" s="374"/>
+      <c r="D17" s="377"/>
       <c r="F17" s="117"/>
       <c r="G17" s="114" t="s">
         <v>10</v>
@@ -54549,7 +55193,7 @@
       <c r="AT17" s="68"/>
     </row>
     <row r="18" spans="1:46">
-      <c r="D18" s="374"/>
+      <c r="D18" s="377"/>
       <c r="F18" s="115"/>
       <c r="G18" s="114" t="s">
         <v>11</v>
@@ -54600,7 +55244,7 @@
       <c r="B19" t="s">
         <v>2549</v>
       </c>
-      <c r="D19" s="374"/>
+      <c r="D19" s="377"/>
       <c r="F19" s="116"/>
       <c r="G19" s="13"/>
       <c r="H19" s="11"/>
@@ -54651,7 +55295,7 @@
       <c r="AT19" s="68"/>
     </row>
     <row r="20" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D20" s="374"/>
+      <c r="D20" s="377"/>
       <c r="E20" t="s">
         <v>1371</v>
       </c>
@@ -54704,7 +55348,7 @@
       <c r="AT20" s="68"/>
     </row>
     <row r="21" spans="1:46" ht="15.75" thickBot="1">
-      <c r="D21" s="374"/>
+      <c r="D21" s="377"/>
       <c r="F21" s="117"/>
       <c r="G21" s="11" t="s">
         <v>15</v>
@@ -54740,7 +55384,7 @@
       <c r="AT21" s="68"/>
     </row>
     <row r="22" spans="1:46">
-      <c r="D22" s="374"/>
+      <c r="D22" s="377"/>
       <c r="F22" s="116"/>
       <c r="G22" s="11" t="s">
         <v>1989</v>
@@ -54790,7 +55434,7 @@
       <c r="AT22" s="68"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="D23" s="374"/>
+      <c r="D23" s="377"/>
       <c r="E23" t="s">
         <v>1370</v>
       </c>
@@ -54836,7 +55480,7 @@
       <c r="A24" t="s">
         <v>2553</v>
       </c>
-      <c r="D24" s="374"/>
+      <c r="D24" s="377"/>
       <c r="F24" s="117"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -54866,7 +55510,7 @@
       <c r="AT24" s="68"/>
     </row>
     <row r="25" spans="1:46">
-      <c r="D25" s="374"/>
+      <c r="D25" s="377"/>
       <c r="E25" t="s">
         <v>2547</v>
       </c>
@@ -55416,12 +56060,12 @@
       <c r="O43" s="89"/>
       <c r="P43" s="89"/>
       <c r="Q43" s="157"/>
-      <c r="X43" s="360" t="s">
+      <c r="X43" s="363" t="s">
         <v>1493</v>
       </c>
-      <c r="Y43" s="361"/>
-      <c r="Z43" s="361"/>
-      <c r="AA43" s="362"/>
+      <c r="Y43" s="364"/>
+      <c r="Z43" s="364"/>
+      <c r="AA43" s="365"/>
       <c r="AC43" t="s">
         <v>1364</v>
       </c>
@@ -55454,10 +56098,10 @@
       <c r="M44" s="279"/>
       <c r="N44" s="279"/>
       <c r="O44" s="279"/>
-      <c r="X44" s="363"/>
-      <c r="Y44" s="364"/>
-      <c r="Z44" s="364"/>
-      <c r="AA44" s="365"/>
+      <c r="X44" s="366"/>
+      <c r="Y44" s="367"/>
+      <c r="Z44" s="367"/>
+      <c r="AA44" s="368"/>
       <c r="XFD44" s="32" t="s">
         <v>1372</v>
       </c>
@@ -55481,10 +56125,10 @@
       <c r="M45" s="279"/>
       <c r="N45" s="279"/>
       <c r="O45" s="279"/>
-      <c r="X45" s="366"/>
-      <c r="Y45" s="367"/>
-      <c r="Z45" s="367"/>
-      <c r="AA45" s="368"/>
+      <c r="X45" s="369"/>
+      <c r="Y45" s="370"/>
+      <c r="Z45" s="370"/>
+      <c r="AA45" s="371"/>
     </row>
     <row r="46" spans="1:46 16384:16384">
       <c r="B46" t="s">
@@ -55570,20 +56214,20 @@
       <c r="V49" t="s">
         <v>2631</v>
       </c>
-      <c r="X49" s="369" t="s">
+      <c r="X49" s="372" t="s">
         <v>2611</v>
       </c>
-      <c r="Y49" s="370"/>
-      <c r="Z49" s="370"/>
-      <c r="AA49" s="370"/>
-      <c r="AB49" s="370"/>
-      <c r="AC49" s="370"/>
-      <c r="AD49" s="370"/>
-      <c r="AE49" s="370"/>
-      <c r="AF49" s="370"/>
-      <c r="AG49" s="370"/>
-      <c r="AH49" s="370"/>
-      <c r="AI49" s="371"/>
+      <c r="Y49" s="373"/>
+      <c r="Z49" s="373"/>
+      <c r="AA49" s="373"/>
+      <c r="AB49" s="373"/>
+      <c r="AC49" s="373"/>
+      <c r="AD49" s="373"/>
+      <c r="AE49" s="373"/>
+      <c r="AF49" s="373"/>
+      <c r="AG49" s="373"/>
+      <c r="AH49" s="373"/>
+      <c r="AI49" s="374"/>
     </row>
     <row r="50" spans="1:35">
       <c r="B50" t="s">
@@ -56469,98 +57113,98 @@
   <sheetData>
     <row r="1" spans="3:16" ht="15.75" thickBot="1"/>
     <row r="2" spans="3:16">
-      <c r="C2" s="405" t="s">
+      <c r="C2" s="408" t="s">
         <v>2652</v>
       </c>
-      <c r="D2" s="406"/>
-      <c r="E2" s="406"/>
-      <c r="F2" s="406"/>
-      <c r="G2" s="406"/>
-      <c r="H2" s="406"/>
-      <c r="I2" s="406"/>
-      <c r="J2" s="406"/>
-      <c r="K2" s="406"/>
+      <c r="D2" s="409"/>
+      <c r="E2" s="409"/>
+      <c r="F2" s="409"/>
+      <c r="G2" s="409"/>
+      <c r="H2" s="409"/>
+      <c r="I2" s="409"/>
+      <c r="J2" s="409"/>
+      <c r="K2" s="409"/>
     </row>
     <row r="3" spans="3:16">
-      <c r="C3" s="407"/>
-      <c r="D3" s="408"/>
-      <c r="E3" s="408"/>
-      <c r="F3" s="408"/>
-      <c r="G3" s="408"/>
-      <c r="H3" s="408"/>
-      <c r="I3" s="408"/>
-      <c r="J3" s="408"/>
-      <c r="K3" s="408"/>
+      <c r="C3" s="410"/>
+      <c r="D3" s="411"/>
+      <c r="E3" s="411"/>
+      <c r="F3" s="411"/>
+      <c r="G3" s="411"/>
+      <c r="H3" s="411"/>
+      <c r="I3" s="411"/>
+      <c r="J3" s="411"/>
+      <c r="K3" s="411"/>
       <c r="M3" t="s">
         <v>2653</v>
       </c>
     </row>
     <row r="4" spans="3:16">
-      <c r="C4" s="407"/>
-      <c r="D4" s="408"/>
-      <c r="E4" s="408"/>
-      <c r="F4" s="408"/>
-      <c r="G4" s="408"/>
-      <c r="H4" s="408"/>
-      <c r="I4" s="408"/>
-      <c r="J4" s="408"/>
-      <c r="K4" s="408"/>
+      <c r="C4" s="410"/>
+      <c r="D4" s="411"/>
+      <c r="E4" s="411"/>
+      <c r="F4" s="411"/>
+      <c r="G4" s="411"/>
+      <c r="H4" s="411"/>
+      <c r="I4" s="411"/>
+      <c r="J4" s="411"/>
+      <c r="K4" s="411"/>
       <c r="N4" t="s">
         <v>2654</v>
       </c>
     </row>
     <row r="5" spans="3:16">
-      <c r="C5" s="407"/>
-      <c r="D5" s="408"/>
-      <c r="E5" s="408"/>
-      <c r="F5" s="408"/>
-      <c r="G5" s="408"/>
-      <c r="H5" s="408"/>
-      <c r="I5" s="408"/>
-      <c r="J5" s="408"/>
-      <c r="K5" s="408"/>
+      <c r="C5" s="410"/>
+      <c r="D5" s="411"/>
+      <c r="E5" s="411"/>
+      <c r="F5" s="411"/>
+      <c r="G5" s="411"/>
+      <c r="H5" s="411"/>
+      <c r="I5" s="411"/>
+      <c r="J5" s="411"/>
+      <c r="K5" s="411"/>
       <c r="O5" t="s">
         <v>2655</v>
       </c>
     </row>
     <row r="6" spans="3:16">
-      <c r="C6" s="407"/>
-      <c r="D6" s="408"/>
-      <c r="E6" s="408"/>
-      <c r="F6" s="408"/>
-      <c r="G6" s="408"/>
-      <c r="H6" s="408"/>
-      <c r="I6" s="408"/>
-      <c r="J6" s="408"/>
-      <c r="K6" s="408"/>
+      <c r="C6" s="410"/>
+      <c r="D6" s="411"/>
+      <c r="E6" s="411"/>
+      <c r="F6" s="411"/>
+      <c r="G6" s="411"/>
+      <c r="H6" s="411"/>
+      <c r="I6" s="411"/>
+      <c r="J6" s="411"/>
+      <c r="K6" s="411"/>
       <c r="O6" t="s">
         <v>1988</v>
       </c>
     </row>
     <row r="7" spans="3:16">
-      <c r="C7" s="407"/>
-      <c r="D7" s="408"/>
-      <c r="E7" s="408"/>
-      <c r="F7" s="408"/>
-      <c r="G7" s="408"/>
-      <c r="H7" s="408"/>
-      <c r="I7" s="408"/>
-      <c r="J7" s="408"/>
-      <c r="K7" s="408"/>
+      <c r="C7" s="410"/>
+      <c r="D7" s="411"/>
+      <c r="E7" s="411"/>
+      <c r="F7" s="411"/>
+      <c r="G7" s="411"/>
+      <c r="H7" s="411"/>
+      <c r="I7" s="411"/>
+      <c r="J7" s="411"/>
+      <c r="K7" s="411"/>
       <c r="O7" t="s">
         <v>2656</v>
       </c>
     </row>
     <row r="8" spans="3:16" ht="15.75" thickBot="1">
-      <c r="C8" s="409"/>
-      <c r="D8" s="410"/>
-      <c r="E8" s="410"/>
-      <c r="F8" s="410"/>
-      <c r="G8" s="410"/>
-      <c r="H8" s="410"/>
-      <c r="I8" s="410"/>
-      <c r="J8" s="410"/>
-      <c r="K8" s="410"/>
+      <c r="C8" s="412"/>
+      <c r="D8" s="413"/>
+      <c r="E8" s="413"/>
+      <c r="F8" s="413"/>
+      <c r="G8" s="413"/>
+      <c r="H8" s="413"/>
+      <c r="I8" s="413"/>
+      <c r="J8" s="413"/>
+      <c r="K8" s="413"/>
       <c r="O8" t="s">
         <v>2657</v>
       </c>
@@ -56597,35 +57241,35 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="3:16" ht="15.75" thickBot="1">
-      <c r="C11" s="375" t="s">
+      <c r="C11" s="378" t="s">
         <v>2561</v>
       </c>
-      <c r="D11" s="376"/>
-      <c r="E11" s="376"/>
-      <c r="F11" s="376"/>
-      <c r="G11" s="376"/>
-      <c r="H11" s="376"/>
-      <c r="I11" s="376"/>
-      <c r="J11" s="376"/>
-      <c r="K11" s="376"/>
+      <c r="D11" s="379"/>
+      <c r="E11" s="379"/>
+      <c r="F11" s="379"/>
+      <c r="G11" s="379"/>
+      <c r="H11" s="379"/>
+      <c r="I11" s="379"/>
+      <c r="J11" s="379"/>
+      <c r="K11" s="379"/>
       <c r="N11" t="s">
         <v>2659</v>
       </c>
     </row>
     <row r="12" spans="3:16">
       <c r="C12" s="115"/>
-      <c r="D12" s="390" t="s">
+      <c r="D12" s="393" t="s">
         <v>2682</v>
       </c>
-      <c r="E12" s="391"/>
-      <c r="F12" s="391"/>
-      <c r="G12" s="391"/>
-      <c r="H12" s="392"/>
-      <c r="I12" s="399" t="s">
+      <c r="E12" s="394"/>
+      <c r="F12" s="394"/>
+      <c r="G12" s="394"/>
+      <c r="H12" s="395"/>
+      <c r="I12" s="402" t="s">
         <v>2670</v>
       </c>
-      <c r="J12" s="400"/>
-      <c r="K12" s="401"/>
+      <c r="J12" s="403"/>
+      <c r="K12" s="404"/>
       <c r="O12" t="s">
         <v>2660</v>
       </c>
@@ -56634,53 +57278,53 @@
       <c r="C13" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="393"/>
-      <c r="E13" s="394"/>
-      <c r="F13" s="394"/>
-      <c r="G13" s="394"/>
-      <c r="H13" s="395"/>
-      <c r="I13" s="402"/>
-      <c r="J13" s="403"/>
-      <c r="K13" s="404"/>
+      <c r="D13" s="396"/>
+      <c r="E13" s="397"/>
+      <c r="F13" s="397"/>
+      <c r="G13" s="397"/>
+      <c r="H13" s="398"/>
+      <c r="I13" s="405"/>
+      <c r="J13" s="406"/>
+      <c r="K13" s="407"/>
       <c r="P13" t="s">
         <v>2661</v>
       </c>
     </row>
     <row r="14" spans="3:16" ht="15.75" thickBot="1">
       <c r="C14" s="117"/>
-      <c r="D14" s="393"/>
-      <c r="E14" s="394"/>
-      <c r="F14" s="394"/>
-      <c r="G14" s="394"/>
-      <c r="H14" s="395"/>
-      <c r="I14" s="402"/>
-      <c r="J14" s="403"/>
-      <c r="K14" s="404"/>
+      <c r="D14" s="396"/>
+      <c r="E14" s="397"/>
+      <c r="F14" s="397"/>
+      <c r="G14" s="397"/>
+      <c r="H14" s="398"/>
+      <c r="I14" s="405"/>
+      <c r="J14" s="406"/>
+      <c r="K14" s="407"/>
     </row>
     <row r="15" spans="3:16">
       <c r="C15" s="115"/>
-      <c r="D15" s="393"/>
-      <c r="E15" s="394"/>
-      <c r="F15" s="394"/>
-      <c r="G15" s="394"/>
-      <c r="H15" s="395"/>
-      <c r="I15" s="402"/>
-      <c r="J15" s="403"/>
-      <c r="K15" s="404"/>
+      <c r="D15" s="396"/>
+      <c r="E15" s="397"/>
+      <c r="F15" s="397"/>
+      <c r="G15" s="397"/>
+      <c r="H15" s="398"/>
+      <c r="I15" s="405"/>
+      <c r="J15" s="406"/>
+      <c r="K15" s="407"/>
       <c r="O15" t="s">
         <v>2662</v>
       </c>
     </row>
     <row r="16" spans="3:16">
       <c r="C16" s="116"/>
-      <c r="D16" s="393"/>
-      <c r="E16" s="394"/>
-      <c r="F16" s="394"/>
-      <c r="G16" s="394"/>
-      <c r="H16" s="395"/>
-      <c r="I16" s="402"/>
-      <c r="J16" s="403"/>
-      <c r="K16" s="404"/>
+      <c r="D16" s="396"/>
+      <c r="E16" s="397"/>
+      <c r="F16" s="397"/>
+      <c r="G16" s="397"/>
+      <c r="H16" s="398"/>
+      <c r="I16" s="405"/>
+      <c r="J16" s="406"/>
+      <c r="K16" s="407"/>
       <c r="P16" t="s">
         <v>2663</v>
       </c>
@@ -56689,39 +57333,39 @@
       <c r="C17" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="393"/>
-      <c r="E17" s="394"/>
-      <c r="F17" s="394"/>
-      <c r="G17" s="394"/>
-      <c r="H17" s="395"/>
-      <c r="I17" s="402"/>
-      <c r="J17" s="403"/>
-      <c r="K17" s="404"/>
+      <c r="D17" s="396"/>
+      <c r="E17" s="397"/>
+      <c r="F17" s="397"/>
+      <c r="G17" s="397"/>
+      <c r="H17" s="398"/>
+      <c r="I17" s="405"/>
+      <c r="J17" s="406"/>
+      <c r="K17" s="407"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" thickBot="1">
       <c r="C18" s="117"/>
-      <c r="D18" s="393"/>
-      <c r="E18" s="394"/>
-      <c r="F18" s="394"/>
-      <c r="G18" s="394"/>
-      <c r="H18" s="395"/>
-      <c r="I18" s="402"/>
-      <c r="J18" s="403"/>
-      <c r="K18" s="404"/>
+      <c r="D18" s="396"/>
+      <c r="E18" s="397"/>
+      <c r="F18" s="397"/>
+      <c r="G18" s="397"/>
+      <c r="H18" s="398"/>
+      <c r="I18" s="405"/>
+      <c r="J18" s="406"/>
+      <c r="K18" s="407"/>
       <c r="M18" t="s">
         <v>2664</v>
       </c>
     </row>
     <row r="19" spans="2:16">
       <c r="C19" s="116"/>
-      <c r="D19" s="393"/>
-      <c r="E19" s="394"/>
-      <c r="F19" s="394"/>
-      <c r="G19" s="394"/>
-      <c r="H19" s="395"/>
-      <c r="I19" s="402"/>
-      <c r="J19" s="403"/>
-      <c r="K19" s="404"/>
+      <c r="D19" s="396"/>
+      <c r="E19" s="397"/>
+      <c r="F19" s="397"/>
+      <c r="G19" s="397"/>
+      <c r="H19" s="398"/>
+      <c r="I19" s="405"/>
+      <c r="J19" s="406"/>
+      <c r="K19" s="407"/>
       <c r="N19" t="s">
         <v>2665</v>
       </c>
@@ -56730,45 +57374,45 @@
       <c r="C20" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="393"/>
-      <c r="E20" s="394"/>
-      <c r="F20" s="394"/>
-      <c r="G20" s="394"/>
-      <c r="H20" s="395"/>
-      <c r="I20" s="402"/>
-      <c r="J20" s="403"/>
-      <c r="K20" s="404"/>
+      <c r="D20" s="396"/>
+      <c r="E20" s="397"/>
+      <c r="F20" s="397"/>
+      <c r="G20" s="397"/>
+      <c r="H20" s="398"/>
+      <c r="I20" s="405"/>
+      <c r="J20" s="406"/>
+      <c r="K20" s="407"/>
       <c r="N20" t="s">
         <v>2666</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="15.75" thickBot="1">
       <c r="C21" s="117"/>
-      <c r="D21" s="396"/>
-      <c r="E21" s="397"/>
-      <c r="F21" s="397"/>
-      <c r="G21" s="397"/>
-      <c r="H21" s="398"/>
-      <c r="I21" s="402"/>
-      <c r="J21" s="403"/>
-      <c r="K21" s="404"/>
+      <c r="D21" s="399"/>
+      <c r="E21" s="400"/>
+      <c r="F21" s="400"/>
+      <c r="G21" s="400"/>
+      <c r="H21" s="401"/>
+      <c r="I21" s="405"/>
+      <c r="J21" s="406"/>
+      <c r="K21" s="407"/>
       <c r="N21" t="s">
         <v>2667</v>
       </c>
     </row>
     <row r="22" spans="2:16">
-      <c r="D22" s="411" t="s">
+      <c r="D22" s="414" t="s">
         <v>2436</v>
       </c>
-      <c r="E22" s="411"/>
-      <c r="F22" s="411"/>
-      <c r="G22" s="411"/>
-      <c r="H22" s="411"/>
-      <c r="I22" s="411" t="s">
+      <c r="E22" s="414"/>
+      <c r="F22" s="414"/>
+      <c r="G22" s="414"/>
+      <c r="H22" s="414"/>
+      <c r="I22" s="414" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="411"/>
-      <c r="K22" s="411"/>
+      <c r="J22" s="414"/>
+      <c r="K22" s="414"/>
       <c r="N22" t="s">
         <v>2668</v>
       </c>
@@ -59352,10 +59996,10 @@
       </c>
       <c r="G121" s="23"/>
       <c r="H121" s="24"/>
-      <c r="I121" s="414" t="s">
+      <c r="I121" s="417" t="s">
         <v>2438</v>
       </c>
-      <c r="J121" s="414" t="s">
+      <c r="J121" s="417" t="s">
         <v>2442</v>
       </c>
       <c r="K121" s="20"/>
@@ -59371,8 +60015,8 @@
       <c r="H122" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="I122" s="415"/>
-      <c r="J122" s="415"/>
+      <c r="I122" s="418"/>
+      <c r="J122" s="418"/>
       <c r="K122" s="20"/>
       <c r="L122" s="20"/>
       <c r="M122" s="27"/>
@@ -59386,8 +60030,8 @@
       <c r="H123" s="20">
         <v>19</v>
       </c>
-      <c r="I123" s="415"/>
-      <c r="J123" s="415"/>
+      <c r="I123" s="418"/>
+      <c r="J123" s="418"/>
       <c r="K123" s="20"/>
       <c r="L123" s="20"/>
       <c r="M123" s="27"/>
@@ -59401,8 +60045,8 @@
       <c r="H124" s="29" t="s">
         <v>1692</v>
       </c>
-      <c r="I124" s="415"/>
-      <c r="J124" s="415"/>
+      <c r="I124" s="418"/>
+      <c r="J124" s="418"/>
       <c r="K124" s="20"/>
       <c r="L124" s="20"/>
       <c r="M124" s="27"/>
@@ -59412,8 +60056,8 @@
       <c r="F125" s="20"/>
       <c r="G125" s="20"/>
       <c r="H125" s="20"/>
-      <c r="I125" s="415"/>
-      <c r="J125" s="415"/>
+      <c r="I125" s="418"/>
+      <c r="J125" s="418"/>
       <c r="K125" s="20"/>
       <c r="L125" s="20"/>
       <c r="M125" s="27"/>
@@ -59426,8 +60070,8 @@
       <c r="F126" s="20"/>
       <c r="G126" s="20"/>
       <c r="H126" s="20"/>
-      <c r="I126" s="415"/>
-      <c r="J126" s="415"/>
+      <c r="I126" s="418"/>
+      <c r="J126" s="418"/>
       <c r="K126" s="20"/>
       <c r="L126" s="20"/>
       <c r="M126" s="27"/>
@@ -59439,8 +60083,8 @@
       </c>
       <c r="G127" s="23"/>
       <c r="H127" s="24"/>
-      <c r="I127" s="415"/>
-      <c r="J127" s="415"/>
+      <c r="I127" s="418"/>
+      <c r="J127" s="418"/>
       <c r="K127" s="20"/>
       <c r="L127" s="20"/>
       <c r="M127" s="27"/>
@@ -59454,8 +60098,8 @@
       <c r="H128" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="I128" s="415"/>
-      <c r="J128" s="415"/>
+      <c r="I128" s="418"/>
+      <c r="J128" s="418"/>
       <c r="K128" s="20"/>
       <c r="L128" s="20"/>
       <c r="M128" s="27"/>
@@ -59469,8 +60113,8 @@
       <c r="H129" s="20">
         <v>20</v>
       </c>
-      <c r="I129" s="415"/>
-      <c r="J129" s="415"/>
+      <c r="I129" s="418"/>
+      <c r="J129" s="418"/>
       <c r="K129" s="20"/>
       <c r="L129" s="20"/>
       <c r="M129" s="27"/>
@@ -59484,8 +60128,8 @@
       <c r="H130" s="29" t="s">
         <v>2434</v>
       </c>
-      <c r="I130" s="415"/>
-      <c r="J130" s="415"/>
+      <c r="I130" s="418"/>
+      <c r="J130" s="418"/>
       <c r="K130" s="20"/>
       <c r="L130" s="20"/>
       <c r="M130" s="27"/>
@@ -59495,8 +60139,8 @@
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
       <c r="H131" s="20"/>
-      <c r="I131" s="415"/>
-      <c r="J131" s="415"/>
+      <c r="I131" s="418"/>
+      <c r="J131" s="418"/>
       <c r="K131" s="20"/>
       <c r="L131" s="20"/>
       <c r="M131" s="27"/>
@@ -59508,8 +60152,8 @@
       </c>
       <c r="G132" s="23"/>
       <c r="H132" s="24"/>
-      <c r="I132" s="415"/>
-      <c r="J132" s="415"/>
+      <c r="I132" s="418"/>
+      <c r="J132" s="418"/>
       <c r="K132" s="20"/>
       <c r="L132" s="20"/>
       <c r="M132" s="27"/>
@@ -59523,8 +60167,8 @@
       <c r="H133" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="I133" s="415"/>
-      <c r="J133" s="415"/>
+      <c r="I133" s="418"/>
+      <c r="J133" s="418"/>
       <c r="K133" s="20"/>
       <c r="L133" s="20"/>
       <c r="M133" s="27"/>
@@ -59538,8 +60182,8 @@
       <c r="H134" s="20">
         <v>18</v>
       </c>
-      <c r="I134" s="415"/>
-      <c r="J134" s="415"/>
+      <c r="I134" s="418"/>
+      <c r="J134" s="418"/>
       <c r="K134" s="20"/>
       <c r="L134" s="20"/>
       <c r="M134" s="27"/>
@@ -59553,8 +60197,8 @@
       <c r="H135" s="29" t="s">
         <v>2435</v>
       </c>
-      <c r="I135" s="416"/>
-      <c r="J135" s="416"/>
+      <c r="I135" s="419"/>
+      <c r="J135" s="419"/>
       <c r="K135" s="20"/>
       <c r="L135" s="20"/>
       <c r="M135" s="27"/>
@@ -59634,8 +60278,8 @@
       <c r="H147" s="24" t="s">
         <v>2441</v>
       </c>
-      <c r="I147" s="417"/>
-      <c r="J147" s="417"/>
+      <c r="I147" s="420"/>
+      <c r="J147" s="420"/>
       <c r="K147" s="20"/>
       <c r="L147" s="20"/>
       <c r="M147" s="27"/>
@@ -59649,8 +60293,8 @@
       <c r="H148" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="I148" s="418"/>
-      <c r="J148" s="418"/>
+      <c r="I148" s="421"/>
+      <c r="J148" s="421"/>
       <c r="K148" s="20"/>
       <c r="L148" s="20"/>
       <c r="M148" s="27"/>
@@ -59664,8 +60308,8 @@
       <c r="H149" s="20">
         <v>19</v>
       </c>
-      <c r="I149" s="418"/>
-      <c r="J149" s="418"/>
+      <c r="I149" s="421"/>
+      <c r="J149" s="421"/>
       <c r="K149" s="20"/>
       <c r="L149" s="20"/>
       <c r="M149" s="27"/>
@@ -59679,8 +60323,8 @@
       <c r="H150" s="29" t="s">
         <v>1692</v>
       </c>
-      <c r="I150" s="418"/>
-      <c r="J150" s="418"/>
+      <c r="I150" s="421"/>
+      <c r="J150" s="421"/>
       <c r="K150" s="20"/>
       <c r="L150" s="20"/>
       <c r="M150" s="27"/>
@@ -59690,8 +60334,8 @@
       <c r="F151" s="20"/>
       <c r="G151" s="20"/>
       <c r="H151" s="20"/>
-      <c r="I151" s="418"/>
-      <c r="J151" s="418"/>
+      <c r="I151" s="421"/>
+      <c r="J151" s="421"/>
       <c r="K151" s="20"/>
       <c r="L151" s="20"/>
       <c r="M151" s="27"/>
@@ -59701,8 +60345,8 @@
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
-      <c r="I152" s="418"/>
-      <c r="J152" s="418"/>
+      <c r="I152" s="421"/>
+      <c r="J152" s="421"/>
       <c r="K152" s="20"/>
       <c r="L152" s="20"/>
       <c r="M152" s="27"/>
@@ -59718,8 +60362,8 @@
       <c r="H153" s="24" t="s">
         <v>2441</v>
       </c>
-      <c r="I153" s="418"/>
-      <c r="J153" s="418"/>
+      <c r="I153" s="421"/>
+      <c r="J153" s="421"/>
       <c r="K153" s="20"/>
       <c r="L153" s="20"/>
       <c r="M153" s="27"/>
@@ -59736,8 +60380,8 @@
       <c r="H154" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="I154" s="418"/>
-      <c r="J154" s="418"/>
+      <c r="I154" s="421"/>
+      <c r="J154" s="421"/>
       <c r="K154" s="20"/>
       <c r="L154" s="20"/>
       <c r="M154" s="27"/>
@@ -59751,8 +60395,8 @@
       <c r="H155" s="20">
         <v>20</v>
       </c>
-      <c r="I155" s="418"/>
-      <c r="J155" s="418"/>
+      <c r="I155" s="421"/>
+      <c r="J155" s="421"/>
       <c r="K155" s="20"/>
       <c r="L155" s="20"/>
       <c r="M155" s="27"/>
@@ -59766,8 +60410,8 @@
       <c r="H156" s="29" t="s">
         <v>2434</v>
       </c>
-      <c r="I156" s="418"/>
-      <c r="J156" s="418"/>
+      <c r="I156" s="421"/>
+      <c r="J156" s="421"/>
       <c r="K156" s="20"/>
       <c r="L156" s="20"/>
       <c r="M156" s="27"/>
@@ -59777,8 +60421,8 @@
       <c r="F157" s="20"/>
       <c r="G157" s="20"/>
       <c r="H157" s="20"/>
-      <c r="I157" s="418"/>
-      <c r="J157" s="418"/>
+      <c r="I157" s="421"/>
+      <c r="J157" s="421"/>
       <c r="K157" s="20"/>
       <c r="L157" s="20"/>
       <c r="M157" s="27"/>
@@ -59794,8 +60438,8 @@
       <c r="H158" s="24" t="s">
         <v>2441</v>
       </c>
-      <c r="I158" s="418"/>
-      <c r="J158" s="418"/>
+      <c r="I158" s="421"/>
+      <c r="J158" s="421"/>
       <c r="K158" s="20"/>
       <c r="L158" s="20"/>
       <c r="M158" s="27"/>
@@ -59809,8 +60453,8 @@
       <c r="H159" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="I159" s="418"/>
-      <c r="J159" s="418"/>
+      <c r="I159" s="421"/>
+      <c r="J159" s="421"/>
       <c r="K159" s="20"/>
       <c r="L159" s="20"/>
       <c r="M159" s="27"/>
@@ -59824,8 +60468,8 @@
       <c r="H160" s="20">
         <v>18</v>
       </c>
-      <c r="I160" s="418"/>
-      <c r="J160" s="418"/>
+      <c r="I160" s="421"/>
+      <c r="J160" s="421"/>
       <c r="K160" s="20"/>
       <c r="L160" s="20"/>
       <c r="M160" s="27"/>
@@ -59839,8 +60483,8 @@
       <c r="H161" s="29" t="s">
         <v>2435</v>
       </c>
-      <c r="I161" s="419"/>
-      <c r="J161" s="419"/>
+      <c r="I161" s="422"/>
+      <c r="J161" s="422"/>
       <c r="K161" s="20"/>
       <c r="L161" s="20"/>
       <c r="M161" s="27"/>
@@ -60799,7 +61443,7 @@
       <c r="F269" s="32">
         <v>9</v>
       </c>
-      <c r="G269" s="412" t="s">
+      <c r="G269" s="415" t="s">
         <v>2088</v>
       </c>
       <c r="I269" s="48" t="s">
@@ -60820,7 +61464,7 @@
       <c r="F270" s="32">
         <v>15</v>
       </c>
-      <c r="G270" s="413"/>
+      <c r="G270" s="416"/>
       <c r="I270" s="137" t="s">
         <v>2084</v>
       </c>
@@ -61856,7 +62500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A93" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
